--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F8A62F-FC9B-421F-8066-57F5375D2A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{857A1E1F-C170-415C-A87C-8291CFB3E802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Veda" sheetId="1" r:id="rId1"/>
-    <sheet name="historical_data_long" sheetId="3" r:id="rId2"/>
+    <sheet name="grids_capacity" sheetId="4" r:id="rId1"/>
+    <sheet name="Veda" sheetId="1" r:id="rId2"/>
+    <sheet name="historical_data_long" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -96,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="288">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -327,6 +328,639 @@
   </si>
   <si>
     <t>UC_RHSRT~2050</t>
+  </si>
+  <si>
+    <t>pasti</t>
+  </si>
+  <si>
+    <t>g_CH1-220-CH2-220</t>
+  </si>
+  <si>
+    <t>g_CH11-220-w147557680-220</t>
+  </si>
+  <si>
+    <t>g_CH12-220-w207993342-220</t>
+  </si>
+  <si>
+    <t>g_CH12-380-w207993342-380</t>
+  </si>
+  <si>
+    <t>g_CH13-220-CH12-220</t>
+  </si>
+  <si>
+    <t>g_CH13-220-w52738225-220</t>
+  </si>
+  <si>
+    <t>g_CH14-220-w212722603-220</t>
+  </si>
+  <si>
+    <t>g_CH14-220-w402053379-220</t>
+  </si>
+  <si>
+    <t>g_CH14-380-w50319857-380</t>
+  </si>
+  <si>
+    <t>g_CH15-220-w159527493-220</t>
+  </si>
+  <si>
+    <t>g_CH15-220-w97941869-220</t>
+  </si>
+  <si>
+    <t>g_CH17-380-w71500123-380</t>
+  </si>
+  <si>
+    <t>g_CH18-380-CH16-380</t>
+  </si>
+  <si>
+    <t>g_CH19-220-CH14-220</t>
+  </si>
+  <si>
+    <t>g_CH19-220-CH20-220</t>
+  </si>
+  <si>
+    <t>g_CH2-220-w50319857-220</t>
+  </si>
+  <si>
+    <t>g_CH20-220-CH19-220</t>
+  </si>
+  <si>
+    <t>g_CH21-220-w36348118-220</t>
+  </si>
+  <si>
+    <t>g_CH22-380-CH29-380</t>
+  </si>
+  <si>
+    <t>g_CH23-220-CH24-220</t>
+  </si>
+  <si>
+    <t>g_CH24-220-CH26-220</t>
+  </si>
+  <si>
+    <t>g_CH25-220-w240959264-220</t>
+  </si>
+  <si>
+    <t>g_CH26-220-CH28-220</t>
+  </si>
+  <si>
+    <t>g_CH27-220-CH25-220</t>
+  </si>
+  <si>
+    <t>g_CH27-220-w1086214433-220</t>
+  </si>
+  <si>
+    <t>g_CH28-220-w431234146-220</t>
+  </si>
+  <si>
+    <t>g_CH3-220-w281809991-220</t>
+  </si>
+  <si>
+    <t>g_CH30-380-CH33-380</t>
+  </si>
+  <si>
+    <t>g_CH30-380-w208780268-380</t>
+  </si>
+  <si>
+    <t>g_CH31-220-w132373704-220</t>
+  </si>
+  <si>
+    <t>g_CH32-220-w281803398-220</t>
+  </si>
+  <si>
+    <t>g_CH33-380-CH37-380</t>
+  </si>
+  <si>
+    <t>g_CH34-220-CH35-220</t>
+  </si>
+  <si>
+    <t>g_CH36-220-CH27-220</t>
+  </si>
+  <si>
+    <t>g_CH36-220-CH39-220</t>
+  </si>
+  <si>
+    <t>g_CH37-380-w207991759-380</t>
+  </si>
+  <si>
+    <t>g_CH38-220-CH39-220</t>
+  </si>
+  <si>
+    <t>g_CH38-220-w1092884227-220</t>
+  </si>
+  <si>
+    <t>g_CH39-220-CH36-220</t>
+  </si>
+  <si>
+    <t>g_CH4-220-CH9-220</t>
+  </si>
+  <si>
+    <t>g_CH4-220-w92873516-220</t>
+  </si>
+  <si>
+    <t>g_CH40-220-CH35-220</t>
+  </si>
+  <si>
+    <t>g_CH41-380-w207993342-380</t>
+  </si>
+  <si>
+    <t>g_CH41-380-w281804158-380</t>
+  </si>
+  <si>
+    <t>g_CH42-220-w969811258-220</t>
+  </si>
+  <si>
+    <t>g_CH43-220-CH44-220</t>
+  </si>
+  <si>
+    <t>g_CH43-220-w402055336-220</t>
+  </si>
+  <si>
+    <t>g_CH44-220-w234983117-220</t>
+  </si>
+  <si>
+    <t>g_CH45-220-CH29-220</t>
+  </si>
+  <si>
+    <t>g_CH46-220-CH47-220</t>
+  </si>
+  <si>
+    <t>g_CH47-220-w212722603-220</t>
+  </si>
+  <si>
+    <t>g_CH49-225-CH48-225</t>
+  </si>
+  <si>
+    <t>g_CH5-220-w89977424-220</t>
+  </si>
+  <si>
+    <t>g_CH50-220-w281804158-220</t>
+  </si>
+  <si>
+    <t>g_CH53-225-CH49-225</t>
+  </si>
+  <si>
+    <t>g_CH53-225-w55698557-225</t>
+  </si>
+  <si>
+    <t>g_CH56-220-CH58-220</t>
+  </si>
+  <si>
+    <t>g_CH56-220-w281815404-220</t>
+  </si>
+  <si>
+    <t>g_CH59-220-w281800404-220</t>
+  </si>
+  <si>
+    <t>g_CH6-220-CH3-220</t>
+  </si>
+  <si>
+    <t>g_CH60-225-CH53-225</t>
+  </si>
+  <si>
+    <t>g_CH7-220-w89405664-220</t>
+  </si>
+  <si>
+    <t>g_CH9-220-w455120191-220</t>
+  </si>
+  <si>
+    <t>g_r5378910-220-w1105061707-220</t>
+  </si>
+  <si>
+    <t>g_r7933294-380-CH30-380</t>
+  </si>
+  <si>
+    <t>g_r9310861-220-w11282314-220</t>
+  </si>
+  <si>
+    <t>g_w100662075-220-w210568055-220</t>
+  </si>
+  <si>
+    <t>g_w108257952-220-w33271433-220</t>
+  </si>
+  <si>
+    <t>g_w108257952-220-w35002638-220</t>
+  </si>
+  <si>
+    <t>g_w109037817-220-CH2-220</t>
+  </si>
+  <si>
+    <t>g_w109037817-380-w397960460-380</t>
+  </si>
+  <si>
+    <t>g_w1105061707-220-CH14-220</t>
+  </si>
+  <si>
+    <t>g_w1105061707-220-w402053379-220</t>
+  </si>
+  <si>
+    <t>g_w1105061707-220-w402055336-220</t>
+  </si>
+  <si>
+    <t>g_w111162936-220-CH31-220</t>
+  </si>
+  <si>
+    <t>g_w111162936-220-w55698557-220</t>
+  </si>
+  <si>
+    <t>g_w111162936-380-w936521586-380</t>
+  </si>
+  <si>
+    <t>g_w11282314-220-CH12-220</t>
+  </si>
+  <si>
+    <t>g_w11282314-220-CH6-220</t>
+  </si>
+  <si>
+    <t>g_w1208713169-220-w207993342-220</t>
+  </si>
+  <si>
+    <t>g_w1208713169-220-w212498548-220</t>
+  </si>
+  <si>
+    <t>g_w122720993-220-w1105061707-220</t>
+  </si>
+  <si>
+    <t>g_w127004407-380-CH14-380</t>
+  </si>
+  <si>
+    <t>g_w127004407-380-w1105061707-380</t>
+  </si>
+  <si>
+    <t>g_w127004407-380-w50319857-380</t>
+  </si>
+  <si>
+    <t>g_w1284913429-220-w165513396-220</t>
+  </si>
+  <si>
+    <t>g_w1327084723-220-CH42-220</t>
+  </si>
+  <si>
+    <t>g_w1327084723-220-w281800404-220</t>
+  </si>
+  <si>
+    <t>g_w140873735-220-CH23-220</t>
+  </si>
+  <si>
+    <t>g_w140873735-220-w130198336-220</t>
+  </si>
+  <si>
+    <t>g_w140873735-220-w35002638-220</t>
+  </si>
+  <si>
+    <t>g_w146225999-220-w35002638-220</t>
+  </si>
+  <si>
+    <t>g_w147557680-220-CH14-220</t>
+  </si>
+  <si>
+    <t>g_w147714395-220-CH3-220</t>
+  </si>
+  <si>
+    <t>g_w147714395-220-w22899676-220</t>
+  </si>
+  <si>
+    <t>g_w147714395-380-CH17-380</t>
+  </si>
+  <si>
+    <t>g_w147714395-380-w192677427-380</t>
+  </si>
+  <si>
+    <t>g_w148015471-220-r9310861-220</t>
+  </si>
+  <si>
+    <t>g_w148015471-220-w31308888-220</t>
+  </si>
+  <si>
+    <t>g_w159527493-220-w240959264-220</t>
+  </si>
+  <si>
+    <t>g_w161853746-220-r5378910-220</t>
+  </si>
+  <si>
+    <t>g_w161853746-220-w1105061707-220</t>
+  </si>
+  <si>
+    <t>g_w165254212-220-w147557680-220</t>
+  </si>
+  <si>
+    <t>g_w165513396-220-w33271433-220</t>
+  </si>
+  <si>
+    <t>g_w177392130-220-CH51-220</t>
+  </si>
+  <si>
+    <t>g_w177392130-220-CH52-220</t>
+  </si>
+  <si>
+    <t>g_w177392130-220-CH57-220</t>
+  </si>
+  <si>
+    <t>g_w177392130-400-CH51-400</t>
+  </si>
+  <si>
+    <t>g_w190819048-220-CH7-220</t>
+  </si>
+  <si>
+    <t>g_w190819048-220-w50319857-220</t>
+  </si>
+  <si>
+    <t>g_w192677427-220-CH13-220</t>
+  </si>
+  <si>
+    <t>g_w192677427-220-CH18-220</t>
+  </si>
+  <si>
+    <t>g_w192677427-220-w147714395-220</t>
+  </si>
+  <si>
+    <t>g_w192677427-220-w240575085-220</t>
+  </si>
+  <si>
+    <t>g_w192677427-380-CH16-380</t>
+  </si>
+  <si>
+    <t>g_w194258388-220-w122720993-220</t>
+  </si>
+  <si>
+    <t>g_w207993342-220-CH22-220</t>
+  </si>
+  <si>
+    <t>g_w208780268-380-w207993342-380</t>
+  </si>
+  <si>
+    <t>g_w209324991-220-w758315582-220</t>
+  </si>
+  <si>
+    <t>g_w210568055-220-w192677427-220</t>
+  </si>
+  <si>
+    <t>g_w210568055-220-w365556107-220</t>
+  </si>
+  <si>
+    <t>g_w210568055-380-CH16-380</t>
+  </si>
+  <si>
+    <t>g_w210568055-380-w71500123-380</t>
+  </si>
+  <si>
+    <t>g_w211907009-220-CH21-220</t>
+  </si>
+  <si>
+    <t>g_w211907009-220-w455120191-220</t>
+  </si>
+  <si>
+    <t>g_w212722603-220-w234983117-220</t>
+  </si>
+  <si>
+    <t>g_w212722603-220-w236819191-220</t>
+  </si>
+  <si>
+    <t>g_w212722603-380-w234983117-380</t>
+  </si>
+  <si>
+    <t>g_w22899676-220-CH3-220</t>
+  </si>
+  <si>
+    <t>g_w232662311-220-w111162936-220</t>
+  </si>
+  <si>
+    <t>g_w236819191-220-CH47-220</t>
+  </si>
+  <si>
+    <t>g_w236819191-220-w228003081-220</t>
+  </si>
+  <si>
+    <t>g_w238138373-380-w260211728-380</t>
+  </si>
+  <si>
+    <t>g_w239937062-220-CH52-220</t>
+  </si>
+  <si>
+    <t>g_w239937062-220-w132373704-220</t>
+  </si>
+  <si>
+    <t>g_w240575085-220-CH6-220</t>
+  </si>
+  <si>
+    <t>g_w240959264-220-CH20-220</t>
+  </si>
+  <si>
+    <t>g_w240959264-220-CH27-220</t>
+  </si>
+  <si>
+    <t>g_w240959264-220-w209324991-220</t>
+  </si>
+  <si>
+    <t>g_w242269161-220-CH14-220</t>
+  </si>
+  <si>
+    <t>g_w260211728-380-w936521586-380</t>
+  </si>
+  <si>
+    <t>g_w26166640-220-w758315582-220</t>
+  </si>
+  <si>
+    <t>g_w26843160-220-w92798668-220</t>
+  </si>
+  <si>
+    <t>g_w27107779-220-w147714395-220</t>
+  </si>
+  <si>
+    <t>g_w27435934-220-w109037817-220</t>
+  </si>
+  <si>
+    <t>g_w27435934-220-w30350721-220</t>
+  </si>
+  <si>
+    <t>g_w281799252-220-w52738225-220</t>
+  </si>
+  <si>
+    <t>g_w281800404-220-CH59-220</t>
+  </si>
+  <si>
+    <t>g_w281800404-220-w281815404-220</t>
+  </si>
+  <si>
+    <t>g_w281803398-220-CH50-220</t>
+  </si>
+  <si>
+    <t>g_w281809991-220-w26843160-220</t>
+  </si>
+  <si>
+    <t>g_w281815404-220-CH50-220</t>
+  </si>
+  <si>
+    <t>g_w281815404-220-CH58-220</t>
+  </si>
+  <si>
+    <t>g_w281815404-220-w35487135-220</t>
+  </si>
+  <si>
+    <t>g_w281822905-220-CH38-220</t>
+  </si>
+  <si>
+    <t>g_w281822905-220-CH42-220</t>
+  </si>
+  <si>
+    <t>g_w30350721-220-w356292116-220</t>
+  </si>
+  <si>
+    <t>g_w31308888-220-w89977424-220</t>
+  </si>
+  <si>
+    <t>g_w33271433-220-CH5-220</t>
+  </si>
+  <si>
+    <t>g_w35002638-220-CH15-220</t>
+  </si>
+  <si>
+    <t>g_w35002638-220-w140873735-220</t>
+  </si>
+  <si>
+    <t>g_w35002638-220-w242269161-220</t>
+  </si>
+  <si>
+    <t>g_w35002638-220-w281799252-220</t>
+  </si>
+  <si>
+    <t>g_w35002638-380-w52738225-380</t>
+  </si>
+  <si>
+    <t>g_w356292116-220-CH11-220</t>
+  </si>
+  <si>
+    <t>g_w356292116-220-w146225999-220</t>
+  </si>
+  <si>
+    <t>g_w356292116-220-w35002638-220</t>
+  </si>
+  <si>
+    <t>g_w356292116-220-w50319857-220</t>
+  </si>
+  <si>
+    <t>g_w356292116-380-w35002638-380</t>
+  </si>
+  <si>
+    <t>g_w356292116-380-w50319857-380</t>
+  </si>
+  <si>
+    <t>g_w35840165-380-w98648381-380</t>
+  </si>
+  <si>
+    <t>g_w364949845-220-w969819301-220</t>
+  </si>
+  <si>
+    <t>g_w364949845-380-CH34-380</t>
+  </si>
+  <si>
+    <t>g_w365556107-220-w71500123-220</t>
+  </si>
+  <si>
+    <t>g_w391577741-220-w391576135-220</t>
+  </si>
+  <si>
+    <t>g_w397960460-380-w50319857-380</t>
+  </si>
+  <si>
+    <t>g_w402053379-220-w190819048-220</t>
+  </si>
+  <si>
+    <t>g_w431234146-220-CH35-220</t>
+  </si>
+  <si>
+    <t>g_w431234146-220-w969811258-220</t>
+  </si>
+  <si>
+    <t>g_w44496892-220-CH31-220</t>
+  </si>
+  <si>
+    <t>g_w50319857-220-w98648381-220</t>
+  </si>
+  <si>
+    <t>g_w50319857-380-w35840165-380</t>
+  </si>
+  <si>
+    <t>g_w50319857-380-w98648381-380</t>
+  </si>
+  <si>
+    <t>g_w50561341-220-w147714395-220</t>
+  </si>
+  <si>
+    <t>g_w50561341-220-w87281514-220</t>
+  </si>
+  <si>
+    <t>g_w52738225-220-CH13-220</t>
+  </si>
+  <si>
+    <t>g_w52738225-380-CH12-380</t>
+  </si>
+  <si>
+    <t>g_w55695765-220-w111162936-220</t>
+  </si>
+  <si>
+    <t>g_w55698557-220-w194258388-220</t>
+  </si>
+  <si>
+    <t>g_w71500123-220-CH21-220</t>
+  </si>
+  <si>
+    <t>g_w71500123-380-w207993342-380</t>
+  </si>
+  <si>
+    <t>g_w758943072-220-w234983117-220</t>
+  </si>
+  <si>
+    <t>g_w802058337-220-w234983117-220</t>
+  </si>
+  <si>
+    <t>g_w802058337-220-w758943072-220</t>
+  </si>
+  <si>
+    <t>g_w802058337-225-CH60-225</t>
+  </si>
+  <si>
+    <t>g_w83861269-220-CH9-220</t>
+  </si>
+  <si>
+    <t>g_w89405664-220-w165513396-220</t>
+  </si>
+  <si>
+    <t>g_w89977424-220-CH5-220</t>
+  </si>
+  <si>
+    <t>g_w92798668-220-CH4-220</t>
+  </si>
+  <si>
+    <t>g_w92798668-220-w192677427-220</t>
+  </si>
+  <si>
+    <t>g_w92798668-220-w455120191-220</t>
+  </si>
+  <si>
+    <t>g_w936521586-380-w234983117-380</t>
+  </si>
+  <si>
+    <t>g_w969811258-380-w35002638-380</t>
+  </si>
+  <si>
+    <t>g_w969819301-220-CH46-220</t>
+  </si>
+  <si>
+    <t>g_w969819301-220-w391577741-220</t>
+  </si>
+  <si>
+    <t>g_w969819301-380-w364949845-380</t>
+  </si>
+  <si>
+    <t>g_w98648381-220-w165513396-220</t>
+  </si>
+  <si>
+    <t>g_w98648381-220-w27107779-220</t>
+  </si>
+  <si>
+    <t>g_w98648381-380-w147714395-380</t>
+  </si>
+  <si>
+    <t>g_w98648381-380-w165513396-380</t>
   </si>
 </sst>
 </file>
@@ -811,10 +1445,1720 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3922080-D7AB-4ED2-AEAD-43FE5570C1DF}">
+  <dimension ref="A1:B212"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="28.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="13">
+        <v>1.6981030000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="11">
+        <v>1.6981030000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="13">
+        <v>3.3962050000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="11">
+        <v>3.3962050000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="11">
+        <v>3.3962050000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="13">
+        <v>1.4746679999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="11">
+        <v>1.4746679999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="13">
+        <v>3.3962050000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="11">
+        <v>3.3962050000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="13">
+        <v>1.6981030000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="13">
+        <v>3.3962050000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" s="11">
+        <v>1.6981030000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" s="13">
+        <v>3.3962050000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B48" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" s="13">
+        <v>1.0054560000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B56" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="11">
+        <v>1.005455</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B58" s="13">
+        <v>1.005455</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B60" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B62" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B63" s="11">
+        <v>1.005455</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B64" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B65" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B66" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B67" s="11">
+        <v>3.3962050000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B68" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B70" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B71" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B72" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B73" s="11">
+        <v>1.6981030000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A75" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A76" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B76" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A78" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A79" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B79" s="11">
+        <v>1.6981030000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B80" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B81" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A82" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B82" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A83" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B83" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A84" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B84" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A85" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B85" s="11">
+        <v>1.6981030000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A86" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B86" s="13">
+        <v>1.6981030000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A87" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B87" s="11">
+        <v>1.6981030000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A88" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B88" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A89" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B89" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A90" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B90" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A91" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B91" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A92" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B92" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A93" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B93" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A94" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B94" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A95" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B95" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A96" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B96" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A97" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B97" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A98" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B98" s="13">
+        <v>3.3962050000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A99" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B99" s="11">
+        <v>1.6981030000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A100" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B100" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A101" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B101" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A102" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B102" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A103" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B103" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A104" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B104" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A105" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B105" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A106" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B106" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A107" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B107" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A108" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B108" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A109" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B109" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A110" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B110" s="13">
+        <v>1.7874760000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A111" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B111" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A112" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B112" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A113" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B113" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A114" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B114" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A115" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B115" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A116" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B116" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A117" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B117" s="11">
+        <v>1.6981030000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A118" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B118" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A119" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B119" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A120" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B120" s="13">
+        <v>3.3962050000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A121" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B121" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A122" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B122" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A123" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B123" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A124" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B124" s="13">
+        <v>1.6981030000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A125" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B125" s="11">
+        <v>1.6981030000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A126" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B126" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A127" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B127" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A128" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B128" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A129" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B129" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A130" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B130" s="13">
+        <v>3.3962050000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A131" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B131" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A132" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B132" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A133" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B133" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A134" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B134" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A135" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B135" s="11">
+        <v>3.3962050000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A136" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B136" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A137" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B137" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A138" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B138" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A139" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B139" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A140" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B140" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A141" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B141" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A142" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B142" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A143" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B143" s="11">
+        <v>3.3962050000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A144" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B144" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A145" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B145" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A146" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B146" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A147" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B147" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A148" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B148" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A149" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B149" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A150" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B150" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A151" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B151" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A152" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B152" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A153" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B153" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A154" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B154" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A155" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B155" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A156" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B156" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A157" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B157" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A158" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B158" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A159" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B159" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A160" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B160" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A161" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B161" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A162" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B162" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A163" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B163" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A164" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="B164" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A165" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B165" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A166" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="B166" s="13">
+        <v>1.6981030000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A167" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B167" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A168" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="B168" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A169" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B169" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A170" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="B170" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A171" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B171" s="11">
+        <v>3.3962060000000003</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A172" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="B172" s="13">
+        <v>1.6981030000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A173" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B173" s="11">
+        <v>1.6981030000000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A174" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="B174" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A175" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B175" s="11">
+        <v>1.6981030000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A176" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="B176" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A177" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B177" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A178" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="B178" s="13">
+        <v>1.6981030000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A179" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B179" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A180" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="B180" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A181" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B181" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A182" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="B182" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A183" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B183" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A184" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="B184" s="13">
+        <v>1.6981030000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A185" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B185" s="11">
+        <v>3.3962050000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A186" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="B186" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A187" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B187" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A188" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="B188" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A189" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B189" s="11">
+        <v>1.6981030000000001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A190" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B190" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A191" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="B191" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A192" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B192" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A193" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B193" s="11">
+        <v>3.3962060000000003</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A194" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B194" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A195" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B195" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A196" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="B196" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A197" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B197" s="11">
+        <v>1.005455</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A198" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B198" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A199" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="B199" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A200" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B200" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A201" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B201" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A202" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B202" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A203" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B203" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A204" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="B204" s="13">
+        <v>1.6981030000000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A205" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="B205" s="11">
+        <v>1.6981030000000001</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A206" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="B206" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A207" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B207" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A208" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="B208" s="13">
+        <v>3.3962050000000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A209" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B209" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A210" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="B210" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A211" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="B211" s="11">
+        <v>3.3962050000000001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A212" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="B212" s="13">
+        <v>1.6981030000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
@@ -1559,7 +3903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC33DFE9-8C65-4A33-8FAE-96323628CE2A}">
   <dimension ref="A1:D626"/>
   <sheetViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7A4F32F-7A52-4E0D-B3E3-1C2820711D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29FD8AC-D231-48E7-B703-107634929D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="grids_capacity" sheetId="4" r:id="rId1"/>
-    <sheet name="Veda" sheetId="1" r:id="rId2"/>
-    <sheet name="historical_data_long" sheetId="3" r:id="rId3"/>
+    <sheet name="Veda" sheetId="1" r:id="rId1"/>
+    <sheet name="historical_data_long" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -97,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="77">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -328,639 +327,6 @@
   </si>
   <si>
     <t>UC_RHSRT~2050</t>
-  </si>
-  <si>
-    <t>pasti</t>
-  </si>
-  <si>
-    <t>g_CH1-220-CH2-220</t>
-  </si>
-  <si>
-    <t>g_CH11-220-w147557680-220</t>
-  </si>
-  <si>
-    <t>g_CH12-220-w207993342-220</t>
-  </si>
-  <si>
-    <t>g_CH12-380-w207993342-380</t>
-  </si>
-  <si>
-    <t>g_CH13-220-CH12-220</t>
-  </si>
-  <si>
-    <t>g_CH13-220-w52738225-220</t>
-  </si>
-  <si>
-    <t>g_CH14-220-w212722603-220</t>
-  </si>
-  <si>
-    <t>g_CH14-220-w402053379-220</t>
-  </si>
-  <si>
-    <t>g_CH14-380-w50319857-380</t>
-  </si>
-  <si>
-    <t>g_CH15-220-w159527493-220</t>
-  </si>
-  <si>
-    <t>g_CH15-220-w97941869-220</t>
-  </si>
-  <si>
-    <t>g_CH17-380-w71500123-380</t>
-  </si>
-  <si>
-    <t>g_CH18-380-CH16-380</t>
-  </si>
-  <si>
-    <t>g_CH19-220-CH14-220</t>
-  </si>
-  <si>
-    <t>g_CH19-220-CH20-220</t>
-  </si>
-  <si>
-    <t>g_CH2-220-w50319857-220</t>
-  </si>
-  <si>
-    <t>g_CH20-220-CH19-220</t>
-  </si>
-  <si>
-    <t>g_CH21-220-w36348118-220</t>
-  </si>
-  <si>
-    <t>g_CH22-380-CH29-380</t>
-  </si>
-  <si>
-    <t>g_CH23-220-CH24-220</t>
-  </si>
-  <si>
-    <t>g_CH24-220-CH26-220</t>
-  </si>
-  <si>
-    <t>g_CH25-220-w240959264-220</t>
-  </si>
-  <si>
-    <t>g_CH26-220-CH28-220</t>
-  </si>
-  <si>
-    <t>g_CH27-220-CH25-220</t>
-  </si>
-  <si>
-    <t>g_CH27-220-w1086214433-220</t>
-  </si>
-  <si>
-    <t>g_CH28-220-w431234146-220</t>
-  </si>
-  <si>
-    <t>g_CH3-220-w281809991-220</t>
-  </si>
-  <si>
-    <t>g_CH30-380-CH33-380</t>
-  </si>
-  <si>
-    <t>g_CH30-380-w208780268-380</t>
-  </si>
-  <si>
-    <t>g_CH31-220-w132373704-220</t>
-  </si>
-  <si>
-    <t>g_CH32-220-w281803398-220</t>
-  </si>
-  <si>
-    <t>g_CH33-380-CH37-380</t>
-  </si>
-  <si>
-    <t>g_CH34-220-CH35-220</t>
-  </si>
-  <si>
-    <t>g_CH36-220-CH27-220</t>
-  </si>
-  <si>
-    <t>g_CH36-220-CH39-220</t>
-  </si>
-  <si>
-    <t>g_CH37-380-w207991759-380</t>
-  </si>
-  <si>
-    <t>g_CH38-220-CH39-220</t>
-  </si>
-  <si>
-    <t>g_CH38-220-w1092884227-220</t>
-  </si>
-  <si>
-    <t>g_CH39-220-CH36-220</t>
-  </si>
-  <si>
-    <t>g_CH4-220-CH9-220</t>
-  </si>
-  <si>
-    <t>g_CH4-220-w92873516-220</t>
-  </si>
-  <si>
-    <t>g_CH40-220-CH35-220</t>
-  </si>
-  <si>
-    <t>g_CH41-380-w207993342-380</t>
-  </si>
-  <si>
-    <t>g_CH41-380-w281804158-380</t>
-  </si>
-  <si>
-    <t>g_CH42-220-w969811258-220</t>
-  </si>
-  <si>
-    <t>g_CH43-220-CH44-220</t>
-  </si>
-  <si>
-    <t>g_CH43-220-w402055336-220</t>
-  </si>
-  <si>
-    <t>g_CH44-220-w234983117-220</t>
-  </si>
-  <si>
-    <t>g_CH45-220-CH29-220</t>
-  </si>
-  <si>
-    <t>g_CH46-220-CH47-220</t>
-  </si>
-  <si>
-    <t>g_CH47-220-w212722603-220</t>
-  </si>
-  <si>
-    <t>g_CH49-225-CH48-225</t>
-  </si>
-  <si>
-    <t>g_CH5-220-w89977424-220</t>
-  </si>
-  <si>
-    <t>g_CH50-220-w281804158-220</t>
-  </si>
-  <si>
-    <t>g_CH53-225-CH49-225</t>
-  </si>
-  <si>
-    <t>g_CH53-225-w55698557-225</t>
-  </si>
-  <si>
-    <t>g_CH56-220-CH58-220</t>
-  </si>
-  <si>
-    <t>g_CH56-220-w281815404-220</t>
-  </si>
-  <si>
-    <t>g_CH59-220-w281800404-220</t>
-  </si>
-  <si>
-    <t>g_CH6-220-CH3-220</t>
-  </si>
-  <si>
-    <t>g_CH60-225-CH53-225</t>
-  </si>
-  <si>
-    <t>g_CH7-220-w89405664-220</t>
-  </si>
-  <si>
-    <t>g_CH9-220-w455120191-220</t>
-  </si>
-  <si>
-    <t>g_r5378910-220-w1105061707-220</t>
-  </si>
-  <si>
-    <t>g_r7933294-380-CH30-380</t>
-  </si>
-  <si>
-    <t>g_r9310861-220-w11282314-220</t>
-  </si>
-  <si>
-    <t>g_w100662075-220-w210568055-220</t>
-  </si>
-  <si>
-    <t>g_w108257952-220-w33271433-220</t>
-  </si>
-  <si>
-    <t>g_w108257952-220-w35002638-220</t>
-  </si>
-  <si>
-    <t>g_w109037817-220-CH2-220</t>
-  </si>
-  <si>
-    <t>g_w109037817-380-w397960460-380</t>
-  </si>
-  <si>
-    <t>g_w1105061707-220-CH14-220</t>
-  </si>
-  <si>
-    <t>g_w1105061707-220-w402053379-220</t>
-  </si>
-  <si>
-    <t>g_w1105061707-220-w402055336-220</t>
-  </si>
-  <si>
-    <t>g_w111162936-220-CH31-220</t>
-  </si>
-  <si>
-    <t>g_w111162936-220-w55698557-220</t>
-  </si>
-  <si>
-    <t>g_w111162936-380-w936521586-380</t>
-  </si>
-  <si>
-    <t>g_w11282314-220-CH12-220</t>
-  </si>
-  <si>
-    <t>g_w11282314-220-CH6-220</t>
-  </si>
-  <si>
-    <t>g_w1208713169-220-w207993342-220</t>
-  </si>
-  <si>
-    <t>g_w1208713169-220-w212498548-220</t>
-  </si>
-  <si>
-    <t>g_w122720993-220-w1105061707-220</t>
-  </si>
-  <si>
-    <t>g_w127004407-380-CH14-380</t>
-  </si>
-  <si>
-    <t>g_w127004407-380-w1105061707-380</t>
-  </si>
-  <si>
-    <t>g_w127004407-380-w50319857-380</t>
-  </si>
-  <si>
-    <t>g_w1284913429-220-w165513396-220</t>
-  </si>
-  <si>
-    <t>g_w1327084723-220-CH42-220</t>
-  </si>
-  <si>
-    <t>g_w1327084723-220-w281800404-220</t>
-  </si>
-  <si>
-    <t>g_w140873735-220-CH23-220</t>
-  </si>
-  <si>
-    <t>g_w140873735-220-w130198336-220</t>
-  </si>
-  <si>
-    <t>g_w140873735-220-w35002638-220</t>
-  </si>
-  <si>
-    <t>g_w146225999-220-w35002638-220</t>
-  </si>
-  <si>
-    <t>g_w147557680-220-CH14-220</t>
-  </si>
-  <si>
-    <t>g_w147714395-220-CH3-220</t>
-  </si>
-  <si>
-    <t>g_w147714395-220-w22899676-220</t>
-  </si>
-  <si>
-    <t>g_w147714395-380-CH17-380</t>
-  </si>
-  <si>
-    <t>g_w147714395-380-w192677427-380</t>
-  </si>
-  <si>
-    <t>g_w148015471-220-r9310861-220</t>
-  </si>
-  <si>
-    <t>g_w148015471-220-w31308888-220</t>
-  </si>
-  <si>
-    <t>g_w159527493-220-w240959264-220</t>
-  </si>
-  <si>
-    <t>g_w161853746-220-r5378910-220</t>
-  </si>
-  <si>
-    <t>g_w161853746-220-w1105061707-220</t>
-  </si>
-  <si>
-    <t>g_w165254212-220-w147557680-220</t>
-  </si>
-  <si>
-    <t>g_w165513396-220-w33271433-220</t>
-  </si>
-  <si>
-    <t>g_w177392130-220-CH51-220</t>
-  </si>
-  <si>
-    <t>g_w177392130-220-CH52-220</t>
-  </si>
-  <si>
-    <t>g_w177392130-220-CH57-220</t>
-  </si>
-  <si>
-    <t>g_w177392130-400-CH51-400</t>
-  </si>
-  <si>
-    <t>g_w190819048-220-CH7-220</t>
-  </si>
-  <si>
-    <t>g_w190819048-220-w50319857-220</t>
-  </si>
-  <si>
-    <t>g_w192677427-220-CH13-220</t>
-  </si>
-  <si>
-    <t>g_w192677427-220-CH18-220</t>
-  </si>
-  <si>
-    <t>g_w192677427-220-w147714395-220</t>
-  </si>
-  <si>
-    <t>g_w192677427-220-w240575085-220</t>
-  </si>
-  <si>
-    <t>g_w192677427-380-CH16-380</t>
-  </si>
-  <si>
-    <t>g_w194258388-220-w122720993-220</t>
-  </si>
-  <si>
-    <t>g_w207993342-220-CH22-220</t>
-  </si>
-  <si>
-    <t>g_w208780268-380-w207993342-380</t>
-  </si>
-  <si>
-    <t>g_w209324991-220-w758315582-220</t>
-  </si>
-  <si>
-    <t>g_w210568055-220-w192677427-220</t>
-  </si>
-  <si>
-    <t>g_w210568055-220-w365556107-220</t>
-  </si>
-  <si>
-    <t>g_w210568055-380-CH16-380</t>
-  </si>
-  <si>
-    <t>g_w210568055-380-w71500123-380</t>
-  </si>
-  <si>
-    <t>g_w211907009-220-CH21-220</t>
-  </si>
-  <si>
-    <t>g_w211907009-220-w455120191-220</t>
-  </si>
-  <si>
-    <t>g_w212722603-220-w234983117-220</t>
-  </si>
-  <si>
-    <t>g_w212722603-220-w236819191-220</t>
-  </si>
-  <si>
-    <t>g_w212722603-380-w234983117-380</t>
-  </si>
-  <si>
-    <t>g_w22899676-220-CH3-220</t>
-  </si>
-  <si>
-    <t>g_w232662311-220-w111162936-220</t>
-  </si>
-  <si>
-    <t>g_w236819191-220-CH47-220</t>
-  </si>
-  <si>
-    <t>g_w236819191-220-w228003081-220</t>
-  </si>
-  <si>
-    <t>g_w238138373-380-w260211728-380</t>
-  </si>
-  <si>
-    <t>g_w239937062-220-CH52-220</t>
-  </si>
-  <si>
-    <t>g_w239937062-220-w132373704-220</t>
-  </si>
-  <si>
-    <t>g_w240575085-220-CH6-220</t>
-  </si>
-  <si>
-    <t>g_w240959264-220-CH20-220</t>
-  </si>
-  <si>
-    <t>g_w240959264-220-CH27-220</t>
-  </si>
-  <si>
-    <t>g_w240959264-220-w209324991-220</t>
-  </si>
-  <si>
-    <t>g_w242269161-220-CH14-220</t>
-  </si>
-  <si>
-    <t>g_w260211728-380-w936521586-380</t>
-  </si>
-  <si>
-    <t>g_w26166640-220-w758315582-220</t>
-  </si>
-  <si>
-    <t>g_w26843160-220-w92798668-220</t>
-  </si>
-  <si>
-    <t>g_w27107779-220-w147714395-220</t>
-  </si>
-  <si>
-    <t>g_w27435934-220-w109037817-220</t>
-  </si>
-  <si>
-    <t>g_w27435934-220-w30350721-220</t>
-  </si>
-  <si>
-    <t>g_w281799252-220-w52738225-220</t>
-  </si>
-  <si>
-    <t>g_w281800404-220-CH59-220</t>
-  </si>
-  <si>
-    <t>g_w281800404-220-w281815404-220</t>
-  </si>
-  <si>
-    <t>g_w281803398-220-CH50-220</t>
-  </si>
-  <si>
-    <t>g_w281809991-220-w26843160-220</t>
-  </si>
-  <si>
-    <t>g_w281815404-220-CH50-220</t>
-  </si>
-  <si>
-    <t>g_w281815404-220-CH58-220</t>
-  </si>
-  <si>
-    <t>g_w281815404-220-w35487135-220</t>
-  </si>
-  <si>
-    <t>g_w281822905-220-CH38-220</t>
-  </si>
-  <si>
-    <t>g_w281822905-220-CH42-220</t>
-  </si>
-  <si>
-    <t>g_w30350721-220-w356292116-220</t>
-  </si>
-  <si>
-    <t>g_w31308888-220-w89977424-220</t>
-  </si>
-  <si>
-    <t>g_w33271433-220-CH5-220</t>
-  </si>
-  <si>
-    <t>g_w35002638-220-CH15-220</t>
-  </si>
-  <si>
-    <t>g_w35002638-220-w140873735-220</t>
-  </si>
-  <si>
-    <t>g_w35002638-220-w242269161-220</t>
-  </si>
-  <si>
-    <t>g_w35002638-220-w281799252-220</t>
-  </si>
-  <si>
-    <t>g_w35002638-380-w52738225-380</t>
-  </si>
-  <si>
-    <t>g_w356292116-220-CH11-220</t>
-  </si>
-  <si>
-    <t>g_w356292116-220-w146225999-220</t>
-  </si>
-  <si>
-    <t>g_w356292116-220-w35002638-220</t>
-  </si>
-  <si>
-    <t>g_w356292116-220-w50319857-220</t>
-  </si>
-  <si>
-    <t>g_w356292116-380-w35002638-380</t>
-  </si>
-  <si>
-    <t>g_w356292116-380-w50319857-380</t>
-  </si>
-  <si>
-    <t>g_w35840165-380-w98648381-380</t>
-  </si>
-  <si>
-    <t>g_w364949845-220-w969819301-220</t>
-  </si>
-  <si>
-    <t>g_w364949845-380-CH34-380</t>
-  </si>
-  <si>
-    <t>g_w365556107-220-w71500123-220</t>
-  </si>
-  <si>
-    <t>g_w391577741-220-w391576135-220</t>
-  </si>
-  <si>
-    <t>g_w397960460-380-w50319857-380</t>
-  </si>
-  <si>
-    <t>g_w402053379-220-w190819048-220</t>
-  </si>
-  <si>
-    <t>g_w431234146-220-CH35-220</t>
-  </si>
-  <si>
-    <t>g_w431234146-220-w969811258-220</t>
-  </si>
-  <si>
-    <t>g_w44496892-220-CH31-220</t>
-  </si>
-  <si>
-    <t>g_w50319857-220-w98648381-220</t>
-  </si>
-  <si>
-    <t>g_w50319857-380-w35840165-380</t>
-  </si>
-  <si>
-    <t>g_w50319857-380-w98648381-380</t>
-  </si>
-  <si>
-    <t>g_w50561341-220-w147714395-220</t>
-  </si>
-  <si>
-    <t>g_w50561341-220-w87281514-220</t>
-  </si>
-  <si>
-    <t>g_w52738225-220-CH13-220</t>
-  </si>
-  <si>
-    <t>g_w52738225-380-CH12-380</t>
-  </si>
-  <si>
-    <t>g_w55695765-220-w111162936-220</t>
-  </si>
-  <si>
-    <t>g_w55698557-220-w194258388-220</t>
-  </si>
-  <si>
-    <t>g_w71500123-220-CH21-220</t>
-  </si>
-  <si>
-    <t>g_w71500123-380-w207993342-380</t>
-  </si>
-  <si>
-    <t>g_w758943072-220-w234983117-220</t>
-  </si>
-  <si>
-    <t>g_w802058337-220-w234983117-220</t>
-  </si>
-  <si>
-    <t>g_w802058337-220-w758943072-220</t>
-  </si>
-  <si>
-    <t>g_w802058337-225-CH60-225</t>
-  </si>
-  <si>
-    <t>g_w83861269-220-CH9-220</t>
-  </si>
-  <si>
-    <t>g_w89405664-220-w165513396-220</t>
-  </si>
-  <si>
-    <t>g_w89977424-220-CH5-220</t>
-  </si>
-  <si>
-    <t>g_w92798668-220-CH4-220</t>
-  </si>
-  <si>
-    <t>g_w92798668-220-w192677427-220</t>
-  </si>
-  <si>
-    <t>g_w92798668-220-w455120191-220</t>
-  </si>
-  <si>
-    <t>g_w936521586-380-w234983117-380</t>
-  </si>
-  <si>
-    <t>g_w969811258-380-w35002638-380</t>
-  </si>
-  <si>
-    <t>g_w969819301-220-CH46-220</t>
-  </si>
-  <si>
-    <t>g_w969819301-220-w391577741-220</t>
-  </si>
-  <si>
-    <t>g_w969819301-380-w364949845-380</t>
-  </si>
-  <si>
-    <t>g_w98648381-220-w165513396-220</t>
-  </si>
-  <si>
-    <t>g_w98648381-220-w27107779-220</t>
-  </si>
-  <si>
-    <t>g_w98648381-380-w147714395-380</t>
-  </si>
-  <si>
-    <t>g_w98648381-380-w165513396-380</t>
   </si>
 </sst>
 </file>
@@ -1445,1720 +811,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D6B6990-516F-4858-B77B-B34C89415905}">
-  <dimension ref="A1:B212"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="28.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="13">
-        <v>1.6981030000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="11">
-        <v>1.6981030000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="13">
-        <v>3.3962050000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="11">
-        <v>3.3962050000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="11">
-        <v>3.3962050000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" s="13">
-        <v>1.4746679999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25" s="11">
-        <v>1.4746679999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B27" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B29" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B30" s="13">
-        <v>3.3962050000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" s="11">
-        <v>3.3962050000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B32" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B33" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B34" s="13">
-        <v>1.6981030000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B35" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A36" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B36" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B37" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A38" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B38" s="13">
-        <v>3.3962050000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A39" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B39" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A40" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B40" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A41" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B41" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A42" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B42" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A43" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B43" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A44" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B44" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A45" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B45" s="11">
-        <v>1.6981030000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A46" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B46" s="13">
-        <v>3.3962050000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A47" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B47" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A48" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B48" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A49" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B49" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A50" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B50" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A51" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B51" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A52" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B52" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A53" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B53" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A54" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B54" s="13">
-        <v>1.0054560000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A55" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B55" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A56" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B56" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A57" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B57" s="11">
-        <v>1.005455</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A58" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B58" s="13">
-        <v>1.005455</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A59" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B59" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A60" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B60" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A61" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B61" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A62" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B62" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A63" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B63" s="11">
-        <v>1.005455</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A64" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B64" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A65" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B65" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A66" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B66" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A67" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B67" s="11">
-        <v>3.3962050000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A68" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B68" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A69" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B69" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A70" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B70" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A71" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B71" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A72" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B72" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A73" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B73" s="11">
-        <v>1.6981030000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A74" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B74" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A75" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B75" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A76" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="B76" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A77" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B77" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A78" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="B78" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A79" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="B79" s="11">
-        <v>1.6981030000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A80" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="B80" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A81" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="B81" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A82" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="B82" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A83" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="B83" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A84" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="B84" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A85" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="B85" s="11">
-        <v>1.6981030000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A86" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B86" s="13">
-        <v>1.6981030000000001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A87" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="B87" s="11">
-        <v>1.6981030000000001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A88" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B88" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A89" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="B89" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A90" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B90" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A91" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="B91" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A92" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B92" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A93" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B93" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A94" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B94" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A95" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="B95" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A96" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="B96" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A97" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="B97" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A98" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="B98" s="13">
-        <v>3.3962050000000001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A99" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B99" s="11">
-        <v>1.6981030000000001</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A100" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="B100" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A101" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="B101" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A102" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="B102" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A103" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="B103" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A104" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="B104" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A105" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="B105" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A106" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="B106" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A107" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="B107" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A108" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="B108" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A109" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="B109" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A110" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="B110" s="13">
-        <v>1.7874760000000001</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A111" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B111" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A112" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="B112" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A113" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="B113" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A114" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="B114" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A115" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="B115" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A116" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="B116" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A117" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="B117" s="11">
-        <v>1.6981030000000001</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A118" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B118" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A119" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="B119" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A120" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="B120" s="13">
-        <v>3.3962050000000001</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A121" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="B121" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A122" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="B122" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A123" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="B123" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A124" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B124" s="13">
-        <v>1.6981030000000001</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A125" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B125" s="11">
-        <v>1.6981030000000001</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A126" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="B126" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A127" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B127" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A128" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="B128" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A129" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="B129" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A130" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="B130" s="13">
-        <v>3.3962050000000001</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A131" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="B131" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A132" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B132" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A133" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="B133" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A134" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="B134" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A135" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B135" s="11">
-        <v>3.3962050000000001</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A136" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="B136" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A137" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="B137" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A138" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="B138" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A139" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B139" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A140" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="B140" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A141" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="B141" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A142" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="B142" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A143" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="B143" s="11">
-        <v>3.3962050000000001</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A144" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="B144" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A145" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="B145" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A146" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="B146" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A147" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B147" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A148" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="B148" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A149" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="B149" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A150" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="B150" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A151" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="B151" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A152" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="B152" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A153" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="B153" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A154" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="B154" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A155" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="B155" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A156" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="B156" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A157" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B157" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A158" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="B158" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A159" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="B159" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A160" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="B160" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A161" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="B161" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A162" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="B162" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A163" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B163" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A164" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="B164" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A165" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="B165" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A166" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="B166" s="13">
-        <v>1.6981030000000001</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A167" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="B167" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A168" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="B168" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A169" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="B169" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A170" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="B170" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A171" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="B171" s="11">
-        <v>3.3962060000000003</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A172" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="B172" s="13">
-        <v>1.6981030000000001</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A173" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="B173" s="11">
-        <v>1.6981030000000001</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A174" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="B174" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A175" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="B175" s="11">
-        <v>1.6981030000000001</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A176" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="B176" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A177" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="B177" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A178" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="B178" s="13">
-        <v>1.6981030000000001</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A179" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="B179" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A180" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="B180" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A181" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="B181" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A182" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="B182" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A183" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="B183" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A184" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="B184" s="13">
-        <v>1.6981030000000001</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A185" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="B185" s="11">
-        <v>3.3962050000000001</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A186" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="B186" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A187" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="B187" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A188" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="B188" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A189" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="B189" s="11">
-        <v>1.6981030000000001</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A190" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="B190" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A191" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="B191" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A192" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="B192" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A193" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="B193" s="11">
-        <v>3.3962060000000003</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A194" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="B194" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A195" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="B195" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A196" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="B196" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A197" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="B197" s="11">
-        <v>1.005455</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A198" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="B198" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A199" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="B199" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A200" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="B200" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A201" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="B201" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A202" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="B202" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A203" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="B203" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A204" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="B204" s="13">
-        <v>1.6981030000000001</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A205" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="B205" s="11">
-        <v>1.6981030000000001</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A206" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="B206" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A207" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="B207" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A208" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="B208" s="13">
-        <v>3.3962050000000001</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A209" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="B209" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A210" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="B210" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A211" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="B211" s="11">
-        <v>3.3962050000000001</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A212" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="B212" s="13">
-        <v>1.6981030000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL40"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
@@ -3903,7 +1559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC33DFE9-8C65-4A33-8FAE-96323628CE2A}">
   <dimension ref="A1:D626"/>
   <sheetViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29FD8AC-D231-48E7-B703-107634929D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DC0D1D0-558A-454F-880F-5D5DE45CB59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Veda" sheetId="1" r:id="rId1"/>
-    <sheet name="historical_data_long" sheetId="3" r:id="rId2"/>
+    <sheet name="grids_capacity" sheetId="4" r:id="rId1"/>
+    <sheet name="Veda" sheetId="1" r:id="rId2"/>
+    <sheet name="historical_data_long" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -96,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="280">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -327,6 +328,615 @@
   </si>
   <si>
     <t>UC_RHSRT~2050</t>
+  </si>
+  <si>
+    <t>pasti</t>
+  </si>
+  <si>
+    <t>g_CH1-220-CH26-220</t>
+  </si>
+  <si>
+    <t>g_CH11-220-CH28-220</t>
+  </si>
+  <si>
+    <t>g_CH11-220-CH35-220</t>
+  </si>
+  <si>
+    <t>g_CH11-220-w55695765-220</t>
+  </si>
+  <si>
+    <t>g_CH12-220-CH46-220</t>
+  </si>
+  <si>
+    <t>g_CH13-220-CH14-220</t>
+  </si>
+  <si>
+    <t>g_CH15-220-r5378910-220</t>
+  </si>
+  <si>
+    <t>g_CH18-220-CH29-220</t>
+  </si>
+  <si>
+    <t>g_CH18-220-w146225999-220</t>
+  </si>
+  <si>
+    <t>g_CH19-220-CH34-220</t>
+  </si>
+  <si>
+    <t>g_CH19-220-CH49-225</t>
+  </si>
+  <si>
+    <t>g_CH2-220-CH11-220</t>
+  </si>
+  <si>
+    <t>g_CH2-220-w55695765-220</t>
+  </si>
+  <si>
+    <t>g_CH2-220-w55698557-220</t>
+  </si>
+  <si>
+    <t>g_CH20-220-CH18-220</t>
+  </si>
+  <si>
+    <t>g_CH20-220-CH37-380</t>
+  </si>
+  <si>
+    <t>g_CH20-220-CH60-225</t>
+  </si>
+  <si>
+    <t>g_CH21-220-CH11-220</t>
+  </si>
+  <si>
+    <t>g_CH21-220-CH2-220</t>
+  </si>
+  <si>
+    <t>g_CH21-220-CH35-220</t>
+  </si>
+  <si>
+    <t>g_CH22-220-w402055336-220</t>
+  </si>
+  <si>
+    <t>g_CH23-220-CH25-220</t>
+  </si>
+  <si>
+    <t>g_CH23-220-CH47-220</t>
+  </si>
+  <si>
+    <t>g_CH23-220-CH59-220</t>
+  </si>
+  <si>
+    <t>g_CH23-220-w281800404-220</t>
+  </si>
+  <si>
+    <t>g_CH24-220-CH16-380</t>
+  </si>
+  <si>
+    <t>g_CH24-220-CH17-380</t>
+  </si>
+  <si>
+    <t>g_CH24-220-w140873735-220</t>
+  </si>
+  <si>
+    <t>g_CH25-220-CH12-220</t>
+  </si>
+  <si>
+    <t>g_CH25-220-CH23-220</t>
+  </si>
+  <si>
+    <t>g_CH25-220-CH44-220</t>
+  </si>
+  <si>
+    <t>g_CH25-220-CH46-220</t>
+  </si>
+  <si>
+    <t>g_CH25-220-w281822905-220</t>
+  </si>
+  <si>
+    <t>g_CH26-220-CH13-220</t>
+  </si>
+  <si>
+    <t>g_CH27-220-CH25-220</t>
+  </si>
+  <si>
+    <t>g_CH27-220-CH38-220</t>
+  </si>
+  <si>
+    <t>g_CH27-220-CH46-220</t>
+  </si>
+  <si>
+    <t>g_CH27-220-w50319857-220</t>
+  </si>
+  <si>
+    <t>g_CH28-220-CH29-220</t>
+  </si>
+  <si>
+    <t>g_CH28-220-w281804158-220</t>
+  </si>
+  <si>
+    <t>g_CH3-220-CH18-220</t>
+  </si>
+  <si>
+    <t>g_CH31-220-CH36-220</t>
+  </si>
+  <si>
+    <t>g_CH31-220-CH45-220</t>
+  </si>
+  <si>
+    <t>g_CH31-220-w22899676-220</t>
+  </si>
+  <si>
+    <t>g_CH31-220-w31308888-220</t>
+  </si>
+  <si>
+    <t>g_CH31-220-w35840165-380</t>
+  </si>
+  <si>
+    <t>g_CH32-220-CH31-220</t>
+  </si>
+  <si>
+    <t>g_CH32-220-CH35-220</t>
+  </si>
+  <si>
+    <t>g_CH32-220-CH43-220</t>
+  </si>
+  <si>
+    <t>g_CH32-220-w232662311-220</t>
+  </si>
+  <si>
+    <t>g_CH33-380-CH15-220</t>
+  </si>
+  <si>
+    <t>g_CH33-380-CH40-220</t>
+  </si>
+  <si>
+    <t>g_CH34-220-CH35-220</t>
+  </si>
+  <si>
+    <t>g_CH35-220-CH41-380</t>
+  </si>
+  <si>
+    <t>g_CH35-220-w44496892-220</t>
+  </si>
+  <si>
+    <t>g_CH36-220-CH1-220</t>
+  </si>
+  <si>
+    <t>g_CH36-220-CH44-220</t>
+  </si>
+  <si>
+    <t>g_CH37-380-w242269161-220</t>
+  </si>
+  <si>
+    <t>g_CH38-220-CH26-220</t>
+  </si>
+  <si>
+    <t>g_CH38-220-CH50-220</t>
+  </si>
+  <si>
+    <t>g_CH39-220-CH18-220</t>
+  </si>
+  <si>
+    <t>g_CH39-220-CH29-220</t>
+  </si>
+  <si>
+    <t>g_CH39-220-w88901626-380</t>
+  </si>
+  <si>
+    <t>g_CH4-220-CH31-220</t>
+  </si>
+  <si>
+    <t>g_CH40-220-CH33-380</t>
+  </si>
+  <si>
+    <t>g_CH40-220-w122720993-220</t>
+  </si>
+  <si>
+    <t>g_CH40-220-w52738225-220</t>
+  </si>
+  <si>
+    <t>g_CH41-380-CH22-220</t>
+  </si>
+  <si>
+    <t>g_CH41-380-CH23-220</t>
+  </si>
+  <si>
+    <t>g_CH41-380-w35487135-220</t>
+  </si>
+  <si>
+    <t>g_CH42-220-CH49-225</t>
+  </si>
+  <si>
+    <t>g_CH43-220-w234983117-220</t>
+  </si>
+  <si>
+    <t>g_CH44-220-CH1-220</t>
+  </si>
+  <si>
+    <t>g_CH44-220-CH36-220</t>
+  </si>
+  <si>
+    <t>g_CH45-220-w238138373-380</t>
+  </si>
+  <si>
+    <t>g_CH45-220-w98648381-220</t>
+  </si>
+  <si>
+    <t>g_CH47-220-CH38-220</t>
+  </si>
+  <si>
+    <t>g_CH48-225-CH11-220</t>
+  </si>
+  <si>
+    <t>g_CH48-225-CH5-220</t>
+  </si>
+  <si>
+    <t>g_CH49-225-CH35-220</t>
+  </si>
+  <si>
+    <t>g_CH5-220-CH48-225</t>
+  </si>
+  <si>
+    <t>g_CH50-220-w455120191-220</t>
+  </si>
+  <si>
+    <t>g_CH51-220-CH52-220</t>
+  </si>
+  <si>
+    <t>g_CH52-220-CH56-220</t>
+  </si>
+  <si>
+    <t>g_CH53-225-w30350721-220</t>
+  </si>
+  <si>
+    <t>g_CH56-220-CH58-220</t>
+  </si>
+  <si>
+    <t>g_CH57-220-CH53-225</t>
+  </si>
+  <si>
+    <t>g_CH57-220-w207993342-220</t>
+  </si>
+  <si>
+    <t>g_CH58-220-w71500123-220</t>
+  </si>
+  <si>
+    <t>g_CH59-220-w365556107-220</t>
+  </si>
+  <si>
+    <t>g_CH6-220-CH9-220</t>
+  </si>
+  <si>
+    <t>g_CH6-220-w26166640-220</t>
+  </si>
+  <si>
+    <t>g_CH60-225-w212722603-220</t>
+  </si>
+  <si>
+    <t>g_CH7-220-w364949845-220</t>
+  </si>
+  <si>
+    <t>g_CH9-220-r9310861-220</t>
+  </si>
+  <si>
+    <t>g_r7933294-380-CH57-220</t>
+  </si>
+  <si>
+    <t>g_r7933294-380-w108257952-220</t>
+  </si>
+  <si>
+    <t>g_r9310861-220-w260211728-225</t>
+  </si>
+  <si>
+    <t>g_w100662075-220-w108257952-220</t>
+  </si>
+  <si>
+    <t>g_w100662075-220-w208780268-380</t>
+  </si>
+  <si>
+    <t>g_w108257952-220-r7933294-380</t>
+  </si>
+  <si>
+    <t>g_w1086214433-220-w165254212-220</t>
+  </si>
+  <si>
+    <t>g_w1086214433-220-w97941869-220</t>
+  </si>
+  <si>
+    <t>g_w109037817-220-r5378910-220</t>
+  </si>
+  <si>
+    <t>g_w1092884227-220-CH26-220</t>
+  </si>
+  <si>
+    <t>g_w1092884227-220-CH30-380</t>
+  </si>
+  <si>
+    <t>g_w1105061707-220-CH4-220</t>
+  </si>
+  <si>
+    <t>g_w111162936-220-w11282314-220</t>
+  </si>
+  <si>
+    <t>g_w111162936-220-w55698557-220</t>
+  </si>
+  <si>
+    <t>g_w11282314-220-CH29-220</t>
+  </si>
+  <si>
+    <t>g_w1208713169-220-CH14-220</t>
+  </si>
+  <si>
+    <t>g_w122720993-220-w127004407-380</t>
+  </si>
+  <si>
+    <t>g_w127004407-380-CH28-220</t>
+  </si>
+  <si>
+    <t>g_w130198336-220-w1284913429-220</t>
+  </si>
+  <si>
+    <t>g_w132373704-220-w969811258-220</t>
+  </si>
+  <si>
+    <t>g_w1327084723-220-CH30-380</t>
+  </si>
+  <si>
+    <t>g_w146225999-220-CH37-380</t>
+  </si>
+  <si>
+    <t>g_w146225999-220-w130198336-220</t>
+  </si>
+  <si>
+    <t>g_w147557680-220-w147714395-220</t>
+  </si>
+  <si>
+    <t>g_w147557680-220-w391576135-220</t>
+  </si>
+  <si>
+    <t>g_w148015471-220-w36348118-220</t>
+  </si>
+  <si>
+    <t>g_w159527493-220-CH59-220</t>
+  </si>
+  <si>
+    <t>g_w161853746-220-w92873516-220</t>
+  </si>
+  <si>
+    <t>g_w165254212-220-w758943072-220</t>
+  </si>
+  <si>
+    <t>g_w177392130-220-CH2-220</t>
+  </si>
+  <si>
+    <t>g_w190819048-220-CH6-220</t>
+  </si>
+  <si>
+    <t>g_w192677427-220-w209324991-220</t>
+  </si>
+  <si>
+    <t>g_w194258388-220-CH27-220</t>
+  </si>
+  <si>
+    <t>g_w207991759-380-CH31-220</t>
+  </si>
+  <si>
+    <t>g_w207991759-380-w402055336-220</t>
+  </si>
+  <si>
+    <t>g_w209324991-220-CH1-220</t>
+  </si>
+  <si>
+    <t>g_w209324991-220-w159527493-220</t>
+  </si>
+  <si>
+    <t>g_w210568055-220-CH26-220</t>
+  </si>
+  <si>
+    <t>g_w210568055-220-w27435934-220</t>
+  </si>
+  <si>
+    <t>g_w211907009-220-CH2-220</t>
+  </si>
+  <si>
+    <t>g_w228003081-220-w1105061707-220</t>
+  </si>
+  <si>
+    <t>g_w228003081-220-w36348118-220</t>
+  </si>
+  <si>
+    <t>g_w22899676-220-CH31-220</t>
+  </si>
+  <si>
+    <t>g_w22899676-220-CH51-220</t>
+  </si>
+  <si>
+    <t>g_w22899676-220-w212498548-220</t>
+  </si>
+  <si>
+    <t>g_w232662311-220-CH31-220</t>
+  </si>
+  <si>
+    <t>g_w234983117-220-CH11-220</t>
+  </si>
+  <si>
+    <t>g_w236819191-220-w192677427-220</t>
+  </si>
+  <si>
+    <t>g_w236819191-220-w402053379-220</t>
+  </si>
+  <si>
+    <t>g_w238138373-380-w30350721-220</t>
+  </si>
+  <si>
+    <t>g_w239937062-220-CH2-220</t>
+  </si>
+  <si>
+    <t>g_w239937062-220-w177392130-220</t>
+  </si>
+  <si>
+    <t>g_w240575085-220-w234983117-220</t>
+  </si>
+  <si>
+    <t>g_w240959264-220-CH35-220</t>
+  </si>
+  <si>
+    <t>g_w240959264-220-w161853746-220</t>
+  </si>
+  <si>
+    <t>g_w242269161-220-w211907009-220</t>
+  </si>
+  <si>
+    <t>g_w26166640-220-CH26-220</t>
+  </si>
+  <si>
+    <t>g_w26843160-220-w87281514-220</t>
+  </si>
+  <si>
+    <t>g_w27107779-220-CH50-220</t>
+  </si>
+  <si>
+    <t>g_w27107779-220-w758943072-220</t>
+  </si>
+  <si>
+    <t>g_w281800404-220-CH59-220</t>
+  </si>
+  <si>
+    <t>g_w281803398-220-CH20-220</t>
+  </si>
+  <si>
+    <t>g_w281804158-220-w127004407-380</t>
+  </si>
+  <si>
+    <t>g_w281804158-220-w281799252-220</t>
+  </si>
+  <si>
+    <t>g_w281809991-220-CH3-220</t>
+  </si>
+  <si>
+    <t>g_w281815404-220-w140873735-220</t>
+  </si>
+  <si>
+    <t>g_w281815404-220-w212722603-220</t>
+  </si>
+  <si>
+    <t>g_w281822905-220-w159527493-220</t>
+  </si>
+  <si>
+    <t>g_w30350721-220-CH5-220</t>
+  </si>
+  <si>
+    <t>g_w30350721-220-CH57-220</t>
+  </si>
+  <si>
+    <t>g_w30350721-220-w26843160-220</t>
+  </si>
+  <si>
+    <t>g_w31308888-220-CH11-220</t>
+  </si>
+  <si>
+    <t>g_w33271433-220-w87281514-220</t>
+  </si>
+  <si>
+    <t>g_w35002638-220-w969819301-220</t>
+  </si>
+  <si>
+    <t>g_w35487135-220-CH23-220</t>
+  </si>
+  <si>
+    <t>g_w356292116-220-CH19-220</t>
+  </si>
+  <si>
+    <t>g_w356292116-220-w397960460-380</t>
+  </si>
+  <si>
+    <t>g_w35840165-380-CH36-220</t>
+  </si>
+  <si>
+    <t>g_w36348118-220-w148015471-220</t>
+  </si>
+  <si>
+    <t>g_w36348118-220-w391576135-220</t>
+  </si>
+  <si>
+    <t>g_w364949845-220-w1327084723-220</t>
+  </si>
+  <si>
+    <t>g_w365556107-220-w35002638-220</t>
+  </si>
+  <si>
+    <t>g_w391576135-220-w1327084723-220</t>
+  </si>
+  <si>
+    <t>g_w391576135-220-w147714395-220</t>
+  </si>
+  <si>
+    <t>g_w391576135-220-w431234146-220</t>
+  </si>
+  <si>
+    <t>g_w391577741-220-w100662075-220</t>
+  </si>
+  <si>
+    <t>g_w391577741-220-w1105061707-220</t>
+  </si>
+  <si>
+    <t>g_w397960460-380-CH32-220</t>
+  </si>
+  <si>
+    <t>g_w402053379-220-w969811258-220</t>
+  </si>
+  <si>
+    <t>g_w402055336-220-w132373704-220</t>
+  </si>
+  <si>
+    <t>g_w44496892-220-CH41-380</t>
+  </si>
+  <si>
+    <t>g_w50319857-220-CH38-220</t>
+  </si>
+  <si>
+    <t>g_w52738225-220-w50561341-220</t>
+  </si>
+  <si>
+    <t>g_w55695765-220-w240959264-220</t>
+  </si>
+  <si>
+    <t>g_w71500123-220-CH4-220</t>
+  </si>
+  <si>
+    <t>g_w71500123-220-r5378910-220</t>
+  </si>
+  <si>
+    <t>g_w758315582-220-CH60-225</t>
+  </si>
+  <si>
+    <t>g_w802058337-220-CH23-220</t>
+  </si>
+  <si>
+    <t>g_w802058337-220-w89977424-220</t>
+  </si>
+  <si>
+    <t>g_w83861269-220-CH20-220</t>
+  </si>
+  <si>
+    <t>g_w88901626-380-CH29-220</t>
+  </si>
+  <si>
+    <t>g_w89405664-220-w165254212-220</t>
+  </si>
+  <si>
+    <t>g_w92873516-220-CH22-220</t>
+  </si>
+  <si>
+    <t>g_w969811258-220-w132373704-220</t>
+  </si>
+  <si>
+    <t>g_w969819301-220-CH25-220</t>
+  </si>
+  <si>
+    <t>g_w969819301-220-w1086214433-220</t>
+  </si>
+  <si>
+    <t>g_w969819301-220-w758943072-220</t>
   </si>
 </sst>
 </file>
@@ -811,10 +1421,1656 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A67C6BA-690C-4B19-A860-39DCB4BD9EF0}">
+  <dimension ref="A1:B204"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="28.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2.1896590000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1.6981030000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="11">
+        <v>3.3962050000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="13">
+        <v>3.3962050000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="13">
+        <v>1.6981030000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="11">
+        <v>1.005455</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="13">
+        <v>1.6981030000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="11">
+        <v>1.6981030000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="13">
+        <v>1.6981030000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="11">
+        <v>1.6981030000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="13">
+        <v>1.6981030000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="13">
+        <v>1.6981030000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="11">
+        <v>3.3962050000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="13">
+        <v>2.2790319999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="13">
+        <v>1.6981030000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="13">
+        <v>1.6981030000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="11">
+        <v>1.6981030000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="11">
+        <v>3.8877609999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="11">
+        <v>3.3962050000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="13">
+        <v>1.6981030000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B48" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" s="11">
+        <v>3.8877620000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" s="13">
+        <v>2.1896590000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" s="11">
+        <v>1.6981030000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="11">
+        <v>1.6981030000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B56" s="13">
+        <v>3.8877609999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="11">
+        <v>1.6981030000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B58" s="13">
+        <v>1.6981030000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B60" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="11">
+        <v>3.3962060000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B62" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B63" s="11">
+        <v>1.005455</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B64" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B65" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B66" s="13">
+        <v>1.6981030000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B67" s="11">
+        <v>3.3962050000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B68" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B70" s="13">
+        <v>2.1896590000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B71" s="11">
+        <v>3.3962050000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B72" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B73" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A75" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A76" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B76" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A78" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A79" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B79" s="11">
+        <v>3.3962050000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B80" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B81" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A82" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B82" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A83" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B83" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A84" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B84" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A85" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B85" s="11">
+        <v>1.4746679999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A86" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B86" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A87" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B87" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A88" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B88" s="13">
+        <v>1.4746679999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A89" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B89" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A90" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B90" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A91" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B91" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A92" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B92" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A93" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B93" s="11">
+        <v>3.3962050000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A94" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B94" s="13">
+        <v>3.3962050000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A95" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B95" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A96" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B96" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A97" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B97" s="11">
+        <v>1.6981030000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A98" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B98" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A99" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B99" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A100" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B100" s="13">
+        <v>3.3962050000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A101" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B101" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A102" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B102" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A103" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B103" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A104" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B104" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A105" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B105" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A106" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B106" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A107" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B107" s="11">
+        <v>1.6981030000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A108" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B108" s="13">
+        <v>3.3962050000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A109" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B109" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A110" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B110" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A111" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B111" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A112" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B112" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A113" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B113" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A114" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B114" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A115" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B115" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A116" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B116" s="13">
+        <v>1.0054560000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A117" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B117" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A118" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B118" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A119" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B119" s="11">
+        <v>1.005455</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A120" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B120" s="13">
+        <v>1.005455</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A121" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B121" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A122" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B122" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A123" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B123" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A124" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B124" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A125" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B125" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A126" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B126" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A127" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B127" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A128" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B128" s="13">
+        <v>3.3962050000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A129" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B129" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A130" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B130" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A131" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B131" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A132" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B132" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A133" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B133" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A134" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B134" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A135" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B135" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A136" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B136" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A137" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B137" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A138" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B138" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A139" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B139" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A140" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B140" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A141" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B141" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A142" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B142" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A143" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B143" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A144" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B144" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A145" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B145" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A146" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B146" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A147" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B147" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A148" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B148" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A149" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B149" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A150" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B150" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A151" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B151" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A152" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B152" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A153" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B153" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A154" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B154" s="13">
+        <v>3.3962050000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A155" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B155" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A156" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B156" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A157" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B157" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A158" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B158" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A159" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B159" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A160" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B160" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A161" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B161" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A162" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B162" s="13">
+        <v>3.3962050000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A163" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B163" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A164" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="B164" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A165" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B165" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A166" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="B166" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A167" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B167" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A168" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="B168" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A169" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B169" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A170" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="B170" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A171" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B171" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A172" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="B172" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A173" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B173" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A174" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="B174" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A175" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B175" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A176" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="B176" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A177" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B177" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A178" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="B178" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A179" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B179" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A180" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="B180" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A181" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B181" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A182" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="B182" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A183" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B183" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A184" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="B184" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A185" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B185" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A186" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="B186" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A187" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B187" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A188" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="B188" s="13">
+        <v>1.6981030000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A189" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B189" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A190" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B190" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A191" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="B191" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A192" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B192" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A193" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B193" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A194" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B194" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A195" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B195" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A196" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="B196" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A197" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B197" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A198" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B198" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A199" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="B199" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A200" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B200" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A201" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B201" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A202" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B202" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A203" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B203" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A204" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="B204" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
@@ -1559,7 +3815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC33DFE9-8C65-4A33-8FAE-96323628CE2A}">
   <dimension ref="A1:D626"/>
   <sheetViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DC0D1D0-558A-454F-880F-5D5DE45CB59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6766674-BBF0-4924-980F-0233D0AB8B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="281">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -937,6 +937,9 @@
   </si>
   <si>
     <t>g_w969819301-220-w758943072-220</t>
+  </si>
+  <si>
+    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by intuition · Accelerated with AI</t>
   </si>
 </sst>
 </file>
@@ -946,7 +949,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1000,8 +1003,15 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1023,6 +1033,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF7F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF19375F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,7 +1086,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1087,6 +1103,9 @@
     <xf numFmtId="2" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1421,1647 +1440,1664 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A67C6BA-690C-4B19-A860-39DCB4BD9EF0}">
-  <dimension ref="A1:B204"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB88B27-9ED3-4EE0-9618-6035A25562B6}">
+  <dimension ref="A1:J205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="28.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="2" max="2" width="28.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+    </row>
+    <row r="2" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="9" t="s">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="10" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B4" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="11">
+      <c r="C4" s="11">
         <v>2.1896590000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="12" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B5" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="13">
+      <c r="C5" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="10" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B6" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="11">
+      <c r="C6" s="11">
         <v>1.6981030000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="12" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B7" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="13">
+      <c r="C7" s="13">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="10" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B8" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="11">
+      <c r="C8" s="11">
         <v>3.3962050000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="12" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B9" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="13">
+      <c r="C9" s="13">
         <v>3.3962050000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="10" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B10" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="11">
+      <c r="C10" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="12" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B11" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="13">
+      <c r="C11" s="13">
         <v>1.6981030000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="10" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B12" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="11">
+      <c r="C12" s="11">
         <v>1.005455</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="12" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B13" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="13">
+      <c r="C13" s="13">
         <v>1.6981030000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="10" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B14" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="11">
+      <c r="C14" s="11">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="12" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B15" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="13">
+      <c r="C15" s="13">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="10" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B16" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="11">
+      <c r="C16" s="11">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="12" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B17" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="13">
+      <c r="C17" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="10" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B18" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="11">
+      <c r="C18" s="11">
         <v>1.6981030000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="12" t="s">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B19" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="13">
+      <c r="C19" s="13">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="10" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B20" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="11">
+      <c r="C20" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="12" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B21" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="13">
+      <c r="C21" s="13">
         <v>1.6981030000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="10" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B22" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="11">
+      <c r="C22" s="11">
         <v>1.6981030000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="12" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B23" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="13">
+      <c r="C23" s="13">
         <v>1.6981030000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="10" t="s">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B24" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="11">
+      <c r="C24" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="12" t="s">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B25" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="13">
+      <c r="C25" s="13">
         <v>1.6981030000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" s="10" t="s">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B26" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="11">
+      <c r="C26" s="11">
         <v>3.3962050000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="12" t="s">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B27" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="13">
+      <c r="C27" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" s="10" t="s">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B28" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="11">
+      <c r="C28" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" s="12" t="s">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B29" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="13">
+      <c r="C29" s="13">
         <v>2.2790319999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="10" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B30" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="11">
+      <c r="C30" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="12" t="s">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B31" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B30" s="13">
+      <c r="C31" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" s="10" t="s">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B32" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="11">
+      <c r="C32" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" s="12" t="s">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B33" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="13">
+      <c r="C33" s="13">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" s="10" t="s">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B34" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="11">
+      <c r="C34" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34" s="12" t="s">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B35" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="13">
+      <c r="C35" s="13">
         <v>1.6981030000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" s="10" t="s">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B36" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="11">
+      <c r="C36" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A36" s="12" t="s">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B37" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="13">
+      <c r="C37" s="13">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" s="10" t="s">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B38" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="11">
+      <c r="C38" s="11">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A38" s="12" t="s">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B39" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="13">
+      <c r="C39" s="13">
         <v>1.6981030000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A39" s="10" t="s">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B40" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="11">
+      <c r="C40" s="11">
         <v>1.6981030000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A40" s="12" t="s">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B41" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="13">
+      <c r="C41" s="13">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A41" s="10" t="s">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B42" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B41" s="11">
+      <c r="C42" s="11">
         <v>3.8877609999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A42" s="12" t="s">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B43" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B42" s="13">
+      <c r="C43" s="13">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A43" s="10" t="s">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B44" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="11">
+      <c r="C44" s="11">
         <v>3.3962050000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A44" s="12" t="s">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B45" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B44" s="13">
+      <c r="C45" s="13">
         <v>1.6981030000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A45" s="10" t="s">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B46" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B45" s="11">
+      <c r="C46" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A46" s="12" t="s">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B47" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B46" s="13">
+      <c r="C47" s="13">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A47" s="10" t="s">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B48" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B47" s="11">
+      <c r="C48" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A48" s="12" t="s">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B49" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B48" s="13">
+      <c r="C49" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A49" s="10" t="s">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B50" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B49" s="11">
+      <c r="C50" s="11">
         <v>3.8877620000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A50" s="12" t="s">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B51" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B50" s="13">
+      <c r="C51" s="13">
         <v>2.1896590000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A51" s="10" t="s">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B52" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B51" s="11">
+      <c r="C52" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A52" s="12" t="s">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B53" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B52" s="13">
+      <c r="C53" s="13">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A53" s="10" t="s">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B54" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B53" s="11">
+      <c r="C54" s="11">
         <v>1.6981030000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A54" s="12" t="s">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B55" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B54" s="13">
+      <c r="C55" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A55" s="10" t="s">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B56" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B55" s="11">
+      <c r="C56" s="11">
         <v>1.6981030000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A56" s="12" t="s">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B57" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="B56" s="13">
+      <c r="C57" s="13">
         <v>3.8877609999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A57" s="10" t="s">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B58" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B57" s="11">
+      <c r="C58" s="11">
         <v>1.6981030000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A58" s="12" t="s">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B59" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B58" s="13">
+      <c r="C59" s="13">
         <v>1.6981030000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A59" s="10" t="s">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B60" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B59" s="11">
+      <c r="C60" s="11">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A60" s="12" t="s">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B61" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B60" s="13">
+      <c r="C61" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A61" s="10" t="s">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B62" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B61" s="11">
+      <c r="C62" s="11">
         <v>3.3962060000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A62" s="12" t="s">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B63" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="B62" s="13">
+      <c r="C63" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A63" s="10" t="s">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B64" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B63" s="11">
+      <c r="C64" s="11">
         <v>1.005455</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A64" s="12" t="s">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B65" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B64" s="13">
+      <c r="C65" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A65" s="10" t="s">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B66" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B65" s="11">
+      <c r="C66" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A66" s="12" t="s">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B67" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B66" s="13">
+      <c r="C67" s="13">
         <v>1.6981030000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A67" s="10" t="s">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B68" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B67" s="11">
+      <c r="C68" s="11">
         <v>3.3962050000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A68" s="12" t="s">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B69" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B68" s="13">
+      <c r="C69" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A69" s="10" t="s">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B70" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B69" s="11">
+      <c r="C70" s="11">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A70" s="12" t="s">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B71" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B70" s="13">
+      <c r="C71" s="13">
         <v>2.1896590000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A71" s="10" t="s">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B72" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B71" s="11">
+      <c r="C72" s="11">
         <v>3.3962050000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A72" s="12" t="s">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B73" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B72" s="13">
+      <c r="C73" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A73" s="10" t="s">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B74" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B73" s="11">
+      <c r="C74" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A74" s="12" t="s">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B75" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B74" s="13">
+      <c r="C75" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A75" s="10" t="s">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B76" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B75" s="11">
+      <c r="C76" s="11">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A76" s="12" t="s">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B77" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="B76" s="13">
+      <c r="C77" s="13">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A77" s="10" t="s">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B78" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B77" s="11">
+      <c r="C78" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A78" s="12" t="s">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B79" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="B78" s="13">
+      <c r="C79" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A79" s="10" t="s">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B80" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B79" s="11">
+      <c r="C80" s="11">
         <v>3.3962050000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A80" s="12" t="s">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B81" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="B80" s="13">
+      <c r="C81" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A81" s="10" t="s">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B82" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B81" s="11">
+      <c r="C82" s="11">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A82" s="12" t="s">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B83" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="B82" s="13">
+      <c r="C83" s="13">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A83" s="10" t="s">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B84" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B83" s="11">
+      <c r="C84" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A84" s="12" t="s">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B85" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="B84" s="13">
+      <c r="C85" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A85" s="10" t="s">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B86" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B85" s="11">
+      <c r="C86" s="11">
         <v>1.4746679999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A86" s="12" t="s">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B87" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="B86" s="13">
+      <c r="C87" s="13">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A87" s="10" t="s">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B88" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B87" s="11">
+      <c r="C88" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A88" s="12" t="s">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B89" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="B88" s="13">
+      <c r="C89" s="13">
         <v>1.4746679999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A89" s="10" t="s">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B90" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B89" s="11">
+      <c r="C90" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A90" s="12" t="s">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B91" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="B90" s="13">
+      <c r="C91" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A91" s="10" t="s">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B92" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="B91" s="11">
+      <c r="C92" s="11">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A92" s="12" t="s">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B93" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="B92" s="13">
+      <c r="C93" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A93" s="10" t="s">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B94" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="B93" s="11">
+      <c r="C94" s="11">
         <v>3.3962050000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A94" s="12" t="s">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B95" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B94" s="13">
+      <c r="C95" s="13">
         <v>3.3962050000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A95" s="10" t="s">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B96" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B95" s="11">
+      <c r="C96" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A96" s="12" t="s">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B97" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B96" s="13">
+      <c r="C97" s="13">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A97" s="10" t="s">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B98" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B97" s="11">
+      <c r="C98" s="11">
         <v>1.6981030000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A98" s="12" t="s">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B99" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="B98" s="13">
+      <c r="C99" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A99" s="10" t="s">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B100" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="B99" s="11">
+      <c r="C100" s="11">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A100" s="12" t="s">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B101" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="B100" s="13">
+      <c r="C101" s="13">
         <v>3.3962050000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A101" s="10" t="s">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B102" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B101" s="11">
+      <c r="C102" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A102" s="12" t="s">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B103" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="B102" s="13">
+      <c r="C103" s="13">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A103" s="10" t="s">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B104" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="B103" s="11">
+      <c r="C104" s="11">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A104" s="12" t="s">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B105" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="B104" s="13">
+      <c r="C105" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A105" s="10" t="s">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B106" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="B105" s="11">
+      <c r="C106" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A106" s="12" t="s">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B107" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="B106" s="13">
+      <c r="C107" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A107" s="10" t="s">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B108" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="B107" s="11">
+      <c r="C108" s="11">
         <v>1.6981030000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A108" s="12" t="s">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B109" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="B108" s="13">
+      <c r="C109" s="13">
         <v>3.3962050000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A109" s="10" t="s">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B110" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="B109" s="11">
+      <c r="C110" s="11">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A110" s="12" t="s">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B111" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="B110" s="13">
+      <c r="C111" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A111" s="10" t="s">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B112" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B111" s="11">
+      <c r="C112" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A112" s="12" t="s">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B113" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="B112" s="13">
+      <c r="C113" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A113" s="10" t="s">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B114" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="B113" s="11">
+      <c r="C114" s="11">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A114" s="12" t="s">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B115" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="B114" s="13">
+      <c r="C115" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A115" s="10" t="s">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B116" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B115" s="11">
+      <c r="C116" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A116" s="12" t="s">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B117" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="B116" s="13">
+      <c r="C117" s="13">
         <v>1.0054560000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A117" s="10" t="s">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B118" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B117" s="11">
+      <c r="C118" s="11">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A118" s="12" t="s">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B119" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="B118" s="13">
+      <c r="C119" s="13">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A119" s="10" t="s">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B120" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="B119" s="11">
+      <c r="C120" s="11">
         <v>1.005455</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A120" s="12" t="s">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B121" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="B120" s="13">
+      <c r="C121" s="13">
         <v>1.005455</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A121" s="10" t="s">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B122" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B121" s="11">
+      <c r="C122" s="11">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A122" s="12" t="s">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B123" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="B122" s="13">
+      <c r="C123" s="13">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A123" s="10" t="s">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B124" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B123" s="11">
+      <c r="C124" s="11">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A124" s="12" t="s">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B125" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="B124" s="13">
+      <c r="C125" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A125" s="10" t="s">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B126" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B125" s="11">
+      <c r="C126" s="11">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A126" s="12" t="s">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B127" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="B126" s="13">
+      <c r="C127" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A127" s="10" t="s">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B128" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B127" s="11">
+      <c r="C128" s="11">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A128" s="12" t="s">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B129" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="B128" s="13">
+      <c r="C129" s="13">
         <v>3.3962050000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A129" s="10" t="s">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B130" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="B129" s="11">
+      <c r="C130" s="11">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A130" s="12" t="s">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B131" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="B130" s="13">
+      <c r="C131" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A131" s="10" t="s">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B132" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B131" s="11">
+      <c r="C132" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A132" s="12" t="s">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B133" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="B132" s="13">
+      <c r="C133" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A133" s="10" t="s">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B134" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="B133" s="11">
+      <c r="C134" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A134" s="12" t="s">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B135" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="B134" s="13">
+      <c r="C135" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A135" s="10" t="s">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B136" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="B135" s="11">
+      <c r="C136" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A136" s="12" t="s">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B137" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="B136" s="13">
+      <c r="C137" s="13">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A137" s="10" t="s">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B138" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="B137" s="11">
+      <c r="C138" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A138" s="12" t="s">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B139" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="B138" s="13">
+      <c r="C139" s="13">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A139" s="10" t="s">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B140" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="B139" s="11">
+      <c r="C140" s="11">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A140" s="12" t="s">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B141" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="B140" s="13">
+      <c r="C141" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A141" s="10" t="s">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B142" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="B141" s="11">
+      <c r="C142" s="11">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A142" s="12" t="s">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B143" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="B142" s="13">
+      <c r="C143" s="13">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A143" s="10" t="s">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B144" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B143" s="11">
+      <c r="C144" s="11">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A144" s="12" t="s">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B145" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="B144" s="13">
+      <c r="C145" s="13">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A145" s="10" t="s">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B146" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="B145" s="11">
+      <c r="C146" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A146" s="12" t="s">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B147" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="B146" s="13">
+      <c r="C147" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A147" s="10" t="s">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B148" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="B147" s="11">
+      <c r="C148" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A148" s="12" t="s">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B149" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="B148" s="13">
+      <c r="C149" s="13">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A149" s="10" t="s">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B150" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B149" s="11">
+      <c r="C150" s="11">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A150" s="12" t="s">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B151" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="B150" s="13">
+      <c r="C151" s="13">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A151" s="10" t="s">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B152" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="B151" s="11">
+      <c r="C152" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A152" s="12" t="s">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B153" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="B152" s="13">
+      <c r="C153" s="13">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A153" s="10" t="s">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B154" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="B153" s="11">
+      <c r="C154" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A154" s="12" t="s">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B155" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="B154" s="13">
+      <c r="C155" s="13">
         <v>3.3962050000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A155" s="10" t="s">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B156" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B155" s="11">
+      <c r="C156" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A156" s="12" t="s">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B157" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="B156" s="13">
+      <c r="C157" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A157" s="10" t="s">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B158" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B157" s="11">
+      <c r="C158" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A158" s="12" t="s">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B159" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="B158" s="13">
+      <c r="C159" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A159" s="10" t="s">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B160" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B159" s="11">
+      <c r="C160" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A160" s="12" t="s">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B161" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="B160" s="13">
+      <c r="C161" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A161" s="10" t="s">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B162" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="B161" s="11">
+      <c r="C162" s="11">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A162" s="12" t="s">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B163" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="B162" s="13">
+      <c r="C163" s="13">
         <v>3.3962050000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A163" s="10" t="s">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B164" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="B163" s="11">
+      <c r="C164" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A164" s="12" t="s">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B165" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="B164" s="13">
+      <c r="C165" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A165" s="10" t="s">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B166" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="B165" s="11">
+      <c r="C166" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A166" s="12" t="s">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B167" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="B166" s="13">
+      <c r="C167" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A167" s="10" t="s">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B168" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="B167" s="11">
+      <c r="C168" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A168" s="12" t="s">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B169" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="B168" s="13">
+      <c r="C169" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A169" s="10" t="s">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B170" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="B169" s="11">
+      <c r="C170" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A170" s="12" t="s">
+    <row r="171" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B171" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="B170" s="13">
+      <c r="C171" s="13">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A171" s="10" t="s">
+    <row r="172" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B172" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="B171" s="11">
+      <c r="C172" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A172" s="12" t="s">
+    <row r="173" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B173" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="B172" s="13">
+      <c r="C173" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A173" s="10" t="s">
+    <row r="174" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B174" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="B173" s="11">
+      <c r="C174" s="11">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A174" s="12" t="s">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B175" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="B174" s="13">
+      <c r="C175" s="13">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A175" s="10" t="s">
+    <row r="176" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B176" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="B175" s="11">
+      <c r="C176" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A176" s="12" t="s">
+    <row r="177" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B177" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="B176" s="13">
+      <c r="C177" s="13">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A177" s="10" t="s">
+    <row r="178" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B178" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="B177" s="11">
+      <c r="C178" s="11">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A178" s="12" t="s">
+    <row r="179" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B179" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="B178" s="13">
+      <c r="C179" s="13">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A179" s="10" t="s">
+    <row r="180" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B180" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="B179" s="11">
+      <c r="C180" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A180" s="12" t="s">
+    <row r="181" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B181" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="B180" s="13">
+      <c r="C181" s="13">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A181" s="10" t="s">
+    <row r="182" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B182" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="B181" s="11">
+      <c r="C182" s="11">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A182" s="12" t="s">
+    <row r="183" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B183" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="B182" s="13">
+      <c r="C183" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A183" s="10" t="s">
+    <row r="184" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B184" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="B183" s="11">
+      <c r="C184" s="11">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A184" s="12" t="s">
+    <row r="185" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B185" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="B184" s="13">
+      <c r="C185" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A185" s="10" t="s">
+    <row r="186" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B186" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="B185" s="11">
+      <c r="C186" s="11">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A186" s="12" t="s">
+    <row r="187" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B187" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="B186" s="13">
+      <c r="C187" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A187" s="10" t="s">
+    <row r="188" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B188" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="B187" s="11">
+      <c r="C188" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A188" s="12" t="s">
+    <row r="189" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B189" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="B188" s="13">
+      <c r="C189" s="13">
         <v>1.6981030000000001</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A189" s="10" t="s">
+    <row r="190" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B190" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B189" s="11">
+      <c r="C190" s="11">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A190" s="12" t="s">
+    <row r="191" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B191" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="B190" s="13">
+      <c r="C191" s="13">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A191" s="10" t="s">
+    <row r="192" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B192" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="B191" s="11">
+      <c r="C192" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A192" s="12" t="s">
+    <row r="193" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B193" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="B192" s="13">
+      <c r="C193" s="13">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A193" s="10" t="s">
+    <row r="194" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B194" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="B193" s="11">
+      <c r="C194" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A194" s="12" t="s">
+    <row r="195" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B195" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="B194" s="13">
+      <c r="C195" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A195" s="10" t="s">
+    <row r="196" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B196" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="B195" s="11">
+      <c r="C196" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A196" s="12" t="s">
+    <row r="197" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B197" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="B196" s="13">
+      <c r="C197" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A197" s="10" t="s">
+    <row r="198" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B198" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="B197" s="11">
+      <c r="C198" s="11">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A198" s="12" t="s">
+    <row r="199" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B199" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="B198" s="13">
+      <c r="C199" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A199" s="10" t="s">
+    <row r="200" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B200" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="B199" s="11">
+      <c r="C200" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A200" s="12" t="s">
+    <row r="201" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B201" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="B200" s="13">
+      <c r="C201" s="13">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A201" s="10" t="s">
+    <row r="202" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B202" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="B201" s="11">
+      <c r="C202" s="11">
         <v>0.49155599999999999</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A202" s="12" t="s">
+    <row r="203" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B203" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="B202" s="13">
+      <c r="C203" s="13">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A203" s="10" t="s">
+    <row r="204" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B204" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="B203" s="11">
+      <c r="C204" s="11">
         <v>0.98311199999999999</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A204" s="12" t="s">
+    <row r="205" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B205" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="B204" s="13">
+      <c r="C205" s="13">
         <v>0.49155599999999999</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6766674-BBF0-4924-980F-0233D0AB8B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA3F0A5D-0C13-45B0-A8A0-786C55435216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1440,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB88B27-9ED3-4EE0-9618-6035A25562B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE316AC-9FE9-48E3-AB82-6CF78515C109}">
   <dimension ref="A1:J205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA3F0A5D-0C13-45B0-A8A0-786C55435216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26A644A2-034C-4FA5-A956-566EC48F679D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1440,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE316AC-9FE9-48E3-AB82-6CF78515C109}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9AE5A2-1AE6-491D-B7B1-E444EB2AFD54}">
   <dimension ref="A1:J205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26A644A2-034C-4FA5-A956-566EC48F679D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A832D6D-7244-46BF-8D34-1568FCA1E2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1440,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9AE5A2-1AE6-491D-B7B1-E444EB2AFD54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1457CEAD-B5AA-49DC-8644-BC51E7117BE3}">
   <dimension ref="A1:J205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A832D6D-7244-46BF-8D34-1568FCA1E2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C38785DE-3518-4035-8D26-7EFBCC4DA808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1440,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1457CEAD-B5AA-49DC-8644-BC51E7117BE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2607CA3-27BA-484E-8052-FCE89A4FA418}">
   <dimension ref="A1:J205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C38785DE-3518-4035-8D26-7EFBCC4DA808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5CD1E2A-6739-4B01-8547-A2A1FD54E111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1440,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2607CA3-27BA-484E-8052-FCE89A4FA418}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4D718D-4028-495C-9CFE-3B68C3D0327D}">
   <dimension ref="A1:J205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5CD1E2A-6739-4B01-8547-A2A1FD54E111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B7A024D-F9A2-4AE7-B6D7-F4FF230F100B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="21599" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grids_capacity" sheetId="4" r:id="rId1"/>
@@ -1440,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4D718D-4028-495C-9CFE-3B68C3D0327D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882BC606-4784-49D8-BE2C-14F946E8294A}">
   <dimension ref="A1:J205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B7A024D-F9A2-4AE7-B6D7-F4FF230F100B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99798161-C12F-4B5D-84D1-61C6BB3D0879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="21599" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="12683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grids_capacity" sheetId="4" r:id="rId1"/>
@@ -1440,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882BC606-4784-49D8-BE2C-14F946E8294A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{205B1A91-2369-467C-9F04-8AA0A7C62232}">
   <dimension ref="A1:J205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99798161-C12F-4B5D-84D1-61C6BB3D0879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EECDCAF-2C8E-46CB-8AA7-09E21C434890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="12683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="12683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grids_capacity" sheetId="4" r:id="rId1"/>
@@ -1440,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{205B1A91-2369-467C-9F04-8AA0A7C62232}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51EF06E1-4ED6-4923-9236-195F7808E08D}">
   <dimension ref="A1:J205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EECDCAF-2C8E-46CB-8AA7-09E21C434890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{788C0824-8FA8-47B3-B25B-71C8A71FB387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="12683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="21599" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grids_capacity" sheetId="4" r:id="rId1"/>
@@ -1440,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51EF06E1-4ED6-4923-9236-195F7808E08D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A491865-8F31-44AC-A46C-B3068FBD7A17}">
   <dimension ref="A1:J205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{788C0824-8FA8-47B3-B25B-71C8A71FB387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A68E3EF-54CC-40FD-8217-EBFEE1988E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="21599" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="21600" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grids_capacity" sheetId="4" r:id="rId1"/>
@@ -1440,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A491865-8F31-44AC-A46C-B3068FBD7A17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EE498B-B543-4ECC-A593-3B5E38191E7B}">
   <dimension ref="A1:J205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A68E3EF-54CC-40FD-8217-EBFEE1988E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{968AF2EB-9C37-47DD-9E3D-E56F886BD946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="21600" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="12683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grids_capacity" sheetId="4" r:id="rId1"/>
@@ -1440,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EE498B-B543-4ECC-A593-3B5E38191E7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471552F5-A96C-470A-8BAE-2FBC7C6404EA}">
   <dimension ref="A1:J205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{968AF2EB-9C37-47DD-9E3D-E56F886BD946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE6D1443-35A4-4240-A3CD-C28E31EAF3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="12683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="21599" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grids_capacity" sheetId="4" r:id="rId1"/>
@@ -1440,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471552F5-A96C-470A-8BAE-2FBC7C6404EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D578F428-D40C-4AAF-BCCD-B8C2C1617C84}">
   <dimension ref="A1:J205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE6D1443-35A4-4240-A3CD-C28E31EAF3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB75D696-1E83-4698-9DAD-2891E47243A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="21599" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grids_capacity" sheetId="4" r:id="rId1"/>
@@ -1440,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D578F428-D40C-4AAF-BCCD-B8C2C1617C84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5D6FE3-358D-45BE-A92F-238878DC199B}">
   <dimension ref="A1:J205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB75D696-1E83-4698-9DAD-2891E47243A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0564F7DC-65D2-44B0-81DC-B2748E3F8C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1440,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5D6FE3-358D-45BE-A92F-238878DC199B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76379A21-FEF7-4A9E-83F1-1F7A01EA56F5}">
   <dimension ref="A1:J205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0564F7DC-65D2-44B0-81DC-B2748E3F8C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F892700-D9CD-4F4C-B263-064649AFE445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1440,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76379A21-FEF7-4A9E-83F1-1F7A01EA56F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27E465F-D2BC-493F-9735-C1BF46FA7928}">
   <dimension ref="A1:J205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F892700-D9CD-4F4C-B263-064649AFE445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C4A8DB5-97FE-4285-9052-B9CDC24F6026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1440,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27E465F-D2BC-493F-9735-C1BF46FA7928}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21AA5690-D906-47B2-BFD1-AF5A43A1B3F1}">
   <dimension ref="A1:J205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C4A8DB5-97FE-4285-9052-B9CDC24F6026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0778847E-BC81-4805-AADF-4F23D9B631A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1440,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21AA5690-D906-47B2-BFD1-AF5A43A1B3F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB40A23E-4FD0-4F27-B955-E47CDD8E660F}">
   <dimension ref="A1:J205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0778847E-BC81-4805-AADF-4F23D9B631A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E97BEAC6-F56A-4A23-8549-834D5D8582AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1440,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB40A23E-4FD0-4F27-B955-E47CDD8E660F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F76F9CC-61C2-459D-9DC4-A2D27EAD0DCF}">
   <dimension ref="A1:J205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E97BEAC6-F56A-4A23-8549-834D5D8582AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15E39DF8-E14C-4D03-8874-473C7D14F746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1440,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F76F9CC-61C2-459D-9DC4-A2D27EAD0DCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E69D40-72B2-447F-A10E-F6C09FD800DC}">
   <dimension ref="A1:J205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15E39DF8-E14C-4D03-8874-473C7D14F746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC2131E4-87BF-4D54-B5C9-1C5B2042D889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1440,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E69D40-72B2-447F-A10E-F6C09FD800DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB28D3A7-6CFB-47F8-9868-59E2A9124283}">
   <dimension ref="A1:J205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC2131E4-87BF-4D54-B5C9-1C5B2042D889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{632E4403-1A22-43BD-A199-B7D19A7A8B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1440,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB28D3A7-6CFB-47F8-9868-59E2A9124283}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{014C6B2B-DB81-4096-A0CB-0997BC1D8589}">
   <dimension ref="A1:J205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{632E4403-1A22-43BD-A199-B7D19A7A8B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{344C3AA6-6E29-401E-A22F-BCA31A991E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1440,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{014C6B2B-DB81-4096-A0CB-0997BC1D8589}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1EBB8A6-98AC-44EA-836A-4CDE2E4CCA1C}">
   <dimension ref="A1:J205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -6007,16 +6007,16 @@
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A155" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B155" s="10">
+      <c r="A155" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B155" s="12">
         <v>2019</v>
       </c>
-      <c r="C155" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D155" s="11">
+      <c r="C155" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D155" s="13">
         <v>0.71</v>
       </c>
     </row>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{344C3AA6-6E29-401E-A22F-BCA31A991E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02EB4E6A-5A7B-4E00-9F48-F02B6DC21DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1440,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1EBB8A6-98AC-44EA-836A-4CDE2E4CCA1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47C7816-ECBC-4AA3-8497-E823104D1EC8}">
   <dimension ref="A1:J205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -6007,16 +6007,16 @@
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A155" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B155" s="12">
+      <c r="A155" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B155" s="10">
         <v>2019</v>
       </c>
-      <c r="C155" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D155" s="13">
+      <c r="C155" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D155" s="11">
         <v>0.71</v>
       </c>
     </row>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02EB4E6A-5A7B-4E00-9F48-F02B6DC21DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0843F460-48F0-4B94-90A6-CCD9065B2931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1440,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47C7816-ECBC-4AA3-8497-E823104D1EC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3027ADC4-3172-4600-8776-A1B4EB122AC3}">
   <dimension ref="A1:J205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0843F460-48F0-4B94-90A6-CCD9065B2931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{847F0F24-74FF-45C4-89B2-AE30FD83A0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1440,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3027ADC4-3172-4600-8776-A1B4EB122AC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D28895-A875-4FF6-8B1A-5A66424DA01E}">
   <dimension ref="A1:J205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{847F0F24-74FF-45C4-89B2-AE30FD83A0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B80C053F-E7C8-4A02-8A53-76D0B788C7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="132">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -333,610 +333,163 @@
     <t>pasti</t>
   </si>
   <si>
-    <t>g_CH1-220-CH26-220</t>
-  </si>
-  <si>
-    <t>g_CH11-220-CH28-220</t>
-  </si>
-  <si>
-    <t>g_CH11-220-CH35-220</t>
-  </si>
-  <si>
-    <t>g_CH11-220-w55695765-220</t>
-  </si>
-  <si>
-    <t>g_CH12-220-CH46-220</t>
-  </si>
-  <si>
-    <t>g_CH13-220-CH14-220</t>
-  </si>
-  <si>
-    <t>g_CH15-220-r5378910-220</t>
-  </si>
-  <si>
-    <t>g_CH18-220-CH29-220</t>
-  </si>
-  <si>
-    <t>g_CH18-220-w146225999-220</t>
-  </si>
-  <si>
-    <t>g_CH19-220-CH34-220</t>
-  </si>
-  <si>
-    <t>g_CH19-220-CH49-225</t>
-  </si>
-  <si>
-    <t>g_CH2-220-CH11-220</t>
-  </si>
-  <si>
-    <t>g_CH2-220-w55695765-220</t>
-  </si>
-  <si>
-    <t>g_CH2-220-w55698557-220</t>
-  </si>
-  <si>
-    <t>g_CH20-220-CH18-220</t>
-  </si>
-  <si>
-    <t>g_CH20-220-CH37-380</t>
-  </si>
-  <si>
-    <t>g_CH20-220-CH60-225</t>
-  </si>
-  <si>
-    <t>g_CH21-220-CH11-220</t>
-  </si>
-  <si>
-    <t>g_CH21-220-CH2-220</t>
-  </si>
-  <si>
-    <t>g_CH21-220-CH35-220</t>
-  </si>
-  <si>
-    <t>g_CH22-220-w402055336-220</t>
-  </si>
-  <si>
-    <t>g_CH23-220-CH25-220</t>
-  </si>
-  <si>
-    <t>g_CH23-220-CH47-220</t>
-  </si>
-  <si>
-    <t>g_CH23-220-CH59-220</t>
-  </si>
-  <si>
-    <t>g_CH23-220-w281800404-220</t>
-  </si>
-  <si>
-    <t>g_CH24-220-CH16-380</t>
-  </si>
-  <si>
-    <t>g_CH24-220-CH17-380</t>
-  </si>
-  <si>
-    <t>g_CH24-220-w140873735-220</t>
-  </si>
-  <si>
-    <t>g_CH25-220-CH12-220</t>
-  </si>
-  <si>
-    <t>g_CH25-220-CH23-220</t>
-  </si>
-  <si>
-    <t>g_CH25-220-CH44-220</t>
-  </si>
-  <si>
-    <t>g_CH25-220-CH46-220</t>
-  </si>
-  <si>
-    <t>g_CH25-220-w281822905-220</t>
-  </si>
-  <si>
-    <t>g_CH26-220-CH13-220</t>
-  </si>
-  <si>
-    <t>g_CH27-220-CH25-220</t>
-  </si>
-  <si>
-    <t>g_CH27-220-CH38-220</t>
-  </si>
-  <si>
-    <t>g_CH27-220-CH46-220</t>
-  </si>
-  <si>
-    <t>g_CH27-220-w50319857-220</t>
-  </si>
-  <si>
-    <t>g_CH28-220-CH29-220</t>
-  </si>
-  <si>
-    <t>g_CH28-220-w281804158-220</t>
-  </si>
-  <si>
-    <t>g_CH3-220-CH18-220</t>
-  </si>
-  <si>
-    <t>g_CH31-220-CH36-220</t>
-  </si>
-  <si>
-    <t>g_CH31-220-CH45-220</t>
-  </si>
-  <si>
-    <t>g_CH31-220-w22899676-220</t>
-  </si>
-  <si>
-    <t>g_CH31-220-w31308888-220</t>
-  </si>
-  <si>
-    <t>g_CH31-220-w35840165-380</t>
-  </si>
-  <si>
-    <t>g_CH32-220-CH31-220</t>
-  </si>
-  <si>
-    <t>g_CH32-220-CH35-220</t>
-  </si>
-  <si>
-    <t>g_CH32-220-CH43-220</t>
-  </si>
-  <si>
-    <t>g_CH32-220-w232662311-220</t>
-  </si>
-  <si>
-    <t>g_CH33-380-CH15-220</t>
-  </si>
-  <si>
-    <t>g_CH33-380-CH40-220</t>
-  </si>
-  <si>
-    <t>g_CH34-220-CH35-220</t>
-  </si>
-  <si>
-    <t>g_CH35-220-CH41-380</t>
-  </si>
-  <si>
-    <t>g_CH35-220-w44496892-220</t>
-  </si>
-  <si>
-    <t>g_CH36-220-CH1-220</t>
-  </si>
-  <si>
-    <t>g_CH36-220-CH44-220</t>
-  </si>
-  <si>
-    <t>g_CH37-380-w242269161-220</t>
-  </si>
-  <si>
-    <t>g_CH38-220-CH26-220</t>
-  </si>
-  <si>
-    <t>g_CH38-220-CH50-220</t>
-  </si>
-  <si>
-    <t>g_CH39-220-CH18-220</t>
-  </si>
-  <si>
-    <t>g_CH39-220-CH29-220</t>
-  </si>
-  <si>
-    <t>g_CH39-220-w88901626-380</t>
-  </si>
-  <si>
-    <t>g_CH4-220-CH31-220</t>
-  </si>
-  <si>
-    <t>g_CH40-220-CH33-380</t>
-  </si>
-  <si>
-    <t>g_CH40-220-w122720993-220</t>
-  </si>
-  <si>
-    <t>g_CH40-220-w52738225-220</t>
-  </si>
-  <si>
-    <t>g_CH41-380-CH22-220</t>
-  </si>
-  <si>
-    <t>g_CH41-380-CH23-220</t>
-  </si>
-  <si>
-    <t>g_CH41-380-w35487135-220</t>
-  </si>
-  <si>
-    <t>g_CH42-220-CH49-225</t>
-  </si>
-  <si>
-    <t>g_CH43-220-w234983117-220</t>
-  </si>
-  <si>
-    <t>g_CH44-220-CH1-220</t>
-  </si>
-  <si>
-    <t>g_CH44-220-CH36-220</t>
-  </si>
-  <si>
-    <t>g_CH45-220-w238138373-380</t>
-  </si>
-  <si>
-    <t>g_CH45-220-w98648381-220</t>
-  </si>
-  <si>
-    <t>g_CH47-220-CH38-220</t>
-  </si>
-  <si>
-    <t>g_CH48-225-CH11-220</t>
-  </si>
-  <si>
-    <t>g_CH48-225-CH5-220</t>
-  </si>
-  <si>
-    <t>g_CH49-225-CH35-220</t>
-  </si>
-  <si>
-    <t>g_CH5-220-CH48-225</t>
-  </si>
-  <si>
-    <t>g_CH50-220-w455120191-220</t>
-  </si>
-  <si>
-    <t>g_CH51-220-CH52-220</t>
-  </si>
-  <si>
-    <t>g_CH52-220-CH56-220</t>
-  </si>
-  <si>
-    <t>g_CH53-225-w30350721-220</t>
-  </si>
-  <si>
-    <t>g_CH56-220-CH58-220</t>
-  </si>
-  <si>
-    <t>g_CH57-220-CH53-225</t>
-  </si>
-  <si>
-    <t>g_CH57-220-w207993342-220</t>
-  </si>
-  <si>
-    <t>g_CH58-220-w71500123-220</t>
-  </si>
-  <si>
-    <t>g_CH59-220-w365556107-220</t>
-  </si>
-  <si>
-    <t>g_CH6-220-CH9-220</t>
-  </si>
-  <si>
-    <t>g_CH6-220-w26166640-220</t>
-  </si>
-  <si>
-    <t>g_CH60-225-w212722603-220</t>
-  </si>
-  <si>
-    <t>g_CH7-220-w364949845-220</t>
-  </si>
-  <si>
-    <t>g_CH9-220-r9310861-220</t>
-  </si>
-  <si>
-    <t>g_r7933294-380-CH57-220</t>
-  </si>
-  <si>
-    <t>g_r7933294-380-w108257952-220</t>
-  </si>
-  <si>
-    <t>g_r9310861-220-w260211728-225</t>
-  </si>
-  <si>
-    <t>g_w100662075-220-w108257952-220</t>
-  </si>
-  <si>
-    <t>g_w100662075-220-w208780268-380</t>
-  </si>
-  <si>
-    <t>g_w108257952-220-r7933294-380</t>
-  </si>
-  <si>
-    <t>g_w1086214433-220-w165254212-220</t>
-  </si>
-  <si>
-    <t>g_w1086214433-220-w97941869-220</t>
-  </si>
-  <si>
-    <t>g_w109037817-220-r5378910-220</t>
-  </si>
-  <si>
-    <t>g_w1092884227-220-CH26-220</t>
-  </si>
-  <si>
-    <t>g_w1092884227-220-CH30-380</t>
-  </si>
-  <si>
-    <t>g_w1105061707-220-CH4-220</t>
-  </si>
-  <si>
-    <t>g_w111162936-220-w11282314-220</t>
-  </si>
-  <si>
-    <t>g_w111162936-220-w55698557-220</t>
-  </si>
-  <si>
-    <t>g_w11282314-220-CH29-220</t>
-  </si>
-  <si>
-    <t>g_w1208713169-220-CH14-220</t>
-  </si>
-  <si>
-    <t>g_w122720993-220-w127004407-380</t>
-  </si>
-  <si>
-    <t>g_w127004407-380-CH28-220</t>
-  </si>
-  <si>
-    <t>g_w130198336-220-w1284913429-220</t>
-  </si>
-  <si>
-    <t>g_w132373704-220-w969811258-220</t>
-  </si>
-  <si>
-    <t>g_w1327084723-220-CH30-380</t>
-  </si>
-  <si>
-    <t>g_w146225999-220-CH37-380</t>
-  </si>
-  <si>
-    <t>g_w146225999-220-w130198336-220</t>
-  </si>
-  <si>
-    <t>g_w147557680-220-w147714395-220</t>
-  </si>
-  <si>
-    <t>g_w147557680-220-w391576135-220</t>
-  </si>
-  <si>
-    <t>g_w148015471-220-w36348118-220</t>
-  </si>
-  <si>
-    <t>g_w159527493-220-CH59-220</t>
-  </si>
-  <si>
-    <t>g_w161853746-220-w92873516-220</t>
-  </si>
-  <si>
-    <t>g_w165254212-220-w758943072-220</t>
-  </si>
-  <si>
-    <t>g_w177392130-220-CH2-220</t>
-  </si>
-  <si>
-    <t>g_w190819048-220-CH6-220</t>
-  </si>
-  <si>
-    <t>g_w192677427-220-w209324991-220</t>
-  </si>
-  <si>
-    <t>g_w194258388-220-CH27-220</t>
-  </si>
-  <si>
-    <t>g_w207991759-380-CH31-220</t>
-  </si>
-  <si>
-    <t>g_w207991759-380-w402055336-220</t>
-  </si>
-  <si>
-    <t>g_w209324991-220-CH1-220</t>
-  </si>
-  <si>
-    <t>g_w209324991-220-w159527493-220</t>
-  </si>
-  <si>
-    <t>g_w210568055-220-CH26-220</t>
-  </si>
-  <si>
-    <t>g_w210568055-220-w27435934-220</t>
-  </si>
-  <si>
-    <t>g_w211907009-220-CH2-220</t>
-  </si>
-  <si>
-    <t>g_w228003081-220-w1105061707-220</t>
-  </si>
-  <si>
-    <t>g_w228003081-220-w36348118-220</t>
-  </si>
-  <si>
-    <t>g_w22899676-220-CH31-220</t>
-  </si>
-  <si>
-    <t>g_w22899676-220-CH51-220</t>
-  </si>
-  <si>
-    <t>g_w22899676-220-w212498548-220</t>
-  </si>
-  <si>
-    <t>g_w232662311-220-CH31-220</t>
-  </si>
-  <si>
-    <t>g_w234983117-220-CH11-220</t>
-  </si>
-  <si>
-    <t>g_w236819191-220-w192677427-220</t>
-  </si>
-  <si>
-    <t>g_w236819191-220-w402053379-220</t>
-  </si>
-  <si>
-    <t>g_w238138373-380-w30350721-220</t>
-  </si>
-  <si>
-    <t>g_w239937062-220-CH2-220</t>
-  </si>
-  <si>
-    <t>g_w239937062-220-w177392130-220</t>
-  </si>
-  <si>
-    <t>g_w240575085-220-w234983117-220</t>
-  </si>
-  <si>
-    <t>g_w240959264-220-CH35-220</t>
-  </si>
-  <si>
-    <t>g_w240959264-220-w161853746-220</t>
-  </si>
-  <si>
-    <t>g_w242269161-220-w211907009-220</t>
-  </si>
-  <si>
-    <t>g_w26166640-220-CH26-220</t>
-  </si>
-  <si>
-    <t>g_w26843160-220-w87281514-220</t>
-  </si>
-  <si>
-    <t>g_w27107779-220-CH50-220</t>
-  </si>
-  <si>
-    <t>g_w27107779-220-w758943072-220</t>
-  </si>
-  <si>
-    <t>g_w281800404-220-CH59-220</t>
-  </si>
-  <si>
-    <t>g_w281803398-220-CH20-220</t>
-  </si>
-  <si>
-    <t>g_w281804158-220-w127004407-380</t>
-  </si>
-  <si>
-    <t>g_w281804158-220-w281799252-220</t>
-  </si>
-  <si>
-    <t>g_w281809991-220-CH3-220</t>
-  </si>
-  <si>
-    <t>g_w281815404-220-w140873735-220</t>
-  </si>
-  <si>
-    <t>g_w281815404-220-w212722603-220</t>
-  </si>
-  <si>
-    <t>g_w281822905-220-w159527493-220</t>
-  </si>
-  <si>
-    <t>g_w30350721-220-CH5-220</t>
-  </si>
-  <si>
-    <t>g_w30350721-220-CH57-220</t>
-  </si>
-  <si>
-    <t>g_w30350721-220-w26843160-220</t>
-  </si>
-  <si>
-    <t>g_w31308888-220-CH11-220</t>
-  </si>
-  <si>
-    <t>g_w33271433-220-w87281514-220</t>
-  </si>
-  <si>
-    <t>g_w35002638-220-w969819301-220</t>
-  </si>
-  <si>
-    <t>g_w35487135-220-CH23-220</t>
-  </si>
-  <si>
-    <t>g_w356292116-220-CH19-220</t>
-  </si>
-  <si>
-    <t>g_w356292116-220-w397960460-380</t>
-  </si>
-  <si>
-    <t>g_w35840165-380-CH36-220</t>
-  </si>
-  <si>
-    <t>g_w36348118-220-w148015471-220</t>
-  </si>
-  <si>
-    <t>g_w36348118-220-w391576135-220</t>
-  </si>
-  <si>
-    <t>g_w364949845-220-w1327084723-220</t>
-  </si>
-  <si>
-    <t>g_w365556107-220-w35002638-220</t>
-  </si>
-  <si>
-    <t>g_w391576135-220-w1327084723-220</t>
-  </si>
-  <si>
-    <t>g_w391576135-220-w147714395-220</t>
-  </si>
-  <si>
-    <t>g_w391576135-220-w431234146-220</t>
-  </si>
-  <si>
-    <t>g_w391577741-220-w100662075-220</t>
-  </si>
-  <si>
-    <t>g_w391577741-220-w1105061707-220</t>
-  </si>
-  <si>
-    <t>g_w397960460-380-CH32-220</t>
-  </si>
-  <si>
-    <t>g_w402053379-220-w969811258-220</t>
-  </si>
-  <si>
-    <t>g_w402055336-220-w132373704-220</t>
-  </si>
-  <si>
-    <t>g_w44496892-220-CH41-380</t>
-  </si>
-  <si>
-    <t>g_w50319857-220-CH38-220</t>
-  </si>
-  <si>
-    <t>g_w52738225-220-w50561341-220</t>
-  </si>
-  <si>
-    <t>g_w55695765-220-w240959264-220</t>
-  </si>
-  <si>
-    <t>g_w71500123-220-CH4-220</t>
-  </si>
-  <si>
-    <t>g_w71500123-220-r5378910-220</t>
-  </si>
-  <si>
-    <t>g_w758315582-220-CH60-225</t>
-  </si>
-  <si>
-    <t>g_w802058337-220-CH23-220</t>
-  </si>
-  <si>
-    <t>g_w802058337-220-w89977424-220</t>
-  </si>
-  <si>
-    <t>g_w83861269-220-CH20-220</t>
-  </si>
-  <si>
-    <t>g_w88901626-380-CH29-220</t>
-  </si>
-  <si>
-    <t>g_w89405664-220-w165254212-220</t>
-  </si>
-  <si>
-    <t>g_w92873516-220-CH22-220</t>
-  </si>
-  <si>
-    <t>g_w969811258-220-w132373704-220</t>
-  </si>
-  <si>
-    <t>g_w969819301-220-CH25-220</t>
-  </si>
-  <si>
-    <t>g_w969819301-220-w1086214433-220</t>
-  </si>
-  <si>
-    <t>g_w969819301-220-w758943072-220</t>
+    <t>g_CH1-220-CH12-220</t>
+  </si>
+  <si>
+    <t>g_CH1-220-CH16-380</t>
+  </si>
+  <si>
+    <t>g_CH1-220-CH18-220</t>
+  </si>
+  <si>
+    <t>g_CH1-220-CH51-220</t>
+  </si>
+  <si>
+    <t>g_CH1-220-r7933294-380</t>
+  </si>
+  <si>
+    <t>g_CH1-220-w122720993-220</t>
+  </si>
+  <si>
+    <t>g_CH12-220-CH1-220</t>
+  </si>
+  <si>
+    <t>g_CH12-220-CH17-380</t>
+  </si>
+  <si>
+    <t>g_CH12-220-CH19-220</t>
+  </si>
+  <si>
+    <t>g_CH12-220-CH51-220</t>
+  </si>
+  <si>
+    <t>g_CH12-220-w127004407-380</t>
+  </si>
+  <si>
+    <t>g_CH16-380-CH19-220</t>
+  </si>
+  <si>
+    <t>g_CH16-380-CH32-220</t>
+  </si>
+  <si>
+    <t>g_CH17-380-w127004407-380</t>
+  </si>
+  <si>
+    <t>g_CH18-220-CH1-220</t>
+  </si>
+  <si>
+    <t>g_CH18-220-CH19-220</t>
+  </si>
+  <si>
+    <t>g_CH18-220-CH31-220</t>
+  </si>
+  <si>
+    <t>g_CH18-220-CH46-220</t>
+  </si>
+  <si>
+    <t>g_CH18-220-w232662311-220</t>
+  </si>
+  <si>
+    <t>g_CH19-220-CH12-220</t>
+  </si>
+  <si>
+    <t>g_CH19-220-w127004407-380</t>
+  </si>
+  <si>
+    <t>g_CH21-220-CH19-220</t>
+  </si>
+  <si>
+    <t>g_CH21-220-w228003081-220</t>
+  </si>
+  <si>
+    <t>g_CH30-380-CH45-220</t>
+  </si>
+  <si>
+    <t>g_CH30-380-CH48-225</t>
+  </si>
+  <si>
+    <t>g_CH31-220-CH1-220</t>
+  </si>
+  <si>
+    <t>g_CH31-220-CH46-220</t>
+  </si>
+  <si>
+    <t>g_CH32-220-CH12-220</t>
+  </si>
+  <si>
+    <t>g_CH4-220-CH19-220</t>
+  </si>
+  <si>
+    <t>g_CH41-380-CH45-220</t>
+  </si>
+  <si>
+    <t>g_CH43-220-CH18-220</t>
+  </si>
+  <si>
+    <t>g_CH43-220-r7933294-380</t>
+  </si>
+  <si>
+    <t>g_CH43-220-w108257952-220</t>
+  </si>
+  <si>
+    <t>g_CH45-220-w212722603-220</t>
+  </si>
+  <si>
+    <t>g_CH45-220-w758943072-220</t>
+  </si>
+  <si>
+    <t>g_CH46-220-CH4-220</t>
+  </si>
+  <si>
+    <t>g_CH50-220-CH1-220</t>
+  </si>
+  <si>
+    <t>g_CH50-220-CH41-380</t>
+  </si>
+  <si>
+    <t>g_CH51-220-CH1-220</t>
+  </si>
+  <si>
+    <t>g_CH51-220-CH12-220</t>
+  </si>
+  <si>
+    <t>g_r5378910-220-CH1-220</t>
+  </si>
+  <si>
+    <t>g_r5378910-220-CH50-220</t>
+  </si>
+  <si>
+    <t>g_r7933294-380-CH43-220</t>
+  </si>
+  <si>
+    <t>g_r7933294-380-CH45-220</t>
+  </si>
+  <si>
+    <t>g_w122720993-220-CH32-220</t>
+  </si>
+  <si>
+    <t>g_w194258388-220-CH19-220</t>
+  </si>
+  <si>
+    <t>g_w207991759-380-CH21-220</t>
+  </si>
+  <si>
+    <t>g_w209324991-220-CH50-220</t>
+  </si>
+  <si>
+    <t>g_w212722603-220-w209324991-220</t>
+  </si>
+  <si>
+    <t>g_w232662311-220-w758315582-220</t>
+  </si>
+  <si>
+    <t>g_w26166640-220-CH30-380</t>
+  </si>
+  <si>
+    <t>g_w26843160-220-w758315582-220</t>
+  </si>
+  <si>
+    <t>g_w758943072-220-CH45-220</t>
   </si>
   <si>
     <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by intuition · Accelerated with AI</t>
@@ -1005,7 +558,7 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
+      <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -1440,20 +993,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D28895-A875-4FF6-8B1A-5A66424DA01E}">
-  <dimension ref="A1:J205"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11183E8-E447-4096-B614-D8449FAD0D23}">
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="28.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
-        <v>280</v>
+        <v>131</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -1483,7 +1036,7 @@
         <v>78</v>
       </c>
       <c r="C4" s="11">
-        <v>2.1896590000000002</v>
+        <v>2.6812150000000003</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
@@ -1491,7 +1044,7 @@
         <v>79</v>
       </c>
       <c r="C5" s="13">
-        <v>0.98311199999999999</v>
+        <v>3.3962050000000001</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
@@ -1499,7 +1052,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="11">
-        <v>1.6981030000000001</v>
+        <v>1.4746679999999999</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
@@ -1507,7 +1060,7 @@
         <v>81</v>
       </c>
       <c r="C7" s="13">
-        <v>0.49155599999999999</v>
+        <v>2.6812150000000003</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
@@ -1515,7 +1068,7 @@
         <v>82</v>
       </c>
       <c r="C8" s="11">
-        <v>3.3962050000000001</v>
+        <v>0.98311199999999999</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
@@ -1523,7 +1076,7 @@
         <v>83</v>
       </c>
       <c r="C9" s="13">
-        <v>3.3962050000000001</v>
+        <v>0.98311199999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
@@ -1531,7 +1084,7 @@
         <v>84</v>
       </c>
       <c r="C10" s="11">
-        <v>0.98311199999999999</v>
+        <v>1.4746679999999999</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
@@ -1539,7 +1092,7 @@
         <v>85</v>
       </c>
       <c r="C11" s="13">
-        <v>1.6981030000000001</v>
+        <v>0.98311199999999999</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
@@ -1547,7 +1100,7 @@
         <v>86</v>
       </c>
       <c r="C12" s="11">
-        <v>1.005455</v>
+        <v>2.1896590000000002</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
@@ -1555,7 +1108,7 @@
         <v>87</v>
       </c>
       <c r="C13" s="13">
-        <v>1.6981030000000001</v>
+        <v>0.49155599999999999</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
@@ -1563,7 +1116,7 @@
         <v>88</v>
       </c>
       <c r="C14" s="11">
-        <v>0.49155599999999999</v>
+        <v>1.6981030000000001</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
@@ -1571,7 +1124,7 @@
         <v>89</v>
       </c>
       <c r="C15" s="13">
-        <v>0.49155599999999999</v>
+        <v>4.3793170000000003</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
@@ -1579,7 +1132,7 @@
         <v>90</v>
       </c>
       <c r="C16" s="11">
-        <v>0.49155599999999999</v>
+        <v>0.98311199999999999</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.45">
@@ -1587,7 +1140,7 @@
         <v>91</v>
       </c>
       <c r="C17" s="13">
-        <v>0.98311199999999999</v>
+        <v>3.3962050000000001</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.45">
@@ -1595,7 +1148,7 @@
         <v>92</v>
       </c>
       <c r="C18" s="11">
-        <v>1.6981030000000001</v>
+        <v>1.966224</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.45">
@@ -1603,7 +1156,7 @@
         <v>93</v>
       </c>
       <c r="C19" s="13">
-        <v>0.49155599999999999</v>
+        <v>0.98311199999999999</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.45">
@@ -1619,7 +1172,7 @@
         <v>95</v>
       </c>
       <c r="C21" s="13">
-        <v>1.6981030000000001</v>
+        <v>0.49155599999999999</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.45">
@@ -1627,7 +1180,7 @@
         <v>96</v>
       </c>
       <c r="C22" s="11">
-        <v>1.6981030000000001</v>
+        <v>0.98311199999999999</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.45">
@@ -1635,7 +1188,7 @@
         <v>97</v>
       </c>
       <c r="C23" s="13">
-        <v>1.6981030000000001</v>
+        <v>0.49155599999999999</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.45">
@@ -1643,7 +1196,7 @@
         <v>98</v>
       </c>
       <c r="C24" s="11">
-        <v>0.98311199999999999</v>
+        <v>1.6981030000000001</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.45">
@@ -1651,7 +1204,7 @@
         <v>99</v>
       </c>
       <c r="C25" s="13">
-        <v>1.6981030000000001</v>
+        <v>3.3962050000000001</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.45">
@@ -1667,7 +1220,7 @@
         <v>101</v>
       </c>
       <c r="C27" s="13">
-        <v>0.98311199999999999</v>
+        <v>2.1896590000000002</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.45">
@@ -1683,7 +1236,7 @@
         <v>103</v>
       </c>
       <c r="C29" s="13">
-        <v>2.2790319999999999</v>
+        <v>1.6981030000000001</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.45">
@@ -1691,7 +1244,7 @@
         <v>104</v>
       </c>
       <c r="C30" s="11">
-        <v>0.98311199999999999</v>
+        <v>0.49155599999999999</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.45">
@@ -1707,7 +1260,7 @@
         <v>106</v>
       </c>
       <c r="C32" s="11">
-        <v>0.98311199999999999</v>
+        <v>1.6981030000000001</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.45">
@@ -1715,7 +1268,7 @@
         <v>107</v>
       </c>
       <c r="C33" s="13">
-        <v>0.49155599999999999</v>
+        <v>0.98311199999999999</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.45">
@@ -1723,7 +1276,7 @@
         <v>108</v>
       </c>
       <c r="C34" s="11">
-        <v>0.98311199999999999</v>
+        <v>1.6981030000000001</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.45">
@@ -1731,7 +1284,7 @@
         <v>109</v>
       </c>
       <c r="C35" s="13">
-        <v>1.6981030000000001</v>
+        <v>0.98311199999999999</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.45">
@@ -1747,7 +1300,7 @@
         <v>111</v>
       </c>
       <c r="C37" s="13">
-        <v>0.49155599999999999</v>
+        <v>0.98311199999999999</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.45">
@@ -1755,7 +1308,7 @@
         <v>112</v>
       </c>
       <c r="C38" s="11">
-        <v>0.49155599999999999</v>
+        <v>0.98311199999999999</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.45">
@@ -1763,7 +1316,7 @@
         <v>113</v>
       </c>
       <c r="C39" s="13">
-        <v>1.6981030000000001</v>
+        <v>0.49155599999999999</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.45">
@@ -1771,7 +1324,7 @@
         <v>114</v>
       </c>
       <c r="C40" s="11">
-        <v>1.6981030000000001</v>
+        <v>0.98311199999999999</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.45">
@@ -1779,7 +1332,7 @@
         <v>115</v>
       </c>
       <c r="C41" s="13">
-        <v>0.49155599999999999</v>
+        <v>0.98311199999999999</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.45">
@@ -1787,7 +1340,7 @@
         <v>116</v>
       </c>
       <c r="C42" s="11">
-        <v>3.8877609999999998</v>
+        <v>1.966224</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.45">
@@ -1795,7 +1348,7 @@
         <v>117</v>
       </c>
       <c r="C43" s="13">
-        <v>0.49155599999999999</v>
+        <v>2.1896590000000002</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.45">
@@ -1803,7 +1356,7 @@
         <v>118</v>
       </c>
       <c r="C44" s="11">
-        <v>3.3962050000000001</v>
+        <v>3.3962060000000003</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.45">
@@ -1819,7 +1372,7 @@
         <v>120</v>
       </c>
       <c r="C46" s="11">
-        <v>0.98311199999999999</v>
+        <v>0.49155599999999999</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.45">
@@ -1827,7 +1380,7 @@
         <v>121</v>
       </c>
       <c r="C47" s="13">
-        <v>0.49155599999999999</v>
+        <v>3.8877609999999998</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.45">
@@ -1843,7 +1396,7 @@
         <v>123</v>
       </c>
       <c r="C49" s="13">
-        <v>0.98311199999999999</v>
+        <v>0.49155599999999999</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.45">
@@ -1851,7 +1404,7 @@
         <v>124</v>
       </c>
       <c r="C50" s="11">
-        <v>3.8877620000000004</v>
+        <v>3.3962050000000001</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.45">
@@ -1859,7 +1412,7 @@
         <v>125</v>
       </c>
       <c r="C51" s="13">
-        <v>2.1896590000000002</v>
+        <v>0.98311199999999999</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.45">
@@ -1875,7 +1428,7 @@
         <v>127</v>
       </c>
       <c r="C53" s="13">
-        <v>0.49155599999999999</v>
+        <v>0.98311199999999999</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.45">
@@ -1883,7 +1436,7 @@
         <v>128</v>
       </c>
       <c r="C54" s="11">
-        <v>1.6981030000000001</v>
+        <v>0.98311199999999999</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.45">
@@ -1891,7 +1444,7 @@
         <v>129</v>
       </c>
       <c r="C55" s="13">
-        <v>0.98311199999999999</v>
+        <v>0.49155599999999999</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.45">
@@ -1899,1199 +1452,7 @@
         <v>130</v>
       </c>
       <c r="C56" s="11">
-        <v>1.6981030000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B57" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C57" s="13">
-        <v>3.8877609999999998</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B58" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C58" s="11">
-        <v>1.6981030000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B59" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C59" s="13">
-        <v>1.6981030000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B60" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C60" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B61" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C61" s="13">
         <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B62" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C62" s="11">
-        <v>3.3962060000000003</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B63" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C63" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B64" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C64" s="11">
-        <v>1.005455</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B65" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C65" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B66" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C66" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B67" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C67" s="13">
-        <v>1.6981030000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B68" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C68" s="11">
-        <v>3.3962050000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B69" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C69" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B70" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C70" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B71" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C71" s="13">
-        <v>2.1896590000000002</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B72" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C72" s="11">
-        <v>3.3962050000000001</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B73" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C73" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B74" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C74" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B75" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C75" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B76" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C76" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B77" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C77" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B78" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C78" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B79" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="C79" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B80" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C80" s="11">
-        <v>3.3962050000000001</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B81" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C81" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B82" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C82" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B83" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C83" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B84" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C84" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B85" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="C85" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B86" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C86" s="11">
-        <v>1.4746679999999999</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B87" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="C87" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B88" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C88" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B89" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C89" s="13">
-        <v>1.4746679999999999</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B90" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C90" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B91" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C91" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B92" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C92" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B93" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C93" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B94" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C94" s="11">
-        <v>3.3962050000000001</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B95" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="C95" s="13">
-        <v>3.3962050000000001</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B96" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C96" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B97" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="C97" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B98" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C98" s="11">
-        <v>1.6981030000000001</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B99" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C99" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B100" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="C100" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B101" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="C101" s="13">
-        <v>3.3962050000000001</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B102" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C102" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B103" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="C103" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B104" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="C104" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B105" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="C105" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B106" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C106" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B107" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="C107" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B108" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C108" s="11">
-        <v>1.6981030000000001</v>
-      </c>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B109" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="C109" s="13">
-        <v>3.3962050000000001</v>
-      </c>
-    </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B110" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C110" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B111" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="C111" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B112" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C112" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B113" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="C113" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B114" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C114" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B115" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="C115" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B116" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="C116" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B117" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C117" s="13">
-        <v>1.0054560000000001</v>
-      </c>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B118" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="C118" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B119" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="C119" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B120" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C120" s="11">
-        <v>1.005455</v>
-      </c>
-    </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B121" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C121" s="13">
-        <v>1.005455</v>
-      </c>
-    </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B122" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C122" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B123" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C123" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B124" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C124" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B125" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="C125" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B126" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C126" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B127" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="C127" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B128" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C128" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B129" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="C129" s="13">
-        <v>3.3962050000000001</v>
-      </c>
-    </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B130" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="C130" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B131" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="C131" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B132" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="C132" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B133" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C133" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B134" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="C134" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B135" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="C135" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B136" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C136" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B137" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C137" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B138" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C138" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B139" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="C139" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B140" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C140" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B141" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="C141" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B142" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C142" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B143" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="C143" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B144" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="C144" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B145" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="C145" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B146" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="C146" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B147" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="C147" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B148" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="C148" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B149" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="C149" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B150" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="C150" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B151" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="C151" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B152" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="C152" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B153" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="C153" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B154" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C154" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B155" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="C155" s="13">
-        <v>3.3962050000000001</v>
-      </c>
-    </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B156" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C156" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B157" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="C157" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B158" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C158" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B159" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="C159" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B160" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C160" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B161" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="C161" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B162" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C162" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B163" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="C163" s="13">
-        <v>3.3962050000000001</v>
-      </c>
-    </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B164" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="C164" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B165" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="C165" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B166" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="C166" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B167" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="C167" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B168" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="C168" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B169" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="C169" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B170" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C170" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B171" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="C171" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B172" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="C172" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B173" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="C173" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B174" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="C174" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B175" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="C175" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B176" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="C176" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B177" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="C177" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B178" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C178" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B179" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="C179" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B180" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C180" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B181" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="C181" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B182" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C182" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B183" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="C183" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B184" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="C184" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B185" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="C185" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B186" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="C186" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B187" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="C187" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B188" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C188" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B189" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="C189" s="13">
-        <v>1.6981030000000001</v>
-      </c>
-    </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B190" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="C190" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B191" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C191" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B192" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="C192" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B193" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="C193" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B194" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C194" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B195" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="C195" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B196" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C196" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B197" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="C197" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B198" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C198" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B199" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="C199" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B200" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="C200" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B201" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="C201" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B202" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="C202" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B203" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="C203" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B204" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="C204" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B205" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="C205" s="13">
-        <v>0.49155599999999999</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B80C053F-E7C8-4A02-8A53-76D0B788C7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C13CF107-42C7-4FE9-A153-2E3C78852272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -993,7 +993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11183E8-E447-4096-B614-D8449FAD0D23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131242C2-034B-4E21-BF2F-96B372B2A6D9}">
   <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C13CF107-42C7-4FE9-A153-2E3C78852272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3B990C2-539D-4207-9842-EDE99494DF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -993,7 +993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131242C2-034B-4E21-BF2F-96B372B2A6D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21867474-FF01-4AA1-8E5E-66AD9B942010}">
   <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3B990C2-539D-4207-9842-EDE99494DF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBFC127E-76B4-437B-9D76-3C8A71009E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -993,7 +993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21867474-FF01-4AA1-8E5E-66AD9B942010}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A8DFD1-2C79-4265-AB5E-43084FE5A62E}">
   <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBFC127E-76B4-437B-9D76-3C8A71009E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BD0FDF1-0A3F-4145-960D-F85F5FBE4BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -993,7 +993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A8DFD1-2C79-4265-AB5E-43084FE5A62E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B15DBC4-04AA-46E2-BC11-2C2DF04A5B99}">
   <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BD0FDF1-0A3F-4145-960D-F85F5FBE4BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75214C83-49A4-407E-B7C2-972126147B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -993,7 +993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B15DBC4-04AA-46E2-BC11-2C2DF04A5B99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522F5038-AFF3-4307-B89B-422A94AF52C6}">
   <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75214C83-49A4-407E-B7C2-972126147B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3D1FBB3-2680-4539-A9DC-EF105CEB233D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -993,7 +993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522F5038-AFF3-4307-B89B-422A94AF52C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E926323-45F2-4906-8DBA-BC7E0AD873BA}">
   <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3D1FBB3-2680-4539-A9DC-EF105CEB233D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B140CA-43A2-4194-8470-EBB19724169C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="21600" windowHeight="12683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="grids_capacity" sheetId="4" r:id="rId1"/>
-    <sheet name="Veda" sheetId="1" r:id="rId2"/>
-    <sheet name="historical_data_long" sheetId="3" r:id="rId3"/>
+    <sheet name="Veda" sheetId="1" r:id="rId1"/>
+    <sheet name="historical_data_long" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -97,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="77">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -329,171 +328,6 @@
   <si>
     <t>UC_RHSRT~2050</t>
   </si>
-  <si>
-    <t>pasti</t>
-  </si>
-  <si>
-    <t>g_CH1-220-CH12-220</t>
-  </si>
-  <si>
-    <t>g_CH1-220-CH16-380</t>
-  </si>
-  <si>
-    <t>g_CH1-220-CH18-220</t>
-  </si>
-  <si>
-    <t>g_CH1-220-CH51-220</t>
-  </si>
-  <si>
-    <t>g_CH1-220-r7933294-380</t>
-  </si>
-  <si>
-    <t>g_CH1-220-w122720993-220</t>
-  </si>
-  <si>
-    <t>g_CH12-220-CH1-220</t>
-  </si>
-  <si>
-    <t>g_CH12-220-CH17-380</t>
-  </si>
-  <si>
-    <t>g_CH12-220-CH19-220</t>
-  </si>
-  <si>
-    <t>g_CH12-220-CH51-220</t>
-  </si>
-  <si>
-    <t>g_CH12-220-w127004407-380</t>
-  </si>
-  <si>
-    <t>g_CH16-380-CH19-220</t>
-  </si>
-  <si>
-    <t>g_CH16-380-CH32-220</t>
-  </si>
-  <si>
-    <t>g_CH17-380-w127004407-380</t>
-  </si>
-  <si>
-    <t>g_CH18-220-CH1-220</t>
-  </si>
-  <si>
-    <t>g_CH18-220-CH19-220</t>
-  </si>
-  <si>
-    <t>g_CH18-220-CH31-220</t>
-  </si>
-  <si>
-    <t>g_CH18-220-CH46-220</t>
-  </si>
-  <si>
-    <t>g_CH18-220-w232662311-220</t>
-  </si>
-  <si>
-    <t>g_CH19-220-CH12-220</t>
-  </si>
-  <si>
-    <t>g_CH19-220-w127004407-380</t>
-  </si>
-  <si>
-    <t>g_CH21-220-CH19-220</t>
-  </si>
-  <si>
-    <t>g_CH21-220-w228003081-220</t>
-  </si>
-  <si>
-    <t>g_CH30-380-CH45-220</t>
-  </si>
-  <si>
-    <t>g_CH30-380-CH48-225</t>
-  </si>
-  <si>
-    <t>g_CH31-220-CH1-220</t>
-  </si>
-  <si>
-    <t>g_CH31-220-CH46-220</t>
-  </si>
-  <si>
-    <t>g_CH32-220-CH12-220</t>
-  </si>
-  <si>
-    <t>g_CH4-220-CH19-220</t>
-  </si>
-  <si>
-    <t>g_CH41-380-CH45-220</t>
-  </si>
-  <si>
-    <t>g_CH43-220-CH18-220</t>
-  </si>
-  <si>
-    <t>g_CH43-220-r7933294-380</t>
-  </si>
-  <si>
-    <t>g_CH43-220-w108257952-220</t>
-  </si>
-  <si>
-    <t>g_CH45-220-w212722603-220</t>
-  </si>
-  <si>
-    <t>g_CH45-220-w758943072-220</t>
-  </si>
-  <si>
-    <t>g_CH46-220-CH4-220</t>
-  </si>
-  <si>
-    <t>g_CH50-220-CH1-220</t>
-  </si>
-  <si>
-    <t>g_CH50-220-CH41-380</t>
-  </si>
-  <si>
-    <t>g_CH51-220-CH1-220</t>
-  </si>
-  <si>
-    <t>g_CH51-220-CH12-220</t>
-  </si>
-  <si>
-    <t>g_r5378910-220-CH1-220</t>
-  </si>
-  <si>
-    <t>g_r5378910-220-CH50-220</t>
-  </si>
-  <si>
-    <t>g_r7933294-380-CH43-220</t>
-  </si>
-  <si>
-    <t>g_r7933294-380-CH45-220</t>
-  </si>
-  <si>
-    <t>g_w122720993-220-CH32-220</t>
-  </si>
-  <si>
-    <t>g_w194258388-220-CH19-220</t>
-  </si>
-  <si>
-    <t>g_w207991759-380-CH21-220</t>
-  </si>
-  <si>
-    <t>g_w209324991-220-CH50-220</t>
-  </si>
-  <si>
-    <t>g_w212722603-220-w209324991-220</t>
-  </si>
-  <si>
-    <t>g_w232662311-220-w758315582-220</t>
-  </si>
-  <si>
-    <t>g_w26166640-220-CH30-380</t>
-  </si>
-  <si>
-    <t>g_w26843160-220-w758315582-220</t>
-  </si>
-  <si>
-    <t>g_w758943072-220-CH45-220</t>
-  </si>
-  <si>
-    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by intuition · Accelerated with AI</t>
-  </si>
 </sst>
 </file>
 
@@ -502,7 +336,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,15 +390,8 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -586,12 +413,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF7F9FC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF19375F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,7 +460,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -656,9 +477,6 @@
     <xf numFmtId="2" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -993,481 +811,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E926323-45F2-4906-8DBA-BC7E0AD873BA}">
-  <dimension ref="A1:J56"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-    </row>
-    <row r="2" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B4" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="11">
-        <v>2.6812150000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B5" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="13">
-        <v>3.3962050000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B6" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="11">
-        <v>1.4746679999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B7" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="13">
-        <v>2.6812150000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B8" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B9" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B10" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="11">
-        <v>1.4746679999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B11" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B12" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="11">
-        <v>2.1896590000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B13" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B14" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="11">
-        <v>1.6981030000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B15" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="13">
-        <v>4.3793170000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B16" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B17" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="13">
-        <v>3.3962050000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B18" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="11">
-        <v>1.966224</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B19" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B20" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B21" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B22" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B23" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B24" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="11">
-        <v>1.6981030000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B25" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="13">
-        <v>3.3962050000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B26" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="11">
-        <v>3.3962050000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B27" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="13">
-        <v>2.1896590000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B28" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B29" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="13">
-        <v>1.6981030000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B30" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B31" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B32" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="11">
-        <v>1.6981030000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B33" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B34" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C34" s="11">
-        <v>1.6981030000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B35" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C35" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B36" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B37" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C37" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B38" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C38" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B39" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C39" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B40" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C40" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B41" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C41" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B42" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C42" s="11">
-        <v>1.966224</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B43" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="13">
-        <v>2.1896590000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B44" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C44" s="11">
-        <v>3.3962060000000003</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B45" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C45" s="13">
-        <v>1.6981030000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B46" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C46" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B47" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C47" s="13">
-        <v>3.8877609999999998</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B48" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C48" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B49" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C49" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B50" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C50" s="11">
-        <v>3.3962050000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B51" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C51" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B52" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C52" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B53" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C53" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B54" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C54" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B55" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C55" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B56" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C56" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL40"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
@@ -2212,7 +1559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC33DFE9-8C65-4A33-8FAE-96323628CE2A}">
   <dimension ref="A1:D626"/>
   <sheetViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B140CA-43A2-4194-8470-EBB19724169C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B16810-9CF7-4A23-A94A-05E85DB43069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1837" yWindow="1837" windowWidth="21600" windowHeight="12683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B16810-9CF7-4A23-A94A-05E85DB43069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E427BAAD-D346-4CA6-BCFF-0F16BB4AA5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1837" windowWidth="21600" windowHeight="12683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="12683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Veda" sheetId="1" r:id="rId1"/>
-    <sheet name="historical_data_long" sheetId="3" r:id="rId2"/>
+    <sheet name="grids" sheetId="4" r:id="rId1"/>
+    <sheet name="Veda" sheetId="1" r:id="rId2"/>
+    <sheet name="historical_data_long" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -96,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="176">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -327,16 +328,316 @@
   </si>
   <si>
     <t>UC_RHSRT~2050</t>
+  </si>
+  <si>
+    <t>pasti</t>
+  </si>
+  <si>
+    <t>ncap_cost</t>
+  </si>
+  <si>
+    <t>efficiency</t>
+  </si>
+  <si>
+    <t>g_CH1-220-CH12-220</t>
+  </si>
+  <si>
+    <t>g_CH1-220-CH16-380</t>
+  </si>
+  <si>
+    <t>g_CH1-220-CH18-220</t>
+  </si>
+  <si>
+    <t>g_CH1-220-CH51-220</t>
+  </si>
+  <si>
+    <t>g_CH1-220-r7933294-380</t>
+  </si>
+  <si>
+    <t>g_CH1-220-w122720993-220</t>
+  </si>
+  <si>
+    <t>g_CH12-220-CH1-220</t>
+  </si>
+  <si>
+    <t>g_CH12-220-CH17-380</t>
+  </si>
+  <si>
+    <t>g_CH12-220-CH19-220</t>
+  </si>
+  <si>
+    <t>g_CH12-220-CH51-220</t>
+  </si>
+  <si>
+    <t>g_CH12-220-w127004407-380</t>
+  </si>
+  <si>
+    <t>g_CH16-380-CH19-220</t>
+  </si>
+  <si>
+    <t>g_CH16-380-CH32-220</t>
+  </si>
+  <si>
+    <t>g_CH17-380-w127004407-380</t>
+  </si>
+  <si>
+    <t>g_CH18-220-CH1-220</t>
+  </si>
+  <si>
+    <t>g_CH18-220-CH19-220</t>
+  </si>
+  <si>
+    <t>g_CH18-220-CH31-220</t>
+  </si>
+  <si>
+    <t>g_CH18-220-CH46-220</t>
+  </si>
+  <si>
+    <t>g_CH18-220-w232662311-220</t>
+  </si>
+  <si>
+    <t>g_CH19-220-CH12-220</t>
+  </si>
+  <si>
+    <t>g_CH19-220-w127004407-380</t>
+  </si>
+  <si>
+    <t>g_CH21-220-CH19-220</t>
+  </si>
+  <si>
+    <t>g_CH21-220-w228003081-220</t>
+  </si>
+  <si>
+    <t>g_CH30-380-CH45-220</t>
+  </si>
+  <si>
+    <t>g_CH30-380-CH48-225</t>
+  </si>
+  <si>
+    <t>g_CH31-220-CH1-220</t>
+  </si>
+  <si>
+    <t>g_CH31-220-CH46-220</t>
+  </si>
+  <si>
+    <t>g_CH32-220-CH12-220</t>
+  </si>
+  <si>
+    <t>g_CH4-220-CH19-220</t>
+  </si>
+  <si>
+    <t>g_CH41-380-CH45-220</t>
+  </si>
+  <si>
+    <t>g_CH43-220-CH18-220</t>
+  </si>
+  <si>
+    <t>g_CH43-220-r7933294-380</t>
+  </si>
+  <si>
+    <t>g_CH43-220-w108257952-220</t>
+  </si>
+  <si>
+    <t>g_CH45-220-w212722603-220</t>
+  </si>
+  <si>
+    <t>g_CH45-220-w758943072-220</t>
+  </si>
+  <si>
+    <t>g_CH46-220-CH4-220</t>
+  </si>
+  <si>
+    <t>g_CH50-220-CH1-220</t>
+  </si>
+  <si>
+    <t>g_CH50-220-CH41-380</t>
+  </si>
+  <si>
+    <t>g_CH51-220-CH1-220</t>
+  </si>
+  <si>
+    <t>g_CH51-220-CH12-220</t>
+  </si>
+  <si>
+    <t>g_r5378910-220-CH1-220</t>
+  </si>
+  <si>
+    <t>g_r5378910-220-CH50-220</t>
+  </si>
+  <si>
+    <t>g_r7933294-380-CH43-220</t>
+  </si>
+  <si>
+    <t>g_r7933294-380-CH45-220</t>
+  </si>
+  <si>
+    <t>g_w122720993-220-CH32-220</t>
+  </si>
+  <si>
+    <t>g_w194258388-220-CH19-220</t>
+  </si>
+  <si>
+    <t>g_w207991759-380-CH21-220</t>
+  </si>
+  <si>
+    <t>g_w209324991-220-CH50-220</t>
+  </si>
+  <si>
+    <t>g_w212722603-220-w209324991-220</t>
+  </si>
+  <si>
+    <t>g_w232662311-220-w758315582-220</t>
+  </si>
+  <si>
+    <t>g_w26166640-220-CH30-380</t>
+  </si>
+  <si>
+    <t>g_w26843160-220-w758315582-220</t>
+  </si>
+  <si>
+    <t>g_w758943072-220-CH45-220</t>
+  </si>
+  <si>
+    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by intuition · Accelerated with AI</t>
+  </si>
+  <si>
+    <t>~tfm_ins-ts</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>flo_shar</t>
+  </si>
+  <si>
+    <t>elc_demand</t>
+  </si>
+  <si>
+    <t>e_CH1-220</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>e_CH12-220</t>
+  </si>
+  <si>
+    <t>e_CH16-380</t>
+  </si>
+  <si>
+    <t>e_CH17-380</t>
+  </si>
+  <si>
+    <t>e_CH18-220</t>
+  </si>
+  <si>
+    <t>e_CH19-220</t>
+  </si>
+  <si>
+    <t>e_CH21-220</t>
+  </si>
+  <si>
+    <t>e_CH30-380</t>
+  </si>
+  <si>
+    <t>e_CH31-220</t>
+  </si>
+  <si>
+    <t>e_CH32-220</t>
+  </si>
+  <si>
+    <t>e_CH4-220</t>
+  </si>
+  <si>
+    <t>e_CH41-380</t>
+  </si>
+  <si>
+    <t>e_CH43-220</t>
+  </si>
+  <si>
+    <t>e_CH45-220</t>
+  </si>
+  <si>
+    <t>e_CH46-220</t>
+  </si>
+  <si>
+    <t>e_CH48-225</t>
+  </si>
+  <si>
+    <t>e_CH50-220</t>
+  </si>
+  <si>
+    <t>e_CH51-220</t>
+  </si>
+  <si>
+    <t>e_r5378910-220</t>
+  </si>
+  <si>
+    <t>e_r7933294-380</t>
+  </si>
+  <si>
+    <t>e_w108257952-220</t>
+  </si>
+  <si>
+    <t>e_w122720993-220</t>
+  </si>
+  <si>
+    <t>e_w127004407-380</t>
+  </si>
+  <si>
+    <t>e_w194258388-220</t>
+  </si>
+  <si>
+    <t>e_w207991759-380</t>
+  </si>
+  <si>
+    <t>e_w209324991-220</t>
+  </si>
+  <si>
+    <t>e_w212722603-220</t>
+  </si>
+  <si>
+    <t>e_w228003081-220</t>
+  </si>
+  <si>
+    <t>e_w232662311-220</t>
+  </si>
+  <si>
+    <t>e_w26166640-220</t>
+  </si>
+  <si>
+    <t>e_w26843160-220</t>
+  </si>
+  <si>
+    <t>e_w758315582-220</t>
+  </si>
+  <si>
+    <t>e_w758943072-220</t>
+  </si>
+  <si>
+    <t>~tfm_topins</t>
+  </si>
+  <si>
+    <t>io</t>
+  </si>
+  <si>
+    <t>e_CH1-220,e_CH12-220,e_CH16-380,e_CH17-380,e_CH18-220,e_CH19-220,e_CH21-220,e_CH30-380,e_CH31-220,e_CH32-220,e_CH4-220,e_CH41-380,e_CH43-220,e_CH45-220,e_CH46-220,e_CH48-225,e_CH50-220,e_CH51-220,e_r5378910-220,e_r7933294-380,e_w108257952-220,e_w122720993-220,e_w127004407-380,e_w194258388-220,e_w207991759-380,e_w209324991-220,e_w212722603-220,e_w228003081-220,e_w232662311-220,e_w26166640-220,e_w26843160-220,e_w758315582-220,e_w758943072-220</t>
+  </si>
+  <si>
+    <t>in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,8 +691,15 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,6 +721,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF7F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF19375F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,7 +774,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -477,6 +791,15 @@
     <xf numFmtId="2" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,6 +816,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>296862</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B795DF05-8764-F3E2-0071-EF059EA54459}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5245100" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -811,10 +1189,1438 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCED85A-D595-4AA8-91F3-FBF796F148D0}">
+  <dimension ref="A1:M56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="10.59765625" customWidth="1"/>
+    <col min="8" max="8" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="10.59765625" customWidth="1"/>
+    <col min="12" max="12" width="30.59765625" customWidth="1"/>
+    <col min="13" max="13" width="10.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="I3" s="9">
+        <v>2022</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="11">
+        <v>2.6812150000000003</v>
+      </c>
+      <c r="D4" s="15">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="E4" s="16">
+        <v>2.2200000000000002E-3</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I4" s="19">
+        <v>0.10551969080899715</v>
+      </c>
+      <c r="J4" s="11">
+        <v>3</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B5" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="13">
+        <v>3.3962050000000001</v>
+      </c>
+      <c r="D5" s="17">
+        <v>104.50000000000001</v>
+      </c>
+      <c r="E5" s="18">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="I5" s="20">
+        <v>3.6101669722043206E-2</v>
+      </c>
+      <c r="J5" s="13">
+        <v>3</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B6" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1.4746679999999999</v>
+      </c>
+      <c r="D6" s="15">
+        <v>49.500000000000007</v>
+      </c>
+      <c r="E6" s="16">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="I6" s="19">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
+        <v>3</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B7" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="13">
+        <v>2.6812150000000003</v>
+      </c>
+      <c r="D7" s="17">
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E7" s="18">
+        <v>1.4400000000000001E-3</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="I7" s="20">
+        <v>1.1827743483806514E-2</v>
+      </c>
+      <c r="J7" s="13">
+        <v>3</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B8" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D8" s="15">
+        <v>116.60000000000001</v>
+      </c>
+      <c r="E8" s="16">
+        <v>6.3600000000000002E-3</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="I8" s="19">
+        <v>3.7419396442152121E-3</v>
+      </c>
+      <c r="J8" s="11">
+        <v>3</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B9" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D9" s="17">
+        <v>19.8</v>
+      </c>
+      <c r="E9" s="18">
+        <v>1.08E-3</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="I9" s="20">
+        <v>1.2720770776540331E-2</v>
+      </c>
+      <c r="J9" s="13">
+        <v>3</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B10" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1.4746679999999999</v>
+      </c>
+      <c r="D10" s="15">
+        <v>33</v>
+      </c>
+      <c r="E10" s="16">
+        <v>1.8E-3</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I10" s="19">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11">
+        <v>3</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B11" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D11" s="17">
+        <v>49.500000000000007</v>
+      </c>
+      <c r="E11" s="18">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="I11" s="20">
+        <v>2.6773564597500597E-3</v>
+      </c>
+      <c r="J11" s="13">
+        <v>3</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B12" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="11">
+        <v>2.1896590000000002</v>
+      </c>
+      <c r="D12" s="15">
+        <v>102.30000000000001</v>
+      </c>
+      <c r="E12" s="16">
+        <v>5.5799999999999999E-3</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="I12" s="19">
+        <v>5.7161880850519167E-2</v>
+      </c>
+      <c r="J12" s="11">
+        <v>3</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B13" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D13" s="17">
+        <v>19.8</v>
+      </c>
+      <c r="E13" s="18">
+        <v>1.08E-3</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="I13" s="20">
+        <v>0</v>
+      </c>
+      <c r="J13" s="13">
+        <v>3</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B14" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1.6981030000000001</v>
+      </c>
+      <c r="D14" s="15">
+        <v>33</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1.8E-3</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="I14" s="19">
+        <v>3.9458348074913524E-2</v>
+      </c>
+      <c r="J14" s="11">
+        <v>3</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B15" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="13">
+        <v>4.3793170000000003</v>
+      </c>
+      <c r="D15" s="17">
+        <v>24.200000000000003</v>
+      </c>
+      <c r="E15" s="18">
+        <v>1.32E-3</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="I15" s="20">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>3</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B16" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D16" s="15">
+        <v>44</v>
+      </c>
+      <c r="E16" s="16">
+        <v>2.4000000000000002E-3</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="I16" s="19">
+        <v>0</v>
+      </c>
+      <c r="J16" s="11">
+        <v>3</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B17" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="13">
+        <v>3.3962050000000001</v>
+      </c>
+      <c r="D17" s="17">
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E17" s="18">
+        <v>1.0200000000000001E-3</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="I17" s="20">
+        <v>0</v>
+      </c>
+      <c r="J17" s="13">
+        <v>3</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B18" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="11">
+        <v>1.966224</v>
+      </c>
+      <c r="D18" s="15">
+        <v>59.400000000000006</v>
+      </c>
+      <c r="E18" s="16">
+        <v>3.2400000000000003E-3</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="I18" s="19">
+        <v>5.714092934075295E-3</v>
+      </c>
+      <c r="J18" s="11">
+        <v>3</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B19" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D19" s="17">
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E19" s="18">
+        <v>1.4400000000000001E-3</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="I19" s="20">
+        <v>2.1102360636358189E-2</v>
+      </c>
+      <c r="J19" s="13">
+        <v>3</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D20" s="15">
+        <v>23.1</v>
+      </c>
+      <c r="E20" s="16">
+        <v>1.2600000000000001E-3</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="I20" s="19">
+        <v>3.3996659211431433E-2</v>
+      </c>
+      <c r="J20" s="11">
+        <v>3</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B21" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D21" s="17">
+        <v>25.3</v>
+      </c>
+      <c r="E21" s="18">
+        <v>1.3799999999999999E-3</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="I21" s="20">
+        <v>0.11185887819915111</v>
+      </c>
+      <c r="J21" s="13">
+        <v>3</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B22" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D22" s="15">
+        <v>36.300000000000004</v>
+      </c>
+      <c r="E22" s="16">
+        <v>1.98E-3</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="I22" s="19">
+        <v>4.8089384145122364E-2</v>
+      </c>
+      <c r="J22" s="11">
+        <v>3</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B23" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D23" s="17">
+        <v>71.5</v>
+      </c>
+      <c r="E23" s="18">
+        <v>3.9000000000000003E-3</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="I23" s="20">
+        <v>0</v>
+      </c>
+      <c r="J23" s="13">
+        <v>3</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B24" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="11">
+        <v>1.6981030000000001</v>
+      </c>
+      <c r="D24" s="15">
+        <v>39.6</v>
+      </c>
+      <c r="E24" s="16">
+        <v>2.16E-3</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="I24" s="19">
+        <v>0.28618973577693746</v>
+      </c>
+      <c r="J24" s="11">
+        <v>3</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B25" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="13">
+        <v>3.3962050000000001</v>
+      </c>
+      <c r="D25" s="17">
+        <v>27.500000000000004</v>
+      </c>
+      <c r="E25" s="18">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="I25" s="20">
+        <v>1.2437062685473141E-2</v>
+      </c>
+      <c r="J25" s="13">
+        <v>3</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B26" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="11">
+        <v>3.3962050000000001</v>
+      </c>
+      <c r="D26" s="15">
+        <v>22</v>
+      </c>
+      <c r="E26" s="16">
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="I26" s="19">
+        <v>2.1995880905792378E-2</v>
+      </c>
+      <c r="J26" s="11">
+        <v>3</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B27" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="13">
+        <v>2.1896590000000002</v>
+      </c>
+      <c r="D27" s="17">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E27" s="18">
+        <v>3.8400000000000001E-3</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="I27" s="20">
+        <v>5.5975039444360079E-3</v>
+      </c>
+      <c r="J27" s="13">
+        <v>3</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B28" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D28" s="15">
+        <v>39.6</v>
+      </c>
+      <c r="E28" s="16">
+        <v>2.16E-3</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="I28" s="19">
+        <v>0</v>
+      </c>
+      <c r="J28" s="11">
+        <v>3</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B29" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="13">
+        <v>1.6981030000000001</v>
+      </c>
+      <c r="D29" s="17">
+        <v>116.60000000000001</v>
+      </c>
+      <c r="E29" s="18">
+        <v>6.3600000000000002E-3</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="I29" s="20">
+        <v>0</v>
+      </c>
+      <c r="J29" s="13">
+        <v>3</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B30" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D30" s="15">
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E30" s="16">
+        <v>1.4400000000000001E-3</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="I30" s="19">
+        <v>1.2693657058019586E-2</v>
+      </c>
+      <c r="J30" s="11">
+        <v>3</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B31" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D31" s="17">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="E31" s="18">
+        <v>2.2200000000000002E-3</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="I31" s="20">
+        <v>0</v>
+      </c>
+      <c r="J31" s="13">
+        <v>3</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B32" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="11">
+        <v>1.6981030000000001</v>
+      </c>
+      <c r="D32" s="15">
+        <v>49.500000000000007</v>
+      </c>
+      <c r="E32" s="16">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="I32" s="19">
+        <v>7.433349176641707E-3</v>
+      </c>
+      <c r="J32" s="11">
+        <v>3</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B33" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D33" s="17">
+        <v>23.1</v>
+      </c>
+      <c r="E33" s="18">
+        <v>1.2600000000000001E-3</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="I33" s="20">
+        <v>5.4291770500921571E-2</v>
+      </c>
+      <c r="J33" s="13">
+        <v>3</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B34" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="11">
+        <v>1.6981030000000001</v>
+      </c>
+      <c r="D34" s="15">
+        <v>20.900000000000002</v>
+      </c>
+      <c r="E34" s="16">
+        <v>1.14E-3</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="I34" s="19">
+        <v>8.1209530783282663E-2</v>
+      </c>
+      <c r="J34" s="11">
+        <v>3</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B35" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D35" s="17">
+        <v>30.800000000000004</v>
+      </c>
+      <c r="E35" s="18">
+        <v>1.6800000000000001E-3</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="I35" s="20">
+        <v>1.3937437273071906E-2</v>
+      </c>
+      <c r="J35" s="13">
+        <v>3</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B36" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D36" s="15">
+        <v>22</v>
+      </c>
+      <c r="E36" s="16">
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="I36" s="19">
+        <v>4.2432969484990255E-3</v>
+      </c>
+      <c r="J36" s="11">
+        <v>3</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B37" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D37" s="17">
+        <v>48.400000000000006</v>
+      </c>
+      <c r="E37" s="18">
+        <v>2.64E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B38" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D38" s="15">
+        <v>19.8</v>
+      </c>
+      <c r="E38" s="16">
+        <v>1.08E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B39" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D39" s="17">
+        <v>24.200000000000003</v>
+      </c>
+      <c r="E39" s="18">
+        <v>1.32E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B40" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D40" s="15">
+        <v>44</v>
+      </c>
+      <c r="E40" s="16">
+        <v>2.4000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B41" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D41" s="17">
+        <v>61.600000000000009</v>
+      </c>
+      <c r="E41" s="18">
+        <v>3.3600000000000001E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B42" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="11">
+        <v>1.966224</v>
+      </c>
+      <c r="D42" s="15">
+        <v>20.900000000000002</v>
+      </c>
+      <c r="E42" s="16">
+        <v>1.14E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B43" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="13">
+        <v>2.1896590000000002</v>
+      </c>
+      <c r="D43" s="17">
+        <v>23.1</v>
+      </c>
+      <c r="E43" s="18">
+        <v>1.2600000000000001E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B44" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="11">
+        <v>3.3962060000000003</v>
+      </c>
+      <c r="D44" s="15">
+        <v>71.5</v>
+      </c>
+      <c r="E44" s="16">
+        <v>3.9000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B45" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="13">
+        <v>1.6981030000000001</v>
+      </c>
+      <c r="D45" s="17">
+        <v>49.500000000000007</v>
+      </c>
+      <c r="E45" s="18">
+        <v>2.7000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B46" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D46" s="15">
+        <v>29.700000000000003</v>
+      </c>
+      <c r="E46" s="16">
+        <v>1.6200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B47" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" s="13">
+        <v>3.8877609999999998</v>
+      </c>
+      <c r="D47" s="17">
+        <v>30.800000000000004</v>
+      </c>
+      <c r="E47" s="18">
+        <v>1.6800000000000001E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B48" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D48" s="15">
+        <v>29.700000000000003</v>
+      </c>
+      <c r="E48" s="16">
+        <v>1.6200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B49" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D49" s="17">
+        <v>41.800000000000004</v>
+      </c>
+      <c r="E49" s="18">
+        <v>2.2799999999999999E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B50" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="11">
+        <v>3.3962050000000001</v>
+      </c>
+      <c r="D50" s="15">
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E50" s="16">
+        <v>2.9399999999999999E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B51" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D51" s="17">
+        <v>30.800000000000004</v>
+      </c>
+      <c r="E51" s="18">
+        <v>1.6800000000000001E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B52" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D52" s="15">
+        <v>19.8</v>
+      </c>
+      <c r="E52" s="16">
+        <v>1.08E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B53" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D53" s="17">
+        <v>19.8</v>
+      </c>
+      <c r="E53" s="18">
+        <v>1.08E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B54" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D54" s="15">
+        <v>27.500000000000004</v>
+      </c>
+      <c r="E54" s="16">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B55" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D55" s="17">
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E55" s="18">
+        <v>1.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B56" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D56" s="15">
+        <v>24.200000000000003</v>
+      </c>
+      <c r="E56" s="16">
+        <v>1.32E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
@@ -1559,7 +3365,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC33DFE9-8C65-4A33-8FAE-96323628CE2A}">
   <dimension ref="A1:D626"/>
   <sheetViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E427BAAD-D346-4CA6-BCFF-0F16BB4AA5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B6AAEB4-A3C8-403A-B0F0-AE7D83E051C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="12683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3308" yWindow="3308" windowWidth="21600" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grids" sheetId="4" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="177">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -505,6 +505,9 @@
   </si>
   <si>
     <t>commodity</t>
+  </si>
+  <si>
+    <t>lim_type</t>
   </si>
   <si>
     <t>flo_shar</t>
@@ -829,7 +832,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>296862</xdr:colOff>
+      <xdr:colOff>296863</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
@@ -838,7 +841,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B795DF05-8764-F3E2-0071-EF059EA54459}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96B7CD5A-F15E-83FB-83B4-F722D24436A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1189,22 +1192,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCED85A-D595-4AA8-91F3-FBF796F148D0}">
-  <dimension ref="A1:M56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1CA4A3-99C1-42D3-8551-B3EEFBB74662}">
+  <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="10.59765625" customWidth="1"/>
-    <col min="8" max="8" width="14.53125" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="10.59765625" customWidth="1"/>
-    <col min="12" max="12" width="30.59765625" customWidth="1"/>
-    <col min="13" max="13" width="10.59765625" customWidth="1"/>
+    <col min="3" max="5" width="10.59765625" customWidth="1"/>
+    <col min="8" max="9" width="10.59765625" customWidth="1"/>
+    <col min="10" max="10" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="10.59765625" customWidth="1"/>
+    <col min="15" max="15" width="30.59765625" customWidth="1"/>
+    <col min="16" max="16" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
         <v>133</v>
       </c>
@@ -1216,18 +1220,18 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="N2" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
@@ -1240,32 +1244,35 @@
       <c r="E3" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="I3" s="9">
+      <c r="K3" s="9">
         <v>2022</v>
       </c>
-      <c r="J3" s="9">
+      <c r="L3" s="9">
         <v>0</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="M3" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="N3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="O3" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="M3" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="P3" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B4" s="10" t="s">
         <v>80</v>
       </c>
@@ -1278,32 +1285,35 @@
       <c r="E4" s="16">
         <v>2.2200000000000002E-3</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="I4" s="19">
+      <c r="J4" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="K4" s="19">
         <v>0.10551969080899715</v>
       </c>
-      <c r="J4" s="11">
+      <c r="L4" s="11">
         <v>3</v>
       </c>
-      <c r="K4" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>174</v>
-      </c>
       <c r="M4" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="O4" s="10" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="P4" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B5" s="12" t="s">
         <v>81</v>
       </c>
@@ -1316,26 +1326,26 @@
       <c r="E5" s="18">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G5" s="12" t="s">
+      <c r="H5" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="I5" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="K5" s="20">
+        <v>3.6101669722043206E-2</v>
+      </c>
+      <c r="L5" s="13">
+        <v>3</v>
+      </c>
+      <c r="M5" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="I5" s="20">
-        <v>3.6101669722043206E-2</v>
-      </c>
-      <c r="J5" s="13">
-        <v>3</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B6" s="10" t="s">
         <v>82</v>
       </c>
@@ -1348,26 +1358,26 @@
       <c r="E6" s="16">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="G6" s="10" t="s">
+      <c r="H6" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="I6" s="19">
+      <c r="I6" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="K6" s="19">
         <v>0</v>
       </c>
-      <c r="J6" s="11">
+      <c r="L6" s="11">
         <v>3</v>
       </c>
-      <c r="K6" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M6" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B7" s="12" t="s">
         <v>83</v>
       </c>
@@ -1380,26 +1390,26 @@
       <c r="E7" s="18">
         <v>1.4400000000000001E-3</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G7" s="12" t="s">
+      <c r="H7" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="I7" s="20">
+      <c r="I7" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="K7" s="20">
         <v>1.1827743483806514E-2</v>
       </c>
-      <c r="J7" s="13">
+      <c r="L7" s="13">
         <v>3</v>
       </c>
-      <c r="K7" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M7" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B8" s="10" t="s">
         <v>84</v>
       </c>
@@ -1412,26 +1422,26 @@
       <c r="E8" s="16">
         <v>6.3600000000000002E-3</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="G8" s="10" t="s">
+      <c r="H8" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="I8" s="19">
+      <c r="I8" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="K8" s="19">
         <v>3.7419396442152121E-3</v>
       </c>
-      <c r="J8" s="11">
+      <c r="L8" s="11">
         <v>3</v>
       </c>
-      <c r="K8" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M8" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B9" s="12" t="s">
         <v>85</v>
       </c>
@@ -1444,26 +1454,26 @@
       <c r="E9" s="18">
         <v>1.08E-3</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G9" s="12" t="s">
+      <c r="H9" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="I9" s="20">
+      <c r="I9" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="K9" s="20">
         <v>1.2720770776540331E-2</v>
       </c>
-      <c r="J9" s="13">
+      <c r="L9" s="13">
         <v>3</v>
       </c>
-      <c r="K9" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M9" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B10" s="10" t="s">
         <v>86</v>
       </c>
@@ -1476,26 +1486,26 @@
       <c r="E10" s="16">
         <v>1.8E-3</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="G10" s="10" t="s">
+      <c r="H10" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="I10" s="19">
+      <c r="I10" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="K10" s="19">
         <v>0</v>
       </c>
-      <c r="J10" s="11">
+      <c r="L10" s="11">
         <v>3</v>
       </c>
-      <c r="K10" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M10" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B11" s="12" t="s">
         <v>87</v>
       </c>
@@ -1508,26 +1518,26 @@
       <c r="E11" s="18">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G11" s="12" t="s">
+      <c r="H11" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="I11" s="20">
+      <c r="I11" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K11" s="20">
         <v>2.6773564597500597E-3</v>
       </c>
-      <c r="J11" s="13">
+      <c r="L11" s="13">
         <v>3</v>
       </c>
-      <c r="K11" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M11" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B12" s="10" t="s">
         <v>88</v>
       </c>
@@ -1540,26 +1550,26 @@
       <c r="E12" s="16">
         <v>5.5799999999999999E-3</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="G12" s="10" t="s">
+      <c r="H12" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="I12" s="19">
+      <c r="I12" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="K12" s="19">
         <v>5.7161880850519167E-2</v>
       </c>
-      <c r="J12" s="11">
+      <c r="L12" s="11">
         <v>3</v>
       </c>
-      <c r="K12" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M12" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B13" s="12" t="s">
         <v>89</v>
       </c>
@@ -1572,26 +1582,26 @@
       <c r="E13" s="18">
         <v>1.08E-3</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G13" s="12" t="s">
+      <c r="H13" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="H13" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="I13" s="20">
+      <c r="I13" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="K13" s="20">
         <v>0</v>
       </c>
-      <c r="J13" s="13">
+      <c r="L13" s="13">
         <v>3</v>
       </c>
-      <c r="K13" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M13" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B14" s="10" t="s">
         <v>90</v>
       </c>
@@ -1604,26 +1614,26 @@
       <c r="E14" s="16">
         <v>1.8E-3</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="G14" s="10" t="s">
+      <c r="H14" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="I14" s="19">
+      <c r="I14" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="K14" s="19">
         <v>3.9458348074913524E-2</v>
       </c>
-      <c r="J14" s="11">
+      <c r="L14" s="11">
         <v>3</v>
       </c>
-      <c r="K14" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M14" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B15" s="12" t="s">
         <v>91</v>
       </c>
@@ -1636,26 +1646,26 @@
       <c r="E15" s="18">
         <v>1.32E-3</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G15" s="12" t="s">
+      <c r="H15" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="H15" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="I15" s="20">
+      <c r="I15" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K15" s="20">
         <v>0</v>
       </c>
-      <c r="J15" s="13">
+      <c r="L15" s="13">
         <v>3</v>
       </c>
-      <c r="K15" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M15" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B16" s="10" t="s">
         <v>92</v>
       </c>
@@ -1668,26 +1678,26 @@
       <c r="E16" s="16">
         <v>2.4000000000000002E-3</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="G16" s="10" t="s">
+      <c r="H16" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="H16" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="I16" s="19">
+      <c r="I16" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="K16" s="19">
         <v>0</v>
       </c>
-      <c r="J16" s="11">
+      <c r="L16" s="11">
         <v>3</v>
       </c>
-      <c r="K16" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M16" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B17" s="12" t="s">
         <v>93</v>
       </c>
@@ -1700,26 +1710,26 @@
       <c r="E17" s="18">
         <v>1.0200000000000001E-3</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G17" s="12" t="s">
+      <c r="H17" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="H17" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="I17" s="20">
+      <c r="I17" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="K17" s="20">
         <v>0</v>
       </c>
-      <c r="J17" s="13">
+      <c r="L17" s="13">
         <v>3</v>
       </c>
-      <c r="K17" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M17" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B18" s="10" t="s">
         <v>94</v>
       </c>
@@ -1732,26 +1742,26 @@
       <c r="E18" s="16">
         <v>3.2400000000000003E-3</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="G18" s="10" t="s">
+      <c r="H18" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="H18" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="I18" s="19">
+      <c r="I18" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="K18" s="19">
         <v>5.714092934075295E-3</v>
       </c>
-      <c r="J18" s="11">
+      <c r="L18" s="11">
         <v>3</v>
       </c>
-      <c r="K18" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M18" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B19" s="12" t="s">
         <v>95</v>
       </c>
@@ -1764,26 +1774,26 @@
       <c r="E19" s="18">
         <v>1.4400000000000001E-3</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G19" s="12" t="s">
+      <c r="H19" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="H19" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="I19" s="20">
+      <c r="I19" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="K19" s="20">
         <v>2.1102360636358189E-2</v>
       </c>
-      <c r="J19" s="13">
+      <c r="L19" s="13">
         <v>3</v>
       </c>
-      <c r="K19" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M19" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B20" s="10" t="s">
         <v>96</v>
       </c>
@@ -1796,26 +1806,26 @@
       <c r="E20" s="16">
         <v>1.2600000000000001E-3</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="G20" s="10" t="s">
+      <c r="H20" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="H20" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="I20" s="19">
+      <c r="I20" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="K20" s="19">
         <v>3.3996659211431433E-2</v>
       </c>
-      <c r="J20" s="11">
+      <c r="L20" s="11">
         <v>3</v>
       </c>
-      <c r="K20" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M20" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B21" s="12" t="s">
         <v>97</v>
       </c>
@@ -1828,26 +1838,26 @@
       <c r="E21" s="18">
         <v>1.3799999999999999E-3</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G21" s="12" t="s">
+      <c r="H21" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="H21" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="I21" s="20">
+      <c r="I21" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="K21" s="20">
         <v>0.11185887819915111</v>
       </c>
-      <c r="J21" s="13">
+      <c r="L21" s="13">
         <v>3</v>
       </c>
-      <c r="K21" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M21" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B22" s="10" t="s">
         <v>98</v>
       </c>
@@ -1860,26 +1870,26 @@
       <c r="E22" s="16">
         <v>1.98E-3</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="G22" s="10" t="s">
+      <c r="H22" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="H22" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="I22" s="19">
+      <c r="I22" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="K22" s="19">
         <v>4.8089384145122364E-2</v>
       </c>
-      <c r="J22" s="11">
+      <c r="L22" s="11">
         <v>3</v>
       </c>
-      <c r="K22" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M22" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B23" s="12" t="s">
         <v>99</v>
       </c>
@@ -1892,26 +1902,26 @@
       <c r="E23" s="18">
         <v>3.9000000000000003E-3</v>
       </c>
-      <c r="F23" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="12" t="s">
+      <c r="H23" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="H23" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="I23" s="20">
+      <c r="I23" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="K23" s="20">
         <v>0</v>
       </c>
-      <c r="J23" s="13">
+      <c r="L23" s="13">
         <v>3</v>
       </c>
-      <c r="K23" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M23" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B24" s="10" t="s">
         <v>100</v>
       </c>
@@ -1924,26 +1934,26 @@
       <c r="E24" s="16">
         <v>2.16E-3</v>
       </c>
-      <c r="F24" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="G24" s="10" t="s">
+      <c r="H24" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="H24" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="I24" s="19">
+      <c r="I24" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="K24" s="19">
         <v>0.28618973577693746</v>
       </c>
-      <c r="J24" s="11">
+      <c r="L24" s="11">
         <v>3</v>
       </c>
-      <c r="K24" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M24" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B25" s="12" t="s">
         <v>101</v>
       </c>
@@ -1956,26 +1966,26 @@
       <c r="E25" s="18">
         <v>1.5E-3</v>
       </c>
-      <c r="F25" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G25" s="12" t="s">
+      <c r="H25" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="H25" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="I25" s="20">
+      <c r="I25" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="K25" s="20">
         <v>1.2437062685473141E-2</v>
       </c>
-      <c r="J25" s="13">
+      <c r="L25" s="13">
         <v>3</v>
       </c>
-      <c r="K25" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M25" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B26" s="10" t="s">
         <v>102</v>
       </c>
@@ -1988,26 +1998,26 @@
       <c r="E26" s="16">
         <v>1.2000000000000001E-3</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="G26" s="10" t="s">
+      <c r="H26" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="H26" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="I26" s="19">
+      <c r="I26" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="K26" s="19">
         <v>2.1995880905792378E-2</v>
       </c>
-      <c r="J26" s="11">
+      <c r="L26" s="11">
         <v>3</v>
       </c>
-      <c r="K26" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M26" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B27" s="12" t="s">
         <v>103</v>
       </c>
@@ -2020,26 +2030,26 @@
       <c r="E27" s="18">
         <v>3.8400000000000001E-3</v>
       </c>
-      <c r="F27" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G27" s="12" t="s">
+      <c r="H27" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="H27" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="I27" s="20">
+      <c r="I27" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="K27" s="20">
         <v>5.5975039444360079E-3</v>
       </c>
-      <c r="J27" s="13">
+      <c r="L27" s="13">
         <v>3</v>
       </c>
-      <c r="K27" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M27" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B28" s="10" t="s">
         <v>104</v>
       </c>
@@ -2052,26 +2062,26 @@
       <c r="E28" s="16">
         <v>2.16E-3</v>
       </c>
-      <c r="F28" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="G28" s="10" t="s">
+      <c r="H28" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="H28" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="I28" s="19">
+      <c r="I28" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="K28" s="19">
         <v>0</v>
       </c>
-      <c r="J28" s="11">
+      <c r="L28" s="11">
         <v>3</v>
       </c>
-      <c r="K28" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M28" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B29" s="12" t="s">
         <v>105</v>
       </c>
@@ -2084,26 +2094,26 @@
       <c r="E29" s="18">
         <v>6.3600000000000002E-3</v>
       </c>
-      <c r="F29" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G29" s="12" t="s">
+      <c r="H29" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="H29" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="I29" s="20">
+      <c r="I29" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="K29" s="20">
         <v>0</v>
       </c>
-      <c r="J29" s="13">
+      <c r="L29" s="13">
         <v>3</v>
       </c>
-      <c r="K29" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M29" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B30" s="10" t="s">
         <v>106</v>
       </c>
@@ -2116,26 +2126,26 @@
       <c r="E30" s="16">
         <v>1.4400000000000001E-3</v>
       </c>
-      <c r="F30" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="G30" s="10" t="s">
+      <c r="H30" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="H30" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="I30" s="19">
+      <c r="I30" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="K30" s="19">
         <v>1.2693657058019586E-2</v>
       </c>
-      <c r="J30" s="11">
+      <c r="L30" s="11">
         <v>3</v>
       </c>
-      <c r="K30" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M30" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B31" s="12" t="s">
         <v>107</v>
       </c>
@@ -2148,26 +2158,26 @@
       <c r="E31" s="18">
         <v>2.2200000000000002E-3</v>
       </c>
-      <c r="F31" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G31" s="12" t="s">
+      <c r="H31" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="H31" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="I31" s="20">
+      <c r="I31" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="K31" s="20">
         <v>0</v>
       </c>
-      <c r="J31" s="13">
+      <c r="L31" s="13">
         <v>3</v>
       </c>
-      <c r="K31" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M31" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B32" s="10" t="s">
         <v>108</v>
       </c>
@@ -2180,26 +2190,26 @@
       <c r="E32" s="16">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="F32" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="G32" s="10" t="s">
+      <c r="H32" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="H32" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="I32" s="19">
+      <c r="I32" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="K32" s="19">
         <v>7.433349176641707E-3</v>
       </c>
-      <c r="J32" s="11">
+      <c r="L32" s="11">
         <v>3</v>
       </c>
-      <c r="K32" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M32" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B33" s="12" t="s">
         <v>109</v>
       </c>
@@ -2212,26 +2222,26 @@
       <c r="E33" s="18">
         <v>1.2600000000000001E-3</v>
       </c>
-      <c r="F33" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G33" s="12" t="s">
+      <c r="H33" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="H33" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="I33" s="20">
+      <c r="I33" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="K33" s="20">
         <v>5.4291770500921571E-2</v>
       </c>
-      <c r="J33" s="13">
+      <c r="L33" s="13">
         <v>3</v>
       </c>
-      <c r="K33" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M33" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B34" s="10" t="s">
         <v>110</v>
       </c>
@@ -2244,26 +2254,26 @@
       <c r="E34" s="16">
         <v>1.14E-3</v>
       </c>
-      <c r="F34" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="G34" s="10" t="s">
+      <c r="H34" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="H34" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="I34" s="19">
+      <c r="I34" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="K34" s="19">
         <v>8.1209530783282663E-2</v>
       </c>
-      <c r="J34" s="11">
+      <c r="L34" s="11">
         <v>3</v>
       </c>
-      <c r="K34" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M34" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B35" s="12" t="s">
         <v>111</v>
       </c>
@@ -2276,26 +2286,26 @@
       <c r="E35" s="18">
         <v>1.6800000000000001E-3</v>
       </c>
-      <c r="F35" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G35" s="12" t="s">
+      <c r="H35" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="H35" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="I35" s="20">
+      <c r="I35" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="K35" s="20">
         <v>1.3937437273071906E-2</v>
       </c>
-      <c r="J35" s="13">
+      <c r="L35" s="13">
         <v>3</v>
       </c>
-      <c r="K35" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M35" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B36" s="10" t="s">
         <v>112</v>
       </c>
@@ -2308,26 +2318,26 @@
       <c r="E36" s="16">
         <v>1.2000000000000001E-3</v>
       </c>
-      <c r="F36" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="G36" s="10" t="s">
+      <c r="H36" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="H36" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="I36" s="19">
+      <c r="I36" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="K36" s="19">
         <v>4.2432969484990255E-3</v>
       </c>
-      <c r="J36" s="11">
+      <c r="L36" s="11">
         <v>3</v>
       </c>
-      <c r="K36" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M36" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B37" s="12" t="s">
         <v>113</v>
       </c>
@@ -2341,7 +2351,7 @@
         <v>2.64E-3</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B38" s="10" t="s">
         <v>114</v>
       </c>
@@ -2355,7 +2365,7 @@
         <v>1.08E-3</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B39" s="12" t="s">
         <v>115</v>
       </c>
@@ -2369,7 +2379,7 @@
         <v>1.32E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B40" s="10" t="s">
         <v>116</v>
       </c>
@@ -2383,7 +2393,7 @@
         <v>2.4000000000000002E-3</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B41" s="12" t="s">
         <v>117</v>
       </c>
@@ -2397,7 +2407,7 @@
         <v>3.3600000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B42" s="10" t="s">
         <v>118</v>
       </c>
@@ -2411,7 +2421,7 @@
         <v>1.14E-3</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B43" s="12" t="s">
         <v>119</v>
       </c>
@@ -2425,7 +2435,7 @@
         <v>1.2600000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B44" s="10" t="s">
         <v>120</v>
       </c>
@@ -2439,7 +2449,7 @@
         <v>3.9000000000000003E-3</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B45" s="12" t="s">
         <v>121</v>
       </c>
@@ -2453,7 +2463,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B46" s="10" t="s">
         <v>122</v>
       </c>
@@ -2467,7 +2477,7 @@
         <v>1.6200000000000001E-3</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B47" s="12" t="s">
         <v>123</v>
       </c>
@@ -2481,7 +2491,7 @@
         <v>1.6800000000000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B48" s="10" t="s">
         <v>124</v>
       </c>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B6AAEB4-A3C8-403A-B0F0-AE7D83E051C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B65F529-54F5-48FA-AE31-5A14E8CFB279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="3308" windowWidth="21600" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="12683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grids" sheetId="4" r:id="rId1"/>
@@ -841,7 +841,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96B7CD5A-F15E-83FB-83B4-F722D24436A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E6DC600-4F67-565B-3B56-CD84393C5EE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1192,7 +1192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1CA4A3-99C1-42D3-8551-B3EEFBB74662}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78690649-0193-4ECB-806F-94E15C8790A9}">
   <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B65F529-54F5-48FA-AE31-5A14E8CFB279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F3D09F4-A2B8-4D56-9AE7-4548975F5D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="12683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4043" yWindow="4043" windowWidth="21599" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grids" sheetId="4" r:id="rId1"/>
@@ -841,7 +841,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E6DC600-4F67-565B-3B56-CD84393C5EE5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E858DBBA-C171-28C6-BBAB-060A088BCBFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1192,8 +1192,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78690649-0193-4ECB-806F-94E15C8790A9}">
-  <dimension ref="A1:P56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D7B2A47-1C1C-4AE7-90F9-CC95D0197ABB}">
+  <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1203,12 +1203,13 @@
     <col min="3" max="5" width="10.59765625" customWidth="1"/>
     <col min="8" max="9" width="10.59765625" customWidth="1"/>
     <col min="10" max="10" width="14.53125" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="10.59765625" customWidth="1"/>
-    <col min="15" max="15" width="30.59765625" customWidth="1"/>
+    <col min="11" max="13" width="10.59765625" customWidth="1"/>
     <col min="16" max="16" width="10.59765625" customWidth="1"/>
+    <col min="17" max="17" width="30.59765625" customWidth="1"/>
+    <col min="18" max="18" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
         <v>133</v>
       </c>
@@ -1220,18 +1221,18 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
@@ -1262,17 +1263,17 @@
       <c r="M3" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="P3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="R3" s="9" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B4" s="10" t="s">
         <v>80</v>
       </c>
@@ -1303,17 +1304,17 @@
       <c r="M4" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="P4" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="Q4" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="R4" s="10" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B5" s="12" t="s">
         <v>81</v>
       </c>
@@ -1345,7 +1346,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B6" s="10" t="s">
         <v>82</v>
       </c>
@@ -1377,7 +1378,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B7" s="12" t="s">
         <v>83</v>
       </c>
@@ -1409,7 +1410,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B8" s="10" t="s">
         <v>84</v>
       </c>
@@ -1441,7 +1442,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B9" s="12" t="s">
         <v>85</v>
       </c>
@@ -1473,7 +1474,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B10" s="10" t="s">
         <v>86</v>
       </c>
@@ -1505,7 +1506,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B11" s="12" t="s">
         <v>87</v>
       </c>
@@ -1537,7 +1538,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B12" s="10" t="s">
         <v>88</v>
       </c>
@@ -1569,7 +1570,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B13" s="12" t="s">
         <v>89</v>
       </c>
@@ -1601,7 +1602,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B14" s="10" t="s">
         <v>90</v>
       </c>
@@ -1633,7 +1634,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B15" s="12" t="s">
         <v>91</v>
       </c>
@@ -1665,7 +1666,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B16" s="10" t="s">
         <v>92</v>
       </c>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F3D09F4-A2B8-4D56-9AE7-4548975F5D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{555F1E9A-BA2B-42E9-ABAC-A6F1458E25F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4043" yWindow="4043" windowWidth="21599" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="21600" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grids" sheetId="4" r:id="rId1"/>
@@ -841,7 +841,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E858DBBA-C171-28C6-BBAB-060A088BCBFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{375B452A-826D-1D32-2ECE-CD2BF51ED919}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1192,7 +1192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D7B2A47-1C1C-4AE7-90F9-CC95D0197ABB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79DAA246-47CD-46B4-A5FF-291BEA3012F7}">
   <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{555F1E9A-BA2B-42E9-ABAC-A6F1458E25F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDE41DD4-8CB9-45EF-BD3A-F7B67FB6D6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="21600" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grids" sheetId="4" r:id="rId1"/>
@@ -841,7 +841,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{375B452A-826D-1D32-2ECE-CD2BF51ED919}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68F090A4-467F-86CB-5E27-45BDEBE72683}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1192,7 +1192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79DAA246-47CD-46B4-A5FF-291BEA3012F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F0D26E-662C-44C1-B9C7-DC2206E986E3}">
   <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDE41DD4-8CB9-45EF-BD3A-F7B67FB6D6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD847F23-DABD-4A5D-A3E3-39ABE45CDCC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="447">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -339,163 +339,610 @@
     <t>efficiency</t>
   </si>
   <si>
-    <t>g_CH1-220-CH12-220</t>
-  </si>
-  <si>
-    <t>g_CH1-220-CH16-380</t>
-  </si>
-  <si>
-    <t>g_CH1-220-CH18-220</t>
-  </si>
-  <si>
-    <t>g_CH1-220-CH51-220</t>
-  </si>
-  <si>
-    <t>g_CH1-220-r7933294-380</t>
-  </si>
-  <si>
-    <t>g_CH1-220-w122720993-220</t>
-  </si>
-  <si>
-    <t>g_CH12-220-CH1-220</t>
-  </si>
-  <si>
-    <t>g_CH12-220-CH17-380</t>
-  </si>
-  <si>
-    <t>g_CH12-220-CH19-220</t>
-  </si>
-  <si>
-    <t>g_CH12-220-CH51-220</t>
-  </si>
-  <si>
-    <t>g_CH12-220-w127004407-380</t>
-  </si>
-  <si>
-    <t>g_CH16-380-CH19-220</t>
-  </si>
-  <si>
-    <t>g_CH16-380-CH32-220</t>
-  </si>
-  <si>
-    <t>g_CH17-380-w127004407-380</t>
-  </si>
-  <si>
-    <t>g_CH18-220-CH1-220</t>
-  </si>
-  <si>
-    <t>g_CH18-220-CH19-220</t>
-  </si>
-  <si>
-    <t>g_CH18-220-CH31-220</t>
-  </si>
-  <si>
-    <t>g_CH18-220-CH46-220</t>
-  </si>
-  <si>
-    <t>g_CH18-220-w232662311-220</t>
-  </si>
-  <si>
-    <t>g_CH19-220-CH12-220</t>
-  </si>
-  <si>
-    <t>g_CH19-220-w127004407-380</t>
-  </si>
-  <si>
-    <t>g_CH21-220-CH19-220</t>
-  </si>
-  <si>
-    <t>g_CH21-220-w228003081-220</t>
-  </si>
-  <si>
-    <t>g_CH30-380-CH45-220</t>
-  </si>
-  <si>
-    <t>g_CH30-380-CH48-225</t>
-  </si>
-  <si>
-    <t>g_CH31-220-CH1-220</t>
-  </si>
-  <si>
-    <t>g_CH31-220-CH46-220</t>
-  </si>
-  <si>
-    <t>g_CH32-220-CH12-220</t>
-  </si>
-  <si>
-    <t>g_CH4-220-CH19-220</t>
-  </si>
-  <si>
-    <t>g_CH41-380-CH45-220</t>
-  </si>
-  <si>
-    <t>g_CH43-220-CH18-220</t>
-  </si>
-  <si>
-    <t>g_CH43-220-r7933294-380</t>
-  </si>
-  <si>
-    <t>g_CH43-220-w108257952-220</t>
-  </si>
-  <si>
-    <t>g_CH45-220-w212722603-220</t>
-  </si>
-  <si>
-    <t>g_CH45-220-w758943072-220</t>
-  </si>
-  <si>
-    <t>g_CH46-220-CH4-220</t>
-  </si>
-  <si>
-    <t>g_CH50-220-CH1-220</t>
-  </si>
-  <si>
-    <t>g_CH50-220-CH41-380</t>
-  </si>
-  <si>
-    <t>g_CH51-220-CH1-220</t>
-  </si>
-  <si>
-    <t>g_CH51-220-CH12-220</t>
-  </si>
-  <si>
-    <t>g_r5378910-220-CH1-220</t>
-  </si>
-  <si>
-    <t>g_r5378910-220-CH50-220</t>
-  </si>
-  <si>
-    <t>g_r7933294-380-CH43-220</t>
-  </si>
-  <si>
-    <t>g_r7933294-380-CH45-220</t>
-  </si>
-  <si>
-    <t>g_w122720993-220-CH32-220</t>
-  </si>
-  <si>
-    <t>g_w194258388-220-CH19-220</t>
-  </si>
-  <si>
-    <t>g_w207991759-380-CH21-220</t>
-  </si>
-  <si>
-    <t>g_w209324991-220-CH50-220</t>
-  </si>
-  <si>
-    <t>g_w212722603-220-w209324991-220</t>
-  </si>
-  <si>
-    <t>g_w232662311-220-w758315582-220</t>
-  </si>
-  <si>
-    <t>g_w26166640-220-CH30-380</t>
-  </si>
-  <si>
-    <t>g_w26843160-220-w758315582-220</t>
-  </si>
-  <si>
-    <t>g_w758943072-220-CH45-220</t>
+    <t>g_CH1-220-CH26-220</t>
+  </si>
+  <si>
+    <t>g_CH11-220-CH28-220</t>
+  </si>
+  <si>
+    <t>g_CH11-220-CH35-220</t>
+  </si>
+  <si>
+    <t>g_CH11-220-w55695765-220</t>
+  </si>
+  <si>
+    <t>g_CH12-220-CH46-220</t>
+  </si>
+  <si>
+    <t>g_CH13-220-CH14-220</t>
+  </si>
+  <si>
+    <t>g_CH15-220-r5378910-220</t>
+  </si>
+  <si>
+    <t>g_CH18-220-CH29-220</t>
+  </si>
+  <si>
+    <t>g_CH18-220-w146225999-220</t>
+  </si>
+  <si>
+    <t>g_CH19-220-CH34-220</t>
+  </si>
+  <si>
+    <t>g_CH19-220-CH49-225</t>
+  </si>
+  <si>
+    <t>g_CH2-220-CH11-220</t>
+  </si>
+  <si>
+    <t>g_CH2-220-w55695765-220</t>
+  </si>
+  <si>
+    <t>g_CH2-220-w55698557-220</t>
+  </si>
+  <si>
+    <t>g_CH20-220-CH18-220</t>
+  </si>
+  <si>
+    <t>g_CH20-220-CH37-380</t>
+  </si>
+  <si>
+    <t>g_CH20-220-CH60-225</t>
+  </si>
+  <si>
+    <t>g_CH21-220-CH11-220</t>
+  </si>
+  <si>
+    <t>g_CH21-220-CH2-220</t>
+  </si>
+  <si>
+    <t>g_CH21-220-CH35-220</t>
+  </si>
+  <si>
+    <t>g_CH22-220-w402055336-220</t>
+  </si>
+  <si>
+    <t>g_CH23-220-CH25-220</t>
+  </si>
+  <si>
+    <t>g_CH23-220-CH47-220</t>
+  </si>
+  <si>
+    <t>g_CH23-220-CH59-220</t>
+  </si>
+  <si>
+    <t>g_CH23-220-w281800404-220</t>
+  </si>
+  <si>
+    <t>g_CH24-220-CH16-380</t>
+  </si>
+  <si>
+    <t>g_CH24-220-CH17-380</t>
+  </si>
+  <si>
+    <t>g_CH24-220-w140873735-220</t>
+  </si>
+  <si>
+    <t>g_CH25-220-CH12-220</t>
+  </si>
+  <si>
+    <t>g_CH25-220-CH23-220</t>
+  </si>
+  <si>
+    <t>g_CH25-220-CH44-220</t>
+  </si>
+  <si>
+    <t>g_CH25-220-CH46-220</t>
+  </si>
+  <si>
+    <t>g_CH25-220-w281822905-220</t>
+  </si>
+  <si>
+    <t>g_CH26-220-CH13-220</t>
+  </si>
+  <si>
+    <t>g_CH27-220-CH25-220</t>
+  </si>
+  <si>
+    <t>g_CH27-220-CH38-220</t>
+  </si>
+  <si>
+    <t>g_CH27-220-CH46-220</t>
+  </si>
+  <si>
+    <t>g_CH27-220-w50319857-220</t>
+  </si>
+  <si>
+    <t>g_CH28-220-CH29-220</t>
+  </si>
+  <si>
+    <t>g_CH28-220-w281804158-220</t>
+  </si>
+  <si>
+    <t>g_CH3-220-CH18-220</t>
+  </si>
+  <si>
+    <t>g_CH31-220-CH36-220</t>
+  </si>
+  <si>
+    <t>g_CH31-220-CH45-220</t>
+  </si>
+  <si>
+    <t>g_CH31-220-w22899676-220</t>
+  </si>
+  <si>
+    <t>g_CH31-220-w31308888-220</t>
+  </si>
+  <si>
+    <t>g_CH31-220-w35840165-380</t>
+  </si>
+  <si>
+    <t>g_CH32-220-CH31-220</t>
+  </si>
+  <si>
+    <t>g_CH32-220-CH35-220</t>
+  </si>
+  <si>
+    <t>g_CH32-220-CH43-220</t>
+  </si>
+  <si>
+    <t>g_CH32-220-w232662311-220</t>
+  </si>
+  <si>
+    <t>g_CH33-380-CH15-220</t>
+  </si>
+  <si>
+    <t>g_CH33-380-CH40-220</t>
+  </si>
+  <si>
+    <t>g_CH34-220-CH35-220</t>
+  </si>
+  <si>
+    <t>g_CH35-220-CH41-380</t>
+  </si>
+  <si>
+    <t>g_CH35-220-w44496892-220</t>
+  </si>
+  <si>
+    <t>g_CH36-220-CH1-220</t>
+  </si>
+  <si>
+    <t>g_CH36-220-CH44-220</t>
+  </si>
+  <si>
+    <t>g_CH37-380-w242269161-220</t>
+  </si>
+  <si>
+    <t>g_CH38-220-CH26-220</t>
+  </si>
+  <si>
+    <t>g_CH38-220-CH50-220</t>
+  </si>
+  <si>
+    <t>g_CH39-220-CH18-220</t>
+  </si>
+  <si>
+    <t>g_CH39-220-CH29-220</t>
+  </si>
+  <si>
+    <t>g_CH39-220-w88901626-380</t>
+  </si>
+  <si>
+    <t>g_CH4-220-CH31-220</t>
+  </si>
+  <si>
+    <t>g_CH40-220-CH33-380</t>
+  </si>
+  <si>
+    <t>g_CH40-220-w122720993-220</t>
+  </si>
+  <si>
+    <t>g_CH40-220-w52738225-220</t>
+  </si>
+  <si>
+    <t>g_CH41-380-CH22-220</t>
+  </si>
+  <si>
+    <t>g_CH41-380-CH23-220</t>
+  </si>
+  <si>
+    <t>g_CH41-380-w35487135-220</t>
+  </si>
+  <si>
+    <t>g_CH42-220-CH49-225</t>
+  </si>
+  <si>
+    <t>g_CH43-220-w234983117-220</t>
+  </si>
+  <si>
+    <t>g_CH44-220-CH1-220</t>
+  </si>
+  <si>
+    <t>g_CH44-220-CH36-220</t>
+  </si>
+  <si>
+    <t>g_CH45-220-w238138373-380</t>
+  </si>
+  <si>
+    <t>g_CH45-220-w98648381-220</t>
+  </si>
+  <si>
+    <t>g_CH47-220-CH38-220</t>
+  </si>
+  <si>
+    <t>g_CH48-225-CH11-220</t>
+  </si>
+  <si>
+    <t>g_CH48-225-CH5-220</t>
+  </si>
+  <si>
+    <t>g_CH49-225-CH35-220</t>
+  </si>
+  <si>
+    <t>g_CH5-220-CH48-225</t>
+  </si>
+  <si>
+    <t>g_CH50-220-w455120191-220</t>
+  </si>
+  <si>
+    <t>g_CH51-220-CH52-220</t>
+  </si>
+  <si>
+    <t>g_CH52-220-CH56-220</t>
+  </si>
+  <si>
+    <t>g_CH53-225-w30350721-220</t>
+  </si>
+  <si>
+    <t>g_CH56-220-CH58-220</t>
+  </si>
+  <si>
+    <t>g_CH57-220-CH53-225</t>
+  </si>
+  <si>
+    <t>g_CH57-220-w207993342-220</t>
+  </si>
+  <si>
+    <t>g_CH58-220-w71500123-220</t>
+  </si>
+  <si>
+    <t>g_CH59-220-w365556107-220</t>
+  </si>
+  <si>
+    <t>g_CH6-220-CH9-220</t>
+  </si>
+  <si>
+    <t>g_CH6-220-w26166640-220</t>
+  </si>
+  <si>
+    <t>g_CH60-225-w212722603-220</t>
+  </si>
+  <si>
+    <t>g_CH7-220-w364949845-220</t>
+  </si>
+  <si>
+    <t>g_CH9-220-r9310861-220</t>
+  </si>
+  <si>
+    <t>g_r7933294-380-CH57-220</t>
+  </si>
+  <si>
+    <t>g_r7933294-380-w108257952-220</t>
+  </si>
+  <si>
+    <t>g_r9310861-220-w260211728-225</t>
+  </si>
+  <si>
+    <t>g_w100662075-220-w108257952-220</t>
+  </si>
+  <si>
+    <t>g_w100662075-220-w208780268-380</t>
+  </si>
+  <si>
+    <t>g_w108257952-220-r7933294-380</t>
+  </si>
+  <si>
+    <t>g_w1086214433-220-w165254212-220</t>
+  </si>
+  <si>
+    <t>g_w1086214433-220-w97941869-220</t>
+  </si>
+  <si>
+    <t>g_w109037817-220-r5378910-220</t>
+  </si>
+  <si>
+    <t>g_w1092884227-220-CH26-220</t>
+  </si>
+  <si>
+    <t>g_w1092884227-220-CH30-380</t>
+  </si>
+  <si>
+    <t>g_w1105061707-220-CH4-220</t>
+  </si>
+  <si>
+    <t>g_w111162936-220-w11282314-220</t>
+  </si>
+  <si>
+    <t>g_w111162936-220-w55698557-220</t>
+  </si>
+  <si>
+    <t>g_w11282314-220-CH29-220</t>
+  </si>
+  <si>
+    <t>g_w1208713169-220-CH14-220</t>
+  </si>
+  <si>
+    <t>g_w122720993-220-w127004407-380</t>
+  </si>
+  <si>
+    <t>g_w127004407-380-CH28-220</t>
+  </si>
+  <si>
+    <t>g_w130198336-220-w1284913429-220</t>
+  </si>
+  <si>
+    <t>g_w132373704-220-w969811258-220</t>
+  </si>
+  <si>
+    <t>g_w1327084723-220-CH30-380</t>
+  </si>
+  <si>
+    <t>g_w146225999-220-CH37-380</t>
+  </si>
+  <si>
+    <t>g_w146225999-220-w130198336-220</t>
+  </si>
+  <si>
+    <t>g_w147557680-220-w147714395-220</t>
+  </si>
+  <si>
+    <t>g_w147557680-220-w391576135-220</t>
+  </si>
+  <si>
+    <t>g_w148015471-220-w36348118-220</t>
+  </si>
+  <si>
+    <t>g_w159527493-220-CH59-220</t>
+  </si>
+  <si>
+    <t>g_w161853746-220-w92873516-220</t>
+  </si>
+  <si>
+    <t>g_w165254212-220-w758943072-220</t>
+  </si>
+  <si>
+    <t>g_w177392130-220-CH2-220</t>
+  </si>
+  <si>
+    <t>g_w190819048-220-CH6-220</t>
+  </si>
+  <si>
+    <t>g_w192677427-220-w209324991-220</t>
+  </si>
+  <si>
+    <t>g_w194258388-220-CH27-220</t>
+  </si>
+  <si>
+    <t>g_w207991759-380-CH31-220</t>
+  </si>
+  <si>
+    <t>g_w207991759-380-w402055336-220</t>
+  </si>
+  <si>
+    <t>g_w209324991-220-CH1-220</t>
+  </si>
+  <si>
+    <t>g_w209324991-220-w159527493-220</t>
+  </si>
+  <si>
+    <t>g_w210568055-220-CH26-220</t>
+  </si>
+  <si>
+    <t>g_w210568055-220-w27435934-220</t>
+  </si>
+  <si>
+    <t>g_w211907009-220-CH2-220</t>
+  </si>
+  <si>
+    <t>g_w228003081-220-w1105061707-220</t>
+  </si>
+  <si>
+    <t>g_w228003081-220-w36348118-220</t>
+  </si>
+  <si>
+    <t>g_w22899676-220-CH31-220</t>
+  </si>
+  <si>
+    <t>g_w22899676-220-CH51-220</t>
+  </si>
+  <si>
+    <t>g_w22899676-220-w212498548-220</t>
+  </si>
+  <si>
+    <t>g_w232662311-220-CH31-220</t>
+  </si>
+  <si>
+    <t>g_w234983117-220-CH11-220</t>
+  </si>
+  <si>
+    <t>g_w236819191-220-w192677427-220</t>
+  </si>
+  <si>
+    <t>g_w236819191-220-w402053379-220</t>
+  </si>
+  <si>
+    <t>g_w238138373-380-w30350721-220</t>
+  </si>
+  <si>
+    <t>g_w239937062-220-CH2-220</t>
+  </si>
+  <si>
+    <t>g_w239937062-220-w177392130-220</t>
+  </si>
+  <si>
+    <t>g_w240575085-220-w234983117-220</t>
+  </si>
+  <si>
+    <t>g_w240959264-220-CH35-220</t>
+  </si>
+  <si>
+    <t>g_w240959264-220-w161853746-220</t>
+  </si>
+  <si>
+    <t>g_w242269161-220-w211907009-220</t>
+  </si>
+  <si>
+    <t>g_w26166640-220-CH26-220</t>
+  </si>
+  <si>
+    <t>g_w26843160-220-w87281514-220</t>
+  </si>
+  <si>
+    <t>g_w27107779-220-CH50-220</t>
+  </si>
+  <si>
+    <t>g_w27107779-220-w758943072-220</t>
+  </si>
+  <si>
+    <t>g_w281800404-220-CH59-220</t>
+  </si>
+  <si>
+    <t>g_w281803398-220-CH20-220</t>
+  </si>
+  <si>
+    <t>g_w281804158-220-w127004407-380</t>
+  </si>
+  <si>
+    <t>g_w281804158-220-w281799252-220</t>
+  </si>
+  <si>
+    <t>g_w281809991-220-CH3-220</t>
+  </si>
+  <si>
+    <t>g_w281815404-220-w140873735-220</t>
+  </si>
+  <si>
+    <t>g_w281815404-220-w212722603-220</t>
+  </si>
+  <si>
+    <t>g_w281822905-220-w159527493-220</t>
+  </si>
+  <si>
+    <t>g_w30350721-220-CH5-220</t>
+  </si>
+  <si>
+    <t>g_w30350721-220-CH57-220</t>
+  </si>
+  <si>
+    <t>g_w30350721-220-w26843160-220</t>
+  </si>
+  <si>
+    <t>g_w31308888-220-CH11-220</t>
+  </si>
+  <si>
+    <t>g_w33271433-220-w87281514-220</t>
+  </si>
+  <si>
+    <t>g_w35002638-220-w969819301-220</t>
+  </si>
+  <si>
+    <t>g_w35487135-220-CH23-220</t>
+  </si>
+  <si>
+    <t>g_w356292116-220-CH19-220</t>
+  </si>
+  <si>
+    <t>g_w356292116-220-w397960460-380</t>
+  </si>
+  <si>
+    <t>g_w35840165-380-CH36-220</t>
+  </si>
+  <si>
+    <t>g_w36348118-220-w148015471-220</t>
+  </si>
+  <si>
+    <t>g_w36348118-220-w391576135-220</t>
+  </si>
+  <si>
+    <t>g_w364949845-220-w1327084723-220</t>
+  </si>
+  <si>
+    <t>g_w365556107-220-w35002638-220</t>
+  </si>
+  <si>
+    <t>g_w391576135-220-w1327084723-220</t>
+  </si>
+  <si>
+    <t>g_w391576135-220-w147714395-220</t>
+  </si>
+  <si>
+    <t>g_w391576135-220-w431234146-220</t>
+  </si>
+  <si>
+    <t>g_w391577741-220-w100662075-220</t>
+  </si>
+  <si>
+    <t>g_w391577741-220-w1105061707-220</t>
+  </si>
+  <si>
+    <t>g_w397960460-380-CH32-220</t>
+  </si>
+  <si>
+    <t>g_w402053379-220-w969811258-220</t>
+  </si>
+  <si>
+    <t>g_w402055336-220-w132373704-220</t>
+  </si>
+  <si>
+    <t>g_w44496892-220-CH41-380</t>
+  </si>
+  <si>
+    <t>g_w50319857-220-CH38-220</t>
+  </si>
+  <si>
+    <t>g_w52738225-220-w50561341-220</t>
+  </si>
+  <si>
+    <t>g_w55695765-220-w240959264-220</t>
+  </si>
+  <si>
+    <t>g_w71500123-220-CH4-220</t>
+  </si>
+  <si>
+    <t>g_w71500123-220-r5378910-220</t>
+  </si>
+  <si>
+    <t>g_w758315582-220-CH60-225</t>
+  </si>
+  <si>
+    <t>g_w802058337-220-CH23-220</t>
+  </si>
+  <si>
+    <t>g_w802058337-220-w89977424-220</t>
+  </si>
+  <si>
+    <t>g_w83861269-220-CH20-220</t>
+  </si>
+  <si>
+    <t>g_w88901626-380-CH29-220</t>
+  </si>
+  <si>
+    <t>g_w89405664-220-w165254212-220</t>
+  </si>
+  <si>
+    <t>g_w92873516-220-CH22-220</t>
+  </si>
+  <si>
+    <t>g_w969811258-220-w132373704-220</t>
+  </si>
+  <si>
+    <t>g_w969819301-220-CH25-220</t>
+  </si>
+  <si>
+    <t>g_w969819301-220-w1086214433-220</t>
+  </si>
+  <si>
+    <t>g_w969819301-220-w758943072-220</t>
   </si>
   <si>
     <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by intuition · Accelerated with AI</t>
@@ -522,9 +969,21 @@
     <t>lo</t>
   </si>
   <si>
+    <t>e_CH11-220</t>
+  </si>
+  <si>
     <t>e_CH12-220</t>
   </si>
   <si>
+    <t>e_CH13-220</t>
+  </si>
+  <si>
+    <t>e_CH14-220</t>
+  </si>
+  <si>
+    <t>e_CH15-220</t>
+  </si>
+  <si>
     <t>e_CH16-380</t>
   </si>
   <si>
@@ -537,9 +996,42 @@
     <t>e_CH19-220</t>
   </si>
   <si>
+    <t>e_CH2-220</t>
+  </si>
+  <si>
+    <t>e_CH20-220</t>
+  </si>
+  <si>
     <t>e_CH21-220</t>
   </si>
   <si>
+    <t>e_CH22-220</t>
+  </si>
+  <si>
+    <t>e_CH23-220</t>
+  </si>
+  <si>
+    <t>e_CH24-220</t>
+  </si>
+  <si>
+    <t>e_CH25-220</t>
+  </si>
+  <si>
+    <t>e_CH26-220</t>
+  </si>
+  <si>
+    <t>e_CH27-220</t>
+  </si>
+  <si>
+    <t>e_CH28-220</t>
+  </si>
+  <si>
+    <t>e_CH29-220</t>
+  </si>
+  <si>
+    <t>e_CH3-220</t>
+  </si>
+  <si>
     <t>e_CH30-380</t>
   </si>
   <si>
@@ -549,85 +1041,403 @@
     <t>e_CH32-220</t>
   </si>
   <si>
+    <t>e_CH33-380</t>
+  </si>
+  <si>
+    <t>e_CH34-220</t>
+  </si>
+  <si>
+    <t>e_CH35-220</t>
+  </si>
+  <si>
+    <t>e_CH36-220</t>
+  </si>
+  <si>
+    <t>e_CH37-380</t>
+  </si>
+  <si>
+    <t>e_CH38-220</t>
+  </si>
+  <si>
+    <t>e_CH39-220</t>
+  </si>
+  <si>
     <t>e_CH4-220</t>
   </si>
   <si>
+    <t>e_CH40-220</t>
+  </si>
+  <si>
     <t>e_CH41-380</t>
   </si>
   <si>
+    <t>e_CH42-220</t>
+  </si>
+  <si>
     <t>e_CH43-220</t>
   </si>
   <si>
+    <t>e_CH44-220</t>
+  </si>
+  <si>
     <t>e_CH45-220</t>
   </si>
   <si>
     <t>e_CH46-220</t>
   </si>
   <si>
+    <t>e_CH47-220</t>
+  </si>
+  <si>
     <t>e_CH48-225</t>
   </si>
   <si>
+    <t>e_CH49-225</t>
+  </si>
+  <si>
+    <t>e_CH5-220</t>
+  </si>
+  <si>
     <t>e_CH50-220</t>
   </si>
   <si>
     <t>e_CH51-220</t>
   </si>
   <si>
+    <t>e_CH52-220</t>
+  </si>
+  <si>
+    <t>e_CH53-225</t>
+  </si>
+  <si>
+    <t>e_CH56-220</t>
+  </si>
+  <si>
+    <t>e_CH57-220</t>
+  </si>
+  <si>
+    <t>e_CH58-220</t>
+  </si>
+  <si>
+    <t>e_CH59-220</t>
+  </si>
+  <si>
+    <t>e_CH6-220</t>
+  </si>
+  <si>
+    <t>e_CH60-225</t>
+  </si>
+  <si>
+    <t>e_CH7-220</t>
+  </si>
+  <si>
+    <t>e_CH9-220</t>
+  </si>
+  <si>
     <t>e_r5378910-220</t>
   </si>
   <si>
     <t>e_r7933294-380</t>
   </si>
   <si>
+    <t>e_r9310861-220</t>
+  </si>
+  <si>
+    <t>e_w100662075-220</t>
+  </si>
+  <si>
     <t>e_w108257952-220</t>
   </si>
   <si>
+    <t>e_w1086214433-220</t>
+  </si>
+  <si>
+    <t>e_w109037817-220</t>
+  </si>
+  <si>
+    <t>e_w1092884227-220</t>
+  </si>
+  <si>
+    <t>e_w1105061707-220</t>
+  </si>
+  <si>
+    <t>e_w111162936-220</t>
+  </si>
+  <si>
+    <t>e_w11282314-220</t>
+  </si>
+  <si>
+    <t>e_w1208713169-220</t>
+  </si>
+  <si>
     <t>e_w122720993-220</t>
   </si>
   <si>
     <t>e_w127004407-380</t>
   </si>
   <si>
+    <t>e_w1284913429-220</t>
+  </si>
+  <si>
+    <t>e_w130198336-220</t>
+  </si>
+  <si>
+    <t>e_w132373704-220</t>
+  </si>
+  <si>
+    <t>e_w1327084723-220</t>
+  </si>
+  <si>
+    <t>e_w140873735-220</t>
+  </si>
+  <si>
+    <t>e_w146225999-220</t>
+  </si>
+  <si>
+    <t>e_w147557680-220</t>
+  </si>
+  <si>
+    <t>e_w147714395-220</t>
+  </si>
+  <si>
+    <t>e_w148015471-220</t>
+  </si>
+  <si>
+    <t>e_w159527493-220</t>
+  </si>
+  <si>
+    <t>e_w161853746-220</t>
+  </si>
+  <si>
+    <t>e_w165254212-220</t>
+  </si>
+  <si>
+    <t>e_w177392130-220</t>
+  </si>
+  <si>
+    <t>e_w190819048-220</t>
+  </si>
+  <si>
+    <t>e_w192677427-220</t>
+  </si>
+  <si>
     <t>e_w194258388-220</t>
   </si>
   <si>
     <t>e_w207991759-380</t>
   </si>
   <si>
+    <t>e_w207993342-220</t>
+  </si>
+  <si>
+    <t>e_w208780268-380</t>
+  </si>
+  <si>
     <t>e_w209324991-220</t>
   </si>
   <si>
+    <t>e_w210568055-220</t>
+  </si>
+  <si>
+    <t>e_w211907009-220</t>
+  </si>
+  <si>
+    <t>e_w212498548-220</t>
+  </si>
+  <si>
     <t>e_w212722603-220</t>
   </si>
   <si>
     <t>e_w228003081-220</t>
   </si>
   <si>
+    <t>e_w22899676-220</t>
+  </si>
+  <si>
     <t>e_w232662311-220</t>
   </si>
   <si>
+    <t>e_w234983117-220</t>
+  </si>
+  <si>
+    <t>e_w236819191-220</t>
+  </si>
+  <si>
+    <t>e_w238138373-380</t>
+  </si>
+  <si>
+    <t>e_w239937062-220</t>
+  </si>
+  <si>
+    <t>e_w240575085-220</t>
+  </si>
+  <si>
+    <t>e_w240959264-220</t>
+  </si>
+  <si>
+    <t>e_w242269161-220</t>
+  </si>
+  <si>
+    <t>e_w260211728-225</t>
+  </si>
+  <si>
     <t>e_w26166640-220</t>
   </si>
   <si>
     <t>e_w26843160-220</t>
   </si>
   <si>
+    <t>e_w27107779-220</t>
+  </si>
+  <si>
+    <t>e_w27435934-220</t>
+  </si>
+  <si>
+    <t>e_w281799252-220</t>
+  </si>
+  <si>
+    <t>e_w281800404-220</t>
+  </si>
+  <si>
+    <t>e_w281803398-220</t>
+  </si>
+  <si>
+    <t>e_w281804158-220</t>
+  </si>
+  <si>
+    <t>e_w281809991-220</t>
+  </si>
+  <si>
+    <t>e_w281815404-220</t>
+  </si>
+  <si>
+    <t>e_w281822905-220</t>
+  </si>
+  <si>
+    <t>e_w30350721-220</t>
+  </si>
+  <si>
+    <t>e_w31308888-220</t>
+  </si>
+  <si>
+    <t>e_w33271433-220</t>
+  </si>
+  <si>
+    <t>e_w35002638-220</t>
+  </si>
+  <si>
+    <t>e_w35487135-220</t>
+  </si>
+  <si>
+    <t>e_w356292116-220</t>
+  </si>
+  <si>
+    <t>e_w35840165-380</t>
+  </si>
+  <si>
+    <t>e_w36348118-220</t>
+  </si>
+  <si>
+    <t>e_w364949845-220</t>
+  </si>
+  <si>
+    <t>e_w365556107-220</t>
+  </si>
+  <si>
+    <t>e_w391576135-220</t>
+  </si>
+  <si>
+    <t>e_w391577741-220</t>
+  </si>
+  <si>
+    <t>e_w397960460-380</t>
+  </si>
+  <si>
+    <t>e_w402053379-220</t>
+  </si>
+  <si>
+    <t>e_w402055336-220</t>
+  </si>
+  <si>
+    <t>e_w431234146-220</t>
+  </si>
+  <si>
+    <t>e_w44496892-220</t>
+  </si>
+  <si>
+    <t>e_w455120191-220</t>
+  </si>
+  <si>
+    <t>e_w50319857-220</t>
+  </si>
+  <si>
+    <t>e_w50561341-220</t>
+  </si>
+  <si>
+    <t>e_w52738225-220</t>
+  </si>
+  <si>
+    <t>e_w55695765-220</t>
+  </si>
+  <si>
+    <t>e_w55698557-220</t>
+  </si>
+  <si>
+    <t>e_w71500123-220</t>
+  </si>
+  <si>
     <t>e_w758315582-220</t>
   </si>
   <si>
     <t>e_w758943072-220</t>
   </si>
   <si>
+    <t>e_w802058337-220</t>
+  </si>
+  <si>
+    <t>e_w83861269-220</t>
+  </si>
+  <si>
+    <t>e_w87281514-220</t>
+  </si>
+  <si>
+    <t>e_w88901626-380</t>
+  </si>
+  <si>
+    <t>e_w89405664-220</t>
+  </si>
+  <si>
+    <t>e_w89977424-220</t>
+  </si>
+  <si>
+    <t>e_w92798668-220</t>
+  </si>
+  <si>
+    <t>e_w92873516-220</t>
+  </si>
+  <si>
+    <t>e_w969811258-220</t>
+  </si>
+  <si>
+    <t>e_w969819301-220</t>
+  </si>
+  <si>
+    <t>e_w97941869-220</t>
+  </si>
+  <si>
+    <t>e_w98648381-220</t>
+  </si>
+  <si>
     <t>~tfm_topins</t>
   </si>
   <si>
     <t>io</t>
   </si>
   <si>
-    <t>e_CH1-220,e_CH12-220,e_CH16-380,e_CH17-380,e_CH18-220,e_CH19-220,e_CH21-220,e_CH30-380,e_CH31-220,e_CH32-220,e_CH4-220,e_CH41-380,e_CH43-220,e_CH45-220,e_CH46-220,e_CH48-225,e_CH50-220,e_CH51-220,e_r5378910-220,e_r7933294-380,e_w108257952-220,e_w122720993-220,e_w127004407-380,e_w194258388-220,e_w207991759-380,e_w209324991-220,e_w212722603-220,e_w228003081-220,e_w232662311-220,e_w26166640-220,e_w26843160-220,e_w758315582-220,e_w758943072-220</t>
-  </si>
-  <si>
-    <t>in</t>
+    <t>e_CH1-220,e_CH11-220,e_CH12-220,e_CH13-220,e_CH14-220,e_CH15-220,e_CH16-380,e_CH17-380,e_CH18-220,e_CH19-220,e_CH2-220,e_CH20-220,e_CH21-220,e_CH22-220,e_CH23-220,e_CH24-220,e_CH25-220,e_CH26-220,e_CH27-220,e_CH28-220,e_CH29-220,e_CH3-220,e_CH30-380,e_CH31-220,e_CH32-220,e_CH33-380,e_CH34-220,e_CH35-220,e_CH36-220,e_CH37-380,e_CH38-220,e_CH39-220,e_CH4-220,e_CH40-220,e_CH41-380,e_CH42-220,e_CH43-220,e_CH44-220,e_CH45-220,e_CH46-220,e_CH47-220,e_CH48-225,e_CH49-225,e_CH5-220,e_CH50-220,e_CH51-220,e_CH52-220,e_CH53-225,e_CH56-220,e_CH57-220,e_CH58-220,e_CH59-220,e_CH6-220,e_CH60-225,e_CH7-220,e_CH9-220,e_r5378910-220,e_r7933294-380,e_r9310861-220,e_w100662075-220,e_w108257952-220,e_w1086214433-220,e_w109037817-220,e_w1092884227-220,e_w1105061707-220,e_w111162936-220,e_w11282314-220,e_w1208713169-220,e_w122720993-220,e_w127004407-380,e_w1284913429-220,e_w130198336-220,e_w132373704-220,e_w1327084723-220,e_w140873735-220,e_w146225999-220,e_w147557680-220,e_w147714395-220,e_w148015471-220,e_w159527493-220,e_w161853746-220,e_w165254212-220,e_w177392130-220,e_w190819048-220,e_w192677427-220,e_w194258388-220,e_w207991759-380,e_w207993342-220,e_w208780268-380,e_w209324991-220,e_w210568055-220,e_w211907009-220,e_w212498548-220,e_w212722603-220,e_w228003081-220,e_w22899676-220,e_w232662311-220,e_w234983117-220,e_w236819191-220,e_w238138373-380,e_w239937062-220,e_w240575085-220,e_w240959264-220,e_w242269161-220,e_w260211728-225,e_w26166640-220,e_w26843160-220,e_w27107779-220,e_w27435934-220,e_w281799252-220,e_w281800404-220,e_w281803398-220,e_w281804158-220,e_w281809991-220,e_w281815404-220,e_w281822905-220,e_w30350721-220,e_w31308888-220,e_w33271433-220,e_w35002638-220,e_w35487135-220,e_w356292116-220,e_w35840165-380,e_w36348118-220,e_w364949845-220,e_w365556107-220,e_w391576135-220,e_w391577741-220,e_w397960460-380,e_w402053379-220,e_w402055336-220,e_w431234146-220,e_w44496892-220,e_w455120191-220,e_w50319857-220,e_w50561341-220,e_w52738225-220,e_w55695765-220,e_w55698557-220,e_w71500123-220,e_w758315582-220,e_w758943072-220,e_w802058337-220,e_w83861269-220,e_w87281514-220,e_w88901626-380,e_w89405664-220,e_w89977424-220,e_w92798668-220,e_w92873516-220,e_w969811258-220,e_w969819301-220,e_w97941869-220,e_w98648381-220</t>
+  </si>
+  <si>
+    <t>IN</t>
   </si>
 </sst>
 </file>
@@ -832,7 +1642,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>296863</xdr:colOff>
+      <xdr:colOff>296862</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
@@ -841,7 +1651,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68F090A4-467F-86CB-5E27-45BDEBE72683}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27A4281C-B518-1BF3-2E68-AA80970AC70E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1192,17 +2002,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F0D26E-662C-44C1-B9C7-DC2206E986E3}">
-  <dimension ref="A1:R56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA0B353-A5AF-4613-98D4-38544C8DC5BD}">
+  <dimension ref="A1:R205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.53125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="10.59765625" customWidth="1"/>
     <col min="8" max="9" width="10.59765625" customWidth="1"/>
-    <col min="10" max="10" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.3984375" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="10.59765625" customWidth="1"/>
     <col min="16" max="16" width="10.59765625" customWidth="1"/>
     <col min="17" max="17" width="30.59765625" customWidth="1"/>
@@ -1211,7 +2021,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
-        <v>133</v>
+        <v>282</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -1226,10 +2036,10 @@
         <v>0</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>134</v>
+        <v>283</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>173</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
@@ -1252,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>135</v>
+        <v>284</v>
       </c>
       <c r="K3" s="9">
         <v>2022</v>
@@ -1261,16 +2071,16 @@
         <v>0</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>136</v>
+        <v>285</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>135</v>
+        <v>284</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>174</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.45">
@@ -1278,40 +2088,40 @@
         <v>80</v>
       </c>
       <c r="C4" s="11">
-        <v>2.6812150000000003</v>
+        <v>2.1896590000000002</v>
       </c>
       <c r="D4" s="15">
-        <v>40.700000000000003</v>
+        <v>102.30000000000001</v>
       </c>
       <c r="E4" s="16">
-        <v>2.2200000000000002E-3</v>
+        <v>5.5799999999999999E-3</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>137</v>
+        <v>286</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>139</v>
+        <v>288</v>
       </c>
       <c r="K4" s="19">
-        <v>0.10551969080899715</v>
+        <v>0</v>
       </c>
       <c r="L4" s="11">
         <v>3</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>175</v>
+        <v>445</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>176</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.45">
@@ -1319,31 +2129,31 @@
         <v>81</v>
       </c>
       <c r="C5" s="13">
-        <v>3.3962050000000001</v>
+        <v>0.98311199999999999</v>
       </c>
       <c r="D5" s="17">
-        <v>104.50000000000001</v>
+        <v>116.60000000000001</v>
       </c>
       <c r="E5" s="18">
-        <v>5.7000000000000002E-3</v>
+        <v>6.3600000000000002E-3</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>137</v>
+        <v>286</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>141</v>
+        <v>290</v>
       </c>
       <c r="K5" s="20">
-        <v>3.6101669722043206E-2</v>
+        <v>0</v>
       </c>
       <c r="L5" s="13">
         <v>3</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.45">
@@ -1351,22 +2161,22 @@
         <v>82</v>
       </c>
       <c r="C6" s="11">
-        <v>1.4746679999999999</v>
+        <v>1.6981030000000001</v>
       </c>
       <c r="D6" s="15">
-        <v>49.500000000000007</v>
+        <v>88</v>
       </c>
       <c r="E6" s="16">
-        <v>2.7000000000000001E-3</v>
+        <v>4.8000000000000004E-3</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>137</v>
+        <v>286</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>142</v>
+        <v>291</v>
       </c>
       <c r="K6" s="19">
         <v>0</v>
@@ -1375,7 +2185,7 @@
         <v>3</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.45">
@@ -1383,31 +2193,31 @@
         <v>83</v>
       </c>
       <c r="C7" s="13">
-        <v>2.6812150000000003</v>
+        <v>0.49155599999999999</v>
       </c>
       <c r="D7" s="17">
-        <v>26.400000000000002</v>
+        <v>18.700000000000003</v>
       </c>
       <c r="E7" s="18">
-        <v>1.4400000000000001E-3</v>
+        <v>1.0200000000000001E-3</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>137</v>
+        <v>286</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>143</v>
+        <v>292</v>
       </c>
       <c r="K7" s="20">
-        <v>1.1827743483806514E-2</v>
+        <v>6.653953013344956E-3</v>
       </c>
       <c r="L7" s="13">
         <v>3</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.45">
@@ -1415,31 +2225,31 @@
         <v>84</v>
       </c>
       <c r="C8" s="11">
-        <v>0.98311199999999999</v>
+        <v>3.3962050000000001</v>
       </c>
       <c r="D8" s="15">
-        <v>116.60000000000001</v>
+        <v>18.700000000000003</v>
       </c>
       <c r="E8" s="16">
-        <v>6.3600000000000002E-3</v>
+        <v>1.0200000000000001E-3</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>137</v>
+        <v>286</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>144</v>
+        <v>293</v>
       </c>
       <c r="K8" s="19">
-        <v>3.7419396442152121E-3</v>
+        <v>4.0473387100989806E-3</v>
       </c>
       <c r="L8" s="11">
         <v>3</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.45">
@@ -1447,31 +2257,31 @@
         <v>85</v>
       </c>
       <c r="C9" s="13">
-        <v>0.98311199999999999</v>
+        <v>3.3962050000000001</v>
       </c>
       <c r="D9" s="17">
-        <v>19.8</v>
+        <v>11</v>
       </c>
       <c r="E9" s="18">
-        <v>1.08E-3</v>
+        <v>6.0000000000000006E-4</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>137</v>
+        <v>286</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>145</v>
+        <v>294</v>
       </c>
       <c r="K9" s="20">
-        <v>1.2720770776540331E-2</v>
+        <v>0</v>
       </c>
       <c r="L9" s="13">
         <v>3</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.45">
@@ -1479,22 +2289,22 @@
         <v>86</v>
       </c>
       <c r="C10" s="11">
-        <v>1.4746679999999999</v>
+        <v>0.98311199999999999</v>
       </c>
       <c r="D10" s="15">
-        <v>33</v>
+        <v>15.400000000000002</v>
       </c>
       <c r="E10" s="16">
-        <v>1.8E-3</v>
+        <v>8.4000000000000003E-4</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>137</v>
+        <v>286</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>146</v>
+        <v>295</v>
       </c>
       <c r="K10" s="19">
         <v>0</v>
@@ -1503,7 +2313,7 @@
         <v>3</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.45">
@@ -1511,31 +2321,31 @@
         <v>87</v>
       </c>
       <c r="C11" s="13">
-        <v>0.98311199999999999</v>
+        <v>1.6981030000000001</v>
       </c>
       <c r="D11" s="17">
-        <v>49.500000000000007</v>
+        <v>19.8</v>
       </c>
       <c r="E11" s="18">
-        <v>2.7000000000000001E-3</v>
+        <v>1.08E-3</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>137</v>
+        <v>286</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>147</v>
+        <v>296</v>
       </c>
       <c r="K11" s="20">
-        <v>2.6773564597500597E-3</v>
+        <v>8.7190324112261693E-3</v>
       </c>
       <c r="L11" s="13">
         <v>3</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.45">
@@ -1543,31 +2353,31 @@
         <v>88</v>
       </c>
       <c r="C12" s="11">
-        <v>2.1896590000000002</v>
+        <v>1.005455</v>
       </c>
       <c r="D12" s="15">
-        <v>102.30000000000001</v>
+        <v>15.400000000000002</v>
       </c>
       <c r="E12" s="16">
-        <v>5.5799999999999999E-3</v>
+        <v>8.4000000000000003E-4</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>137</v>
+        <v>286</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>148</v>
+        <v>297</v>
       </c>
       <c r="K12" s="19">
-        <v>5.7161880850519167E-2</v>
+        <v>0</v>
       </c>
       <c r="L12" s="11">
         <v>3</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.45">
@@ -1575,22 +2385,22 @@
         <v>89</v>
       </c>
       <c r="C13" s="13">
-        <v>0.49155599999999999</v>
+        <v>1.6981030000000001</v>
       </c>
       <c r="D13" s="17">
-        <v>19.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E13" s="18">
-        <v>1.08E-3</v>
+        <v>4.8000000000000001E-4</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>137</v>
+        <v>286</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>149</v>
+        <v>298</v>
       </c>
       <c r="K13" s="20">
         <v>0</v>
@@ -1599,7 +2409,7 @@
         <v>3</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.45">
@@ -1607,31 +2417,31 @@
         <v>90</v>
       </c>
       <c r="C14" s="11">
-        <v>1.6981030000000001</v>
+        <v>0.49155599999999999</v>
       </c>
       <c r="D14" s="15">
-        <v>33</v>
+        <v>29.700000000000003</v>
       </c>
       <c r="E14" s="16">
-        <v>1.8E-3</v>
+        <v>1.6200000000000001E-3</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>137</v>
+        <v>286</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>150</v>
+        <v>299</v>
       </c>
       <c r="K14" s="19">
-        <v>3.9458348074913524E-2</v>
+        <v>0</v>
       </c>
       <c r="L14" s="11">
         <v>3</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.45">
@@ -1639,22 +2449,22 @@
         <v>91</v>
       </c>
       <c r="C15" s="13">
-        <v>4.3793170000000003</v>
+        <v>0.49155599999999999</v>
       </c>
       <c r="D15" s="17">
-        <v>24.200000000000003</v>
+        <v>38.5</v>
       </c>
       <c r="E15" s="18">
-        <v>1.32E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>137</v>
+        <v>286</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="K15" s="20">
         <v>0</v>
@@ -1663,7 +2473,7 @@
         <v>3</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.45">
@@ -1671,22 +2481,22 @@
         <v>92</v>
       </c>
       <c r="C16" s="11">
-        <v>0.98311199999999999</v>
+        <v>0.49155599999999999</v>
       </c>
       <c r="D16" s="15">
-        <v>44</v>
+        <v>49.500000000000007</v>
       </c>
       <c r="E16" s="16">
-        <v>2.4000000000000002E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>137</v>
+        <v>286</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>152</v>
+        <v>301</v>
       </c>
       <c r="K16" s="19">
         <v>0</v>
@@ -1695,7 +2505,7 @@
         <v>3</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.45">
@@ -1703,22 +2513,22 @@
         <v>93</v>
       </c>
       <c r="C17" s="13">
-        <v>3.3962050000000001</v>
+        <v>0.98311199999999999</v>
       </c>
       <c r="D17" s="17">
-        <v>18.700000000000003</v>
+        <v>61.600000000000009</v>
       </c>
       <c r="E17" s="18">
-        <v>1.0200000000000001E-3</v>
+        <v>3.3600000000000001E-3</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>137</v>
+        <v>286</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>153</v>
+        <v>302</v>
       </c>
       <c r="K17" s="20">
         <v>0</v>
@@ -1727,7 +2537,7 @@
         <v>3</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.45">
@@ -1735,31 +2545,31 @@
         <v>94</v>
       </c>
       <c r="C18" s="11">
-        <v>1.966224</v>
+        <v>1.6981030000000001</v>
       </c>
       <c r="D18" s="15">
-        <v>59.400000000000006</v>
+        <v>85.800000000000011</v>
       </c>
       <c r="E18" s="16">
-        <v>3.2400000000000003E-3</v>
+        <v>4.6800000000000001E-3</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>137</v>
+        <v>286</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>154</v>
+        <v>303</v>
       </c>
       <c r="K18" s="19">
-        <v>5.714092934075295E-3</v>
+        <v>0</v>
       </c>
       <c r="L18" s="11">
         <v>3</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.45">
@@ -1767,31 +2577,31 @@
         <v>95</v>
       </c>
       <c r="C19" s="13">
-        <v>0.98311199999999999</v>
+        <v>0.49155599999999999</v>
       </c>
       <c r="D19" s="17">
-        <v>26.400000000000002</v>
+        <v>56.1</v>
       </c>
       <c r="E19" s="18">
-        <v>1.4400000000000001E-3</v>
+        <v>3.0600000000000002E-3</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>137</v>
+        <v>286</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>155</v>
+        <v>304</v>
       </c>
       <c r="K19" s="20">
-        <v>2.1102360636358189E-2</v>
+        <v>0</v>
       </c>
       <c r="L19" s="13">
         <v>3</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.45">
@@ -1802,28 +2612,28 @@
         <v>0.98311199999999999</v>
       </c>
       <c r="D20" s="15">
-        <v>23.1</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E20" s="16">
-        <v>1.2600000000000001E-3</v>
+        <v>2.4000000000000001E-4</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>137</v>
+        <v>286</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>156</v>
+        <v>305</v>
       </c>
       <c r="K20" s="19">
-        <v>3.3996659211431433E-2</v>
+        <v>0</v>
       </c>
       <c r="L20" s="11">
         <v>3</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.45">
@@ -1831,31 +2641,31 @@
         <v>97</v>
       </c>
       <c r="C21" s="13">
-        <v>0.49155599999999999</v>
+        <v>1.6981030000000001</v>
       </c>
       <c r="D21" s="17">
-        <v>25.3</v>
+        <v>59.400000000000006</v>
       </c>
       <c r="E21" s="18">
-        <v>1.3799999999999999E-3</v>
+        <v>3.2400000000000003E-3</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>137</v>
+        <v>286</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>157</v>
+        <v>306</v>
       </c>
       <c r="K21" s="20">
-        <v>0.11185887819915111</v>
+        <v>0</v>
       </c>
       <c r="L21" s="13">
         <v>3</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.45">
@@ -1863,31 +2673,31 @@
         <v>98</v>
       </c>
       <c r="C22" s="11">
-        <v>0.98311199999999999</v>
+        <v>1.6981030000000001</v>
       </c>
       <c r="D22" s="15">
-        <v>36.300000000000004</v>
+        <v>49.500000000000007</v>
       </c>
       <c r="E22" s="16">
-        <v>1.98E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>137</v>
+        <v>286</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>158</v>
+        <v>307</v>
       </c>
       <c r="K22" s="19">
-        <v>4.8089384145122364E-2</v>
+        <v>0</v>
       </c>
       <c r="L22" s="11">
         <v>3</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.45">
@@ -1895,22 +2705,22 @@
         <v>99</v>
       </c>
       <c r="C23" s="13">
-        <v>0.49155599999999999</v>
+        <v>1.6981030000000001</v>
       </c>
       <c r="D23" s="17">
-        <v>71.5</v>
+        <v>83.600000000000009</v>
       </c>
       <c r="E23" s="18">
-        <v>3.9000000000000003E-3</v>
+        <v>4.5599999999999998E-3</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>137</v>
+        <v>286</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>159</v>
+        <v>308</v>
       </c>
       <c r="K23" s="20">
         <v>0</v>
@@ -1919,7 +2729,7 @@
         <v>3</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.45">
@@ -1927,31 +2737,31 @@
         <v>100</v>
       </c>
       <c r="C24" s="11">
-        <v>1.6981030000000001</v>
+        <v>0.98311199999999999</v>
       </c>
       <c r="D24" s="15">
-        <v>39.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E24" s="16">
-        <v>2.16E-3</v>
+        <v>4.8000000000000001E-4</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>137</v>
+        <v>286</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>160</v>
+        <v>309</v>
       </c>
       <c r="K24" s="19">
-        <v>0.28618973577693746</v>
+        <v>0</v>
       </c>
       <c r="L24" s="11">
         <v>3</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.45">
@@ -1959,31 +2769,31 @@
         <v>101</v>
       </c>
       <c r="C25" s="13">
-        <v>3.3962050000000001</v>
+        <v>1.6981030000000001</v>
       </c>
       <c r="D25" s="17">
-        <v>27.500000000000004</v>
+        <v>41.800000000000004</v>
       </c>
       <c r="E25" s="18">
-        <v>1.5E-3</v>
+        <v>2.2799999999999999E-3</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>137</v>
+        <v>286</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>161</v>
+        <v>310</v>
       </c>
       <c r="K25" s="20">
-        <v>1.2437062685473141E-2</v>
+        <v>0</v>
       </c>
       <c r="L25" s="13">
         <v>3</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.45">
@@ -1994,28 +2804,28 @@
         <v>3.3962050000000001</v>
       </c>
       <c r="D26" s="15">
-        <v>22</v>
+        <v>104.50000000000001</v>
       </c>
       <c r="E26" s="16">
-        <v>1.2000000000000001E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>137</v>
+        <v>286</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>162</v>
+        <v>311</v>
       </c>
       <c r="K26" s="19">
-        <v>2.1995880905792378E-2</v>
+        <v>0</v>
       </c>
       <c r="L26" s="11">
         <v>3</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.45">
@@ -2023,31 +2833,31 @@
         <v>103</v>
       </c>
       <c r="C27" s="13">
-        <v>2.1896590000000002</v>
+        <v>0.98311199999999999</v>
       </c>
       <c r="D27" s="17">
-        <v>70.400000000000006</v>
+        <v>7.7000000000000011</v>
       </c>
       <c r="E27" s="18">
-        <v>3.8400000000000001E-3</v>
+        <v>4.2000000000000002E-4</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>137</v>
+        <v>286</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>163</v>
+        <v>312</v>
       </c>
       <c r="K27" s="20">
-        <v>5.5975039444360079E-3</v>
+        <v>0</v>
       </c>
       <c r="L27" s="13">
         <v>3</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.45">
@@ -2058,19 +2868,19 @@
         <v>0.98311199999999999</v>
       </c>
       <c r="D28" s="15">
-        <v>39.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E28" s="16">
-        <v>2.16E-3</v>
+        <v>4.8000000000000001E-4</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>137</v>
+        <v>286</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>164</v>
+        <v>313</v>
       </c>
       <c r="K28" s="19">
         <v>0</v>
@@ -2079,7 +2889,7 @@
         <v>3</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.45">
@@ -2087,22 +2897,22 @@
         <v>105</v>
       </c>
       <c r="C29" s="13">
-        <v>1.6981030000000001</v>
+        <v>2.2790319999999999</v>
       </c>
       <c r="D29" s="17">
-        <v>116.60000000000001</v>
+        <v>6.6000000000000005</v>
       </c>
       <c r="E29" s="18">
-        <v>6.3600000000000002E-3</v>
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>137</v>
+        <v>286</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>165</v>
+        <v>314</v>
       </c>
       <c r="K29" s="20">
         <v>0</v>
@@ -2111,7 +2921,7 @@
         <v>3</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.45">
@@ -2119,31 +2929,31 @@
         <v>106</v>
       </c>
       <c r="C30" s="11">
-        <v>0.49155599999999999</v>
+        <v>0.98311199999999999</v>
       </c>
       <c r="D30" s="15">
-        <v>26.400000000000002</v>
+        <v>3.3000000000000003</v>
       </c>
       <c r="E30" s="16">
-        <v>1.4400000000000001E-3</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>137</v>
+        <v>286</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>166</v>
+        <v>315</v>
       </c>
       <c r="K30" s="19">
-        <v>1.2693657058019586E-2</v>
+        <v>0</v>
       </c>
       <c r="L30" s="11">
         <v>3</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.45">
@@ -2154,19 +2964,19 @@
         <v>0.98311199999999999</v>
       </c>
       <c r="D31" s="17">
-        <v>40.700000000000003</v>
+        <v>9.9</v>
       </c>
       <c r="E31" s="18">
-        <v>2.2200000000000002E-3</v>
+        <v>5.4000000000000001E-4</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>137</v>
+        <v>286</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>167</v>
+        <v>316</v>
       </c>
       <c r="K31" s="20">
         <v>0</v>
@@ -2175,7 +2985,7 @@
         <v>3</v>
       </c>
       <c r="M31" s="12" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.45">
@@ -2183,7 +2993,7 @@
         <v>108</v>
       </c>
       <c r="C32" s="11">
-        <v>1.6981030000000001</v>
+        <v>0.98311199999999999</v>
       </c>
       <c r="D32" s="15">
         <v>49.500000000000007</v>
@@ -2192,22 +3002,22 @@
         <v>2.7000000000000001E-3</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>137</v>
+        <v>286</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>168</v>
+        <v>317</v>
       </c>
       <c r="K32" s="19">
-        <v>7.433349176641707E-3</v>
+        <v>0</v>
       </c>
       <c r="L32" s="11">
         <v>3</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.45">
@@ -2215,31 +3025,31 @@
         <v>109</v>
       </c>
       <c r="C33" s="13">
-        <v>0.98311199999999999</v>
+        <v>0.49155599999999999</v>
       </c>
       <c r="D33" s="17">
-        <v>23.1</v>
+        <v>41.800000000000004</v>
       </c>
       <c r="E33" s="18">
-        <v>1.2600000000000001E-3</v>
+        <v>2.2799999999999999E-3</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>137</v>
+        <v>286</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>169</v>
+        <v>318</v>
       </c>
       <c r="K33" s="20">
-        <v>5.4291770500921571E-2</v>
+        <v>0</v>
       </c>
       <c r="L33" s="13">
         <v>3</v>
       </c>
       <c r="M33" s="12" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.45">
@@ -2247,31 +3057,31 @@
         <v>110</v>
       </c>
       <c r="C34" s="11">
-        <v>1.6981030000000001</v>
+        <v>0.98311199999999999</v>
       </c>
       <c r="D34" s="15">
-        <v>20.900000000000002</v>
+        <v>7.7000000000000011</v>
       </c>
       <c r="E34" s="16">
-        <v>1.14E-3</v>
+        <v>4.2000000000000002E-4</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>137</v>
+        <v>286</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>170</v>
+        <v>319</v>
       </c>
       <c r="K34" s="19">
-        <v>8.1209530783282663E-2</v>
+        <v>0</v>
       </c>
       <c r="L34" s="11">
         <v>3</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.45">
@@ -2279,31 +3089,31 @@
         <v>111</v>
       </c>
       <c r="C35" s="13">
-        <v>0.98311199999999999</v>
+        <v>1.6981030000000001</v>
       </c>
       <c r="D35" s="17">
-        <v>30.800000000000004</v>
+        <v>33</v>
       </c>
       <c r="E35" s="18">
-        <v>1.6800000000000001E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>137</v>
+        <v>286</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>171</v>
+        <v>320</v>
       </c>
       <c r="K35" s="20">
-        <v>1.3937437273071906E-2</v>
+        <v>0</v>
       </c>
       <c r="L35" s="13">
         <v>3</v>
       </c>
       <c r="M35" s="12" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.45">
@@ -2314,28 +3124,28 @@
         <v>0.98311199999999999</v>
       </c>
       <c r="D36" s="15">
-        <v>22</v>
+        <v>24.200000000000003</v>
       </c>
       <c r="E36" s="16">
-        <v>1.2000000000000001E-3</v>
+        <v>1.32E-3</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>137</v>
+        <v>286</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>172</v>
+        <v>321</v>
       </c>
       <c r="K36" s="19">
-        <v>4.2432969484990255E-3</v>
+        <v>1.927859333331175E-2</v>
       </c>
       <c r="L36" s="11">
         <v>3</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.45">
@@ -2343,13 +3153,31 @@
         <v>113</v>
       </c>
       <c r="C37" s="13">
-        <v>0.98311199999999999</v>
+        <v>0.49155599999999999</v>
       </c>
       <c r="D37" s="17">
-        <v>48.400000000000006</v>
+        <v>9.9</v>
       </c>
       <c r="E37" s="18">
-        <v>2.64E-3</v>
+        <v>5.4000000000000001E-4</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="K37" s="20">
+        <v>0</v>
+      </c>
+      <c r="L37" s="13">
+        <v>3</v>
+      </c>
+      <c r="M37" s="12" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.45">
@@ -2357,13 +3185,31 @@
         <v>114</v>
       </c>
       <c r="C38" s="11">
-        <v>0.98311199999999999</v>
+        <v>0.49155599999999999</v>
       </c>
       <c r="D38" s="15">
-        <v>19.8</v>
+        <v>71.5</v>
       </c>
       <c r="E38" s="16">
-        <v>1.08E-3</v>
+        <v>3.9000000000000003E-3</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="K38" s="19">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <v>3</v>
+      </c>
+      <c r="M38" s="10" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.45">
@@ -2371,13 +3217,31 @@
         <v>115</v>
       </c>
       <c r="C39" s="13">
-        <v>0.49155599999999999</v>
+        <v>1.6981030000000001</v>
       </c>
       <c r="D39" s="17">
-        <v>24.200000000000003</v>
+        <v>30.800000000000004</v>
       </c>
       <c r="E39" s="18">
-        <v>1.32E-3</v>
+        <v>1.6800000000000001E-3</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="K39" s="20">
+        <v>0</v>
+      </c>
+      <c r="L39" s="13">
+        <v>3</v>
+      </c>
+      <c r="M39" s="12" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.45">
@@ -2385,13 +3249,31 @@
         <v>116</v>
       </c>
       <c r="C40" s="11">
-        <v>0.98311199999999999</v>
+        <v>1.6981030000000001</v>
       </c>
       <c r="D40" s="15">
-        <v>44</v>
+        <v>39.6</v>
       </c>
       <c r="E40" s="16">
-        <v>2.4000000000000002E-3</v>
+        <v>2.16E-3</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="K40" s="19">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11">
+        <v>3</v>
+      </c>
+      <c r="M40" s="10" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.45">
@@ -2399,13 +3281,31 @@
         <v>117</v>
       </c>
       <c r="C41" s="13">
-        <v>0.98311199999999999</v>
+        <v>0.49155599999999999</v>
       </c>
       <c r="D41" s="17">
-        <v>61.600000000000009</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="E41" s="18">
-        <v>3.3600000000000001E-3</v>
+        <v>7.2000000000000005E-4</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="K41" s="20">
+        <v>0</v>
+      </c>
+      <c r="L41" s="13">
+        <v>3</v>
+      </c>
+      <c r="M41" s="12" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.45">
@@ -2413,13 +3313,31 @@
         <v>118</v>
       </c>
       <c r="C42" s="11">
-        <v>1.966224</v>
+        <v>3.8877609999999998</v>
       </c>
       <c r="D42" s="15">
-        <v>20.900000000000002</v>
+        <v>30.800000000000004</v>
       </c>
       <c r="E42" s="16">
-        <v>1.14E-3</v>
+        <v>1.6800000000000001E-3</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="K42" s="19">
+        <v>0</v>
+      </c>
+      <c r="L42" s="11">
+        <v>3</v>
+      </c>
+      <c r="M42" s="10" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.45">
@@ -2427,13 +3345,31 @@
         <v>119</v>
       </c>
       <c r="C43" s="13">
-        <v>2.1896590000000002</v>
+        <v>0.49155599999999999</v>
       </c>
       <c r="D43" s="17">
-        <v>23.1</v>
+        <v>29.700000000000003</v>
       </c>
       <c r="E43" s="18">
-        <v>1.2600000000000001E-3</v>
+        <v>1.6200000000000001E-3</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="K43" s="20">
+        <v>5.714092934075295E-3</v>
+      </c>
+      <c r="L43" s="13">
+        <v>3</v>
+      </c>
+      <c r="M43" s="12" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.45">
@@ -2441,13 +3377,31 @@
         <v>120</v>
       </c>
       <c r="C44" s="11">
-        <v>3.3962060000000003</v>
+        <v>3.3962050000000001</v>
       </c>
       <c r="D44" s="15">
-        <v>71.5</v>
+        <v>14.3</v>
       </c>
       <c r="E44" s="16">
-        <v>3.9000000000000003E-3</v>
+        <v>7.7999999999999999E-4</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="K44" s="19">
+        <v>0</v>
+      </c>
+      <c r="L44" s="11">
+        <v>3</v>
+      </c>
+      <c r="M44" s="10" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.45">
@@ -2458,10 +3412,28 @@
         <v>1.6981030000000001</v>
       </c>
       <c r="D45" s="17">
-        <v>49.500000000000007</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="E45" s="18">
-        <v>2.7000000000000001E-3</v>
+        <v>1.92E-3</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="K45" s="20">
+        <v>2.9157106943825187E-3</v>
+      </c>
+      <c r="L45" s="13">
+        <v>3</v>
+      </c>
+      <c r="M45" s="12" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.45">
@@ -2469,13 +3441,31 @@
         <v>122</v>
       </c>
       <c r="C46" s="11">
-        <v>0.49155599999999999</v>
+        <v>0.98311199999999999</v>
       </c>
       <c r="D46" s="15">
-        <v>29.700000000000003</v>
+        <v>11</v>
       </c>
       <c r="E46" s="16">
-        <v>1.6200000000000001E-3</v>
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="K46" s="19">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>3</v>
+      </c>
+      <c r="M46" s="10" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.45">
@@ -2483,13 +3473,31 @@
         <v>123</v>
       </c>
       <c r="C47" s="13">
-        <v>3.8877609999999998</v>
+        <v>0.49155599999999999</v>
       </c>
       <c r="D47" s="17">
-        <v>30.800000000000004</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="E47" s="18">
-        <v>1.6800000000000001E-3</v>
+        <v>3.3E-3</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="K47" s="20">
+        <v>1.2756511587317752E-2</v>
+      </c>
+      <c r="L47" s="13">
+        <v>3</v>
+      </c>
+      <c r="M47" s="12" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.45">
@@ -2500,55 +3508,127 @@
         <v>0.98311199999999999</v>
       </c>
       <c r="D48" s="15">
-        <v>29.700000000000003</v>
+        <v>31.900000000000002</v>
       </c>
       <c r="E48" s="16">
-        <v>1.6200000000000001E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.45">
+        <v>1.74E-3</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="K48" s="19">
+        <v>1.0792492413013872E-2</v>
+      </c>
+      <c r="L48" s="11">
+        <v>3</v>
+      </c>
+      <c r="M48" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B49" s="12" t="s">
         <v>125</v>
       </c>
       <c r="C49" s="13">
-        <v>0.49155599999999999</v>
+        <v>0.98311199999999999</v>
       </c>
       <c r="D49" s="17">
-        <v>41.800000000000004</v>
+        <v>18.700000000000003</v>
       </c>
       <c r="E49" s="18">
-        <v>2.2799999999999999E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.45">
+        <v>1.0200000000000001E-3</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="K49" s="20">
+        <v>5.9512147269568287E-3</v>
+      </c>
+      <c r="L49" s="13">
+        <v>3</v>
+      </c>
+      <c r="M49" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B50" s="10" t="s">
         <v>126</v>
       </c>
       <c r="C50" s="11">
-        <v>3.3962050000000001</v>
+        <v>3.8877620000000004</v>
       </c>
       <c r="D50" s="15">
-        <v>53.900000000000006</v>
+        <v>46.2</v>
       </c>
       <c r="E50" s="16">
-        <v>2.9399999999999999E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.45">
+        <v>2.5200000000000001E-3</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="K50" s="19">
+        <v>8.4545504114737047E-2</v>
+      </c>
+      <c r="L50" s="11">
+        <v>3</v>
+      </c>
+      <c r="M50" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B51" s="12" t="s">
         <v>127</v>
       </c>
       <c r="C51" s="13">
-        <v>0.98311199999999999</v>
+        <v>2.1896590000000002</v>
       </c>
       <c r="D51" s="17">
-        <v>30.800000000000004</v>
+        <v>25.3</v>
       </c>
       <c r="E51" s="18">
-        <v>1.6800000000000001E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.45">
+        <v>1.3799999999999999E-3</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="K51" s="20">
+        <v>0</v>
+      </c>
+      <c r="L51" s="13">
+        <v>3</v>
+      </c>
+      <c r="M51" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B52" s="10" t="s">
         <v>128</v>
       </c>
@@ -2556,66 +3636,4060 @@
         <v>0.98311199999999999</v>
       </c>
       <c r="D52" s="15">
-        <v>19.8</v>
+        <v>23.1</v>
       </c>
       <c r="E52" s="16">
-        <v>1.08E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.45">
+        <v>1.2600000000000001E-3</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="K52" s="19">
+        <v>3.9467714632220163E-3</v>
+      </c>
+      <c r="L52" s="11">
+        <v>3</v>
+      </c>
+      <c r="M52" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B53" s="12" t="s">
         <v>129</v>
       </c>
       <c r="C53" s="13">
-        <v>0.98311199999999999</v>
+        <v>0.49155599999999999</v>
       </c>
       <c r="D53" s="17">
-        <v>19.8</v>
+        <v>27.500000000000004</v>
       </c>
       <c r="E53" s="18">
-        <v>1.08E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.45">
+        <v>1.5E-3</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="K53" s="20">
+        <v>0</v>
+      </c>
+      <c r="L53" s="13">
+        <v>3</v>
+      </c>
+      <c r="M53" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B54" s="10" t="s">
         <v>130</v>
       </c>
       <c r="C54" s="11">
-        <v>0.98311199999999999</v>
+        <v>1.6981030000000001</v>
       </c>
       <c r="D54" s="15">
-        <v>27.500000000000004</v>
+        <v>20.900000000000002</v>
       </c>
       <c r="E54" s="16">
-        <v>1.5E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.45">
+        <v>1.14E-3</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="K54" s="19">
+        <v>0</v>
+      </c>
+      <c r="L54" s="11">
+        <v>3</v>
+      </c>
+      <c r="M54" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B55" s="12" t="s">
         <v>131</v>
       </c>
       <c r="C55" s="13">
-        <v>0.49155599999999999</v>
+        <v>0.98311199999999999</v>
       </c>
       <c r="D55" s="17">
-        <v>18.700000000000003</v>
+        <v>9.9</v>
       </c>
       <c r="E55" s="18">
-        <v>1.0200000000000001E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.45">
+        <v>5.4000000000000001E-4</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="K55" s="20">
+        <v>0</v>
+      </c>
+      <c r="L55" s="13">
+        <v>3</v>
+      </c>
+      <c r="M55" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B56" s="10" t="s">
         <v>132</v>
       </c>
       <c r="C56" s="11">
+        <v>1.6981030000000001</v>
+      </c>
+      <c r="D56" s="15">
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E56" s="16">
+        <v>1.4400000000000001E-3</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="K56" s="19">
+        <v>4.5883806387632727E-3</v>
+      </c>
+      <c r="L56" s="11">
+        <v>3</v>
+      </c>
+      <c r="M56" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B57" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="13">
+        <v>3.8877609999999998</v>
+      </c>
+      <c r="D57" s="17">
+        <v>16.5</v>
+      </c>
+      <c r="E57" s="18">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J57" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="K57" s="20">
+        <v>4.2432969484990255E-3</v>
+      </c>
+      <c r="L57" s="13">
+        <v>3</v>
+      </c>
+      <c r="M57" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B58" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="11">
+        <v>1.6981030000000001</v>
+      </c>
+      <c r="D58" s="15">
+        <v>16.5</v>
+      </c>
+      <c r="E58" s="16">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J58" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="K58" s="19">
+        <v>0</v>
+      </c>
+      <c r="L58" s="11">
+        <v>3</v>
+      </c>
+      <c r="M58" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B59" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" s="13">
+        <v>1.6981030000000001</v>
+      </c>
+      <c r="D59" s="17">
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E59" s="18">
+        <v>1.4400000000000001E-3</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J59" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="K59" s="20">
+        <v>0</v>
+      </c>
+      <c r="L59" s="13">
+        <v>3</v>
+      </c>
+      <c r="M59" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B60" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D60" s="15">
+        <v>19.8</v>
+      </c>
+      <c r="E60" s="16">
+        <v>1.08E-3</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J60" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="K60" s="19">
+        <v>0</v>
+      </c>
+      <c r="L60" s="11">
+        <v>3</v>
+      </c>
+      <c r="M60" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B61" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D61" s="17">
+        <v>48.400000000000006</v>
+      </c>
+      <c r="E61" s="18">
+        <v>2.64E-3</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J61" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="K61" s="20">
+        <v>0</v>
+      </c>
+      <c r="L61" s="13">
+        <v>3</v>
+      </c>
+      <c r="M61" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B62" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" s="11">
+        <v>3.3962060000000003</v>
+      </c>
+      <c r="D62" s="15">
+        <v>15.400000000000002</v>
+      </c>
+      <c r="E62" s="16">
+        <v>8.4000000000000003E-4</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J62" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="K62" s="19">
+        <v>0.11461190658240906</v>
+      </c>
+      <c r="L62" s="11">
+        <v>3</v>
+      </c>
+      <c r="M62" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B63" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D63" s="17">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="E63" s="18">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J63" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="K63" s="20">
+        <v>0</v>
+      </c>
+      <c r="L63" s="13">
+        <v>3</v>
+      </c>
+      <c r="M63" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B64" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" s="11">
+        <v>1.005455</v>
+      </c>
+      <c r="D64" s="15">
+        <v>14.3</v>
+      </c>
+      <c r="E64" s="16">
+        <v>7.7999999999999999E-4</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J64" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="K64" s="19">
+        <v>1.2196736544039102E-2</v>
+      </c>
+      <c r="L64" s="11">
+        <v>3</v>
+      </c>
+      <c r="M64" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B65" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D65" s="17">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E65" s="18">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I65" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J65" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="K65" s="20">
+        <v>0</v>
+      </c>
+      <c r="L65" s="13">
+        <v>3</v>
+      </c>
+      <c r="M65" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B66" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D66" s="15">
+        <v>19.8</v>
+      </c>
+      <c r="E66" s="16">
+        <v>1.08E-3</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J66" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="K66" s="19">
+        <v>1.9858826909655954E-2</v>
+      </c>
+      <c r="L66" s="11">
+        <v>3</v>
+      </c>
+      <c r="M66" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B67" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" s="13">
+        <v>1.6981030000000001</v>
+      </c>
+      <c r="D67" s="17">
+        <v>116.60000000000001</v>
+      </c>
+      <c r="E67" s="18">
+        <v>6.3600000000000002E-3</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I67" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J67" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="K67" s="20">
+        <v>0</v>
+      </c>
+      <c r="L67" s="13">
+        <v>3</v>
+      </c>
+      <c r="M67" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B68" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C68" s="11">
+        <v>3.3962050000000001</v>
+      </c>
+      <c r="D68" s="15">
+        <v>11</v>
+      </c>
+      <c r="E68" s="16">
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J68" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="K68" s="19">
+        <v>6.8409390757981484E-2</v>
+      </c>
+      <c r="L68" s="11">
+        <v>3</v>
+      </c>
+      <c r="M68" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B69" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D69" s="17">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="E69" s="18">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I69" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J69" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="K69" s="20">
+        <v>4.6810849072693367E-2</v>
+      </c>
+      <c r="L69" s="13">
+        <v>3</v>
+      </c>
+      <c r="M69" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B70" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C70" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D70" s="15">
+        <v>22</v>
+      </c>
+      <c r="E70" s="16">
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J70" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="K70" s="19">
+        <v>1.9140066880505603E-2</v>
+      </c>
+      <c r="L70" s="11">
+        <v>3</v>
+      </c>
+      <c r="M70" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B71" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" s="13">
+        <v>2.1896590000000002</v>
+      </c>
+      <c r="D71" s="17">
+        <v>20.900000000000002</v>
+      </c>
+      <c r="E71" s="18">
+        <v>1.14E-3</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I71" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J71" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="K71" s="20">
+        <v>0</v>
+      </c>
+      <c r="L71" s="13">
+        <v>3</v>
+      </c>
+      <c r="M71" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B72" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" s="11">
+        <v>3.3962050000000001</v>
+      </c>
+      <c r="D72" s="15">
+        <v>44</v>
+      </c>
+      <c r="E72" s="16">
+        <v>2.4000000000000002E-3</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J72" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="K72" s="19">
+        <v>1.2437062685473141E-2</v>
+      </c>
+      <c r="L72" s="11">
+        <v>3</v>
+      </c>
+      <c r="M72" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B73" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C73" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D73" s="17">
+        <v>22</v>
+      </c>
+      <c r="E73" s="18">
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="H73" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I73" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J73" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="K73" s="20">
+        <v>3.125965257093492E-3</v>
+      </c>
+      <c r="L73" s="13">
+        <v>3</v>
+      </c>
+      <c r="M73" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B74" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D74" s="15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E74" s="16">
+        <v>1.2E-4</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I74" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J74" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="K74" s="19">
+        <v>2.743168849250445E-3</v>
+      </c>
+      <c r="L74" s="11">
+        <v>3</v>
+      </c>
+      <c r="M74" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B75" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D75" s="17">
+        <v>16.5</v>
+      </c>
+      <c r="E75" s="18">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I75" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J75" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="K75" s="20">
+        <v>0</v>
+      </c>
+      <c r="L75" s="13">
+        <v>3</v>
+      </c>
+      <c r="M75" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B76" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C76" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D76" s="15">
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E76" s="16">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="H76" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I76" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J76" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="K76" s="19">
+        <v>8.2272881525996683E-3</v>
+      </c>
+      <c r="L76" s="11">
+        <v>3</v>
+      </c>
+      <c r="M76" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B77" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D77" s="17">
+        <v>19.8</v>
+      </c>
+      <c r="E77" s="18">
+        <v>1.08E-3</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I77" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J77" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="K77" s="20">
+        <v>0</v>
+      </c>
+      <c r="L77" s="13">
+        <v>3</v>
+      </c>
+      <c r="M77" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B78" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C78" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D78" s="15">
+        <v>37.400000000000006</v>
+      </c>
+      <c r="E78" s="16">
+        <v>2.0400000000000001E-3</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I78" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J78" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="K78" s="19">
+        <v>0</v>
+      </c>
+      <c r="L78" s="11">
+        <v>3</v>
+      </c>
+      <c r="M78" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B79" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C79" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D79" s="17">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="E79" s="18">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="H79" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I79" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J79" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="K79" s="20">
+        <v>0</v>
+      </c>
+      <c r="L79" s="13">
+        <v>3</v>
+      </c>
+      <c r="M79" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B80" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C80" s="11">
+        <v>3.3962050000000001</v>
+      </c>
+      <c r="D80" s="15">
+        <v>19.8</v>
+      </c>
+      <c r="E80" s="16">
+        <v>1.08E-3</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I80" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J80" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="K80" s="19">
+        <v>0</v>
+      </c>
+      <c r="L80" s="11">
+        <v>3</v>
+      </c>
+      <c r="M80" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B81" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D81" s="17">
+        <v>59.400000000000006</v>
+      </c>
+      <c r="E81" s="18">
+        <v>3.2400000000000003E-3</v>
+      </c>
+      <c r="H81" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I81" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J81" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="K81" s="20">
+        <v>2.8575394437379679E-3</v>
+      </c>
+      <c r="L81" s="13">
+        <v>3</v>
+      </c>
+      <c r="M81" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B82" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C82" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D82" s="15">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E82" s="16">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I82" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J82" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="K82" s="19">
+        <v>9.6687520245034297E-3</v>
+      </c>
+      <c r="L82" s="11">
+        <v>3</v>
+      </c>
+      <c r="M82" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B83" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C83" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D83" s="17">
+        <v>5.5</v>
+      </c>
+      <c r="E83" s="18">
+        <v>3.0000000000000003E-4</v>
+      </c>
+      <c r="H83" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I83" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J83" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="K83" s="20">
+        <v>2.555591214756789E-3</v>
+      </c>
+      <c r="L83" s="13">
+        <v>3</v>
+      </c>
+      <c r="M83" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B84" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C84" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D84" s="15">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E84" s="16">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="H84" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I84" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J84" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="K84" s="19">
+        <v>2.0427229045191276E-2</v>
+      </c>
+      <c r="L84" s="11">
+        <v>3</v>
+      </c>
+      <c r="M84" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B85" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C85" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D85" s="17">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="E85" s="18">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="H85" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I85" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J85" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="K85" s="20">
+        <v>8.3601453733513648E-3</v>
+      </c>
+      <c r="L85" s="13">
+        <v>3</v>
+      </c>
+      <c r="M85" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B86" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C86" s="11">
+        <v>1.4746679999999999</v>
+      </c>
+      <c r="D86" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E86" s="16">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="H86" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I86" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J86" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="K86" s="19">
+        <v>9.8265045686242048E-3</v>
+      </c>
+      <c r="L86" s="11">
+        <v>3</v>
+      </c>
+      <c r="M86" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B87" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C87" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D87" s="17">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E87" s="18">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="H87" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I87" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J87" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="K87" s="20">
+        <v>1.0798161645068225E-2</v>
+      </c>
+      <c r="L87" s="13">
+        <v>3</v>
+      </c>
+      <c r="M87" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B88" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C88" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D88" s="15">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E88" s="16">
+        <v>4.8000000000000001E-4</v>
+      </c>
+      <c r="H88" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I88" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J88" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="K88" s="19">
+        <v>2.9997632217968911E-3</v>
+      </c>
+      <c r="L88" s="11">
+        <v>3</v>
+      </c>
+      <c r="M88" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B89" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C89" s="13">
+        <v>1.4746679999999999</v>
+      </c>
+      <c r="D89" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E89" s="18">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="H89" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I89" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J89" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="K89" s="20">
+        <v>5.5975039444360079E-3</v>
+      </c>
+      <c r="L89" s="13">
+        <v>3</v>
+      </c>
+      <c r="M89" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B90" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C90" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D90" s="15">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="E90" s="16">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="H90" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I90" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J90" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="K90" s="19">
+        <v>0</v>
+      </c>
+      <c r="L90" s="11">
+        <v>3</v>
+      </c>
+      <c r="M90" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B91" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C91" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D91" s="17">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="E91" s="18">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="H91" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I91" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J91" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="K91" s="20">
+        <v>0</v>
+      </c>
+      <c r="L91" s="13">
+        <v>3</v>
+      </c>
+      <c r="M91" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B92" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C92" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D92" s="15">
+        <v>12.100000000000001</v>
+      </c>
+      <c r="E92" s="16">
+        <v>6.6E-4</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I92" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J92" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="K92" s="19">
+        <v>2.6773564597500597E-3</v>
+      </c>
+      <c r="L92" s="11">
+        <v>3</v>
+      </c>
+      <c r="M92" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B93" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C93" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D93" s="17">
+        <v>19.8</v>
+      </c>
+      <c r="E93" s="18">
+        <v>1.08E-3</v>
+      </c>
+      <c r="H93" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I93" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J93" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="K93" s="20">
+        <v>0</v>
+      </c>
+      <c r="L93" s="13">
+        <v>3</v>
+      </c>
+      <c r="M93" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B94" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C94" s="11">
+        <v>3.3962050000000001</v>
+      </c>
+      <c r="D94" s="15">
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E94" s="16">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I94" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J94" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="K94" s="19">
+        <v>0</v>
+      </c>
+      <c r="L94" s="11">
+        <v>3</v>
+      </c>
+      <c r="M94" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B95" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C95" s="13">
+        <v>3.3962050000000001</v>
+      </c>
+      <c r="D95" s="17">
+        <v>27.500000000000004</v>
+      </c>
+      <c r="E95" s="18">
+        <v>1.5E-3</v>
+      </c>
+      <c r="H95" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I95" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J95" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="K95" s="20">
+        <v>0</v>
+      </c>
+      <c r="L95" s="13">
+        <v>3</v>
+      </c>
+      <c r="M95" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B96" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C96" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D96" s="15">
+        <v>39.6</v>
+      </c>
+      <c r="E96" s="16">
+        <v>2.16E-3</v>
+      </c>
+      <c r="H96" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I96" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J96" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="K96" s="19">
+        <v>0</v>
+      </c>
+      <c r="L96" s="11">
+        <v>3</v>
+      </c>
+      <c r="M96" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="97" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B97" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C97" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D97" s="17">
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E97" s="18">
+        <v>1.4400000000000001E-3</v>
+      </c>
+      <c r="H97" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I97" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J97" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="K97" s="20">
+        <v>4.1385393996688172E-3</v>
+      </c>
+      <c r="L97" s="13">
+        <v>3</v>
+      </c>
+      <c r="M97" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B98" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C98" s="11">
+        <v>1.6981030000000001</v>
+      </c>
+      <c r="D98" s="15">
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E98" s="16">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="H98" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I98" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J98" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="K98" s="19">
+        <v>0</v>
+      </c>
+      <c r="L98" s="11">
+        <v>3</v>
+      </c>
+      <c r="M98" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B99" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C99" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D99" s="17">
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E99" s="18">
+        <v>1.0200000000000001E-3</v>
+      </c>
+      <c r="H99" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I99" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J99" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="K99" s="20">
+        <v>3.1403848255796118E-2</v>
+      </c>
+      <c r="L99" s="13">
+        <v>3</v>
+      </c>
+      <c r="M99" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B100" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C100" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D100" s="15">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="E100" s="16">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="H100" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I100" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J100" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="K100" s="19">
+        <v>7.433349176641707E-3</v>
+      </c>
+      <c r="L100" s="11">
+        <v>3</v>
+      </c>
+      <c r="M100" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="101" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B101" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C101" s="13">
+        <v>3.3962050000000001</v>
+      </c>
+      <c r="D101" s="17">
+        <v>22</v>
+      </c>
+      <c r="E101" s="18">
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="H101" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I101" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J101" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="K101" s="20">
+        <v>8.5551176583506684E-3</v>
+      </c>
+      <c r="L101" s="13">
+        <v>3</v>
+      </c>
+      <c r="M101" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B102" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C102" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D102" s="15">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="E102" s="16">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="H102" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I102" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J102" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="K102" s="19">
+        <v>0</v>
+      </c>
+      <c r="L102" s="11">
+        <v>3</v>
+      </c>
+      <c r="M102" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="103" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B103" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C103" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D103" s="17">
+        <v>14.3</v>
+      </c>
+      <c r="E103" s="18">
+        <v>7.7999999999999999E-4</v>
+      </c>
+      <c r="H103" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I103" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J103" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="K103" s="20">
+        <v>0</v>
+      </c>
+      <c r="L103" s="13">
+        <v>3</v>
+      </c>
+      <c r="M103" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="104" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B104" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C104" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D104" s="15">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="E104" s="16">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="H104" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I104" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J104" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="K104" s="19">
+        <v>3.3083666362331639E-3</v>
+      </c>
+      <c r="L104" s="11">
+        <v>3</v>
+      </c>
+      <c r="M104" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="105" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B105" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C105" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D105" s="17">
+        <v>16.5</v>
+      </c>
+      <c r="E105" s="18">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="H105" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I105" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J105" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="K105" s="20">
+        <v>2.0792031803470522E-2</v>
+      </c>
+      <c r="L105" s="13">
+        <v>3</v>
+      </c>
+      <c r="M105" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="106" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B106" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C106" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D106" s="15">
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E106" s="16">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="H106" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I106" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J106" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="K106" s="19">
+        <v>0</v>
+      </c>
+      <c r="L106" s="11">
+        <v>3</v>
+      </c>
+      <c r="M106" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="107" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B107" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C107" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D107" s="17">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E107" s="18">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="H107" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I107" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J107" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="K107" s="20">
+        <v>0</v>
+      </c>
+      <c r="L107" s="13">
+        <v>3</v>
+      </c>
+      <c r="M107" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="108" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B108" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C108" s="11">
+        <v>1.6981030000000001</v>
+      </c>
+      <c r="D108" s="15">
+        <v>49.500000000000007</v>
+      </c>
+      <c r="E108" s="16">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="H108" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I108" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J108" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="K108" s="19">
+        <v>0</v>
+      </c>
+      <c r="L108" s="11">
+        <v>3</v>
+      </c>
+      <c r="M108" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="109" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B109" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C109" s="13">
+        <v>3.3962050000000001</v>
+      </c>
+      <c r="D109" s="17">
+        <v>9.9</v>
+      </c>
+      <c r="E109" s="18">
+        <v>5.4000000000000001E-4</v>
+      </c>
+      <c r="H109" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I109" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J109" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="K109" s="20">
+        <v>9.4971961327719959E-3</v>
+      </c>
+      <c r="L109" s="13">
+        <v>3</v>
+      </c>
+      <c r="M109" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="110" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B110" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C110" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D110" s="15">
+        <v>20.900000000000002</v>
+      </c>
+      <c r="E110" s="16">
+        <v>1.14E-3</v>
+      </c>
+      <c r="H110" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I110" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J110" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="K110" s="19">
+        <v>8.2166891535415173E-3</v>
+      </c>
+      <c r="L110" s="11">
+        <v>3</v>
+      </c>
+      <c r="M110" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="111" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B111" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C111" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D111" s="17">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="E111" s="18">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="H111" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I111" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J111" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="K111" s="20">
+        <v>4.9411054678833539E-3</v>
+      </c>
+      <c r="L111" s="13">
+        <v>3</v>
+      </c>
+      <c r="M111" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="112" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B112" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C112" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D112" s="15">
+        <v>14.3</v>
+      </c>
+      <c r="E112" s="16">
+        <v>7.7999999999999999E-4</v>
+      </c>
+      <c r="H112" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I112" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J112" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="K112" s="19">
+        <v>6.48523173764078E-2</v>
+      </c>
+      <c r="L112" s="11">
+        <v>3</v>
+      </c>
+      <c r="M112" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B113" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C113" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D113" s="17">
+        <v>23.1</v>
+      </c>
+      <c r="E113" s="18">
+        <v>1.2600000000000001E-3</v>
+      </c>
+      <c r="H113" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I113" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J113" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="K113" s="20">
+        <v>2.7635534358110711E-2</v>
+      </c>
+      <c r="L113" s="13">
+        <v>3</v>
+      </c>
+      <c r="M113" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B114" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C114" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D114" s="15">
+        <v>41.800000000000004</v>
+      </c>
+      <c r="E114" s="16">
+        <v>2.2799999999999999E-3</v>
+      </c>
+      <c r="H114" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I114" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J114" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="K114" s="19">
+        <v>0</v>
+      </c>
+      <c r="L114" s="11">
+        <v>3</v>
+      </c>
+      <c r="M114" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="115" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B115" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C115" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D115" s="17">
+        <v>11</v>
+      </c>
+      <c r="E115" s="18">
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="H115" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I115" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J115" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="K115" s="20">
+        <v>0</v>
+      </c>
+      <c r="L115" s="13">
+        <v>3</v>
+      </c>
+      <c r="M115" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="116" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B116" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C116" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D116" s="15">
+        <v>30.800000000000004</v>
+      </c>
+      <c r="E116" s="16">
+        <v>1.6800000000000001E-3</v>
+      </c>
+      <c r="H116" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I116" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J116" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="K116" s="19">
+        <v>0</v>
+      </c>
+      <c r="L116" s="11">
+        <v>3</v>
+      </c>
+      <c r="M116" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="117" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B117" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C117" s="13">
+        <v>1.0054560000000001</v>
+      </c>
+      <c r="D117" s="17">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E117" s="18">
+        <v>1.2E-4</v>
+      </c>
+      <c r="H117" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I117" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J117" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="K117" s="20">
+        <v>1.1404522986532434E-2</v>
+      </c>
+      <c r="L117" s="13">
+        <v>3</v>
+      </c>
+      <c r="M117" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="118" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B118" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C118" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D118" s="15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E118" s="16">
+        <v>1.2E-4</v>
+      </c>
+      <c r="H118" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I118" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J118" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="K118" s="19">
+        <v>0</v>
+      </c>
+      <c r="L118" s="11">
+        <v>3</v>
+      </c>
+      <c r="M118" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="119" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B119" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C119" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D119" s="17">
         <v>24.200000000000003</v>
       </c>
-      <c r="E56" s="16">
+      <c r="E119" s="18">
         <v>1.32E-3</v>
+      </c>
+      <c r="H119" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I119" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J119" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="K119" s="20">
+        <v>0</v>
+      </c>
+      <c r="L119" s="13">
+        <v>3</v>
+      </c>
+      <c r="M119" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="120" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B120" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C120" s="11">
+        <v>1.005455</v>
+      </c>
+      <c r="D120" s="15">
+        <v>5.5</v>
+      </c>
+      <c r="E120" s="16">
+        <v>3.0000000000000003E-4</v>
+      </c>
+      <c r="H120" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I120" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J120" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="K120" s="19">
+        <v>0</v>
+      </c>
+      <c r="L120" s="11">
+        <v>3</v>
+      </c>
+      <c r="M120" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="121" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B121" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C121" s="13">
+        <v>1.005455</v>
+      </c>
+      <c r="D121" s="17">
+        <v>12.100000000000001</v>
+      </c>
+      <c r="E121" s="18">
+        <v>6.6E-4</v>
+      </c>
+      <c r="H121" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I121" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J121" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="K121" s="20">
+        <v>9.1161251433802427E-3</v>
+      </c>
+      <c r="L121" s="13">
+        <v>3</v>
+      </c>
+      <c r="M121" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="122" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B122" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C122" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D122" s="15">
+        <v>5.5</v>
+      </c>
+      <c r="E122" s="16">
+        <v>3.0000000000000003E-4</v>
+      </c>
+      <c r="H122" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I122" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J122" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="K122" s="19">
+        <v>3.9630396943345228E-3</v>
+      </c>
+      <c r="L122" s="11">
+        <v>3</v>
+      </c>
+      <c r="M122" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="123" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B123" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C123" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D123" s="17">
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E123" s="18">
+        <v>4.2000000000000002E-4</v>
+      </c>
+      <c r="H123" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I123" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J123" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="K123" s="20">
+        <v>3.2250535738694462E-3</v>
+      </c>
+      <c r="L123" s="13">
+        <v>3</v>
+      </c>
+      <c r="M123" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="124" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B124" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C124" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D124" s="15">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E124" s="16">
+        <v>4.8000000000000001E-4</v>
+      </c>
+      <c r="H124" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I124" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J124" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="K124" s="19">
+        <v>1.9257395335195444E-2</v>
+      </c>
+      <c r="L124" s="11">
+        <v>3</v>
+      </c>
+      <c r="M124" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="125" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B125" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C125" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D125" s="17">
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E125" s="18">
+        <v>4.2000000000000002E-4</v>
+      </c>
+      <c r="H125" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I125" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J125" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="K125" s="20">
+        <v>0</v>
+      </c>
+      <c r="L125" s="13">
+        <v>3</v>
+      </c>
+      <c r="M125" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="126" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B126" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C126" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D126" s="15">
+        <v>11</v>
+      </c>
+      <c r="E126" s="16">
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="H126" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I126" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J126" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="K126" s="19">
+        <v>0</v>
+      </c>
+      <c r="L126" s="11">
+        <v>3</v>
+      </c>
+      <c r="M126" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="127" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B127" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C127" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D127" s="17">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="E127" s="18">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="H127" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I127" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J127" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="K127" s="20">
+        <v>0</v>
+      </c>
+      <c r="L127" s="13">
+        <v>3</v>
+      </c>
+      <c r="M127" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="128" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B128" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C128" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D128" s="15">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E128" s="16">
+        <v>4.8000000000000001E-4</v>
+      </c>
+      <c r="H128" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I128" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J128" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="K128" s="19">
+        <v>0</v>
+      </c>
+      <c r="L128" s="11">
+        <v>3</v>
+      </c>
+      <c r="M128" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="129" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B129" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C129" s="13">
+        <v>3.3962050000000001</v>
+      </c>
+      <c r="D129" s="17">
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E129" s="18">
+        <v>2.9399999999999999E-3</v>
+      </c>
+      <c r="H129" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I129" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J129" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="K129" s="20">
+        <v>0</v>
+      </c>
+      <c r="L129" s="13">
+        <v>3</v>
+      </c>
+      <c r="M129" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="130" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B130" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C130" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D130" s="15">
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E130" s="16">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="H130" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I130" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J130" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="K130" s="19">
+        <v>0</v>
+      </c>
+      <c r="L130" s="11">
+        <v>3</v>
+      </c>
+      <c r="M130" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="131" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B131" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C131" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D131" s="17">
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E131" s="18">
+        <v>1.4400000000000001E-3</v>
+      </c>
+      <c r="H131" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I131" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J131" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="K131" s="20">
+        <v>0</v>
+      </c>
+      <c r="L131" s="13">
+        <v>3</v>
+      </c>
+      <c r="M131" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="132" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B132" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C132" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D132" s="15">
+        <v>22</v>
+      </c>
+      <c r="E132" s="16">
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="H132" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I132" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J132" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="K132" s="19">
+        <v>3.3344944013531698E-3</v>
+      </c>
+      <c r="L132" s="11">
+        <v>3</v>
+      </c>
+      <c r="M132" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="133" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B133" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C133" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D133" s="17">
+        <v>19.8</v>
+      </c>
+      <c r="E133" s="18">
+        <v>1.08E-3</v>
+      </c>
+      <c r="H133" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I133" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J133" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="K133" s="20">
+        <v>3.851133983348751E-3</v>
+      </c>
+      <c r="L133" s="13">
+        <v>3</v>
+      </c>
+      <c r="M133" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="134" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B134" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C134" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D134" s="15">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="E134" s="16">
+        <v>2.2200000000000002E-3</v>
+      </c>
+      <c r="H134" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I134" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J134" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="K134" s="19">
+        <v>0</v>
+      </c>
+      <c r="L134" s="11">
+        <v>3</v>
+      </c>
+      <c r="M134" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="135" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B135" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C135" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D135" s="17">
+        <v>9.9</v>
+      </c>
+      <c r="E135" s="18">
+        <v>5.4000000000000001E-4</v>
+      </c>
+      <c r="H135" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I135" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J135" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="K135" s="20">
+        <v>0</v>
+      </c>
+      <c r="L135" s="13">
+        <v>3</v>
+      </c>
+      <c r="M135" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="136" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B136" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C136" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D136" s="15">
+        <v>15.400000000000002</v>
+      </c>
+      <c r="E136" s="16">
+        <v>8.4000000000000003E-4</v>
+      </c>
+      <c r="H136" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I136" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J136" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="K136" s="19">
+        <v>1.1382832011715858E-2</v>
+      </c>
+      <c r="L136" s="11">
+        <v>3</v>
+      </c>
+      <c r="M136" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="137" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B137" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C137" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D137" s="17">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E137" s="18">
+        <v>4.8000000000000001E-4</v>
+      </c>
+      <c r="H137" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I137" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J137" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="K137" s="20">
+        <v>3.1087110725803442E-3</v>
+      </c>
+      <c r="L137" s="13">
+        <v>3</v>
+      </c>
+      <c r="M137" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="138" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B138" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C138" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D138" s="15">
+        <v>30.800000000000004</v>
+      </c>
+      <c r="E138" s="16">
+        <v>1.6800000000000001E-3</v>
+      </c>
+      <c r="H138" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I138" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J138" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="K138" s="19">
+        <v>0</v>
+      </c>
+      <c r="L138" s="11">
+        <v>3</v>
+      </c>
+      <c r="M138" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="139" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B139" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C139" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D139" s="17">
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E139" s="18">
+        <v>7.2000000000000005E-4</v>
+      </c>
+      <c r="H139" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I139" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J139" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="K139" s="20">
+        <v>1.2063632834937122E-2</v>
+      </c>
+      <c r="L139" s="13">
+        <v>3</v>
+      </c>
+      <c r="M139" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="140" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B140" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C140" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D140" s="15">
+        <v>25.3</v>
+      </c>
+      <c r="E140" s="16">
+        <v>1.3799999999999999E-3</v>
+      </c>
+      <c r="H140" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I140" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J140" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="K140" s="19">
+        <v>3.0040767679252373E-2</v>
+      </c>
+      <c r="L140" s="11">
+        <v>3</v>
+      </c>
+      <c r="M140" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="141" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B141" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C141" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D141" s="17">
+        <v>59.400000000000006</v>
+      </c>
+      <c r="E141" s="18">
+        <v>3.2400000000000003E-3</v>
+      </c>
+      <c r="H141" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I141" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J141" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="K141" s="20">
+        <v>3.8710995397140333E-3</v>
+      </c>
+      <c r="L141" s="13">
+        <v>3</v>
+      </c>
+      <c r="M141" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="142" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B142" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C142" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D142" s="15">
+        <v>16.5</v>
+      </c>
+      <c r="E142" s="16">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="H142" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I142" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J142" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="K142" s="19">
+        <v>1.3283750168371385E-2</v>
+      </c>
+      <c r="L142" s="11">
+        <v>3</v>
+      </c>
+      <c r="M142" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="143" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B143" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C143" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D143" s="17">
+        <v>15.400000000000002</v>
+      </c>
+      <c r="E143" s="18">
+        <v>8.4000000000000003E-4</v>
+      </c>
+      <c r="H143" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I143" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J143" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="K143" s="20">
+        <v>0</v>
+      </c>
+      <c r="L143" s="13">
+        <v>3</v>
+      </c>
+      <c r="M143" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="144" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B144" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C144" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D144" s="15">
+        <v>20.900000000000002</v>
+      </c>
+      <c r="E144" s="16">
+        <v>1.14E-3</v>
+      </c>
+      <c r="H144" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I144" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J144" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="K144" s="19">
+        <v>1.3937437273071906E-2</v>
+      </c>
+      <c r="L144" s="11">
+        <v>3</v>
+      </c>
+      <c r="M144" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="145" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B145" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C145" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D145" s="17">
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E145" s="18">
+        <v>1.0200000000000001E-3</v>
+      </c>
+      <c r="H145" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I145" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J145" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="K145" s="20">
+        <v>0</v>
+      </c>
+      <c r="L145" s="13">
+        <v>3</v>
+      </c>
+      <c r="M145" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="146" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B146" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C146" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D146" s="15">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="E146" s="16">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="H146" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I146" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J146" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="K146" s="19">
+        <v>0</v>
+      </c>
+      <c r="L146" s="11">
+        <v>3</v>
+      </c>
+      <c r="M146" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="147" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B147" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C147" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D147" s="17">
+        <v>11</v>
+      </c>
+      <c r="E147" s="18">
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="H147" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I147" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J147" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="K147" s="20">
+        <v>2.8913083477138078E-3</v>
+      </c>
+      <c r="L147" s="13">
+        <v>3</v>
+      </c>
+      <c r="M147" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="148" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B148" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C148" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D148" s="15">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E148" s="16">
+        <v>9.6000000000000002E-4</v>
+      </c>
+      <c r="H148" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I148" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J148" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="K148" s="19">
+        <v>1.1608861828838968E-2</v>
+      </c>
+      <c r="L148" s="11">
+        <v>3</v>
+      </c>
+      <c r="M148" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="149" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B149" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C149" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D149" s="17">
+        <v>12.100000000000001</v>
+      </c>
+      <c r="E149" s="18">
+        <v>6.6E-4</v>
+      </c>
+      <c r="H149" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I149" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J149" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="K149" s="20">
+        <v>2.7217243627839539E-3</v>
+      </c>
+      <c r="L149" s="13">
+        <v>3</v>
+      </c>
+      <c r="M149" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="150" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B150" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C150" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D150" s="15">
+        <v>5.5</v>
+      </c>
+      <c r="E150" s="16">
+        <v>3.0000000000000003E-4</v>
+      </c>
+      <c r="H150" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I150" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J150" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="K150" s="19">
+        <v>1.0474768929620557E-2</v>
+      </c>
+      <c r="L150" s="11">
+        <v>3</v>
+      </c>
+      <c r="M150" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="151" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B151" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C151" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D151" s="17">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E151" s="18">
+        <v>4.8000000000000001E-4</v>
+      </c>
+      <c r="H151" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I151" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J151" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="K151" s="20">
+        <v>6.6394102006838429E-3</v>
+      </c>
+      <c r="L151" s="13">
+        <v>3</v>
+      </c>
+      <c r="M151" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="152" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B152" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C152" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D152" s="15">
+        <v>33</v>
+      </c>
+      <c r="E152" s="16">
+        <v>1.8E-3</v>
+      </c>
+      <c r="H152" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I152" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J152" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="K152" s="19">
+        <v>1.4128712232818436E-2</v>
+      </c>
+      <c r="L152" s="11">
+        <v>3</v>
+      </c>
+      <c r="M152" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="153" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B153" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C153" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D153" s="17">
+        <v>9.9</v>
+      </c>
+      <c r="E153" s="18">
+        <v>5.4000000000000001E-4</v>
+      </c>
+      <c r="H153" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I153" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J153" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="K153" s="20">
+        <v>9.6717098847056496E-3</v>
+      </c>
+      <c r="L153" s="13">
+        <v>3</v>
+      </c>
+      <c r="M153" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="154" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B154" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C154" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D154" s="15">
+        <v>19.8</v>
+      </c>
+      <c r="E154" s="16">
+        <v>1.08E-3</v>
+      </c>
+      <c r="H154" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I154" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J154" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="K154" s="19">
+        <v>0</v>
+      </c>
+      <c r="L154" s="11">
+        <v>3</v>
+      </c>
+      <c r="M154" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="155" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B155" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C155" s="13">
+        <v>3.3962050000000001</v>
+      </c>
+      <c r="D155" s="17">
+        <v>20.900000000000002</v>
+      </c>
+      <c r="E155" s="18">
+        <v>1.14E-3</v>
+      </c>
+      <c r="H155" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I155" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J155" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="K155" s="20">
+        <v>0</v>
+      </c>
+      <c r="L155" s="13">
+        <v>3</v>
+      </c>
+      <c r="M155" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="156" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B156" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C156" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D156" s="15">
+        <v>19.8</v>
+      </c>
+      <c r="E156" s="16">
+        <v>1.08E-3</v>
+      </c>
+      <c r="H156" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I156" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J156" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="K156" s="19">
+        <v>4.1766711474430999E-2</v>
+      </c>
+      <c r="L156" s="11">
+        <v>3</v>
+      </c>
+      <c r="M156" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="157" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B157" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C157" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D157" s="17">
+        <v>29.700000000000003</v>
+      </c>
+      <c r="E157" s="18">
+        <v>1.6200000000000001E-3</v>
+      </c>
+      <c r="H157" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I157" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="J157" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="K157" s="20">
+        <v>0</v>
+      </c>
+      <c r="L157" s="13">
+        <v>3</v>
+      </c>
+      <c r="M157" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="158" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B158" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C158" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D158" s="15">
+        <v>44</v>
+      </c>
+      <c r="E158" s="16">
+        <v>2.4000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B159" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C159" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D159" s="17">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E159" s="18">
+        <v>2.4000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="160" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B160" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C160" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D160" s="15">
+        <v>27.500000000000004</v>
+      </c>
+      <c r="E160" s="16">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B161" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C161" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D161" s="17">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E161" s="18">
+        <v>4.8000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B162" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C162" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D162" s="15">
+        <v>20.900000000000002</v>
+      </c>
+      <c r="E162" s="16">
+        <v>1.14E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B163" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C163" s="13">
+        <v>3.3962050000000001</v>
+      </c>
+      <c r="D163" s="17">
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E163" s="18">
+        <v>4.2000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B164" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C164" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D164" s="15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E164" s="16">
+        <v>1.2E-4</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B165" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C165" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D165" s="17">
+        <v>16.5</v>
+      </c>
+      <c r="E165" s="18">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B166" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C166" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D166" s="15">
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E166" s="16">
+        <v>4.2000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B167" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C167" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D167" s="17">
+        <v>14.3</v>
+      </c>
+      <c r="E167" s="18">
+        <v>7.7999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B168" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C168" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D168" s="15">
+        <v>12.100000000000001</v>
+      </c>
+      <c r="E168" s="16">
+        <v>6.6E-4</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B169" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C169" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D169" s="17">
+        <v>36.300000000000004</v>
+      </c>
+      <c r="E169" s="18">
+        <v>1.98E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B170" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C170" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D170" s="15">
+        <v>27.500000000000004</v>
+      </c>
+      <c r="E170" s="16">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B171" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C171" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D171" s="17">
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E171" s="18">
+        <v>1.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B172" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C172" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D172" s="15">
+        <v>29.700000000000003</v>
+      </c>
+      <c r="E172" s="16">
+        <v>1.6200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B173" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C173" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D173" s="17">
+        <v>23.1</v>
+      </c>
+      <c r="E173" s="18">
+        <v>1.2600000000000001E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B174" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C174" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D174" s="15">
+        <v>9.9</v>
+      </c>
+      <c r="E174" s="16">
+        <v>5.4000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B175" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C175" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D175" s="17">
+        <v>29.700000000000003</v>
+      </c>
+      <c r="E175" s="18">
+        <v>1.6200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B176" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C176" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D176" s="15">
+        <v>16.5</v>
+      </c>
+      <c r="E176" s="16">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B177" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C177" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D177" s="17">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E177" s="18">
+        <v>4.8000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B178" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C178" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D178" s="15">
+        <v>16.5</v>
+      </c>
+      <c r="E178" s="16">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B179" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C179" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D179" s="17">
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E179" s="18">
+        <v>7.2000000000000005E-4</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B180" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C180" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D180" s="15">
+        <v>15.400000000000002</v>
+      </c>
+      <c r="E180" s="16">
+        <v>8.4000000000000003E-4</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B181" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C181" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D181" s="17">
+        <v>16.5</v>
+      </c>
+      <c r="E181" s="18">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B182" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C182" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D182" s="15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E182" s="16">
+        <v>1.2E-4</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B183" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C183" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D183" s="17">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E183" s="18">
+        <v>9.6000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B184" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C184" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D184" s="15">
+        <v>23.1</v>
+      </c>
+      <c r="E184" s="16">
+        <v>1.2600000000000001E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B185" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C185" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D185" s="17">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="E185" s="18">
+        <v>1.8000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B186" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C186" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D186" s="15">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E186" s="16">
+        <v>9.6000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B187" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C187" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D187" s="17">
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E187" s="18">
+        <v>4.2000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B188" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C188" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D188" s="15">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E188" s="16">
+        <v>4.8000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B189" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C189" s="13">
+        <v>1.6981030000000001</v>
+      </c>
+      <c r="D189" s="17">
+        <v>12.100000000000001</v>
+      </c>
+      <c r="E189" s="18">
+        <v>6.6E-4</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B190" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="C190" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D190" s="15">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E190" s="16">
+        <v>9.6000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B191" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C191" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D191" s="17">
+        <v>5.5</v>
+      </c>
+      <c r="E191" s="18">
+        <v>3.0000000000000003E-4</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B192" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C192" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D192" s="15">
+        <v>25.3</v>
+      </c>
+      <c r="E192" s="16">
+        <v>1.3799999999999999E-3</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B193" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="C193" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D193" s="17">
+        <v>24.200000000000003</v>
+      </c>
+      <c r="E193" s="18">
+        <v>1.32E-3</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B194" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C194" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D194" s="15">
+        <v>12.100000000000001</v>
+      </c>
+      <c r="E194" s="16">
+        <v>6.6E-4</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B195" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C195" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D195" s="17">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E195" s="18">
+        <v>1.2E-4</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B196" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C196" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D196" s="15">
+        <v>9.9</v>
+      </c>
+      <c r="E196" s="16">
+        <v>5.4000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B197" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="C197" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D197" s="17">
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E197" s="18">
+        <v>1.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B198" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="C198" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D198" s="15">
+        <v>14.3</v>
+      </c>
+      <c r="E198" s="16">
+        <v>7.7999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B199" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="C199" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D199" s="17">
+        <v>24.200000000000003</v>
+      </c>
+      <c r="E199" s="18">
+        <v>1.32E-3</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B200" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C200" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D200" s="15">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="E200" s="16">
+        <v>1.8000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B201" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="C201" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D201" s="17">
+        <v>12.100000000000001</v>
+      </c>
+      <c r="E201" s="18">
+        <v>6.6E-4</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B202" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C202" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D202" s="15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E202" s="16">
+        <v>1.2E-4</v>
+      </c>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B203" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C203" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D203" s="17">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="E203" s="18">
+        <v>2.2200000000000002E-3</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B204" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C204" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D204" s="15">
+        <v>12.100000000000001</v>
+      </c>
+      <c r="E204" s="16">
+        <v>6.6E-4</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B205" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C205" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D205" s="17">
+        <v>25.3</v>
+      </c>
+      <c r="E205" s="18">
+        <v>1.3799999999999999E-3</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD847F23-DABD-4A5D-A3E3-39ABE45CDCC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21A44FE6-DFEF-48DA-A511-B43F6FA997BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="450">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -328,6 +328,15 @@
   </si>
   <si>
     <t>UC_RHSRT~2050</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>g[_]*</t>
+  </si>
+  <si>
+    <t>prc_capact</t>
   </si>
   <si>
     <t>pasti</t>
@@ -1651,7 +1660,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27A4281C-B518-1BF3-2E68-AA80970AC70E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F330BCBD-C104-E509-868F-334F299212E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2002,7 +2011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA0B353-A5AF-4613-98D4-38544C8DC5BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2D367D-0500-4E10-86A8-806242EA5334}">
   <dimension ref="A1:R205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2021,7 +2030,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -2036,10 +2045,10 @@
         <v>0</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
@@ -2047,13 +2056,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>27</v>
@@ -2062,7 +2071,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K3" s="9">
         <v>2022</v>
@@ -2071,21 +2080,21 @@
         <v>0</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B4" s="10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C4" s="11">
         <v>2.1896590000000002</v>
@@ -2097,13 +2106,13 @@
         <v>5.5799999999999999E-3</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K4" s="19">
         <v>0</v>
@@ -2112,21 +2121,21 @@
         <v>3</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B5" s="12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C5" s="13">
         <v>0.98311199999999999</v>
@@ -2138,13 +2147,13 @@
         <v>6.3600000000000002E-3</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K5" s="20">
         <v>0</v>
@@ -2153,12 +2162,12 @@
         <v>3</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B6" s="10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C6" s="11">
         <v>1.6981030000000001</v>
@@ -2170,13 +2179,13 @@
         <v>4.8000000000000004E-3</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K6" s="19">
         <v>0</v>
@@ -2185,12 +2194,12 @@
         <v>3</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B7" s="12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C7" s="13">
         <v>0.49155599999999999</v>
@@ -2202,13 +2211,13 @@
         <v>1.0200000000000001E-3</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="K7" s="20">
         <v>6.653953013344956E-3</v>
@@ -2217,12 +2226,12 @@
         <v>3</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B8" s="10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C8" s="11">
         <v>3.3962050000000001</v>
@@ -2234,13 +2243,13 @@
         <v>1.0200000000000001E-3</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="K8" s="19">
         <v>4.0473387100989806E-3</v>
@@ -2249,12 +2258,12 @@
         <v>3</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B9" s="12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C9" s="13">
         <v>3.3962050000000001</v>
@@ -2266,13 +2275,13 @@
         <v>6.0000000000000006E-4</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K9" s="20">
         <v>0</v>
@@ -2281,12 +2290,12 @@
         <v>3</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B10" s="10" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C10" s="11">
         <v>0.98311199999999999</v>
@@ -2298,13 +2307,13 @@
         <v>8.4000000000000003E-4</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K10" s="19">
         <v>0</v>
@@ -2313,12 +2322,12 @@
         <v>3</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B11" s="12" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C11" s="13">
         <v>1.6981030000000001</v>
@@ -2330,13 +2339,13 @@
         <v>1.08E-3</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K11" s="20">
         <v>8.7190324112261693E-3</v>
@@ -2345,12 +2354,12 @@
         <v>3</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B12" s="10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C12" s="11">
         <v>1.005455</v>
@@ -2362,13 +2371,13 @@
         <v>8.4000000000000003E-4</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="K12" s="19">
         <v>0</v>
@@ -2377,12 +2386,12 @@
         <v>3</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B13" s="12" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C13" s="13">
         <v>1.6981030000000001</v>
@@ -2394,13 +2403,13 @@
         <v>4.8000000000000001E-4</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="K13" s="20">
         <v>0</v>
@@ -2409,12 +2418,12 @@
         <v>3</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B14" s="10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C14" s="11">
         <v>0.49155599999999999</v>
@@ -2426,13 +2435,13 @@
         <v>1.6200000000000001E-3</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K14" s="19">
         <v>0</v>
@@ -2441,12 +2450,12 @@
         <v>3</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B15" s="12" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C15" s="13">
         <v>0.49155599999999999</v>
@@ -2458,13 +2467,13 @@
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="K15" s="20">
         <v>0</v>
@@ -2473,12 +2482,12 @@
         <v>3</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B16" s="10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C16" s="11">
         <v>0.49155599999999999</v>
@@ -2490,13 +2499,13 @@
         <v>2.7000000000000001E-3</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K16" s="19">
         <v>0</v>
@@ -2505,12 +2514,12 @@
         <v>3</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B17" s="12" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C17" s="13">
         <v>0.98311199999999999</v>
@@ -2522,13 +2531,13 @@
         <v>3.3600000000000001E-3</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K17" s="20">
         <v>0</v>
@@ -2537,12 +2546,12 @@
         <v>3</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B18" s="10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C18" s="11">
         <v>1.6981030000000001</v>
@@ -2554,13 +2563,13 @@
         <v>4.6800000000000001E-3</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="K18" s="19">
         <v>0</v>
@@ -2569,12 +2578,12 @@
         <v>3</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B19" s="12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C19" s="13">
         <v>0.49155599999999999</v>
@@ -2586,13 +2595,13 @@
         <v>3.0600000000000002E-3</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K19" s="20">
         <v>0</v>
@@ -2601,12 +2610,12 @@
         <v>3</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B20" s="10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C20" s="11">
         <v>0.98311199999999999</v>
@@ -2618,13 +2627,13 @@
         <v>2.4000000000000001E-4</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K20" s="19">
         <v>0</v>
@@ -2633,12 +2642,12 @@
         <v>3</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B21" s="12" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C21" s="13">
         <v>1.6981030000000001</v>
@@ -2650,13 +2659,13 @@
         <v>3.2400000000000003E-3</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K21" s="20">
         <v>0</v>
@@ -2665,12 +2674,12 @@
         <v>3</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B22" s="10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C22" s="11">
         <v>1.6981030000000001</v>
@@ -2682,13 +2691,13 @@
         <v>2.7000000000000001E-3</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K22" s="19">
         <v>0</v>
@@ -2697,12 +2706,12 @@
         <v>3</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B23" s="12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C23" s="13">
         <v>1.6981030000000001</v>
@@ -2714,13 +2723,13 @@
         <v>4.5599999999999998E-3</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K23" s="20">
         <v>0</v>
@@ -2729,12 +2738,12 @@
         <v>3</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B24" s="10" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C24" s="11">
         <v>0.98311199999999999</v>
@@ -2746,13 +2755,13 @@
         <v>4.8000000000000001E-4</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K24" s="19">
         <v>0</v>
@@ -2761,12 +2770,12 @@
         <v>3</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B25" s="12" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C25" s="13">
         <v>1.6981030000000001</v>
@@ -2778,13 +2787,13 @@
         <v>2.2799999999999999E-3</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K25" s="20">
         <v>0</v>
@@ -2793,12 +2802,12 @@
         <v>3</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B26" s="10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C26" s="11">
         <v>3.3962050000000001</v>
@@ -2810,13 +2819,13 @@
         <v>5.7000000000000002E-3</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K26" s="19">
         <v>0</v>
@@ -2825,12 +2834,12 @@
         <v>3</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B27" s="12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C27" s="13">
         <v>0.98311199999999999</v>
@@ -2842,13 +2851,13 @@
         <v>4.2000000000000002E-4</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K27" s="20">
         <v>0</v>
@@ -2857,12 +2866,12 @@
         <v>3</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B28" s="10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C28" s="11">
         <v>0.98311199999999999</v>
@@ -2874,13 +2883,13 @@
         <v>4.8000000000000001E-4</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K28" s="19">
         <v>0</v>
@@ -2889,12 +2898,12 @@
         <v>3</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B29" s="12" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C29" s="13">
         <v>2.2790319999999999</v>
@@ -2906,13 +2915,13 @@
         <v>3.6000000000000002E-4</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K29" s="20">
         <v>0</v>
@@ -2921,12 +2930,12 @@
         <v>3</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B30" s="10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C30" s="11">
         <v>0.98311199999999999</v>
@@ -2938,13 +2947,13 @@
         <v>1.8000000000000001E-4</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K30" s="19">
         <v>0</v>
@@ -2953,12 +2962,12 @@
         <v>3</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B31" s="12" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C31" s="13">
         <v>0.98311199999999999</v>
@@ -2970,13 +2979,13 @@
         <v>5.4000000000000001E-4</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="K31" s="20">
         <v>0</v>
@@ -2985,12 +2994,12 @@
         <v>3</v>
       </c>
       <c r="M31" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B32" s="10" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C32" s="11">
         <v>0.98311199999999999</v>
@@ -3002,13 +3011,13 @@
         <v>2.7000000000000001E-3</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="K32" s="19">
         <v>0</v>
@@ -3017,12 +3026,12 @@
         <v>3</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B33" s="12" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C33" s="13">
         <v>0.49155599999999999</v>
@@ -3034,13 +3043,13 @@
         <v>2.2799999999999999E-3</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K33" s="20">
         <v>0</v>
@@ -3049,12 +3058,12 @@
         <v>3</v>
       </c>
       <c r="M33" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B34" s="10" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C34" s="11">
         <v>0.98311199999999999</v>
@@ -3066,13 +3075,13 @@
         <v>4.2000000000000002E-4</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K34" s="19">
         <v>0</v>
@@ -3081,12 +3090,12 @@
         <v>3</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B35" s="12" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C35" s="13">
         <v>1.6981030000000001</v>
@@ -3098,13 +3107,13 @@
         <v>1.8E-3</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="K35" s="20">
         <v>0</v>
@@ -3113,12 +3122,12 @@
         <v>3</v>
       </c>
       <c r="M35" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B36" s="10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C36" s="11">
         <v>0.98311199999999999</v>
@@ -3130,13 +3139,13 @@
         <v>1.32E-3</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="K36" s="19">
         <v>1.927859333331175E-2</v>
@@ -3145,12 +3154,12 @@
         <v>3</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B37" s="12" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C37" s="13">
         <v>0.49155599999999999</v>
@@ -3162,13 +3171,13 @@
         <v>5.4000000000000001E-4</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="K37" s="20">
         <v>0</v>
@@ -3177,12 +3186,12 @@
         <v>3</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B38" s="10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C38" s="11">
         <v>0.49155599999999999</v>
@@ -3194,13 +3203,13 @@
         <v>3.9000000000000003E-3</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="K38" s="19">
         <v>0</v>
@@ -3209,12 +3218,12 @@
         <v>3</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B39" s="12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C39" s="13">
         <v>1.6981030000000001</v>
@@ -3226,13 +3235,13 @@
         <v>1.6800000000000001E-3</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="K39" s="20">
         <v>0</v>
@@ -3241,12 +3250,12 @@
         <v>3</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B40" s="10" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C40" s="11">
         <v>1.6981030000000001</v>
@@ -3258,13 +3267,13 @@
         <v>2.16E-3</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K40" s="19">
         <v>0</v>
@@ -3273,12 +3282,12 @@
         <v>3</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B41" s="12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C41" s="13">
         <v>0.49155599999999999</v>
@@ -3290,13 +3299,13 @@
         <v>7.2000000000000005E-4</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K41" s="20">
         <v>0</v>
@@ -3305,12 +3314,12 @@
         <v>3</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B42" s="10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C42" s="11">
         <v>3.8877609999999998</v>
@@ -3322,13 +3331,13 @@
         <v>1.6800000000000001E-3</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K42" s="19">
         <v>0</v>
@@ -3337,12 +3346,12 @@
         <v>3</v>
       </c>
       <c r="M42" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B43" s="12" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C43" s="13">
         <v>0.49155599999999999</v>
@@ -3354,13 +3363,13 @@
         <v>1.6200000000000001E-3</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K43" s="20">
         <v>5.714092934075295E-3</v>
@@ -3369,12 +3378,12 @@
         <v>3</v>
       </c>
       <c r="M43" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B44" s="10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C44" s="11">
         <v>3.3962050000000001</v>
@@ -3386,13 +3395,13 @@
         <v>7.7999999999999999E-4</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K44" s="19">
         <v>0</v>
@@ -3401,12 +3410,12 @@
         <v>3</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B45" s="12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C45" s="13">
         <v>1.6981030000000001</v>
@@ -3418,13 +3427,13 @@
         <v>1.92E-3</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K45" s="20">
         <v>2.9157106943825187E-3</v>
@@ -3433,12 +3442,12 @@
         <v>3</v>
       </c>
       <c r="M45" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B46" s="10" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C46" s="11">
         <v>0.98311199999999999</v>
@@ -3450,13 +3459,13 @@
         <v>6.0000000000000006E-4</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K46" s="19">
         <v>0</v>
@@ -3465,12 +3474,12 @@
         <v>3</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B47" s="12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C47" s="13">
         <v>0.49155599999999999</v>
@@ -3482,13 +3491,13 @@
         <v>3.3E-3</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K47" s="20">
         <v>1.2756511587317752E-2</v>
@@ -3497,12 +3506,12 @@
         <v>3</v>
       </c>
       <c r="M47" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B48" s="10" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C48" s="11">
         <v>0.98311199999999999</v>
@@ -3514,13 +3523,13 @@
         <v>1.74E-3</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="K48" s="19">
         <v>1.0792492413013872E-2</v>
@@ -3529,12 +3538,12 @@
         <v>3</v>
       </c>
       <c r="M48" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B49" s="12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C49" s="13">
         <v>0.98311199999999999</v>
@@ -3546,13 +3555,13 @@
         <v>1.0200000000000001E-3</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K49" s="20">
         <v>5.9512147269568287E-3</v>
@@ -3561,12 +3570,12 @@
         <v>3</v>
       </c>
       <c r="M49" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B50" s="10" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C50" s="11">
         <v>3.8877620000000004</v>
@@ -3578,13 +3587,13 @@
         <v>2.5200000000000001E-3</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K50" s="19">
         <v>8.4545504114737047E-2</v>
@@ -3593,12 +3602,12 @@
         <v>3</v>
       </c>
       <c r="M50" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B51" s="12" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C51" s="13">
         <v>2.1896590000000002</v>
@@ -3610,13 +3619,13 @@
         <v>1.3799999999999999E-3</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K51" s="20">
         <v>0</v>
@@ -3625,12 +3634,12 @@
         <v>3</v>
       </c>
       <c r="M51" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B52" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C52" s="11">
         <v>0.98311199999999999</v>
@@ -3642,13 +3651,13 @@
         <v>1.2600000000000001E-3</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="K52" s="19">
         <v>3.9467714632220163E-3</v>
@@ -3657,12 +3666,12 @@
         <v>3</v>
       </c>
       <c r="M52" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B53" s="12" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C53" s="13">
         <v>0.49155599999999999</v>
@@ -3674,13 +3683,13 @@
         <v>1.5E-3</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="K53" s="20">
         <v>0</v>
@@ -3689,12 +3698,12 @@
         <v>3</v>
       </c>
       <c r="M53" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B54" s="10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C54" s="11">
         <v>1.6981030000000001</v>
@@ -3706,13 +3715,13 @@
         <v>1.14E-3</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K54" s="19">
         <v>0</v>
@@ -3721,12 +3730,12 @@
         <v>3</v>
       </c>
       <c r="M54" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B55" s="12" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C55" s="13">
         <v>0.98311199999999999</v>
@@ -3738,13 +3747,13 @@
         <v>5.4000000000000001E-4</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K55" s="20">
         <v>0</v>
@@ -3753,12 +3762,12 @@
         <v>3</v>
       </c>
       <c r="M55" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B56" s="10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C56" s="11">
         <v>1.6981030000000001</v>
@@ -3770,13 +3779,13 @@
         <v>1.4400000000000001E-3</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K56" s="19">
         <v>4.5883806387632727E-3</v>
@@ -3785,12 +3794,12 @@
         <v>3</v>
       </c>
       <c r="M56" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B57" s="12" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C57" s="13">
         <v>3.8877609999999998</v>
@@ -3802,13 +3811,13 @@
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K57" s="20">
         <v>4.2432969484990255E-3</v>
@@ -3817,12 +3826,12 @@
         <v>3</v>
       </c>
       <c r="M57" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B58" s="10" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C58" s="11">
         <v>1.6981030000000001</v>
@@ -3834,13 +3843,13 @@
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K58" s="19">
         <v>0</v>
@@ -3849,12 +3858,12 @@
         <v>3</v>
       </c>
       <c r="M58" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B59" s="12" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C59" s="13">
         <v>1.6981030000000001</v>
@@ -3866,13 +3875,13 @@
         <v>1.4400000000000001E-3</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K59" s="20">
         <v>0</v>
@@ -3881,12 +3890,12 @@
         <v>3</v>
       </c>
       <c r="M59" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B60" s="10" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C60" s="11">
         <v>0.49155599999999999</v>
@@ -3898,13 +3907,13 @@
         <v>1.08E-3</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K60" s="19">
         <v>0</v>
@@ -3913,12 +3922,12 @@
         <v>3</v>
       </c>
       <c r="M60" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B61" s="12" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C61" s="13">
         <v>0.98311199999999999</v>
@@ -3930,13 +3939,13 @@
         <v>2.64E-3</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="K61" s="20">
         <v>0</v>
@@ -3945,12 +3954,12 @@
         <v>3</v>
       </c>
       <c r="M61" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B62" s="10" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C62" s="11">
         <v>3.3962060000000003</v>
@@ -3962,13 +3971,13 @@
         <v>8.4000000000000003E-4</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K62" s="19">
         <v>0.11461190658240906</v>
@@ -3977,12 +3986,12 @@
         <v>3</v>
       </c>
       <c r="M62" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B63" s="12" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C63" s="13">
         <v>0.98311199999999999</v>
@@ -3994,13 +4003,13 @@
         <v>1.8000000000000001E-4</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="K63" s="20">
         <v>0</v>
@@ -4009,12 +4018,12 @@
         <v>3</v>
       </c>
       <c r="M63" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B64" s="10" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C64" s="11">
         <v>1.005455</v>
@@ -4026,13 +4035,13 @@
         <v>7.7999999999999999E-4</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K64" s="19">
         <v>1.2196736544039102E-2</v>
@@ -4041,12 +4050,12 @@
         <v>3</v>
       </c>
       <c r="M64" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B65" s="12" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C65" s="13">
         <v>0.98311199999999999</v>
@@ -4058,13 +4067,13 @@
         <v>2.4000000000000001E-4</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="K65" s="20">
         <v>0</v>
@@ -4073,12 +4082,12 @@
         <v>3</v>
       </c>
       <c r="M65" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B66" s="10" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C66" s="11">
         <v>0.98311199999999999</v>
@@ -4090,13 +4099,13 @@
         <v>1.08E-3</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="K66" s="19">
         <v>1.9858826909655954E-2</v>
@@ -4105,12 +4114,12 @@
         <v>3</v>
       </c>
       <c r="M66" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B67" s="12" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C67" s="13">
         <v>1.6981030000000001</v>
@@ -4122,13 +4131,13 @@
         <v>6.3600000000000002E-3</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="K67" s="20">
         <v>0</v>
@@ -4137,12 +4146,12 @@
         <v>3</v>
       </c>
       <c r="M67" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B68" s="10" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C68" s="11">
         <v>3.3962050000000001</v>
@@ -4154,13 +4163,13 @@
         <v>6.0000000000000006E-4</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="K68" s="19">
         <v>6.8409390757981484E-2</v>
@@ -4169,12 +4178,12 @@
         <v>3</v>
       </c>
       <c r="M68" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B69" s="12" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C69" s="13">
         <v>0.98311199999999999</v>
@@ -4186,13 +4195,13 @@
         <v>1.8000000000000001E-4</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="K69" s="20">
         <v>4.6810849072693367E-2</v>
@@ -4201,12 +4210,12 @@
         <v>3</v>
       </c>
       <c r="M69" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B70" s="10" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C70" s="11">
         <v>0.49155599999999999</v>
@@ -4218,13 +4227,13 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="K70" s="19">
         <v>1.9140066880505603E-2</v>
@@ -4233,12 +4242,12 @@
         <v>3</v>
       </c>
       <c r="M70" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B71" s="12" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C71" s="13">
         <v>2.1896590000000002</v>
@@ -4250,13 +4259,13 @@
         <v>1.14E-3</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="K71" s="20">
         <v>0</v>
@@ -4265,12 +4274,12 @@
         <v>3</v>
       </c>
       <c r="M71" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B72" s="10" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C72" s="11">
         <v>3.3962050000000001</v>
@@ -4282,13 +4291,13 @@
         <v>2.4000000000000002E-3</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="K72" s="19">
         <v>1.2437062685473141E-2</v>
@@ -4297,12 +4306,12 @@
         <v>3</v>
       </c>
       <c r="M72" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B73" s="12" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C73" s="13">
         <v>0.98311199999999999</v>
@@ -4314,13 +4323,13 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="K73" s="20">
         <v>3.125965257093492E-3</v>
@@ -4329,12 +4338,12 @@
         <v>3</v>
       </c>
       <c r="M73" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B74" s="10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C74" s="11">
         <v>0.98311199999999999</v>
@@ -4346,13 +4355,13 @@
         <v>1.2E-4</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="K74" s="19">
         <v>2.743168849250445E-3</v>
@@ -4361,12 +4370,12 @@
         <v>3</v>
       </c>
       <c r="M74" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B75" s="12" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C75" s="13">
         <v>0.98311199999999999</v>
@@ -4378,13 +4387,13 @@
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I75" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="K75" s="20">
         <v>0</v>
@@ -4393,12 +4402,12 @@
         <v>3</v>
       </c>
       <c r="M75" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B76" s="10" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C76" s="11">
         <v>0.49155599999999999</v>
@@ -4410,13 +4419,13 @@
         <v>3.6000000000000002E-4</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K76" s="19">
         <v>8.2272881525996683E-3</v>
@@ -4425,12 +4434,12 @@
         <v>3</v>
       </c>
       <c r="M76" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B77" s="12" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C77" s="13">
         <v>0.49155599999999999</v>
@@ -4442,13 +4451,13 @@
         <v>1.08E-3</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I77" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J77" s="12" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K77" s="20">
         <v>0</v>
@@ -4457,12 +4466,12 @@
         <v>3</v>
       </c>
       <c r="M77" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B78" s="10" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C78" s="11">
         <v>0.98311199999999999</v>
@@ -4474,13 +4483,13 @@
         <v>2.0400000000000001E-3</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="K78" s="19">
         <v>0</v>
@@ -4489,12 +4498,12 @@
         <v>3</v>
       </c>
       <c r="M78" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B79" s="12" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C79" s="13">
         <v>0.98311199999999999</v>
@@ -4506,13 +4515,13 @@
         <v>1.8000000000000001E-4</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I79" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J79" s="12" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K79" s="20">
         <v>0</v>
@@ -4521,12 +4530,12 @@
         <v>3</v>
       </c>
       <c r="M79" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B80" s="10" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C80" s="11">
         <v>3.3962050000000001</v>
@@ -4538,13 +4547,13 @@
         <v>1.08E-3</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="K80" s="19">
         <v>0</v>
@@ -4553,12 +4562,12 @@
         <v>3</v>
       </c>
       <c r="M80" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B81" s="12" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C81" s="13">
         <v>0.98311199999999999</v>
@@ -4570,13 +4579,13 @@
         <v>3.2400000000000003E-3</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I81" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J81" s="12" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K81" s="20">
         <v>2.8575394437379679E-3</v>
@@ -4585,12 +4594,12 @@
         <v>3</v>
       </c>
       <c r="M81" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B82" s="10" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C82" s="11">
         <v>0.49155599999999999</v>
@@ -4602,13 +4611,13 @@
         <v>2.4000000000000001E-4</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I82" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K82" s="19">
         <v>9.6687520245034297E-3</v>
@@ -4617,12 +4626,12 @@
         <v>3</v>
       </c>
       <c r="M82" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B83" s="12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C83" s="13">
         <v>0.49155599999999999</v>
@@ -4634,13 +4643,13 @@
         <v>3.0000000000000003E-4</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I83" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K83" s="20">
         <v>2.555591214756789E-3</v>
@@ -4649,12 +4658,12 @@
         <v>3</v>
       </c>
       <c r="M83" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B84" s="10" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C84" s="11">
         <v>0.98311199999999999</v>
@@ -4666,13 +4675,13 @@
         <v>2.4000000000000001E-4</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J84" s="10" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K84" s="19">
         <v>2.0427229045191276E-2</v>
@@ -4681,12 +4690,12 @@
         <v>3</v>
       </c>
       <c r="M84" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B85" s="12" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C85" s="13">
         <v>0.98311199999999999</v>
@@ -4698,13 +4707,13 @@
         <v>1.8000000000000001E-4</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J85" s="12" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="K85" s="20">
         <v>8.3601453733513648E-3</v>
@@ -4713,12 +4722,12 @@
         <v>3</v>
       </c>
       <c r="M85" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B86" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C86" s="11">
         <v>1.4746679999999999</v>
@@ -4730,13 +4739,13 @@
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K86" s="19">
         <v>9.8265045686242048E-3</v>
@@ -4745,12 +4754,12 @@
         <v>3</v>
       </c>
       <c r="M86" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B87" s="12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C87" s="13">
         <v>0.49155599999999999</v>
@@ -4762,13 +4771,13 @@
         <v>2.4000000000000001E-4</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J87" s="12" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="K87" s="20">
         <v>1.0798161645068225E-2</v>
@@ -4777,12 +4786,12 @@
         <v>3</v>
       </c>
       <c r="M87" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B88" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C88" s="11">
         <v>0.98311199999999999</v>
@@ -4794,13 +4803,13 @@
         <v>4.8000000000000001E-4</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I88" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K88" s="19">
         <v>2.9997632217968911E-3</v>
@@ -4809,12 +4818,12 @@
         <v>3</v>
       </c>
       <c r="M88" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B89" s="12" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C89" s="13">
         <v>1.4746679999999999</v>
@@ -4826,13 +4835,13 @@
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J89" s="12" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K89" s="20">
         <v>5.5975039444360079E-3</v>
@@ -4841,12 +4850,12 @@
         <v>3</v>
       </c>
       <c r="M89" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B90" s="10" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C90" s="11">
         <v>0.98311199999999999</v>
@@ -4858,13 +4867,13 @@
         <v>1.8000000000000001E-4</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="K90" s="19">
         <v>0</v>
@@ -4873,12 +4882,12 @@
         <v>3</v>
       </c>
       <c r="M90" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B91" s="12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C91" s="13">
         <v>0.98311199999999999</v>
@@ -4890,13 +4899,13 @@
         <v>1.8000000000000001E-4</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J91" s="12" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K91" s="20">
         <v>0</v>
@@ -4905,12 +4914,12 @@
         <v>3</v>
       </c>
       <c r="M91" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B92" s="10" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C92" s="11">
         <v>0.49155599999999999</v>
@@ -4922,13 +4931,13 @@
         <v>6.6E-4</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I92" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="K92" s="19">
         <v>2.6773564597500597E-3</v>
@@ -4937,12 +4946,12 @@
         <v>3</v>
       </c>
       <c r="M92" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B93" s="12" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C93" s="13">
         <v>0.98311199999999999</v>
@@ -4954,13 +4963,13 @@
         <v>1.08E-3</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J93" s="12" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="K93" s="20">
         <v>0</v>
@@ -4969,12 +4978,12 @@
         <v>3</v>
       </c>
       <c r="M93" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B94" s="10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C94" s="11">
         <v>3.3962050000000001</v>
@@ -4986,13 +4995,13 @@
         <v>3.6000000000000002E-4</v>
       </c>
       <c r="H94" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="K94" s="19">
         <v>0</v>
@@ -5001,12 +5010,12 @@
         <v>3</v>
       </c>
       <c r="M94" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B95" s="12" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C95" s="13">
         <v>3.3962050000000001</v>
@@ -5018,13 +5027,13 @@
         <v>1.5E-3</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I95" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J95" s="12" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="K95" s="20">
         <v>0</v>
@@ -5033,12 +5042,12 @@
         <v>3</v>
       </c>
       <c r="M95" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B96" s="10" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C96" s="11">
         <v>0.98311199999999999</v>
@@ -5050,13 +5059,13 @@
         <v>2.16E-3</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K96" s="19">
         <v>0</v>
@@ -5065,12 +5074,12 @@
         <v>3</v>
       </c>
       <c r="M96" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B97" s="12" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C97" s="13">
         <v>0.49155599999999999</v>
@@ -5082,13 +5091,13 @@
         <v>1.4400000000000001E-3</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I97" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J97" s="12" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K97" s="20">
         <v>4.1385393996688172E-3</v>
@@ -5097,12 +5106,12 @@
         <v>3</v>
       </c>
       <c r="M97" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B98" s="10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C98" s="11">
         <v>1.6981030000000001</v>
@@ -5114,13 +5123,13 @@
         <v>3.6000000000000002E-4</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I98" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K98" s="19">
         <v>0</v>
@@ -5129,12 +5138,12 @@
         <v>3</v>
       </c>
       <c r="M98" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B99" s="12" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C99" s="13">
         <v>0.98311199999999999</v>
@@ -5146,13 +5155,13 @@
         <v>1.0200000000000001E-3</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I99" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J99" s="12" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="K99" s="20">
         <v>3.1403848255796118E-2</v>
@@ -5161,12 +5170,12 @@
         <v>3</v>
       </c>
       <c r="M99" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B100" s="10" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C100" s="11">
         <v>0.49155599999999999</v>
@@ -5178,13 +5187,13 @@
         <v>1.8000000000000001E-4</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I100" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="K100" s="19">
         <v>7.433349176641707E-3</v>
@@ -5193,12 +5202,12 @@
         <v>3</v>
       </c>
       <c r="M100" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B101" s="12" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C101" s="13">
         <v>3.3962050000000001</v>
@@ -5210,13 +5219,13 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="H101" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I101" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J101" s="12" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="K101" s="20">
         <v>8.5551176583506684E-3</v>
@@ -5225,12 +5234,12 @@
         <v>3</v>
       </c>
       <c r="M101" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B102" s="10" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C102" s="11">
         <v>0.98311199999999999</v>
@@ -5242,13 +5251,13 @@
         <v>1.8000000000000001E-4</v>
       </c>
       <c r="H102" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I102" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J102" s="10" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="K102" s="19">
         <v>0</v>
@@ -5257,12 +5266,12 @@
         <v>3</v>
       </c>
       <c r="M102" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B103" s="12" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C103" s="13">
         <v>0.49155599999999999</v>
@@ -5274,13 +5283,13 @@
         <v>7.7999999999999999E-4</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I103" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J103" s="12" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="K103" s="20">
         <v>0</v>
@@ -5289,12 +5298,12 @@
         <v>3</v>
       </c>
       <c r="M103" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B104" s="10" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C104" s="11">
         <v>0.49155599999999999</v>
@@ -5306,13 +5315,13 @@
         <v>1.8000000000000001E-4</v>
       </c>
       <c r="H104" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I104" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J104" s="10" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="K104" s="19">
         <v>3.3083666362331639E-3</v>
@@ -5321,12 +5330,12 @@
         <v>3</v>
       </c>
       <c r="M104" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B105" s="12" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C105" s="13">
         <v>0.98311199999999999</v>
@@ -5338,13 +5347,13 @@
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="H105" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I105" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J105" s="12" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K105" s="20">
         <v>2.0792031803470522E-2</v>
@@ -5353,12 +5362,12 @@
         <v>3</v>
       </c>
       <c r="M105" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B106" s="10" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C106" s="11">
         <v>0.98311199999999999</v>
@@ -5370,13 +5379,13 @@
         <v>3.6000000000000002E-4</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I106" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J106" s="10" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="K106" s="19">
         <v>0</v>
@@ -5385,12 +5394,12 @@
         <v>3</v>
       </c>
       <c r="M106" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="107" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B107" s="12" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C107" s="13">
         <v>0.98311199999999999</v>
@@ -5402,13 +5411,13 @@
         <v>2.4000000000000001E-4</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I107" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J107" s="12" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="K107" s="20">
         <v>0</v>
@@ -5417,12 +5426,12 @@
         <v>3</v>
       </c>
       <c r="M107" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="108" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B108" s="10" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C108" s="11">
         <v>1.6981030000000001</v>
@@ -5434,13 +5443,13 @@
         <v>2.7000000000000001E-3</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I108" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J108" s="10" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="K108" s="19">
         <v>0</v>
@@ -5449,12 +5458,12 @@
         <v>3</v>
       </c>
       <c r="M108" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="109" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B109" s="12" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C109" s="13">
         <v>3.3962050000000001</v>
@@ -5466,13 +5475,13 @@
         <v>5.4000000000000001E-4</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I109" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J109" s="12" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="K109" s="20">
         <v>9.4971961327719959E-3</v>
@@ -5481,12 +5490,12 @@
         <v>3</v>
       </c>
       <c r="M109" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="110" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B110" s="10" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C110" s="11">
         <v>0.49155599999999999</v>
@@ -5498,13 +5507,13 @@
         <v>1.14E-3</v>
       </c>
       <c r="H110" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I110" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J110" s="10" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="K110" s="19">
         <v>8.2166891535415173E-3</v>
@@ -5513,12 +5522,12 @@
         <v>3</v>
       </c>
       <c r="M110" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B111" s="12" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C111" s="13">
         <v>0.98311199999999999</v>
@@ -5530,13 +5539,13 @@
         <v>1.8000000000000001E-4</v>
       </c>
       <c r="H111" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I111" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J111" s="12" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="K111" s="20">
         <v>4.9411054678833539E-3</v>
@@ -5545,12 +5554,12 @@
         <v>3</v>
       </c>
       <c r="M111" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B112" s="10" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C112" s="11">
         <v>0.98311199999999999</v>
@@ -5562,13 +5571,13 @@
         <v>7.7999999999999999E-4</v>
       </c>
       <c r="H112" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I112" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J112" s="10" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K112" s="19">
         <v>6.48523173764078E-2</v>
@@ -5577,12 +5586,12 @@
         <v>3</v>
       </c>
       <c r="M112" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B113" s="12" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C113" s="13">
         <v>0.98311199999999999</v>
@@ -5594,13 +5603,13 @@
         <v>1.2600000000000001E-3</v>
       </c>
       <c r="H113" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I113" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J113" s="12" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="K113" s="20">
         <v>2.7635534358110711E-2</v>
@@ -5609,12 +5618,12 @@
         <v>3</v>
       </c>
       <c r="M113" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B114" s="10" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C114" s="11">
         <v>0.49155599999999999</v>
@@ -5626,13 +5635,13 @@
         <v>2.2799999999999999E-3</v>
       </c>
       <c r="H114" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I114" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J114" s="10" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="K114" s="19">
         <v>0</v>
@@ -5641,12 +5650,12 @@
         <v>3</v>
       </c>
       <c r="M114" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B115" s="12" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C115" s="13">
         <v>0.98311199999999999</v>
@@ -5658,13 +5667,13 @@
         <v>6.0000000000000006E-4</v>
       </c>
       <c r="H115" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I115" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J115" s="12" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="K115" s="20">
         <v>0</v>
@@ -5673,12 +5682,12 @@
         <v>3</v>
       </c>
       <c r="M115" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B116" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C116" s="11">
         <v>0.98311199999999999</v>
@@ -5690,13 +5699,13 @@
         <v>1.6800000000000001E-3</v>
       </c>
       <c r="H116" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I116" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J116" s="10" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K116" s="19">
         <v>0</v>
@@ -5705,12 +5714,12 @@
         <v>3</v>
       </c>
       <c r="M116" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B117" s="12" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C117" s="13">
         <v>1.0054560000000001</v>
@@ -5722,13 +5731,13 @@
         <v>1.2E-4</v>
       </c>
       <c r="H117" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I117" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J117" s="12" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="K117" s="20">
         <v>1.1404522986532434E-2</v>
@@ -5737,12 +5746,12 @@
         <v>3</v>
       </c>
       <c r="M117" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B118" s="10" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C118" s="11">
         <v>0.49155599999999999</v>
@@ -5754,13 +5763,13 @@
         <v>1.2E-4</v>
       </c>
       <c r="H118" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I118" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J118" s="10" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="K118" s="19">
         <v>0</v>
@@ -5769,12 +5778,12 @@
         <v>3</v>
       </c>
       <c r="M118" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B119" s="12" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C119" s="13">
         <v>0.49155599999999999</v>
@@ -5786,13 +5795,13 @@
         <v>1.32E-3</v>
       </c>
       <c r="H119" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I119" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J119" s="12" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="K119" s="20">
         <v>0</v>
@@ -5801,12 +5810,12 @@
         <v>3</v>
       </c>
       <c r="M119" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B120" s="10" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C120" s="11">
         <v>1.005455</v>
@@ -5818,13 +5827,13 @@
         <v>3.0000000000000003E-4</v>
       </c>
       <c r="H120" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I120" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J120" s="10" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="K120" s="19">
         <v>0</v>
@@ -5833,12 +5842,12 @@
         <v>3</v>
       </c>
       <c r="M120" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B121" s="12" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C121" s="13">
         <v>1.005455</v>
@@ -5850,13 +5859,13 @@
         <v>6.6E-4</v>
       </c>
       <c r="H121" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I121" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J121" s="12" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="K121" s="20">
         <v>9.1161251433802427E-3</v>
@@ -5865,12 +5874,12 @@
         <v>3</v>
       </c>
       <c r="M121" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B122" s="10" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C122" s="11">
         <v>0.49155599999999999</v>
@@ -5882,13 +5891,13 @@
         <v>3.0000000000000003E-4</v>
       </c>
       <c r="H122" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I122" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J122" s="10" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="K122" s="19">
         <v>3.9630396943345228E-3</v>
@@ -5897,12 +5906,12 @@
         <v>3</v>
       </c>
       <c r="M122" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B123" s="12" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C123" s="13">
         <v>0.49155599999999999</v>
@@ -5914,13 +5923,13 @@
         <v>4.2000000000000002E-4</v>
       </c>
       <c r="H123" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I123" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J123" s="12" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="K123" s="20">
         <v>3.2250535738694462E-3</v>
@@ -5929,12 +5938,12 @@
         <v>3</v>
       </c>
       <c r="M123" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B124" s="10" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C124" s="11">
         <v>0.49155599999999999</v>
@@ -5946,13 +5955,13 @@
         <v>4.8000000000000001E-4</v>
       </c>
       <c r="H124" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I124" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J124" s="10" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K124" s="19">
         <v>1.9257395335195444E-2</v>
@@ -5961,12 +5970,12 @@
         <v>3</v>
       </c>
       <c r="M124" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B125" s="12" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C125" s="13">
         <v>0.98311199999999999</v>
@@ -5978,13 +5987,13 @@
         <v>4.2000000000000002E-4</v>
       </c>
       <c r="H125" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I125" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J125" s="12" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="K125" s="20">
         <v>0</v>
@@ -5993,12 +6002,12 @@
         <v>3</v>
       </c>
       <c r="M125" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B126" s="10" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C126" s="11">
         <v>0.49155599999999999</v>
@@ -6010,13 +6019,13 @@
         <v>6.0000000000000006E-4</v>
       </c>
       <c r="H126" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I126" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J126" s="10" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K126" s="19">
         <v>0</v>
@@ -6025,12 +6034,12 @@
         <v>3</v>
       </c>
       <c r="M126" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B127" s="12" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C127" s="13">
         <v>0.98311199999999999</v>
@@ -6042,13 +6051,13 @@
         <v>1.8000000000000001E-4</v>
       </c>
       <c r="H127" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I127" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J127" s="12" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="K127" s="20">
         <v>0</v>
@@ -6057,12 +6066,12 @@
         <v>3</v>
       </c>
       <c r="M127" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B128" s="10" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C128" s="11">
         <v>0.49155599999999999</v>
@@ -6074,13 +6083,13 @@
         <v>4.8000000000000001E-4</v>
       </c>
       <c r="H128" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I128" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J128" s="10" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K128" s="19">
         <v>0</v>
@@ -6089,12 +6098,12 @@
         <v>3</v>
       </c>
       <c r="M128" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B129" s="12" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C129" s="13">
         <v>3.3962050000000001</v>
@@ -6106,13 +6115,13 @@
         <v>2.9399999999999999E-3</v>
       </c>
       <c r="H129" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I129" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J129" s="12" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K129" s="20">
         <v>0</v>
@@ -6121,12 +6130,12 @@
         <v>3</v>
       </c>
       <c r="M129" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B130" s="10" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C130" s="11">
         <v>0.49155599999999999</v>
@@ -6138,13 +6147,13 @@
         <v>3.6000000000000002E-4</v>
       </c>
       <c r="H130" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I130" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J130" s="10" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K130" s="19">
         <v>0</v>
@@ -6153,12 +6162,12 @@
         <v>3</v>
       </c>
       <c r="M130" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B131" s="12" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C131" s="13">
         <v>0.98311199999999999</v>
@@ -6170,13 +6179,13 @@
         <v>1.4400000000000001E-3</v>
       </c>
       <c r="H131" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I131" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J131" s="12" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="K131" s="20">
         <v>0</v>
@@ -6185,12 +6194,12 @@
         <v>3</v>
       </c>
       <c r="M131" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B132" s="10" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C132" s="11">
         <v>0.98311199999999999</v>
@@ -6202,13 +6211,13 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="H132" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I132" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J132" s="10" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="K132" s="19">
         <v>3.3344944013531698E-3</v>
@@ -6217,12 +6226,12 @@
         <v>3</v>
       </c>
       <c r="M132" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B133" s="12" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C133" s="13">
         <v>0.98311199999999999</v>
@@ -6234,13 +6243,13 @@
         <v>1.08E-3</v>
       </c>
       <c r="H133" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I133" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J133" s="12" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="K133" s="20">
         <v>3.851133983348751E-3</v>
@@ -6249,12 +6258,12 @@
         <v>3</v>
       </c>
       <c r="M133" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B134" s="10" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C134" s="11">
         <v>0.98311199999999999</v>
@@ -6266,13 +6275,13 @@
         <v>2.2200000000000002E-3</v>
       </c>
       <c r="H134" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I134" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J134" s="10" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="K134" s="19">
         <v>0</v>
@@ -6281,12 +6290,12 @@
         <v>3</v>
       </c>
       <c r="M134" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="135" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B135" s="12" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C135" s="13">
         <v>0.98311199999999999</v>
@@ -6298,13 +6307,13 @@
         <v>5.4000000000000001E-4</v>
       </c>
       <c r="H135" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I135" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J135" s="12" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="K135" s="20">
         <v>0</v>
@@ -6313,12 +6322,12 @@
         <v>3</v>
       </c>
       <c r="M135" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="136" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B136" s="10" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C136" s="11">
         <v>0.98311199999999999</v>
@@ -6330,13 +6339,13 @@
         <v>8.4000000000000003E-4</v>
       </c>
       <c r="H136" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I136" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J136" s="10" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="K136" s="19">
         <v>1.1382832011715858E-2</v>
@@ -6345,12 +6354,12 @@
         <v>3</v>
       </c>
       <c r="M136" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="137" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B137" s="12" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C137" s="13">
         <v>0.49155599999999999</v>
@@ -6362,13 +6371,13 @@
         <v>4.8000000000000001E-4</v>
       </c>
       <c r="H137" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I137" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J137" s="12" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K137" s="20">
         <v>3.1087110725803442E-3</v>
@@ -6377,12 +6386,12 @@
         <v>3</v>
       </c>
       <c r="M137" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="138" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B138" s="10" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C138" s="11">
         <v>0.98311199999999999</v>
@@ -6394,13 +6403,13 @@
         <v>1.6800000000000001E-3</v>
       </c>
       <c r="H138" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I138" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J138" s="10" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="K138" s="19">
         <v>0</v>
@@ -6409,12 +6418,12 @@
         <v>3</v>
       </c>
       <c r="M138" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="139" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B139" s="12" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C139" s="13">
         <v>0.49155599999999999</v>
@@ -6426,13 +6435,13 @@
         <v>7.2000000000000005E-4</v>
       </c>
       <c r="H139" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I139" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J139" s="12" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="K139" s="20">
         <v>1.2063632834937122E-2</v>
@@ -6441,12 +6450,12 @@
         <v>3</v>
       </c>
       <c r="M139" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="140" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B140" s="10" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C140" s="11">
         <v>0.49155599999999999</v>
@@ -6458,13 +6467,13 @@
         <v>1.3799999999999999E-3</v>
       </c>
       <c r="H140" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I140" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J140" s="10" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K140" s="19">
         <v>3.0040767679252373E-2</v>
@@ -6473,12 +6482,12 @@
         <v>3</v>
       </c>
       <c r="M140" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B141" s="12" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C141" s="13">
         <v>0.98311199999999999</v>
@@ -6490,13 +6499,13 @@
         <v>3.2400000000000003E-3</v>
       </c>
       <c r="H141" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I141" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J141" s="12" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="K141" s="20">
         <v>3.8710995397140333E-3</v>
@@ -6505,12 +6514,12 @@
         <v>3</v>
       </c>
       <c r="M141" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="142" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B142" s="10" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C142" s="11">
         <v>0.49155599999999999</v>
@@ -6522,13 +6531,13 @@
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="H142" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I142" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J142" s="10" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="K142" s="19">
         <v>1.3283750168371385E-2</v>
@@ -6537,12 +6546,12 @@
         <v>3</v>
       </c>
       <c r="M142" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="143" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B143" s="12" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C143" s="13">
         <v>0.49155599999999999</v>
@@ -6554,13 +6563,13 @@
         <v>8.4000000000000003E-4</v>
       </c>
       <c r="H143" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I143" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J143" s="12" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="K143" s="20">
         <v>0</v>
@@ -6569,12 +6578,12 @@
         <v>3</v>
       </c>
       <c r="M143" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="144" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B144" s="10" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C144" s="11">
         <v>0.49155599999999999</v>
@@ -6586,13 +6595,13 @@
         <v>1.14E-3</v>
       </c>
       <c r="H144" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I144" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J144" s="10" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="K144" s="19">
         <v>1.3937437273071906E-2</v>
@@ -6601,12 +6610,12 @@
         <v>3</v>
       </c>
       <c r="M144" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="145" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B145" s="12" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C145" s="13">
         <v>0.49155599999999999</v>
@@ -6618,13 +6627,13 @@
         <v>1.0200000000000001E-3</v>
       </c>
       <c r="H145" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I145" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J145" s="12" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="K145" s="20">
         <v>0</v>
@@ -6633,12 +6642,12 @@
         <v>3</v>
       </c>
       <c r="M145" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="146" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B146" s="10" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C146" s="11">
         <v>0.98311199999999999</v>
@@ -6650,13 +6659,13 @@
         <v>1.8000000000000001E-4</v>
       </c>
       <c r="H146" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I146" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J146" s="10" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="K146" s="19">
         <v>0</v>
@@ -6665,12 +6674,12 @@
         <v>3</v>
       </c>
       <c r="M146" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="147" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B147" s="12" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C147" s="13">
         <v>0.98311199999999999</v>
@@ -6682,13 +6691,13 @@
         <v>6.0000000000000006E-4</v>
       </c>
       <c r="H147" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I147" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J147" s="12" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="K147" s="20">
         <v>2.8913083477138078E-3</v>
@@ -6697,12 +6706,12 @@
         <v>3</v>
       </c>
       <c r="M147" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="148" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B148" s="10" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C148" s="11">
         <v>0.98311199999999999</v>
@@ -6714,13 +6723,13 @@
         <v>9.6000000000000002E-4</v>
       </c>
       <c r="H148" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I148" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J148" s="10" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="K148" s="19">
         <v>1.1608861828838968E-2</v>
@@ -6729,12 +6738,12 @@
         <v>3</v>
       </c>
       <c r="M148" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="149" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B149" s="12" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C149" s="13">
         <v>0.49155599999999999</v>
@@ -6746,13 +6755,13 @@
         <v>6.6E-4</v>
       </c>
       <c r="H149" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I149" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J149" s="12" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="K149" s="20">
         <v>2.7217243627839539E-3</v>
@@ -6761,12 +6770,12 @@
         <v>3</v>
       </c>
       <c r="M149" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="150" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B150" s="10" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C150" s="11">
         <v>0.49155599999999999</v>
@@ -6778,13 +6787,13 @@
         <v>3.0000000000000003E-4</v>
       </c>
       <c r="H150" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I150" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J150" s="10" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="K150" s="19">
         <v>1.0474768929620557E-2</v>
@@ -6793,12 +6802,12 @@
         <v>3</v>
       </c>
       <c r="M150" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="151" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B151" s="12" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C151" s="13">
         <v>0.49155599999999999</v>
@@ -6810,13 +6819,13 @@
         <v>4.8000000000000001E-4</v>
       </c>
       <c r="H151" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I151" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J151" s="12" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="K151" s="20">
         <v>6.6394102006838429E-3</v>
@@ -6825,12 +6834,12 @@
         <v>3</v>
       </c>
       <c r="M151" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="152" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B152" s="10" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C152" s="11">
         <v>0.98311199999999999</v>
@@ -6842,13 +6851,13 @@
         <v>1.8E-3</v>
       </c>
       <c r="H152" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I152" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J152" s="10" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="K152" s="19">
         <v>1.4128712232818436E-2</v>
@@ -6857,12 +6866,12 @@
         <v>3</v>
       </c>
       <c r="M152" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="153" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B153" s="12" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C153" s="13">
         <v>0.49155599999999999</v>
@@ -6874,13 +6883,13 @@
         <v>5.4000000000000001E-4</v>
       </c>
       <c r="H153" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I153" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J153" s="12" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="K153" s="20">
         <v>9.6717098847056496E-3</v>
@@ -6889,12 +6898,12 @@
         <v>3</v>
       </c>
       <c r="M153" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="154" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B154" s="10" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C154" s="11">
         <v>0.98311199999999999</v>
@@ -6906,13 +6915,13 @@
         <v>1.08E-3</v>
       </c>
       <c r="H154" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I154" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J154" s="10" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="K154" s="19">
         <v>0</v>
@@ -6921,12 +6930,12 @@
         <v>3</v>
       </c>
       <c r="M154" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="155" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B155" s="12" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C155" s="13">
         <v>3.3962050000000001</v>
@@ -6938,13 +6947,13 @@
         <v>1.14E-3</v>
       </c>
       <c r="H155" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I155" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J155" s="12" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="K155" s="20">
         <v>0</v>
@@ -6953,12 +6962,12 @@
         <v>3</v>
       </c>
       <c r="M155" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="156" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B156" s="10" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C156" s="11">
         <v>0.98311199999999999</v>
@@ -6970,13 +6979,13 @@
         <v>1.08E-3</v>
       </c>
       <c r="H156" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I156" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J156" s="10" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="K156" s="19">
         <v>4.1766711474430999E-2</v>
@@ -6985,12 +6994,12 @@
         <v>3</v>
       </c>
       <c r="M156" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="157" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B157" s="12" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C157" s="13">
         <v>0.98311199999999999</v>
@@ -7002,13 +7011,13 @@
         <v>1.6200000000000001E-3</v>
       </c>
       <c r="H157" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I157" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J157" s="12" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="K157" s="20">
         <v>0</v>
@@ -7017,12 +7026,12 @@
         <v>3</v>
       </c>
       <c r="M157" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="158" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B158" s="10" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C158" s="11">
         <v>0.98311199999999999</v>
@@ -7036,7 +7045,7 @@
     </row>
     <row r="159" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B159" s="12" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C159" s="13">
         <v>0.98311199999999999</v>
@@ -7050,7 +7059,7 @@
     </row>
     <row r="160" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B160" s="10" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C160" s="11">
         <v>0.98311199999999999</v>
@@ -7064,7 +7073,7 @@
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B161" s="12" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C161" s="13">
         <v>0.98311199999999999</v>
@@ -7078,7 +7087,7 @@
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B162" s="10" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C162" s="11">
         <v>0.49155599999999999</v>
@@ -7092,7 +7101,7 @@
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B163" s="12" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C163" s="13">
         <v>3.3962050000000001</v>
@@ -7106,7 +7115,7 @@
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B164" s="10" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C164" s="11">
         <v>0.98311199999999999</v>
@@ -7120,7 +7129,7 @@
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B165" s="12" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C165" s="13">
         <v>0.98311199999999999</v>
@@ -7134,7 +7143,7 @@
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B166" s="10" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C166" s="11">
         <v>0.98311199999999999</v>
@@ -7148,7 +7157,7 @@
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B167" s="12" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C167" s="13">
         <v>0.98311199999999999</v>
@@ -7162,7 +7171,7 @@
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B168" s="10" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C168" s="11">
         <v>0.98311199999999999</v>
@@ -7176,7 +7185,7 @@
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B169" s="12" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C169" s="13">
         <v>0.98311199999999999</v>
@@ -7190,7 +7199,7 @@
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B170" s="10" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C170" s="11">
         <v>0.98311199999999999</v>
@@ -7204,7 +7213,7 @@
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B171" s="12" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C171" s="13">
         <v>0.49155599999999999</v>
@@ -7218,7 +7227,7 @@
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B172" s="10" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C172" s="11">
         <v>0.98311199999999999</v>
@@ -7232,7 +7241,7 @@
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B173" s="12" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C173" s="13">
         <v>0.98311199999999999</v>
@@ -7246,7 +7255,7 @@
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B174" s="10" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C174" s="11">
         <v>0.49155599999999999</v>
@@ -7260,7 +7269,7 @@
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B175" s="12" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C175" s="13">
         <v>0.49155599999999999</v>
@@ -7274,7 +7283,7 @@
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B176" s="10" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C176" s="11">
         <v>0.98311199999999999</v>
@@ -7288,7 +7297,7 @@
     </row>
     <row r="177" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B177" s="12" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C177" s="13">
         <v>0.49155599999999999</v>
@@ -7302,7 +7311,7 @@
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B178" s="10" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C178" s="11">
         <v>0.49155599999999999</v>
@@ -7316,7 +7325,7 @@
     </row>
     <row r="179" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B179" s="12" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C179" s="13">
         <v>0.49155599999999999</v>
@@ -7330,7 +7339,7 @@
     </row>
     <row r="180" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B180" s="10" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C180" s="11">
         <v>0.98311199999999999</v>
@@ -7344,7 +7353,7 @@
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B181" s="12" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C181" s="13">
         <v>0.49155599999999999</v>
@@ -7358,7 +7367,7 @@
     </row>
     <row r="182" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B182" s="10" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C182" s="11">
         <v>0.49155599999999999</v>
@@ -7372,7 +7381,7 @@
     </row>
     <row r="183" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B183" s="12" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C183" s="13">
         <v>0.98311199999999999</v>
@@ -7386,7 +7395,7 @@
     </row>
     <row r="184" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B184" s="10" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C184" s="11">
         <v>0.49155599999999999</v>
@@ -7400,7 +7409,7 @@
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B185" s="12" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C185" s="13">
         <v>0.98311199999999999</v>
@@ -7414,7 +7423,7 @@
     </row>
     <row r="186" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B186" s="10" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C186" s="11">
         <v>0.49155599999999999</v>
@@ -7428,7 +7437,7 @@
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B187" s="12" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C187" s="13">
         <v>0.98311199999999999</v>
@@ -7442,7 +7451,7 @@
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B188" s="10" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C188" s="11">
         <v>0.98311199999999999</v>
@@ -7456,7 +7465,7 @@
     </row>
     <row r="189" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B189" s="12" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C189" s="13">
         <v>1.6981030000000001</v>
@@ -7470,7 +7479,7 @@
     </row>
     <row r="190" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B190" s="10" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C190" s="11">
         <v>0.49155599999999999</v>
@@ -7484,7 +7493,7 @@
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B191" s="12" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C191" s="13">
         <v>0.49155599999999999</v>
@@ -7498,7 +7507,7 @@
     </row>
     <row r="192" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B192" s="10" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C192" s="11">
         <v>0.98311199999999999</v>
@@ -7512,7 +7521,7 @@
     </row>
     <row r="193" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B193" s="12" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C193" s="13">
         <v>0.49155599999999999</v>
@@ -7526,7 +7535,7 @@
     </row>
     <row r="194" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B194" s="10" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C194" s="11">
         <v>0.98311199999999999</v>
@@ -7540,7 +7549,7 @@
     </row>
     <row r="195" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B195" s="12" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C195" s="13">
         <v>0.98311199999999999</v>
@@ -7554,7 +7563,7 @@
     </row>
     <row r="196" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B196" s="10" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C196" s="11">
         <v>0.98311199999999999</v>
@@ -7568,7 +7577,7 @@
     </row>
     <row r="197" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B197" s="12" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C197" s="13">
         <v>0.98311199999999999</v>
@@ -7582,7 +7591,7 @@
     </row>
     <row r="198" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B198" s="10" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C198" s="11">
         <v>0.49155599999999999</v>
@@ -7596,7 +7605,7 @@
     </row>
     <row r="199" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B199" s="12" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C199" s="13">
         <v>0.98311199999999999</v>
@@ -7610,7 +7619,7 @@
     </row>
     <row r="200" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B200" s="10" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C200" s="11">
         <v>0.98311199999999999</v>
@@ -7624,7 +7633,7 @@
     </row>
     <row r="201" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B201" s="12" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C201" s="13">
         <v>0.49155599999999999</v>
@@ -7638,7 +7647,7 @@
     </row>
     <row r="202" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B202" s="10" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C202" s="11">
         <v>0.49155599999999999</v>
@@ -7652,7 +7661,7 @@
     </row>
     <row r="203" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B203" s="12" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C203" s="13">
         <v>0.98311199999999999</v>
@@ -7666,7 +7675,7 @@
     </row>
     <row r="204" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B204" s="10" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C204" s="11">
         <v>0.98311199999999999</v>
@@ -7680,7 +7689,7 @@
     </row>
     <row r="205" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B205" s="12" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C205" s="13">
         <v>0.49155599999999999</v>
@@ -7705,8 +7714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL40"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AD16" sqref="AD16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8254,6 +8263,9 @@
       <c r="F21" t="s">
         <v>14</v>
       </c>
+      <c r="G21" t="s">
+        <v>3</v>
+      </c>
       <c r="L21" t="s">
         <v>38</v>
       </c>
@@ -8374,8 +8386,28 @@
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28">
+        <v>50</v>
+      </c>
+      <c r="G28" t="s">
+        <v>78</v>
+      </c>
       <c r="L28" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29">
+        <v>8.76</v>
+      </c>
+      <c r="G29" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.45">

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21A44FE6-DFEF-48DA-A511-B43F6FA997BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D06D4AC-FFB2-40B5-A623-1D2EF3F62533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1660,7 +1660,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F330BCBD-C104-E509-868F-334F299212E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC0CA12D-46AA-E762-0096-9026D4F6E251}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2011,7 +2011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2D367D-0500-4E10-86A8-806242EA5334}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74399D29-73B1-40F0-8A8F-B9DE74D38D34}">
   <dimension ref="A1:R205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19F09ED8-C735-42D8-B6CB-926280C96C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DCF5EFB-6B7D-4B72-A334-9DFC3E15083F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1567,7 +1567,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{475E26A9-F2D3-2E6F-AD0F-395DA1F633AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C56DE4F-5F00-9E5E-CF2B-4C88EF92C1D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1918,7 +1918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F828B0-3E91-476F-A0E1-630FCF63BACC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3B1C88-3C2A-4926-81C3-30D015D5E294}">
   <dimension ref="A1:R213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DCF5EFB-6B7D-4B72-A334-9DFC3E15083F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5607C47F-82F1-45E6-BF83-8930DCC6050E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="460">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -1029,6 +1029,12 @@
     <t>e_CH19-220</t>
   </si>
   <si>
+    <t>e_CH2-220</t>
+  </si>
+  <si>
+    <t>e_CH20-220</t>
+  </si>
+  <si>
     <t>e_CH21-220</t>
   </si>
   <si>
@@ -1038,9 +1044,21 @@
     <t>e_CH23-220</t>
   </si>
   <si>
+    <t>e_CH24-220</t>
+  </si>
+  <si>
     <t>e_CH25-220</t>
   </si>
   <si>
+    <t>e_CH26-220</t>
+  </si>
+  <si>
+    <t>e_CH27-220</t>
+  </si>
+  <si>
+    <t>e_CH28-220</t>
+  </si>
+  <si>
     <t>e_CH29-220</t>
   </si>
   <si>
@@ -1062,12 +1080,27 @@
     <t>e_CH34-220</t>
   </si>
   <si>
+    <t>e_CH35-220</t>
+  </si>
+  <si>
+    <t>e_CH36-220</t>
+  </si>
+  <si>
     <t>e_CH37-380</t>
   </si>
   <si>
+    <t>e_CH38-220</t>
+  </si>
+  <si>
+    <t>e_CH39-220</t>
+  </si>
+  <si>
     <t>e_CH4-220</t>
   </si>
   <si>
+    <t>e_CH40-220</t>
+  </si>
+  <si>
     <t>e_CH41-380</t>
   </si>
   <si>
@@ -1077,6 +1110,9 @@
     <t>e_CH43-220</t>
   </si>
   <si>
+    <t>e_CH44-220</t>
+  </si>
+  <si>
     <t>e_CH45-220</t>
   </si>
   <si>
@@ -1089,6 +1125,9 @@
     <t>e_CH48-225</t>
   </si>
   <si>
+    <t>e_CH49-225</t>
+  </si>
+  <si>
     <t>e_CH5-220</t>
   </si>
   <si>
@@ -1110,6 +1149,9 @@
     <t>e_CH57-220</t>
   </si>
   <si>
+    <t>e_CH58-220</t>
+  </si>
+  <si>
     <t>e_CH59-220</t>
   </si>
   <si>
@@ -1140,6 +1182,9 @@
     <t>e_w108257952-220</t>
   </si>
   <si>
+    <t>e_w1086214433-220</t>
+  </si>
+  <si>
     <t>e_w109037817-220</t>
   </si>
   <si>
@@ -1149,6 +1194,9 @@
     <t>e_w1105061707-220</t>
   </si>
   <si>
+    <t>e_w111162936-220</t>
+  </si>
+  <si>
     <t>e_w11282314-220</t>
   </si>
   <si>
@@ -1164,6 +1212,9 @@
     <t>e_w1284913429-220</t>
   </si>
   <si>
+    <t>e_w130198336-220</t>
+  </si>
+  <si>
     <t>e_w132373704-220</t>
   </si>
   <si>
@@ -1179,15 +1230,33 @@
     <t>e_w147557680-220</t>
   </si>
   <si>
+    <t>e_w147714395-220</t>
+  </si>
+  <si>
+    <t>e_w148015471-220</t>
+  </si>
+  <si>
     <t>e_w159527493-220</t>
   </si>
   <si>
+    <t>e_w161853746-220</t>
+  </si>
+  <si>
     <t>e_w165254212-220</t>
   </si>
   <si>
+    <t>e_w165513396-220</t>
+  </si>
+  <si>
+    <t>e_w177392130-220</t>
+  </si>
+  <si>
     <t>e_w190819048-220</t>
   </si>
   <si>
+    <t>e_w192677427-220</t>
+  </si>
+  <si>
     <t>e_w194258388-220</t>
   </si>
   <si>
@@ -1218,6 +1287,9 @@
     <t>e_w228003081-220</t>
   </si>
   <si>
+    <t>e_w22899676-220</t>
+  </si>
+  <si>
     <t>e_w232662311-220</t>
   </si>
   <si>
@@ -1230,6 +1302,9 @@
     <t>e_w238138373-380</t>
   </si>
   <si>
+    <t>e_w239937062-220</t>
+  </si>
+  <si>
     <t>e_w240575085-220</t>
   </si>
   <si>
@@ -1239,6 +1314,9 @@
     <t>e_w242269161-220</t>
   </si>
   <si>
+    <t>e_w260211728-225</t>
+  </si>
+  <si>
     <t>e_w26166640-220</t>
   </si>
   <si>
@@ -1266,6 +1344,12 @@
     <t>e_w281809991-220</t>
   </si>
   <si>
+    <t>e_w281815404-220</t>
+  </si>
+  <si>
+    <t>e_w281822905-220</t>
+  </si>
+  <si>
     <t>e_w30350721-220</t>
   </si>
   <si>
@@ -1287,6 +1371,9 @@
     <t>e_w35840165-380</t>
   </si>
   <si>
+    <t>e_w36348118-220</t>
+  </si>
+  <si>
     <t>e_w364949845-220</t>
   </si>
   <si>
@@ -1296,6 +1383,9 @@
     <t>e_w391576135-220</t>
   </si>
   <si>
+    <t>e_w391577741-220</t>
+  </si>
+  <si>
     <t>e_w397960460-380</t>
   </si>
   <si>
@@ -1308,6 +1398,15 @@
     <t>e_w431234146-220</t>
   </si>
   <si>
+    <t>e_w44496892-220</t>
+  </si>
+  <si>
+    <t>e_w455120191-220</t>
+  </si>
+  <si>
+    <t>e_w50319857-220</t>
+  </si>
+  <si>
     <t>e_w50561341-220</t>
   </si>
   <si>
@@ -1317,12 +1416,24 @@
     <t>e_w55695765-220</t>
   </si>
   <si>
+    <t>e_w55698557-220</t>
+  </si>
+  <si>
+    <t>e_w71500123-220</t>
+  </si>
+  <si>
     <t>e_w758315582-220</t>
   </si>
   <si>
     <t>e_w758943072-220</t>
   </si>
   <si>
+    <t>e_w802058337-220</t>
+  </si>
+  <si>
+    <t>e_w83861269-220</t>
+  </si>
+  <si>
     <t>e_w87281514-220</t>
   </si>
   <si>
@@ -1332,15 +1443,27 @@
     <t>e_w89405664-220</t>
   </si>
   <si>
+    <t>e_w89977424-220</t>
+  </si>
+  <si>
     <t>e_w92798668-220</t>
   </si>
   <si>
     <t>e_w92873516-220</t>
   </si>
   <si>
+    <t>e_w936521586-380</t>
+  </si>
+  <si>
     <t>e_w969811258-220</t>
   </si>
   <si>
+    <t>e_w969819301-220</t>
+  </si>
+  <si>
+    <t>e_w97941869-220</t>
+  </si>
+  <si>
     <t>e_w98648381-220</t>
   </si>
   <si>
@@ -1350,7 +1473,7 @@
     <t>io</t>
   </si>
   <si>
-    <t>e_CH1-220,e_CH11-220,e_CH12-220,e_CH13-220,e_CH14-220,e_CH15-220,e_CH16-380,e_CH17-380,e_CH18-220,e_CH19-220,e_CH21-220,e_CH22-220,e_CH23-220,e_CH25-220,e_CH29-220,e_CH3-220,e_CH30-380,e_CH31-220,e_CH32-220,e_CH33-380,e_CH34-220,e_CH37-380,e_CH4-220,e_CH41-380,e_CH42-220,e_CH43-220,e_CH45-220,e_CH46-220,e_CH47-220,e_CH48-225,e_CH5-220,e_CH50-220,e_CH51-220,e_CH52-220,e_CH53-225,e_CH56-220,e_CH57-220,e_CH59-220,e_CH6-220,e_CH60-225,e_CH7-220,e_CH9-220,e_r5378910-220,e_r7933294-380,e_r9310861-220,e_w100662075-220,e_w108257952-220,e_w109037817-220,e_w1092884227-220,e_w1105061707-220,e_w11282314-220,e_w1208713169-220,e_w122720993-220,e_w127004407-380,e_w1284913429-220,e_w132373704-220,e_w1327084723-220,e_w140873735-220,e_w146225999-220,e_w147557680-220,e_w159527493-220,e_w165254212-220,e_w190819048-220,e_w194258388-220,e_w207991759-380,e_w207993342-220,e_w208780268-380,e_w209324991-220,e_w210568055-220,e_w211907009-220,e_w212498548-220,e_w212722603-220,e_w228003081-220,e_w232662311-220,e_w234983117-220,e_w236819191-220,e_w238138373-380,e_w240575085-220,e_w240959264-220,e_w242269161-220,e_w26166640-220,e_w26843160-220,e_w27107779-220,e_w27435934-220,e_w281799252-220,e_w281800404-220,e_w281803398-220,e_w281804158-220,e_w281809991-220,e_w30350721-220,e_w31308888-220,e_w33271433-220,e_w35002638-220,e_w35487135-220,e_w356292116-220,e_w35840165-380,e_w364949845-220,e_w365556107-220,e_w391576135-220,e_w397960460-380,e_w402053379-220,e_w402055336-220,e_w431234146-220,e_w50561341-220,e_w52738225-220,e_w55695765-220,e_w758315582-220,e_w758943072-220,e_w87281514-220,e_w88901626-380,e_w89405664-220,e_w92798668-220,e_w92873516-220,e_w969811258-220,e_w98648381-220</t>
+    <t>e_CH1-220,e_CH11-220,e_CH12-220,e_CH13-220,e_CH14-220,e_CH15-220,e_CH16-380,e_CH17-380,e_CH18-220,e_CH19-220,e_CH2-220,e_CH20-220,e_CH21-220,e_CH22-220,e_CH23-220,e_CH24-220,e_CH25-220,e_CH26-220,e_CH27-220,e_CH28-220,e_CH29-220,e_CH3-220,e_CH30-380,e_CH31-220,e_CH32-220,e_CH33-380,e_CH34-220,e_CH35-220,e_CH36-220,e_CH37-380,e_CH38-220,e_CH39-220,e_CH4-220,e_CH40-220,e_CH41-380,e_CH42-220,e_CH43-220,e_CH44-220,e_CH45-220,e_CH46-220,e_CH47-220,e_CH48-225,e_CH49-225,e_CH5-220,e_CH50-220,e_CH51-220,e_CH52-220,e_CH53-225,e_CH56-220,e_CH57-220,e_CH58-220,e_CH59-220,e_CH6-220,e_CH60-225,e_CH7-220,e_CH9-220,e_r5378910-220,e_r7933294-380,e_r9310861-220,e_w100662075-220,e_w108257952-220,e_w1086214433-220,e_w109037817-220,e_w1092884227-220,e_w1105061707-220,e_w111162936-220,e_w11282314-220,e_w1208713169-220,e_w122720993-220,e_w127004407-380,e_w1284913429-220,e_w130198336-220,e_w132373704-220,e_w1327084723-220,e_w140873735-220,e_w146225999-220,e_w147557680-220,e_w147714395-220,e_w148015471-220,e_w159527493-220,e_w161853746-220,e_w165254212-220,e_w165513396-220,e_w177392130-220,e_w190819048-220,e_w192677427-220,e_w194258388-220,e_w207991759-380,e_w207993342-220,e_w208780268-380,e_w209324991-220,e_w210568055-220,e_w211907009-220,e_w212498548-220,e_w212722603-220,e_w228003081-220,e_w22899676-220,e_w232662311-220,e_w234983117-220,e_w236819191-220,e_w238138373-380,e_w239937062-220,e_w240575085-220,e_w240959264-220,e_w242269161-220,e_w260211728-225,e_w26166640-220,e_w26843160-220,e_w27107779-220,e_w27435934-220,e_w281799252-220,e_w281800404-220,e_w281803398-220,e_w281804158-220,e_w281809991-220,e_w281815404-220,e_w281822905-220,e_w30350721-220,e_w31308888-220,e_w33271433-220,e_w35002638-220,e_w35487135-220,e_w356292116-220,e_w35840165-380,e_w36348118-220,e_w364949845-220,e_w365556107-220,e_w391576135-220,e_w391577741-220,e_w397960460-380,e_w402053379-220,e_w402055336-220,e_w431234146-220,e_w44496892-220,e_w455120191-220,e_w50319857-220,e_w50561341-220,e_w52738225-220,e_w55695765-220,e_w55698557-220,e_w71500123-220,e_w758315582-220,e_w758943072-220,e_w802058337-220,e_w83861269-220,e_w87281514-220,e_w88901626-380,e_w89405664-220,e_w89977424-220,e_w92798668-220,e_w92873516-220,e_w936521586-380,e_w969811258-220,e_w969819301-220,e_w97941869-220,e_w98648381-220</t>
   </si>
   <si>
     <t>IN</t>
@@ -1567,7 +1690,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C56DE4F-5F00-9E5E-CF2B-4C88EF92C1D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB6A504C-2C5B-8D16-1A91-CC82304357AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1918,7 +2041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3B1C88-3C2A-4926-81C3-30D015D5E294}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB2F76E9-10F6-43B6-8942-9250CFB316DC}">
   <dimension ref="A1:R213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1955,7 +2078,7 @@
         <v>294</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>415</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
@@ -1996,7 +2119,7 @@
         <v>295</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>416</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.45">
@@ -2034,10 +2157,10 @@
         <v>298</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>417</v>
+        <v>458</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>418</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.45">
@@ -2127,7 +2250,7 @@
         <v>303</v>
       </c>
       <c r="K7" s="20">
-        <v>9.6537162351418467E-3</v>
+        <v>6.653953013344956E-3</v>
       </c>
       <c r="L7" s="13">
         <v>3</v>
@@ -2191,7 +2314,7 @@
         <v>305</v>
       </c>
       <c r="K9" s="20">
-        <v>3.454657472070248E-2</v>
+        <v>0</v>
       </c>
       <c r="L9" s="13">
         <v>3</v>
@@ -2511,7 +2634,7 @@
         <v>315</v>
       </c>
       <c r="K19" s="20">
-        <v>4.3455896138273843E-3</v>
+        <v>0</v>
       </c>
       <c r="L19" s="13">
         <v>3</v>
@@ -2575,7 +2698,7 @@
         <v>317</v>
       </c>
       <c r="K21" s="20">
-        <v>5.3290781310805037E-2</v>
+        <v>0</v>
       </c>
       <c r="L21" s="13">
         <v>3</v>
@@ -2735,7 +2858,7 @@
         <v>322</v>
       </c>
       <c r="K26" s="19">
-        <v>1.927859333331175E-2</v>
+        <v>0</v>
       </c>
       <c r="L26" s="11">
         <v>3</v>
@@ -2895,7 +3018,7 @@
         <v>327</v>
       </c>
       <c r="K31" s="20">
-        <v>5.714092934075295E-3</v>
+        <v>0</v>
       </c>
       <c r="L31" s="13">
         <v>3</v>
@@ -2959,7 +3082,7 @@
         <v>329</v>
       </c>
       <c r="K33" s="20">
-        <v>1.4223363759290862E-2</v>
+        <v>0</v>
       </c>
       <c r="L33" s="13">
         <v>3</v>
@@ -2991,7 +3114,7 @@
         <v>330</v>
       </c>
       <c r="K34" s="19">
-        <v>1.9395921788001595E-2</v>
+        <v>0</v>
       </c>
       <c r="L34" s="11">
         <v>3</v>
@@ -3023,7 +3146,7 @@
         <v>331</v>
       </c>
       <c r="K35" s="20">
-        <v>1.0792492413013872E-2</v>
+        <v>0</v>
       </c>
       <c r="L35" s="13">
         <v>3</v>
@@ -3055,7 +3178,7 @@
         <v>332</v>
       </c>
       <c r="K36" s="19">
-        <v>5.9512147269568287E-3</v>
+        <v>1.927859333331175E-2</v>
       </c>
       <c r="L36" s="11">
         <v>3</v>
@@ -3087,7 +3210,7 @@
         <v>333</v>
       </c>
       <c r="K37" s="20">
-        <v>9.5158060032113204E-2</v>
+        <v>0</v>
       </c>
       <c r="L37" s="13">
         <v>3</v>
@@ -3119,7 +3242,7 @@
         <v>334</v>
       </c>
       <c r="K38" s="19">
-        <v>6.8789968770672271E-3</v>
+        <v>0</v>
       </c>
       <c r="L38" s="11">
         <v>3</v>
@@ -3151,7 +3274,7 @@
         <v>335</v>
       </c>
       <c r="K39" s="20">
-        <v>3.9467714632220163E-3</v>
+        <v>0</v>
       </c>
       <c r="L39" s="13">
         <v>3</v>
@@ -3183,7 +3306,7 @@
         <v>336</v>
       </c>
       <c r="K40" s="19">
-        <v>2.5223152874813189E-3</v>
+        <v>0</v>
       </c>
       <c r="L40" s="11">
         <v>3</v>
@@ -3247,7 +3370,7 @@
         <v>338</v>
       </c>
       <c r="K42" s="19">
-        <v>4.5883806387632727E-3</v>
+        <v>0</v>
       </c>
       <c r="L42" s="11">
         <v>3</v>
@@ -3279,7 +3402,7 @@
         <v>339</v>
       </c>
       <c r="K43" s="20">
-        <v>4.2432969484990255E-3</v>
+        <v>5.714092934075295E-3</v>
       </c>
       <c r="L43" s="13">
         <v>3</v>
@@ -3343,7 +3466,7 @@
         <v>341</v>
       </c>
       <c r="K45" s="20">
-        <v>6.0000194202942505E-3</v>
+        <v>2.9157106943825187E-3</v>
       </c>
       <c r="L45" s="13">
         <v>3</v>
@@ -3375,7 +3498,7 @@
         <v>342</v>
       </c>
       <c r="K46" s="19">
-        <v>2.0427229045191276E-2</v>
+        <v>0</v>
       </c>
       <c r="L46" s="11">
         <v>3</v>
@@ -3407,7 +3530,7 @@
         <v>343</v>
       </c>
       <c r="K47" s="20">
-        <v>0</v>
+        <v>1.2756511587317752E-2</v>
       </c>
       <c r="L47" s="13">
         <v>3</v>
@@ -3439,7 +3562,7 @@
         <v>344</v>
       </c>
       <c r="K48" s="19">
-        <v>0.12713819805065057</v>
+        <v>1.0792492413013872E-2</v>
       </c>
       <c r="L48" s="11">
         <v>3</v>
@@ -3471,7 +3594,7 @@
         <v>345</v>
       </c>
       <c r="K49" s="20">
-        <v>0</v>
+        <v>5.9512147269568287E-3</v>
       </c>
       <c r="L49" s="13">
         <v>3</v>
@@ -3503,7 +3626,7 @@
         <v>346</v>
       </c>
       <c r="K50" s="19">
-        <v>1.2196736544039102E-2</v>
+        <v>8.4545504114737047E-2</v>
       </c>
       <c r="L50" s="11">
         <v>3</v>
@@ -3535,7 +3658,7 @@
         <v>347</v>
       </c>
       <c r="K51" s="20">
-        <v>1.9858826909655954E-2</v>
+        <v>0</v>
       </c>
       <c r="L51" s="13">
         <v>3</v>
@@ -3567,7 +3690,7 @@
         <v>348</v>
       </c>
       <c r="K52" s="19">
-        <v>0</v>
+        <v>3.9467714632220163E-3</v>
       </c>
       <c r="L52" s="11">
         <v>3</v>
@@ -3599,7 +3722,7 @@
         <v>349</v>
       </c>
       <c r="K53" s="20">
-        <v>6.8409390757981484E-2</v>
+        <v>0</v>
       </c>
       <c r="L53" s="13">
         <v>3</v>
@@ -3631,7 +3754,7 @@
         <v>350</v>
       </c>
       <c r="K54" s="19">
-        <v>1.9140066880505603E-2</v>
+        <v>0</v>
       </c>
       <c r="L54" s="11">
         <v>3</v>
@@ -3695,7 +3818,7 @@
         <v>352</v>
       </c>
       <c r="K56" s="19">
-        <v>1.2437062685473141E-2</v>
+        <v>4.5883806387632727E-3</v>
       </c>
       <c r="L56" s="11">
         <v>3</v>
@@ -3727,7 +3850,7 @@
         <v>353</v>
       </c>
       <c r="K57" s="20">
-        <v>3.125965257093492E-3</v>
+        <v>0</v>
       </c>
       <c r="L57" s="13">
         <v>3</v>
@@ -3759,7 +3882,7 @@
         <v>354</v>
       </c>
       <c r="K58" s="19">
-        <v>2.743168849250445E-3</v>
+        <v>0</v>
       </c>
       <c r="L58" s="11">
         <v>3</v>
@@ -3791,7 +3914,7 @@
         <v>355</v>
       </c>
       <c r="K59" s="20">
-        <v>8.2272881525996683E-3</v>
+        <v>0</v>
       </c>
       <c r="L59" s="13">
         <v>3</v>
@@ -3887,7 +4010,7 @@
         <v>358</v>
       </c>
       <c r="K62" s="19">
-        <v>0</v>
+        <v>0.11461190658240906</v>
       </c>
       <c r="L62" s="11">
         <v>3</v>
@@ -3951,7 +4074,7 @@
         <v>360</v>
       </c>
       <c r="K64" s="19">
-        <v>2.555591214756789E-3</v>
+        <v>1.2196736544039102E-2</v>
       </c>
       <c r="L64" s="11">
         <v>3</v>
@@ -3983,7 +4106,7 @@
         <v>361</v>
       </c>
       <c r="K65" s="20">
-        <v>8.3601453733513648E-3</v>
+        <v>0</v>
       </c>
       <c r="L65" s="13">
         <v>3</v>
@@ -4015,7 +4138,7 @@
         <v>362</v>
       </c>
       <c r="K66" s="19">
-        <v>1.0798161645068225E-2</v>
+        <v>1.9858826909655954E-2</v>
       </c>
       <c r="L66" s="11">
         <v>3</v>
@@ -4047,7 +4170,7 @@
         <v>363</v>
       </c>
       <c r="K67" s="20">
-        <v>5.5975039444360079E-3</v>
+        <v>0</v>
       </c>
       <c r="L67" s="13">
         <v>3</v>
@@ -4079,7 +4202,7 @@
         <v>364</v>
       </c>
       <c r="K68" s="19">
-        <v>0</v>
+        <v>6.8409390757981484E-2</v>
       </c>
       <c r="L68" s="11">
         <v>3</v>
@@ -4111,7 +4234,7 @@
         <v>365</v>
       </c>
       <c r="K69" s="20">
-        <v>0</v>
+        <v>4.6810849072693367E-2</v>
       </c>
       <c r="L69" s="13">
         <v>3</v>
@@ -4143,7 +4266,7 @@
         <v>366</v>
       </c>
       <c r="K70" s="19">
-        <v>2.6773564597500597E-3</v>
+        <v>1.9140066880505603E-2</v>
       </c>
       <c r="L70" s="11">
         <v>3</v>
@@ -4207,7 +4330,7 @@
         <v>368</v>
       </c>
       <c r="K72" s="19">
-        <v>0</v>
+        <v>1.2437062685473141E-2</v>
       </c>
       <c r="L72" s="11">
         <v>3</v>
@@ -4239,7 +4362,7 @@
         <v>369</v>
       </c>
       <c r="K73" s="20">
-        <v>0</v>
+        <v>3.125965257093492E-3</v>
       </c>
       <c r="L73" s="13">
         <v>3</v>
@@ -4271,7 +4394,7 @@
         <v>370</v>
       </c>
       <c r="K74" s="19">
-        <v>0</v>
+        <v>2.743168849250445E-3</v>
       </c>
       <c r="L74" s="11">
         <v>3</v>
@@ -4303,7 +4426,7 @@
         <v>371</v>
       </c>
       <c r="K75" s="20">
-        <v>4.1385393996688172E-3</v>
+        <v>0</v>
       </c>
       <c r="L75" s="13">
         <v>3</v>
@@ -4335,7 +4458,7 @@
         <v>372</v>
       </c>
       <c r="K76" s="19">
-        <v>0</v>
+        <v>8.2272881525996683E-3</v>
       </c>
       <c r="L76" s="11">
         <v>3</v>
@@ -4367,7 +4490,7 @@
         <v>373</v>
       </c>
       <c r="K77" s="20">
-        <v>7.433349176641707E-3</v>
+        <v>0</v>
       </c>
       <c r="L77" s="13">
         <v>3</v>
@@ -4399,7 +4522,7 @@
         <v>374</v>
       </c>
       <c r="K78" s="19">
-        <v>8.5551176583506684E-3</v>
+        <v>0</v>
       </c>
       <c r="L78" s="11">
         <v>3</v>
@@ -4495,7 +4618,7 @@
         <v>377</v>
       </c>
       <c r="K81" s="20">
-        <v>2.0792031803470522E-2</v>
+        <v>2.8575394437379679E-3</v>
       </c>
       <c r="L81" s="13">
         <v>3</v>
@@ -4527,7 +4650,7 @@
         <v>378</v>
       </c>
       <c r="K82" s="19">
-        <v>0</v>
+        <v>9.6687520245034297E-3</v>
       </c>
       <c r="L82" s="11">
         <v>3</v>
@@ -4559,7 +4682,7 @@
         <v>379</v>
       </c>
       <c r="K83" s="20">
-        <v>0</v>
+        <v>2.555591214756789E-3</v>
       </c>
       <c r="L83" s="13">
         <v>3</v>
@@ -4591,7 +4714,7 @@
         <v>380</v>
       </c>
       <c r="K84" s="19">
-        <v>9.4971961327719959E-3</v>
+        <v>2.0427229045191276E-2</v>
       </c>
       <c r="L84" s="11">
         <v>3</v>
@@ -4623,7 +4746,7 @@
         <v>381</v>
       </c>
       <c r="K85" s="20">
-        <v>8.2166891535415173E-3</v>
+        <v>8.3601453733513648E-3</v>
       </c>
       <c r="L85" s="13">
         <v>3</v>
@@ -4655,7 +4778,7 @@
         <v>382</v>
       </c>
       <c r="K86" s="19">
-        <v>4.9411054678833539E-3</v>
+        <v>2.6051353731447661E-3</v>
       </c>
       <c r="L86" s="11">
         <v>3</v>
@@ -4687,7 +4810,7 @@
         <v>383</v>
       </c>
       <c r="K87" s="20">
-        <v>6.48523173764078E-2</v>
+        <v>9.8265045686242048E-3</v>
       </c>
       <c r="L87" s="13">
         <v>3</v>
@@ -4719,7 +4842,7 @@
         <v>384</v>
       </c>
       <c r="K88" s="19">
-        <v>2.7635534358110711E-2</v>
+        <v>1.0798161645068225E-2</v>
       </c>
       <c r="L88" s="11">
         <v>3</v>
@@ -4751,7 +4874,7 @@
         <v>385</v>
       </c>
       <c r="K89" s="20">
-        <v>0</v>
+        <v>2.9997632217968911E-3</v>
       </c>
       <c r="L89" s="13">
         <v>3</v>
@@ -4783,7 +4906,7 @@
         <v>386</v>
       </c>
       <c r="K90" s="19">
-        <v>0</v>
+        <v>5.5975039444360079E-3</v>
       </c>
       <c r="L90" s="11">
         <v>3</v>
@@ -4847,7 +4970,7 @@
         <v>388</v>
       </c>
       <c r="K92" s="19">
-        <v>1.1404522986532434E-2</v>
+        <v>0</v>
       </c>
       <c r="L92" s="11">
         <v>3</v>
@@ -4879,7 +5002,7 @@
         <v>389</v>
       </c>
       <c r="K93" s="20">
-        <v>0</v>
+        <v>2.6773564597500597E-3</v>
       </c>
       <c r="L93" s="13">
         <v>3</v>
@@ -4911,7 +5034,7 @@
         <v>390</v>
       </c>
       <c r="K94" s="19">
-        <v>9.1161251433802427E-3</v>
+        <v>0</v>
       </c>
       <c r="L94" s="11">
         <v>3</v>
@@ -4943,7 +5066,7 @@
         <v>391</v>
       </c>
       <c r="K95" s="20">
-        <v>3.9630396943345228E-3</v>
+        <v>0</v>
       </c>
       <c r="L95" s="13">
         <v>3</v>
@@ -4975,7 +5098,7 @@
         <v>392</v>
       </c>
       <c r="K96" s="19">
-        <v>1.0445190327597862E-2</v>
+        <v>0</v>
       </c>
       <c r="L96" s="11">
         <v>3</v>
@@ -5007,7 +5130,7 @@
         <v>393</v>
       </c>
       <c r="K97" s="20">
-        <v>1.9257395335195444E-2</v>
+        <v>0</v>
       </c>
       <c r="L97" s="13">
         <v>3</v>
@@ -5039,7 +5162,7 @@
         <v>394</v>
       </c>
       <c r="K98" s="19">
-        <v>0</v>
+        <v>4.1385393996688172E-3</v>
       </c>
       <c r="L98" s="11">
         <v>3</v>
@@ -5103,7 +5226,7 @@
         <v>396</v>
       </c>
       <c r="K100" s="19">
-        <v>0</v>
+        <v>3.1403848255796118E-2</v>
       </c>
       <c r="L100" s="11">
         <v>3</v>
@@ -5135,7 +5258,7 @@
         <v>397</v>
       </c>
       <c r="K101" s="20">
-        <v>0</v>
+        <v>7.433349176641707E-3</v>
       </c>
       <c r="L101" s="13">
         <v>3</v>
@@ -5167,7 +5290,7 @@
         <v>398</v>
       </c>
       <c r="K102" s="19">
-        <v>0</v>
+        <v>8.5551176583506684E-3</v>
       </c>
       <c r="L102" s="11">
         <v>3</v>
@@ -5199,7 +5322,7 @@
         <v>399</v>
       </c>
       <c r="K103" s="20">
-        <v>3.3344944013531698E-3</v>
+        <v>0</v>
       </c>
       <c r="L103" s="13">
         <v>3</v>
@@ -5231,7 +5354,7 @@
         <v>400</v>
       </c>
       <c r="K104" s="19">
-        <v>3.851133983348751E-3</v>
+        <v>0</v>
       </c>
       <c r="L104" s="11">
         <v>3</v>
@@ -5263,7 +5386,7 @@
         <v>401</v>
       </c>
       <c r="K105" s="20">
-        <v>0</v>
+        <v>3.3083666362331639E-3</v>
       </c>
       <c r="L105" s="13">
         <v>3</v>
@@ -5295,7 +5418,7 @@
         <v>402</v>
       </c>
       <c r="K106" s="19">
-        <v>0</v>
+        <v>2.0792031803470522E-2</v>
       </c>
       <c r="L106" s="11">
         <v>3</v>
@@ -5327,7 +5450,7 @@
         <v>403</v>
       </c>
       <c r="K107" s="20">
-        <v>3.9121891476905854E-2</v>
+        <v>0</v>
       </c>
       <c r="L107" s="13">
         <v>3</v>
@@ -5359,7 +5482,7 @@
         <v>404</v>
       </c>
       <c r="K108" s="19">
-        <v>3.0040767679252373E-2</v>
+        <v>0</v>
       </c>
       <c r="L108" s="11">
         <v>3</v>
@@ -5391,7 +5514,7 @@
         <v>405</v>
       </c>
       <c r="K109" s="20">
-        <v>3.8710995397140333E-3</v>
+        <v>0</v>
       </c>
       <c r="L109" s="13">
         <v>3</v>
@@ -5423,7 +5546,7 @@
         <v>406</v>
       </c>
       <c r="K110" s="19">
-        <v>1.3937437273071906E-2</v>
+        <v>9.4971961327719959E-3</v>
       </c>
       <c r="L110" s="11">
         <v>3</v>
@@ -5455,7 +5578,7 @@
         <v>407</v>
       </c>
       <c r="K111" s="20">
-        <v>0</v>
+        <v>8.2166891535415173E-3</v>
       </c>
       <c r="L111" s="13">
         <v>3</v>
@@ -5487,7 +5610,7 @@
         <v>408</v>
       </c>
       <c r="K112" s="19">
-        <v>1.1608861828838968E-2</v>
+        <v>4.9411054678833539E-3</v>
       </c>
       <c r="L112" s="11">
         <v>3</v>
@@ -5519,7 +5642,7 @@
         <v>409</v>
       </c>
       <c r="K113" s="20">
-        <v>2.7217243627839539E-3</v>
+        <v>6.48523173764078E-2</v>
       </c>
       <c r="L113" s="13">
         <v>3</v>
@@ -5551,7 +5674,7 @@
         <v>410</v>
       </c>
       <c r="K114" s="19">
-        <v>1.0474768929620557E-2</v>
+        <v>2.7635534358110711E-2</v>
       </c>
       <c r="L114" s="11">
         <v>3</v>
@@ -5583,7 +5706,7 @@
         <v>411</v>
       </c>
       <c r="K115" s="20">
-        <v>1.4128712232818436E-2</v>
+        <v>0</v>
       </c>
       <c r="L115" s="13">
         <v>3</v>
@@ -5615,7 +5738,7 @@
         <v>412</v>
       </c>
       <c r="K116" s="19">
-        <v>9.6717098847056496E-3</v>
+        <v>0</v>
       </c>
       <c r="L116" s="11">
         <v>3</v>
@@ -5679,7 +5802,7 @@
         <v>414</v>
       </c>
       <c r="K118" s="19">
-        <v>0</v>
+        <v>1.1404522986532434E-2</v>
       </c>
       <c r="L118" s="11">
         <v>3</v>
@@ -5701,6 +5824,24 @@
       <c r="E119" s="18">
         <v>1.08E-3</v>
       </c>
+      <c r="H119" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I119" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J119" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="K119" s="20">
+        <v>0</v>
+      </c>
+      <c r="L119" s="13">
+        <v>3</v>
+      </c>
+      <c r="M119" s="12" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B120" s="10" t="s">
@@ -5715,6 +5856,24 @@
       <c r="E120" s="16">
         <v>5.4000000000000001E-4</v>
       </c>
+      <c r="H120" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I120" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J120" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="K120" s="19">
+        <v>0</v>
+      </c>
+      <c r="L120" s="11">
+        <v>3</v>
+      </c>
+      <c r="M120" s="10" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B121" s="12" t="s">
@@ -5729,6 +5888,24 @@
       <c r="E121" s="18">
         <v>1.14E-3</v>
       </c>
+      <c r="H121" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I121" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J121" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="K121" s="20">
+        <v>0</v>
+      </c>
+      <c r="L121" s="13">
+        <v>3</v>
+      </c>
+      <c r="M121" s="12" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B122" s="10" t="s">
@@ -5743,6 +5920,24 @@
       <c r="E122" s="16">
         <v>1.08E-3</v>
       </c>
+      <c r="H122" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I122" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J122" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="K122" s="19">
+        <v>9.1161251433802427E-3</v>
+      </c>
+      <c r="L122" s="11">
+        <v>3</v>
+      </c>
+      <c r="M122" s="10" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B123" s="12" t="s">
@@ -5757,6 +5952,24 @@
       <c r="E123" s="18">
         <v>3.9000000000000003E-3</v>
       </c>
+      <c r="H123" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I123" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J123" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="K123" s="20">
+        <v>3.9630396943345228E-3</v>
+      </c>
+      <c r="L123" s="13">
+        <v>3</v>
+      </c>
+      <c r="M123" s="12" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B124" s="10" t="s">
@@ -5771,6 +5984,24 @@
       <c r="E124" s="16">
         <v>7.2000000000000005E-4</v>
       </c>
+      <c r="H124" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I124" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J124" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="K124" s="19">
+        <v>3.2250535738694462E-3</v>
+      </c>
+      <c r="L124" s="11">
+        <v>3</v>
+      </c>
+      <c r="M124" s="10" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B125" s="12" t="s">
@@ -5785,6 +6016,24 @@
       <c r="E125" s="18">
         <v>2.16E-3</v>
       </c>
+      <c r="H125" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I125" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J125" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="K125" s="20">
+        <v>1.9257395335195444E-2</v>
+      </c>
+      <c r="L125" s="13">
+        <v>3</v>
+      </c>
+      <c r="M125" s="12" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B126" s="10" t="s">
@@ -5799,6 +6048,24 @@
       <c r="E126" s="16">
         <v>1.6800000000000001E-3</v>
       </c>
+      <c r="H126" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I126" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J126" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="K126" s="19">
+        <v>0</v>
+      </c>
+      <c r="L126" s="11">
+        <v>3</v>
+      </c>
+      <c r="M126" s="10" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B127" s="12" t="s">
@@ -5813,6 +6080,24 @@
       <c r="E127" s="18">
         <v>1.6200000000000001E-3</v>
       </c>
+      <c r="H127" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I127" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J127" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="K127" s="20">
+        <v>0</v>
+      </c>
+      <c r="L127" s="13">
+        <v>3</v>
+      </c>
+      <c r="M127" s="12" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B128" s="10" t="s">
@@ -5827,8 +6112,26 @@
       <c r="E128" s="16">
         <v>2.4000000000000002E-3</v>
       </c>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="H128" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I128" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J128" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="K128" s="19">
+        <v>0</v>
+      </c>
+      <c r="L128" s="11">
+        <v>3</v>
+      </c>
+      <c r="M128" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="129" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B129" s="12" t="s">
         <v>208</v>
       </c>
@@ -5841,8 +6144,26 @@
       <c r="E129" s="18">
         <v>1.6800000000000001E-3</v>
       </c>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="H129" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I129" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J129" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="K129" s="20">
+        <v>0</v>
+      </c>
+      <c r="L129" s="13">
+        <v>3</v>
+      </c>
+      <c r="M129" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="130" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B130" s="10" t="s">
         <v>209</v>
       </c>
@@ -5855,8 +6176,26 @@
       <c r="E130" s="16">
         <v>1.6200000000000001E-3</v>
       </c>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="H130" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I130" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J130" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="K130" s="19">
+        <v>0</v>
+      </c>
+      <c r="L130" s="11">
+        <v>3</v>
+      </c>
+      <c r="M130" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="131" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B131" s="12" t="s">
         <v>210</v>
       </c>
@@ -5869,8 +6208,26 @@
       <c r="E131" s="18">
         <v>1.6800000000000001E-3</v>
       </c>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="H131" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I131" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J131" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="K131" s="20">
+        <v>0</v>
+      </c>
+      <c r="L131" s="13">
+        <v>3</v>
+      </c>
+      <c r="M131" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="132" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B132" s="10" t="s">
         <v>211</v>
       </c>
@@ -5883,8 +6240,26 @@
       <c r="E132" s="16">
         <v>2.4000000000000001E-4</v>
       </c>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="H132" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I132" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J132" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="K132" s="19">
+        <v>0</v>
+      </c>
+      <c r="L132" s="11">
+        <v>3</v>
+      </c>
+      <c r="M132" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="133" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B133" s="12" t="s">
         <v>212</v>
       </c>
@@ -5897,8 +6272,26 @@
       <c r="E133" s="18">
         <v>1.5E-3</v>
       </c>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="H133" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I133" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J133" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="K133" s="20">
+        <v>3.3344944013531698E-3</v>
+      </c>
+      <c r="L133" s="13">
+        <v>3</v>
+      </c>
+      <c r="M133" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="134" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B134" s="10" t="s">
         <v>213</v>
       </c>
@@ -5911,8 +6304,26 @@
       <c r="E134" s="16">
         <v>4.8000000000000001E-4</v>
       </c>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="H134" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I134" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J134" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="K134" s="19">
+        <v>3.851133983348751E-3</v>
+      </c>
+      <c r="L134" s="11">
+        <v>3</v>
+      </c>
+      <c r="M134" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="135" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B135" s="12" t="s">
         <v>214</v>
       </c>
@@ -5925,8 +6336,26 @@
       <c r="E135" s="18">
         <v>1.14E-3</v>
       </c>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="H135" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I135" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J135" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="K135" s="20">
+        <v>0</v>
+      </c>
+      <c r="L135" s="13">
+        <v>3</v>
+      </c>
+      <c r="M135" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="136" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B136" s="10" t="s">
         <v>215</v>
       </c>
@@ -5939,8 +6368,26 @@
       <c r="E136" s="16">
         <v>4.2000000000000002E-4</v>
       </c>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="H136" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I136" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J136" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="K136" s="19">
+        <v>0</v>
+      </c>
+      <c r="L136" s="11">
+        <v>3</v>
+      </c>
+      <c r="M136" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="137" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B137" s="12" t="s">
         <v>216</v>
       </c>
@@ -5953,8 +6400,26 @@
       <c r="E137" s="18">
         <v>1.2E-4</v>
       </c>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="H137" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I137" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J137" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="K137" s="20">
+        <v>1.1382832011715858E-2</v>
+      </c>
+      <c r="L137" s="13">
+        <v>3</v>
+      </c>
+      <c r="M137" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="138" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B138" s="10" t="s">
         <v>217</v>
       </c>
@@ -5967,8 +6432,26 @@
       <c r="E138" s="16">
         <v>8.9999999999999998E-4</v>
       </c>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="H138" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I138" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J138" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="K138" s="19">
+        <v>3.1087110725803442E-3</v>
+      </c>
+      <c r="L138" s="11">
+        <v>3</v>
+      </c>
+      <c r="M138" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="139" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B139" s="12" t="s">
         <v>218</v>
       </c>
@@ -5981,8 +6464,26 @@
       <c r="E139" s="18">
         <v>4.2000000000000002E-4</v>
       </c>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="H139" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I139" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J139" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="K139" s="20">
+        <v>0</v>
+      </c>
+      <c r="L139" s="13">
+        <v>3</v>
+      </c>
+      <c r="M139" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="140" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B140" s="10" t="s">
         <v>219</v>
       </c>
@@ -5995,8 +6496,26 @@
       <c r="E140" s="16">
         <v>7.7999999999999999E-4</v>
       </c>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="H140" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I140" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J140" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="K140" s="19">
+        <v>1.2063632834937122E-2</v>
+      </c>
+      <c r="L140" s="11">
+        <v>3</v>
+      </c>
+      <c r="M140" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="141" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B141" s="12" t="s">
         <v>220</v>
       </c>
@@ -6009,8 +6528,26 @@
       <c r="E141" s="18">
         <v>6.6E-4</v>
       </c>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="H141" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I141" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J141" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="K141" s="20">
+        <v>3.0040767679252373E-2</v>
+      </c>
+      <c r="L141" s="13">
+        <v>3</v>
+      </c>
+      <c r="M141" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="142" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B142" s="10" t="s">
         <v>221</v>
       </c>
@@ -6023,8 +6560,26 @@
       <c r="E142" s="16">
         <v>1.98E-3</v>
       </c>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="H142" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I142" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J142" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="K142" s="19">
+        <v>3.8710995397140333E-3</v>
+      </c>
+      <c r="L142" s="11">
+        <v>3</v>
+      </c>
+      <c r="M142" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="143" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B143" s="12" t="s">
         <v>222</v>
       </c>
@@ -6037,8 +6592,26 @@
       <c r="E143" s="18">
         <v>1.5E-3</v>
       </c>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="H143" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I143" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J143" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="K143" s="20">
+        <v>1.3283750168371385E-2</v>
+      </c>
+      <c r="L143" s="13">
+        <v>3</v>
+      </c>
+      <c r="M143" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="144" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B144" s="10" t="s">
         <v>223</v>
       </c>
@@ -6051,8 +6624,26 @@
       <c r="E144" s="16">
         <v>7.7999999999999999E-4</v>
       </c>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="H144" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I144" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J144" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="K144" s="19">
+        <v>0</v>
+      </c>
+      <c r="L144" s="11">
+        <v>3</v>
+      </c>
+      <c r="M144" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="145" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B145" s="12" t="s">
         <v>224</v>
       </c>
@@ -6065,8 +6656,26 @@
       <c r="E145" s="18">
         <v>1.0200000000000001E-3</v>
       </c>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="H145" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I145" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J145" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="K145" s="20">
+        <v>1.3937437273071906E-2</v>
+      </c>
+      <c r="L145" s="13">
+        <v>3</v>
+      </c>
+      <c r="M145" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="146" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B146" s="10" t="s">
         <v>225</v>
       </c>
@@ -6079,8 +6688,26 @@
       <c r="E146" s="16">
         <v>1.6200000000000001E-3</v>
       </c>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="H146" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I146" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J146" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="K146" s="19">
+        <v>0</v>
+      </c>
+      <c r="L146" s="11">
+        <v>3</v>
+      </c>
+      <c r="M146" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="147" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B147" s="12" t="s">
         <v>226</v>
       </c>
@@ -6093,8 +6720,26 @@
       <c r="E147" s="18">
         <v>1.2600000000000001E-3</v>
       </c>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="H147" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I147" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J147" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="K147" s="20">
+        <v>0</v>
+      </c>
+      <c r="L147" s="13">
+        <v>3</v>
+      </c>
+      <c r="M147" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="148" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B148" s="10" t="s">
         <v>227</v>
       </c>
@@ -6107,8 +6752,26 @@
       <c r="E148" s="16">
         <v>5.4000000000000001E-4</v>
       </c>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="H148" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I148" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J148" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="K148" s="19">
+        <v>2.8913083477138078E-3</v>
+      </c>
+      <c r="L148" s="11">
+        <v>3</v>
+      </c>
+      <c r="M148" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="149" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B149" s="12" t="s">
         <v>228</v>
       </c>
@@ -6121,8 +6784,26 @@
       <c r="E149" s="18">
         <v>1.6200000000000001E-3</v>
       </c>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="H149" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I149" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J149" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="K149" s="20">
+        <v>1.1608861828838968E-2</v>
+      </c>
+      <c r="L149" s="13">
+        <v>3</v>
+      </c>
+      <c r="M149" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="150" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B150" s="10" t="s">
         <v>229</v>
       </c>
@@ -6135,8 +6816,26 @@
       <c r="E150" s="16">
         <v>8.9999999999999998E-4</v>
       </c>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="H150" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I150" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J150" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="K150" s="19">
+        <v>2.7217243627839539E-3</v>
+      </c>
+      <c r="L150" s="11">
+        <v>3</v>
+      </c>
+      <c r="M150" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="151" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B151" s="12" t="s">
         <v>230</v>
       </c>
@@ -6149,8 +6848,26 @@
       <c r="E151" s="18">
         <v>4.8000000000000001E-4</v>
       </c>
-    </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="H151" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I151" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J151" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="K151" s="20">
+        <v>7.8696335564757899E-3</v>
+      </c>
+      <c r="L151" s="13">
+        <v>3</v>
+      </c>
+      <c r="M151" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="152" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B152" s="10" t="s">
         <v>231</v>
       </c>
@@ -6163,8 +6880,26 @@
       <c r="E152" s="16">
         <v>8.9999999999999998E-4</v>
       </c>
-    </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="H152" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I152" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J152" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="K152" s="19">
+        <v>6.6394102006838429E-3</v>
+      </c>
+      <c r="L152" s="11">
+        <v>3</v>
+      </c>
+      <c r="M152" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="153" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B153" s="12" t="s">
         <v>232</v>
       </c>
@@ -6177,8 +6912,26 @@
       <c r="E153" s="18">
         <v>7.2000000000000005E-4</v>
       </c>
-    </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="H153" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I153" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J153" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="K153" s="20">
+        <v>1.4128712232818436E-2</v>
+      </c>
+      <c r="L153" s="13">
+        <v>3</v>
+      </c>
+      <c r="M153" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="154" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B154" s="10" t="s">
         <v>233</v>
       </c>
@@ -6191,8 +6944,26 @@
       <c r="E154" s="16">
         <v>8.4000000000000003E-4</v>
       </c>
-    </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="H154" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I154" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J154" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="K154" s="19">
+        <v>9.6717098847056496E-3</v>
+      </c>
+      <c r="L154" s="11">
+        <v>3</v>
+      </c>
+      <c r="M154" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="155" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B155" s="12" t="s">
         <v>234</v>
       </c>
@@ -6205,8 +6976,26 @@
       <c r="E155" s="18">
         <v>8.9999999999999998E-4</v>
       </c>
-    </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="H155" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I155" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J155" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="K155" s="20">
+        <v>4.2432969484990255E-3</v>
+      </c>
+      <c r="L155" s="13">
+        <v>3</v>
+      </c>
+      <c r="M155" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="156" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B156" s="10" t="s">
         <v>235</v>
       </c>
@@ -6219,8 +7008,26 @@
       <c r="E156" s="16">
         <v>1.2E-4</v>
       </c>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="H156" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I156" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J156" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="K156" s="19">
+        <v>0</v>
+      </c>
+      <c r="L156" s="11">
+        <v>3</v>
+      </c>
+      <c r="M156" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="157" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B157" s="12" t="s">
         <v>236</v>
       </c>
@@ -6233,8 +7040,26 @@
       <c r="E157" s="18">
         <v>9.6000000000000002E-4</v>
       </c>
-    </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="H157" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I157" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J157" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="K157" s="20">
+        <v>0</v>
+      </c>
+      <c r="L157" s="13">
+        <v>3</v>
+      </c>
+      <c r="M157" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="158" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B158" s="10" t="s">
         <v>237</v>
       </c>
@@ -6247,8 +7072,26 @@
       <c r="E158" s="16">
         <v>1.2600000000000001E-3</v>
       </c>
-    </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="H158" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I158" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J158" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="K158" s="19">
+        <v>4.1766711474430999E-2</v>
+      </c>
+      <c r="L158" s="11">
+        <v>3</v>
+      </c>
+      <c r="M158" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="159" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B159" s="12" t="s">
         <v>238</v>
       </c>
@@ -6261,8 +7104,26 @@
       <c r="E159" s="18">
         <v>1.8000000000000001E-4</v>
       </c>
-    </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="H159" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I159" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J159" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="K159" s="20">
+        <v>0</v>
+      </c>
+      <c r="L159" s="13">
+        <v>3</v>
+      </c>
+      <c r="M159" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="160" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B160" s="10" t="s">
         <v>239</v>
       </c>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5607C47F-82F1-45E6-BF83-8930DCC6050E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{483BD31F-A527-4DB7-919E-D86AFA81BB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1690,7 +1690,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB6A504C-2C5B-8D16-1A91-CC82304357AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3235D7C-4152-7640-9173-28EB1B8C4DCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2041,7 +2041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB2F76E9-10F6-43B6-8942-9250CFB316DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B6A3D5-D05C-42E6-A416-7EC4F28AE024}">
   <dimension ref="A1:R213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{483BD31F-A527-4DB7-919E-D86AFA81BB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61144F20-C318-4125-ADE1-E1202043B075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1690,7 +1690,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3235D7C-4152-7640-9173-28EB1B8C4DCC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F83886A5-3EB1-F6A0-08FF-37BC935F2679}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2041,7 +2041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B6A3D5-D05C-42E6-A416-7EC4F28AE024}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0BFF548-219E-4CF2-A235-6E462EE3B451}">
   <dimension ref="A1:R213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61144F20-C318-4125-ADE1-E1202043B075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABE72EDE-BA66-48BB-B215-87F92F7F96A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1690,7 +1690,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F83886A5-3EB1-F6A0-08FF-37BC935F2679}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{654182DD-82FF-18D8-8F71-6BAA5CC2E683}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2041,7 +2041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0BFF548-219E-4CF2-A235-6E462EE3B451}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B05942-24A6-4AA5-A8B6-CD01227E633A}">
   <dimension ref="A1:R213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABE72EDE-BA66-48BB-B215-87F92F7F96A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A40197E-C2C1-40F1-B629-B5FB0ED18D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="grids" sheetId="4" r:id="rId1"/>
-    <sheet name="Veda" sheetId="1" r:id="rId2"/>
-    <sheet name="historical_data_long" sheetId="3" r:id="rId3"/>
+    <sheet name="Veda" sheetId="1" r:id="rId1"/>
+    <sheet name="historical_data_long" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -97,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="80">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -338,1158 +337,15 @@
   <si>
     <t>prc_capact</t>
   </si>
-  <si>
-    <t>pasti</t>
-  </si>
-  <si>
-    <t>ncap_cost</t>
-  </si>
-  <si>
-    <t>efficiency</t>
-  </si>
-  <si>
-    <t>g_CH1-220-CH2-220</t>
-  </si>
-  <si>
-    <t>g_CH11-220-w147557680-220</t>
-  </si>
-  <si>
-    <t>g_CH12-220-w207993342-220</t>
-  </si>
-  <si>
-    <t>g_CH12-380-w207993342-380</t>
-  </si>
-  <si>
-    <t>g_CH13-220-CH12-220</t>
-  </si>
-  <si>
-    <t>g_CH13-220-w52738225-220</t>
-  </si>
-  <si>
-    <t>g_CH14-220-w212722603-220</t>
-  </si>
-  <si>
-    <t>g_CH14-220-w402053379-220</t>
-  </si>
-  <si>
-    <t>g_CH14-380-w50319857-380</t>
-  </si>
-  <si>
-    <t>g_CH15-220-w159527493-220</t>
-  </si>
-  <si>
-    <t>g_CH15-220-w97941869-220</t>
-  </si>
-  <si>
-    <t>g_CH17-380-w71500123-380</t>
-  </si>
-  <si>
-    <t>g_CH18-380-CH16-380</t>
-  </si>
-  <si>
-    <t>g_CH19-220-CH14-220</t>
-  </si>
-  <si>
-    <t>g_CH19-220-CH20-220</t>
-  </si>
-  <si>
-    <t>g_CH2-220-w50319857-220</t>
-  </si>
-  <si>
-    <t>g_CH20-220-CH19-220</t>
-  </si>
-  <si>
-    <t>g_CH21-220-w36348118-220</t>
-  </si>
-  <si>
-    <t>g_CH22-380-CH29-380</t>
-  </si>
-  <si>
-    <t>g_CH23-220-CH24-220</t>
-  </si>
-  <si>
-    <t>g_CH24-220-CH26-220</t>
-  </si>
-  <si>
-    <t>g_CH25-220-w240959264-220</t>
-  </si>
-  <si>
-    <t>g_CH26-220-CH28-220</t>
-  </si>
-  <si>
-    <t>g_CH27-220-CH25-220</t>
-  </si>
-  <si>
-    <t>g_CH27-220-w1086214433-220</t>
-  </si>
-  <si>
-    <t>g_CH28-220-w431234146-220</t>
-  </si>
-  <si>
-    <t>g_CH3-220-w281809991-220</t>
-  </si>
-  <si>
-    <t>g_CH30-380-CH33-380</t>
-  </si>
-  <si>
-    <t>g_CH30-380-w208780268-380</t>
-  </si>
-  <si>
-    <t>g_CH31-220-w132373704-220</t>
-  </si>
-  <si>
-    <t>g_CH32-220-w281803398-220</t>
-  </si>
-  <si>
-    <t>g_CH33-380-CH37-380</t>
-  </si>
-  <si>
-    <t>g_CH34-220-CH35-220</t>
-  </si>
-  <si>
-    <t>g_CH36-220-CH27-220</t>
-  </si>
-  <si>
-    <t>g_CH36-220-CH39-220</t>
-  </si>
-  <si>
-    <t>g_CH37-380-w207991759-380</t>
-  </si>
-  <si>
-    <t>g_CH38-220-CH39-220</t>
-  </si>
-  <si>
-    <t>g_CH38-220-w1092884227-220</t>
-  </si>
-  <si>
-    <t>g_CH39-220-CH36-220</t>
-  </si>
-  <si>
-    <t>g_CH4-220-CH9-220</t>
-  </si>
-  <si>
-    <t>g_CH4-220-w92873516-220</t>
-  </si>
-  <si>
-    <t>g_CH40-220-CH35-220</t>
-  </si>
-  <si>
-    <t>g_CH41-380-w207993342-380</t>
-  </si>
-  <si>
-    <t>g_CH41-380-w281804158-380</t>
-  </si>
-  <si>
-    <t>g_CH42-220-w969811258-220</t>
-  </si>
-  <si>
-    <t>g_CH43-220-CH44-220</t>
-  </si>
-  <si>
-    <t>g_CH43-220-w402055336-220</t>
-  </si>
-  <si>
-    <t>g_CH44-220-w234983117-220</t>
-  </si>
-  <si>
-    <t>g_CH45-220-CH29-220</t>
-  </si>
-  <si>
-    <t>g_CH46-220-CH47-220</t>
-  </si>
-  <si>
-    <t>g_CH47-220-w212722603-220</t>
-  </si>
-  <si>
-    <t>g_CH49-225-CH48-225</t>
-  </si>
-  <si>
-    <t>g_CH5-220-w89977424-220</t>
-  </si>
-  <si>
-    <t>g_CH50-220-w281804158-220</t>
-  </si>
-  <si>
-    <t>g_CH53-225-CH49-225</t>
-  </si>
-  <si>
-    <t>g_CH53-225-w55698557-225</t>
-  </si>
-  <si>
-    <t>g_CH56-220-CH58-220</t>
-  </si>
-  <si>
-    <t>g_CH56-220-w281815404-220</t>
-  </si>
-  <si>
-    <t>g_CH59-220-w281800404-220</t>
-  </si>
-  <si>
-    <t>g_CH6-220-CH3-220</t>
-  </si>
-  <si>
-    <t>g_CH60-225-CH53-225</t>
-  </si>
-  <si>
-    <t>g_CH7-220-w89405664-220</t>
-  </si>
-  <si>
-    <t>g_CH9-220-w455120191-220</t>
-  </si>
-  <si>
-    <t>g_r5378910-220-w1105061707-220</t>
-  </si>
-  <si>
-    <t>g_r7933294-380-CH30-380</t>
-  </si>
-  <si>
-    <t>g_r9310861-220-w11282314-220</t>
-  </si>
-  <si>
-    <t>g_w100662075-220-w210568055-220</t>
-  </si>
-  <si>
-    <t>g_w108257952-220-w33271433-220</t>
-  </si>
-  <si>
-    <t>g_w108257952-220-w35002638-220</t>
-  </si>
-  <si>
-    <t>g_w109037817-220-CH2-220</t>
-  </si>
-  <si>
-    <t>g_w109037817-380-w397960460-380</t>
-  </si>
-  <si>
-    <t>g_w1105061707-220-CH14-220</t>
-  </si>
-  <si>
-    <t>g_w1105061707-220-w402053379-220</t>
-  </si>
-  <si>
-    <t>g_w1105061707-220-w402055336-220</t>
-  </si>
-  <si>
-    <t>g_w111162936-220-CH31-220</t>
-  </si>
-  <si>
-    <t>g_w111162936-220-w55698557-220</t>
-  </si>
-  <si>
-    <t>g_w111162936-380-w936521586-380</t>
-  </si>
-  <si>
-    <t>g_w11282314-220-CH12-220</t>
-  </si>
-  <si>
-    <t>g_w11282314-220-CH6-220</t>
-  </si>
-  <si>
-    <t>g_w1208713169-220-w207993342-220</t>
-  </si>
-  <si>
-    <t>g_w1208713169-220-w212498548-220</t>
-  </si>
-  <si>
-    <t>g_w122720993-220-w1105061707-220</t>
-  </si>
-  <si>
-    <t>g_w127004407-380-CH14-380</t>
-  </si>
-  <si>
-    <t>g_w127004407-380-w1105061707-380</t>
-  </si>
-  <si>
-    <t>g_w127004407-380-w50319857-380</t>
-  </si>
-  <si>
-    <t>g_w1284913429-220-w165513396-220</t>
-  </si>
-  <si>
-    <t>g_w1327084723-220-CH42-220</t>
-  </si>
-  <si>
-    <t>g_w1327084723-220-w281800404-220</t>
-  </si>
-  <si>
-    <t>g_w140873735-220-CH23-220</t>
-  </si>
-  <si>
-    <t>g_w140873735-220-w130198336-220</t>
-  </si>
-  <si>
-    <t>g_w140873735-220-w35002638-220</t>
-  </si>
-  <si>
-    <t>g_w146225999-220-w35002638-220</t>
-  </si>
-  <si>
-    <t>g_w147557680-220-CH14-220</t>
-  </si>
-  <si>
-    <t>g_w147714395-220-CH3-220</t>
-  </si>
-  <si>
-    <t>g_w147714395-220-w22899676-220</t>
-  </si>
-  <si>
-    <t>g_w147714395-380-CH17-380</t>
-  </si>
-  <si>
-    <t>g_w147714395-380-w192677427-380</t>
-  </si>
-  <si>
-    <t>g_w148015471-220-r9310861-220</t>
-  </si>
-  <si>
-    <t>g_w148015471-220-w31308888-220</t>
-  </si>
-  <si>
-    <t>g_w159527493-220-w240959264-220</t>
-  </si>
-  <si>
-    <t>g_w161853746-220-r5378910-220</t>
-  </si>
-  <si>
-    <t>g_w161853746-220-w1105061707-220</t>
-  </si>
-  <si>
-    <t>g_w165254212-220-w147557680-220</t>
-  </si>
-  <si>
-    <t>g_w165513396-220-w33271433-220</t>
-  </si>
-  <si>
-    <t>g_w177392130-220-CH51-220</t>
-  </si>
-  <si>
-    <t>g_w177392130-220-CH52-220</t>
-  </si>
-  <si>
-    <t>g_w177392130-220-CH57-220</t>
-  </si>
-  <si>
-    <t>g_w177392130-400-CH51-400</t>
-  </si>
-  <si>
-    <t>g_w190819048-220-CH7-220</t>
-  </si>
-  <si>
-    <t>g_w190819048-220-w50319857-220</t>
-  </si>
-  <si>
-    <t>g_w192677427-220-CH13-220</t>
-  </si>
-  <si>
-    <t>g_w192677427-220-CH18-220</t>
-  </si>
-  <si>
-    <t>g_w192677427-220-w147714395-220</t>
-  </si>
-  <si>
-    <t>g_w192677427-220-w240575085-220</t>
-  </si>
-  <si>
-    <t>g_w192677427-380-CH16-380</t>
-  </si>
-  <si>
-    <t>g_w194258388-220-w122720993-220</t>
-  </si>
-  <si>
-    <t>g_w207993342-220-CH22-220</t>
-  </si>
-  <si>
-    <t>g_w208780268-380-w207993342-380</t>
-  </si>
-  <si>
-    <t>g_w209324991-220-w758315582-220</t>
-  </si>
-  <si>
-    <t>g_w210568055-220-w192677427-220</t>
-  </si>
-  <si>
-    <t>g_w210568055-220-w365556107-220</t>
-  </si>
-  <si>
-    <t>g_w210568055-380-CH16-380</t>
-  </si>
-  <si>
-    <t>g_w210568055-380-w71500123-380</t>
-  </si>
-  <si>
-    <t>g_w211907009-220-CH21-220</t>
-  </si>
-  <si>
-    <t>g_w211907009-220-w455120191-220</t>
-  </si>
-  <si>
-    <t>g_w212722603-220-w234983117-220</t>
-  </si>
-  <si>
-    <t>g_w212722603-220-w236819191-220</t>
-  </si>
-  <si>
-    <t>g_w212722603-380-w234983117-380</t>
-  </si>
-  <si>
-    <t>g_w22899676-220-CH3-220</t>
-  </si>
-  <si>
-    <t>g_w232662311-220-w111162936-220</t>
-  </si>
-  <si>
-    <t>g_w236819191-220-CH47-220</t>
-  </si>
-  <si>
-    <t>g_w236819191-220-w228003081-220</t>
-  </si>
-  <si>
-    <t>g_w238138373-380-w260211728-380</t>
-  </si>
-  <si>
-    <t>g_w239937062-220-CH52-220</t>
-  </si>
-  <si>
-    <t>g_w239937062-220-w132373704-220</t>
-  </si>
-  <si>
-    <t>g_w240575085-220-CH6-220</t>
-  </si>
-  <si>
-    <t>g_w240959264-220-CH20-220</t>
-  </si>
-  <si>
-    <t>g_w240959264-220-CH27-220</t>
-  </si>
-  <si>
-    <t>g_w240959264-220-w209324991-220</t>
-  </si>
-  <si>
-    <t>g_w242269161-220-CH14-220</t>
-  </si>
-  <si>
-    <t>g_w260211728-380-w936521586-380</t>
-  </si>
-  <si>
-    <t>g_w26166640-220-w758315582-220</t>
-  </si>
-  <si>
-    <t>g_w26843160-220-w92798668-220</t>
-  </si>
-  <si>
-    <t>g_w27107779-220-w147714395-220</t>
-  </si>
-  <si>
-    <t>g_w27435934-220-w109037817-220</t>
-  </si>
-  <si>
-    <t>g_w27435934-220-w30350721-220</t>
-  </si>
-  <si>
-    <t>g_w281799252-220-w52738225-220</t>
-  </si>
-  <si>
-    <t>g_w281800404-220-CH59-220</t>
-  </si>
-  <si>
-    <t>g_w281800404-220-w281815404-220</t>
-  </si>
-  <si>
-    <t>g_w281803398-220-CH50-220</t>
-  </si>
-  <si>
-    <t>g_w281809991-220-w26843160-220</t>
-  </si>
-  <si>
-    <t>g_w281815404-220-CH50-220</t>
-  </si>
-  <si>
-    <t>g_w281815404-220-CH58-220</t>
-  </si>
-  <si>
-    <t>g_w281815404-220-w35487135-220</t>
-  </si>
-  <si>
-    <t>g_w281822905-220-CH38-220</t>
-  </si>
-  <si>
-    <t>g_w281822905-220-CH42-220</t>
-  </si>
-  <si>
-    <t>g_w30350721-220-w356292116-220</t>
-  </si>
-  <si>
-    <t>g_w31308888-220-w89977424-220</t>
-  </si>
-  <si>
-    <t>g_w33271433-220-CH5-220</t>
-  </si>
-  <si>
-    <t>g_w35002638-220-CH15-220</t>
-  </si>
-  <si>
-    <t>g_w35002638-220-w140873735-220</t>
-  </si>
-  <si>
-    <t>g_w35002638-220-w242269161-220</t>
-  </si>
-  <si>
-    <t>g_w35002638-220-w281799252-220</t>
-  </si>
-  <si>
-    <t>g_w35002638-380-w52738225-380</t>
-  </si>
-  <si>
-    <t>g_w356292116-220-CH11-220</t>
-  </si>
-  <si>
-    <t>g_w356292116-220-w146225999-220</t>
-  </si>
-  <si>
-    <t>g_w356292116-220-w35002638-220</t>
-  </si>
-  <si>
-    <t>g_w356292116-220-w50319857-220</t>
-  </si>
-  <si>
-    <t>g_w356292116-380-w35002638-380</t>
-  </si>
-  <si>
-    <t>g_w356292116-380-w50319857-380</t>
-  </si>
-  <si>
-    <t>g_w35840165-380-w98648381-380</t>
-  </si>
-  <si>
-    <t>g_w364949845-220-w969819301-220</t>
-  </si>
-  <si>
-    <t>g_w364949845-380-CH34-380</t>
-  </si>
-  <si>
-    <t>g_w365556107-220-w71500123-220</t>
-  </si>
-  <si>
-    <t>g_w391577741-220-w391576135-220</t>
-  </si>
-  <si>
-    <t>g_w397960460-380-w50319857-380</t>
-  </si>
-  <si>
-    <t>g_w402053379-220-w190819048-220</t>
-  </si>
-  <si>
-    <t>g_w431234146-220-CH35-220</t>
-  </si>
-  <si>
-    <t>g_w431234146-220-w969811258-220</t>
-  </si>
-  <si>
-    <t>g_w44496892-220-CH31-220</t>
-  </si>
-  <si>
-    <t>g_w50319857-220-w98648381-220</t>
-  </si>
-  <si>
-    <t>g_w50319857-380-w35840165-380</t>
-  </si>
-  <si>
-    <t>g_w50319857-380-w98648381-380</t>
-  </si>
-  <si>
-    <t>g_w50561341-220-w147714395-220</t>
-  </si>
-  <si>
-    <t>g_w50561341-220-w87281514-220</t>
-  </si>
-  <si>
-    <t>g_w52738225-220-CH13-220</t>
-  </si>
-  <si>
-    <t>g_w52738225-380-CH12-380</t>
-  </si>
-  <si>
-    <t>g_w55695765-220-w111162936-220</t>
-  </si>
-  <si>
-    <t>g_w55698557-220-w194258388-220</t>
-  </si>
-  <si>
-    <t>g_w71500123-220-CH21-220</t>
-  </si>
-  <si>
-    <t>g_w71500123-380-w207993342-380</t>
-  </si>
-  <si>
-    <t>g_w758943072-220-w234983117-220</t>
-  </si>
-  <si>
-    <t>g_w802058337-220-w234983117-220</t>
-  </si>
-  <si>
-    <t>g_w802058337-220-w758943072-220</t>
-  </si>
-  <si>
-    <t>g_w802058337-225-CH60-225</t>
-  </si>
-  <si>
-    <t>g_w83861269-220-CH9-220</t>
-  </si>
-  <si>
-    <t>g_w89405664-220-w165513396-220</t>
-  </si>
-  <si>
-    <t>g_w89977424-220-CH5-220</t>
-  </si>
-  <si>
-    <t>g_w92798668-220-CH4-220</t>
-  </si>
-  <si>
-    <t>g_w92798668-220-w192677427-220</t>
-  </si>
-  <si>
-    <t>g_w92798668-220-w455120191-220</t>
-  </si>
-  <si>
-    <t>g_w936521586-380-w234983117-380</t>
-  </si>
-  <si>
-    <t>g_w969811258-380-w35002638-380</t>
-  </si>
-  <si>
-    <t>g_w969819301-220-CH46-220</t>
-  </si>
-  <si>
-    <t>g_w969819301-220-w391577741-220</t>
-  </si>
-  <si>
-    <t>g_w969819301-380-w364949845-380</t>
-  </si>
-  <si>
-    <t>g_w98648381-220-w165513396-220</t>
-  </si>
-  <si>
-    <t>g_w98648381-220-w27107779-220</t>
-  </si>
-  <si>
-    <t>g_w98648381-380-w147714395-380</t>
-  </si>
-  <si>
-    <t>g_w98648381-380-w165513396-380</t>
-  </si>
-  <si>
-    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
-  </si>
-  <si>
-    <t>~tfm_ins-ts</t>
-  </si>
-  <si>
-    <t>commodity</t>
-  </si>
-  <si>
-    <t>lim_type</t>
-  </si>
-  <si>
-    <t>flo_shar</t>
-  </si>
-  <si>
-    <t>elc_demand</t>
-  </si>
-  <si>
-    <t>e_CH1-220</t>
-  </si>
-  <si>
-    <t>lo</t>
-  </si>
-  <si>
-    <t>e_CH11-220</t>
-  </si>
-  <si>
-    <t>e_CH12-220</t>
-  </si>
-  <si>
-    <t>e_CH13-220</t>
-  </si>
-  <si>
-    <t>e_CH14-220</t>
-  </si>
-  <si>
-    <t>e_CH15-220</t>
-  </si>
-  <si>
-    <t>e_CH16-380</t>
-  </si>
-  <si>
-    <t>e_CH17-380</t>
-  </si>
-  <si>
-    <t>e_CH18-220</t>
-  </si>
-  <si>
-    <t>e_CH19-220</t>
-  </si>
-  <si>
-    <t>e_CH2-220</t>
-  </si>
-  <si>
-    <t>e_CH20-220</t>
-  </si>
-  <si>
-    <t>e_CH21-220</t>
-  </si>
-  <si>
-    <t>e_CH22-220</t>
-  </si>
-  <si>
-    <t>e_CH23-220</t>
-  </si>
-  <si>
-    <t>e_CH24-220</t>
-  </si>
-  <si>
-    <t>e_CH25-220</t>
-  </si>
-  <si>
-    <t>e_CH26-220</t>
-  </si>
-  <si>
-    <t>e_CH27-220</t>
-  </si>
-  <si>
-    <t>e_CH28-220</t>
-  </si>
-  <si>
-    <t>e_CH29-220</t>
-  </si>
-  <si>
-    <t>e_CH3-220</t>
-  </si>
-  <si>
-    <t>e_CH30-380</t>
-  </si>
-  <si>
-    <t>e_CH31-220</t>
-  </si>
-  <si>
-    <t>e_CH32-220</t>
-  </si>
-  <si>
-    <t>e_CH33-380</t>
-  </si>
-  <si>
-    <t>e_CH34-220</t>
-  </si>
-  <si>
-    <t>e_CH35-220</t>
-  </si>
-  <si>
-    <t>e_CH36-220</t>
-  </si>
-  <si>
-    <t>e_CH37-380</t>
-  </si>
-  <si>
-    <t>e_CH38-220</t>
-  </si>
-  <si>
-    <t>e_CH39-220</t>
-  </si>
-  <si>
-    <t>e_CH4-220</t>
-  </si>
-  <si>
-    <t>e_CH40-220</t>
-  </si>
-  <si>
-    <t>e_CH41-380</t>
-  </si>
-  <si>
-    <t>e_CH42-220</t>
-  </si>
-  <si>
-    <t>e_CH43-220</t>
-  </si>
-  <si>
-    <t>e_CH44-220</t>
-  </si>
-  <si>
-    <t>e_CH45-220</t>
-  </si>
-  <si>
-    <t>e_CH46-220</t>
-  </si>
-  <si>
-    <t>e_CH47-220</t>
-  </si>
-  <si>
-    <t>e_CH48-225</t>
-  </si>
-  <si>
-    <t>e_CH49-225</t>
-  </si>
-  <si>
-    <t>e_CH5-220</t>
-  </si>
-  <si>
-    <t>e_CH50-220</t>
-  </si>
-  <si>
-    <t>e_CH51-220</t>
-  </si>
-  <si>
-    <t>e_CH52-220</t>
-  </si>
-  <si>
-    <t>e_CH53-225</t>
-  </si>
-  <si>
-    <t>e_CH56-220</t>
-  </si>
-  <si>
-    <t>e_CH57-220</t>
-  </si>
-  <si>
-    <t>e_CH58-220</t>
-  </si>
-  <si>
-    <t>e_CH59-220</t>
-  </si>
-  <si>
-    <t>e_CH6-220</t>
-  </si>
-  <si>
-    <t>e_CH60-225</t>
-  </si>
-  <si>
-    <t>e_CH7-220</t>
-  </si>
-  <si>
-    <t>e_CH9-220</t>
-  </si>
-  <si>
-    <t>e_r5378910-220</t>
-  </si>
-  <si>
-    <t>e_r7933294-380</t>
-  </si>
-  <si>
-    <t>e_r9310861-220</t>
-  </si>
-  <si>
-    <t>e_w100662075-220</t>
-  </si>
-  <si>
-    <t>e_w108257952-220</t>
-  </si>
-  <si>
-    <t>e_w1086214433-220</t>
-  </si>
-  <si>
-    <t>e_w109037817-220</t>
-  </si>
-  <si>
-    <t>e_w1092884227-220</t>
-  </si>
-  <si>
-    <t>e_w1105061707-220</t>
-  </si>
-  <si>
-    <t>e_w111162936-220</t>
-  </si>
-  <si>
-    <t>e_w11282314-220</t>
-  </si>
-  <si>
-    <t>e_w1208713169-220</t>
-  </si>
-  <si>
-    <t>e_w122720993-220</t>
-  </si>
-  <si>
-    <t>e_w127004407-380</t>
-  </si>
-  <si>
-    <t>e_w1284913429-220</t>
-  </si>
-  <si>
-    <t>e_w130198336-220</t>
-  </si>
-  <si>
-    <t>e_w132373704-220</t>
-  </si>
-  <si>
-    <t>e_w1327084723-220</t>
-  </si>
-  <si>
-    <t>e_w140873735-220</t>
-  </si>
-  <si>
-    <t>e_w146225999-220</t>
-  </si>
-  <si>
-    <t>e_w147557680-220</t>
-  </si>
-  <si>
-    <t>e_w147714395-220</t>
-  </si>
-  <si>
-    <t>e_w148015471-220</t>
-  </si>
-  <si>
-    <t>e_w159527493-220</t>
-  </si>
-  <si>
-    <t>e_w161853746-220</t>
-  </si>
-  <si>
-    <t>e_w165254212-220</t>
-  </si>
-  <si>
-    <t>e_w165513396-220</t>
-  </si>
-  <si>
-    <t>e_w177392130-220</t>
-  </si>
-  <si>
-    <t>e_w190819048-220</t>
-  </si>
-  <si>
-    <t>e_w192677427-220</t>
-  </si>
-  <si>
-    <t>e_w194258388-220</t>
-  </si>
-  <si>
-    <t>e_w207991759-380</t>
-  </si>
-  <si>
-    <t>e_w207993342-220</t>
-  </si>
-  <si>
-    <t>e_w208780268-380</t>
-  </si>
-  <si>
-    <t>e_w209324991-220</t>
-  </si>
-  <si>
-    <t>e_w210568055-220</t>
-  </si>
-  <si>
-    <t>e_w211907009-220</t>
-  </si>
-  <si>
-    <t>e_w212498548-220</t>
-  </si>
-  <si>
-    <t>e_w212722603-220</t>
-  </si>
-  <si>
-    <t>e_w228003081-220</t>
-  </si>
-  <si>
-    <t>e_w22899676-220</t>
-  </si>
-  <si>
-    <t>e_w232662311-220</t>
-  </si>
-  <si>
-    <t>e_w234983117-220</t>
-  </si>
-  <si>
-    <t>e_w236819191-220</t>
-  </si>
-  <si>
-    <t>e_w238138373-380</t>
-  </si>
-  <si>
-    <t>e_w239937062-220</t>
-  </si>
-  <si>
-    <t>e_w240575085-220</t>
-  </si>
-  <si>
-    <t>e_w240959264-220</t>
-  </si>
-  <si>
-    <t>e_w242269161-220</t>
-  </si>
-  <si>
-    <t>e_w260211728-225</t>
-  </si>
-  <si>
-    <t>e_w26166640-220</t>
-  </si>
-  <si>
-    <t>e_w26843160-220</t>
-  </si>
-  <si>
-    <t>e_w27107779-220</t>
-  </si>
-  <si>
-    <t>e_w27435934-220</t>
-  </si>
-  <si>
-    <t>e_w281799252-220</t>
-  </si>
-  <si>
-    <t>e_w281800404-220</t>
-  </si>
-  <si>
-    <t>e_w281803398-220</t>
-  </si>
-  <si>
-    <t>e_w281804158-220</t>
-  </si>
-  <si>
-    <t>e_w281809991-220</t>
-  </si>
-  <si>
-    <t>e_w281815404-220</t>
-  </si>
-  <si>
-    <t>e_w281822905-220</t>
-  </si>
-  <si>
-    <t>e_w30350721-220</t>
-  </si>
-  <si>
-    <t>e_w31308888-220</t>
-  </si>
-  <si>
-    <t>e_w33271433-220</t>
-  </si>
-  <si>
-    <t>e_w35002638-220</t>
-  </si>
-  <si>
-    <t>e_w35487135-220</t>
-  </si>
-  <si>
-    <t>e_w356292116-220</t>
-  </si>
-  <si>
-    <t>e_w35840165-380</t>
-  </si>
-  <si>
-    <t>e_w36348118-220</t>
-  </si>
-  <si>
-    <t>e_w364949845-220</t>
-  </si>
-  <si>
-    <t>e_w365556107-220</t>
-  </si>
-  <si>
-    <t>e_w391576135-220</t>
-  </si>
-  <si>
-    <t>e_w391577741-220</t>
-  </si>
-  <si>
-    <t>e_w397960460-380</t>
-  </si>
-  <si>
-    <t>e_w402053379-220</t>
-  </si>
-  <si>
-    <t>e_w402055336-220</t>
-  </si>
-  <si>
-    <t>e_w431234146-220</t>
-  </si>
-  <si>
-    <t>e_w44496892-220</t>
-  </si>
-  <si>
-    <t>e_w455120191-220</t>
-  </si>
-  <si>
-    <t>e_w50319857-220</t>
-  </si>
-  <si>
-    <t>e_w50561341-220</t>
-  </si>
-  <si>
-    <t>e_w52738225-220</t>
-  </si>
-  <si>
-    <t>e_w55695765-220</t>
-  </si>
-  <si>
-    <t>e_w55698557-220</t>
-  </si>
-  <si>
-    <t>e_w71500123-220</t>
-  </si>
-  <si>
-    <t>e_w758315582-220</t>
-  </si>
-  <si>
-    <t>e_w758943072-220</t>
-  </si>
-  <si>
-    <t>e_w802058337-220</t>
-  </si>
-  <si>
-    <t>e_w83861269-220</t>
-  </si>
-  <si>
-    <t>e_w87281514-220</t>
-  </si>
-  <si>
-    <t>e_w88901626-380</t>
-  </si>
-  <si>
-    <t>e_w89405664-220</t>
-  </si>
-  <si>
-    <t>e_w89977424-220</t>
-  </si>
-  <si>
-    <t>e_w92798668-220</t>
-  </si>
-  <si>
-    <t>e_w92873516-220</t>
-  </si>
-  <si>
-    <t>e_w936521586-380</t>
-  </si>
-  <si>
-    <t>e_w969811258-220</t>
-  </si>
-  <si>
-    <t>e_w969819301-220</t>
-  </si>
-  <si>
-    <t>e_w97941869-220</t>
-  </si>
-  <si>
-    <t>e_w98648381-220</t>
-  </si>
-  <si>
-    <t>~tfm_topins</t>
-  </si>
-  <si>
-    <t>io</t>
-  </si>
-  <si>
-    <t>e_CH1-220,e_CH11-220,e_CH12-220,e_CH13-220,e_CH14-220,e_CH15-220,e_CH16-380,e_CH17-380,e_CH18-220,e_CH19-220,e_CH2-220,e_CH20-220,e_CH21-220,e_CH22-220,e_CH23-220,e_CH24-220,e_CH25-220,e_CH26-220,e_CH27-220,e_CH28-220,e_CH29-220,e_CH3-220,e_CH30-380,e_CH31-220,e_CH32-220,e_CH33-380,e_CH34-220,e_CH35-220,e_CH36-220,e_CH37-380,e_CH38-220,e_CH39-220,e_CH4-220,e_CH40-220,e_CH41-380,e_CH42-220,e_CH43-220,e_CH44-220,e_CH45-220,e_CH46-220,e_CH47-220,e_CH48-225,e_CH49-225,e_CH5-220,e_CH50-220,e_CH51-220,e_CH52-220,e_CH53-225,e_CH56-220,e_CH57-220,e_CH58-220,e_CH59-220,e_CH6-220,e_CH60-225,e_CH7-220,e_CH9-220,e_r5378910-220,e_r7933294-380,e_r9310861-220,e_w100662075-220,e_w108257952-220,e_w1086214433-220,e_w109037817-220,e_w1092884227-220,e_w1105061707-220,e_w111162936-220,e_w11282314-220,e_w1208713169-220,e_w122720993-220,e_w127004407-380,e_w1284913429-220,e_w130198336-220,e_w132373704-220,e_w1327084723-220,e_w140873735-220,e_w146225999-220,e_w147557680-220,e_w147714395-220,e_w148015471-220,e_w159527493-220,e_w161853746-220,e_w165254212-220,e_w165513396-220,e_w177392130-220,e_w190819048-220,e_w192677427-220,e_w194258388-220,e_w207991759-380,e_w207993342-220,e_w208780268-380,e_w209324991-220,e_w210568055-220,e_w211907009-220,e_w212498548-220,e_w212722603-220,e_w228003081-220,e_w22899676-220,e_w232662311-220,e_w234983117-220,e_w236819191-220,e_w238138373-380,e_w239937062-220,e_w240575085-220,e_w240959264-220,e_w242269161-220,e_w260211728-225,e_w26166640-220,e_w26843160-220,e_w27107779-220,e_w27435934-220,e_w281799252-220,e_w281800404-220,e_w281803398-220,e_w281804158-220,e_w281809991-220,e_w281815404-220,e_w281822905-220,e_w30350721-220,e_w31308888-220,e_w33271433-220,e_w35002638-220,e_w35487135-220,e_w356292116-220,e_w35840165-380,e_w36348118-220,e_w364949845-220,e_w365556107-220,e_w391576135-220,e_w391577741-220,e_w397960460-380,e_w402053379-220,e_w402055336-220,e_w431234146-220,e_w44496892-220,e_w455120191-220,e_w50319857-220,e_w50561341-220,e_w52738225-220,e_w55695765-220,e_w55698557-220,e_w71500123-220,e_w758315582-220,e_w758943072-220,e_w802058337-220,e_w83861269-220,e_w87281514-220,e_w88901626-380,e_w89405664-220,e_w89977424-220,e_w92798668-220,e_w92873516-220,e_w936521586-380,e_w969811258-220,e_w969819301-220,e_w97941869-220,e_w98648381-220</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1543,15 +399,8 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1573,12 +422,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF7F9FC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF19375F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1626,7 +469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1643,15 +486,6 @@
     <xf numFmtId="2" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1668,61 +502,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>296862</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{654182DD-82FF-18D8-8F71-6BAA5CC2E683}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5245100" y="12700"/>
-          <a:ext cx="990600" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2041,5858 +820,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B05942-24A6-4AA5-A8B6-CD01227E633A}">
-  <dimension ref="A1:R213"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="28.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.59765625" customWidth="1"/>
-    <col min="8" max="9" width="10.59765625" customWidth="1"/>
-    <col min="10" max="10" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="10.59765625" customWidth="1"/>
-    <col min="16" max="16" width="10.59765625" customWidth="1"/>
-    <col min="17" max="17" width="30.59765625" customWidth="1"/>
-    <col min="18" max="18" width="10.59765625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-    </row>
-    <row r="2" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="K3" s="9">
-        <v>2022</v>
-      </c>
-      <c r="L3" s="9">
-        <v>0</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B4" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D4" s="15">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E4" s="16">
-        <v>1.2E-4</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="K4" s="19">
-        <v>0</v>
-      </c>
-      <c r="L4" s="11">
-        <v>3</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B5" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D5" s="17">
-        <v>16.5</v>
-      </c>
-      <c r="E5" s="18">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="K5" s="20">
-        <v>0</v>
-      </c>
-      <c r="L5" s="13">
-        <v>3</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B6" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D6" s="15">
-        <v>102.30000000000001</v>
-      </c>
-      <c r="E6" s="16">
-        <v>5.5799999999999999E-3</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="K6" s="19">
-        <v>0</v>
-      </c>
-      <c r="L6" s="11">
-        <v>3</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B7" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="13">
-        <v>1.6981030000000001</v>
-      </c>
-      <c r="D7" s="17">
-        <v>102.30000000000001</v>
-      </c>
-      <c r="E7" s="18">
-        <v>5.5799999999999999E-3</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="K7" s="20">
-        <v>6.653953013344956E-3</v>
-      </c>
-      <c r="L7" s="13">
-        <v>3</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B8" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D8" s="15">
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="E8" s="16">
-        <v>3.6000000000000002E-4</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="K8" s="19">
-        <v>4.0473387100989806E-3</v>
-      </c>
-      <c r="L8" s="11">
-        <v>3</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B9" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D9" s="17">
-        <v>19.8</v>
-      </c>
-      <c r="E9" s="18">
-        <v>1.08E-3</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="K9" s="20">
-        <v>0</v>
-      </c>
-      <c r="L9" s="13">
-        <v>3</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B10" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D10" s="15">
-        <v>116.60000000000001</v>
-      </c>
-      <c r="E10" s="16">
-        <v>6.3600000000000002E-3</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="K10" s="19">
-        <v>0</v>
-      </c>
-      <c r="L10" s="11">
-        <v>3</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B11" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D11" s="17">
-        <v>18.700000000000003</v>
-      </c>
-      <c r="E11" s="18">
-        <v>1.0200000000000001E-3</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="K11" s="20">
-        <v>8.7190324112261693E-3</v>
-      </c>
-      <c r="L11" s="13">
-        <v>3</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B12" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="11">
-        <v>1.6981030000000001</v>
-      </c>
-      <c r="D12" s="15">
-        <v>88</v>
-      </c>
-      <c r="E12" s="16">
-        <v>4.8000000000000004E-3</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="K12" s="19">
-        <v>0</v>
-      </c>
-      <c r="L12" s="11">
-        <v>3</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B13" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D13" s="17">
-        <v>37.400000000000006</v>
-      </c>
-      <c r="E13" s="18">
-        <v>2.0400000000000001E-3</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="K13" s="20">
-        <v>0</v>
-      </c>
-      <c r="L13" s="13">
-        <v>3</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B14" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D14" s="15">
-        <v>3.3000000000000003</v>
-      </c>
-      <c r="E14" s="16">
-        <v>1.8000000000000001E-4</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="K14" s="19">
-        <v>0</v>
-      </c>
-      <c r="L14" s="11">
-        <v>3</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B15" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="13">
-        <v>3.3962050000000001</v>
-      </c>
-      <c r="D15" s="17">
-        <v>19.8</v>
-      </c>
-      <c r="E15" s="18">
-        <v>1.08E-3</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="K15" s="20">
-        <v>0</v>
-      </c>
-      <c r="L15" s="13">
-        <v>3</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B16" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="11">
-        <v>3.3962050000000001</v>
-      </c>
-      <c r="D16" s="15">
-        <v>18.700000000000003</v>
-      </c>
-      <c r="E16" s="16">
-        <v>1.0200000000000001E-3</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="K16" s="19">
-        <v>0</v>
-      </c>
-      <c r="L16" s="11">
-        <v>3</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B17" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D17" s="17">
-        <v>59.400000000000006</v>
-      </c>
-      <c r="E17" s="18">
-        <v>3.2400000000000003E-3</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="K17" s="20">
-        <v>0</v>
-      </c>
-      <c r="L17" s="13">
-        <v>3</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B18" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D18" s="15">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E18" s="16">
-        <v>2.4000000000000001E-4</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="K18" s="19">
-        <v>0</v>
-      </c>
-      <c r="L18" s="11">
-        <v>3</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B19" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D19" s="17">
-        <v>5.5</v>
-      </c>
-      <c r="E19" s="18">
-        <v>3.0000000000000003E-4</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="K19" s="20">
-        <v>0</v>
-      </c>
-      <c r="L19" s="13">
-        <v>3</v>
-      </c>
-      <c r="M19" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B20" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D20" s="15">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E20" s="16">
-        <v>2.4000000000000001E-4</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="K20" s="19">
-        <v>0</v>
-      </c>
-      <c r="L20" s="11">
-        <v>3</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B21" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D21" s="17">
-        <v>3.3000000000000003</v>
-      </c>
-      <c r="E21" s="18">
-        <v>1.8000000000000001E-4</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="K21" s="20">
-        <v>0</v>
-      </c>
-      <c r="L21" s="13">
-        <v>3</v>
-      </c>
-      <c r="M21" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B22" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="11">
-        <v>3.3962050000000001</v>
-      </c>
-      <c r="D22" s="15">
-        <v>11</v>
-      </c>
-      <c r="E22" s="16">
-        <v>6.0000000000000006E-4</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="K22" s="19">
-        <v>0</v>
-      </c>
-      <c r="L22" s="11">
-        <v>3</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B23" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="13">
-        <v>1.4746679999999999</v>
-      </c>
-      <c r="D23" s="17">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E23" s="18">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="K23" s="20">
-        <v>0</v>
-      </c>
-      <c r="L23" s="13">
-        <v>3</v>
-      </c>
-      <c r="M23" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B24" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D24" s="15">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E24" s="16">
-        <v>2.4000000000000001E-4</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="K24" s="19">
-        <v>0</v>
-      </c>
-      <c r="L24" s="11">
-        <v>3</v>
-      </c>
-      <c r="M24" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B25" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D25" s="17">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="E25" s="18">
-        <v>4.8000000000000001E-4</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="K25" s="20">
-        <v>0</v>
-      </c>
-      <c r="L25" s="13">
-        <v>3</v>
-      </c>
-      <c r="M25" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B26" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="11">
-        <v>1.4746679999999999</v>
-      </c>
-      <c r="D26" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E26" s="16">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="K26" s="19">
-        <v>0</v>
-      </c>
-      <c r="L26" s="11">
-        <v>3</v>
-      </c>
-      <c r="M26" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B27" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D27" s="17">
-        <v>3.3000000000000003</v>
-      </c>
-      <c r="E27" s="18">
-        <v>1.8000000000000001E-4</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="K27" s="20">
-        <v>0</v>
-      </c>
-      <c r="L27" s="13">
-        <v>3</v>
-      </c>
-      <c r="M27" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B28" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D28" s="15">
-        <v>3.3000000000000003</v>
-      </c>
-      <c r="E28" s="16">
-        <v>1.8000000000000001E-4</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="K28" s="19">
-        <v>0</v>
-      </c>
-      <c r="L28" s="11">
-        <v>3</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B29" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D29" s="17">
-        <v>12.100000000000001</v>
-      </c>
-      <c r="E29" s="18">
-        <v>6.6E-4</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="K29" s="20">
-        <v>0</v>
-      </c>
-      <c r="L29" s="13">
-        <v>3</v>
-      </c>
-      <c r="M29" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B30" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D30" s="15">
-        <v>19.8</v>
-      </c>
-      <c r="E30" s="16">
-        <v>1.08E-3</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="K30" s="19">
-        <v>0</v>
-      </c>
-      <c r="L30" s="11">
-        <v>3</v>
-      </c>
-      <c r="M30" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B31" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" s="13">
-        <v>3.3962050000000001</v>
-      </c>
-      <c r="D31" s="17">
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="E31" s="18">
-        <v>3.6000000000000002E-4</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="K31" s="20">
-        <v>0</v>
-      </c>
-      <c r="L31" s="13">
-        <v>3</v>
-      </c>
-      <c r="M31" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B32" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" s="11">
-        <v>3.3962050000000001</v>
-      </c>
-      <c r="D32" s="15">
-        <v>27.500000000000004</v>
-      </c>
-      <c r="E32" s="16">
-        <v>1.5E-3</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="K32" s="19">
-        <v>0</v>
-      </c>
-      <c r="L32" s="11">
-        <v>3</v>
-      </c>
-      <c r="M32" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B33" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D33" s="17">
-        <v>39.6</v>
-      </c>
-      <c r="E33" s="18">
-        <v>2.16E-3</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J33" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="K33" s="20">
-        <v>0</v>
-      </c>
-      <c r="L33" s="13">
-        <v>3</v>
-      </c>
-      <c r="M33" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B34" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C34" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D34" s="15">
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E34" s="16">
-        <v>1.4400000000000001E-3</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="K34" s="19">
-        <v>0</v>
-      </c>
-      <c r="L34" s="11">
-        <v>3</v>
-      </c>
-      <c r="M34" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B35" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="13">
-        <v>1.6981030000000001</v>
-      </c>
-      <c r="D35" s="17">
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="E35" s="18">
-        <v>3.6000000000000002E-4</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="K35" s="20">
-        <v>0</v>
-      </c>
-      <c r="L35" s="13">
-        <v>3</v>
-      </c>
-      <c r="M35" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B36" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D36" s="15">
-        <v>15.400000000000002</v>
-      </c>
-      <c r="E36" s="16">
-        <v>8.4000000000000003E-4</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="K36" s="19">
-        <v>1.927859333331175E-2</v>
-      </c>
-      <c r="L36" s="11">
-        <v>3</v>
-      </c>
-      <c r="M36" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B37" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C37" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D37" s="17">
-        <v>18.700000000000003</v>
-      </c>
-      <c r="E37" s="18">
-        <v>1.0200000000000001E-3</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J37" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="K37" s="20">
-        <v>0</v>
-      </c>
-      <c r="L37" s="13">
-        <v>3</v>
-      </c>
-      <c r="M37" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B38" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D38" s="15">
-        <v>3.3000000000000003</v>
-      </c>
-      <c r="E38" s="16">
-        <v>1.8000000000000001E-4</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I38" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="K38" s="19">
-        <v>0</v>
-      </c>
-      <c r="L38" s="11">
-        <v>3</v>
-      </c>
-      <c r="M38" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B39" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C39" s="13">
-        <v>3.3962050000000001</v>
-      </c>
-      <c r="D39" s="17">
-        <v>22</v>
-      </c>
-      <c r="E39" s="18">
-        <v>1.2000000000000001E-3</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J39" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="K39" s="20">
-        <v>0</v>
-      </c>
-      <c r="L39" s="13">
-        <v>3</v>
-      </c>
-      <c r="M39" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B40" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C40" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D40" s="15">
-        <v>3.3000000000000003</v>
-      </c>
-      <c r="E40" s="16">
-        <v>1.8000000000000001E-4</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="K40" s="19">
-        <v>0</v>
-      </c>
-      <c r="L40" s="11">
-        <v>3</v>
-      </c>
-      <c r="M40" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B41" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C41" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D41" s="17">
-        <v>14.3</v>
-      </c>
-      <c r="E41" s="18">
-        <v>7.7999999999999999E-4</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J41" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="K41" s="20">
-        <v>0</v>
-      </c>
-      <c r="L41" s="13">
-        <v>3</v>
-      </c>
-      <c r="M41" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B42" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C42" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D42" s="15">
-        <v>3.3000000000000003</v>
-      </c>
-      <c r="E42" s="16">
-        <v>1.8000000000000001E-4</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I42" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J42" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="K42" s="19">
-        <v>0</v>
-      </c>
-      <c r="L42" s="11">
-        <v>3</v>
-      </c>
-      <c r="M42" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B43" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C43" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D43" s="17">
-        <v>16.5</v>
-      </c>
-      <c r="E43" s="18">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J43" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="K43" s="20">
-        <v>5.714092934075295E-3</v>
-      </c>
-      <c r="L43" s="13">
-        <v>3</v>
-      </c>
-      <c r="M43" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B44" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C44" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D44" s="15">
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="E44" s="16">
-        <v>3.6000000000000002E-4</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I44" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J44" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="K44" s="19">
-        <v>0</v>
-      </c>
-      <c r="L44" s="11">
-        <v>3</v>
-      </c>
-      <c r="M44" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B45" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C45" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D45" s="17">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E45" s="18">
-        <v>2.4000000000000001E-4</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I45" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J45" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="K45" s="20">
-        <v>2.9157106943825187E-3</v>
-      </c>
-      <c r="L45" s="13">
-        <v>3</v>
-      </c>
-      <c r="M45" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B46" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C46" s="11">
-        <v>1.6981030000000001</v>
-      </c>
-      <c r="D46" s="15">
-        <v>49.500000000000007</v>
-      </c>
-      <c r="E46" s="16">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="K46" s="19">
-        <v>0</v>
-      </c>
-      <c r="L46" s="11">
-        <v>3</v>
-      </c>
-      <c r="M46" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B47" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C47" s="13">
-        <v>3.3962050000000001</v>
-      </c>
-      <c r="D47" s="17">
-        <v>9.9</v>
-      </c>
-      <c r="E47" s="18">
-        <v>5.4000000000000001E-4</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I47" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J47" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="K47" s="20">
-        <v>1.2756511587317752E-2</v>
-      </c>
-      <c r="L47" s="13">
-        <v>3</v>
-      </c>
-      <c r="M47" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B48" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C48" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D48" s="15">
-        <v>20.900000000000002</v>
-      </c>
-      <c r="E48" s="16">
-        <v>1.14E-3</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I48" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="K48" s="19">
-        <v>1.0792492413013872E-2</v>
-      </c>
-      <c r="L48" s="11">
-        <v>3</v>
-      </c>
-      <c r="M48" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B49" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C49" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D49" s="17">
-        <v>3.3000000000000003</v>
-      </c>
-      <c r="E49" s="18">
-        <v>1.8000000000000001E-4</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I49" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J49" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="K49" s="20">
-        <v>5.9512147269568287E-3</v>
-      </c>
-      <c r="L49" s="13">
-        <v>3</v>
-      </c>
-      <c r="M49" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B50" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C50" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D50" s="15">
-        <v>14.3</v>
-      </c>
-      <c r="E50" s="16">
-        <v>7.7999999999999999E-4</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I50" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J50" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="K50" s="19">
-        <v>8.4545504114737047E-2</v>
-      </c>
-      <c r="L50" s="11">
-        <v>3</v>
-      </c>
-      <c r="M50" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B51" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C51" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D51" s="17">
-        <v>23.1</v>
-      </c>
-      <c r="E51" s="18">
-        <v>1.2600000000000001E-3</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I51" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J51" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="K51" s="20">
-        <v>0</v>
-      </c>
-      <c r="L51" s="13">
-        <v>3</v>
-      </c>
-      <c r="M51" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B52" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C52" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D52" s="15">
-        <v>41.800000000000004</v>
-      </c>
-      <c r="E52" s="16">
-        <v>2.2799999999999999E-3</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I52" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J52" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="K52" s="19">
-        <v>3.9467714632220163E-3</v>
-      </c>
-      <c r="L52" s="11">
-        <v>3</v>
-      </c>
-      <c r="M52" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B53" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C53" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D53" s="17">
-        <v>11</v>
-      </c>
-      <c r="E53" s="18">
-        <v>6.0000000000000006E-4</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I53" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J53" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="K53" s="20">
-        <v>0</v>
-      </c>
-      <c r="L53" s="13">
-        <v>3</v>
-      </c>
-      <c r="M53" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B54" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C54" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D54" s="15">
-        <v>30.800000000000004</v>
-      </c>
-      <c r="E54" s="16">
-        <v>1.6800000000000001E-3</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I54" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J54" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="K54" s="19">
-        <v>0</v>
-      </c>
-      <c r="L54" s="11">
-        <v>3</v>
-      </c>
-      <c r="M54" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B55" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C55" s="13">
-        <v>1.0054560000000001</v>
-      </c>
-      <c r="D55" s="17">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E55" s="18">
-        <v>1.2E-4</v>
-      </c>
-      <c r="H55" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I55" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J55" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="K55" s="20">
-        <v>0</v>
-      </c>
-      <c r="L55" s="13">
-        <v>3</v>
-      </c>
-      <c r="M55" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B56" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C56" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D56" s="15">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E56" s="16">
-        <v>1.2E-4</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I56" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J56" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="K56" s="19">
-        <v>4.5883806387632727E-3</v>
-      </c>
-      <c r="L56" s="11">
-        <v>3</v>
-      </c>
-      <c r="M56" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B57" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C57" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D57" s="17">
-        <v>24.200000000000003</v>
-      </c>
-      <c r="E57" s="18">
-        <v>1.32E-3</v>
-      </c>
-      <c r="H57" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I57" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J57" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="K57" s="20">
-        <v>0</v>
-      </c>
-      <c r="L57" s="13">
-        <v>3</v>
-      </c>
-      <c r="M57" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B58" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C58" s="11">
-        <v>1.005455</v>
-      </c>
-      <c r="D58" s="15">
-        <v>12.100000000000001</v>
-      </c>
-      <c r="E58" s="16">
-        <v>6.6E-4</v>
-      </c>
-      <c r="H58" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I58" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J58" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="K58" s="19">
-        <v>0</v>
-      </c>
-      <c r="L58" s="11">
-        <v>3</v>
-      </c>
-      <c r="M58" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B59" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C59" s="13">
-        <v>1.005455</v>
-      </c>
-      <c r="D59" s="17">
-        <v>5.5</v>
-      </c>
-      <c r="E59" s="18">
-        <v>3.0000000000000003E-4</v>
-      </c>
-      <c r="H59" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I59" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J59" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="K59" s="20">
-        <v>0</v>
-      </c>
-      <c r="L59" s="13">
-        <v>3</v>
-      </c>
-      <c r="M59" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B60" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C60" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D60" s="15">
-        <v>5.5</v>
-      </c>
-      <c r="E60" s="16">
-        <v>3.0000000000000003E-4</v>
-      </c>
-      <c r="H60" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I60" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J60" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="K60" s="19">
-        <v>0</v>
-      </c>
-      <c r="L60" s="11">
-        <v>3</v>
-      </c>
-      <c r="M60" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B61" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C61" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D61" s="17">
-        <v>7.7000000000000011</v>
-      </c>
-      <c r="E61" s="18">
-        <v>4.2000000000000002E-4</v>
-      </c>
-      <c r="H61" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I61" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J61" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="K61" s="20">
-        <v>0</v>
-      </c>
-      <c r="L61" s="13">
-        <v>3</v>
-      </c>
-      <c r="M61" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B62" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C62" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D62" s="15">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="E62" s="16">
-        <v>4.8000000000000001E-4</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I62" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J62" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="K62" s="19">
-        <v>0.11461190658240906</v>
-      </c>
-      <c r="L62" s="11">
-        <v>3</v>
-      </c>
-      <c r="M62" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B63" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="C63" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D63" s="17">
-        <v>7.7000000000000011</v>
-      </c>
-      <c r="E63" s="18">
-        <v>4.2000000000000002E-4</v>
-      </c>
-      <c r="H63" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I63" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J63" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="K63" s="20">
-        <v>0</v>
-      </c>
-      <c r="L63" s="13">
-        <v>3</v>
-      </c>
-      <c r="M63" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B64" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="11">
-        <v>1.005455</v>
-      </c>
-      <c r="D64" s="15">
-        <v>15.400000000000002</v>
-      </c>
-      <c r="E64" s="16">
-        <v>8.4000000000000003E-4</v>
-      </c>
-      <c r="H64" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I64" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J64" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="K64" s="19">
-        <v>1.2196736544039102E-2</v>
-      </c>
-      <c r="L64" s="11">
-        <v>3</v>
-      </c>
-      <c r="M64" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B65" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C65" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D65" s="17">
-        <v>11</v>
-      </c>
-      <c r="E65" s="18">
-        <v>6.0000000000000006E-4</v>
-      </c>
-      <c r="H65" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I65" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J65" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="K65" s="20">
-        <v>0</v>
-      </c>
-      <c r="L65" s="13">
-        <v>3</v>
-      </c>
-      <c r="M65" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B66" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C66" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D66" s="15">
-        <v>3.3000000000000003</v>
-      </c>
-      <c r="E66" s="16">
-        <v>1.8000000000000001E-4</v>
-      </c>
-      <c r="H66" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I66" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J66" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="K66" s="19">
-        <v>1.9858826909655954E-2</v>
-      </c>
-      <c r="L66" s="11">
-        <v>3</v>
-      </c>
-      <c r="M66" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B67" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C67" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D67" s="17">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="E67" s="18">
-        <v>4.8000000000000001E-4</v>
-      </c>
-      <c r="H67" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I67" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J67" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="K67" s="20">
-        <v>0</v>
-      </c>
-      <c r="L67" s="13">
-        <v>3</v>
-      </c>
-      <c r="M67" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B68" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C68" s="11">
-        <v>3.3962050000000001</v>
-      </c>
-      <c r="D68" s="15">
-        <v>53.900000000000006</v>
-      </c>
-      <c r="E68" s="16">
-        <v>2.9399999999999999E-3</v>
-      </c>
-      <c r="H68" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I68" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J68" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="K68" s="19">
-        <v>6.8409390757981484E-2</v>
-      </c>
-      <c r="L68" s="11">
-        <v>3</v>
-      </c>
-      <c r="M68" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B69" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C69" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D69" s="17">
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="E69" s="18">
-        <v>3.6000000000000002E-4</v>
-      </c>
-      <c r="H69" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I69" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J69" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="K69" s="20">
-        <v>4.6810849072693367E-2</v>
-      </c>
-      <c r="L69" s="13">
-        <v>3</v>
-      </c>
-      <c r="M69" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B70" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C70" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D70" s="15">
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E70" s="16">
-        <v>1.4400000000000001E-3</v>
-      </c>
-      <c r="H70" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I70" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J70" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="K70" s="19">
-        <v>1.9140066880505603E-2</v>
-      </c>
-      <c r="L70" s="11">
-        <v>3</v>
-      </c>
-      <c r="M70" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B71" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="C71" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D71" s="17">
-        <v>19.8</v>
-      </c>
-      <c r="E71" s="18">
-        <v>1.08E-3</v>
-      </c>
-      <c r="H71" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I71" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J71" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="K71" s="20">
-        <v>0</v>
-      </c>
-      <c r="L71" s="13">
-        <v>3</v>
-      </c>
-      <c r="M71" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B72" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C72" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D72" s="15">
-        <v>22</v>
-      </c>
-      <c r="E72" s="16">
-        <v>1.2000000000000001E-3</v>
-      </c>
-      <c r="H72" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I72" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J72" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="K72" s="19">
-        <v>1.2437062685473141E-2</v>
-      </c>
-      <c r="L72" s="11">
-        <v>3</v>
-      </c>
-      <c r="M72" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B73" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="C73" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D73" s="17">
-        <v>29.700000000000003</v>
-      </c>
-      <c r="E73" s="18">
-        <v>1.6200000000000001E-3</v>
-      </c>
-      <c r="H73" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I73" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J73" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="K73" s="20">
-        <v>3.125965257093492E-3</v>
-      </c>
-      <c r="L73" s="13">
-        <v>3</v>
-      </c>
-      <c r="M73" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B74" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C74" s="11">
-        <v>1.6981030000000001</v>
-      </c>
-      <c r="D74" s="15">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="E74" s="16">
-        <v>4.8000000000000001E-4</v>
-      </c>
-      <c r="H74" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I74" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J74" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="K74" s="19">
-        <v>2.743168849250445E-3</v>
-      </c>
-      <c r="L74" s="11">
-        <v>3</v>
-      </c>
-      <c r="M74" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B75" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="C75" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D75" s="17">
-        <v>38.5</v>
-      </c>
-      <c r="E75" s="18">
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="H75" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I75" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J75" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="K75" s="20">
-        <v>0</v>
-      </c>
-      <c r="L75" s="13">
-        <v>3</v>
-      </c>
-      <c r="M75" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B76" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C76" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D76" s="15">
-        <v>49.500000000000007</v>
-      </c>
-      <c r="E76" s="16">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="H76" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I76" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J76" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="K76" s="19">
-        <v>8.2272881525996683E-3</v>
-      </c>
-      <c r="L76" s="11">
-        <v>3</v>
-      </c>
-      <c r="M76" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B77" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="C77" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D77" s="17">
-        <v>61.600000000000009</v>
-      </c>
-      <c r="E77" s="18">
-        <v>3.3600000000000001E-3</v>
-      </c>
-      <c r="H77" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I77" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J77" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="K77" s="20">
-        <v>0</v>
-      </c>
-      <c r="L77" s="13">
-        <v>3</v>
-      </c>
-      <c r="M77" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B78" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C78" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D78" s="15">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E78" s="16">
-        <v>2.4000000000000001E-4</v>
-      </c>
-      <c r="H78" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I78" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J78" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="K78" s="19">
-        <v>0</v>
-      </c>
-      <c r="L78" s="11">
-        <v>3</v>
-      </c>
-      <c r="M78" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B79" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C79" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D79" s="17">
-        <v>56.1</v>
-      </c>
-      <c r="E79" s="18">
-        <v>3.0600000000000002E-3</v>
-      </c>
-      <c r="H79" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I79" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J79" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="K79" s="20">
-        <v>0</v>
-      </c>
-      <c r="L79" s="13">
-        <v>3</v>
-      </c>
-      <c r="M79" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B80" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C80" s="11">
-        <v>1.6981030000000001</v>
-      </c>
-      <c r="D80" s="15">
-        <v>85.800000000000011</v>
-      </c>
-      <c r="E80" s="16">
-        <v>4.6800000000000001E-3</v>
-      </c>
-      <c r="H80" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I80" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J80" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="K80" s="19">
-        <v>0</v>
-      </c>
-      <c r="L80" s="11">
-        <v>3</v>
-      </c>
-      <c r="M80" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B81" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="C81" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D81" s="17">
-        <v>40.700000000000003</v>
-      </c>
-      <c r="E81" s="18">
-        <v>2.2200000000000002E-3</v>
-      </c>
-      <c r="H81" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I81" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J81" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="K81" s="20">
-        <v>2.8575394437379679E-3</v>
-      </c>
-      <c r="L81" s="13">
-        <v>3</v>
-      </c>
-      <c r="M81" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B82" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C82" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D82" s="15">
-        <v>9.9</v>
-      </c>
-      <c r="E82" s="16">
-        <v>5.4000000000000001E-4</v>
-      </c>
-      <c r="H82" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I82" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J82" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="K82" s="19">
-        <v>9.6687520245034297E-3</v>
-      </c>
-      <c r="L82" s="11">
-        <v>3</v>
-      </c>
-      <c r="M82" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B83" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="C83" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D83" s="17">
-        <v>15.400000000000002</v>
-      </c>
-      <c r="E83" s="18">
-        <v>8.4000000000000003E-4</v>
-      </c>
-      <c r="H83" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I83" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J83" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="K83" s="20">
-        <v>2.555591214756789E-3</v>
-      </c>
-      <c r="L83" s="13">
-        <v>3</v>
-      </c>
-      <c r="M83" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B84" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C84" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D84" s="15">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="E84" s="16">
-        <v>4.8000000000000001E-4</v>
-      </c>
-      <c r="H84" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I84" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J84" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="K84" s="19">
-        <v>2.0427229045191276E-2</v>
-      </c>
-      <c r="L84" s="11">
-        <v>3</v>
-      </c>
-      <c r="M84" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B85" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C85" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D85" s="17">
-        <v>30.800000000000004</v>
-      </c>
-      <c r="E85" s="18">
-        <v>1.6800000000000001E-3</v>
-      </c>
-      <c r="H85" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I85" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J85" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="K85" s="20">
-        <v>8.3601453733513648E-3</v>
-      </c>
-      <c r="L85" s="13">
-        <v>3</v>
-      </c>
-      <c r="M85" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B86" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C86" s="11">
-        <v>1.6981030000000001</v>
-      </c>
-      <c r="D86" s="15">
-        <v>59.400000000000006</v>
-      </c>
-      <c r="E86" s="16">
-        <v>3.2400000000000003E-3</v>
-      </c>
-      <c r="H86" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I86" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J86" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="K86" s="19">
-        <v>2.6051353731447661E-3</v>
-      </c>
-      <c r="L86" s="11">
-        <v>3</v>
-      </c>
-      <c r="M86" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B87" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C87" s="13">
-        <v>1.6981030000000001</v>
-      </c>
-      <c r="D87" s="17">
-        <v>49.500000000000007</v>
-      </c>
-      <c r="E87" s="18">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="H87" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I87" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J87" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="K87" s="20">
-        <v>9.8265045686242048E-3</v>
-      </c>
-      <c r="L87" s="13">
-        <v>3</v>
-      </c>
-      <c r="M87" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B88" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="C88" s="11">
-        <v>1.6981030000000001</v>
-      </c>
-      <c r="D88" s="15">
-        <v>83.600000000000009</v>
-      </c>
-      <c r="E88" s="16">
-        <v>4.5599999999999998E-3</v>
-      </c>
-      <c r="H88" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I88" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J88" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="K88" s="19">
-        <v>1.0798161645068225E-2</v>
-      </c>
-      <c r="L88" s="11">
-        <v>3</v>
-      </c>
-      <c r="M88" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B89" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="C89" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D89" s="17">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E89" s="18">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="H89" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I89" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J89" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="K89" s="20">
-        <v>2.9997632217968911E-3</v>
-      </c>
-      <c r="L89" s="13">
-        <v>3</v>
-      </c>
-      <c r="M89" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B90" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C90" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D90" s="15">
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E90" s="16">
-        <v>7.2000000000000005E-4</v>
-      </c>
-      <c r="H90" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I90" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J90" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="K90" s="19">
-        <v>5.5975039444360079E-3</v>
-      </c>
-      <c r="L90" s="11">
-        <v>3</v>
-      </c>
-      <c r="M90" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B91" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="C91" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D91" s="17">
-        <v>25.3</v>
-      </c>
-      <c r="E91" s="18">
-        <v>1.3799999999999999E-3</v>
-      </c>
-      <c r="H91" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I91" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J91" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="K91" s="20">
-        <v>0</v>
-      </c>
-      <c r="L91" s="13">
-        <v>3</v>
-      </c>
-      <c r="M91" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B92" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="C92" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D92" s="15">
-        <v>16.5</v>
-      </c>
-      <c r="E92" s="16">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="H92" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I92" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J92" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="K92" s="19">
-        <v>0</v>
-      </c>
-      <c r="L92" s="11">
-        <v>3</v>
-      </c>
-      <c r="M92" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B93" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C93" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D93" s="17">
-        <v>15.400000000000002</v>
-      </c>
-      <c r="E93" s="18">
-        <v>8.4000000000000003E-4</v>
-      </c>
-      <c r="H93" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I93" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J93" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="K93" s="20">
-        <v>2.6773564597500597E-3</v>
-      </c>
-      <c r="L93" s="13">
-        <v>3</v>
-      </c>
-      <c r="M93" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B94" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="C94" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D94" s="15">
-        <v>59.400000000000006</v>
-      </c>
-      <c r="E94" s="16">
-        <v>3.2400000000000003E-3</v>
-      </c>
-      <c r="H94" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I94" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J94" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="K94" s="19">
-        <v>0</v>
-      </c>
-      <c r="L94" s="11">
-        <v>3</v>
-      </c>
-      <c r="M94" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B95" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="C95" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D95" s="17">
-        <v>20.900000000000002</v>
-      </c>
-      <c r="E95" s="18">
-        <v>1.14E-3</v>
-      </c>
-      <c r="H95" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I95" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J95" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="K95" s="20">
-        <v>0</v>
-      </c>
-      <c r="L95" s="13">
-        <v>3</v>
-      </c>
-      <c r="M95" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B96" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C96" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D96" s="15">
-        <v>18.700000000000003</v>
-      </c>
-      <c r="E96" s="16">
-        <v>1.0200000000000001E-3</v>
-      </c>
-      <c r="H96" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I96" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J96" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="K96" s="19">
-        <v>0</v>
-      </c>
-      <c r="L96" s="11">
-        <v>3</v>
-      </c>
-      <c r="M96" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B97" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="C97" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D97" s="17">
-        <v>7.7000000000000011</v>
-      </c>
-      <c r="E97" s="18">
-        <v>4.2000000000000002E-4</v>
-      </c>
-      <c r="H97" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I97" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J97" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="K97" s="20">
-        <v>0</v>
-      </c>
-      <c r="L97" s="13">
-        <v>3</v>
-      </c>
-      <c r="M97" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B98" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="C98" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D98" s="15">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="E98" s="16">
-        <v>4.8000000000000001E-4</v>
-      </c>
-      <c r="H98" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I98" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J98" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="K98" s="19">
-        <v>4.1385393996688172E-3</v>
-      </c>
-      <c r="L98" s="11">
-        <v>3</v>
-      </c>
-      <c r="M98" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B99" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="C99" s="13">
-        <v>3.3962050000000001</v>
-      </c>
-      <c r="D99" s="17">
-        <v>104.50000000000001</v>
-      </c>
-      <c r="E99" s="18">
-        <v>5.7000000000000002E-3</v>
-      </c>
-      <c r="H99" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I99" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J99" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="K99" s="20">
-        <v>0</v>
-      </c>
-      <c r="L99" s="13">
-        <v>3</v>
-      </c>
-      <c r="M99" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B100" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C100" s="11">
-        <v>1.6981030000000001</v>
-      </c>
-      <c r="D100" s="15">
-        <v>41.800000000000004</v>
-      </c>
-      <c r="E100" s="16">
-        <v>2.2799999999999999E-3</v>
-      </c>
-      <c r="H100" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I100" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J100" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="K100" s="19">
-        <v>3.1403848255796118E-2</v>
-      </c>
-      <c r="L100" s="11">
-        <v>3</v>
-      </c>
-      <c r="M100" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B101" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="C101" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D101" s="17">
-        <v>3.3000000000000003</v>
-      </c>
-      <c r="E101" s="18">
-        <v>1.8000000000000001E-4</v>
-      </c>
-      <c r="H101" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I101" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J101" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="K101" s="20">
-        <v>7.433349176641707E-3</v>
-      </c>
-      <c r="L101" s="13">
-        <v>3</v>
-      </c>
-      <c r="M101" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B102" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="C102" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D102" s="15">
-        <v>11</v>
-      </c>
-      <c r="E102" s="16">
-        <v>6.0000000000000006E-4</v>
-      </c>
-      <c r="H102" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I102" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J102" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="K102" s="19">
-        <v>8.5551176583506684E-3</v>
-      </c>
-      <c r="L102" s="11">
-        <v>3</v>
-      </c>
-      <c r="M102" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B103" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C103" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D103" s="17">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="E103" s="18">
-        <v>9.6000000000000002E-4</v>
-      </c>
-      <c r="H103" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I103" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J103" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="K103" s="20">
-        <v>0</v>
-      </c>
-      <c r="L103" s="13">
-        <v>3</v>
-      </c>
-      <c r="M103" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B104" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C104" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D104" s="15">
-        <v>5.5</v>
-      </c>
-      <c r="E104" s="16">
-        <v>3.0000000000000003E-4</v>
-      </c>
-      <c r="H104" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I104" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J104" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="K104" s="19">
-        <v>0</v>
-      </c>
-      <c r="L104" s="11">
-        <v>3</v>
-      </c>
-      <c r="M104" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="105" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B105" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C105" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D105" s="17">
-        <v>12.100000000000001</v>
-      </c>
-      <c r="E105" s="18">
-        <v>6.6E-4</v>
-      </c>
-      <c r="H105" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I105" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J105" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="K105" s="20">
-        <v>3.3083666362331639E-3</v>
-      </c>
-      <c r="L105" s="13">
-        <v>3</v>
-      </c>
-      <c r="M105" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B106" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C106" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D106" s="15">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="E106" s="16">
-        <v>4.8000000000000001E-4</v>
-      </c>
-      <c r="H106" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I106" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J106" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="K106" s="19">
-        <v>2.0792031803470522E-2</v>
-      </c>
-      <c r="L106" s="11">
-        <v>3</v>
-      </c>
-      <c r="M106" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B107" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="C107" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D107" s="17">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="E107" s="18">
-        <v>4.8000000000000001E-4</v>
-      </c>
-      <c r="H107" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I107" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J107" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="K107" s="20">
-        <v>0</v>
-      </c>
-      <c r="L107" s="13">
-        <v>3</v>
-      </c>
-      <c r="M107" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="108" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B108" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C108" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D108" s="15">
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="E108" s="16">
-        <v>3.6000000000000002E-4</v>
-      </c>
-      <c r="H108" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I108" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J108" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="K108" s="19">
-        <v>0</v>
-      </c>
-      <c r="L108" s="11">
-        <v>3</v>
-      </c>
-      <c r="M108" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B109" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C109" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D109" s="17">
-        <v>9.9</v>
-      </c>
-      <c r="E109" s="18">
-        <v>5.4000000000000001E-4</v>
-      </c>
-      <c r="H109" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I109" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J109" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="K109" s="20">
-        <v>0</v>
-      </c>
-      <c r="L109" s="13">
-        <v>3</v>
-      </c>
-      <c r="M109" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B110" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C110" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D110" s="15">
-        <v>3.3000000000000003</v>
-      </c>
-      <c r="E110" s="16">
-        <v>1.8000000000000001E-4</v>
-      </c>
-      <c r="H110" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I110" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J110" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="K110" s="19">
-        <v>9.4971961327719959E-3</v>
-      </c>
-      <c r="L110" s="11">
-        <v>3</v>
-      </c>
-      <c r="M110" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="111" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B111" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C111" s="13">
-        <v>1.7874760000000001</v>
-      </c>
-      <c r="D111" s="17">
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="E111" s="18">
-        <v>3.6000000000000002E-4</v>
-      </c>
-      <c r="H111" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I111" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J111" s="12" t="s">
-        <v>407</v>
-      </c>
-      <c r="K111" s="20">
-        <v>8.2166891535415173E-3</v>
-      </c>
-      <c r="L111" s="13">
-        <v>3</v>
-      </c>
-      <c r="M111" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B112" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C112" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D112" s="15">
-        <v>9.9</v>
-      </c>
-      <c r="E112" s="16">
-        <v>5.4000000000000001E-4</v>
-      </c>
-      <c r="H112" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I112" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J112" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="K112" s="19">
-        <v>4.9411054678833539E-3</v>
-      </c>
-      <c r="L112" s="11">
-        <v>3</v>
-      </c>
-      <c r="M112" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B113" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C113" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D113" s="17">
-        <v>33</v>
-      </c>
-      <c r="E113" s="18">
-        <v>1.8E-3</v>
-      </c>
-      <c r="H113" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I113" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J113" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="K113" s="20">
-        <v>6.48523173764078E-2</v>
-      </c>
-      <c r="L113" s="13">
-        <v>3</v>
-      </c>
-      <c r="M113" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B114" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="C114" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D114" s="15">
-        <v>7.7000000000000011</v>
-      </c>
-      <c r="E114" s="16">
-        <v>4.2000000000000002E-4</v>
-      </c>
-      <c r="H114" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I114" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J114" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="K114" s="19">
-        <v>2.7635534358110711E-2</v>
-      </c>
-      <c r="L114" s="11">
-        <v>3</v>
-      </c>
-      <c r="M114" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B115" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="C115" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D115" s="17">
-        <v>49.500000000000007</v>
-      </c>
-      <c r="E115" s="18">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="H115" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I115" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J115" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="K115" s="20">
-        <v>0</v>
-      </c>
-      <c r="L115" s="13">
-        <v>3</v>
-      </c>
-      <c r="M115" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B116" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C116" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D116" s="15">
-        <v>41.800000000000004</v>
-      </c>
-      <c r="E116" s="16">
-        <v>2.2799999999999999E-3</v>
-      </c>
-      <c r="H116" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I116" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J116" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="K116" s="19">
-        <v>0</v>
-      </c>
-      <c r="L116" s="11">
-        <v>3</v>
-      </c>
-      <c r="M116" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="117" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B117" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C117" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D117" s="17">
-        <v>24.200000000000003</v>
-      </c>
-      <c r="E117" s="18">
-        <v>1.32E-3</v>
-      </c>
-      <c r="H117" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I117" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J117" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="K117" s="20">
-        <v>0</v>
-      </c>
-      <c r="L117" s="13">
-        <v>3</v>
-      </c>
-      <c r="M117" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B118" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="C118" s="11">
-        <v>1.6981030000000001</v>
-      </c>
-      <c r="D118" s="15">
-        <v>33</v>
-      </c>
-      <c r="E118" s="16">
-        <v>1.8E-3</v>
-      </c>
-      <c r="H118" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I118" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J118" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="K118" s="19">
-        <v>1.1404522986532434E-2</v>
-      </c>
-      <c r="L118" s="11">
-        <v>3</v>
-      </c>
-      <c r="M118" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B119" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="C119" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D119" s="17">
-        <v>19.8</v>
-      </c>
-      <c r="E119" s="18">
-        <v>1.08E-3</v>
-      </c>
-      <c r="H119" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I119" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J119" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="K119" s="20">
-        <v>0</v>
-      </c>
-      <c r="L119" s="13">
-        <v>3</v>
-      </c>
-      <c r="M119" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B120" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C120" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D120" s="15">
-        <v>9.9</v>
-      </c>
-      <c r="E120" s="16">
-        <v>5.4000000000000001E-4</v>
-      </c>
-      <c r="H120" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I120" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J120" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="K120" s="19">
-        <v>0</v>
-      </c>
-      <c r="L120" s="11">
-        <v>3</v>
-      </c>
-      <c r="M120" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B121" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C121" s="13">
-        <v>3.3962050000000001</v>
-      </c>
-      <c r="D121" s="17">
-        <v>20.900000000000002</v>
-      </c>
-      <c r="E121" s="18">
-        <v>1.14E-3</v>
-      </c>
-      <c r="H121" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I121" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J121" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="K121" s="20">
-        <v>0</v>
-      </c>
-      <c r="L121" s="13">
-        <v>3</v>
-      </c>
-      <c r="M121" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B122" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C122" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D122" s="15">
-        <v>19.8</v>
-      </c>
-      <c r="E122" s="16">
-        <v>1.08E-3</v>
-      </c>
-      <c r="H122" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I122" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J122" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="K122" s="19">
-        <v>9.1161251433802427E-3</v>
-      </c>
-      <c r="L122" s="11">
-        <v>3</v>
-      </c>
-      <c r="M122" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="123" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B123" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C123" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D123" s="17">
-        <v>71.5</v>
-      </c>
-      <c r="E123" s="18">
-        <v>3.9000000000000003E-3</v>
-      </c>
-      <c r="H123" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I123" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J123" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="K123" s="20">
-        <v>3.9630396943345228E-3</v>
-      </c>
-      <c r="L123" s="13">
-        <v>3</v>
-      </c>
-      <c r="M123" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="124" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B124" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C124" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D124" s="15">
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E124" s="16">
-        <v>7.2000000000000005E-4</v>
-      </c>
-      <c r="H124" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I124" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J124" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="K124" s="19">
-        <v>3.2250535738694462E-3</v>
-      </c>
-      <c r="L124" s="11">
-        <v>3</v>
-      </c>
-      <c r="M124" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="125" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B125" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="C125" s="13">
-        <v>1.6981030000000001</v>
-      </c>
-      <c r="D125" s="17">
-        <v>39.6</v>
-      </c>
-      <c r="E125" s="18">
-        <v>2.16E-3</v>
-      </c>
-      <c r="H125" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I125" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J125" s="12" t="s">
-        <v>421</v>
-      </c>
-      <c r="K125" s="20">
-        <v>1.9257395335195444E-2</v>
-      </c>
-      <c r="L125" s="13">
-        <v>3</v>
-      </c>
-      <c r="M125" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="126" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B126" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="C126" s="11">
-        <v>1.6981030000000001</v>
-      </c>
-      <c r="D126" s="15">
-        <v>30.800000000000004</v>
-      </c>
-      <c r="E126" s="16">
-        <v>1.6800000000000001E-3</v>
-      </c>
-      <c r="H126" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I126" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J126" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="K126" s="19">
-        <v>0</v>
-      </c>
-      <c r="L126" s="11">
-        <v>3</v>
-      </c>
-      <c r="M126" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="127" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B127" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C127" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D127" s="17">
-        <v>29.700000000000003</v>
-      </c>
-      <c r="E127" s="18">
-        <v>1.6200000000000001E-3</v>
-      </c>
-      <c r="H127" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I127" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J127" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="K127" s="20">
-        <v>0</v>
-      </c>
-      <c r="L127" s="13">
-        <v>3</v>
-      </c>
-      <c r="M127" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="128" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B128" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C128" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D128" s="15">
-        <v>44</v>
-      </c>
-      <c r="E128" s="16">
-        <v>2.4000000000000002E-3</v>
-      </c>
-      <c r="H128" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I128" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J128" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="K128" s="19">
-        <v>0</v>
-      </c>
-      <c r="L128" s="11">
-        <v>3</v>
-      </c>
-      <c r="M128" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="129" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B129" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="C129" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D129" s="17">
-        <v>30.800000000000004</v>
-      </c>
-      <c r="E129" s="18">
-        <v>1.6800000000000001E-3</v>
-      </c>
-      <c r="H129" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I129" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J129" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="K129" s="20">
-        <v>0</v>
-      </c>
-      <c r="L129" s="13">
-        <v>3</v>
-      </c>
-      <c r="M129" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="130" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B130" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="C130" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D130" s="15">
-        <v>29.700000000000003</v>
-      </c>
-      <c r="E130" s="16">
-        <v>1.6200000000000001E-3</v>
-      </c>
-      <c r="H130" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I130" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J130" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="K130" s="19">
-        <v>0</v>
-      </c>
-      <c r="L130" s="11">
-        <v>3</v>
-      </c>
-      <c r="M130" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="131" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B131" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="C131" s="13">
-        <v>3.3962050000000001</v>
-      </c>
-      <c r="D131" s="17">
-        <v>30.800000000000004</v>
-      </c>
-      <c r="E131" s="18">
-        <v>1.6800000000000001E-3</v>
-      </c>
-      <c r="H131" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I131" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J131" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="K131" s="20">
-        <v>0</v>
-      </c>
-      <c r="L131" s="13">
-        <v>3</v>
-      </c>
-      <c r="M131" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="132" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B132" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="C132" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D132" s="15">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E132" s="16">
-        <v>2.4000000000000001E-4</v>
-      </c>
-      <c r="H132" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I132" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J132" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="K132" s="19">
-        <v>0</v>
-      </c>
-      <c r="L132" s="11">
-        <v>3</v>
-      </c>
-      <c r="M132" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="133" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B133" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C133" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D133" s="17">
-        <v>27.500000000000004</v>
-      </c>
-      <c r="E133" s="18">
-        <v>1.5E-3</v>
-      </c>
-      <c r="H133" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I133" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J133" s="12" t="s">
-        <v>429</v>
-      </c>
-      <c r="K133" s="20">
-        <v>3.3344944013531698E-3</v>
-      </c>
-      <c r="L133" s="13">
-        <v>3</v>
-      </c>
-      <c r="M133" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="134" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B134" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C134" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D134" s="15">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="E134" s="16">
-        <v>4.8000000000000001E-4</v>
-      </c>
-      <c r="H134" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I134" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J134" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="K134" s="19">
-        <v>3.851133983348751E-3</v>
-      </c>
-      <c r="L134" s="11">
-        <v>3</v>
-      </c>
-      <c r="M134" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="135" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B135" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="C135" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D135" s="17">
-        <v>20.900000000000002</v>
-      </c>
-      <c r="E135" s="18">
-        <v>1.14E-3</v>
-      </c>
-      <c r="H135" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I135" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J135" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="K135" s="20">
-        <v>0</v>
-      </c>
-      <c r="L135" s="13">
-        <v>3</v>
-      </c>
-      <c r="M135" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="136" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B136" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C136" s="11">
-        <v>3.3962050000000001</v>
-      </c>
-      <c r="D136" s="15">
-        <v>7.7000000000000011</v>
-      </c>
-      <c r="E136" s="16">
-        <v>4.2000000000000002E-4</v>
-      </c>
-      <c r="H136" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I136" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J136" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="K136" s="19">
-        <v>0</v>
-      </c>
-      <c r="L136" s="11">
-        <v>3</v>
-      </c>
-      <c r="M136" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="137" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B137" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="C137" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D137" s="17">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E137" s="18">
-        <v>1.2E-4</v>
-      </c>
-      <c r="H137" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I137" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J137" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="K137" s="20">
-        <v>1.1382832011715858E-2</v>
-      </c>
-      <c r="L137" s="13">
-        <v>3</v>
-      </c>
-      <c r="M137" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="138" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B138" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="C138" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D138" s="15">
-        <v>16.5</v>
-      </c>
-      <c r="E138" s="16">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="H138" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I138" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J138" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="K138" s="19">
-        <v>3.1087110725803442E-3</v>
-      </c>
-      <c r="L138" s="11">
-        <v>3</v>
-      </c>
-      <c r="M138" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="139" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B139" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="C139" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D139" s="17">
-        <v>7.7000000000000011</v>
-      </c>
-      <c r="E139" s="18">
-        <v>4.2000000000000002E-4</v>
-      </c>
-      <c r="H139" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I139" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J139" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="K139" s="20">
-        <v>0</v>
-      </c>
-      <c r="L139" s="13">
-        <v>3</v>
-      </c>
-      <c r="M139" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="140" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B140" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="C140" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D140" s="15">
-        <v>14.3</v>
-      </c>
-      <c r="E140" s="16">
-        <v>7.7999999999999999E-4</v>
-      </c>
-      <c r="H140" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I140" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J140" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="K140" s="19">
-        <v>1.2063632834937122E-2</v>
-      </c>
-      <c r="L140" s="11">
-        <v>3</v>
-      </c>
-      <c r="M140" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="141" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B141" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="C141" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D141" s="17">
-        <v>12.100000000000001</v>
-      </c>
-      <c r="E141" s="18">
-        <v>6.6E-4</v>
-      </c>
-      <c r="H141" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I141" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J141" s="12" t="s">
-        <v>437</v>
-      </c>
-      <c r="K141" s="20">
-        <v>3.0040767679252373E-2</v>
-      </c>
-      <c r="L141" s="13">
-        <v>3</v>
-      </c>
-      <c r="M141" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="142" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B142" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="C142" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D142" s="15">
-        <v>36.300000000000004</v>
-      </c>
-      <c r="E142" s="16">
-        <v>1.98E-3</v>
-      </c>
-      <c r="H142" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I142" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J142" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="K142" s="19">
-        <v>3.8710995397140333E-3</v>
-      </c>
-      <c r="L142" s="11">
-        <v>3</v>
-      </c>
-      <c r="M142" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="143" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B143" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="C143" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D143" s="17">
-        <v>27.500000000000004</v>
-      </c>
-      <c r="E143" s="18">
-        <v>1.5E-3</v>
-      </c>
-      <c r="H143" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I143" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J143" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="K143" s="20">
-        <v>1.3283750168371385E-2</v>
-      </c>
-      <c r="L143" s="13">
-        <v>3</v>
-      </c>
-      <c r="M143" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="144" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B144" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="C144" s="11">
-        <v>3.3962050000000001</v>
-      </c>
-      <c r="D144" s="15">
-        <v>14.3</v>
-      </c>
-      <c r="E144" s="16">
-        <v>7.7999999999999999E-4</v>
-      </c>
-      <c r="H144" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I144" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J144" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="K144" s="19">
-        <v>0</v>
-      </c>
-      <c r="L144" s="11">
-        <v>3</v>
-      </c>
-      <c r="M144" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="145" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B145" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="C145" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D145" s="17">
-        <v>18.700000000000003</v>
-      </c>
-      <c r="E145" s="18">
-        <v>1.0200000000000001E-3</v>
-      </c>
-      <c r="H145" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I145" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J145" s="12" t="s">
-        <v>441</v>
-      </c>
-      <c r="K145" s="20">
-        <v>1.3937437273071906E-2</v>
-      </c>
-      <c r="L145" s="13">
-        <v>3</v>
-      </c>
-      <c r="M145" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="146" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B146" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="C146" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D146" s="15">
-        <v>29.700000000000003</v>
-      </c>
-      <c r="E146" s="16">
-        <v>1.6200000000000001E-3</v>
-      </c>
-      <c r="H146" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I146" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J146" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="K146" s="19">
-        <v>0</v>
-      </c>
-      <c r="L146" s="11">
-        <v>3</v>
-      </c>
-      <c r="M146" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="147" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B147" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="C147" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D147" s="17">
-        <v>23.1</v>
-      </c>
-      <c r="E147" s="18">
-        <v>1.2600000000000001E-3</v>
-      </c>
-      <c r="H147" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I147" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J147" s="12" t="s">
-        <v>443</v>
-      </c>
-      <c r="K147" s="20">
-        <v>0</v>
-      </c>
-      <c r="L147" s="13">
-        <v>3</v>
-      </c>
-      <c r="M147" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="148" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B148" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="C148" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D148" s="15">
-        <v>9.9</v>
-      </c>
-      <c r="E148" s="16">
-        <v>5.4000000000000001E-4</v>
-      </c>
-      <c r="H148" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I148" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J148" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="K148" s="19">
-        <v>2.8913083477138078E-3</v>
-      </c>
-      <c r="L148" s="11">
-        <v>3</v>
-      </c>
-      <c r="M148" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="149" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B149" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="C149" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D149" s="17">
-        <v>29.700000000000003</v>
-      </c>
-      <c r="E149" s="18">
-        <v>1.6200000000000001E-3</v>
-      </c>
-      <c r="H149" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I149" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J149" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="K149" s="20">
-        <v>1.1608861828838968E-2</v>
-      </c>
-      <c r="L149" s="13">
-        <v>3</v>
-      </c>
-      <c r="M149" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="150" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B150" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C150" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D150" s="15">
-        <v>16.5</v>
-      </c>
-      <c r="E150" s="16">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="H150" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I150" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J150" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="K150" s="19">
-        <v>2.7217243627839539E-3</v>
-      </c>
-      <c r="L150" s="11">
-        <v>3</v>
-      </c>
-      <c r="M150" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="151" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B151" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="C151" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D151" s="17">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="E151" s="18">
-        <v>4.8000000000000001E-4</v>
-      </c>
-      <c r="H151" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I151" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J151" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="K151" s="20">
-        <v>7.8696335564757899E-3</v>
-      </c>
-      <c r="L151" s="13">
-        <v>3</v>
-      </c>
-      <c r="M151" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="152" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B152" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C152" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D152" s="15">
-        <v>16.5</v>
-      </c>
-      <c r="E152" s="16">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="H152" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I152" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J152" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="K152" s="19">
-        <v>6.6394102006838429E-3</v>
-      </c>
-      <c r="L152" s="11">
-        <v>3</v>
-      </c>
-      <c r="M152" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="153" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B153" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="C153" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D153" s="17">
-        <v>13.200000000000001</v>
-      </c>
-      <c r="E153" s="18">
-        <v>7.2000000000000005E-4</v>
-      </c>
-      <c r="H153" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I153" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J153" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="K153" s="20">
-        <v>1.4128712232818436E-2</v>
-      </c>
-      <c r="L153" s="13">
-        <v>3</v>
-      </c>
-      <c r="M153" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="154" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B154" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C154" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D154" s="15">
-        <v>15.400000000000002</v>
-      </c>
-      <c r="E154" s="16">
-        <v>8.4000000000000003E-4</v>
-      </c>
-      <c r="H154" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I154" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J154" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="K154" s="19">
-        <v>9.6717098847056496E-3</v>
-      </c>
-      <c r="L154" s="11">
-        <v>3</v>
-      </c>
-      <c r="M154" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="155" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B155" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="C155" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D155" s="17">
-        <v>16.5</v>
-      </c>
-      <c r="E155" s="18">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="H155" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I155" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J155" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="K155" s="20">
-        <v>4.2432969484990255E-3</v>
-      </c>
-      <c r="L155" s="13">
-        <v>3</v>
-      </c>
-      <c r="M155" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="156" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B156" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C156" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D156" s="15">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E156" s="16">
-        <v>1.2E-4</v>
-      </c>
-      <c r="H156" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I156" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J156" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="K156" s="19">
-        <v>0</v>
-      </c>
-      <c r="L156" s="11">
-        <v>3</v>
-      </c>
-      <c r="M156" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="157" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B157" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="C157" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D157" s="17">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="E157" s="18">
-        <v>9.6000000000000002E-4</v>
-      </c>
-      <c r="H157" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I157" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J157" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="K157" s="20">
-        <v>0</v>
-      </c>
-      <c r="L157" s="13">
-        <v>3</v>
-      </c>
-      <c r="M157" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="158" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B158" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="C158" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D158" s="15">
-        <v>23.1</v>
-      </c>
-      <c r="E158" s="16">
-        <v>1.2600000000000001E-3</v>
-      </c>
-      <c r="H158" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I158" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="J158" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="K158" s="19">
-        <v>4.1766711474430999E-2</v>
-      </c>
-      <c r="L158" s="11">
-        <v>3</v>
-      </c>
-      <c r="M158" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="159" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B159" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="C159" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D159" s="17">
-        <v>3.3000000000000003</v>
-      </c>
-      <c r="E159" s="18">
-        <v>1.8000000000000001E-4</v>
-      </c>
-      <c r="H159" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I159" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J159" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="K159" s="20">
-        <v>0</v>
-      </c>
-      <c r="L159" s="13">
-        <v>3</v>
-      </c>
-      <c r="M159" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="160" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B160" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="C160" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D160" s="15">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="E160" s="16">
-        <v>9.6000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B161" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="C161" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D161" s="17">
-        <v>7.7000000000000011</v>
-      </c>
-      <c r="E161" s="18">
-        <v>4.2000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B162" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="C162" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D162" s="15">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="E162" s="16">
-        <v>4.8000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B163" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="C163" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D163" s="17">
-        <v>11</v>
-      </c>
-      <c r="E163" s="18">
-        <v>6.0000000000000006E-4</v>
-      </c>
-    </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B164" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="C164" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D164" s="15">
-        <v>60.500000000000007</v>
-      </c>
-      <c r="E164" s="16">
-        <v>3.3E-3</v>
-      </c>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B165" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="C165" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D165" s="17">
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E165" s="18">
-        <v>1.74E-3</v>
-      </c>
-    </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B166" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C166" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D166" s="15">
-        <v>18.700000000000003</v>
-      </c>
-      <c r="E166" s="16">
-        <v>1.0200000000000001E-3</v>
-      </c>
-    </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B167" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="C167" s="13">
-        <v>1.6981030000000001</v>
-      </c>
-      <c r="D167" s="17">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="E167" s="18">
-        <v>1.92E-3</v>
-      </c>
-    </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B168" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="C168" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D168" s="15">
-        <v>23.1</v>
-      </c>
-      <c r="E168" s="16">
-        <v>1.2600000000000001E-3</v>
-      </c>
-    </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B169" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C169" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D169" s="17">
-        <v>27.500000000000004</v>
-      </c>
-      <c r="E169" s="18">
-        <v>1.5E-3</v>
-      </c>
-    </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B170" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="C170" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D170" s="15">
-        <v>46.2</v>
-      </c>
-      <c r="E170" s="16">
-        <v>2.5200000000000001E-3</v>
-      </c>
-    </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B171" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="C171" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D171" s="17">
-        <v>25.3</v>
-      </c>
-      <c r="E171" s="18">
-        <v>1.3799999999999999E-3</v>
-      </c>
-    </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B172" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C172" s="11">
-        <v>3.3962060000000003</v>
-      </c>
-      <c r="D172" s="15">
-        <v>47.300000000000004</v>
-      </c>
-      <c r="E172" s="16">
-        <v>2.5800000000000003E-3</v>
-      </c>
-    </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B173" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="C173" s="13">
-        <v>1.6981030000000001</v>
-      </c>
-      <c r="D173" s="17">
-        <v>25.3</v>
-      </c>
-      <c r="E173" s="18">
-        <v>1.3799999999999999E-3</v>
-      </c>
-    </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B174" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C174" s="11">
-        <v>1.6981030000000001</v>
-      </c>
-      <c r="D174" s="15">
-        <v>12.100000000000001</v>
-      </c>
-      <c r="E174" s="16">
-        <v>6.6E-4</v>
-      </c>
-    </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B175" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="C175" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D175" s="17">
-        <v>9.9</v>
-      </c>
-      <c r="E175" s="18">
-        <v>5.4000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B176" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C176" s="11">
-        <v>1.6981030000000001</v>
-      </c>
-      <c r="D176" s="15">
-        <v>20.900000000000002</v>
-      </c>
-      <c r="E176" s="16">
-        <v>1.14E-3</v>
-      </c>
-    </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B177" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C177" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D177" s="17">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="E177" s="18">
-        <v>9.6000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B178" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="C178" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D178" s="15">
-        <v>5.5</v>
-      </c>
-      <c r="E178" s="16">
-        <v>3.0000000000000003E-4</v>
-      </c>
-    </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B179" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="C179" s="13">
-        <v>1.6981030000000001</v>
-      </c>
-      <c r="D179" s="17">
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E179" s="18">
-        <v>1.4400000000000001E-3</v>
-      </c>
-    </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B180" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="C180" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D180" s="15">
-        <v>25.3</v>
-      </c>
-      <c r="E180" s="16">
-        <v>1.3799999999999999E-3</v>
-      </c>
-    </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B181" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="C181" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D181" s="17">
-        <v>12.100000000000001</v>
-      </c>
-      <c r="E181" s="18">
-        <v>6.6E-4</v>
-      </c>
-    </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B182" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="C182" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D182" s="15">
-        <v>24.200000000000003</v>
-      </c>
-      <c r="E182" s="16">
-        <v>1.32E-3</v>
-      </c>
-    </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B183" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C183" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D183" s="17">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E183" s="18">
-        <v>1.2E-4</v>
-      </c>
-    </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B184" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="C184" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D184" s="15">
-        <v>16.5</v>
-      </c>
-      <c r="E184" s="16">
-        <v>8.9999999999999998E-4</v>
-      </c>
-    </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B185" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="C185" s="13">
-        <v>1.6981030000000001</v>
-      </c>
-      <c r="D185" s="17">
-        <v>16.5</v>
-      </c>
-      <c r="E185" s="18">
-        <v>8.9999999999999998E-4</v>
-      </c>
-    </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B186" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="C186" s="11">
-        <v>3.3962050000000001</v>
-      </c>
-      <c r="D186" s="15">
-        <v>16.5</v>
-      </c>
-      <c r="E186" s="16">
-        <v>8.9999999999999998E-4</v>
-      </c>
-    </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B187" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="C187" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D187" s="17">
-        <v>9.9</v>
-      </c>
-      <c r="E187" s="18">
-        <v>5.4000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B188" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C188" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D188" s="15">
-        <v>18.700000000000003</v>
-      </c>
-      <c r="E188" s="16">
-        <v>1.0200000000000001E-3</v>
-      </c>
-    </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B189" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="C189" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D189" s="17">
-        <v>19.8</v>
-      </c>
-      <c r="E189" s="18">
-        <v>1.08E-3</v>
-      </c>
-    </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B190" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="C190" s="11">
-        <v>1.6981030000000001</v>
-      </c>
-      <c r="D190" s="15">
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E190" s="16">
-        <v>1.4400000000000001E-3</v>
-      </c>
-    </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B191" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="C191" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D191" s="17">
-        <v>14.3</v>
-      </c>
-      <c r="E191" s="18">
-        <v>7.7999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B192" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C192" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D192" s="15">
-        <v>48.400000000000006</v>
-      </c>
-      <c r="E192" s="16">
-        <v>2.64E-3</v>
-      </c>
-    </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B193" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="C193" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D193" s="17">
-        <v>3.3000000000000003</v>
-      </c>
-      <c r="E193" s="18">
-        <v>1.8000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B194" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="C194" s="11">
-        <v>3.3962060000000003</v>
-      </c>
-      <c r="D194" s="15">
-        <v>15.400000000000002</v>
-      </c>
-      <c r="E194" s="16">
-        <v>8.4000000000000003E-4</v>
-      </c>
-    </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B195" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="C195" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D195" s="17">
-        <v>24.200000000000003</v>
-      </c>
-      <c r="E195" s="18">
-        <v>1.32E-3</v>
-      </c>
-    </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B196" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="C196" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D196" s="15">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E196" s="16">
-        <v>2.4000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B197" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="C197" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D197" s="17">
-        <v>19.8</v>
-      </c>
-      <c r="E197" s="18">
-        <v>1.08E-3</v>
-      </c>
-    </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B198" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C198" s="11">
-        <v>1.005455</v>
-      </c>
-      <c r="D198" s="15">
-        <v>14.3</v>
-      </c>
-      <c r="E198" s="16">
-        <v>7.7999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B199" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="C199" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D199" s="17">
-        <v>3.3000000000000003</v>
-      </c>
-      <c r="E199" s="18">
-        <v>1.8000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B200" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C200" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D200" s="15">
-        <v>12.100000000000001</v>
-      </c>
-      <c r="E200" s="16">
-        <v>6.6E-4</v>
-      </c>
-    </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B201" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="C201" s="13">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D201" s="17">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E201" s="18">
-        <v>1.2E-4</v>
-      </c>
-    </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B202" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C202" s="11">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D202" s="15">
-        <v>12.100000000000001</v>
-      </c>
-      <c r="E202" s="16">
-        <v>6.6E-4</v>
-      </c>
-    </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B203" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="C203" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D203" s="17">
-        <v>40.700000000000003</v>
-      </c>
-      <c r="E203" s="18">
-        <v>2.2200000000000002E-3</v>
-      </c>
-    </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B204" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="C204" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D204" s="15">
-        <v>25.3</v>
-      </c>
-      <c r="E204" s="16">
-        <v>1.3799999999999999E-3</v>
-      </c>
-    </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B205" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="C205" s="13">
-        <v>1.6981030000000001</v>
-      </c>
-      <c r="D205" s="17">
-        <v>19.8</v>
-      </c>
-      <c r="E205" s="18">
-        <v>1.08E-3</v>
-      </c>
-    </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B206" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="C206" s="11">
-        <v>1.6981030000000001</v>
-      </c>
-      <c r="D206" s="15">
-        <v>116.60000000000001</v>
-      </c>
-      <c r="E206" s="16">
-        <v>6.3600000000000002E-3</v>
-      </c>
-    </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B207" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="C207" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D207" s="17">
-        <v>3.3000000000000003</v>
-      </c>
-      <c r="E207" s="18">
-        <v>1.8000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B208" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C208" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D208" s="15">
-        <v>22</v>
-      </c>
-      <c r="E208" s="16">
-        <v>1.2000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B209" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="C209" s="13">
-        <v>3.3962050000000001</v>
-      </c>
-      <c r="D209" s="17">
-        <v>11</v>
-      </c>
-      <c r="E209" s="18">
-        <v>6.0000000000000006E-4</v>
-      </c>
-    </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B210" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="C210" s="11">
-        <v>0.49155599999999999</v>
-      </c>
-      <c r="D210" s="15">
-        <v>20.900000000000002</v>
-      </c>
-      <c r="E210" s="16">
-        <v>1.14E-3</v>
-      </c>
-    </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B211" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="C211" s="13">
-        <v>0.98311199999999999</v>
-      </c>
-      <c r="D211" s="17">
-        <v>22</v>
-      </c>
-      <c r="E211" s="18">
-        <v>1.2000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B212" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="C212" s="11">
-        <v>3.3962050000000001</v>
-      </c>
-      <c r="D212" s="15">
-        <v>44</v>
-      </c>
-      <c r="E212" s="16">
-        <v>2.4000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B213" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="C213" s="13">
-        <v>1.6981030000000001</v>
-      </c>
-      <c r="D213" s="17">
-        <v>20.900000000000002</v>
-      </c>
-      <c r="E213" s="18">
-        <v>1.14E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -8660,7 +1591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC33DFE9-8C65-4A33-8FAE-96323628CE2A}">
   <dimension ref="A1:D626"/>
   <sheetViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A40197E-C2C1-40F1-B629-B5FB0ED18D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239AF285-386A-4663-8652-F76BDDEDB76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239AF285-386A-4663-8652-F76BDDEDB76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43CC7C20-B662-4D02-B28D-F0BF8CE9655F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Veda" sheetId="1" r:id="rId1"/>
-    <sheet name="historical_data_long" sheetId="3" r:id="rId2"/>
+    <sheet name="grids" sheetId="4" r:id="rId1"/>
+    <sheet name="Veda" sheetId="1" r:id="rId2"/>
+    <sheet name="historical_data_long" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -96,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="497">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -336,16 +337,1270 @@
   </si>
   <si>
     <t>prc_capact</t>
+  </si>
+  <si>
+    <t>pasti</t>
+  </si>
+  <si>
+    <t>ncap_cost</t>
+  </si>
+  <si>
+    <t>efficiency</t>
+  </si>
+  <si>
+    <t>g_CH1-220-CH2-220</t>
+  </si>
+  <si>
+    <t>g_CH11-220-w147557680-220</t>
+  </si>
+  <si>
+    <t>g_CH12-220-w207993342-220</t>
+  </si>
+  <si>
+    <t>g_CH12-380-w207993342-380</t>
+  </si>
+  <si>
+    <t>g_CH13-220-CH12-220</t>
+  </si>
+  <si>
+    <t>g_CH13-220-w52738225-220</t>
+  </si>
+  <si>
+    <t>g_CH14-220-w212722603-220</t>
+  </si>
+  <si>
+    <t>g_CH14-220-w402053379-220</t>
+  </si>
+  <si>
+    <t>g_CH14-380-w50319857-380</t>
+  </si>
+  <si>
+    <t>g_CH15-220-w159527493-220</t>
+  </si>
+  <si>
+    <t>g_CH15-220-w97941869-220</t>
+  </si>
+  <si>
+    <t>g_CH17-380-w71500123-380</t>
+  </si>
+  <si>
+    <t>g_CH18-380-CH16-380</t>
+  </si>
+  <si>
+    <t>g_CH19-220-CH14-220</t>
+  </si>
+  <si>
+    <t>g_CH19-220-CH20-220</t>
+  </si>
+  <si>
+    <t>g_CH2-220-w50319857-220</t>
+  </si>
+  <si>
+    <t>g_CH20-220-CH19-220</t>
+  </si>
+  <si>
+    <t>g_CH21-220-w36348118-220</t>
+  </si>
+  <si>
+    <t>g_CH22-380-CH29-380</t>
+  </si>
+  <si>
+    <t>g_CH23-220-CH24-220</t>
+  </si>
+  <si>
+    <t>g_CH24-220-CH26-220</t>
+  </si>
+  <si>
+    <t>g_CH25-220-w240959264-220</t>
+  </si>
+  <si>
+    <t>g_CH26-220-CH28-220</t>
+  </si>
+  <si>
+    <t>g_CH27-220-CH25-220</t>
+  </si>
+  <si>
+    <t>g_CH27-220-w1086214433-220</t>
+  </si>
+  <si>
+    <t>g_CH28-220-w431234146-220</t>
+  </si>
+  <si>
+    <t>g_CH3-220-w281809991-220</t>
+  </si>
+  <si>
+    <t>g_CH30-380-CH33-380</t>
+  </si>
+  <si>
+    <t>g_CH30-380-w208780268-380</t>
+  </si>
+  <si>
+    <t>g_CH31-220-w132373704-220</t>
+  </si>
+  <si>
+    <t>g_CH32-220-w281803398-220</t>
+  </si>
+  <si>
+    <t>g_CH33-380-CH37-380</t>
+  </si>
+  <si>
+    <t>g_CH34-220-CH35-220</t>
+  </si>
+  <si>
+    <t>g_CH36-220-CH27-220</t>
+  </si>
+  <si>
+    <t>g_CH36-220-CH39-220</t>
+  </si>
+  <si>
+    <t>g_CH37-380-w207991759-380</t>
+  </si>
+  <si>
+    <t>g_CH38-220-CH39-220</t>
+  </si>
+  <si>
+    <t>g_CH38-220-w1092884227-220</t>
+  </si>
+  <si>
+    <t>g_CH39-220-CH36-220</t>
+  </si>
+  <si>
+    <t>g_CH4-220-CH9-220</t>
+  </si>
+  <si>
+    <t>g_CH4-220-w92873516-220</t>
+  </si>
+  <si>
+    <t>g_CH40-220-CH35-220</t>
+  </si>
+  <si>
+    <t>g_CH41-380-w207993342-380</t>
+  </si>
+  <si>
+    <t>g_CH41-380-w281804158-380</t>
+  </si>
+  <si>
+    <t>g_CH42-220-w969811258-220</t>
+  </si>
+  <si>
+    <t>g_CH43-220-CH44-220</t>
+  </si>
+  <si>
+    <t>g_CH43-220-w402055336-220</t>
+  </si>
+  <si>
+    <t>g_CH44-220-w234983117-220</t>
+  </si>
+  <si>
+    <t>g_CH45-220-CH29-220</t>
+  </si>
+  <si>
+    <t>g_CH46-220-CH47-220</t>
+  </si>
+  <si>
+    <t>g_CH47-220-w212722603-220</t>
+  </si>
+  <si>
+    <t>g_CH49-225-CH48-225</t>
+  </si>
+  <si>
+    <t>g_CH5-220-w89977424-220</t>
+  </si>
+  <si>
+    <t>g_CH50-220-w281804158-220</t>
+  </si>
+  <si>
+    <t>g_CH53-225-CH49-225</t>
+  </si>
+  <si>
+    <t>g_CH53-225-w55698557-225</t>
+  </si>
+  <si>
+    <t>g_CH56-220-CH58-220</t>
+  </si>
+  <si>
+    <t>g_CH56-220-w281815404-220</t>
+  </si>
+  <si>
+    <t>g_CH59-220-w281800404-220</t>
+  </si>
+  <si>
+    <t>g_CH6-220-CH3-220</t>
+  </si>
+  <si>
+    <t>g_CH60-225-CH53-225</t>
+  </si>
+  <si>
+    <t>g_CH7-220-w89405664-220</t>
+  </si>
+  <si>
+    <t>g_CH9-220-w455120191-220</t>
+  </si>
+  <si>
+    <t>g_r5378910-220-w1105061707-220</t>
+  </si>
+  <si>
+    <t>g_r7933294-380-CH30-380</t>
+  </si>
+  <si>
+    <t>g_r9310861-220-w11282314-220</t>
+  </si>
+  <si>
+    <t>g_w100662075-220-w210568055-220</t>
+  </si>
+  <si>
+    <t>g_w108257952-220-w33271433-220</t>
+  </si>
+  <si>
+    <t>g_w108257952-220-w35002638-220</t>
+  </si>
+  <si>
+    <t>g_w109037817-220-CH2-220</t>
+  </si>
+  <si>
+    <t>g_w109037817-380-w397960460-380</t>
+  </si>
+  <si>
+    <t>g_w1105061707-220-CH14-220</t>
+  </si>
+  <si>
+    <t>g_w1105061707-220-w402053379-220</t>
+  </si>
+  <si>
+    <t>g_w1105061707-220-w402055336-220</t>
+  </si>
+  <si>
+    <t>g_w111162936-220-CH31-220</t>
+  </si>
+  <si>
+    <t>g_w111162936-220-w55698557-220</t>
+  </si>
+  <si>
+    <t>g_w111162936-380-w936521586-380</t>
+  </si>
+  <si>
+    <t>g_w11282314-220-CH12-220</t>
+  </si>
+  <si>
+    <t>g_w11282314-220-CH6-220</t>
+  </si>
+  <si>
+    <t>g_w1208713169-220-w207993342-220</t>
+  </si>
+  <si>
+    <t>g_w1208713169-220-w212498548-220</t>
+  </si>
+  <si>
+    <t>g_w122720993-220-w1105061707-220</t>
+  </si>
+  <si>
+    <t>g_w127004407-380-CH14-380</t>
+  </si>
+  <si>
+    <t>g_w127004407-380-w1105061707-380</t>
+  </si>
+  <si>
+    <t>g_w127004407-380-w50319857-380</t>
+  </si>
+  <si>
+    <t>g_w1284913429-220-w165513396-220</t>
+  </si>
+  <si>
+    <t>g_w1327084723-220-CH42-220</t>
+  </si>
+  <si>
+    <t>g_w1327084723-220-w281800404-220</t>
+  </si>
+  <si>
+    <t>g_w140873735-220-CH23-220</t>
+  </si>
+  <si>
+    <t>g_w140873735-220-w130198336-220</t>
+  </si>
+  <si>
+    <t>g_w140873735-220-w35002638-220</t>
+  </si>
+  <si>
+    <t>g_w146225999-220-w35002638-220</t>
+  </si>
+  <si>
+    <t>g_w147557680-220-CH14-220</t>
+  </si>
+  <si>
+    <t>g_w147714395-220-CH3-220</t>
+  </si>
+  <si>
+    <t>g_w147714395-220-w22899676-220</t>
+  </si>
+  <si>
+    <t>g_w147714395-380-CH17-380</t>
+  </si>
+  <si>
+    <t>g_w147714395-380-w192677427-380</t>
+  </si>
+  <si>
+    <t>g_w148015471-220-r9310861-220</t>
+  </si>
+  <si>
+    <t>g_w148015471-220-w31308888-220</t>
+  </si>
+  <si>
+    <t>g_w159527493-220-w240959264-220</t>
+  </si>
+  <si>
+    <t>g_w161853746-220-r5378910-220</t>
+  </si>
+  <si>
+    <t>g_w161853746-220-w1105061707-220</t>
+  </si>
+  <si>
+    <t>g_w165254212-220-w147557680-220</t>
+  </si>
+  <si>
+    <t>g_w165513396-220-w33271433-220</t>
+  </si>
+  <si>
+    <t>g_w177392130-220-CH51-220</t>
+  </si>
+  <si>
+    <t>g_w177392130-220-CH52-220</t>
+  </si>
+  <si>
+    <t>g_w177392130-220-CH57-220</t>
+  </si>
+  <si>
+    <t>g_w177392130-400-CH51-400</t>
+  </si>
+  <si>
+    <t>g_w190819048-220-CH7-220</t>
+  </si>
+  <si>
+    <t>g_w190819048-220-w50319857-220</t>
+  </si>
+  <si>
+    <t>g_w192677427-220-CH13-220</t>
+  </si>
+  <si>
+    <t>g_w192677427-220-CH18-220</t>
+  </si>
+  <si>
+    <t>g_w192677427-220-w147714395-220</t>
+  </si>
+  <si>
+    <t>g_w192677427-220-w240575085-220</t>
+  </si>
+  <si>
+    <t>g_w192677427-380-CH16-380</t>
+  </si>
+  <si>
+    <t>g_w194258388-220-w122720993-220</t>
+  </si>
+  <si>
+    <t>g_w207993342-220-CH22-220</t>
+  </si>
+  <si>
+    <t>g_w208780268-380-w207993342-380</t>
+  </si>
+  <si>
+    <t>g_w209324991-220-w758315582-220</t>
+  </si>
+  <si>
+    <t>g_w210568055-220-w192677427-220</t>
+  </si>
+  <si>
+    <t>g_w210568055-220-w365556107-220</t>
+  </si>
+  <si>
+    <t>g_w210568055-380-CH16-380</t>
+  </si>
+  <si>
+    <t>g_w210568055-380-w71500123-380</t>
+  </si>
+  <si>
+    <t>g_w211907009-220-CH21-220</t>
+  </si>
+  <si>
+    <t>g_w211907009-220-w455120191-220</t>
+  </si>
+  <si>
+    <t>g_w212722603-220-w234983117-220</t>
+  </si>
+  <si>
+    <t>g_w212722603-220-w236819191-220</t>
+  </si>
+  <si>
+    <t>g_w212722603-380-w234983117-380</t>
+  </si>
+  <si>
+    <t>g_w22899676-220-CH3-220</t>
+  </si>
+  <si>
+    <t>g_w232662311-220-w111162936-220</t>
+  </si>
+  <si>
+    <t>g_w236819191-220-CH47-220</t>
+  </si>
+  <si>
+    <t>g_w236819191-220-w228003081-220</t>
+  </si>
+  <si>
+    <t>g_w238138373-380-w260211728-380</t>
+  </si>
+  <si>
+    <t>g_w239937062-220-CH52-220</t>
+  </si>
+  <si>
+    <t>g_w239937062-220-w132373704-220</t>
+  </si>
+  <si>
+    <t>g_w240575085-220-CH6-220</t>
+  </si>
+  <si>
+    <t>g_w240959264-220-CH20-220</t>
+  </si>
+  <si>
+    <t>g_w240959264-220-CH27-220</t>
+  </si>
+  <si>
+    <t>g_w240959264-220-w209324991-220</t>
+  </si>
+  <si>
+    <t>g_w242269161-220-CH14-220</t>
+  </si>
+  <si>
+    <t>g_w260211728-380-w936521586-380</t>
+  </si>
+  <si>
+    <t>g_w26166640-220-w758315582-220</t>
+  </si>
+  <si>
+    <t>g_w26843160-220-w92798668-220</t>
+  </si>
+  <si>
+    <t>g_w27107779-220-w147714395-220</t>
+  </si>
+  <si>
+    <t>g_w27435934-220-w109037817-220</t>
+  </si>
+  <si>
+    <t>g_w27435934-220-w30350721-220</t>
+  </si>
+  <si>
+    <t>g_w281799252-220-w52738225-220</t>
+  </si>
+  <si>
+    <t>g_w281800404-220-CH59-220</t>
+  </si>
+  <si>
+    <t>g_w281800404-220-w281815404-220</t>
+  </si>
+  <si>
+    <t>g_w281803398-220-CH50-220</t>
+  </si>
+  <si>
+    <t>g_w281809991-220-w26843160-220</t>
+  </si>
+  <si>
+    <t>g_w281815404-220-CH50-220</t>
+  </si>
+  <si>
+    <t>g_w281815404-220-CH58-220</t>
+  </si>
+  <si>
+    <t>g_w281815404-220-w35487135-220</t>
+  </si>
+  <si>
+    <t>g_w281822905-220-CH38-220</t>
+  </si>
+  <si>
+    <t>g_w281822905-220-CH42-220</t>
+  </si>
+  <si>
+    <t>g_w30350721-220-w356292116-220</t>
+  </si>
+  <si>
+    <t>g_w31308888-220-w89977424-220</t>
+  </si>
+  <si>
+    <t>g_w33271433-220-CH5-220</t>
+  </si>
+  <si>
+    <t>g_w35002638-220-CH15-220</t>
+  </si>
+  <si>
+    <t>g_w35002638-220-w140873735-220</t>
+  </si>
+  <si>
+    <t>g_w35002638-220-w242269161-220</t>
+  </si>
+  <si>
+    <t>g_w35002638-220-w281799252-220</t>
+  </si>
+  <si>
+    <t>g_w35002638-380-w52738225-380</t>
+  </si>
+  <si>
+    <t>g_w356292116-220-CH11-220</t>
+  </si>
+  <si>
+    <t>g_w356292116-220-w146225999-220</t>
+  </si>
+  <si>
+    <t>g_w356292116-220-w35002638-220</t>
+  </si>
+  <si>
+    <t>g_w356292116-220-w50319857-220</t>
+  </si>
+  <si>
+    <t>g_w356292116-380-w35002638-380</t>
+  </si>
+  <si>
+    <t>g_w356292116-380-w50319857-380</t>
+  </si>
+  <si>
+    <t>g_w35840165-380-w98648381-380</t>
+  </si>
+  <si>
+    <t>g_w364949845-220-w969819301-220</t>
+  </si>
+  <si>
+    <t>g_w364949845-380-CH34-380</t>
+  </si>
+  <si>
+    <t>g_w365556107-220-w71500123-220</t>
+  </si>
+  <si>
+    <t>g_w391577741-220-w391576135-220</t>
+  </si>
+  <si>
+    <t>g_w397960460-380-w50319857-380</t>
+  </si>
+  <si>
+    <t>g_w402053379-220-w190819048-220</t>
+  </si>
+  <si>
+    <t>g_w431234146-220-CH35-220</t>
+  </si>
+  <si>
+    <t>g_w431234146-220-w969811258-220</t>
+  </si>
+  <si>
+    <t>g_w44496892-220-CH31-220</t>
+  </si>
+  <si>
+    <t>g_w50319857-220-w98648381-220</t>
+  </si>
+  <si>
+    <t>g_w50319857-380-w35840165-380</t>
+  </si>
+  <si>
+    <t>g_w50319857-380-w98648381-380</t>
+  </si>
+  <si>
+    <t>g_w50561341-220-w147714395-220</t>
+  </si>
+  <si>
+    <t>g_w50561341-220-w87281514-220</t>
+  </si>
+  <si>
+    <t>g_w52738225-220-CH13-220</t>
+  </si>
+  <si>
+    <t>g_w52738225-380-CH12-380</t>
+  </si>
+  <si>
+    <t>g_w55695765-220-w111162936-220</t>
+  </si>
+  <si>
+    <t>g_w55698557-220-w194258388-220</t>
+  </si>
+  <si>
+    <t>g_w71500123-220-CH21-220</t>
+  </si>
+  <si>
+    <t>g_w71500123-380-w207993342-380</t>
+  </si>
+  <si>
+    <t>g_w758943072-220-w234983117-220</t>
+  </si>
+  <si>
+    <t>g_w802058337-220-w234983117-220</t>
+  </si>
+  <si>
+    <t>g_w802058337-220-w758943072-220</t>
+  </si>
+  <si>
+    <t>g_w802058337-225-CH60-225</t>
+  </si>
+  <si>
+    <t>g_w83861269-220-CH9-220</t>
+  </si>
+  <si>
+    <t>g_w89405664-220-w165513396-220</t>
+  </si>
+  <si>
+    <t>g_w89977424-220-CH5-220</t>
+  </si>
+  <si>
+    <t>g_w92798668-220-CH4-220</t>
+  </si>
+  <si>
+    <t>g_w92798668-220-w192677427-220</t>
+  </si>
+  <si>
+    <t>g_w92798668-220-w455120191-220</t>
+  </si>
+  <si>
+    <t>g_w936521586-380-w234983117-380</t>
+  </si>
+  <si>
+    <t>g_w969811258-380-w35002638-380</t>
+  </si>
+  <si>
+    <t>g_w969819301-220-CH46-220</t>
+  </si>
+  <si>
+    <t>g_w969819301-220-w391577741-220</t>
+  </si>
+  <si>
+    <t>g_w969819301-380-w364949845-380</t>
+  </si>
+  <si>
+    <t>g_w98648381-220-w165513396-220</t>
+  </si>
+  <si>
+    <t>g_w98648381-220-w27107779-220</t>
+  </si>
+  <si>
+    <t>g_w98648381-380-w147714395-380</t>
+  </si>
+  <si>
+    <t>g_w98648381-380-w165513396-380</t>
+  </si>
+  <si>
+    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
+  </si>
+  <si>
+    <t>~tfm_ins-ts</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>lim_type</t>
+  </si>
+  <si>
+    <t>flo_shar</t>
+  </si>
+  <si>
+    <t>elc_demand</t>
+  </si>
+  <si>
+    <t>e_CH1-220</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>e_CH11-220</t>
+  </si>
+  <si>
+    <t>e_CH12-220</t>
+  </si>
+  <si>
+    <t>e_CH12-380</t>
+  </si>
+  <si>
+    <t>e_CH13-220</t>
+  </si>
+  <si>
+    <t>e_CH14-220</t>
+  </si>
+  <si>
+    <t>e_CH14-380</t>
+  </si>
+  <si>
+    <t>e_CH15-220</t>
+  </si>
+  <si>
+    <t>e_CH16-380</t>
+  </si>
+  <si>
+    <t>e_CH17-380</t>
+  </si>
+  <si>
+    <t>e_CH18-220</t>
+  </si>
+  <si>
+    <t>e_CH18-380</t>
+  </si>
+  <si>
+    <t>e_CH19-220</t>
+  </si>
+  <si>
+    <t>e_CH2-220</t>
+  </si>
+  <si>
+    <t>e_CH20-220</t>
+  </si>
+  <si>
+    <t>e_CH21-220</t>
+  </si>
+  <si>
+    <t>e_CH22-220</t>
+  </si>
+  <si>
+    <t>e_CH22-380</t>
+  </si>
+  <si>
+    <t>e_CH23-220</t>
+  </si>
+  <si>
+    <t>e_CH24-220</t>
+  </si>
+  <si>
+    <t>e_CH25-220</t>
+  </si>
+  <si>
+    <t>e_CH26-220</t>
+  </si>
+  <si>
+    <t>e_CH27-220</t>
+  </si>
+  <si>
+    <t>e_CH28-220</t>
+  </si>
+  <si>
+    <t>e_CH29-220</t>
+  </si>
+  <si>
+    <t>e_CH29-380</t>
+  </si>
+  <si>
+    <t>e_CH3-220</t>
+  </si>
+  <si>
+    <t>e_CH30-380</t>
+  </si>
+  <si>
+    <t>e_CH31-220</t>
+  </si>
+  <si>
+    <t>e_CH32-220</t>
+  </si>
+  <si>
+    <t>e_CH33-380</t>
+  </si>
+  <si>
+    <t>e_CH34-220</t>
+  </si>
+  <si>
+    <t>e_CH34-380</t>
+  </si>
+  <si>
+    <t>e_CH35-220</t>
+  </si>
+  <si>
+    <t>e_CH36-220</t>
+  </si>
+  <si>
+    <t>e_CH37-380</t>
+  </si>
+  <si>
+    <t>e_CH38-220</t>
+  </si>
+  <si>
+    <t>e_CH39-220</t>
+  </si>
+  <si>
+    <t>e_CH4-220</t>
+  </si>
+  <si>
+    <t>e_CH40-220</t>
+  </si>
+  <si>
+    <t>e_CH41-380</t>
+  </si>
+  <si>
+    <t>e_CH42-220</t>
+  </si>
+  <si>
+    <t>e_CH43-220</t>
+  </si>
+  <si>
+    <t>e_CH44-220</t>
+  </si>
+  <si>
+    <t>e_CH45-220</t>
+  </si>
+  <si>
+    <t>e_CH46-220</t>
+  </si>
+  <si>
+    <t>e_CH47-220</t>
+  </si>
+  <si>
+    <t>e_CH48-225</t>
+  </si>
+  <si>
+    <t>e_CH49-225</t>
+  </si>
+  <si>
+    <t>e_CH5-220</t>
+  </si>
+  <si>
+    <t>e_CH50-220</t>
+  </si>
+  <si>
+    <t>e_CH51-220</t>
+  </si>
+  <si>
+    <t>e_CH51-225</t>
+  </si>
+  <si>
+    <t>e_CH51-400</t>
+  </si>
+  <si>
+    <t>e_CH52-220</t>
+  </si>
+  <si>
+    <t>e_CH53-225</t>
+  </si>
+  <si>
+    <t>e_CH56-220</t>
+  </si>
+  <si>
+    <t>e_CH57-220</t>
+  </si>
+  <si>
+    <t>e_CH57-225</t>
+  </si>
+  <si>
+    <t>e_CH58-220</t>
+  </si>
+  <si>
+    <t>e_CH59-220</t>
+  </si>
+  <si>
+    <t>e_CH6-220</t>
+  </si>
+  <si>
+    <t>e_CH60-225</t>
+  </si>
+  <si>
+    <t>e_CH7-220</t>
+  </si>
+  <si>
+    <t>e_CH9-220</t>
+  </si>
+  <si>
+    <t>e_r5378910-220</t>
+  </si>
+  <si>
+    <t>e_r7933294-380</t>
+  </si>
+  <si>
+    <t>e_r9310861-220</t>
+  </si>
+  <si>
+    <t>e_w100662075-220</t>
+  </si>
+  <si>
+    <t>e_w108257952-220</t>
+  </si>
+  <si>
+    <t>e_w1086214433-220</t>
+  </si>
+  <si>
+    <t>e_w109037817-220</t>
+  </si>
+  <si>
+    <t>e_w109037817-380</t>
+  </si>
+  <si>
+    <t>e_w1092884227-220</t>
+  </si>
+  <si>
+    <t>e_w1105061707-220</t>
+  </si>
+  <si>
+    <t>e_w1105061707-380</t>
+  </si>
+  <si>
+    <t>e_w111162936-220</t>
+  </si>
+  <si>
+    <t>e_w111162936-380</t>
+  </si>
+  <si>
+    <t>e_w111162936-400</t>
+  </si>
+  <si>
+    <t>e_w11282314-220</t>
+  </si>
+  <si>
+    <t>e_w1208713169-220</t>
+  </si>
+  <si>
+    <t>e_w122720993-220</t>
+  </si>
+  <si>
+    <t>e_w127004407-380</t>
+  </si>
+  <si>
+    <t>e_w127004407-400</t>
+  </si>
+  <si>
+    <t>e_w1284913429-220</t>
+  </si>
+  <si>
+    <t>e_w130198336-220</t>
+  </si>
+  <si>
+    <t>e_w132373704-220</t>
+  </si>
+  <si>
+    <t>e_w1327084723-220</t>
+  </si>
+  <si>
+    <t>e_w140873735-220</t>
+  </si>
+  <si>
+    <t>e_w146225999-220</t>
+  </si>
+  <si>
+    <t>e_w147557680-220</t>
+  </si>
+  <si>
+    <t>e_w147714395-220</t>
+  </si>
+  <si>
+    <t>e_w147714395-380</t>
+  </si>
+  <si>
+    <t>e_w148015471-220</t>
+  </si>
+  <si>
+    <t>e_w159527493-220</t>
+  </si>
+  <si>
+    <t>e_w161853746-220</t>
+  </si>
+  <si>
+    <t>e_w165254212-220</t>
+  </si>
+  <si>
+    <t>e_w165513396-220</t>
+  </si>
+  <si>
+    <t>e_w165513396-380</t>
+  </si>
+  <si>
+    <t>e_w177392130-220</t>
+  </si>
+  <si>
+    <t>e_w177392130-400</t>
+  </si>
+  <si>
+    <t>e_w190819048-220</t>
+  </si>
+  <si>
+    <t>e_w192677427-220</t>
+  </si>
+  <si>
+    <t>e_w192677427-380</t>
+  </si>
+  <si>
+    <t>e_w194258388-220</t>
+  </si>
+  <si>
+    <t>e_w207991759-380</t>
+  </si>
+  <si>
+    <t>e_w207993342-220</t>
+  </si>
+  <si>
+    <t>e_w207993342-380</t>
+  </si>
+  <si>
+    <t>e_w208780268-380</t>
+  </si>
+  <si>
+    <t>e_w209324991-220</t>
+  </si>
+  <si>
+    <t>e_w210568055-220</t>
+  </si>
+  <si>
+    <t>e_w210568055-380</t>
+  </si>
+  <si>
+    <t>e_w211907009-220</t>
+  </si>
+  <si>
+    <t>e_w212498548-220</t>
+  </si>
+  <si>
+    <t>e_w212722603-220</t>
+  </si>
+  <si>
+    <t>e_w212722603-380</t>
+  </si>
+  <si>
+    <t>e_w228003081-220</t>
+  </si>
+  <si>
+    <t>e_w22899676-220</t>
+  </si>
+  <si>
+    <t>e_w232662311-220</t>
+  </si>
+  <si>
+    <t>e_w234983117-220</t>
+  </si>
+  <si>
+    <t>e_w234983117-380</t>
+  </si>
+  <si>
+    <t>e_w236819191-220</t>
+  </si>
+  <si>
+    <t>e_w238138373-380</t>
+  </si>
+  <si>
+    <t>e_w239937062-220</t>
+  </si>
+  <si>
+    <t>e_w240575085-220</t>
+  </si>
+  <si>
+    <t>e_w240959264-220</t>
+  </si>
+  <si>
+    <t>e_w242269161-220</t>
+  </si>
+  <si>
+    <t>e_w260211728-225</t>
+  </si>
+  <si>
+    <t>e_w260211728-380</t>
+  </si>
+  <si>
+    <t>e_w26166640-220</t>
+  </si>
+  <si>
+    <t>e_w26843160-220</t>
+  </si>
+  <si>
+    <t>e_w27107779-220</t>
+  </si>
+  <si>
+    <t>e_w27435934-220</t>
+  </si>
+  <si>
+    <t>e_w281799252-220</t>
+  </si>
+  <si>
+    <t>e_w281800404-220</t>
+  </si>
+  <si>
+    <t>e_w281803398-220</t>
+  </si>
+  <si>
+    <t>e_w281804158-220</t>
+  </si>
+  <si>
+    <t>e_w281804158-380</t>
+  </si>
+  <si>
+    <t>e_w281809991-220</t>
+  </si>
+  <si>
+    <t>e_w281815404-220</t>
+  </si>
+  <si>
+    <t>e_w281822905-220</t>
+  </si>
+  <si>
+    <t>e_w30350721-220</t>
+  </si>
+  <si>
+    <t>e_w31308888-220</t>
+  </si>
+  <si>
+    <t>e_w33271433-220</t>
+  </si>
+  <si>
+    <t>e_w35002638-220</t>
+  </si>
+  <si>
+    <t>e_w35002638-380</t>
+  </si>
+  <si>
+    <t>e_w35487135-220</t>
+  </si>
+  <si>
+    <t>e_w356292116-220</t>
+  </si>
+  <si>
+    <t>e_w356292116-380</t>
+  </si>
+  <si>
+    <t>e_w35840165-380</t>
+  </si>
+  <si>
+    <t>e_w36348118-220</t>
+  </si>
+  <si>
+    <t>e_w364949845-220</t>
+  </si>
+  <si>
+    <t>e_w364949845-380</t>
+  </si>
+  <si>
+    <t>e_w365556107-220</t>
+  </si>
+  <si>
+    <t>e_w391576135-220</t>
+  </si>
+  <si>
+    <t>e_w391577741-220</t>
+  </si>
+  <si>
+    <t>e_w397960460-380</t>
+  </si>
+  <si>
+    <t>e_w397960460-400</t>
+  </si>
+  <si>
+    <t>e_w402053379-220</t>
+  </si>
+  <si>
+    <t>e_w402055336-220</t>
+  </si>
+  <si>
+    <t>e_w431234146-220</t>
+  </si>
+  <si>
+    <t>e_w44496892-220</t>
+  </si>
+  <si>
+    <t>e_w455120191-220</t>
+  </si>
+  <si>
+    <t>e_w50319857-220</t>
+  </si>
+  <si>
+    <t>e_w50319857-380</t>
+  </si>
+  <si>
+    <t>e_w50319857-400</t>
+  </si>
+  <si>
+    <t>e_w50561341-220</t>
+  </si>
+  <si>
+    <t>e_w52738225-220</t>
+  </si>
+  <si>
+    <t>e_w52738225-380</t>
+  </si>
+  <si>
+    <t>e_w55695765-220</t>
+  </si>
+  <si>
+    <t>e_w55698557-220</t>
+  </si>
+  <si>
+    <t>e_w55698557-225</t>
+  </si>
+  <si>
+    <t>e_w71500123-220</t>
+  </si>
+  <si>
+    <t>e_w71500123-380</t>
+  </si>
+  <si>
+    <t>e_w758315582-220</t>
+  </si>
+  <si>
+    <t>e_w758943072-220</t>
+  </si>
+  <si>
+    <t>e_w802058337-220</t>
+  </si>
+  <si>
+    <t>e_w802058337-225</t>
+  </si>
+  <si>
+    <t>e_w83861269-220</t>
+  </si>
+  <si>
+    <t>e_w87281514-220</t>
+  </si>
+  <si>
+    <t>e_w88901626-380</t>
+  </si>
+  <si>
+    <t>e_w89405664-220</t>
+  </si>
+  <si>
+    <t>e_w89977424-220</t>
+  </si>
+  <si>
+    <t>e_w92798668-220</t>
+  </si>
+  <si>
+    <t>e_w92873516-220</t>
+  </si>
+  <si>
+    <t>e_w936521586-380</t>
+  </si>
+  <si>
+    <t>e_w969811258-220</t>
+  </si>
+  <si>
+    <t>e_w969811258-380</t>
+  </si>
+  <si>
+    <t>e_w969819301-220</t>
+  </si>
+  <si>
+    <t>e_w969819301-380</t>
+  </si>
+  <si>
+    <t>e_w97941869-220</t>
+  </si>
+  <si>
+    <t>e_w98648381-220</t>
+  </si>
+  <si>
+    <t>e_w98648381-380</t>
+  </si>
+  <si>
+    <t>~tfm_topins</t>
+  </si>
+  <si>
+    <t>io</t>
+  </si>
+  <si>
+    <t>e_CH1-220,e_CH11-220,e_CH12-220,e_CH12-380,e_CH13-220,e_CH14-220,e_CH14-380,e_CH15-220,e_CH16-380,e_CH17-380,e_CH18-220,e_CH18-380,e_CH19-220,e_CH2-220,e_CH20-220,e_CH21-220,e_CH22-220,e_CH22-380,e_CH23-220,e_CH24-220,e_CH25-220,e_CH26-220,e_CH27-220,e_CH28-220,e_CH29-220,e_CH29-380,e_CH3-220,e_CH30-380,e_CH31-220,e_CH32-220,e_CH33-380,e_CH34-220,e_CH34-380,e_CH35-220,e_CH36-220,e_CH37-380,e_CH38-220,e_CH39-220,e_CH4-220,e_CH40-220,e_CH41-380,e_CH42-220,e_CH43-220,e_CH44-220,e_CH45-220,e_CH46-220,e_CH47-220,e_CH48-225,e_CH49-225,e_CH5-220,e_CH50-220,e_CH51-220,e_CH51-225,e_CH51-400,e_CH52-220,e_CH53-225,e_CH56-220,e_CH57-220,e_CH57-225,e_CH58-220,e_CH59-220,e_CH6-220,e_CH60-225,e_CH7-220,e_CH9-220,e_r5378910-220,e_r7933294-380,e_r9310861-220,e_w100662075-220,e_w108257952-220,e_w1086214433-220,e_w109037817-220,e_w109037817-380,e_w1092884227-220,e_w1105061707-220,e_w1105061707-380,e_w111162936-220,e_w111162936-380,e_w111162936-400,e_w11282314-220,e_w1208713169-220,e_w122720993-220,e_w127004407-380,e_w127004407-400,e_w1284913429-220,e_w130198336-220,e_w132373704-220,e_w1327084723-220,e_w140873735-220,e_w146225999-220,e_w147557680-220,e_w147714395-220,e_w147714395-380,e_w148015471-220,e_w159527493-220,e_w161853746-220,e_w165254212-220,e_w165513396-220,e_w165513396-380,e_w177392130-220,e_w177392130-400,e_w190819048-220,e_w192677427-220,e_w192677427-380,e_w194258388-220,e_w207991759-380,e_w207993342-220,e_w207993342-380,e_w208780268-380,e_w209324991-220,e_w210568055-220,e_w210568055-380,e_w211907009-220,e_w212498548-220,e_w212722603-220,e_w212722603-380,e_w228003081-220,e_w22899676-220,e_w232662311-220,e_w234983117-220,e_w234983117-380,e_w236819191-220,e_w238138373-380,e_w239937062-220,e_w240575085-220,e_w240959264-220,e_w242269161-220,e_w260211728-225,e_w260211728-380,e_w26166640-220,e_w26843160-220,e_w27107779-220,e_w27435934-220,e_w281799252-220,e_w281800404-220,e_w281803398-220,e_w281804158-220,e_w281804158-380,e_w281809991-220,e_w281815404-220,e_w281822905-220,e_w30350721-220,e_w31308888-220,e_w33271433-220,e_w35002638-220,e_w35002638-380,e_w35487135-220,e_w356292116-220,e_w356292116-380,e_w35840165-380,e_w36348118-220,e_w364949845-220,e_w364949845-380,e_w365556107-220,e_w391576135-220,e_w391577741-220,e_w397960460-380,e_w397960460-400,e_w402053379-220,e_w402055336-220,e_w431234146-220,e_w44496892-220,e_w455120191-220,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w50561341-220,e_w52738225-220,e_w52738225-380,e_w55695765-220,e_w55698557-220,e_w55698557-225,e_w71500123-220,e_w71500123-380,e_w758315582-220,e_w758943072-220,e_w802058337-220,e_w802058337-225,e_w83861269-220,e_w87281514-220,e_w88901626-380,e_w89405664-220,e_w89977424-220,e_w92798668-220,e_w92873516-220,e_w936521586-380,e_w969811258-220,e_w969811258-380,e_w969819301-220,e_w969819301-380,e_w97941869-220,e_w98648381-220,e_w98648381-380</t>
+  </si>
+  <si>
+    <t>IN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,8 +1654,15 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,6 +1684,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF7F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF19375F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,7 +1737,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -486,6 +1754,15 @@
     <xf numFmtId="2" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,6 +1779,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>296862</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{861F44B9-54D9-6C24-3D71-7AC631B5D317}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5245100" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -820,10 +2152,6524 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFAE7C2-6BE0-4622-9E71-8282C66CB1A0}">
+  <dimension ref="A1:R213"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="28.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.59765625" customWidth="1"/>
+    <col min="8" max="9" width="10.59765625" customWidth="1"/>
+    <col min="10" max="10" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="10.59765625" customWidth="1"/>
+    <col min="16" max="16" width="10.59765625" customWidth="1"/>
+    <col min="17" max="17" width="30.59765625" customWidth="1"/>
+    <col min="18" max="18" width="10.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="K3" s="9">
+        <v>2022</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B4" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D4" s="15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E4" s="16">
+        <v>1.2E-4</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="K4" s="19">
+        <v>0</v>
+      </c>
+      <c r="L4" s="11">
+        <v>3</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B5" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D5" s="17">
+        <v>16.5</v>
+      </c>
+      <c r="E5" s="18">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="K5" s="20">
+        <v>0</v>
+      </c>
+      <c r="L5" s="13">
+        <v>3</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B6" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D6" s="15">
+        <v>102.30000000000001</v>
+      </c>
+      <c r="E6" s="16">
+        <v>5.5799999999999999E-3</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="K6" s="19">
+        <v>0</v>
+      </c>
+      <c r="L6" s="11">
+        <v>3</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B7" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1.6981030000000001</v>
+      </c>
+      <c r="D7" s="17">
+        <v>102.30000000000001</v>
+      </c>
+      <c r="E7" s="18">
+        <v>5.5799999999999999E-3</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="K7" s="20">
+        <v>0</v>
+      </c>
+      <c r="L7" s="13">
+        <v>3</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D8" s="15">
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E8" s="16">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="K8" s="19">
+        <v>6.653953013344956E-3</v>
+      </c>
+      <c r="L8" s="11">
+        <v>3</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B9" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D9" s="17">
+        <v>19.8</v>
+      </c>
+      <c r="E9" s="18">
+        <v>1.08E-3</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="K9" s="20">
+        <v>4.0473387100989806E-3</v>
+      </c>
+      <c r="L9" s="13">
+        <v>3</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B10" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D10" s="15">
+        <v>116.60000000000001</v>
+      </c>
+      <c r="E10" s="16">
+        <v>6.3600000000000002E-3</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="K10" s="19">
+        <v>0</v>
+      </c>
+      <c r="L10" s="11">
+        <v>3</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B11" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D11" s="17">
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E11" s="18">
+        <v>1.0200000000000001E-3</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K11" s="20">
+        <v>0</v>
+      </c>
+      <c r="L11" s="13">
+        <v>3</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B12" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1.6981030000000001</v>
+      </c>
+      <c r="D12" s="15">
+        <v>88</v>
+      </c>
+      <c r="E12" s="16">
+        <v>4.8000000000000004E-3</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="K12" s="19">
+        <v>0</v>
+      </c>
+      <c r="L12" s="11">
+        <v>3</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B13" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D13" s="17">
+        <v>37.400000000000006</v>
+      </c>
+      <c r="E13" s="18">
+        <v>2.0400000000000001E-3</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="K13" s="20">
+        <v>8.7190324112261693E-3</v>
+      </c>
+      <c r="L13" s="13">
+        <v>3</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B14" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D14" s="15">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="K14" s="19">
+        <v>0</v>
+      </c>
+      <c r="L14" s="11">
+        <v>3</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B15" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="13">
+        <v>3.3962050000000001</v>
+      </c>
+      <c r="D15" s="17">
+        <v>19.8</v>
+      </c>
+      <c r="E15" s="18">
+        <v>1.08E-3</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="K15" s="20">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>3</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B16" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="11">
+        <v>3.3962050000000001</v>
+      </c>
+      <c r="D16" s="15">
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E16" s="16">
+        <v>1.0200000000000001E-3</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="K16" s="19">
+        <v>0</v>
+      </c>
+      <c r="L16" s="11">
+        <v>3</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B17" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D17" s="17">
+        <v>59.400000000000006</v>
+      </c>
+      <c r="E17" s="18">
+        <v>3.2400000000000003E-3</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="K17" s="20">
+        <v>0</v>
+      </c>
+      <c r="L17" s="13">
+        <v>3</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B18" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D18" s="15">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E18" s="16">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="K18" s="19">
+        <v>0</v>
+      </c>
+      <c r="L18" s="11">
+        <v>3</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B19" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D19" s="17">
+        <v>5.5</v>
+      </c>
+      <c r="E19" s="18">
+        <v>3.0000000000000003E-4</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="K19" s="20">
+        <v>0</v>
+      </c>
+      <c r="L19" s="13">
+        <v>3</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B20" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D20" s="15">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E20" s="16">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="K20" s="19">
+        <v>0</v>
+      </c>
+      <c r="L20" s="11">
+        <v>3</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B21" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D21" s="17">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="E21" s="18">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="K21" s="20">
+        <v>0</v>
+      </c>
+      <c r="L21" s="13">
+        <v>3</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B22" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="11">
+        <v>3.3962050000000001</v>
+      </c>
+      <c r="D22" s="15">
+        <v>11</v>
+      </c>
+      <c r="E22" s="16">
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="K22" s="19">
+        <v>0</v>
+      </c>
+      <c r="L22" s="11">
+        <v>3</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B23" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="13">
+        <v>1.4746679999999999</v>
+      </c>
+      <c r="D23" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E23" s="18">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="K23" s="20">
+        <v>0</v>
+      </c>
+      <c r="L23" s="13">
+        <v>3</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B24" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D24" s="15">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E24" s="16">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="K24" s="19">
+        <v>0</v>
+      </c>
+      <c r="L24" s="11">
+        <v>3</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B25" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D25" s="17">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E25" s="18">
+        <v>4.8000000000000001E-4</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="K25" s="20">
+        <v>0</v>
+      </c>
+      <c r="L25" s="13">
+        <v>3</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B26" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="11">
+        <v>1.4746679999999999</v>
+      </c>
+      <c r="D26" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E26" s="16">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="K26" s="19">
+        <v>0</v>
+      </c>
+      <c r="L26" s="11">
+        <v>3</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B27" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D27" s="17">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="E27" s="18">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="K27" s="20">
+        <v>0</v>
+      </c>
+      <c r="L27" s="13">
+        <v>3</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B28" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D28" s="15">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="E28" s="16">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="K28" s="19">
+        <v>0</v>
+      </c>
+      <c r="L28" s="11">
+        <v>3</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B29" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D29" s="17">
+        <v>12.100000000000001</v>
+      </c>
+      <c r="E29" s="18">
+        <v>6.6E-4</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="K29" s="20">
+        <v>0</v>
+      </c>
+      <c r="L29" s="13">
+        <v>3</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B30" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D30" s="15">
+        <v>19.8</v>
+      </c>
+      <c r="E30" s="16">
+        <v>1.08E-3</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="K30" s="19">
+        <v>0</v>
+      </c>
+      <c r="L30" s="11">
+        <v>3</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B31" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="13">
+        <v>3.3962050000000001</v>
+      </c>
+      <c r="D31" s="17">
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E31" s="18">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="K31" s="20">
+        <v>0</v>
+      </c>
+      <c r="L31" s="13">
+        <v>3</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B32" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="11">
+        <v>3.3962050000000001</v>
+      </c>
+      <c r="D32" s="15">
+        <v>27.500000000000004</v>
+      </c>
+      <c r="E32" s="16">
+        <v>1.5E-3</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="K32" s="19">
+        <v>0</v>
+      </c>
+      <c r="L32" s="11">
+        <v>3</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B33" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D33" s="17">
+        <v>39.6</v>
+      </c>
+      <c r="E33" s="18">
+        <v>2.16E-3</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="K33" s="20">
+        <v>0</v>
+      </c>
+      <c r="L33" s="13">
+        <v>3</v>
+      </c>
+      <c r="M33" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B34" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D34" s="15">
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E34" s="16">
+        <v>1.4400000000000001E-3</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="K34" s="19">
+        <v>0</v>
+      </c>
+      <c r="L34" s="11">
+        <v>3</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B35" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="13">
+        <v>1.6981030000000001</v>
+      </c>
+      <c r="D35" s="17">
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E35" s="18">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="K35" s="20">
+        <v>0</v>
+      </c>
+      <c r="L35" s="13">
+        <v>3</v>
+      </c>
+      <c r="M35" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B36" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D36" s="15">
+        <v>15.400000000000002</v>
+      </c>
+      <c r="E36" s="16">
+        <v>8.4000000000000003E-4</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="K36" s="19">
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <v>3</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B37" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D37" s="17">
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E37" s="18">
+        <v>1.0200000000000001E-3</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="K37" s="20">
+        <v>0</v>
+      </c>
+      <c r="L37" s="13">
+        <v>3</v>
+      </c>
+      <c r="M37" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B38" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D38" s="15">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="E38" s="16">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="K38" s="19">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <v>3</v>
+      </c>
+      <c r="M38" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B39" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="13">
+        <v>3.3962050000000001</v>
+      </c>
+      <c r="D39" s="17">
+        <v>22</v>
+      </c>
+      <c r="E39" s="18">
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="K39" s="20">
+        <v>0</v>
+      </c>
+      <c r="L39" s="13">
+        <v>3</v>
+      </c>
+      <c r="M39" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B40" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D40" s="15">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="E40" s="16">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="K40" s="19">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11">
+        <v>3</v>
+      </c>
+      <c r="M40" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B41" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D41" s="17">
+        <v>14.3</v>
+      </c>
+      <c r="E41" s="18">
+        <v>7.7999999999999999E-4</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="K41" s="20">
+        <v>0</v>
+      </c>
+      <c r="L41" s="13">
+        <v>3</v>
+      </c>
+      <c r="M41" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B42" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D42" s="15">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="E42" s="16">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="K42" s="19">
+        <v>1.927859333331175E-2</v>
+      </c>
+      <c r="L42" s="11">
+        <v>3</v>
+      </c>
+      <c r="M42" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B43" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D43" s="17">
+        <v>16.5</v>
+      </c>
+      <c r="E43" s="18">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="K43" s="20">
+        <v>0</v>
+      </c>
+      <c r="L43" s="13">
+        <v>3</v>
+      </c>
+      <c r="M43" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B44" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D44" s="15">
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E44" s="16">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="K44" s="19">
+        <v>0</v>
+      </c>
+      <c r="L44" s="11">
+        <v>3</v>
+      </c>
+      <c r="M44" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B45" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D45" s="17">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E45" s="18">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="K45" s="20">
+        <v>0</v>
+      </c>
+      <c r="L45" s="13">
+        <v>3</v>
+      </c>
+      <c r="M45" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B46" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" s="11">
+        <v>1.6981030000000001</v>
+      </c>
+      <c r="D46" s="15">
+        <v>49.500000000000007</v>
+      </c>
+      <c r="E46" s="16">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="K46" s="19">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>3</v>
+      </c>
+      <c r="M46" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B47" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" s="13">
+        <v>3.3962050000000001</v>
+      </c>
+      <c r="D47" s="17">
+        <v>9.9</v>
+      </c>
+      <c r="E47" s="18">
+        <v>5.4000000000000001E-4</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="K47" s="20">
+        <v>0</v>
+      </c>
+      <c r="L47" s="13">
+        <v>3</v>
+      </c>
+      <c r="M47" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B48" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D48" s="15">
+        <v>20.900000000000002</v>
+      </c>
+      <c r="E48" s="16">
+        <v>1.14E-3</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="K48" s="19">
+        <v>0</v>
+      </c>
+      <c r="L48" s="11">
+        <v>3</v>
+      </c>
+      <c r="M48" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B49" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D49" s="17">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="E49" s="18">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="K49" s="20">
+        <v>5.714092934075295E-3</v>
+      </c>
+      <c r="L49" s="13">
+        <v>3</v>
+      </c>
+      <c r="M49" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B50" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D50" s="15">
+        <v>14.3</v>
+      </c>
+      <c r="E50" s="16">
+        <v>7.7999999999999999E-4</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="K50" s="19">
+        <v>0</v>
+      </c>
+      <c r="L50" s="11">
+        <v>3</v>
+      </c>
+      <c r="M50" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B51" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D51" s="17">
+        <v>23.1</v>
+      </c>
+      <c r="E51" s="18">
+        <v>1.2600000000000001E-3</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="K51" s="20">
+        <v>2.9157106943825187E-3</v>
+      </c>
+      <c r="L51" s="13">
+        <v>3</v>
+      </c>
+      <c r="M51" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B52" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D52" s="15">
+        <v>41.800000000000004</v>
+      </c>
+      <c r="E52" s="16">
+        <v>2.2799999999999999E-3</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="K52" s="19">
+        <v>0</v>
+      </c>
+      <c r="L52" s="11">
+        <v>3</v>
+      </c>
+      <c r="M52" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B53" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D53" s="17">
+        <v>11</v>
+      </c>
+      <c r="E53" s="18">
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="K53" s="20">
+        <v>1.2756511587317752E-2</v>
+      </c>
+      <c r="L53" s="13">
+        <v>3</v>
+      </c>
+      <c r="M53" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B54" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D54" s="15">
+        <v>30.800000000000004</v>
+      </c>
+      <c r="E54" s="16">
+        <v>1.6800000000000001E-3</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="K54" s="19">
+        <v>1.0792492413013872E-2</v>
+      </c>
+      <c r="L54" s="11">
+        <v>3</v>
+      </c>
+      <c r="M54" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B55" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" s="13">
+        <v>1.0054560000000001</v>
+      </c>
+      <c r="D55" s="17">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E55" s="18">
+        <v>1.2E-4</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="K55" s="20">
+        <v>0</v>
+      </c>
+      <c r="L55" s="13">
+        <v>3</v>
+      </c>
+      <c r="M55" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B56" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C56" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D56" s="15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E56" s="16">
+        <v>1.2E-4</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="K56" s="19">
+        <v>5.9512147269568287E-3</v>
+      </c>
+      <c r="L56" s="11">
+        <v>3</v>
+      </c>
+      <c r="M56" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B57" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D57" s="17">
+        <v>24.200000000000003</v>
+      </c>
+      <c r="E57" s="18">
+        <v>1.32E-3</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J57" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="K57" s="20">
+        <v>0</v>
+      </c>
+      <c r="L57" s="13">
+        <v>3</v>
+      </c>
+      <c r="M57" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B58" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" s="11">
+        <v>1.005455</v>
+      </c>
+      <c r="D58" s="15">
+        <v>12.100000000000001</v>
+      </c>
+      <c r="E58" s="16">
+        <v>6.6E-4</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J58" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="K58" s="19">
+        <v>8.4545504114737047E-2</v>
+      </c>
+      <c r="L58" s="11">
+        <v>3</v>
+      </c>
+      <c r="M58" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B59" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" s="13">
+        <v>1.005455</v>
+      </c>
+      <c r="D59" s="17">
+        <v>5.5</v>
+      </c>
+      <c r="E59" s="18">
+        <v>3.0000000000000003E-4</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J59" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="K59" s="20">
+        <v>0</v>
+      </c>
+      <c r="L59" s="13">
+        <v>3</v>
+      </c>
+      <c r="M59" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B60" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D60" s="15">
+        <v>5.5</v>
+      </c>
+      <c r="E60" s="16">
+        <v>3.0000000000000003E-4</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J60" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="K60" s="19">
+        <v>3.9467714632220163E-3</v>
+      </c>
+      <c r="L60" s="11">
+        <v>3</v>
+      </c>
+      <c r="M60" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B61" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D61" s="17">
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E61" s="18">
+        <v>4.2000000000000002E-4</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J61" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K61" s="20">
+        <v>0</v>
+      </c>
+      <c r="L61" s="13">
+        <v>3</v>
+      </c>
+      <c r="M61" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B62" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D62" s="15">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E62" s="16">
+        <v>4.8000000000000001E-4</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J62" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="K62" s="19">
+        <v>0</v>
+      </c>
+      <c r="L62" s="11">
+        <v>3</v>
+      </c>
+      <c r="M62" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B63" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D63" s="17">
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E63" s="18">
+        <v>4.2000000000000002E-4</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J63" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="K63" s="20">
+        <v>0</v>
+      </c>
+      <c r="L63" s="13">
+        <v>3</v>
+      </c>
+      <c r="M63" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B64" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="11">
+        <v>1.005455</v>
+      </c>
+      <c r="D64" s="15">
+        <v>15.400000000000002</v>
+      </c>
+      <c r="E64" s="16">
+        <v>8.4000000000000003E-4</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J64" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="K64" s="19">
+        <v>0</v>
+      </c>
+      <c r="L64" s="11">
+        <v>3</v>
+      </c>
+      <c r="M64" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B65" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D65" s="17">
+        <v>11</v>
+      </c>
+      <c r="E65" s="18">
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I65" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J65" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="K65" s="20">
+        <v>4.5883806387632727E-3</v>
+      </c>
+      <c r="L65" s="13">
+        <v>3</v>
+      </c>
+      <c r="M65" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B66" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D66" s="15">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="E66" s="16">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J66" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="K66" s="19">
+        <v>0</v>
+      </c>
+      <c r="L66" s="11">
+        <v>3</v>
+      </c>
+      <c r="M66" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B67" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C67" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D67" s="17">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E67" s="18">
+        <v>4.8000000000000001E-4</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I67" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J67" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="K67" s="20">
+        <v>0</v>
+      </c>
+      <c r="L67" s="13">
+        <v>3</v>
+      </c>
+      <c r="M67" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B68" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" s="11">
+        <v>3.3962050000000001</v>
+      </c>
+      <c r="D68" s="15">
+        <v>53.900000000000006</v>
+      </c>
+      <c r="E68" s="16">
+        <v>2.9399999999999999E-3</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J68" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="K68" s="19">
+        <v>0</v>
+      </c>
+      <c r="L68" s="11">
+        <v>3</v>
+      </c>
+      <c r="M68" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B69" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C69" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D69" s="17">
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E69" s="18">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I69" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J69" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="K69" s="20">
+        <v>0</v>
+      </c>
+      <c r="L69" s="13">
+        <v>3</v>
+      </c>
+      <c r="M69" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B70" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D70" s="15">
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E70" s="16">
+        <v>1.4400000000000001E-3</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J70" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="K70" s="19">
+        <v>0</v>
+      </c>
+      <c r="L70" s="11">
+        <v>3</v>
+      </c>
+      <c r="M70" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B71" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C71" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D71" s="17">
+        <v>19.8</v>
+      </c>
+      <c r="E71" s="18">
+        <v>1.08E-3</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I71" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J71" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="K71" s="20">
+        <v>0.11461190658240906</v>
+      </c>
+      <c r="L71" s="13">
+        <v>3</v>
+      </c>
+      <c r="M71" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B72" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D72" s="15">
+        <v>22</v>
+      </c>
+      <c r="E72" s="16">
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J72" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="K72" s="19">
+        <v>0</v>
+      </c>
+      <c r="L72" s="11">
+        <v>3</v>
+      </c>
+      <c r="M72" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B73" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C73" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D73" s="17">
+        <v>29.700000000000003</v>
+      </c>
+      <c r="E73" s="18">
+        <v>1.6200000000000001E-3</v>
+      </c>
+      <c r="H73" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I73" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J73" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="K73" s="20">
+        <v>1.2196736544039102E-2</v>
+      </c>
+      <c r="L73" s="13">
+        <v>3</v>
+      </c>
+      <c r="M73" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B74" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C74" s="11">
+        <v>1.6981030000000001</v>
+      </c>
+      <c r="D74" s="15">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E74" s="16">
+        <v>4.8000000000000001E-4</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I74" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J74" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="K74" s="19">
+        <v>0</v>
+      </c>
+      <c r="L74" s="11">
+        <v>3</v>
+      </c>
+      <c r="M74" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B75" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C75" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D75" s="17">
+        <v>38.5</v>
+      </c>
+      <c r="E75" s="18">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I75" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J75" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="K75" s="20">
+        <v>4.3897110285111927E-3</v>
+      </c>
+      <c r="L75" s="13">
+        <v>3</v>
+      </c>
+      <c r="M75" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B76" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C76" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D76" s="15">
+        <v>49.500000000000007</v>
+      </c>
+      <c r="E76" s="16">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="H76" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I76" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J76" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="K76" s="19">
+        <v>1.546911588114476E-2</v>
+      </c>
+      <c r="L76" s="11">
+        <v>3</v>
+      </c>
+      <c r="M76" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B77" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D77" s="17">
+        <v>61.600000000000009</v>
+      </c>
+      <c r="E77" s="18">
+        <v>3.3600000000000001E-3</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I77" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J77" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="K77" s="20">
+        <v>0</v>
+      </c>
+      <c r="L77" s="13">
+        <v>3</v>
+      </c>
+      <c r="M77" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B78" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D78" s="15">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E78" s="16">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I78" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J78" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="K78" s="19">
+        <v>0</v>
+      </c>
+      <c r="L78" s="11">
+        <v>3</v>
+      </c>
+      <c r="M78" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B79" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C79" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D79" s="17">
+        <v>56.1</v>
+      </c>
+      <c r="E79" s="18">
+        <v>3.0600000000000002E-3</v>
+      </c>
+      <c r="H79" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I79" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J79" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="K79" s="20">
+        <v>6.8409390757981484E-2</v>
+      </c>
+      <c r="L79" s="13">
+        <v>3</v>
+      </c>
+      <c r="M79" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B80" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80" s="11">
+        <v>1.6981030000000001</v>
+      </c>
+      <c r="D80" s="15">
+        <v>85.800000000000011</v>
+      </c>
+      <c r="E80" s="16">
+        <v>4.6800000000000001E-3</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I80" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J80" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="K80" s="19">
+        <v>0</v>
+      </c>
+      <c r="L80" s="11">
+        <v>3</v>
+      </c>
+      <c r="M80" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B81" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C81" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D81" s="17">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="E81" s="18">
+        <v>2.2200000000000002E-3</v>
+      </c>
+      <c r="H81" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I81" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J81" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="K81" s="20">
+        <v>4.6810849072693367E-2</v>
+      </c>
+      <c r="L81" s="13">
+        <v>3</v>
+      </c>
+      <c r="M81" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B82" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C82" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D82" s="15">
+        <v>9.9</v>
+      </c>
+      <c r="E82" s="16">
+        <v>5.4000000000000001E-4</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I82" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J82" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="K82" s="19">
+        <v>0</v>
+      </c>
+      <c r="L82" s="11">
+        <v>3</v>
+      </c>
+      <c r="M82" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B83" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C83" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D83" s="17">
+        <v>15.400000000000002</v>
+      </c>
+      <c r="E83" s="18">
+        <v>8.4000000000000003E-4</v>
+      </c>
+      <c r="H83" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I83" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J83" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="K83" s="20">
+        <v>1.9140066880505603E-2</v>
+      </c>
+      <c r="L83" s="13">
+        <v>3</v>
+      </c>
+      <c r="M83" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B84" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C84" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D84" s="15">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E84" s="16">
+        <v>4.8000000000000001E-4</v>
+      </c>
+      <c r="H84" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I84" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J84" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="K84" s="19">
+        <v>0</v>
+      </c>
+      <c r="L84" s="11">
+        <v>3</v>
+      </c>
+      <c r="M84" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B85" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C85" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D85" s="17">
+        <v>30.800000000000004</v>
+      </c>
+      <c r="E85" s="18">
+        <v>1.6800000000000001E-3</v>
+      </c>
+      <c r="H85" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I85" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J85" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="K85" s="20">
+        <v>1.2437062685473141E-2</v>
+      </c>
+      <c r="L85" s="13">
+        <v>3</v>
+      </c>
+      <c r="M85" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B86" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C86" s="11">
+        <v>1.6981030000000001</v>
+      </c>
+      <c r="D86" s="15">
+        <v>59.400000000000006</v>
+      </c>
+      <c r="E86" s="16">
+        <v>3.2400000000000003E-3</v>
+      </c>
+      <c r="H86" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I86" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J86" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="K86" s="19">
+        <v>0</v>
+      </c>
+      <c r="L86" s="11">
+        <v>3</v>
+      </c>
+      <c r="M86" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B87" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C87" s="13">
+        <v>1.6981030000000001</v>
+      </c>
+      <c r="D87" s="17">
+        <v>49.500000000000007</v>
+      </c>
+      <c r="E87" s="18">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="H87" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I87" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J87" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="K87" s="20">
+        <v>3.125965257093492E-3</v>
+      </c>
+      <c r="L87" s="13">
+        <v>3</v>
+      </c>
+      <c r="M87" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B88" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C88" s="11">
+        <v>1.6981030000000001</v>
+      </c>
+      <c r="D88" s="15">
+        <v>83.600000000000009</v>
+      </c>
+      <c r="E88" s="16">
+        <v>4.5599999999999998E-3</v>
+      </c>
+      <c r="H88" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I88" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J88" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="K88" s="19">
+        <v>2.743168849250445E-3</v>
+      </c>
+      <c r="L88" s="11">
+        <v>3</v>
+      </c>
+      <c r="M88" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B89" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C89" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D89" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E89" s="18">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="H89" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I89" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J89" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="K89" s="20">
+        <v>0</v>
+      </c>
+      <c r="L89" s="13">
+        <v>3</v>
+      </c>
+      <c r="M89" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B90" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C90" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D90" s="15">
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E90" s="16">
+        <v>7.2000000000000005E-4</v>
+      </c>
+      <c r="H90" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I90" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J90" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="K90" s="19">
+        <v>8.2272881525996683E-3</v>
+      </c>
+      <c r="L90" s="11">
+        <v>3</v>
+      </c>
+      <c r="M90" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B91" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C91" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D91" s="17">
+        <v>25.3</v>
+      </c>
+      <c r="E91" s="18">
+        <v>1.3799999999999999E-3</v>
+      </c>
+      <c r="H91" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I91" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J91" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="K91" s="20">
+        <v>0</v>
+      </c>
+      <c r="L91" s="13">
+        <v>3</v>
+      </c>
+      <c r="M91" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B92" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C92" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D92" s="15">
+        <v>16.5</v>
+      </c>
+      <c r="E92" s="16">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I92" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J92" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="K92" s="19">
+        <v>0</v>
+      </c>
+      <c r="L92" s="11">
+        <v>3</v>
+      </c>
+      <c r="M92" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B93" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C93" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D93" s="17">
+        <v>15.400000000000002</v>
+      </c>
+      <c r="E93" s="18">
+        <v>8.4000000000000003E-4</v>
+      </c>
+      <c r="H93" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I93" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J93" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="K93" s="20">
+        <v>0</v>
+      </c>
+      <c r="L93" s="13">
+        <v>3</v>
+      </c>
+      <c r="M93" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B94" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C94" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D94" s="15">
+        <v>59.400000000000006</v>
+      </c>
+      <c r="E94" s="16">
+        <v>3.2400000000000003E-3</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I94" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J94" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="K94" s="19">
+        <v>0</v>
+      </c>
+      <c r="L94" s="11">
+        <v>3</v>
+      </c>
+      <c r="M94" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B95" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C95" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D95" s="17">
+        <v>20.900000000000002</v>
+      </c>
+      <c r="E95" s="18">
+        <v>1.14E-3</v>
+      </c>
+      <c r="H95" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I95" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J95" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="K95" s="20">
+        <v>2.8575394437379679E-3</v>
+      </c>
+      <c r="L95" s="13">
+        <v>3</v>
+      </c>
+      <c r="M95" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B96" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C96" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D96" s="15">
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E96" s="16">
+        <v>1.0200000000000001E-3</v>
+      </c>
+      <c r="H96" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I96" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J96" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="K96" s="19">
+        <v>0</v>
+      </c>
+      <c r="L96" s="11">
+        <v>3</v>
+      </c>
+      <c r="M96" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="97" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B97" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C97" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D97" s="17">
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E97" s="18">
+        <v>4.2000000000000002E-4</v>
+      </c>
+      <c r="H97" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I97" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J97" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="K97" s="20">
+        <v>9.6687520245034297E-3</v>
+      </c>
+      <c r="L97" s="13">
+        <v>3</v>
+      </c>
+      <c r="M97" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B98" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C98" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D98" s="15">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E98" s="16">
+        <v>4.8000000000000001E-4</v>
+      </c>
+      <c r="H98" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I98" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J98" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="K98" s="19">
+        <v>2.555591214756789E-3</v>
+      </c>
+      <c r="L98" s="11">
+        <v>3</v>
+      </c>
+      <c r="M98" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B99" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C99" s="13">
+        <v>3.3962050000000001</v>
+      </c>
+      <c r="D99" s="17">
+        <v>104.50000000000001</v>
+      </c>
+      <c r="E99" s="18">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="H99" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I99" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J99" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="K99" s="20">
+        <v>2.0427229045191276E-2</v>
+      </c>
+      <c r="L99" s="13">
+        <v>3</v>
+      </c>
+      <c r="M99" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B100" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C100" s="11">
+        <v>1.6981030000000001</v>
+      </c>
+      <c r="D100" s="15">
+        <v>41.800000000000004</v>
+      </c>
+      <c r="E100" s="16">
+        <v>2.2799999999999999E-3</v>
+      </c>
+      <c r="H100" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I100" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J100" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="K100" s="19">
+        <v>8.3601453733513648E-3</v>
+      </c>
+      <c r="L100" s="11">
+        <v>3</v>
+      </c>
+      <c r="M100" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="101" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B101" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C101" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D101" s="17">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="E101" s="18">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="H101" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I101" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J101" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="K101" s="20">
+        <v>2.6051353731447661E-3</v>
+      </c>
+      <c r="L101" s="13">
+        <v>3</v>
+      </c>
+      <c r="M101" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B102" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C102" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D102" s="15">
+        <v>11</v>
+      </c>
+      <c r="E102" s="16">
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="H102" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I102" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J102" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="K102" s="19">
+        <v>0</v>
+      </c>
+      <c r="L102" s="11">
+        <v>3</v>
+      </c>
+      <c r="M102" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="103" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B103" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C103" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D103" s="17">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E103" s="18">
+        <v>9.6000000000000002E-4</v>
+      </c>
+      <c r="H103" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I103" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J103" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="K103" s="20">
+        <v>0</v>
+      </c>
+      <c r="L103" s="13">
+        <v>3</v>
+      </c>
+      <c r="M103" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="104" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B104" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C104" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D104" s="15">
+        <v>5.5</v>
+      </c>
+      <c r="E104" s="16">
+        <v>3.0000000000000003E-4</v>
+      </c>
+      <c r="H104" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I104" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J104" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="K104" s="19">
+        <v>9.8265045686242048E-3</v>
+      </c>
+      <c r="L104" s="11">
+        <v>3</v>
+      </c>
+      <c r="M104" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="105" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B105" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C105" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D105" s="17">
+        <v>12.100000000000001</v>
+      </c>
+      <c r="E105" s="18">
+        <v>6.6E-4</v>
+      </c>
+      <c r="H105" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I105" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J105" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="K105" s="20">
+        <v>1.0798161645068225E-2</v>
+      </c>
+      <c r="L105" s="13">
+        <v>3</v>
+      </c>
+      <c r="M105" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="106" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B106" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C106" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D106" s="15">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E106" s="16">
+        <v>4.8000000000000001E-4</v>
+      </c>
+      <c r="H106" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I106" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J106" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="K106" s="19">
+        <v>2.9997632217968911E-3</v>
+      </c>
+      <c r="L106" s="11">
+        <v>3</v>
+      </c>
+      <c r="M106" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="107" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B107" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C107" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D107" s="17">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E107" s="18">
+        <v>4.8000000000000001E-4</v>
+      </c>
+      <c r="H107" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I107" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J107" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="K107" s="20">
+        <v>0</v>
+      </c>
+      <c r="L107" s="13">
+        <v>3</v>
+      </c>
+      <c r="M107" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="108" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B108" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C108" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D108" s="15">
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E108" s="16">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="H108" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I108" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J108" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="K108" s="19">
+        <v>5.5975039444360079E-3</v>
+      </c>
+      <c r="L108" s="11">
+        <v>3</v>
+      </c>
+      <c r="M108" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="109" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B109" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C109" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D109" s="17">
+        <v>9.9</v>
+      </c>
+      <c r="E109" s="18">
+        <v>5.4000000000000001E-4</v>
+      </c>
+      <c r="H109" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I109" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J109" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="K109" s="20">
+        <v>0</v>
+      </c>
+      <c r="L109" s="13">
+        <v>3</v>
+      </c>
+      <c r="M109" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="110" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B110" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C110" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D110" s="15">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="E110" s="16">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="H110" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I110" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J110" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="K110" s="19">
+        <v>0</v>
+      </c>
+      <c r="L110" s="11">
+        <v>3</v>
+      </c>
+      <c r="M110" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="111" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B111" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C111" s="13">
+        <v>1.7874760000000001</v>
+      </c>
+      <c r="D111" s="17">
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E111" s="18">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="H111" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I111" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J111" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="K111" s="20">
+        <v>0</v>
+      </c>
+      <c r="L111" s="13">
+        <v>3</v>
+      </c>
+      <c r="M111" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="112" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B112" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C112" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D112" s="15">
+        <v>9.9</v>
+      </c>
+      <c r="E112" s="16">
+        <v>5.4000000000000001E-4</v>
+      </c>
+      <c r="H112" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I112" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J112" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="K112" s="19">
+        <v>2.6773564597500597E-3</v>
+      </c>
+      <c r="L112" s="11">
+        <v>3</v>
+      </c>
+      <c r="M112" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B113" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C113" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D113" s="17">
+        <v>33</v>
+      </c>
+      <c r="E113" s="18">
+        <v>1.8E-3</v>
+      </c>
+      <c r="H113" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I113" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J113" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="K113" s="20">
+        <v>0</v>
+      </c>
+      <c r="L113" s="13">
+        <v>3</v>
+      </c>
+      <c r="M113" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B114" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C114" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D114" s="15">
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E114" s="16">
+        <v>4.2000000000000002E-4</v>
+      </c>
+      <c r="H114" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I114" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J114" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="K114" s="19">
+        <v>0</v>
+      </c>
+      <c r="L114" s="11">
+        <v>3</v>
+      </c>
+      <c r="M114" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="115" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B115" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C115" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D115" s="17">
+        <v>49.500000000000007</v>
+      </c>
+      <c r="E115" s="18">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="H115" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I115" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J115" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="K115" s="20">
+        <v>0</v>
+      </c>
+      <c r="L115" s="13">
+        <v>3</v>
+      </c>
+      <c r="M115" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="116" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B116" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C116" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D116" s="15">
+        <v>41.800000000000004</v>
+      </c>
+      <c r="E116" s="16">
+        <v>2.2799999999999999E-3</v>
+      </c>
+      <c r="H116" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I116" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J116" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="K116" s="19">
+        <v>0</v>
+      </c>
+      <c r="L116" s="11">
+        <v>3</v>
+      </c>
+      <c r="M116" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="117" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B117" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C117" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D117" s="17">
+        <v>24.200000000000003</v>
+      </c>
+      <c r="E117" s="18">
+        <v>1.32E-3</v>
+      </c>
+      <c r="H117" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I117" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J117" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="K117" s="20">
+        <v>0</v>
+      </c>
+      <c r="L117" s="13">
+        <v>3</v>
+      </c>
+      <c r="M117" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="118" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B118" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C118" s="11">
+        <v>1.6981030000000001</v>
+      </c>
+      <c r="D118" s="15">
+        <v>33</v>
+      </c>
+      <c r="E118" s="16">
+        <v>1.8E-3</v>
+      </c>
+      <c r="H118" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I118" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J118" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="K118" s="19">
+        <v>4.1385393996688172E-3</v>
+      </c>
+      <c r="L118" s="11">
+        <v>3</v>
+      </c>
+      <c r="M118" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="119" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B119" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C119" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D119" s="17">
+        <v>19.8</v>
+      </c>
+      <c r="E119" s="18">
+        <v>1.08E-3</v>
+      </c>
+      <c r="H119" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I119" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J119" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="K119" s="20">
+        <v>0</v>
+      </c>
+      <c r="L119" s="13">
+        <v>3</v>
+      </c>
+      <c r="M119" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="120" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B120" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C120" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D120" s="15">
+        <v>9.9</v>
+      </c>
+      <c r="E120" s="16">
+        <v>5.4000000000000001E-4</v>
+      </c>
+      <c r="H120" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I120" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J120" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="K120" s="19">
+        <v>0</v>
+      </c>
+      <c r="L120" s="11">
+        <v>3</v>
+      </c>
+      <c r="M120" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="121" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B121" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C121" s="13">
+        <v>3.3962050000000001</v>
+      </c>
+      <c r="D121" s="17">
+        <v>20.900000000000002</v>
+      </c>
+      <c r="E121" s="18">
+        <v>1.14E-3</v>
+      </c>
+      <c r="H121" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I121" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J121" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="K121" s="20">
+        <v>3.1403848255796118E-2</v>
+      </c>
+      <c r="L121" s="13">
+        <v>3</v>
+      </c>
+      <c r="M121" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="122" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B122" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C122" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D122" s="15">
+        <v>19.8</v>
+      </c>
+      <c r="E122" s="16">
+        <v>1.08E-3</v>
+      </c>
+      <c r="H122" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I122" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J122" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="K122" s="19">
+        <v>7.433349176641707E-3</v>
+      </c>
+      <c r="L122" s="11">
+        <v>3</v>
+      </c>
+      <c r="M122" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="123" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B123" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C123" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D123" s="17">
+        <v>71.5</v>
+      </c>
+      <c r="E123" s="18">
+        <v>3.9000000000000003E-3</v>
+      </c>
+      <c r="H123" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I123" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J123" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="K123" s="20">
+        <v>0</v>
+      </c>
+      <c r="L123" s="13">
+        <v>3</v>
+      </c>
+      <c r="M123" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="124" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B124" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C124" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D124" s="15">
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E124" s="16">
+        <v>7.2000000000000005E-4</v>
+      </c>
+      <c r="H124" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I124" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J124" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="K124" s="19">
+        <v>8.5551176583506684E-3</v>
+      </c>
+      <c r="L124" s="11">
+        <v>3</v>
+      </c>
+      <c r="M124" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="125" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B125" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C125" s="13">
+        <v>1.6981030000000001</v>
+      </c>
+      <c r="D125" s="17">
+        <v>39.6</v>
+      </c>
+      <c r="E125" s="18">
+        <v>2.16E-3</v>
+      </c>
+      <c r="H125" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I125" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J125" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="K125" s="20">
+        <v>0</v>
+      </c>
+      <c r="L125" s="13">
+        <v>3</v>
+      </c>
+      <c r="M125" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="126" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B126" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C126" s="11">
+        <v>1.6981030000000001</v>
+      </c>
+      <c r="D126" s="15">
+        <v>30.800000000000004</v>
+      </c>
+      <c r="E126" s="16">
+        <v>1.6800000000000001E-3</v>
+      </c>
+      <c r="H126" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I126" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J126" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="K126" s="19">
+        <v>0</v>
+      </c>
+      <c r="L126" s="11">
+        <v>3</v>
+      </c>
+      <c r="M126" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="127" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B127" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C127" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D127" s="17">
+        <v>29.700000000000003</v>
+      </c>
+      <c r="E127" s="18">
+        <v>1.6200000000000001E-3</v>
+      </c>
+      <c r="H127" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I127" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J127" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="K127" s="20">
+        <v>3.3083666362331639E-3</v>
+      </c>
+      <c r="L127" s="13">
+        <v>3</v>
+      </c>
+      <c r="M127" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="128" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B128" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C128" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D128" s="15">
+        <v>44</v>
+      </c>
+      <c r="E128" s="16">
+        <v>2.4000000000000002E-3</v>
+      </c>
+      <c r="H128" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I128" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J128" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="K128" s="19">
+        <v>2.0792031803470522E-2</v>
+      </c>
+      <c r="L128" s="11">
+        <v>3</v>
+      </c>
+      <c r="M128" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="129" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B129" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C129" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D129" s="17">
+        <v>30.800000000000004</v>
+      </c>
+      <c r="E129" s="18">
+        <v>1.6800000000000001E-3</v>
+      </c>
+      <c r="H129" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I129" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J129" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="K129" s="20">
+        <v>0</v>
+      </c>
+      <c r="L129" s="13">
+        <v>3</v>
+      </c>
+      <c r="M129" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="130" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B130" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C130" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D130" s="15">
+        <v>29.700000000000003</v>
+      </c>
+      <c r="E130" s="16">
+        <v>1.6200000000000001E-3</v>
+      </c>
+      <c r="H130" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I130" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J130" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="K130" s="19">
+        <v>0</v>
+      </c>
+      <c r="L130" s="11">
+        <v>3</v>
+      </c>
+      <c r="M130" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="131" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B131" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C131" s="13">
+        <v>3.3962050000000001</v>
+      </c>
+      <c r="D131" s="17">
+        <v>30.800000000000004</v>
+      </c>
+      <c r="E131" s="18">
+        <v>1.6800000000000001E-3</v>
+      </c>
+      <c r="H131" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I131" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J131" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="K131" s="20">
+        <v>0</v>
+      </c>
+      <c r="L131" s="13">
+        <v>3</v>
+      </c>
+      <c r="M131" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="132" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B132" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C132" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D132" s="15">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E132" s="16">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="H132" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I132" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J132" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="K132" s="19">
+        <v>0</v>
+      </c>
+      <c r="L132" s="11">
+        <v>3</v>
+      </c>
+      <c r="M132" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="133" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B133" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C133" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D133" s="17">
+        <v>27.500000000000004</v>
+      </c>
+      <c r="E133" s="18">
+        <v>1.5E-3</v>
+      </c>
+      <c r="H133" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I133" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J133" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="K133" s="20">
+        <v>9.4971961327719959E-3</v>
+      </c>
+      <c r="L133" s="13">
+        <v>3</v>
+      </c>
+      <c r="M133" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="134" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B134" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C134" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D134" s="15">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E134" s="16">
+        <v>4.8000000000000001E-4</v>
+      </c>
+      <c r="H134" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I134" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J134" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="K134" s="19">
+        <v>8.2166891535415173E-3</v>
+      </c>
+      <c r="L134" s="11">
+        <v>3</v>
+      </c>
+      <c r="M134" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="135" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B135" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C135" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D135" s="17">
+        <v>20.900000000000002</v>
+      </c>
+      <c r="E135" s="18">
+        <v>1.14E-3</v>
+      </c>
+      <c r="H135" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I135" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J135" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="K135" s="20">
+        <v>4.9411054678833539E-3</v>
+      </c>
+      <c r="L135" s="13">
+        <v>3</v>
+      </c>
+      <c r="M135" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="136" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B136" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C136" s="11">
+        <v>3.3962050000000001</v>
+      </c>
+      <c r="D136" s="15">
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E136" s="16">
+        <v>4.2000000000000002E-4</v>
+      </c>
+      <c r="H136" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I136" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J136" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="K136" s="19">
+        <v>6.48523173764078E-2</v>
+      </c>
+      <c r="L136" s="11">
+        <v>3</v>
+      </c>
+      <c r="M136" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="137" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B137" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C137" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D137" s="17">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E137" s="18">
+        <v>1.2E-4</v>
+      </c>
+      <c r="H137" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I137" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J137" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="K137" s="20">
+        <v>2.7635534358110711E-2</v>
+      </c>
+      <c r="L137" s="13">
+        <v>3</v>
+      </c>
+      <c r="M137" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="138" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B138" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C138" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D138" s="15">
+        <v>16.5</v>
+      </c>
+      <c r="E138" s="16">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="H138" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I138" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J138" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="K138" s="19">
+        <v>0</v>
+      </c>
+      <c r="L138" s="11">
+        <v>3</v>
+      </c>
+      <c r="M138" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="139" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B139" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C139" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D139" s="17">
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E139" s="18">
+        <v>4.2000000000000002E-4</v>
+      </c>
+      <c r="H139" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I139" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J139" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="K139" s="20">
+        <v>0</v>
+      </c>
+      <c r="L139" s="13">
+        <v>3</v>
+      </c>
+      <c r="M139" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="140" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B140" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C140" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D140" s="15">
+        <v>14.3</v>
+      </c>
+      <c r="E140" s="16">
+        <v>7.7999999999999999E-4</v>
+      </c>
+      <c r="H140" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I140" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J140" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="K140" s="19">
+        <v>0</v>
+      </c>
+      <c r="L140" s="11">
+        <v>3</v>
+      </c>
+      <c r="M140" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="141" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B141" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C141" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D141" s="17">
+        <v>12.100000000000001</v>
+      </c>
+      <c r="E141" s="18">
+        <v>6.6E-4</v>
+      </c>
+      <c r="H141" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I141" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J141" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="K141" s="20">
+        <v>0</v>
+      </c>
+      <c r="L141" s="13">
+        <v>3</v>
+      </c>
+      <c r="M141" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="142" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B142" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C142" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D142" s="15">
+        <v>36.300000000000004</v>
+      </c>
+      <c r="E142" s="16">
+        <v>1.98E-3</v>
+      </c>
+      <c r="H142" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I142" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J142" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="K142" s="19">
+        <v>1.1404522986532434E-2</v>
+      </c>
+      <c r="L142" s="11">
+        <v>3</v>
+      </c>
+      <c r="M142" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="143" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B143" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C143" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D143" s="17">
+        <v>27.500000000000004</v>
+      </c>
+      <c r="E143" s="18">
+        <v>1.5E-3</v>
+      </c>
+      <c r="H143" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I143" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J143" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="K143" s="20">
+        <v>0</v>
+      </c>
+      <c r="L143" s="13">
+        <v>3</v>
+      </c>
+      <c r="M143" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="144" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B144" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C144" s="11">
+        <v>3.3962050000000001</v>
+      </c>
+      <c r="D144" s="15">
+        <v>14.3</v>
+      </c>
+      <c r="E144" s="16">
+        <v>7.7999999999999999E-4</v>
+      </c>
+      <c r="H144" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I144" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J144" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="K144" s="19">
+        <v>0</v>
+      </c>
+      <c r="L144" s="11">
+        <v>3</v>
+      </c>
+      <c r="M144" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="145" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B145" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C145" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D145" s="17">
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E145" s="18">
+        <v>1.0200000000000001E-3</v>
+      </c>
+      <c r="H145" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I145" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J145" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="K145" s="20">
+        <v>0</v>
+      </c>
+      <c r="L145" s="13">
+        <v>3</v>
+      </c>
+      <c r="M145" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="146" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B146" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C146" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D146" s="15">
+        <v>29.700000000000003</v>
+      </c>
+      <c r="E146" s="16">
+        <v>1.6200000000000001E-3</v>
+      </c>
+      <c r="H146" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I146" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J146" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="K146" s="19">
+        <v>9.1161251433802427E-3</v>
+      </c>
+      <c r="L146" s="11">
+        <v>3</v>
+      </c>
+      <c r="M146" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="147" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B147" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C147" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D147" s="17">
+        <v>23.1</v>
+      </c>
+      <c r="E147" s="18">
+        <v>1.2600000000000001E-3</v>
+      </c>
+      <c r="H147" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I147" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J147" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="K147" s="20">
+        <v>3.9630396943345228E-3</v>
+      </c>
+      <c r="L147" s="13">
+        <v>3</v>
+      </c>
+      <c r="M147" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="148" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B148" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C148" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D148" s="15">
+        <v>9.9</v>
+      </c>
+      <c r="E148" s="16">
+        <v>5.4000000000000001E-4</v>
+      </c>
+      <c r="H148" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I148" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J148" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="K148" s="19">
+        <v>0</v>
+      </c>
+      <c r="L148" s="11">
+        <v>3</v>
+      </c>
+      <c r="M148" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="149" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B149" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C149" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D149" s="17">
+        <v>29.700000000000003</v>
+      </c>
+      <c r="E149" s="18">
+        <v>1.6200000000000001E-3</v>
+      </c>
+      <c r="H149" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I149" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J149" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="K149" s="20">
+        <v>3.2250535738694462E-3</v>
+      </c>
+      <c r="L149" s="13">
+        <v>3</v>
+      </c>
+      <c r="M149" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="150" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B150" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C150" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D150" s="15">
+        <v>16.5</v>
+      </c>
+      <c r="E150" s="16">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="H150" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I150" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J150" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="K150" s="19">
+        <v>1.9257395335195444E-2</v>
+      </c>
+      <c r="L150" s="11">
+        <v>3</v>
+      </c>
+      <c r="M150" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="151" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B151" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C151" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D151" s="17">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E151" s="18">
+        <v>4.8000000000000001E-4</v>
+      </c>
+      <c r="H151" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I151" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J151" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="K151" s="20">
+        <v>0</v>
+      </c>
+      <c r="L151" s="13">
+        <v>3</v>
+      </c>
+      <c r="M151" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="152" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B152" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C152" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D152" s="15">
+        <v>16.5</v>
+      </c>
+      <c r="E152" s="16">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="H152" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I152" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J152" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="K152" s="19">
+        <v>0</v>
+      </c>
+      <c r="L152" s="11">
+        <v>3</v>
+      </c>
+      <c r="M152" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="153" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B153" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C153" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D153" s="17">
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E153" s="18">
+        <v>7.2000000000000005E-4</v>
+      </c>
+      <c r="H153" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I153" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J153" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="K153" s="20">
+        <v>0</v>
+      </c>
+      <c r="L153" s="13">
+        <v>3</v>
+      </c>
+      <c r="M153" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="154" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B154" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C154" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D154" s="15">
+        <v>15.400000000000002</v>
+      </c>
+      <c r="E154" s="16">
+        <v>8.4000000000000003E-4</v>
+      </c>
+      <c r="H154" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I154" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J154" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="K154" s="19">
+        <v>0</v>
+      </c>
+      <c r="L154" s="11">
+        <v>3</v>
+      </c>
+      <c r="M154" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="155" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B155" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C155" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D155" s="17">
+        <v>16.5</v>
+      </c>
+      <c r="E155" s="18">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="H155" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I155" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J155" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="K155" s="20">
+        <v>0</v>
+      </c>
+      <c r="L155" s="13">
+        <v>3</v>
+      </c>
+      <c r="M155" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="156" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B156" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C156" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D156" s="15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E156" s="16">
+        <v>1.2E-4</v>
+      </c>
+      <c r="H156" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I156" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J156" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="K156" s="19">
+        <v>0</v>
+      </c>
+      <c r="L156" s="11">
+        <v>3</v>
+      </c>
+      <c r="M156" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="157" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B157" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C157" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D157" s="17">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E157" s="18">
+        <v>9.6000000000000002E-4</v>
+      </c>
+      <c r="H157" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I157" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J157" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="K157" s="20">
+        <v>0</v>
+      </c>
+      <c r="L157" s="13">
+        <v>3</v>
+      </c>
+      <c r="M157" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="158" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B158" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C158" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D158" s="15">
+        <v>23.1</v>
+      </c>
+      <c r="E158" s="16">
+        <v>1.2600000000000001E-3</v>
+      </c>
+      <c r="H158" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I158" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J158" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="K158" s="19">
+        <v>0</v>
+      </c>
+      <c r="L158" s="11">
+        <v>3</v>
+      </c>
+      <c r="M158" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="159" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B159" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C159" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D159" s="17">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="E159" s="18">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="H159" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I159" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J159" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="K159" s="20">
+        <v>0</v>
+      </c>
+      <c r="L159" s="13">
+        <v>3</v>
+      </c>
+      <c r="M159" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="160" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B160" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C160" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D160" s="15">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E160" s="16">
+        <v>9.6000000000000002E-4</v>
+      </c>
+      <c r="H160" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I160" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J160" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="K160" s="19">
+        <v>0</v>
+      </c>
+      <c r="L160" s="11">
+        <v>3</v>
+      </c>
+      <c r="M160" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="161" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B161" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C161" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D161" s="17">
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E161" s="18">
+        <v>4.2000000000000002E-4</v>
+      </c>
+      <c r="H161" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I161" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J161" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="K161" s="20">
+        <v>3.3344944013531698E-3</v>
+      </c>
+      <c r="L161" s="13">
+        <v>3</v>
+      </c>
+      <c r="M161" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="162" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B162" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C162" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D162" s="15">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E162" s="16">
+        <v>4.8000000000000001E-4</v>
+      </c>
+      <c r="H162" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I162" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J162" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="K162" s="19">
+        <v>3.851133983348751E-3</v>
+      </c>
+      <c r="L162" s="11">
+        <v>3</v>
+      </c>
+      <c r="M162" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="163" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B163" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C163" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D163" s="17">
+        <v>11</v>
+      </c>
+      <c r="E163" s="18">
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="H163" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I163" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J163" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="K163" s="20">
+        <v>0</v>
+      </c>
+      <c r="L163" s="13">
+        <v>3</v>
+      </c>
+      <c r="M163" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="164" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B164" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C164" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D164" s="15">
+        <v>60.500000000000007</v>
+      </c>
+      <c r="E164" s="16">
+        <v>3.3E-3</v>
+      </c>
+      <c r="H164" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I164" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J164" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="K164" s="19">
+        <v>0</v>
+      </c>
+      <c r="L164" s="11">
+        <v>3</v>
+      </c>
+      <c r="M164" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="165" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B165" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C165" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D165" s="17">
+        <v>31.900000000000002</v>
+      </c>
+      <c r="E165" s="18">
+        <v>1.74E-3</v>
+      </c>
+      <c r="H165" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I165" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J165" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="K165" s="20">
+        <v>1.1382832011715858E-2</v>
+      </c>
+      <c r="L165" s="13">
+        <v>3</v>
+      </c>
+      <c r="M165" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="166" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B166" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C166" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D166" s="15">
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E166" s="16">
+        <v>1.0200000000000001E-3</v>
+      </c>
+      <c r="H166" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I166" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J166" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="K166" s="19">
+        <v>3.1087110725803442E-3</v>
+      </c>
+      <c r="L166" s="11">
+        <v>3</v>
+      </c>
+      <c r="M166" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="167" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B167" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C167" s="13">
+        <v>1.6981030000000001</v>
+      </c>
+      <c r="D167" s="17">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="E167" s="18">
+        <v>1.92E-3</v>
+      </c>
+      <c r="H167" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I167" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J167" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="K167" s="20">
+        <v>0</v>
+      </c>
+      <c r="L167" s="13">
+        <v>3</v>
+      </c>
+      <c r="M167" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="168" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B168" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C168" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D168" s="15">
+        <v>23.1</v>
+      </c>
+      <c r="E168" s="16">
+        <v>1.2600000000000001E-3</v>
+      </c>
+      <c r="H168" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I168" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J168" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="K168" s="19">
+        <v>0</v>
+      </c>
+      <c r="L168" s="11">
+        <v>3</v>
+      </c>
+      <c r="M168" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="169" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B169" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C169" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D169" s="17">
+        <v>27.500000000000004</v>
+      </c>
+      <c r="E169" s="18">
+        <v>1.5E-3</v>
+      </c>
+      <c r="H169" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I169" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J169" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="K169" s="20">
+        <v>0</v>
+      </c>
+      <c r="L169" s="13">
+        <v>3</v>
+      </c>
+      <c r="M169" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="170" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B170" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C170" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D170" s="15">
+        <v>46.2</v>
+      </c>
+      <c r="E170" s="16">
+        <v>2.5200000000000001E-3</v>
+      </c>
+      <c r="H170" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I170" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J170" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="K170" s="19">
+        <v>1.2063632834937122E-2</v>
+      </c>
+      <c r="L170" s="11">
+        <v>3</v>
+      </c>
+      <c r="M170" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="171" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B171" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C171" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D171" s="17">
+        <v>25.3</v>
+      </c>
+      <c r="E171" s="18">
+        <v>1.3799999999999999E-3</v>
+      </c>
+      <c r="H171" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I171" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J171" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="K171" s="20">
+        <v>7.5748334896500753E-3</v>
+      </c>
+      <c r="L171" s="13">
+        <v>3</v>
+      </c>
+      <c r="M171" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="172" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B172" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C172" s="11">
+        <v>3.3962060000000003</v>
+      </c>
+      <c r="D172" s="15">
+        <v>47.300000000000004</v>
+      </c>
+      <c r="E172" s="16">
+        <v>2.5800000000000003E-3</v>
+      </c>
+      <c r="H172" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I172" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J172" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="K172" s="19">
+        <v>2.2465934189602299E-2</v>
+      </c>
+      <c r="L172" s="11">
+        <v>3</v>
+      </c>
+      <c r="M172" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="173" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B173" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C173" s="13">
+        <v>1.6981030000000001</v>
+      </c>
+      <c r="D173" s="17">
+        <v>25.3</v>
+      </c>
+      <c r="E173" s="18">
+        <v>1.3799999999999999E-3</v>
+      </c>
+      <c r="H173" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I173" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J173" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="K173" s="20">
+        <v>3.8710995397140333E-3</v>
+      </c>
+      <c r="L173" s="13">
+        <v>3</v>
+      </c>
+      <c r="M173" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="174" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B174" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C174" s="11">
+        <v>1.6981030000000001</v>
+      </c>
+      <c r="D174" s="15">
+        <v>12.100000000000001</v>
+      </c>
+      <c r="E174" s="16">
+        <v>6.6E-4</v>
+      </c>
+      <c r="H174" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I174" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J174" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="K174" s="19">
+        <v>4.381823401305174E-3</v>
+      </c>
+      <c r="L174" s="11">
+        <v>3</v>
+      </c>
+      <c r="M174" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="175" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B175" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C175" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D175" s="17">
+        <v>9.9</v>
+      </c>
+      <c r="E175" s="18">
+        <v>5.4000000000000001E-4</v>
+      </c>
+      <c r="H175" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I175" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J175" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="K175" s="20">
+        <v>8.9019267670662119E-3</v>
+      </c>
+      <c r="L175" s="13">
+        <v>3</v>
+      </c>
+      <c r="M175" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="176" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B176" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C176" s="11">
+        <v>1.6981030000000001</v>
+      </c>
+      <c r="D176" s="15">
+        <v>20.900000000000002</v>
+      </c>
+      <c r="E176" s="16">
+        <v>1.14E-3</v>
+      </c>
+      <c r="H176" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I176" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J176" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="K176" s="19">
+        <v>0</v>
+      </c>
+      <c r="L176" s="11">
+        <v>3</v>
+      </c>
+      <c r="M176" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="177" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B177" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C177" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D177" s="17">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E177" s="18">
+        <v>9.6000000000000002E-4</v>
+      </c>
+      <c r="H177" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I177" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J177" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="K177" s="20">
+        <v>0</v>
+      </c>
+      <c r="L177" s="13">
+        <v>3</v>
+      </c>
+      <c r="M177" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="178" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B178" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C178" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D178" s="15">
+        <v>5.5</v>
+      </c>
+      <c r="E178" s="16">
+        <v>3.0000000000000003E-4</v>
+      </c>
+      <c r="H178" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I178" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J178" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="K178" s="19">
+        <v>1.3937437273071906E-2</v>
+      </c>
+      <c r="L178" s="11">
+        <v>3</v>
+      </c>
+      <c r="M178" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="179" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B179" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C179" s="13">
+        <v>1.6981030000000001</v>
+      </c>
+      <c r="D179" s="17">
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E179" s="18">
+        <v>1.4400000000000001E-3</v>
+      </c>
+      <c r="H179" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I179" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J179" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="K179" s="20">
+        <v>0</v>
+      </c>
+      <c r="L179" s="13">
+        <v>3</v>
+      </c>
+      <c r="M179" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="180" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B180" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C180" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D180" s="15">
+        <v>25.3</v>
+      </c>
+      <c r="E180" s="16">
+        <v>1.3799999999999999E-3</v>
+      </c>
+      <c r="H180" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I180" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J180" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="K180" s="19">
+        <v>0</v>
+      </c>
+      <c r="L180" s="11">
+        <v>3</v>
+      </c>
+      <c r="M180" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="181" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B181" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C181" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D181" s="17">
+        <v>12.100000000000001</v>
+      </c>
+      <c r="E181" s="18">
+        <v>6.6E-4</v>
+      </c>
+      <c r="H181" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I181" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J181" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="K181" s="20">
+        <v>0</v>
+      </c>
+      <c r="L181" s="13">
+        <v>3</v>
+      </c>
+      <c r="M181" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="182" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B182" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C182" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D182" s="15">
+        <v>24.200000000000003</v>
+      </c>
+      <c r="E182" s="16">
+        <v>1.32E-3</v>
+      </c>
+      <c r="H182" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I182" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J182" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="K182" s="19">
+        <v>2.8913083477138078E-3</v>
+      </c>
+      <c r="L182" s="11">
+        <v>3</v>
+      </c>
+      <c r="M182" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="183" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B183" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C183" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D183" s="17">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E183" s="18">
+        <v>1.2E-4</v>
+      </c>
+      <c r="H183" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I183" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J183" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="K183" s="20">
+        <v>1.1608861828838968E-2</v>
+      </c>
+      <c r="L183" s="13">
+        <v>3</v>
+      </c>
+      <c r="M183" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="184" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B184" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C184" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D184" s="15">
+        <v>16.5</v>
+      </c>
+      <c r="E184" s="16">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="H184" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I184" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J184" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="K184" s="19">
+        <v>2.7217243627839539E-3</v>
+      </c>
+      <c r="L184" s="11">
+        <v>3</v>
+      </c>
+      <c r="M184" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="185" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B185" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C185" s="13">
+        <v>1.6981030000000001</v>
+      </c>
+      <c r="D185" s="17">
+        <v>16.5</v>
+      </c>
+      <c r="E185" s="18">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="H185" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I185" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J185" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="K185" s="20">
+        <v>7.8696335564757899E-3</v>
+      </c>
+      <c r="L185" s="13">
+        <v>3</v>
+      </c>
+      <c r="M185" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="186" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B186" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="C186" s="11">
+        <v>3.3962050000000001</v>
+      </c>
+      <c r="D186" s="15">
+        <v>16.5</v>
+      </c>
+      <c r="E186" s="16">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="H186" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I186" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J186" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="K186" s="19">
+        <v>6.6394102006838429E-3</v>
+      </c>
+      <c r="L186" s="11">
+        <v>3</v>
+      </c>
+      <c r="M186" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="187" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B187" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C187" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D187" s="17">
+        <v>9.9</v>
+      </c>
+      <c r="E187" s="18">
+        <v>5.4000000000000001E-4</v>
+      </c>
+      <c r="H187" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I187" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J187" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="K187" s="20">
+        <v>1.4128712232818436E-2</v>
+      </c>
+      <c r="L187" s="13">
+        <v>3</v>
+      </c>
+      <c r="M187" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="188" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B188" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C188" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D188" s="15">
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E188" s="16">
+        <v>1.0200000000000001E-3</v>
+      </c>
+      <c r="H188" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I188" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J188" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="K188" s="19">
+        <v>9.6717098847056496E-3</v>
+      </c>
+      <c r="L188" s="11">
+        <v>3</v>
+      </c>
+      <c r="M188" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="189" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B189" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="C189" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D189" s="17">
+        <v>19.8</v>
+      </c>
+      <c r="E189" s="18">
+        <v>1.08E-3</v>
+      </c>
+      <c r="H189" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I189" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J189" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="K189" s="20">
+        <v>4.2432969484990255E-3</v>
+      </c>
+      <c r="L189" s="13">
+        <v>3</v>
+      </c>
+      <c r="M189" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="190" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B190" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="C190" s="11">
+        <v>1.6981030000000001</v>
+      </c>
+      <c r="D190" s="15">
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E190" s="16">
+        <v>1.4400000000000001E-3</v>
+      </c>
+      <c r="H190" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I190" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J190" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="K190" s="19">
+        <v>0</v>
+      </c>
+      <c r="L190" s="11">
+        <v>3</v>
+      </c>
+      <c r="M190" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="191" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B191" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C191" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D191" s="17">
+        <v>14.3</v>
+      </c>
+      <c r="E191" s="18">
+        <v>7.7999999999999999E-4</v>
+      </c>
+      <c r="H191" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I191" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J191" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="K191" s="20">
+        <v>0</v>
+      </c>
+      <c r="L191" s="13">
+        <v>3</v>
+      </c>
+      <c r="M191" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="192" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B192" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C192" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D192" s="15">
+        <v>48.400000000000006</v>
+      </c>
+      <c r="E192" s="16">
+        <v>2.64E-3</v>
+      </c>
+      <c r="H192" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I192" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J192" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="K192" s="19">
+        <v>0</v>
+      </c>
+      <c r="L192" s="11">
+        <v>3</v>
+      </c>
+      <c r="M192" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="193" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B193" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="C193" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D193" s="17">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="E193" s="18">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="H193" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I193" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J193" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="K193" s="20">
+        <v>0</v>
+      </c>
+      <c r="L193" s="13">
+        <v>3</v>
+      </c>
+      <c r="M193" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="194" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B194" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C194" s="11">
+        <v>3.3962060000000003</v>
+      </c>
+      <c r="D194" s="15">
+        <v>15.400000000000002</v>
+      </c>
+      <c r="E194" s="16">
+        <v>8.4000000000000003E-4</v>
+      </c>
+      <c r="H194" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I194" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J194" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="K194" s="19">
+        <v>4.1766711474430999E-2</v>
+      </c>
+      <c r="L194" s="11">
+        <v>3</v>
+      </c>
+      <c r="M194" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="195" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B195" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="C195" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D195" s="17">
+        <v>24.200000000000003</v>
+      </c>
+      <c r="E195" s="18">
+        <v>1.32E-3</v>
+      </c>
+      <c r="H195" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I195" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J195" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="K195" s="20">
+        <v>0</v>
+      </c>
+      <c r="L195" s="13">
+        <v>3</v>
+      </c>
+      <c r="M195" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="196" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B196" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C196" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D196" s="15">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E196" s="16">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="H196" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I196" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J196" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="K196" s="19">
+        <v>0</v>
+      </c>
+      <c r="L196" s="11">
+        <v>3</v>
+      </c>
+      <c r="M196" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="197" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B197" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C197" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D197" s="17">
+        <v>19.8</v>
+      </c>
+      <c r="E197" s="18">
+        <v>1.08E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B198" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C198" s="11">
+        <v>1.005455</v>
+      </c>
+      <c r="D198" s="15">
+        <v>14.3</v>
+      </c>
+      <c r="E198" s="16">
+        <v>7.7999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="199" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B199" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="C199" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D199" s="17">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="E199" s="18">
+        <v>1.8000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="200" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B200" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C200" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D200" s="15">
+        <v>12.100000000000001</v>
+      </c>
+      <c r="E200" s="16">
+        <v>6.6E-4</v>
+      </c>
+    </row>
+    <row r="201" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B201" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="C201" s="13">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D201" s="17">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E201" s="18">
+        <v>1.2E-4</v>
+      </c>
+    </row>
+    <row r="202" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B202" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C202" s="11">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D202" s="15">
+        <v>12.100000000000001</v>
+      </c>
+      <c r="E202" s="16">
+        <v>6.6E-4</v>
+      </c>
+    </row>
+    <row r="203" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B203" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="C203" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D203" s="17">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="E203" s="18">
+        <v>2.2200000000000002E-3</v>
+      </c>
+    </row>
+    <row r="204" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B204" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C204" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D204" s="15">
+        <v>25.3</v>
+      </c>
+      <c r="E204" s="16">
+        <v>1.3799999999999999E-3</v>
+      </c>
+    </row>
+    <row r="205" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B205" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C205" s="13">
+        <v>1.6981030000000001</v>
+      </c>
+      <c r="D205" s="17">
+        <v>19.8</v>
+      </c>
+      <c r="E205" s="18">
+        <v>1.08E-3</v>
+      </c>
+    </row>
+    <row r="206" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B206" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C206" s="11">
+        <v>1.6981030000000001</v>
+      </c>
+      <c r="D206" s="15">
+        <v>116.60000000000001</v>
+      </c>
+      <c r="E206" s="16">
+        <v>6.3600000000000002E-3</v>
+      </c>
+    </row>
+    <row r="207" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B207" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C207" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D207" s="17">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="E207" s="18">
+        <v>1.8000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="208" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B208" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C208" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D208" s="15">
+        <v>22</v>
+      </c>
+      <c r="E208" s="16">
+        <v>1.2000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B209" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="C209" s="13">
+        <v>3.3962050000000001</v>
+      </c>
+      <c r="D209" s="17">
+        <v>11</v>
+      </c>
+      <c r="E209" s="18">
+        <v>6.0000000000000006E-4</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B210" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C210" s="11">
+        <v>0.49155599999999999</v>
+      </c>
+      <c r="D210" s="15">
+        <v>20.900000000000002</v>
+      </c>
+      <c r="E210" s="16">
+        <v>1.14E-3</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B211" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="C211" s="13">
+        <v>0.98311199999999999</v>
+      </c>
+      <c r="D211" s="17">
+        <v>22</v>
+      </c>
+      <c r="E211" s="18">
+        <v>1.2000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B212" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C212" s="11">
+        <v>3.3962050000000001</v>
+      </c>
+      <c r="D212" s="15">
+        <v>44</v>
+      </c>
+      <c r="E212" s="16">
+        <v>2.4000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B213" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="C213" s="13">
+        <v>1.6981030000000001</v>
+      </c>
+      <c r="D213" s="17">
+        <v>20.900000000000002</v>
+      </c>
+      <c r="E213" s="18">
+        <v>1.14E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -1591,7 +9437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC33DFE9-8C65-4A33-8FAE-96323628CE2A}">
   <dimension ref="A1:D626"/>
   <sheetViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43CC7C20-B662-4D02-B28D-F0BF8CE9655F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C93BE671-F0BB-4E93-9B47-E6E7C56719AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1598,7 +1598,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1801,7 +1801,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{861F44B9-54D9-6C24-3D71-7AC631B5D317}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8CD0E79-30B7-8056-BBA7-068F1379A4DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2152,7 +2152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFAE7C2-6BE0-4622-9E71-8282C66CB1A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD32A76-20A4-4367-BF3F-6A40893E5E6C}">
   <dimension ref="A1:R213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2256,7 +2256,7 @@
         <v>299</v>
       </c>
       <c r="K4" s="19">
-        <v>0</v>
+        <v>2.8288650365888217E-3</v>
       </c>
       <c r="L4" s="11">
         <v>3</v>
@@ -2297,7 +2297,7 @@
         <v>301</v>
       </c>
       <c r="K5" s="20">
-        <v>0</v>
+        <v>3.687355937091321E-3</v>
       </c>
       <c r="L5" s="13">
         <v>3</v>
@@ -2329,7 +2329,7 @@
         <v>302</v>
       </c>
       <c r="K6" s="19">
-        <v>0</v>
+        <v>3.2144416759996202E-3</v>
       </c>
       <c r="L6" s="11">
         <v>3</v>
@@ -2361,7 +2361,7 @@
         <v>303</v>
       </c>
       <c r="K7" s="20">
-        <v>0</v>
+        <v>3.2132068262080379E-3</v>
       </c>
       <c r="L7" s="13">
         <v>3</v>
@@ -2393,7 +2393,7 @@
         <v>304</v>
       </c>
       <c r="K8" s="19">
-        <v>6.653953013344956E-3</v>
+        <v>4.3505241861555534E-3</v>
       </c>
       <c r="L8" s="11">
         <v>3</v>
@@ -2425,7 +2425,7 @@
         <v>305</v>
       </c>
       <c r="K9" s="20">
-        <v>4.0473387100989806E-3</v>
+        <v>6.5370074190267335E-3</v>
       </c>
       <c r="L9" s="13">
         <v>3</v>
@@ -2457,7 +2457,7 @@
         <v>306</v>
       </c>
       <c r="K10" s="19">
-        <v>0</v>
+        <v>6.5113199500132085E-3</v>
       </c>
       <c r="L10" s="11">
         <v>3</v>
@@ -2489,7 +2489,7 @@
         <v>307</v>
       </c>
       <c r="K11" s="20">
-        <v>0</v>
+        <v>7.8476929654391729E-3</v>
       </c>
       <c r="L11" s="13">
         <v>3</v>
@@ -2521,7 +2521,7 @@
         <v>308</v>
       </c>
       <c r="K12" s="19">
-        <v>0</v>
+        <v>1.379558796312708E-3</v>
       </c>
       <c r="L12" s="11">
         <v>3</v>
@@ -2553,7 +2553,7 @@
         <v>309</v>
       </c>
       <c r="K13" s="20">
-        <v>8.7190324112261693E-3</v>
+        <v>1.755010592552151E-3</v>
       </c>
       <c r="L13" s="13">
         <v>3</v>
@@ -2585,7 +2585,7 @@
         <v>310</v>
       </c>
       <c r="K14" s="19">
-        <v>0</v>
+        <v>1.146295513494945E-3</v>
       </c>
       <c r="L14" s="11">
         <v>3</v>
@@ -2617,7 +2617,7 @@
         <v>311</v>
       </c>
       <c r="K15" s="20">
-        <v>0</v>
+        <v>1.146631616950644E-3</v>
       </c>
       <c r="L15" s="13">
         <v>3</v>
@@ -2649,7 +2649,7 @@
         <v>312</v>
       </c>
       <c r="K16" s="19">
-        <v>0</v>
+        <v>1.933175358054567E-3</v>
       </c>
       <c r="L16" s="11">
         <v>3</v>
@@ -2681,7 +2681,7 @@
         <v>313</v>
       </c>
       <c r="K17" s="20">
-        <v>0</v>
+        <v>2.6405751869952839E-3</v>
       </c>
       <c r="L17" s="13">
         <v>3</v>
@@ -2713,7 +2713,7 @@
         <v>314</v>
       </c>
       <c r="K18" s="19">
-        <v>0</v>
+        <v>1.7909631056459339E-3</v>
       </c>
       <c r="L18" s="11">
         <v>3</v>
@@ -2745,7 +2745,7 @@
         <v>315</v>
       </c>
       <c r="K19" s="20">
-        <v>0</v>
+        <v>1.4110074230698709E-3</v>
       </c>
       <c r="L19" s="13">
         <v>3</v>
@@ -2777,7 +2777,7 @@
         <v>316</v>
       </c>
       <c r="K20" s="19">
-        <v>0</v>
+        <v>6.6074556170096104E-4</v>
       </c>
       <c r="L20" s="11">
         <v>3</v>
@@ -2809,7 +2809,7 @@
         <v>317</v>
       </c>
       <c r="K21" s="20">
-        <v>0</v>
+        <v>6.6151743913005299E-4</v>
       </c>
       <c r="L21" s="13">
         <v>3</v>
@@ -2841,7 +2841,7 @@
         <v>318</v>
       </c>
       <c r="K22" s="19">
-        <v>0</v>
+        <v>8.8647743073542399E-4</v>
       </c>
       <c r="L22" s="11">
         <v>3</v>
@@ -2873,7 +2873,7 @@
         <v>319</v>
       </c>
       <c r="K23" s="20">
-        <v>0</v>
+        <v>8.8199347914225904E-4</v>
       </c>
       <c r="L23" s="13">
         <v>3</v>
@@ -2905,7 +2905,7 @@
         <v>320</v>
       </c>
       <c r="K24" s="19">
-        <v>0</v>
+        <v>1.0124899899051959E-3</v>
       </c>
       <c r="L24" s="11">
         <v>3</v>
@@ -2937,7 +2937,7 @@
         <v>321</v>
       </c>
       <c r="K25" s="20">
-        <v>0</v>
+        <v>8.0626613017272301E-4</v>
       </c>
       <c r="L25" s="13">
         <v>3</v>
@@ -2969,7 +2969,7 @@
         <v>322</v>
       </c>
       <c r="K26" s="19">
-        <v>0</v>
+        <v>9.7053506740070103E-4</v>
       </c>
       <c r="L26" s="11">
         <v>3</v>
@@ -3001,7 +3001,7 @@
         <v>323</v>
       </c>
       <c r="K27" s="20">
-        <v>0</v>
+        <v>7.8648550745163298E-4</v>
       </c>
       <c r="L27" s="13">
         <v>3</v>
@@ -3033,7 +3033,7 @@
         <v>324</v>
       </c>
       <c r="K28" s="19">
-        <v>0</v>
+        <v>4.0937165692028098E-4</v>
       </c>
       <c r="L28" s="11">
         <v>3</v>
@@ -3065,7 +3065,7 @@
         <v>325</v>
       </c>
       <c r="K29" s="20">
-        <v>0</v>
+        <v>4.09664128779477E-4</v>
       </c>
       <c r="L29" s="13">
         <v>3</v>
@@ -3097,7 +3097,7 @@
         <v>326</v>
       </c>
       <c r="K30" s="19">
-        <v>0</v>
+        <v>1.1270769877769293E-2</v>
       </c>
       <c r="L30" s="11">
         <v>3</v>
@@ -3129,7 +3129,7 @@
         <v>327</v>
       </c>
       <c r="K31" s="20">
-        <v>0</v>
+        <v>2.5115207867936997E-4</v>
       </c>
       <c r="L31" s="13">
         <v>3</v>
@@ -3161,7 +3161,7 @@
         <v>328</v>
       </c>
       <c r="K32" s="19">
-        <v>0</v>
+        <v>7.2616185077658746E-3</v>
       </c>
       <c r="L32" s="11">
         <v>3</v>
@@ -3193,7 +3193,7 @@
         <v>329</v>
       </c>
       <c r="K33" s="20">
-        <v>0</v>
+        <v>5.1149146036230002E-4</v>
       </c>
       <c r="L33" s="13">
         <v>3</v>
@@ -3225,7 +3225,7 @@
         <v>330</v>
       </c>
       <c r="K34" s="19">
-        <v>0</v>
+        <v>2.1527731003788902E-4</v>
       </c>
       <c r="L34" s="11">
         <v>3</v>
@@ -3257,7 +3257,7 @@
         <v>331</v>
       </c>
       <c r="K35" s="20">
-        <v>0</v>
+        <v>7.0258587786604801E-4</v>
       </c>
       <c r="L35" s="13">
         <v>3</v>
@@ -3289,7 +3289,7 @@
         <v>332</v>
       </c>
       <c r="K36" s="19">
-        <v>0</v>
+        <v>7.0267792519286998E-4</v>
       </c>
       <c r="L36" s="11">
         <v>3</v>
@@ -3321,7 +3321,7 @@
         <v>333</v>
       </c>
       <c r="K37" s="20">
-        <v>0</v>
+        <v>6.4111679944339501E-4</v>
       </c>
       <c r="L37" s="13">
         <v>3</v>
@@ -3353,7 +3353,7 @@
         <v>334</v>
       </c>
       <c r="K38" s="19">
-        <v>0</v>
+        <v>6.1604651645925305E-4</v>
       </c>
       <c r="L38" s="11">
         <v>3</v>
@@ -3385,7 +3385,7 @@
         <v>335</v>
       </c>
       <c r="K39" s="20">
-        <v>0</v>
+        <v>1.9962606304337402E-4</v>
       </c>
       <c r="L39" s="13">
         <v>3</v>
@@ -3417,7 +3417,7 @@
         <v>336</v>
       </c>
       <c r="K40" s="19">
-        <v>0</v>
+        <v>5.8729127425580696E-4</v>
       </c>
       <c r="L40" s="11">
         <v>3</v>
@@ -3449,7 +3449,7 @@
         <v>337</v>
       </c>
       <c r="K41" s="20">
-        <v>0</v>
+        <v>5.8765959975591001E-4</v>
       </c>
       <c r="L41" s="13">
         <v>3</v>
@@ -3481,7 +3481,7 @@
         <v>338</v>
       </c>
       <c r="K42" s="19">
-        <v>1.927859333331175E-2</v>
+        <v>1.1707680799492623E-2</v>
       </c>
       <c r="L42" s="11">
         <v>3</v>
@@ -3513,7 +3513,7 @@
         <v>339</v>
       </c>
       <c r="K43" s="20">
-        <v>0</v>
+        <v>5.6753450967886201E-4</v>
       </c>
       <c r="L43" s="13">
         <v>3</v>
@@ -3545,7 +3545,7 @@
         <v>340</v>
       </c>
       <c r="K44" s="19">
-        <v>0</v>
+        <v>4.2886442887952396E-4</v>
       </c>
       <c r="L44" s="11">
         <v>3</v>
@@ -3577,7 +3577,7 @@
         <v>341</v>
       </c>
       <c r="K45" s="20">
-        <v>0</v>
+        <v>4.2593877336552299E-4</v>
       </c>
       <c r="L45" s="13">
         <v>3</v>
@@ -3609,7 +3609,7 @@
         <v>342</v>
       </c>
       <c r="K46" s="19">
-        <v>0</v>
+        <v>1.9331885512757071E-3</v>
       </c>
       <c r="L46" s="11">
         <v>3</v>
@@ -3641,7 +3641,7 @@
         <v>343</v>
       </c>
       <c r="K47" s="20">
-        <v>0</v>
+        <v>2.0120071137575309E-3</v>
       </c>
       <c r="L47" s="13">
         <v>3</v>
@@ -3673,7 +3673,7 @@
         <v>344</v>
       </c>
       <c r="K48" s="19">
-        <v>0</v>
+        <v>2.5825758089600704E-4</v>
       </c>
       <c r="L48" s="11">
         <v>3</v>
@@ -3705,7 +3705,7 @@
         <v>345</v>
       </c>
       <c r="K49" s="20">
-        <v>5.714092934075295E-3</v>
+        <v>3.8953172563117558E-3</v>
       </c>
       <c r="L49" s="13">
         <v>3</v>
@@ -3737,7 +3737,7 @@
         <v>346</v>
       </c>
       <c r="K50" s="19">
-        <v>0</v>
+        <v>1.013341167846513E-3</v>
       </c>
       <c r="L50" s="11">
         <v>3</v>
@@ -3769,7 +3769,7 @@
         <v>347</v>
       </c>
       <c r="K51" s="20">
-        <v>2.9157106943825187E-3</v>
+        <v>2.2431225972132452E-3</v>
       </c>
       <c r="L51" s="13">
         <v>3</v>
@@ -3801,7 +3801,7 @@
         <v>348</v>
       </c>
       <c r="K52" s="19">
-        <v>0</v>
+        <v>2.275801012363131E-3</v>
       </c>
       <c r="L52" s="11">
         <v>3</v>
@@ -3833,7 +3833,7 @@
         <v>349</v>
       </c>
       <c r="K53" s="20">
-        <v>1.2756511587317752E-2</v>
+        <v>1.1297145839723667E-2</v>
       </c>
       <c r="L53" s="13">
         <v>3</v>
@@ -3865,7 +3865,7 @@
         <v>350</v>
       </c>
       <c r="K54" s="19">
-        <v>1.0792492413013872E-2</v>
+        <v>4.4813023887452039E-3</v>
       </c>
       <c r="L54" s="11">
         <v>3</v>
@@ -3897,7 +3897,7 @@
         <v>351</v>
       </c>
       <c r="K55" s="20">
-        <v>0</v>
+        <v>9.8596413115644519E-3</v>
       </c>
       <c r="L55" s="13">
         <v>3</v>
@@ -3929,7 +3929,7 @@
         <v>352</v>
       </c>
       <c r="K56" s="19">
-        <v>5.9512147269568287E-3</v>
+        <v>9.904638765783267E-3</v>
       </c>
       <c r="L56" s="11">
         <v>3</v>
@@ -3961,7 +3961,7 @@
         <v>353</v>
       </c>
       <c r="K57" s="20">
-        <v>0</v>
+        <v>9.8985886341297121E-3</v>
       </c>
       <c r="L57" s="13">
         <v>3</v>
@@ -3993,7 +3993,7 @@
         <v>354</v>
       </c>
       <c r="K58" s="19">
-        <v>8.4545504114737047E-2</v>
+        <v>2.6241860691354528E-2</v>
       </c>
       <c r="L58" s="11">
         <v>3</v>
@@ -4025,7 +4025,7 @@
         <v>355</v>
       </c>
       <c r="K59" s="20">
-        <v>0</v>
+        <v>2.4708484929089609E-3</v>
       </c>
       <c r="L59" s="13">
         <v>3</v>
@@ -4057,7 +4057,7 @@
         <v>356</v>
       </c>
       <c r="K60" s="19">
-        <v>3.9467714632220163E-3</v>
+        <v>2.1881724444560969E-3</v>
       </c>
       <c r="L60" s="11">
         <v>3</v>
@@ -4089,7 +4089,7 @@
         <v>357</v>
       </c>
       <c r="K61" s="20">
-        <v>0</v>
+        <v>5.3714010436773383E-3</v>
       </c>
       <c r="L61" s="13">
         <v>3</v>
@@ -4121,7 +4121,7 @@
         <v>358</v>
       </c>
       <c r="K62" s="19">
-        <v>0</v>
+        <v>5.3926553866758212E-3</v>
       </c>
       <c r="L62" s="11">
         <v>3</v>
@@ -4153,7 +4153,7 @@
         <v>359</v>
       </c>
       <c r="K63" s="20">
-        <v>0</v>
+        <v>2.2422495537381061E-3</v>
       </c>
       <c r="L63" s="13">
         <v>3</v>
@@ -4185,7 +4185,7 @@
         <v>360</v>
       </c>
       <c r="K64" s="19">
-        <v>0</v>
+        <v>1.1674750189598101E-3</v>
       </c>
       <c r="L64" s="11">
         <v>3</v>
@@ -4217,7 +4217,7 @@
         <v>361</v>
       </c>
       <c r="K65" s="20">
-        <v>4.5883806387632727E-3</v>
+        <v>1.3290636001332096E-2</v>
       </c>
       <c r="L65" s="13">
         <v>3</v>
@@ -4249,7 +4249,7 @@
         <v>362</v>
       </c>
       <c r="K66" s="19">
-        <v>0</v>
+        <v>2.3740859173122628E-3</v>
       </c>
       <c r="L66" s="11">
         <v>3</v>
@@ -4281,7 +4281,7 @@
         <v>363</v>
       </c>
       <c r="K67" s="20">
-        <v>0</v>
+        <v>4.7736119300195697E-3</v>
       </c>
       <c r="L67" s="13">
         <v>3</v>
@@ -4313,7 +4313,7 @@
         <v>364</v>
       </c>
       <c r="K68" s="19">
-        <v>0</v>
+        <v>2.8421461405878749E-3</v>
       </c>
       <c r="L68" s="11">
         <v>3</v>
@@ -4345,7 +4345,7 @@
         <v>365</v>
       </c>
       <c r="K69" s="20">
-        <v>0</v>
+        <v>7.8215542509919318E-3</v>
       </c>
       <c r="L69" s="13">
         <v>3</v>
@@ -4377,7 +4377,7 @@
         <v>366</v>
       </c>
       <c r="K70" s="19">
-        <v>0</v>
+        <v>1.35593986920282E-4</v>
       </c>
       <c r="L70" s="11">
         <v>3</v>
@@ -4409,7 +4409,7 @@
         <v>367</v>
       </c>
       <c r="K71" s="20">
-        <v>0.11461190658240906</v>
+        <v>3.6009552254428562E-2</v>
       </c>
       <c r="L71" s="13">
         <v>3</v>
@@ -4441,7 +4441,7 @@
         <v>368</v>
       </c>
       <c r="K72" s="19">
-        <v>0</v>
+        <v>7.7859863871916494E-4</v>
       </c>
       <c r="L72" s="11">
         <v>3</v>
@@ -4473,7 +4473,7 @@
         <v>369</v>
       </c>
       <c r="K73" s="20">
-        <v>1.2196736544039102E-2</v>
+        <v>1.0487965139656288E-2</v>
       </c>
       <c r="L73" s="13">
         <v>3</v>
@@ -4505,7 +4505,7 @@
         <v>370</v>
       </c>
       <c r="K74" s="19">
-        <v>0</v>
+        <v>8.7405555197376898E-4</v>
       </c>
       <c r="L74" s="11">
         <v>3</v>
@@ -4537,7 +4537,7 @@
         <v>371</v>
       </c>
       <c r="K75" s="20">
-        <v>4.3897110285111927E-3</v>
+        <v>1.7203766052121903E-2</v>
       </c>
       <c r="L75" s="13">
         <v>3</v>
@@ -4569,7 +4569,7 @@
         <v>372</v>
       </c>
       <c r="K76" s="19">
-        <v>1.546911588114476E-2</v>
+        <v>1.719920614757697E-2</v>
       </c>
       <c r="L76" s="11">
         <v>3</v>
@@ -4601,7 +4601,7 @@
         <v>373</v>
       </c>
       <c r="K77" s="20">
-        <v>0</v>
+        <v>4.3025896854576902E-4</v>
       </c>
       <c r="L77" s="13">
         <v>3</v>
@@ -4633,7 +4633,7 @@
         <v>374</v>
       </c>
       <c r="K78" s="19">
-        <v>0</v>
+        <v>1.1295413640677231E-2</v>
       </c>
       <c r="L78" s="11">
         <v>3</v>
@@ -4665,7 +4665,7 @@
         <v>375</v>
       </c>
       <c r="K79" s="20">
-        <v>6.8409390757981484E-2</v>
+        <v>1.1313555737944977E-2</v>
       </c>
       <c r="L79" s="13">
         <v>3</v>
@@ -4697,7 +4697,7 @@
         <v>376</v>
       </c>
       <c r="K80" s="19">
-        <v>0</v>
+        <v>1.324071620337609E-2</v>
       </c>
       <c r="L80" s="11">
         <v>3</v>
@@ -4729,7 +4729,7 @@
         <v>377</v>
       </c>
       <c r="K81" s="20">
-        <v>4.6810849072693367E-2</v>
+        <v>1.3338767024766513E-2</v>
       </c>
       <c r="L81" s="13">
         <v>3</v>
@@ -4761,7 +4761,7 @@
         <v>378</v>
       </c>
       <c r="K82" s="19">
-        <v>0</v>
+        <v>1.3231267934880006E-2</v>
       </c>
       <c r="L82" s="11">
         <v>3</v>
@@ -4793,7 +4793,7 @@
         <v>379</v>
       </c>
       <c r="K83" s="20">
-        <v>1.9140066880505603E-2</v>
+        <v>2.7002481584205301E-2</v>
       </c>
       <c r="L83" s="13">
         <v>3</v>
@@ -4825,7 +4825,7 @@
         <v>380</v>
       </c>
       <c r="K84" s="19">
-        <v>0</v>
+        <v>4.7336806050543898E-4</v>
       </c>
       <c r="L84" s="11">
         <v>3</v>
@@ -4857,7 +4857,7 @@
         <v>381</v>
       </c>
       <c r="K85" s="20">
-        <v>1.2437062685473141E-2</v>
+        <v>1.2660483707091793E-2</v>
       </c>
       <c r="L85" s="13">
         <v>3</v>
@@ -4889,7 +4889,7 @@
         <v>382</v>
       </c>
       <c r="K86" s="19">
-        <v>0</v>
+        <v>4.4427894435904317E-3</v>
       </c>
       <c r="L86" s="11">
         <v>3</v>
@@ -4921,7 +4921,7 @@
         <v>383</v>
       </c>
       <c r="K87" s="20">
-        <v>3.125965257093492E-3</v>
+        <v>4.4436338855467026E-3</v>
       </c>
       <c r="L87" s="13">
         <v>3</v>
@@ -4953,7 +4953,7 @@
         <v>384</v>
       </c>
       <c r="K88" s="19">
-        <v>2.743168849250445E-3</v>
+        <v>4.9909042601778688E-3</v>
       </c>
       <c r="L88" s="11">
         <v>3</v>
@@ -4985,7 +4985,7 @@
         <v>385</v>
       </c>
       <c r="K89" s="20">
-        <v>0</v>
+        <v>9.1624313077911905E-4</v>
       </c>
       <c r="L89" s="13">
         <v>3</v>
@@ -5017,7 +5017,7 @@
         <v>386</v>
       </c>
       <c r="K90" s="19">
-        <v>8.2272881525996683E-3</v>
+        <v>7.2606927604760008E-3</v>
       </c>
       <c r="L90" s="11">
         <v>3</v>
@@ -5049,7 +5049,7 @@
         <v>387</v>
       </c>
       <c r="K91" s="20">
-        <v>0</v>
+        <v>4.31032595307435E-4</v>
       </c>
       <c r="L91" s="13">
         <v>3</v>
@@ -5081,7 +5081,7 @@
         <v>388</v>
       </c>
       <c r="K92" s="19">
-        <v>0</v>
+        <v>1.15195648359132E-3</v>
       </c>
       <c r="L92" s="11">
         <v>3</v>
@@ -5113,7 +5113,7 @@
         <v>389</v>
       </c>
       <c r="K93" s="20">
-        <v>0</v>
+        <v>3.2105700537992726E-3</v>
       </c>
       <c r="L93" s="13">
         <v>3</v>
@@ -5145,7 +5145,7 @@
         <v>390</v>
       </c>
       <c r="K94" s="19">
-        <v>0</v>
+        <v>4.8591706262230885E-3</v>
       </c>
       <c r="L94" s="11">
         <v>3</v>
@@ -5177,7 +5177,7 @@
         <v>391</v>
       </c>
       <c r="K95" s="20">
-        <v>2.8575394437379679E-3</v>
+        <v>1.1781674093957526E-2</v>
       </c>
       <c r="L95" s="13">
         <v>3</v>
@@ -5209,7 +5209,7 @@
         <v>392</v>
       </c>
       <c r="K96" s="19">
-        <v>0</v>
+        <v>1.1766084890654458E-2</v>
       </c>
       <c r="L96" s="11">
         <v>3</v>
@@ -5241,7 +5241,7 @@
         <v>393</v>
       </c>
       <c r="K97" s="20">
-        <v>9.6687520245034297E-3</v>
+        <v>2.9567410397525879E-2</v>
       </c>
       <c r="L97" s="13">
         <v>3</v>
@@ -5273,7 +5273,7 @@
         <v>394</v>
       </c>
       <c r="K98" s="19">
-        <v>2.555591214756789E-3</v>
+        <v>2.1167578594853457E-3</v>
       </c>
       <c r="L98" s="11">
         <v>3</v>
@@ -5305,7 +5305,7 @@
         <v>395</v>
       </c>
       <c r="K99" s="20">
-        <v>2.0427229045191276E-2</v>
+        <v>7.1157664264272303E-3</v>
       </c>
       <c r="L99" s="13">
         <v>3</v>
@@ -5337,7 +5337,7 @@
         <v>396</v>
       </c>
       <c r="K100" s="19">
-        <v>8.3601453733513648E-3</v>
+        <v>6.6225275183513154E-3</v>
       </c>
       <c r="L100" s="11">
         <v>3</v>
@@ -5369,7 +5369,7 @@
         <v>397</v>
       </c>
       <c r="K101" s="20">
-        <v>2.6051353731447661E-3</v>
+        <v>5.0119034682973409E-3</v>
       </c>
       <c r="L101" s="13">
         <v>3</v>
@@ -5401,7 +5401,7 @@
         <v>398</v>
       </c>
       <c r="K102" s="19">
-        <v>0</v>
+        <v>5.0139121621147016E-3</v>
       </c>
       <c r="L102" s="11">
         <v>3</v>
@@ -5433,7 +5433,7 @@
         <v>399</v>
       </c>
       <c r="K103" s="20">
-        <v>0</v>
+        <v>9.1667136504071708E-3</v>
       </c>
       <c r="L103" s="13">
         <v>3</v>
@@ -5465,7 +5465,7 @@
         <v>400</v>
       </c>
       <c r="K104" s="19">
-        <v>9.8265045686242048E-3</v>
+        <v>9.215601763505445E-3</v>
       </c>
       <c r="L104" s="11">
         <v>3</v>
@@ -5497,7 +5497,7 @@
         <v>401</v>
       </c>
       <c r="K105" s="20">
-        <v>1.0798161645068225E-2</v>
+        <v>7.8523538035897358E-3</v>
       </c>
       <c r="L105" s="13">
         <v>3</v>
@@ -5529,7 +5529,7 @@
         <v>402</v>
       </c>
       <c r="K106" s="19">
-        <v>2.9997632217968911E-3</v>
+        <v>3.7800073623693148E-3</v>
       </c>
       <c r="L106" s="11">
         <v>3</v>
@@ -5561,7 +5561,7 @@
         <v>403</v>
       </c>
       <c r="K107" s="20">
-        <v>0</v>
+        <v>3.7770687462776401E-3</v>
       </c>
       <c r="L107" s="13">
         <v>3</v>
@@ -5593,7 +5593,7 @@
         <v>404</v>
       </c>
       <c r="K108" s="19">
-        <v>5.5975039444360079E-3</v>
+        <v>6.2186605348232967E-3</v>
       </c>
       <c r="L108" s="11">
         <v>3</v>
@@ -5625,7 +5625,7 @@
         <v>405</v>
       </c>
       <c r="K109" s="20">
-        <v>0</v>
+        <v>1.2218070709389599E-4</v>
       </c>
       <c r="L109" s="13">
         <v>3</v>
@@ -5657,7 +5657,7 @@
         <v>406</v>
       </c>
       <c r="K110" s="19">
-        <v>0</v>
+        <v>8.3918796173338491E-4</v>
       </c>
       <c r="L110" s="11">
         <v>3</v>
@@ -5689,7 +5689,7 @@
         <v>407</v>
       </c>
       <c r="K111" s="20">
-        <v>0</v>
+        <v>8.40647460086082E-4</v>
       </c>
       <c r="L111" s="13">
         <v>3</v>
@@ -5721,7 +5721,7 @@
         <v>408</v>
       </c>
       <c r="K112" s="19">
-        <v>2.6773564597500597E-3</v>
+        <v>6.4544637688532106E-4</v>
       </c>
       <c r="L112" s="11">
         <v>3</v>
@@ -5753,7 +5753,7 @@
         <v>409</v>
       </c>
       <c r="K113" s="20">
-        <v>0</v>
+        <v>2.2335262989436979E-3</v>
       </c>
       <c r="L113" s="13">
         <v>3</v>
@@ -5785,7 +5785,7 @@
         <v>410</v>
       </c>
       <c r="K114" s="19">
-        <v>0</v>
+        <v>8.0807536242120601E-4</v>
       </c>
       <c r="L114" s="11">
         <v>3</v>
@@ -5817,7 +5817,7 @@
         <v>411</v>
       </c>
       <c r="K115" s="20">
-        <v>0</v>
+        <v>8.0833779778504496E-4</v>
       </c>
       <c r="L115" s="13">
         <v>3</v>
@@ -5849,7 +5849,7 @@
         <v>412</v>
       </c>
       <c r="K116" s="19">
-        <v>0</v>
+        <v>1.4855327029782361E-3</v>
       </c>
       <c r="L116" s="11">
         <v>3</v>
@@ -5881,7 +5881,7 @@
         <v>413</v>
       </c>
       <c r="K117" s="20">
-        <v>0</v>
+        <v>3.7789343316677699E-4</v>
       </c>
       <c r="L117" s="13">
         <v>3</v>
@@ -5913,7 +5913,7 @@
         <v>414</v>
       </c>
       <c r="K118" s="19">
-        <v>4.1385393996688172E-3</v>
+        <v>3.18887642550411E-3</v>
       </c>
       <c r="L118" s="11">
         <v>3</v>
@@ -5945,7 +5945,7 @@
         <v>415</v>
       </c>
       <c r="K119" s="20">
-        <v>0</v>
+        <v>3.1459093426932931E-3</v>
       </c>
       <c r="L119" s="13">
         <v>3</v>
@@ -5977,7 +5977,7 @@
         <v>416</v>
       </c>
       <c r="K120" s="19">
-        <v>0</v>
+        <v>2.9069890604112596E-4</v>
       </c>
       <c r="L120" s="11">
         <v>3</v>
@@ -6009,7 +6009,7 @@
         <v>417</v>
       </c>
       <c r="K121" s="20">
-        <v>3.1403848255796118E-2</v>
+        <v>2.1298836099056175E-2</v>
       </c>
       <c r="L121" s="13">
         <v>3</v>
@@ -6041,7 +6041,7 @@
         <v>418</v>
       </c>
       <c r="K122" s="19">
-        <v>7.433349176641707E-3</v>
+        <v>5.9202145306004577E-3</v>
       </c>
       <c r="L122" s="11">
         <v>3</v>
@@ -6073,7 +6073,7 @@
         <v>419</v>
       </c>
       <c r="K123" s="20">
-        <v>0</v>
+        <v>2.0626924399761238E-3</v>
       </c>
       <c r="L123" s="13">
         <v>3</v>
@@ -6105,7 +6105,7 @@
         <v>420</v>
       </c>
       <c r="K124" s="19">
-        <v>8.5551176583506684E-3</v>
+        <v>2.0695185889227632E-3</v>
       </c>
       <c r="L124" s="11">
         <v>3</v>
@@ -6137,7 +6137,7 @@
         <v>421</v>
       </c>
       <c r="K125" s="20">
-        <v>0</v>
+        <v>6.5381011139941205E-4</v>
       </c>
       <c r="L125" s="13">
         <v>3</v>
@@ -6169,7 +6169,7 @@
         <v>422</v>
       </c>
       <c r="K126" s="19">
-        <v>0</v>
+        <v>7.5489760028905201E-4</v>
       </c>
       <c r="L126" s="11">
         <v>3</v>
@@ -6201,7 +6201,7 @@
         <v>423</v>
       </c>
       <c r="K127" s="20">
-        <v>3.3083666362331639E-3</v>
+        <v>1.6712175094950456E-2</v>
       </c>
       <c r="L127" s="13">
         <v>3</v>
@@ -6233,7 +6233,7 @@
         <v>424</v>
       </c>
       <c r="K128" s="19">
-        <v>2.0792031803470522E-2</v>
+        <v>1.5629818714284059E-2</v>
       </c>
       <c r="L128" s="11">
         <v>3</v>
@@ -6265,7 +6265,7 @@
         <v>425</v>
       </c>
       <c r="K129" s="20">
-        <v>0</v>
+        <v>1.2324384089815051E-3</v>
       </c>
       <c r="L129" s="13">
         <v>3</v>
@@ -6297,7 +6297,7 @@
         <v>426</v>
       </c>
       <c r="K130" s="19">
-        <v>0</v>
+        <v>2.9094496708989689E-3</v>
       </c>
       <c r="L130" s="11">
         <v>3</v>
@@ -6329,7 +6329,7 @@
         <v>427</v>
       </c>
       <c r="K131" s="20">
-        <v>0</v>
+        <v>7.2122582859643803E-4</v>
       </c>
       <c r="L131" s="13">
         <v>3</v>
@@ -6361,7 +6361,7 @@
         <v>428</v>
       </c>
       <c r="K132" s="19">
-        <v>0</v>
+        <v>7.2187555016570398E-4</v>
       </c>
       <c r="L132" s="11">
         <v>3</v>
@@ -6393,7 +6393,7 @@
         <v>429</v>
       </c>
       <c r="K133" s="20">
-        <v>9.4971961327719959E-3</v>
+        <v>8.3780179430153583E-3</v>
       </c>
       <c r="L133" s="13">
         <v>3</v>
@@ -6425,7 +6425,7 @@
         <v>430</v>
       </c>
       <c r="K134" s="19">
-        <v>8.2166891535415173E-3</v>
+        <v>8.0454191009156906E-3</v>
       </c>
       <c r="L134" s="11">
         <v>3</v>
@@ -6457,7 +6457,7 @@
         <v>431</v>
       </c>
       <c r="K135" s="20">
-        <v>4.9411054678833539E-3</v>
+        <v>4.771950625659987E-3</v>
       </c>
       <c r="L135" s="13">
         <v>3</v>
@@ -6489,7 +6489,7 @@
         <v>432</v>
       </c>
       <c r="K136" s="19">
-        <v>6.48523173764078E-2</v>
+        <v>2.5774178907287944E-2</v>
       </c>
       <c r="L136" s="11">
         <v>3</v>
@@ -6521,7 +6521,7 @@
         <v>433</v>
       </c>
       <c r="K137" s="20">
-        <v>2.7635534358110711E-2</v>
+        <v>1.8188127037207909E-2</v>
       </c>
       <c r="L137" s="13">
         <v>3</v>
@@ -6553,7 +6553,7 @@
         <v>434</v>
       </c>
       <c r="K138" s="19">
-        <v>0</v>
+        <v>1.585849850530407E-3</v>
       </c>
       <c r="L138" s="11">
         <v>3</v>
@@ -6585,7 +6585,7 @@
         <v>435</v>
       </c>
       <c r="K139" s="20">
-        <v>0</v>
+        <v>8.3214289827147599E-4</v>
       </c>
       <c r="L139" s="13">
         <v>3</v>
@@ -6617,7 +6617,7 @@
         <v>436</v>
       </c>
       <c r="K140" s="19">
-        <v>0</v>
+        <v>5.1618443422896901E-4</v>
       </c>
       <c r="L140" s="11">
         <v>3</v>
@@ -6649,7 +6649,7 @@
         <v>437</v>
       </c>
       <c r="K141" s="20">
-        <v>0</v>
+        <v>5.1534361967467499E-4</v>
       </c>
       <c r="L141" s="13">
         <v>3</v>
@@ -6681,7 +6681,7 @@
         <v>438</v>
       </c>
       <c r="K142" s="19">
-        <v>1.1404522986532434E-2</v>
+        <v>6.7453278886211131E-3</v>
       </c>
       <c r="L142" s="11">
         <v>3</v>
@@ -6713,7 +6713,7 @@
         <v>439</v>
       </c>
       <c r="K143" s="20">
-        <v>0</v>
+        <v>2.4015256883415268E-3</v>
       </c>
       <c r="L143" s="13">
         <v>3</v>
@@ -6745,7 +6745,7 @@
         <v>440</v>
       </c>
       <c r="K144" s="19">
-        <v>0</v>
+        <v>4.3426094773871699E-4</v>
       </c>
       <c r="L144" s="11">
         <v>3</v>
@@ -6777,7 +6777,7 @@
         <v>441</v>
       </c>
       <c r="K145" s="20">
-        <v>0</v>
+        <v>3.704826812792886E-3</v>
       </c>
       <c r="L145" s="13">
         <v>3</v>
@@ -6809,7 +6809,7 @@
         <v>442</v>
       </c>
       <c r="K146" s="19">
-        <v>9.1161251433802427E-3</v>
+        <v>1.2612302007127317E-2</v>
       </c>
       <c r="L146" s="11">
         <v>3</v>
@@ -6841,7 +6841,7 @@
         <v>443</v>
       </c>
       <c r="K147" s="20">
-        <v>3.9630396943345228E-3</v>
+        <v>7.0835236216241311E-3</v>
       </c>
       <c r="L147" s="13">
         <v>3</v>
@@ -6873,7 +6873,7 @@
         <v>444</v>
       </c>
       <c r="K148" s="19">
-        <v>0</v>
+        <v>7.7475219675252295E-3</v>
       </c>
       <c r="L148" s="11">
         <v>3</v>
@@ -6905,7 +6905,7 @@
         <v>445</v>
       </c>
       <c r="K149" s="20">
-        <v>3.2250535738694462E-3</v>
+        <v>7.7196535956001438E-3</v>
       </c>
       <c r="L149" s="13">
         <v>3</v>
@@ -6937,7 +6937,7 @@
         <v>446</v>
       </c>
       <c r="K150" s="19">
-        <v>1.9257395335195444E-2</v>
+        <v>1.2336666066481778E-2</v>
       </c>
       <c r="L150" s="11">
         <v>3</v>
@@ -6969,7 +6969,7 @@
         <v>447</v>
       </c>
       <c r="K151" s="20">
-        <v>0</v>
+        <v>4.7503246347349645E-3</v>
       </c>
       <c r="L151" s="13">
         <v>3</v>
@@ -7001,7 +7001,7 @@
         <v>448</v>
       </c>
       <c r="K152" s="19">
-        <v>0</v>
+        <v>4.7457836100277019E-3</v>
       </c>
       <c r="L152" s="11">
         <v>3</v>
@@ -7033,7 +7033,7 @@
         <v>449</v>
       </c>
       <c r="K153" s="20">
-        <v>0</v>
+        <v>2.4732750169162527E-3</v>
       </c>
       <c r="L153" s="13">
         <v>3</v>
@@ -7065,7 +7065,7 @@
         <v>450</v>
       </c>
       <c r="K154" s="19">
-        <v>0</v>
+        <v>1.305706214855493E-3</v>
       </c>
       <c r="L154" s="11">
         <v>3</v>
@@ -7097,7 +7097,7 @@
         <v>451</v>
       </c>
       <c r="K155" s="20">
-        <v>0</v>
+        <v>6.7437677804488196E-4</v>
       </c>
       <c r="L155" s="13">
         <v>3</v>
@@ -7129,7 +7129,7 @@
         <v>452</v>
       </c>
       <c r="K156" s="19">
-        <v>0</v>
+        <v>6.7399243604569802E-4</v>
       </c>
       <c r="L156" s="11">
         <v>3</v>
@@ -7161,7 +7161,7 @@
         <v>453</v>
       </c>
       <c r="K157" s="20">
-        <v>0</v>
+        <v>8.2597686755958002E-4</v>
       </c>
       <c r="L157" s="13">
         <v>3</v>
@@ -7193,7 +7193,7 @@
         <v>454</v>
       </c>
       <c r="K158" s="19">
-        <v>0</v>
+        <v>3.4425573583123803E-4</v>
       </c>
       <c r="L158" s="11">
         <v>3</v>
@@ -7225,7 +7225,7 @@
         <v>455</v>
       </c>
       <c r="K159" s="20">
-        <v>0</v>
+        <v>4.9539949450259403E-4</v>
       </c>
       <c r="L159" s="13">
         <v>3</v>
@@ -7257,7 +7257,7 @@
         <v>456</v>
       </c>
       <c r="K160" s="19">
-        <v>0</v>
+        <v>7.7419198466682927E-3</v>
       </c>
       <c r="L160" s="11">
         <v>3</v>
@@ -7289,7 +7289,7 @@
         <v>457</v>
       </c>
       <c r="K161" s="20">
-        <v>3.3344944013531698E-3</v>
+        <v>7.7396236038718737E-3</v>
       </c>
       <c r="L161" s="13">
         <v>3</v>
@@ -7321,7 +7321,7 @@
         <v>458</v>
       </c>
       <c r="K162" s="19">
-        <v>3.851133983348751E-3</v>
+        <v>4.167254210608368E-3</v>
       </c>
       <c r="L162" s="11">
         <v>3</v>
@@ -7353,7 +7353,7 @@
         <v>459</v>
       </c>
       <c r="K163" s="20">
-        <v>0</v>
+        <v>2.1652369337378341E-3</v>
       </c>
       <c r="L163" s="13">
         <v>3</v>
@@ -7385,7 +7385,7 @@
         <v>460</v>
       </c>
       <c r="K164" s="19">
-        <v>0</v>
+        <v>6.4394368656789597E-4</v>
       </c>
       <c r="L164" s="11">
         <v>3</v>
@@ -7417,7 +7417,7 @@
         <v>461</v>
       </c>
       <c r="K165" s="20">
-        <v>1.1382832011715858E-2</v>
+        <v>1.3687338079057995E-2</v>
       </c>
       <c r="L165" s="13">
         <v>3</v>
@@ -7449,7 +7449,7 @@
         <v>462</v>
       </c>
       <c r="K166" s="19">
-        <v>3.1087110725803442E-3</v>
+        <v>2.1969076951719813E-3</v>
       </c>
       <c r="L166" s="11">
         <v>3</v>
@@ -7481,7 +7481,7 @@
         <v>463</v>
       </c>
       <c r="K167" s="20">
-        <v>0</v>
+        <v>2.5384451472495722E-3</v>
       </c>
       <c r="L167" s="13">
         <v>3</v>
@@ -7513,7 +7513,7 @@
         <v>464</v>
       </c>
       <c r="K168" s="19">
-        <v>0</v>
+        <v>2.5394897042934207E-3</v>
       </c>
       <c r="L168" s="11">
         <v>3</v>
@@ -7545,7 +7545,7 @@
         <v>465</v>
       </c>
       <c r="K169" s="20">
-        <v>0</v>
+        <v>2.5381807067386439E-3</v>
       </c>
       <c r="L169" s="13">
         <v>3</v>
@@ -7577,7 +7577,7 @@
         <v>466</v>
       </c>
       <c r="K170" s="19">
-        <v>1.2063632834937122E-2</v>
+        <v>1.2009088109457746E-2</v>
       </c>
       <c r="L170" s="11">
         <v>3</v>
@@ -7609,7 +7609,7 @@
         <v>467</v>
       </c>
       <c r="K171" s="20">
-        <v>7.5748334896500753E-3</v>
+        <v>1.0865072141114797E-2</v>
       </c>
       <c r="L171" s="13">
         <v>3</v>
@@ -7641,7 +7641,7 @@
         <v>468</v>
       </c>
       <c r="K172" s="19">
-        <v>2.2465934189602299E-2</v>
+        <v>1.0920776158521404E-2</v>
       </c>
       <c r="L172" s="11">
         <v>3</v>
@@ -7673,7 +7673,7 @@
         <v>469</v>
       </c>
       <c r="K173" s="20">
-        <v>3.8710995397140333E-3</v>
+        <v>4.9875413332262754E-3</v>
       </c>
       <c r="L173" s="13">
         <v>3</v>
@@ -7705,7 +7705,7 @@
         <v>470</v>
       </c>
       <c r="K174" s="19">
-        <v>4.381823401305174E-3</v>
+        <v>4.1490564099210267E-3</v>
       </c>
       <c r="L174" s="11">
         <v>3</v>
@@ -7737,7 +7737,7 @@
         <v>471</v>
       </c>
       <c r="K175" s="20">
-        <v>8.9019267670662119E-3</v>
+        <v>4.1207794315530483E-3</v>
       </c>
       <c r="L175" s="13">
         <v>3</v>
@@ -7769,7 +7769,7 @@
         <v>472</v>
       </c>
       <c r="K176" s="19">
-        <v>0</v>
+        <v>1.4233535040015718E-3</v>
       </c>
       <c r="L176" s="11">
         <v>3</v>
@@ -7801,7 +7801,7 @@
         <v>473</v>
       </c>
       <c r="K177" s="20">
-        <v>0</v>
+        <v>1.426991827309587E-3</v>
       </c>
       <c r="L177" s="13">
         <v>3</v>
@@ -7833,7 +7833,7 @@
         <v>474</v>
       </c>
       <c r="K178" s="19">
-        <v>1.3937437273071906E-2</v>
+        <v>8.2597692147866279E-3</v>
       </c>
       <c r="L178" s="11">
         <v>3</v>
@@ -7865,7 +7865,7 @@
         <v>475</v>
       </c>
       <c r="K179" s="20">
-        <v>0</v>
+        <v>6.6758425628013897E-4</v>
       </c>
       <c r="L179" s="13">
         <v>3</v>
@@ -7897,7 +7897,7 @@
         <v>476</v>
       </c>
       <c r="K180" s="19">
-        <v>0</v>
+        <v>1.4526721428740729E-3</v>
       </c>
       <c r="L180" s="11">
         <v>3</v>
@@ -7929,7 +7929,7 @@
         <v>477</v>
       </c>
       <c r="K181" s="20">
-        <v>0</v>
+        <v>1.4551703853839461E-3</v>
       </c>
       <c r="L181" s="13">
         <v>3</v>
@@ -7961,7 +7961,7 @@
         <v>478</v>
       </c>
       <c r="K182" s="19">
-        <v>2.8913083477138078E-3</v>
+        <v>2.8320803165985662E-3</v>
       </c>
       <c r="L182" s="11">
         <v>3</v>
@@ -7993,7 +7993,7 @@
         <v>479</v>
       </c>
       <c r="K183" s="20">
-        <v>1.1608861828838968E-2</v>
+        <v>4.7929963598832151E-3</v>
       </c>
       <c r="L183" s="13">
         <v>3</v>
@@ -8025,7 +8025,7 @@
         <v>480</v>
       </c>
       <c r="K184" s="19">
-        <v>2.7217243627839539E-3</v>
+        <v>5.0237278040320471E-3</v>
       </c>
       <c r="L184" s="11">
         <v>3</v>
@@ -8057,7 +8057,7 @@
         <v>481</v>
       </c>
       <c r="K185" s="20">
-        <v>7.8696335564757899E-3</v>
+        <v>5.074282460686131E-3</v>
       </c>
       <c r="L185" s="13">
         <v>3</v>
@@ -8089,7 +8089,7 @@
         <v>482</v>
       </c>
       <c r="K186" s="19">
-        <v>6.6394102006838429E-3</v>
+        <v>1.1447009475204601E-2</v>
       </c>
       <c r="L186" s="11">
         <v>3</v>
@@ -8121,7 +8121,7 @@
         <v>483</v>
       </c>
       <c r="K187" s="20">
-        <v>1.4128712232818436E-2</v>
+        <v>1.3020538418603298E-2</v>
       </c>
       <c r="L187" s="13">
         <v>3</v>
@@ -8153,7 +8153,7 @@
         <v>484</v>
       </c>
       <c r="K188" s="19">
-        <v>9.6717098847056496E-3</v>
+        <v>8.0122718513841312E-3</v>
       </c>
       <c r="L188" s="11">
         <v>3</v>
@@ -8185,7 +8185,7 @@
         <v>485</v>
       </c>
       <c r="K189" s="20">
-        <v>4.2432969484990255E-3</v>
+        <v>3.563027275519107E-3</v>
       </c>
       <c r="L189" s="13">
         <v>3</v>
@@ -8217,7 +8217,7 @@
         <v>486</v>
       </c>
       <c r="K190" s="19">
-        <v>0</v>
+        <v>4.9988181629172603E-4</v>
       </c>
       <c r="L190" s="11">
         <v>3</v>
@@ -8249,7 +8249,7 @@
         <v>487</v>
       </c>
       <c r="K191" s="20">
-        <v>0</v>
+        <v>5.00099958579375E-4</v>
       </c>
       <c r="L191" s="13">
         <v>3</v>
@@ -8281,7 +8281,7 @@
         <v>488</v>
       </c>
       <c r="K192" s="19">
-        <v>0</v>
+        <v>1.1593671865458208E-3</v>
       </c>
       <c r="L192" s="11">
         <v>3</v>
@@ -8313,7 +8313,7 @@
         <v>489</v>
       </c>
       <c r="K193" s="20">
-        <v>0</v>
+        <v>1.1530886082990121E-3</v>
       </c>
       <c r="L193" s="13">
         <v>3</v>
@@ -8345,7 +8345,7 @@
         <v>490</v>
       </c>
       <c r="K194" s="19">
-        <v>4.1766711474430999E-2</v>
+        <v>2.0348523068962867E-2</v>
       </c>
       <c r="L194" s="11">
         <v>3</v>
@@ -8377,7 +8377,7 @@
         <v>491</v>
       </c>
       <c r="K195" s="20">
-        <v>0</v>
+        <v>3.2648908565736539E-3</v>
       </c>
       <c r="L195" s="13">
         <v>3</v>
@@ -8409,7 +8409,7 @@
         <v>492</v>
       </c>
       <c r="K196" s="19">
-        <v>0</v>
+        <v>3.262795374536082E-3</v>
       </c>
       <c r="L196" s="11">
         <v>3</v>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C93BE671-F0BB-4E93-9B47-E6E7C56719AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42FBFE0A-6BA0-45D1-8DCC-7D2119EC09BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1801,7 +1801,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8CD0E79-30B7-8056-BBA7-068F1379A4DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE0CA22D-A2DB-A200-B724-037EC07335DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2152,7 +2152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD32A76-20A4-4367-BF3F-6A40893E5E6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7364554B-E814-4350-9311-16E2D3F00913}">
   <dimension ref="A1:R213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42FBFE0A-6BA0-45D1-8DCC-7D2119EC09BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{483B80D3-FBF0-4825-921A-C5BB843FBD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1749,20 +1749,42 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1792,7 +1814,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>296862</xdr:colOff>
+      <xdr:colOff>296863</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
@@ -1801,7 +1823,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE0CA22D-A2DB-A200-B724-037EC07335DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DF00089-6D77-F69C-A4E5-F7E21986D454}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2152,18 +2174,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7364554B-E814-4350-9311-16E2D3F00913}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A5DFD7-F696-4BC3-ABF6-1D67104BDEF2}">
   <dimension ref="A1:R213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="28.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.59765625" customWidth="1"/>
-    <col min="8" max="9" width="10.59765625" customWidth="1"/>
-    <col min="10" max="10" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="10.59765625" customWidth="1"/>
+    <col min="2" max="5" width="10.59765625" customWidth="1"/>
+    <col min="8" max="13" width="10.59765625" customWidth="1"/>
     <col min="16" max="16" width="10.59765625" customWidth="1"/>
     <col min="17" max="17" width="30.59765625" customWidth="1"/>
     <col min="18" max="18" width="10.59765625" customWidth="1"/>
@@ -2233,7 +2252,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" ht="409.5" x14ac:dyDescent="0.45">
       <c r="B4" s="10" t="s">
         <v>83</v>
       </c>
@@ -2274,7 +2293,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B5" s="12" t="s">
         <v>84</v>
       </c>
@@ -2306,7 +2325,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B6" s="10" t="s">
         <v>85</v>
       </c>
@@ -2338,7 +2357,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B7" s="12" t="s">
         <v>86</v>
       </c>
@@ -2370,7 +2389,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" ht="26.25" x14ac:dyDescent="0.45">
       <c r="B8" s="10" t="s">
         <v>87</v>
       </c>
@@ -2402,7 +2421,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B9" s="12" t="s">
         <v>88</v>
       </c>
@@ -2434,7 +2453,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B10" s="10" t="s">
         <v>89</v>
       </c>
@@ -2466,7 +2485,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B11" s="12" t="s">
         <v>90</v>
       </c>
@@ -2498,7 +2517,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B12" s="10" t="s">
         <v>91</v>
       </c>
@@ -2530,7 +2549,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B13" s="12" t="s">
         <v>92</v>
       </c>
@@ -2562,7 +2581,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B14" s="10" t="s">
         <v>93</v>
       </c>
@@ -2594,7 +2613,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B15" s="12" t="s">
         <v>94</v>
       </c>
@@ -2626,7 +2645,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" ht="26.25" x14ac:dyDescent="0.45">
       <c r="B16" s="10" t="s">
         <v>95</v>
       </c>
@@ -2658,7 +2677,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:13" ht="26.25" x14ac:dyDescent="0.45">
       <c r="B17" s="12" t="s">
         <v>96</v>
       </c>
@@ -2690,7 +2709,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:13" ht="26.25" x14ac:dyDescent="0.45">
       <c r="B18" s="10" t="s">
         <v>97</v>
       </c>
@@ -2722,7 +2741,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B19" s="12" t="s">
         <v>98</v>
       </c>
@@ -2754,7 +2773,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:13" ht="26.25" x14ac:dyDescent="0.45">
       <c r="B20" s="10" t="s">
         <v>99</v>
       </c>
@@ -2786,7 +2805,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B21" s="12" t="s">
         <v>100</v>
       </c>
@@ -2818,7 +2837,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:13" ht="26.25" x14ac:dyDescent="0.45">
       <c r="B22" s="10" t="s">
         <v>101</v>
       </c>
@@ -2850,7 +2869,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:13" ht="26.25" x14ac:dyDescent="0.45">
       <c r="B23" s="12" t="s">
         <v>102</v>
       </c>
@@ -2882,7 +2901,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:13" ht="26.25" x14ac:dyDescent="0.45">
       <c r="B24" s="10" t="s">
         <v>103</v>
       </c>
@@ -2914,7 +2933,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B25" s="12" t="s">
         <v>104</v>
       </c>
@@ -2946,7 +2965,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:13" ht="26.25" x14ac:dyDescent="0.45">
       <c r="B26" s="10" t="s">
         <v>105</v>
       </c>
@@ -2978,7 +2997,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:13" ht="26.25" x14ac:dyDescent="0.45">
       <c r="B27" s="12" t="s">
         <v>106</v>
       </c>
@@ -3010,7 +3029,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B28" s="10" t="s">
         <v>107</v>
       </c>
@@ -3042,7 +3061,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B29" s="12" t="s">
         <v>108</v>
       </c>
@@ -3074,7 +3093,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B30" s="10" t="s">
         <v>109</v>
       </c>
@@ -3106,7 +3125,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:13" ht="26.25" x14ac:dyDescent="0.45">
       <c r="B31" s="12" t="s">
         <v>110</v>
       </c>
@@ -3138,7 +3157,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B32" s="10" t="s">
         <v>111</v>
       </c>
@@ -3170,7 +3189,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B33" s="12" t="s">
         <v>112</v>
       </c>
@@ -3202,7 +3221,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B34" s="10" t="s">
         <v>113</v>
       </c>
@@ -3234,7 +3253,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:13" ht="26.25" x14ac:dyDescent="0.45">
       <c r="B35" s="12" t="s">
         <v>114</v>
       </c>
@@ -3266,7 +3285,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:13" ht="26.25" x14ac:dyDescent="0.45">
       <c r="B36" s="10" t="s">
         <v>115</v>
       </c>
@@ -3298,7 +3317,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:13" ht="26.25" x14ac:dyDescent="0.45">
       <c r="B37" s="12" t="s">
         <v>116</v>
       </c>
@@ -3330,7 +3349,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:13" ht="26.25" x14ac:dyDescent="0.45">
       <c r="B38" s="10" t="s">
         <v>117</v>
       </c>
@@ -3362,7 +3381,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B39" s="12" t="s">
         <v>118</v>
       </c>
@@ -3394,7 +3413,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:13" ht="26.25" x14ac:dyDescent="0.45">
       <c r="B40" s="10" t="s">
         <v>119</v>
       </c>
@@ -3426,7 +3445,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B41" s="12" t="s">
         <v>120</v>
       </c>
@@ -3458,7 +3477,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:13" ht="26.25" x14ac:dyDescent="0.45">
       <c r="B42" s="10" t="s">
         <v>121</v>
       </c>
@@ -3490,7 +3509,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:13" ht="26.25" x14ac:dyDescent="0.45">
       <c r="B43" s="12" t="s">
         <v>122</v>
       </c>
@@ -3522,7 +3541,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B44" s="10" t="s">
         <v>123</v>
       </c>
@@ -3554,7 +3573,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:13" ht="26.25" x14ac:dyDescent="0.45">
       <c r="B45" s="12" t="s">
         <v>124</v>
       </c>
@@ -3586,7 +3605,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B46" s="10" t="s">
         <v>125</v>
       </c>
@@ -3618,7 +3637,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B47" s="12" t="s">
         <v>126</v>
       </c>
@@ -3650,7 +3669,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B48" s="10" t="s">
         <v>127</v>
       </c>
@@ -3682,7 +3701,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:13" ht="26.25" x14ac:dyDescent="0.45">
       <c r="B49" s="12" t="s">
         <v>128</v>
       </c>
@@ -3714,7 +3733,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B50" s="10" t="s">
         <v>129</v>
       </c>
@@ -3746,7 +3765,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B51" s="12" t="s">
         <v>130</v>
       </c>
@@ -3778,7 +3797,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:13" ht="26.25" x14ac:dyDescent="0.45">
       <c r="B52" s="10" t="s">
         <v>131</v>
       </c>
@@ -3810,7 +3829,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:13" ht="26.25" x14ac:dyDescent="0.45">
       <c r="B53" s="12" t="s">
         <v>132</v>
       </c>
@@ -3842,7 +3861,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B54" s="10" t="s">
         <v>133</v>
       </c>
@@ -3874,7 +3893,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:13" ht="26.25" x14ac:dyDescent="0.45">
       <c r="B55" s="12" t="s">
         <v>134</v>
       </c>
@@ -3906,7 +3925,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B56" s="10" t="s">
         <v>135</v>
       </c>
@@ -3938,7 +3957,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B57" s="12" t="s">
         <v>136</v>
       </c>
@@ -3970,7 +3989,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:13" ht="26.25" x14ac:dyDescent="0.45">
       <c r="B58" s="10" t="s">
         <v>137</v>
       </c>
@@ -4002,7 +4021,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B59" s="12" t="s">
         <v>138</v>
       </c>
@@ -4034,7 +4053,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:13" ht="26.25" x14ac:dyDescent="0.45">
       <c r="B60" s="10" t="s">
         <v>139</v>
       </c>
@@ -4066,7 +4085,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B61" s="12" t="s">
         <v>140</v>
       </c>
@@ -4098,7 +4117,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B62" s="10" t="s">
         <v>141</v>
       </c>
@@ -4130,7 +4149,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:13" ht="26.25" x14ac:dyDescent="0.45">
       <c r="B63" s="12" t="s">
         <v>142</v>
       </c>
@@ -4162,7 +4181,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:13" ht="26.25" x14ac:dyDescent="0.45">
       <c r="B64" s="10" t="s">
         <v>143</v>
       </c>
@@ -4194,7 +4213,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B65" s="12" t="s">
         <v>144</v>
       </c>
@@ -4226,7 +4245,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B66" s="10" t="s">
         <v>145</v>
       </c>
@@ -4258,7 +4277,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B67" s="12" t="s">
         <v>146</v>
       </c>
@@ -4290,7 +4309,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B68" s="10" t="s">
         <v>147</v>
       </c>
@@ -4322,7 +4341,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B69" s="12" t="s">
         <v>148</v>
       </c>
@@ -4354,7 +4373,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B70" s="10" t="s">
         <v>149</v>
       </c>
@@ -4386,7 +4405,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B71" s="12" t="s">
         <v>150</v>
       </c>
@@ -4418,7 +4437,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B72" s="10" t="s">
         <v>151</v>
       </c>
@@ -4450,7 +4469,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B73" s="12" t="s">
         <v>152</v>
       </c>
@@ -4482,7 +4501,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B74" s="10" t="s">
         <v>153</v>
       </c>
@@ -4514,7 +4533,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B75" s="12" t="s">
         <v>154</v>
       </c>
@@ -4546,7 +4565,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B76" s="10" t="s">
         <v>155</v>
       </c>
@@ -4578,7 +4597,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B77" s="12" t="s">
         <v>156</v>
       </c>
@@ -4610,7 +4629,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B78" s="10" t="s">
         <v>157</v>
       </c>
@@ -4642,7 +4661,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B79" s="12" t="s">
         <v>158</v>
       </c>
@@ -4674,7 +4693,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B80" s="10" t="s">
         <v>159</v>
       </c>
@@ -4706,7 +4725,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B81" s="12" t="s">
         <v>160</v>
       </c>
@@ -4738,7 +4757,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:13" ht="26.25" x14ac:dyDescent="0.45">
       <c r="B82" s="10" t="s">
         <v>161</v>
       </c>
@@ -4770,7 +4789,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B83" s="12" t="s">
         <v>162</v>
       </c>
@@ -4802,7 +4821,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B84" s="10" t="s">
         <v>163</v>
       </c>
@@ -4834,7 +4853,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B85" s="12" t="s">
         <v>164</v>
       </c>
@@ -4866,7 +4885,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B86" s="10" t="s">
         <v>165</v>
       </c>
@@ -4898,7 +4917,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B87" s="12" t="s">
         <v>166</v>
       </c>
@@ -4930,7 +4949,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B88" s="10" t="s">
         <v>167</v>
       </c>
@@ -4962,7 +4981,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B89" s="12" t="s">
         <v>168</v>
       </c>
@@ -4994,7 +5013,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B90" s="10" t="s">
         <v>169</v>
       </c>
@@ -5026,7 +5045,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B91" s="12" t="s">
         <v>170</v>
       </c>
@@ -5058,7 +5077,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B92" s="10" t="s">
         <v>171</v>
       </c>
@@ -5090,7 +5109,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B93" s="12" t="s">
         <v>172</v>
       </c>
@@ -5122,7 +5141,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B94" s="10" t="s">
         <v>173</v>
       </c>
@@ -5154,7 +5173,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B95" s="12" t="s">
         <v>174</v>
       </c>
@@ -5186,7 +5205,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B96" s="10" t="s">
         <v>175</v>
       </c>
@@ -5218,7 +5237,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B97" s="12" t="s">
         <v>176</v>
       </c>
@@ -5250,7 +5269,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B98" s="10" t="s">
         <v>177</v>
       </c>
@@ -5282,7 +5301,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B99" s="12" t="s">
         <v>178</v>
       </c>
@@ -5314,7 +5333,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B100" s="10" t="s">
         <v>179</v>
       </c>
@@ -5346,7 +5365,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B101" s="12" t="s">
         <v>180</v>
       </c>
@@ -5378,7 +5397,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B102" s="10" t="s">
         <v>181</v>
       </c>
@@ -5410,7 +5429,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B103" s="12" t="s">
         <v>182</v>
       </c>
@@ -5442,7 +5461,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B104" s="10" t="s">
         <v>183</v>
       </c>
@@ -5474,7 +5493,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="105" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B105" s="12" t="s">
         <v>184</v>
       </c>
@@ -5506,7 +5525,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B106" s="10" t="s">
         <v>185</v>
       </c>
@@ -5538,7 +5557,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B107" s="12" t="s">
         <v>186</v>
       </c>
@@ -5570,7 +5589,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="108" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B108" s="10" t="s">
         <v>187</v>
       </c>
@@ -5602,7 +5621,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B109" s="12" t="s">
         <v>188</v>
       </c>
@@ -5634,7 +5653,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B110" s="10" t="s">
         <v>189</v>
       </c>
@@ -5666,7 +5685,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="111" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B111" s="12" t="s">
         <v>190</v>
       </c>
@@ -5698,7 +5717,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B112" s="10" t="s">
         <v>191</v>
       </c>
@@ -5730,7 +5749,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B113" s="12" t="s">
         <v>192</v>
       </c>
@@ -5762,7 +5781,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B114" s="10" t="s">
         <v>193</v>
       </c>
@@ -5794,7 +5813,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B115" s="12" t="s">
         <v>194</v>
       </c>
@@ -5826,7 +5845,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B116" s="10" t="s">
         <v>195</v>
       </c>
@@ -5858,7 +5877,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="117" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B117" s="12" t="s">
         <v>196</v>
       </c>
@@ -5890,7 +5909,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B118" s="10" t="s">
         <v>197</v>
       </c>
@@ -5922,7 +5941,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B119" s="12" t="s">
         <v>198</v>
       </c>
@@ -5954,7 +5973,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B120" s="10" t="s">
         <v>199</v>
       </c>
@@ -5986,7 +6005,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B121" s="12" t="s">
         <v>200</v>
       </c>
@@ -6018,7 +6037,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B122" s="10" t="s">
         <v>201</v>
       </c>
@@ -6050,7 +6069,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="123" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B123" s="12" t="s">
         <v>202</v>
       </c>
@@ -6082,7 +6101,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="124" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B124" s="10" t="s">
         <v>203</v>
       </c>
@@ -6114,7 +6133,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="125" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B125" s="12" t="s">
         <v>204</v>
       </c>
@@ -6146,7 +6165,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="126" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B126" s="10" t="s">
         <v>205</v>
       </c>
@@ -6178,7 +6197,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="127" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B127" s="12" t="s">
         <v>206</v>
       </c>
@@ -6210,7 +6229,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="128" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B128" s="10" t="s">
         <v>207</v>
       </c>
@@ -6242,7 +6261,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="129" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B129" s="12" t="s">
         <v>208</v>
       </c>
@@ -6274,7 +6293,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="130" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B130" s="10" t="s">
         <v>209</v>
       </c>
@@ -6306,7 +6325,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="131" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B131" s="12" t="s">
         <v>210</v>
       </c>
@@ -6338,7 +6357,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="132" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:13" ht="26.25" x14ac:dyDescent="0.45">
       <c r="B132" s="10" t="s">
         <v>211</v>
       </c>
@@ -6370,7 +6389,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="133" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B133" s="12" t="s">
         <v>212</v>
       </c>
@@ -6402,7 +6421,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="134" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="134" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B134" s="10" t="s">
         <v>213</v>
       </c>
@@ -6434,7 +6453,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="135" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B135" s="12" t="s">
         <v>214</v>
       </c>
@@ -6466,7 +6485,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="136" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="136" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B136" s="10" t="s">
         <v>215</v>
       </c>
@@ -6498,7 +6517,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="137" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="137" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B137" s="12" t="s">
         <v>216</v>
       </c>
@@ -6530,7 +6549,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="138" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="138" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B138" s="10" t="s">
         <v>217</v>
       </c>
@@ -6562,7 +6581,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="139" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="139" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B139" s="12" t="s">
         <v>218</v>
       </c>
@@ -6594,7 +6613,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="140" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="140" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B140" s="10" t="s">
         <v>219</v>
       </c>
@@ -6626,7 +6645,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="141" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="141" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B141" s="12" t="s">
         <v>220</v>
       </c>
@@ -6658,7 +6677,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="142" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="142" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B142" s="10" t="s">
         <v>221</v>
       </c>
@@ -6690,7 +6709,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="143" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="143" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B143" s="12" t="s">
         <v>222</v>
       </c>
@@ -6722,7 +6741,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="144" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="144" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B144" s="10" t="s">
         <v>223</v>
       </c>
@@ -6754,7 +6773,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="145" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B145" s="12" t="s">
         <v>224</v>
       </c>
@@ -6786,7 +6805,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="146" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B146" s="10" t="s">
         <v>225</v>
       </c>
@@ -6818,7 +6837,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="147" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B147" s="12" t="s">
         <v>226</v>
       </c>
@@ -6850,7 +6869,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="148" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="148" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B148" s="10" t="s">
         <v>227</v>
       </c>
@@ -6882,7 +6901,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="149" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="149" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B149" s="12" t="s">
         <v>228</v>
       </c>
@@ -6914,7 +6933,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="150" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B150" s="10" t="s">
         <v>229</v>
       </c>
@@ -6946,7 +6965,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="151" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B151" s="12" t="s">
         <v>230</v>
       </c>
@@ -6978,7 +6997,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="152" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B152" s="10" t="s">
         <v>231</v>
       </c>
@@ -7010,7 +7029,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="153" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="153" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B153" s="12" t="s">
         <v>232</v>
       </c>
@@ -7042,7 +7061,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="154" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="154" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B154" s="10" t="s">
         <v>233</v>
       </c>
@@ -7074,7 +7093,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="155" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="155" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B155" s="12" t="s">
         <v>234</v>
       </c>
@@ -7106,7 +7125,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="156" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="156" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B156" s="10" t="s">
         <v>235</v>
       </c>
@@ -7138,7 +7157,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="157" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="157" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B157" s="12" t="s">
         <v>236</v>
       </c>
@@ -7170,7 +7189,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="158" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="158" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B158" s="10" t="s">
         <v>237</v>
       </c>
@@ -7202,7 +7221,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="159" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="159" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B159" s="12" t="s">
         <v>238</v>
       </c>
@@ -7234,7 +7253,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="160" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="160" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B160" s="10" t="s">
         <v>239</v>
       </c>
@@ -7266,7 +7285,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="161" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B161" s="12" t="s">
         <v>240</v>
       </c>
@@ -7298,7 +7317,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="162" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="162" spans="2:13" ht="26.25" x14ac:dyDescent="0.45">
       <c r="B162" s="10" t="s">
         <v>241</v>
       </c>
@@ -7330,7 +7349,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="163" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="163" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B163" s="12" t="s">
         <v>242</v>
       </c>
@@ -7362,7 +7381,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="164" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="164" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B164" s="10" t="s">
         <v>243</v>
       </c>
@@ -7394,7 +7413,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="165" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B165" s="12" t="s">
         <v>244</v>
       </c>
@@ -7426,7 +7445,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="166" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="166" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B166" s="10" t="s">
         <v>245</v>
       </c>
@@ -7458,7 +7477,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="167" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="167" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B167" s="12" t="s">
         <v>246</v>
       </c>
@@ -7490,7 +7509,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="168" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="168" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B168" s="10" t="s">
         <v>247</v>
       </c>
@@ -7522,7 +7541,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="169" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="169" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B169" s="12" t="s">
         <v>248</v>
       </c>
@@ -7554,7 +7573,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="170" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B170" s="10" t="s">
         <v>249</v>
       </c>
@@ -7586,7 +7605,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="171" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B171" s="12" t="s">
         <v>250</v>
       </c>
@@ -7618,7 +7637,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="172" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="172" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B172" s="10" t="s">
         <v>251</v>
       </c>
@@ -7650,7 +7669,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="173" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B173" s="12" t="s">
         <v>252</v>
       </c>
@@ -7682,7 +7701,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="174" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="174" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B174" s="10" t="s">
         <v>253</v>
       </c>
@@ -7714,7 +7733,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="175" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B175" s="12" t="s">
         <v>254</v>
       </c>
@@ -7746,7 +7765,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="176" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="176" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B176" s="10" t="s">
         <v>255</v>
       </c>
@@ -7778,7 +7797,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="177" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="177" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B177" s="12" t="s">
         <v>256</v>
       </c>
@@ -7810,7 +7829,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="178" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="178" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B178" s="10" t="s">
         <v>257</v>
       </c>
@@ -7842,7 +7861,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="179" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="179" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B179" s="12" t="s">
         <v>258</v>
       </c>
@@ -7874,7 +7893,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="180" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="180" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B180" s="10" t="s">
         <v>259</v>
       </c>
@@ -7906,7 +7925,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="181" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="181" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B181" s="12" t="s">
         <v>260</v>
       </c>
@@ -7938,7 +7957,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="182" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="182" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B182" s="10" t="s">
         <v>261</v>
       </c>
@@ -7970,7 +7989,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="183" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="183" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B183" s="12" t="s">
         <v>262</v>
       </c>
@@ -8002,7 +8021,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="184" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="184" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B184" s="10" t="s">
         <v>263</v>
       </c>
@@ -8034,7 +8053,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="185" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="185" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B185" s="12" t="s">
         <v>264</v>
       </c>
@@ -8066,7 +8085,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="186" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="186" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B186" s="10" t="s">
         <v>265</v>
       </c>
@@ -8098,7 +8117,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="187" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="187" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B187" s="12" t="s">
         <v>266</v>
       </c>
@@ -8130,7 +8149,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="188" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="188" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B188" s="10" t="s">
         <v>267</v>
       </c>
@@ -8162,7 +8181,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="189" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="189" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B189" s="12" t="s">
         <v>268</v>
       </c>
@@ -8194,7 +8213,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="190" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="190" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B190" s="10" t="s">
         <v>269</v>
       </c>
@@ -8226,7 +8245,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="191" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="191" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B191" s="12" t="s">
         <v>270</v>
       </c>
@@ -8258,7 +8277,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="192" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="192" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B192" s="10" t="s">
         <v>271</v>
       </c>
@@ -8290,7 +8309,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="193" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="193" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B193" s="12" t="s">
         <v>272</v>
       </c>
@@ -8322,7 +8341,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="194" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="194" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B194" s="10" t="s">
         <v>273</v>
       </c>
@@ -8354,7 +8373,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="195" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="195" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B195" s="12" t="s">
         <v>274</v>
       </c>
@@ -8386,7 +8405,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="196" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="196" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B196" s="10" t="s">
         <v>275</v>
       </c>
@@ -8418,7 +8437,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="197" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="197" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B197" s="12" t="s">
         <v>276</v>
       </c>
@@ -8432,7 +8451,7 @@
         <v>1.08E-3</v>
       </c>
     </row>
-    <row r="198" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="198" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B198" s="10" t="s">
         <v>277</v>
       </c>
@@ -8446,7 +8465,7 @@
         <v>7.7999999999999999E-4</v>
       </c>
     </row>
-    <row r="199" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="199" spans="2:13" ht="26.25" x14ac:dyDescent="0.45">
       <c r="B199" s="12" t="s">
         <v>278</v>
       </c>
@@ -8460,7 +8479,7 @@
         <v>1.8000000000000001E-4</v>
       </c>
     </row>
-    <row r="200" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="200" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B200" s="10" t="s">
         <v>279</v>
       </c>
@@ -8474,7 +8493,7 @@
         <v>6.6E-4</v>
       </c>
     </row>
-    <row r="201" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="201" spans="2:13" ht="26.25" x14ac:dyDescent="0.45">
       <c r="B201" s="12" t="s">
         <v>280</v>
       </c>
@@ -8488,7 +8507,7 @@
         <v>1.2E-4</v>
       </c>
     </row>
-    <row r="202" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="202" spans="2:13" ht="26.25" x14ac:dyDescent="0.45">
       <c r="B202" s="10" t="s">
         <v>281</v>
       </c>
@@ -8502,7 +8521,7 @@
         <v>6.6E-4</v>
       </c>
     </row>
-    <row r="203" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="203" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B203" s="12" t="s">
         <v>282</v>
       </c>
@@ -8516,7 +8535,7 @@
         <v>2.2200000000000002E-3</v>
       </c>
     </row>
-    <row r="204" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="204" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B204" s="10" t="s">
         <v>283</v>
       </c>
@@ -8530,7 +8549,7 @@
         <v>1.3799999999999999E-3</v>
       </c>
     </row>
-    <row r="205" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="205" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B205" s="12" t="s">
         <v>284</v>
       </c>
@@ -8544,7 +8563,7 @@
         <v>1.08E-3</v>
       </c>
     </row>
-    <row r="206" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="206" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B206" s="10" t="s">
         <v>285</v>
       </c>
@@ -8558,7 +8577,7 @@
         <v>6.3600000000000002E-3</v>
       </c>
     </row>
-    <row r="207" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="207" spans="2:13" ht="39.4" x14ac:dyDescent="0.45">
       <c r="B207" s="12" t="s">
         <v>286</v>
       </c>
@@ -8572,7 +8591,7 @@
         <v>1.8000000000000001E-4</v>
       </c>
     </row>
-    <row r="208" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="208" spans="2:13" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B208" s="10" t="s">
         <v>287</v>
       </c>
@@ -8586,7 +8605,7 @@
         <v>1.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="209" spans="2:5" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B209" s="12" t="s">
         <v>288</v>
       </c>
@@ -8600,7 +8619,7 @@
         <v>6.0000000000000006E-4</v>
       </c>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="210" spans="2:5" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B210" s="10" t="s">
         <v>289</v>
       </c>
@@ -8614,7 +8633,7 @@
         <v>1.14E-3</v>
       </c>
     </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="211" spans="2:5" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B211" s="12" t="s">
         <v>290</v>
       </c>
@@ -8628,7 +8647,7 @@
         <v>1.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="212" spans="2:5" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B212" s="10" t="s">
         <v>291</v>
       </c>
@@ -8642,7 +8661,7 @@
         <v>2.4000000000000002E-3</v>
       </c>
     </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="213" spans="2:5" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B213" s="12" t="s">
         <v>292</v>
       </c>
@@ -9450,7 +9469,7 @@
     <row r="1" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="8"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:4" ht="31.15" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="9" t="s">
         <v>61</v>
       </c>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C97F028-07C5-4CF7-B74D-BE56B3AAC194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01FCF424-A076-439E-8DFD-933669904C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3271" uniqueCount="653">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -1588,6 +1588,474 @@
   </si>
   <si>
     <t>IN</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>CHE</t>
+  </si>
+  <si>
+    <t>Bioenergy + CCUS_w98648381-220</t>
+  </si>
+  <si>
+    <t>OUT</t>
+  </si>
+  <si>
+    <t>Bioenergy - Large scale unit_w98648381-220</t>
+  </si>
+  <si>
+    <t>CCGT_w98648381-220</t>
+  </si>
+  <si>
+    <t>CCGT + CCS_w98648381-220</t>
+  </si>
+  <si>
+    <t>Coal + CCS_w98648381-220</t>
+  </si>
+  <si>
+    <t>Fuel cell (distributed electricity generation)_w98648381-220</t>
+  </si>
+  <si>
+    <t>Gas turbine_w98648381-220</t>
+  </si>
+  <si>
+    <t>IGCC_w98648381-220</t>
+  </si>
+  <si>
+    <t>IGCC + CCS_w98648381-220</t>
+  </si>
+  <si>
+    <t>Nuclear large_w98648381-220</t>
+  </si>
+  <si>
+    <t>Oxyfuel + CCS_w98648381-220</t>
+  </si>
+  <si>
+    <t>Steam Coal - SUBCRITICAL_w98648381-220</t>
+  </si>
+  <si>
+    <t>Steam Coal - SUPERCRITICAL_w98648381-220</t>
+  </si>
+  <si>
+    <t>Steam Coal - ULTRASUPERCRITICAL_w98648381-220</t>
+  </si>
+  <si>
+    <t>Bioenergy + CCUS_w356292116-220</t>
+  </si>
+  <si>
+    <t>Bioenergy - Large scale unit_w356292116-220</t>
+  </si>
+  <si>
+    <t>CCGT_w356292116-220</t>
+  </si>
+  <si>
+    <t>CCGT + CCS_w356292116-220</t>
+  </si>
+  <si>
+    <t>Coal + CCS_w356292116-220</t>
+  </si>
+  <si>
+    <t>Fuel cell (distributed electricity generation)_w356292116-220</t>
+  </si>
+  <si>
+    <t>Gas turbine_w356292116-220</t>
+  </si>
+  <si>
+    <t>IGCC_w356292116-220</t>
+  </si>
+  <si>
+    <t>IGCC + CCS_w356292116-220</t>
+  </si>
+  <si>
+    <t>Nuclear large_w356292116-220</t>
+  </si>
+  <si>
+    <t>Oxyfuel + CCS_w356292116-220</t>
+  </si>
+  <si>
+    <t>Steam Coal - SUBCRITICAL_w356292116-220</t>
+  </si>
+  <si>
+    <t>Steam Coal - SUPERCRITICAL_w356292116-220</t>
+  </si>
+  <si>
+    <t>Steam Coal - ULTRASUPERCRITICAL_w356292116-220</t>
+  </si>
+  <si>
+    <t>Bioenergy + CCUS_w35840165-380</t>
+  </si>
+  <si>
+    <t>Bioenergy - Large scale unit_w35840165-380</t>
+  </si>
+  <si>
+    <t>CCGT_w35840165-380</t>
+  </si>
+  <si>
+    <t>CCGT + CCS_w35840165-380</t>
+  </si>
+  <si>
+    <t>Coal + CCS_w35840165-380</t>
+  </si>
+  <si>
+    <t>Fuel cell (distributed electricity generation)_w35840165-380</t>
+  </si>
+  <si>
+    <t>Gas turbine_w35840165-380</t>
+  </si>
+  <si>
+    <t>IGCC_w35840165-380</t>
+  </si>
+  <si>
+    <t>IGCC + CCS_w35840165-380</t>
+  </si>
+  <si>
+    <t>Nuclear large_w35840165-380</t>
+  </si>
+  <si>
+    <t>Oxyfuel + CCS_w35840165-380</t>
+  </si>
+  <si>
+    <t>Steam Coal - SUBCRITICAL_w35840165-380</t>
+  </si>
+  <si>
+    <t>Steam Coal - SUPERCRITICAL_w35840165-380</t>
+  </si>
+  <si>
+    <t>Steam Coal - ULTRASUPERCRITICAL_w35840165-380</t>
+  </si>
+  <si>
+    <t>EN_Hydro_w140873735-220</t>
+  </si>
+  <si>
+    <t>EN_Hydro_w1208713169-220</t>
+  </si>
+  <si>
+    <t>EN_Hydro_w1092884227-220</t>
+  </si>
+  <si>
+    <t>EN_Hydro_w281803398-220</t>
+  </si>
+  <si>
+    <t>EN_Hydro_w234983117-220</t>
+  </si>
+  <si>
+    <t>EN_Hydro_CH46-220</t>
+  </si>
+  <si>
+    <t>EN_Hydro_w1327084723-220</t>
+  </si>
+  <si>
+    <t>EN_Hydro_CH13-220</t>
+  </si>
+  <si>
+    <t>EN_Hydro_w212498548-220</t>
+  </si>
+  <si>
+    <t>EN_Hydro_w758943072-220</t>
+  </si>
+  <si>
+    <t>EN_Hydro_CH56-220</t>
+  </si>
+  <si>
+    <t>EN_Hydro_w130198336-220</t>
+  </si>
+  <si>
+    <t>EN_Hydro_w1086214433-220</t>
+  </si>
+  <si>
+    <t>EN_Hydro_CH27-220</t>
+  </si>
+  <si>
+    <t>EN_Hydro_w240959264-220</t>
+  </si>
+  <si>
+    <t>EN_Hydro_w936521586-380</t>
+  </si>
+  <si>
+    <t>EN_Hydro_w260211728-380</t>
+  </si>
+  <si>
+    <t>EN_Hydro_CH18-220</t>
+  </si>
+  <si>
+    <t>EN_Hydro_CH47-220</t>
+  </si>
+  <si>
+    <t>EN_Hydro_CH17-380</t>
+  </si>
+  <si>
+    <t>EN_Hydro_CH22-220</t>
+  </si>
+  <si>
+    <t>EN_Hydro_w238138373-380</t>
+  </si>
+  <si>
+    <t>EN_Hydro_CH32-220</t>
+  </si>
+  <si>
+    <t>EN_Hydro_r7933294-380</t>
+  </si>
+  <si>
+    <t>EN_Hydro_w802058337-220</t>
+  </si>
+  <si>
+    <t>EN_Hydro_w431234146-220</t>
+  </si>
+  <si>
+    <t>EN_Hydro_w36348118-220</t>
+  </si>
+  <si>
+    <t>EN_Hydro_w100662075-220</t>
+  </si>
+  <si>
+    <t>EN_Hydro_w207993342-220</t>
+  </si>
+  <si>
+    <t>EN_Hydro_w236819191-220</t>
+  </si>
+  <si>
+    <t>EN_Hydro_w210568055-380</t>
+  </si>
+  <si>
+    <t>EN_Hydro_CH59-220</t>
+  </si>
+  <si>
+    <t>EN_Hydro_w177392130-400</t>
+  </si>
+  <si>
+    <t>EN_Hydro_CH60-225</t>
+  </si>
+  <si>
+    <t>EN_Hydro_w55698557-225</t>
+  </si>
+  <si>
+    <t>EN_STG8hbNREL_w98648381-220</t>
+  </si>
+  <si>
+    <t>EN_STG4hbNREL_w98648381-220</t>
+  </si>
+  <si>
+    <t>EN_STG8hbNREL_w356292116-220</t>
+  </si>
+  <si>
+    <t>EN_STG4hbNREL_w356292116-220</t>
+  </si>
+  <si>
+    <t>EN_STG8hbNREL_w35840165-380</t>
+  </si>
+  <si>
+    <t>EN_STG4hbNREL_w35840165-380</t>
+  </si>
+  <si>
+    <t>EN_STG8hbNREL_w140873735-220</t>
+  </si>
+  <si>
+    <t>EN_STG4hbNREL_w140873735-220</t>
+  </si>
+  <si>
+    <t>EN_STG8hbNREL_w1208713169-220</t>
+  </si>
+  <si>
+    <t>EN_STG4hbNREL_w1208713169-220</t>
+  </si>
+  <si>
+    <t>EN_STG8hbNREL_w1092884227-220</t>
+  </si>
+  <si>
+    <t>EN_STG4hbNREL_w1092884227-220</t>
+  </si>
+  <si>
+    <t>EN_STG8hbNREL_w281803398-220</t>
+  </si>
+  <si>
+    <t>EN_STG4hbNREL_w281803398-220</t>
+  </si>
+  <si>
+    <t>EN_STG8hbNREL_w234983117-220</t>
+  </si>
+  <si>
+    <t>EN_STG4hbNREL_w234983117-220</t>
+  </si>
+  <si>
+    <t>EN_STG8hbNREL_CH46-220</t>
+  </si>
+  <si>
+    <t>EN_STG4hbNREL_CH46-220</t>
+  </si>
+  <si>
+    <t>EN_STG8hbNREL_w1327084723-220</t>
+  </si>
+  <si>
+    <t>EN_STG4hbNREL_w1327084723-220</t>
+  </si>
+  <si>
+    <t>EN_STG8hbNREL_CH13-220</t>
+  </si>
+  <si>
+    <t>EN_STG4hbNREL_CH13-220</t>
+  </si>
+  <si>
+    <t>EN_STG8hbNREL_w212498548-220</t>
+  </si>
+  <si>
+    <t>EN_STG4hbNREL_w212498548-220</t>
+  </si>
+  <si>
+    <t>EN_STG8hbNREL_w758943072-220</t>
+  </si>
+  <si>
+    <t>EN_STG4hbNREL_w758943072-220</t>
+  </si>
+  <si>
+    <t>EN_STG8hbNREL_CH56-220</t>
+  </si>
+  <si>
+    <t>EN_STG4hbNREL_CH56-220</t>
+  </si>
+  <si>
+    <t>EN_STG8hbNREL_w130198336-220</t>
+  </si>
+  <si>
+    <t>EN_STG4hbNREL_w130198336-220</t>
+  </si>
+  <si>
+    <t>EN_STG8hbNREL_w1086214433-220</t>
+  </si>
+  <si>
+    <t>EN_STG4hbNREL_w1086214433-220</t>
+  </si>
+  <si>
+    <t>EN_STG8hbNREL_CH27-220</t>
+  </si>
+  <si>
+    <t>EN_STG4hbNREL_CH27-220</t>
+  </si>
+  <si>
+    <t>EN_STG8hbNREL_w240959264-220</t>
+  </si>
+  <si>
+    <t>EN_STG4hbNREL_w240959264-220</t>
+  </si>
+  <si>
+    <t>EN_STG8hbNREL_w936521586-380</t>
+  </si>
+  <si>
+    <t>EN_STG4hbNREL_w936521586-380</t>
+  </si>
+  <si>
+    <t>EN_STG8hbNREL_w260211728-380</t>
+  </si>
+  <si>
+    <t>EN_STG4hbNREL_w260211728-380</t>
+  </si>
+  <si>
+    <t>EN_STG8hbNREL_CH18-220</t>
+  </si>
+  <si>
+    <t>EN_STG4hbNREL_CH18-220</t>
+  </si>
+  <si>
+    <t>EN_STG8hbNREL_CH47-220</t>
+  </si>
+  <si>
+    <t>EN_STG4hbNREL_CH47-220</t>
+  </si>
+  <si>
+    <t>EN_STG8hbNREL_CH17-380</t>
+  </si>
+  <si>
+    <t>EN_STG4hbNREL_CH17-380</t>
+  </si>
+  <si>
+    <t>EN_STG8hbNREL_CH22-220</t>
+  </si>
+  <si>
+    <t>EN_STG4hbNREL_CH22-220</t>
+  </si>
+  <si>
+    <t>EN_STG8hbNREL_w238138373-380</t>
+  </si>
+  <si>
+    <t>EN_STG4hbNREL_w238138373-380</t>
+  </si>
+  <si>
+    <t>EN_STG8hbNREL_CH32-220</t>
+  </si>
+  <si>
+    <t>EN_STG4hbNREL_CH32-220</t>
+  </si>
+  <si>
+    <t>EN_STG8hbNREL_r7933294-380</t>
+  </si>
+  <si>
+    <t>EN_STG4hbNREL_r7933294-380</t>
+  </si>
+  <si>
+    <t>EN_STG8hbNREL_w802058337-220</t>
+  </si>
+  <si>
+    <t>EN_STG4hbNREL_w802058337-220</t>
+  </si>
+  <si>
+    <t>EN_STG8hbNREL_w431234146-220</t>
+  </si>
+  <si>
+    <t>EN_STG4hbNREL_w431234146-220</t>
+  </si>
+  <si>
+    <t>EN_STG8hbNREL_w36348118-220</t>
+  </si>
+  <si>
+    <t>EN_STG4hbNREL_w36348118-220</t>
+  </si>
+  <si>
+    <t>EN_STG8hbNREL_w100662075-220</t>
+  </si>
+  <si>
+    <t>EN_STG4hbNREL_w100662075-220</t>
+  </si>
+  <si>
+    <t>EN_STG8hbNREL_w207993342-220</t>
+  </si>
+  <si>
+    <t>EN_STG4hbNREL_w207993342-220</t>
+  </si>
+  <si>
+    <t>EN_STG8hbNREL_w236819191-220</t>
+  </si>
+  <si>
+    <t>EN_STG4hbNREL_w236819191-220</t>
+  </si>
+  <si>
+    <t>EN_STG8hbNREL_w210568055-380</t>
+  </si>
+  <si>
+    <t>EN_STG4hbNREL_w210568055-380</t>
+  </si>
+  <si>
+    <t>EN_STG8hbNREL_CH59-220</t>
+  </si>
+  <si>
+    <t>EN_STG4hbNREL_CH59-220</t>
+  </si>
+  <si>
+    <t>EN_STG8hbNREL_w177392130-400</t>
+  </si>
+  <si>
+    <t>EN_STG4hbNREL_w177392130-400</t>
+  </si>
+  <si>
+    <t>EN_STG8hbNREL_CH60-225</t>
+  </si>
+  <si>
+    <t>EN_STG4hbNREL_CH60-225</t>
+  </si>
+  <si>
+    <t>EN_STG8hbNREL_w55698557-225</t>
+  </si>
+  <si>
+    <t>EN_STG4hbNREL_w55698557-225</t>
   </si>
 </sst>
 </file>
@@ -1806,7 +2274,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ECCA8E3-B502-3F10-5121-DD6D2078A607}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21D358D4-3B9D-CD01-3C7E-1CDCA0B3A13F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2157,8 +2625,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87ACB86-2F09-44FA-9FCC-67A2EC9E9E74}">
-  <dimension ref="A1:R213"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542C243C-0131-441C-B8F3-5B813A898DA5}">
+  <dimension ref="A1:X226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2172,9 +2640,13 @@
     <col min="16" max="16" width="10.59765625" customWidth="1"/>
     <col min="17" max="17" width="30.59765625" customWidth="1"/>
     <col min="18" max="18" width="10.59765625" customWidth="1"/>
+    <col min="21" max="21" width="10.59765625" customWidth="1"/>
+    <col min="22" max="22" width="30.59765625" customWidth="1"/>
+    <col min="23" max="23" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
         <v>293</v>
       </c>
@@ -2186,7 +2658,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -2196,8 +2668,11 @@
       <c r="P2" s="8" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="U2" s="8" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
@@ -2237,8 +2712,20 @@
       <c r="R3" s="15" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="U3" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="V3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="W3" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="X3" s="15" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B4" s="16" t="s">
         <v>83</v>
       </c>
@@ -2278,8 +2765,20 @@
       <c r="R4" s="16" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="U4" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V4" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="W4" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="X4" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B5" s="20" t="s">
         <v>84</v>
       </c>
@@ -2310,8 +2809,20 @@
       <c r="M5" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="U5" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V5" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="W5" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="X5" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B6" s="16" t="s">
         <v>85</v>
       </c>
@@ -2342,8 +2853,20 @@
       <c r="M6" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="U6" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V6" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="W6" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="X6" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B7" s="20" t="s">
         <v>86</v>
       </c>
@@ -2374,8 +2897,20 @@
       <c r="M7" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="U7" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V7" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="W7" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="X7" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B8" s="16" t="s">
         <v>87</v>
       </c>
@@ -2406,8 +2941,20 @@
       <c r="M8" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="U8" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V8" s="16" t="s">
+        <v>504</v>
+      </c>
+      <c r="W8" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="X8" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B9" s="20" t="s">
         <v>88</v>
       </c>
@@ -2438,8 +2985,20 @@
       <c r="M9" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="U9" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V9" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="W9" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="X9" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B10" s="16" t="s">
         <v>89</v>
       </c>
@@ -2470,8 +3029,20 @@
       <c r="M10" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="U10" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V10" s="16" t="s">
+        <v>506</v>
+      </c>
+      <c r="W10" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="X10" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B11" s="20" t="s">
         <v>90</v>
       </c>
@@ -2502,8 +3073,20 @@
       <c r="M11" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="U11" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V11" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="W11" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="X11" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B12" s="16" t="s">
         <v>91</v>
       </c>
@@ -2534,8 +3117,20 @@
       <c r="M12" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="U12" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V12" s="16" t="s">
+        <v>508</v>
+      </c>
+      <c r="W12" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="X12" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B13" s="20" t="s">
         <v>92</v>
       </c>
@@ -2566,8 +3161,20 @@
       <c r="M13" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="U13" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V13" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="W13" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="X13" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B14" s="16" t="s">
         <v>93</v>
       </c>
@@ -2598,8 +3205,20 @@
       <c r="M14" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="U14" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V14" s="16" t="s">
+        <v>510</v>
+      </c>
+      <c r="W14" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="X14" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B15" s="20" t="s">
         <v>94</v>
       </c>
@@ -2630,8 +3249,20 @@
       <c r="M15" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="U15" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V15" s="20" t="s">
+        <v>511</v>
+      </c>
+      <c r="W15" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="X15" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B16" s="16" t="s">
         <v>95</v>
       </c>
@@ -2662,8 +3293,20 @@
       <c r="M16" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U16" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V16" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="W16" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="X16" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B17" s="20" t="s">
         <v>96</v>
       </c>
@@ -2694,8 +3337,20 @@
       <c r="M17" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U17" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V17" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="W17" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="X17" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B18" s="16" t="s">
         <v>97</v>
       </c>
@@ -2726,8 +3381,20 @@
       <c r="M18" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U18" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V18" s="16" t="s">
+        <v>514</v>
+      </c>
+      <c r="W18" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="X18" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B19" s="20" t="s">
         <v>98</v>
       </c>
@@ -2758,8 +3425,20 @@
       <c r="M19" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U19" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V19" s="20" t="s">
+        <v>515</v>
+      </c>
+      <c r="W19" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="X19" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B20" s="16" t="s">
         <v>99</v>
       </c>
@@ -2790,8 +3469,20 @@
       <c r="M20" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U20" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V20" s="16" t="s">
+        <v>516</v>
+      </c>
+      <c r="W20" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="X20" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B21" s="20" t="s">
         <v>100</v>
       </c>
@@ -2822,8 +3513,20 @@
       <c r="M21" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U21" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V21" s="20" t="s">
+        <v>517</v>
+      </c>
+      <c r="W21" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="X21" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B22" s="16" t="s">
         <v>101</v>
       </c>
@@ -2854,8 +3557,20 @@
       <c r="M22" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U22" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V22" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="W22" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="X22" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B23" s="20" t="s">
         <v>102</v>
       </c>
@@ -2886,8 +3601,20 @@
       <c r="M23" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U23" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V23" s="20" t="s">
+        <v>519</v>
+      </c>
+      <c r="W23" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="X23" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B24" s="16" t="s">
         <v>103</v>
       </c>
@@ -2918,8 +3645,20 @@
       <c r="M24" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U24" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V24" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="W24" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="X24" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B25" s="20" t="s">
         <v>104</v>
       </c>
@@ -2950,8 +3689,20 @@
       <c r="M25" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U25" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V25" s="20" t="s">
+        <v>521</v>
+      </c>
+      <c r="W25" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="X25" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B26" s="16" t="s">
         <v>105</v>
       </c>
@@ -2982,8 +3733,20 @@
       <c r="M26" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U26" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V26" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="W26" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="X26" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B27" s="20" t="s">
         <v>106</v>
       </c>
@@ -3014,8 +3777,20 @@
       <c r="M27" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U27" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V27" s="20" t="s">
+        <v>523</v>
+      </c>
+      <c r="W27" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="X27" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B28" s="16" t="s">
         <v>107</v>
       </c>
@@ -3046,8 +3821,20 @@
       <c r="M28" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U28" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V28" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="W28" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="X28" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B29" s="20" t="s">
         <v>108</v>
       </c>
@@ -3078,8 +3865,20 @@
       <c r="M29" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U29" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V29" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="W29" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="X29" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B30" s="16" t="s">
         <v>109</v>
       </c>
@@ -3110,8 +3909,20 @@
       <c r="M30" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U30" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V30" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="W30" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="X30" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B31" s="20" t="s">
         <v>110</v>
       </c>
@@ -3142,8 +3953,20 @@
       <c r="M31" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U31" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V31" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="W31" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="X31" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B32" s="16" t="s">
         <v>111</v>
       </c>
@@ -3174,8 +3997,20 @@
       <c r="M32" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U32" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V32" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="W32" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="X32" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B33" s="20" t="s">
         <v>112</v>
       </c>
@@ -3206,8 +4041,20 @@
       <c r="M33" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U33" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V33" s="20" t="s">
+        <v>529</v>
+      </c>
+      <c r="W33" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="X33" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B34" s="16" t="s">
         <v>113</v>
       </c>
@@ -3238,8 +4085,20 @@
       <c r="M34" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U34" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V34" s="16" t="s">
+        <v>530</v>
+      </c>
+      <c r="W34" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="X34" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B35" s="20" t="s">
         <v>114</v>
       </c>
@@ -3270,8 +4129,20 @@
       <c r="M35" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U35" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V35" s="20" t="s">
+        <v>531</v>
+      </c>
+      <c r="W35" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="X35" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B36" s="16" t="s">
         <v>115</v>
       </c>
@@ -3302,8 +4173,20 @@
       <c r="M36" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U36" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V36" s="16" t="s">
+        <v>532</v>
+      </c>
+      <c r="W36" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="X36" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B37" s="20" t="s">
         <v>116</v>
       </c>
@@ -3334,8 +4217,20 @@
       <c r="M37" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U37" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V37" s="20" t="s">
+        <v>533</v>
+      </c>
+      <c r="W37" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="X37" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B38" s="16" t="s">
         <v>117</v>
       </c>
@@ -3366,8 +4261,20 @@
       <c r="M38" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U38" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V38" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="W38" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="X38" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B39" s="20" t="s">
         <v>118</v>
       </c>
@@ -3398,8 +4305,20 @@
       <c r="M39" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U39" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V39" s="20" t="s">
+        <v>535</v>
+      </c>
+      <c r="W39" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="X39" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B40" s="16" t="s">
         <v>119</v>
       </c>
@@ -3430,8 +4349,20 @@
       <c r="M40" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U40" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V40" s="16" t="s">
+        <v>536</v>
+      </c>
+      <c r="W40" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="X40" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B41" s="20" t="s">
         <v>120</v>
       </c>
@@ -3462,8 +4393,20 @@
       <c r="M41" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U41" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V41" s="20" t="s">
+        <v>537</v>
+      </c>
+      <c r="W41" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="X41" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B42" s="16" t="s">
         <v>121</v>
       </c>
@@ -3494,8 +4437,20 @@
       <c r="M42" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U42" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V42" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="W42" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="X42" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B43" s="20" t="s">
         <v>122</v>
       </c>
@@ -3526,8 +4481,20 @@
       <c r="M43" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U43" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V43" s="20" t="s">
+        <v>539</v>
+      </c>
+      <c r="W43" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="X43" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B44" s="16" t="s">
         <v>123</v>
       </c>
@@ -3558,8 +4525,20 @@
       <c r="M44" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U44" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V44" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="W44" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="X44" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B45" s="20" t="s">
         <v>124</v>
       </c>
@@ -3590,8 +4569,20 @@
       <c r="M45" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U45" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V45" s="20" t="s">
+        <v>541</v>
+      </c>
+      <c r="W45" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="X45" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B46" s="16" t="s">
         <v>125</v>
       </c>
@@ -3622,8 +4613,20 @@
       <c r="M46" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U46" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V46" s="16" t="s">
+        <v>542</v>
+      </c>
+      <c r="W46" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="X46" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B47" s="20" t="s">
         <v>126</v>
       </c>
@@ -3654,8 +4657,20 @@
       <c r="M47" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U47" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V47" s="20" t="s">
+        <v>542</v>
+      </c>
+      <c r="W47" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="X47" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B48" s="16" t="s">
         <v>127</v>
       </c>
@@ -3686,8 +4701,20 @@
       <c r="M48" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U48" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V48" s="16" t="s">
+        <v>542</v>
+      </c>
+      <c r="W48" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="X48" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B49" s="20" t="s">
         <v>128</v>
       </c>
@@ -3718,8 +4745,20 @@
       <c r="M49" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U49" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V49" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="W49" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="X49" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B50" s="16" t="s">
         <v>129</v>
       </c>
@@ -3750,8 +4789,20 @@
       <c r="M50" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U50" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V50" s="16" t="s">
+        <v>543</v>
+      </c>
+      <c r="W50" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="X50" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B51" s="20" t="s">
         <v>130</v>
       </c>
@@ -3782,8 +4833,20 @@
       <c r="M51" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U51" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V51" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="W51" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="X51" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="52" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B52" s="16" t="s">
         <v>131</v>
       </c>
@@ -3814,8 +4877,20 @@
       <c r="M52" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U52" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V52" s="16" t="s">
+        <v>544</v>
+      </c>
+      <c r="W52" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="X52" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B53" s="20" t="s">
         <v>132</v>
       </c>
@@ -3846,8 +4921,20 @@
       <c r="M53" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U53" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V53" s="20" t="s">
+        <v>544</v>
+      </c>
+      <c r="W53" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="X53" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B54" s="16" t="s">
         <v>133</v>
       </c>
@@ -3878,8 +4965,20 @@
       <c r="M54" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U54" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V54" s="16" t="s">
+        <v>544</v>
+      </c>
+      <c r="W54" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="X54" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B55" s="20" t="s">
         <v>134</v>
       </c>
@@ -3910,8 +5009,20 @@
       <c r="M55" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U55" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V55" s="20" t="s">
+        <v>545</v>
+      </c>
+      <c r="W55" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="X55" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B56" s="16" t="s">
         <v>135</v>
       </c>
@@ -3942,8 +5053,20 @@
       <c r="M56" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U56" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V56" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="W56" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="X56" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B57" s="20" t="s">
         <v>136</v>
       </c>
@@ -3974,8 +5097,20 @@
       <c r="M57" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U57" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V57" s="20" t="s">
+        <v>545</v>
+      </c>
+      <c r="W57" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="X57" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B58" s="16" t="s">
         <v>137</v>
       </c>
@@ -4006,8 +5141,20 @@
       <c r="M58" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U58" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V58" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="W58" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="X58" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B59" s="20" t="s">
         <v>138</v>
       </c>
@@ -4038,8 +5185,20 @@
       <c r="M59" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U59" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V59" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="W59" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="X59" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B60" s="16" t="s">
         <v>139</v>
       </c>
@@ -4070,8 +5229,20 @@
       <c r="M60" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U60" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V60" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="W60" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="X60" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B61" s="20" t="s">
         <v>140</v>
       </c>
@@ -4102,8 +5273,20 @@
       <c r="M61" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U61" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V61" s="20" t="s">
+        <v>547</v>
+      </c>
+      <c r="W61" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="X61" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B62" s="16" t="s">
         <v>141</v>
       </c>
@@ -4134,8 +5317,20 @@
       <c r="M62" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U62" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V62" s="16" t="s">
+        <v>547</v>
+      </c>
+      <c r="W62" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="X62" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B63" s="20" t="s">
         <v>142</v>
       </c>
@@ -4166,8 +5361,20 @@
       <c r="M63" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U63" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V63" s="20" t="s">
+        <v>547</v>
+      </c>
+      <c r="W63" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="X63" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="64" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B64" s="16" t="s">
         <v>143</v>
       </c>
@@ -4198,8 +5405,20 @@
       <c r="M64" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U64" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V64" s="16" t="s">
+        <v>548</v>
+      </c>
+      <c r="W64" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="X64" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B65" s="20" t="s">
         <v>144</v>
       </c>
@@ -4230,8 +5449,20 @@
       <c r="M65" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U65" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V65" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="W65" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="X65" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B66" s="16" t="s">
         <v>145</v>
       </c>
@@ -4262,8 +5493,20 @@
       <c r="M66" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U66" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V66" s="16" t="s">
+        <v>548</v>
+      </c>
+      <c r="W66" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="X66" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B67" s="20" t="s">
         <v>146</v>
       </c>
@@ -4294,8 +5537,20 @@
       <c r="M67" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U67" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V67" s="20" t="s">
+        <v>549</v>
+      </c>
+      <c r="W67" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="X67" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B68" s="16" t="s">
         <v>147</v>
       </c>
@@ -4326,8 +5581,20 @@
       <c r="M68" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U68" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V68" s="16" t="s">
+        <v>549</v>
+      </c>
+      <c r="W68" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="X68" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B69" s="20" t="s">
         <v>148</v>
       </c>
@@ -4358,8 +5625,20 @@
       <c r="M69" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U69" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V69" s="20" t="s">
+        <v>549</v>
+      </c>
+      <c r="W69" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="X69" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B70" s="16" t="s">
         <v>149</v>
       </c>
@@ -4390,8 +5669,20 @@
       <c r="M70" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U70" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V70" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="W70" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="X70" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B71" s="20" t="s">
         <v>150</v>
       </c>
@@ -4422,8 +5713,20 @@
       <c r="M71" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U71" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V71" s="20" t="s">
+        <v>550</v>
+      </c>
+      <c r="W71" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="X71" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B72" s="16" t="s">
         <v>151</v>
       </c>
@@ -4454,8 +5757,20 @@
       <c r="M72" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U72" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V72" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="W72" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="X72" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B73" s="20" t="s">
         <v>152</v>
       </c>
@@ -4486,8 +5801,20 @@
       <c r="M73" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U73" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V73" s="20" t="s">
+        <v>551</v>
+      </c>
+      <c r="W73" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="X73" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B74" s="16" t="s">
         <v>153</v>
       </c>
@@ -4518,8 +5845,20 @@
       <c r="M74" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U74" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V74" s="16" t="s">
+        <v>551</v>
+      </c>
+      <c r="W74" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="X74" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B75" s="20" t="s">
         <v>154</v>
       </c>
@@ -4550,8 +5889,20 @@
       <c r="M75" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U75" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V75" s="20" t="s">
+        <v>551</v>
+      </c>
+      <c r="W75" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="X75" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B76" s="16" t="s">
         <v>155</v>
       </c>
@@ -4582,8 +5933,20 @@
       <c r="M76" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U76" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V76" s="16" t="s">
+        <v>552</v>
+      </c>
+      <c r="W76" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="X76" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B77" s="20" t="s">
         <v>156</v>
       </c>
@@ -4614,8 +5977,20 @@
       <c r="M77" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U77" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V77" s="20" t="s">
+        <v>552</v>
+      </c>
+      <c r="W77" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="X77" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="78" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B78" s="16" t="s">
         <v>157</v>
       </c>
@@ -4646,8 +6021,20 @@
       <c r="M78" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U78" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V78" s="16" t="s">
+        <v>552</v>
+      </c>
+      <c r="W78" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="X78" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B79" s="20" t="s">
         <v>158</v>
       </c>
@@ -4678,8 +6065,20 @@
       <c r="M79" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U79" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V79" s="20" t="s">
+        <v>553</v>
+      </c>
+      <c r="W79" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="X79" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="80" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B80" s="16" t="s">
         <v>159</v>
       </c>
@@ -4710,8 +6109,20 @@
       <c r="M80" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U80" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V80" s="16" t="s">
+        <v>553</v>
+      </c>
+      <c r="W80" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="X80" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="81" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B81" s="20" t="s">
         <v>160</v>
       </c>
@@ -4742,8 +6153,20 @@
       <c r="M81" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U81" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V81" s="20" t="s">
+        <v>553</v>
+      </c>
+      <c r="W81" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="X81" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="82" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B82" s="16" t="s">
         <v>161</v>
       </c>
@@ -4774,8 +6197,20 @@
       <c r="M82" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U82" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V82" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="W82" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="X82" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="83" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B83" s="20" t="s">
         <v>162</v>
       </c>
@@ -4806,8 +6241,20 @@
       <c r="M83" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U83" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V83" s="20" t="s">
+        <v>554</v>
+      </c>
+      <c r="W83" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="X83" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="84" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B84" s="16" t="s">
         <v>163</v>
       </c>
@@ -4838,8 +6285,20 @@
       <c r="M84" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U84" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V84" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="W84" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="X84" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="85" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B85" s="20" t="s">
         <v>164</v>
       </c>
@@ -4870,8 +6329,20 @@
       <c r="M85" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U85" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V85" s="20" t="s">
+        <v>555</v>
+      </c>
+      <c r="W85" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="X85" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="86" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B86" s="16" t="s">
         <v>165</v>
       </c>
@@ -4902,8 +6373,20 @@
       <c r="M86" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U86" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V86" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="W86" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="X86" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="87" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B87" s="20" t="s">
         <v>166</v>
       </c>
@@ -4934,8 +6417,20 @@
       <c r="M87" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U87" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V87" s="20" t="s">
+        <v>555</v>
+      </c>
+      <c r="W87" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="X87" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="88" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B88" s="16" t="s">
         <v>167</v>
       </c>
@@ -4966,8 +6461,20 @@
       <c r="M88" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U88" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V88" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="W88" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="X88" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="89" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B89" s="20" t="s">
         <v>168</v>
       </c>
@@ -4998,8 +6505,20 @@
       <c r="M89" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U89" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V89" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="W89" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="X89" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="90" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B90" s="16" t="s">
         <v>169</v>
       </c>
@@ -5030,8 +6549,20 @@
       <c r="M90" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U90" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V90" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="W90" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="X90" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="91" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B91" s="20" t="s">
         <v>170</v>
       </c>
@@ -5062,8 +6593,20 @@
       <c r="M91" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U91" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V91" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="W91" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="X91" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="92" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B92" s="16" t="s">
         <v>171</v>
       </c>
@@ -5094,8 +6637,20 @@
       <c r="M92" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U92" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V92" s="16" t="s">
+        <v>557</v>
+      </c>
+      <c r="W92" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="X92" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="93" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B93" s="20" t="s">
         <v>172</v>
       </c>
@@ -5126,8 +6681,20 @@
       <c r="M93" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U93" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V93" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="W93" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="X93" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="94" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B94" s="16" t="s">
         <v>173</v>
       </c>
@@ -5158,8 +6725,20 @@
       <c r="M94" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U94" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V94" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="W94" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="X94" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="95" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B95" s="20" t="s">
         <v>174</v>
       </c>
@@ -5190,8 +6769,20 @@
       <c r="M95" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U95" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V95" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="W95" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="X95" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="96" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B96" s="16" t="s">
         <v>175</v>
       </c>
@@ -5222,8 +6813,20 @@
       <c r="M96" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U96" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V96" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="W96" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="X96" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="97" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B97" s="20" t="s">
         <v>176</v>
       </c>
@@ -5254,8 +6857,20 @@
       <c r="M97" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U97" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V97" s="20" t="s">
+        <v>559</v>
+      </c>
+      <c r="W97" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="X97" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="98" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B98" s="16" t="s">
         <v>177</v>
       </c>
@@ -5286,8 +6901,20 @@
       <c r="M98" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U98" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V98" s="16" t="s">
+        <v>559</v>
+      </c>
+      <c r="W98" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="X98" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="99" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B99" s="20" t="s">
         <v>178</v>
       </c>
@@ -5318,8 +6945,20 @@
       <c r="M99" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U99" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V99" s="20" t="s">
+        <v>559</v>
+      </c>
+      <c r="W99" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="X99" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="100" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B100" s="16" t="s">
         <v>179</v>
       </c>
@@ -5350,8 +6989,20 @@
       <c r="M100" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U100" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V100" s="16" t="s">
+        <v>560</v>
+      </c>
+      <c r="W100" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="X100" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="101" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B101" s="20" t="s">
         <v>180</v>
       </c>
@@ -5382,8 +7033,20 @@
       <c r="M101" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U101" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V101" s="20" t="s">
+        <v>560</v>
+      </c>
+      <c r="W101" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="X101" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="102" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B102" s="16" t="s">
         <v>181</v>
       </c>
@@ -5414,8 +7077,20 @@
       <c r="M102" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U102" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V102" s="16" t="s">
+        <v>560</v>
+      </c>
+      <c r="W102" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="X102" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="103" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B103" s="20" t="s">
         <v>182</v>
       </c>
@@ -5446,8 +7121,20 @@
       <c r="M103" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U103" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V103" s="20" t="s">
+        <v>561</v>
+      </c>
+      <c r="W103" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="X103" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="104" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B104" s="16" t="s">
         <v>183</v>
       </c>
@@ -5478,8 +7165,20 @@
       <c r="M104" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="105" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U104" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V104" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="W104" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="X104" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="105" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B105" s="20" t="s">
         <v>184</v>
       </c>
@@ -5510,8 +7209,20 @@
       <c r="M105" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U105" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V105" s="20" t="s">
+        <v>561</v>
+      </c>
+      <c r="W105" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="X105" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="106" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B106" s="16" t="s">
         <v>185</v>
       </c>
@@ -5542,8 +7253,20 @@
       <c r="M106" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U106" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V106" s="16" t="s">
+        <v>562</v>
+      </c>
+      <c r="W106" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="X106" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="107" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B107" s="20" t="s">
         <v>186</v>
       </c>
@@ -5574,8 +7297,20 @@
       <c r="M107" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="108" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U107" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V107" s="20" t="s">
+        <v>562</v>
+      </c>
+      <c r="W107" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="X107" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="108" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B108" s="16" t="s">
         <v>187</v>
       </c>
@@ -5606,8 +7341,20 @@
       <c r="M108" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U108" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V108" s="16" t="s">
+        <v>562</v>
+      </c>
+      <c r="W108" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="X108" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="109" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B109" s="20" t="s">
         <v>188</v>
       </c>
@@ -5638,8 +7385,20 @@
       <c r="M109" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U109" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V109" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="W109" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="X109" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="110" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B110" s="16" t="s">
         <v>189</v>
       </c>
@@ -5670,8 +7429,20 @@
       <c r="M110" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="111" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U110" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V110" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="W110" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="X110" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="111" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B111" s="20" t="s">
         <v>190</v>
       </c>
@@ -5702,8 +7473,20 @@
       <c r="M111" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U111" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V111" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="W111" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="X111" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="112" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B112" s="16" t="s">
         <v>191</v>
       </c>
@@ -5734,8 +7517,20 @@
       <c r="M112" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U112" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V112" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="W112" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="X112" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="113" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B113" s="20" t="s">
         <v>192</v>
       </c>
@@ -5766,8 +7561,20 @@
       <c r="M113" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U113" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V113" s="20" t="s">
+        <v>564</v>
+      </c>
+      <c r="W113" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="X113" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="114" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B114" s="16" t="s">
         <v>193</v>
       </c>
@@ -5798,8 +7605,20 @@
       <c r="M114" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U114" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V114" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="W114" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="X114" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="115" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B115" s="20" t="s">
         <v>194</v>
       </c>
@@ -5830,8 +7649,20 @@
       <c r="M115" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U115" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V115" s="20" t="s">
+        <v>565</v>
+      </c>
+      <c r="W115" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="X115" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="116" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B116" s="16" t="s">
         <v>195</v>
       </c>
@@ -5862,8 +7693,20 @@
       <c r="M116" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="117" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U116" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V116" s="16" t="s">
+        <v>565</v>
+      </c>
+      <c r="W116" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="X116" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="117" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B117" s="20" t="s">
         <v>196</v>
       </c>
@@ -5894,8 +7737,20 @@
       <c r="M117" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U117" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V117" s="20" t="s">
+        <v>565</v>
+      </c>
+      <c r="W117" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="X117" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="118" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B118" s="16" t="s">
         <v>197</v>
       </c>
@@ -5926,8 +7781,20 @@
       <c r="M118" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U118" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V118" s="16" t="s">
+        <v>566</v>
+      </c>
+      <c r="W118" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="X118" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="119" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B119" s="20" t="s">
         <v>198</v>
       </c>
@@ -5958,8 +7825,20 @@
       <c r="M119" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U119" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V119" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="W119" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="X119" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="120" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B120" s="16" t="s">
         <v>199</v>
       </c>
@@ -5990,8 +7869,20 @@
       <c r="M120" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U120" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V120" s="16" t="s">
+        <v>566</v>
+      </c>
+      <c r="W120" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="X120" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="121" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B121" s="20" t="s">
         <v>200</v>
       </c>
@@ -6022,8 +7913,20 @@
       <c r="M121" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U121" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V121" s="20" t="s">
+        <v>567</v>
+      </c>
+      <c r="W121" s="20" t="s">
+        <v>460</v>
+      </c>
+      <c r="X121" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="122" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B122" s="16" t="s">
         <v>201</v>
       </c>
@@ -6054,8 +7957,20 @@
       <c r="M122" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="123" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U122" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V122" s="16" t="s">
+        <v>567</v>
+      </c>
+      <c r="W122" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="X122" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="123" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B123" s="20" t="s">
         <v>202</v>
       </c>
@@ -6086,8 +8001,20 @@
       <c r="M123" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="124" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U123" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V123" s="20" t="s">
+        <v>567</v>
+      </c>
+      <c r="W123" s="20" t="s">
+        <v>460</v>
+      </c>
+      <c r="X123" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="124" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B124" s="16" t="s">
         <v>203</v>
       </c>
@@ -6118,8 +8045,20 @@
       <c r="M124" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="125" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U124" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V124" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="W124" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="X124" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="125" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B125" s="20" t="s">
         <v>204</v>
       </c>
@@ -6150,8 +8089,20 @@
       <c r="M125" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="126" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U125" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V125" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="W125" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="X125" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="126" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B126" s="16" t="s">
         <v>205</v>
       </c>
@@ -6182,8 +8133,20 @@
       <c r="M126" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="127" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U126" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V126" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="W126" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="X126" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="127" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B127" s="20" t="s">
         <v>206</v>
       </c>
@@ -6214,8 +8177,20 @@
       <c r="M127" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="128" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U127" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V127" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="W127" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="X127" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="128" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B128" s="16" t="s">
         <v>207</v>
       </c>
@@ -6246,8 +8221,20 @@
       <c r="M128" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="129" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U128" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V128" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="W128" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="X128" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="129" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B129" s="20" t="s">
         <v>208</v>
       </c>
@@ -6278,8 +8265,20 @@
       <c r="M129" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="130" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U129" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V129" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="W129" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="X129" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="130" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B130" s="16" t="s">
         <v>209</v>
       </c>
@@ -6310,8 +8309,20 @@
       <c r="M130" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="131" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U130" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V130" s="16" t="s">
+        <v>570</v>
+      </c>
+      <c r="W130" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="X130" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="131" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B131" s="20" t="s">
         <v>210</v>
       </c>
@@ -6342,8 +8353,20 @@
       <c r="M131" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="132" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U131" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V131" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="W131" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="X131" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="132" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B132" s="16" t="s">
         <v>211</v>
       </c>
@@ -6374,8 +8397,20 @@
       <c r="M132" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="133" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U132" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V132" s="16" t="s">
+        <v>570</v>
+      </c>
+      <c r="W132" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="X132" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="133" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B133" s="20" t="s">
         <v>212</v>
       </c>
@@ -6406,8 +8441,20 @@
       <c r="M133" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="134" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U133" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V133" s="20" t="s">
+        <v>571</v>
+      </c>
+      <c r="W133" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="X133" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="134" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B134" s="16" t="s">
         <v>213</v>
       </c>
@@ -6438,8 +8485,20 @@
       <c r="M134" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="135" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U134" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V134" s="16" t="s">
+        <v>571</v>
+      </c>
+      <c r="W134" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="X134" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="135" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B135" s="20" t="s">
         <v>214</v>
       </c>
@@ -6470,8 +8529,20 @@
       <c r="M135" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="136" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U135" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V135" s="20" t="s">
+        <v>571</v>
+      </c>
+      <c r="W135" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="X135" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="136" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B136" s="16" t="s">
         <v>215</v>
       </c>
@@ -6502,8 +8573,20 @@
       <c r="M136" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="137" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U136" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V136" s="16" t="s">
+        <v>572</v>
+      </c>
+      <c r="W136" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="X136" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="137" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B137" s="20" t="s">
         <v>216</v>
       </c>
@@ -6534,8 +8617,20 @@
       <c r="M137" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="138" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U137" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V137" s="20" t="s">
+        <v>572</v>
+      </c>
+      <c r="W137" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="X137" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="138" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B138" s="16" t="s">
         <v>217</v>
       </c>
@@ -6566,8 +8661,20 @@
       <c r="M138" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="139" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U138" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V138" s="16" t="s">
+        <v>572</v>
+      </c>
+      <c r="W138" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="X138" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="139" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B139" s="20" t="s">
         <v>218</v>
       </c>
@@ -6598,8 +8705,20 @@
       <c r="M139" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="140" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U139" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V139" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="W139" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="X139" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="140" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B140" s="16" t="s">
         <v>219</v>
       </c>
@@ -6630,8 +8749,20 @@
       <c r="M140" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="141" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U140" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V140" s="16" t="s">
+        <v>573</v>
+      </c>
+      <c r="W140" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="X140" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="141" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B141" s="20" t="s">
         <v>220</v>
       </c>
@@ -6662,8 +8793,20 @@
       <c r="M141" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="142" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U141" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V141" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="W141" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="X141" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="142" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B142" s="16" t="s">
         <v>221</v>
       </c>
@@ -6694,8 +8837,20 @@
       <c r="M142" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="143" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U142" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V142" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="W142" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="X142" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="143" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B143" s="20" t="s">
         <v>222</v>
       </c>
@@ -6726,8 +8881,20 @@
       <c r="M143" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="144" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U143" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V143" s="20" t="s">
+        <v>574</v>
+      </c>
+      <c r="W143" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="X143" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="144" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B144" s="16" t="s">
         <v>223</v>
       </c>
@@ -6758,8 +8925,20 @@
       <c r="M144" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="145" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U144" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V144" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="W144" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="X144" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="145" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B145" s="20" t="s">
         <v>224</v>
       </c>
@@ -6790,8 +8969,20 @@
       <c r="M145" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="146" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U145" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V145" s="20" t="s">
+        <v>575</v>
+      </c>
+      <c r="W145" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="X145" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="146" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B146" s="16" t="s">
         <v>225</v>
       </c>
@@ -6822,8 +9013,20 @@
       <c r="M146" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="147" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U146" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V146" s="16" t="s">
+        <v>575</v>
+      </c>
+      <c r="W146" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="X146" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="147" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B147" s="20" t="s">
         <v>226</v>
       </c>
@@ -6854,8 +9057,20 @@
       <c r="M147" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="148" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U147" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V147" s="20" t="s">
+        <v>575</v>
+      </c>
+      <c r="W147" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="X147" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="148" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B148" s="16" t="s">
         <v>227</v>
       </c>
@@ -6886,8 +9101,20 @@
       <c r="M148" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="149" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U148" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V148" s="16" t="s">
+        <v>576</v>
+      </c>
+      <c r="W148" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="X148" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="149" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B149" s="20" t="s">
         <v>228</v>
       </c>
@@ -6918,8 +9145,20 @@
       <c r="M149" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="150" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U149" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V149" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="W149" s="20" t="s">
+        <v>471</v>
+      </c>
+      <c r="X149" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="150" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B150" s="16" t="s">
         <v>229</v>
       </c>
@@ -6950,8 +9189,20 @@
       <c r="M150" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="151" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U150" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V150" s="16" t="s">
+        <v>576</v>
+      </c>
+      <c r="W150" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="X150" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="151" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B151" s="20" t="s">
         <v>230</v>
       </c>
@@ -6982,8 +9233,20 @@
       <c r="M151" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="152" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U151" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V151" s="20" t="s">
+        <v>577</v>
+      </c>
+      <c r="W151" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="X151" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="152" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B152" s="16" t="s">
         <v>231</v>
       </c>
@@ -7014,8 +9277,20 @@
       <c r="M152" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="153" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U152" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V152" s="16" t="s">
+        <v>578</v>
+      </c>
+      <c r="W152" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="X152" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="153" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B153" s="20" t="s">
         <v>232</v>
       </c>
@@ -7046,8 +9321,20 @@
       <c r="M153" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="154" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U153" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V153" s="20" t="s">
+        <v>579</v>
+      </c>
+      <c r="W153" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="X153" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="154" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B154" s="16" t="s">
         <v>233</v>
       </c>
@@ -7078,8 +9365,20 @@
       <c r="M154" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="155" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U154" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V154" s="16" t="s">
+        <v>580</v>
+      </c>
+      <c r="W154" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="X154" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="155" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B155" s="20" t="s">
         <v>234</v>
       </c>
@@ -7110,8 +9409,20 @@
       <c r="M155" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="156" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U155" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V155" s="20" t="s">
+        <v>581</v>
+      </c>
+      <c r="W155" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="X155" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="156" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B156" s="16" t="s">
         <v>235</v>
       </c>
@@ -7142,8 +9453,20 @@
       <c r="M156" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="157" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U156" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V156" s="16" t="s">
+        <v>582</v>
+      </c>
+      <c r="W156" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="X156" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="157" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B157" s="20" t="s">
         <v>236</v>
       </c>
@@ -7174,8 +9497,20 @@
       <c r="M157" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="158" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U157" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V157" s="20" t="s">
+        <v>583</v>
+      </c>
+      <c r="W157" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="X157" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="158" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B158" s="16" t="s">
         <v>237</v>
       </c>
@@ -7206,8 +9541,20 @@
       <c r="M158" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="159" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U158" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V158" s="16" t="s">
+        <v>584</v>
+      </c>
+      <c r="W158" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="X158" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="159" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B159" s="20" t="s">
         <v>238</v>
       </c>
@@ -7238,8 +9585,20 @@
       <c r="M159" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="160" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U159" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V159" s="20" t="s">
+        <v>585</v>
+      </c>
+      <c r="W159" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="X159" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="160" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B160" s="16" t="s">
         <v>239</v>
       </c>
@@ -7270,8 +9629,20 @@
       <c r="M160" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="161" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U160" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V160" s="16" t="s">
+        <v>586</v>
+      </c>
+      <c r="W160" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="X160" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="161" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B161" s="20" t="s">
         <v>240</v>
       </c>
@@ -7302,8 +9673,20 @@
       <c r="M161" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="162" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U161" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V161" s="20" t="s">
+        <v>587</v>
+      </c>
+      <c r="W161" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="X161" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="162" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B162" s="16" t="s">
         <v>241</v>
       </c>
@@ -7334,8 +9717,20 @@
       <c r="M162" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="163" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U162" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V162" s="16" t="s">
+        <v>588</v>
+      </c>
+      <c r="W162" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="X162" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="163" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B163" s="20" t="s">
         <v>242</v>
       </c>
@@ -7366,8 +9761,20 @@
       <c r="M163" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="164" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U163" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V163" s="20" t="s">
+        <v>589</v>
+      </c>
+      <c r="W163" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="X163" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="164" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B164" s="16" t="s">
         <v>243</v>
       </c>
@@ -7398,8 +9805,20 @@
       <c r="M164" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="165" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U164" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V164" s="16" t="s">
+        <v>590</v>
+      </c>
+      <c r="W164" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="X164" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="165" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B165" s="20" t="s">
         <v>244</v>
       </c>
@@ -7430,8 +9849,20 @@
       <c r="M165" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="166" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U165" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V165" s="20" t="s">
+        <v>591</v>
+      </c>
+      <c r="W165" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="X165" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="166" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B166" s="16" t="s">
         <v>245</v>
       </c>
@@ -7462,8 +9893,20 @@
       <c r="M166" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="167" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U166" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V166" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="W166" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="X166" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="167" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B167" s="20" t="s">
         <v>246</v>
       </c>
@@ -7494,8 +9937,20 @@
       <c r="M167" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="168" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U167" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V167" s="20" t="s">
+        <v>593</v>
+      </c>
+      <c r="W167" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="X167" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="168" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B168" s="16" t="s">
         <v>247</v>
       </c>
@@ -7526,8 +9981,20 @@
       <c r="M168" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="169" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U168" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V168" s="16" t="s">
+        <v>594</v>
+      </c>
+      <c r="W168" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="X168" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="169" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B169" s="20" t="s">
         <v>248</v>
       </c>
@@ -7558,8 +10025,20 @@
       <c r="M169" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="170" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U169" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V169" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="W169" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="X169" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="170" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B170" s="16" t="s">
         <v>249</v>
       </c>
@@ -7590,8 +10069,20 @@
       <c r="M170" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="171" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U170" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V170" s="16" t="s">
+        <v>596</v>
+      </c>
+      <c r="W170" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="X170" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="171" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B171" s="20" t="s">
         <v>250</v>
       </c>
@@ -7622,8 +10113,20 @@
       <c r="M171" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="172" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U171" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V171" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="W171" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="X171" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="172" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B172" s="16" t="s">
         <v>251</v>
       </c>
@@ -7654,8 +10157,20 @@
       <c r="M172" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="173" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U172" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V172" s="16" t="s">
+        <v>598</v>
+      </c>
+      <c r="W172" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="X172" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="173" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B173" s="20" t="s">
         <v>252</v>
       </c>
@@ -7686,8 +10201,20 @@
       <c r="M173" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="174" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U173" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V173" s="20" t="s">
+        <v>599</v>
+      </c>
+      <c r="W173" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="X173" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="174" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B174" s="16" t="s">
         <v>253</v>
       </c>
@@ -7718,8 +10245,20 @@
       <c r="M174" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="175" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U174" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V174" s="16" t="s">
+        <v>600</v>
+      </c>
+      <c r="W174" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="X174" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="175" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B175" s="20" t="s">
         <v>254</v>
       </c>
@@ -7750,8 +10289,20 @@
       <c r="M175" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="176" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U175" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V175" s="20" t="s">
+        <v>601</v>
+      </c>
+      <c r="W175" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="X175" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="176" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B176" s="16" t="s">
         <v>255</v>
       </c>
@@ -7782,8 +10333,20 @@
       <c r="M176" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="177" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U176" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V176" s="16" t="s">
+        <v>602</v>
+      </c>
+      <c r="W176" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="X176" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="177" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B177" s="20" t="s">
         <v>256</v>
       </c>
@@ -7814,8 +10377,20 @@
       <c r="M177" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="178" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U177" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V177" s="20" t="s">
+        <v>603</v>
+      </c>
+      <c r="W177" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="X177" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="178" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B178" s="16" t="s">
         <v>257</v>
       </c>
@@ -7846,8 +10421,20 @@
       <c r="M178" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="179" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U178" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V178" s="16" t="s">
+        <v>604</v>
+      </c>
+      <c r="W178" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="X178" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="179" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B179" s="20" t="s">
         <v>258</v>
       </c>
@@ -7878,8 +10465,20 @@
       <c r="M179" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="180" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U179" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V179" s="20" t="s">
+        <v>605</v>
+      </c>
+      <c r="W179" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="X179" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="180" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B180" s="16" t="s">
         <v>259</v>
       </c>
@@ -7910,8 +10509,20 @@
       <c r="M180" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="181" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U180" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V180" s="16" t="s">
+        <v>606</v>
+      </c>
+      <c r="W180" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="X180" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="181" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B181" s="20" t="s">
         <v>260</v>
       </c>
@@ -7942,8 +10553,20 @@
       <c r="M181" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="182" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U181" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V181" s="20" t="s">
+        <v>607</v>
+      </c>
+      <c r="W181" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="X181" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="182" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B182" s="16" t="s">
         <v>261</v>
       </c>
@@ -7974,8 +10597,20 @@
       <c r="M182" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="183" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U182" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V182" s="16" t="s">
+        <v>608</v>
+      </c>
+      <c r="W182" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="X182" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="183" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B183" s="20" t="s">
         <v>262</v>
       </c>
@@ -8006,8 +10641,20 @@
       <c r="M183" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="184" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U183" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V183" s="20" t="s">
+        <v>609</v>
+      </c>
+      <c r="W183" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="X183" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="184" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B184" s="16" t="s">
         <v>263</v>
       </c>
@@ -8038,8 +10685,20 @@
       <c r="M184" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="185" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U184" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V184" s="16" t="s">
+        <v>610</v>
+      </c>
+      <c r="W184" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="X184" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="185" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B185" s="20" t="s">
         <v>264</v>
       </c>
@@ -8070,8 +10729,20 @@
       <c r="M185" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="186" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U185" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V185" s="20" t="s">
+        <v>611</v>
+      </c>
+      <c r="W185" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="X185" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="186" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B186" s="16" t="s">
         <v>265</v>
       </c>
@@ -8102,8 +10773,20 @@
       <c r="M186" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="187" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U186" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V186" s="16" t="s">
+        <v>612</v>
+      </c>
+      <c r="W186" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="X186" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="187" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B187" s="20" t="s">
         <v>266</v>
       </c>
@@ -8134,8 +10817,20 @@
       <c r="M187" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="188" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U187" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V187" s="20" t="s">
+        <v>613</v>
+      </c>
+      <c r="W187" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="X187" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="188" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B188" s="16" t="s">
         <v>267</v>
       </c>
@@ -8166,8 +10861,20 @@
       <c r="M188" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="189" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U188" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V188" s="16" t="s">
+        <v>614</v>
+      </c>
+      <c r="W188" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="X188" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="189" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B189" s="20" t="s">
         <v>268</v>
       </c>
@@ -8198,8 +10905,20 @@
       <c r="M189" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="190" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U189" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V189" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="W189" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="X189" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="190" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B190" s="16" t="s">
         <v>269</v>
       </c>
@@ -8230,8 +10949,20 @@
       <c r="M190" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="191" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U190" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V190" s="16" t="s">
+        <v>616</v>
+      </c>
+      <c r="W190" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="X190" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="191" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B191" s="20" t="s">
         <v>270</v>
       </c>
@@ -8262,8 +10993,20 @@
       <c r="M191" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="192" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U191" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V191" s="20" t="s">
+        <v>617</v>
+      </c>
+      <c r="W191" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="X191" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="192" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B192" s="16" t="s">
         <v>271</v>
       </c>
@@ -8294,8 +11037,20 @@
       <c r="M192" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="193" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U192" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V192" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="W192" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="X192" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="193" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B193" s="20" t="s">
         <v>272</v>
       </c>
@@ -8326,8 +11081,20 @@
       <c r="M193" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="194" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U193" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V193" s="20" t="s">
+        <v>619</v>
+      </c>
+      <c r="W193" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="X193" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="194" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B194" s="16" t="s">
         <v>273</v>
       </c>
@@ -8358,8 +11125,20 @@
       <c r="M194" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="195" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U194" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V194" s="16" t="s">
+        <v>620</v>
+      </c>
+      <c r="W194" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="X194" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="195" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B195" s="20" t="s">
         <v>274</v>
       </c>
@@ -8390,8 +11169,20 @@
       <c r="M195" s="20" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="196" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U195" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V195" s="20" t="s">
+        <v>621</v>
+      </c>
+      <c r="W195" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="X195" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="196" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B196" s="16" t="s">
         <v>275</v>
       </c>
@@ -8422,8 +11213,20 @@
       <c r="M196" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="197" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U196" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V196" s="16" t="s">
+        <v>622</v>
+      </c>
+      <c r="W196" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="X196" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="197" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B197" s="20" t="s">
         <v>276</v>
       </c>
@@ -8436,8 +11239,20 @@
       <c r="E197" s="23">
         <v>1.08E-3</v>
       </c>
-    </row>
-    <row r="198" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U197" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V197" s="20" t="s">
+        <v>623</v>
+      </c>
+      <c r="W197" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="X197" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="198" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B198" s="16" t="s">
         <v>277</v>
       </c>
@@ -8450,8 +11265,20 @@
       <c r="E198" s="19">
         <v>7.7999999999999999E-4</v>
       </c>
-    </row>
-    <row r="199" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U198" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V198" s="16" t="s">
+        <v>624</v>
+      </c>
+      <c r="W198" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="X198" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="199" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B199" s="20" t="s">
         <v>278</v>
       </c>
@@ -8464,8 +11291,20 @@
       <c r="E199" s="23">
         <v>1.8000000000000001E-4</v>
       </c>
-    </row>
-    <row r="200" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U199" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V199" s="20" t="s">
+        <v>625</v>
+      </c>
+      <c r="W199" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="X199" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="200" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B200" s="16" t="s">
         <v>279</v>
       </c>
@@ -8478,8 +11317,20 @@
       <c r="E200" s="19">
         <v>6.6E-4</v>
       </c>
-    </row>
-    <row r="201" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U200" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V200" s="16" t="s">
+        <v>626</v>
+      </c>
+      <c r="W200" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="X200" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="201" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B201" s="20" t="s">
         <v>280</v>
       </c>
@@ -8492,8 +11343,20 @@
       <c r="E201" s="23">
         <v>1.2E-4</v>
       </c>
-    </row>
-    <row r="202" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U201" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V201" s="20" t="s">
+        <v>627</v>
+      </c>
+      <c r="W201" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="X201" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="202" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B202" s="16" t="s">
         <v>281</v>
       </c>
@@ -8506,8 +11369,20 @@
       <c r="E202" s="19">
         <v>6.6E-4</v>
       </c>
-    </row>
-    <row r="203" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U202" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V202" s="16" t="s">
+        <v>628</v>
+      </c>
+      <c r="W202" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="X202" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="203" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B203" s="20" t="s">
         <v>282</v>
       </c>
@@ -8520,8 +11395,20 @@
       <c r="E203" s="23">
         <v>2.2200000000000002E-3</v>
       </c>
-    </row>
-    <row r="204" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U203" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V203" s="20" t="s">
+        <v>629</v>
+      </c>
+      <c r="W203" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="X203" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="204" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B204" s="16" t="s">
         <v>283</v>
       </c>
@@ -8534,8 +11421,20 @@
       <c r="E204" s="19">
         <v>1.3799999999999999E-3</v>
       </c>
-    </row>
-    <row r="205" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U204" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V204" s="16" t="s">
+        <v>630</v>
+      </c>
+      <c r="W204" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="X204" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="205" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B205" s="20" t="s">
         <v>284</v>
       </c>
@@ -8548,8 +11447,20 @@
       <c r="E205" s="23">
         <v>1.08E-3</v>
       </c>
-    </row>
-    <row r="206" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U205" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V205" s="20" t="s">
+        <v>631</v>
+      </c>
+      <c r="W205" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="X205" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="206" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B206" s="16" t="s">
         <v>285</v>
       </c>
@@ -8562,8 +11473,20 @@
       <c r="E206" s="19">
         <v>6.3600000000000002E-3</v>
       </c>
-    </row>
-    <row r="207" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U206" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V206" s="16" t="s">
+        <v>632</v>
+      </c>
+      <c r="W206" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="X206" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="207" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B207" s="20" t="s">
         <v>286</v>
       </c>
@@ -8576,8 +11499,20 @@
       <c r="E207" s="23">
         <v>1.8000000000000001E-4</v>
       </c>
-    </row>
-    <row r="208" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="U207" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V207" s="20" t="s">
+        <v>633</v>
+      </c>
+      <c r="W207" s="20" t="s">
+        <v>460</v>
+      </c>
+      <c r="X207" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="208" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B208" s="16" t="s">
         <v>287</v>
       </c>
@@ -8590,8 +11525,20 @@
       <c r="E208" s="19">
         <v>1.2000000000000001E-3</v>
       </c>
-    </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="U208" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V208" s="16" t="s">
+        <v>634</v>
+      </c>
+      <c r="W208" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="X208" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="209" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B209" s="20" t="s">
         <v>288</v>
       </c>
@@ -8604,8 +11551,20 @@
       <c r="E209" s="23">
         <v>6.0000000000000006E-4</v>
       </c>
-    </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="U209" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V209" s="20" t="s">
+        <v>635</v>
+      </c>
+      <c r="W209" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="X209" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="210" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B210" s="16" t="s">
         <v>289</v>
       </c>
@@ -8618,8 +11577,20 @@
       <c r="E210" s="19">
         <v>1.14E-3</v>
       </c>
-    </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="U210" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V210" s="16" t="s">
+        <v>636</v>
+      </c>
+      <c r="W210" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="X210" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="211" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B211" s="20" t="s">
         <v>290</v>
       </c>
@@ -8632,8 +11603,20 @@
       <c r="E211" s="23">
         <v>1.2000000000000001E-3</v>
       </c>
-    </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="U211" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V211" s="20" t="s">
+        <v>637</v>
+      </c>
+      <c r="W211" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="X211" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="212" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B212" s="16" t="s">
         <v>291</v>
       </c>
@@ -8646,8 +11629,20 @@
       <c r="E212" s="19">
         <v>2.4000000000000002E-3</v>
       </c>
-    </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="U212" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V212" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="W212" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="X212" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="213" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B213" s="20" t="s">
         <v>292</v>
       </c>
@@ -8659,6 +11654,200 @@
       </c>
       <c r="E213" s="23">
         <v>1.14E-3</v>
+      </c>
+      <c r="U213" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V213" s="20" t="s">
+        <v>639</v>
+      </c>
+      <c r="W213" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="X213" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="214" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="U214" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V214" s="16" t="s">
+        <v>640</v>
+      </c>
+      <c r="W214" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="X214" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="215" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="U215" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V215" s="20" t="s">
+        <v>641</v>
+      </c>
+      <c r="W215" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="X215" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="216" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="U216" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V216" s="16" t="s">
+        <v>642</v>
+      </c>
+      <c r="W216" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="X216" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="217" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="U217" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V217" s="20" t="s">
+        <v>643</v>
+      </c>
+      <c r="W217" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="X217" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="218" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="U218" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V218" s="16" t="s">
+        <v>644</v>
+      </c>
+      <c r="W218" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="X218" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="219" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="U219" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V219" s="20" t="s">
+        <v>645</v>
+      </c>
+      <c r="W219" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="X219" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="220" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="U220" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V220" s="16" t="s">
+        <v>646</v>
+      </c>
+      <c r="W220" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="X220" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="221" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="U221" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V221" s="20" t="s">
+        <v>647</v>
+      </c>
+      <c r="W221" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="X221" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="222" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="U222" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V222" s="16" t="s">
+        <v>648</v>
+      </c>
+      <c r="W222" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="X222" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="223" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="U223" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V223" s="20" t="s">
+        <v>649</v>
+      </c>
+      <c r="W223" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="X223" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="224" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="U224" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V224" s="16" t="s">
+        <v>650</v>
+      </c>
+      <c r="W224" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="X224" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="225" spans="21:24" x14ac:dyDescent="0.45">
+      <c r="U225" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="V225" s="20" t="s">
+        <v>651</v>
+      </c>
+      <c r="W225" s="20" t="s">
+        <v>471</v>
+      </c>
+      <c r="X225" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="226" spans="21:24" x14ac:dyDescent="0.45">
+      <c r="U226" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V226" s="16" t="s">
+        <v>652</v>
+      </c>
+      <c r="W226" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="X226" s="16" t="s">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E68781DB-BE7A-4570-80AB-A8DC3E63BB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B19B201C-4E5C-4097-9312-E99A6697199B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2248,7 +2248,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F343E6E-D8E2-03A5-B1F1-9D94AC8A2148}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAB81679-683F-D669-57B8-E1DC2282D5B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2599,7 +2599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F655328-80EC-4663-9FBF-ECE487911653}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE9978F-354B-4928-9199-5C98BC2BB298}">
   <dimension ref="A1:X226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B19B201C-4E5C-4097-9312-E99A6697199B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27AC1AF3-6A03-4D7D-A6F6-8EEC1D3F024E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3261" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3249" uniqueCount="640">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -1584,9 +1584,6 @@
     <t>Coal + CCS_w98648381-220</t>
   </si>
   <si>
-    <t>Fuel cell (distributed electricity generation)_w98648381-220</t>
-  </si>
-  <si>
     <t>Gas turbine_w98648381-220</t>
   </si>
   <si>
@@ -1626,9 +1623,6 @@
     <t>Coal + CCS_w356292116-220</t>
   </si>
   <si>
-    <t>Fuel cell (distributed electricity generation)_w356292116-220</t>
-  </si>
-  <si>
     <t>Gas turbine_w356292116-220</t>
   </si>
   <si>
@@ -1666,9 +1660,6 @@
   </si>
   <si>
     <t>Coal + CCS_w35840165-380</t>
-  </si>
-  <si>
-    <t>Fuel cell (distributed electricity generation)_w35840165-380</t>
   </si>
   <si>
     <t>Gas turbine_w35840165-380</t>
@@ -2248,7 +2239,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAB81679-683F-D669-57B8-E1DC2282D5B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C3F3D78-BBDE-2960-420A-AFAA72215DF8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2599,8 +2590,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE9978F-354B-4928-9199-5C98BC2BB298}">
-  <dimension ref="A1:X226"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441E3BC1-7313-40F4-B077-BC23C13C284F}">
+  <dimension ref="A1:X223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3318,7 +3309,7 @@
         <v>503</v>
       </c>
       <c r="W17" s="20" t="s">
-        <v>481</v>
+        <v>437</v>
       </c>
       <c r="X17" s="20" t="s">
         <v>490</v>
@@ -3890,7 +3881,7 @@
         <v>516</v>
       </c>
       <c r="W30" s="16" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="X30" s="16" t="s">
         <v>490</v>
@@ -3934,7 +3925,7 @@
         <v>517</v>
       </c>
       <c r="W31" s="20" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="X31" s="20" t="s">
         <v>490</v>
@@ -4462,7 +4453,7 @@
         <v>529</v>
       </c>
       <c r="W43" s="20" t="s">
-        <v>439</v>
+        <v>378</v>
       </c>
       <c r="X43" s="20" t="s">
         <v>490</v>
@@ -4503,10 +4494,10 @@
         <v>488</v>
       </c>
       <c r="V44" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="W44" s="16" t="s">
-        <v>439</v>
+        <v>378</v>
       </c>
       <c r="X44" s="16" t="s">
         <v>490</v>
@@ -4547,10 +4538,10 @@
         <v>488</v>
       </c>
       <c r="V45" s="20" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="W45" s="20" t="s">
-        <v>439</v>
+        <v>378</v>
       </c>
       <c r="X45" s="20" t="s">
         <v>490</v>
@@ -4591,10 +4582,10 @@
         <v>488</v>
       </c>
       <c r="V46" s="16" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="W46" s="16" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="X46" s="16" t="s">
         <v>490</v>
@@ -4635,10 +4626,10 @@
         <v>488</v>
       </c>
       <c r="V47" s="20" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="W47" s="20" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="X47" s="20" t="s">
         <v>490</v>
@@ -4679,10 +4670,10 @@
         <v>488</v>
       </c>
       <c r="V48" s="16" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="W48" s="16" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="X48" s="16" t="s">
         <v>490</v>
@@ -4723,10 +4714,10 @@
         <v>488</v>
       </c>
       <c r="V49" s="20" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="W49" s="20" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="X49" s="20" t="s">
         <v>490</v>
@@ -4767,10 +4758,10 @@
         <v>488</v>
       </c>
       <c r="V50" s="16" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="W50" s="16" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="X50" s="16" t="s">
         <v>490</v>
@@ -4811,10 +4802,10 @@
         <v>488</v>
       </c>
       <c r="V51" s="20" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="W51" s="20" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="X51" s="20" t="s">
         <v>490</v>
@@ -4855,10 +4846,10 @@
         <v>488</v>
       </c>
       <c r="V52" s="16" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="W52" s="16" t="s">
-        <v>363</v>
+        <v>425</v>
       </c>
       <c r="X52" s="16" t="s">
         <v>490</v>
@@ -4899,10 +4890,10 @@
         <v>488</v>
       </c>
       <c r="V53" s="20" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="W53" s="20" t="s">
-        <v>363</v>
+        <v>425</v>
       </c>
       <c r="X53" s="20" t="s">
         <v>490</v>
@@ -4943,10 +4934,10 @@
         <v>488</v>
       </c>
       <c r="V54" s="16" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="W54" s="16" t="s">
-        <v>363</v>
+        <v>425</v>
       </c>
       <c r="X54" s="16" t="s">
         <v>490</v>
@@ -4987,10 +4978,10 @@
         <v>488</v>
       </c>
       <c r="V55" s="20" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="W55" s="20" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="X55" s="20" t="s">
         <v>490</v>
@@ -5031,10 +5022,10 @@
         <v>488</v>
       </c>
       <c r="V56" s="16" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="W56" s="16" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="X56" s="16" t="s">
         <v>490</v>
@@ -5075,10 +5066,10 @@
         <v>488</v>
       </c>
       <c r="V57" s="20" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="W57" s="20" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="X57" s="20" t="s">
         <v>490</v>
@@ -5119,10 +5110,10 @@
         <v>488</v>
       </c>
       <c r="V58" s="16" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="W58" s="16" t="s">
-        <v>409</v>
+        <v>335</v>
       </c>
       <c r="X58" s="16" t="s">
         <v>490</v>
@@ -5163,10 +5154,10 @@
         <v>488</v>
       </c>
       <c r="V59" s="20" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="W59" s="20" t="s">
-        <v>409</v>
+        <v>335</v>
       </c>
       <c r="X59" s="20" t="s">
         <v>490</v>
@@ -5207,10 +5198,10 @@
         <v>488</v>
       </c>
       <c r="V60" s="16" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="W60" s="16" t="s">
-        <v>409</v>
+        <v>335</v>
       </c>
       <c r="X60" s="16" t="s">
         <v>490</v>
@@ -5251,10 +5242,10 @@
         <v>488</v>
       </c>
       <c r="V61" s="20" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="W61" s="20" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="X61" s="20" t="s">
         <v>490</v>
@@ -5295,10 +5286,10 @@
         <v>488</v>
       </c>
       <c r="V62" s="16" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="W62" s="16" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="X62" s="16" t="s">
         <v>490</v>
@@ -5339,10 +5330,10 @@
         <v>488</v>
       </c>
       <c r="V63" s="20" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="W63" s="20" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="X63" s="20" t="s">
         <v>490</v>
@@ -5383,10 +5374,10 @@
         <v>488</v>
       </c>
       <c r="V64" s="16" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="W64" s="16" t="s">
-        <v>377</v>
+        <v>294</v>
       </c>
       <c r="X64" s="16" t="s">
         <v>490</v>
@@ -5427,10 +5418,10 @@
         <v>488</v>
       </c>
       <c r="V65" s="20" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="W65" s="20" t="s">
-        <v>377</v>
+        <v>294</v>
       </c>
       <c r="X65" s="20" t="s">
         <v>490</v>
@@ -5471,10 +5462,10 @@
         <v>488</v>
       </c>
       <c r="V66" s="16" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="W66" s="16" t="s">
-        <v>377</v>
+        <v>294</v>
       </c>
       <c r="X66" s="16" t="s">
         <v>490</v>
@@ -5515,10 +5506,10 @@
         <v>488</v>
       </c>
       <c r="V67" s="20" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="W67" s="20" t="s">
-        <v>294</v>
+        <v>403</v>
       </c>
       <c r="X67" s="20" t="s">
         <v>490</v>
@@ -5559,10 +5550,10 @@
         <v>488</v>
       </c>
       <c r="V68" s="16" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="W68" s="16" t="s">
-        <v>294</v>
+        <v>403</v>
       </c>
       <c r="X68" s="16" t="s">
         <v>490</v>
@@ -5603,10 +5594,10 @@
         <v>488</v>
       </c>
       <c r="V69" s="20" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="W69" s="20" t="s">
-        <v>294</v>
+        <v>403</v>
       </c>
       <c r="X69" s="20" t="s">
         <v>490</v>
@@ -5647,10 +5638,10 @@
         <v>488</v>
       </c>
       <c r="V70" s="16" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="W70" s="16" t="s">
-        <v>403</v>
+        <v>465</v>
       </c>
       <c r="X70" s="16" t="s">
         <v>490</v>
@@ -5691,10 +5682,10 @@
         <v>488</v>
       </c>
       <c r="V71" s="20" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="W71" s="20" t="s">
-        <v>403</v>
+        <v>465</v>
       </c>
       <c r="X71" s="20" t="s">
         <v>490</v>
@@ -5735,10 +5726,10 @@
         <v>488</v>
       </c>
       <c r="V72" s="16" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="W72" s="16" t="s">
-        <v>403</v>
+        <v>465</v>
       </c>
       <c r="X72" s="16" t="s">
         <v>490</v>
@@ -5779,10 +5770,10 @@
         <v>488</v>
       </c>
       <c r="V73" s="20" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="W73" s="20" t="s">
-        <v>465</v>
+        <v>346</v>
       </c>
       <c r="X73" s="20" t="s">
         <v>490</v>
@@ -5823,10 +5814,10 @@
         <v>488</v>
       </c>
       <c r="V74" s="16" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="W74" s="16" t="s">
-        <v>465</v>
+        <v>346</v>
       </c>
       <c r="X74" s="16" t="s">
         <v>490</v>
@@ -5867,10 +5858,10 @@
         <v>488</v>
       </c>
       <c r="V75" s="20" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="W75" s="20" t="s">
-        <v>465</v>
+        <v>346</v>
       </c>
       <c r="X75" s="20" t="s">
         <v>490</v>
@@ -5911,10 +5902,10 @@
         <v>488</v>
       </c>
       <c r="V76" s="16" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="W76" s="16" t="s">
-        <v>346</v>
+        <v>375</v>
       </c>
       <c r="X76" s="16" t="s">
         <v>490</v>
@@ -5955,10 +5946,10 @@
         <v>488</v>
       </c>
       <c r="V77" s="20" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="W77" s="20" t="s">
-        <v>346</v>
+        <v>375</v>
       </c>
       <c r="X77" s="20" t="s">
         <v>490</v>
@@ -5999,10 +5990,10 @@
         <v>488</v>
       </c>
       <c r="V78" s="16" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="W78" s="16" t="s">
-        <v>346</v>
+        <v>375</v>
       </c>
       <c r="X78" s="16" t="s">
         <v>490</v>
@@ -6043,10 +6034,10 @@
         <v>488</v>
       </c>
       <c r="V79" s="20" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="W79" s="20" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="X79" s="20" t="s">
         <v>490</v>
@@ -6087,10 +6078,10 @@
         <v>488</v>
       </c>
       <c r="V80" s="16" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="W80" s="16" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="X80" s="16" t="s">
         <v>490</v>
@@ -6131,10 +6122,10 @@
         <v>488</v>
       </c>
       <c r="V81" s="20" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="W81" s="20" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="X81" s="20" t="s">
         <v>490</v>
@@ -6175,10 +6166,10 @@
         <v>488</v>
       </c>
       <c r="V82" s="16" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="W82" s="16" t="s">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="X82" s="16" t="s">
         <v>490</v>
@@ -6219,10 +6210,10 @@
         <v>488</v>
       </c>
       <c r="V83" s="20" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="W83" s="20" t="s">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="X83" s="20" t="s">
         <v>490</v>
@@ -6263,10 +6254,10 @@
         <v>488</v>
       </c>
       <c r="V84" s="16" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="W84" s="16" t="s">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="X84" s="16" t="s">
         <v>490</v>
@@ -6307,10 +6298,10 @@
         <v>488</v>
       </c>
       <c r="V85" s="20" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="W85" s="20" t="s">
-        <v>312</v>
+        <v>415</v>
       </c>
       <c r="X85" s="20" t="s">
         <v>490</v>
@@ -6351,10 +6342,10 @@
         <v>488</v>
       </c>
       <c r="V86" s="16" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="W86" s="16" t="s">
-        <v>312</v>
+        <v>415</v>
       </c>
       <c r="X86" s="16" t="s">
         <v>490</v>
@@ -6395,10 +6386,10 @@
         <v>488</v>
       </c>
       <c r="V87" s="20" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="W87" s="20" t="s">
-        <v>312</v>
+        <v>415</v>
       </c>
       <c r="X87" s="20" t="s">
         <v>490</v>
@@ -6439,10 +6430,10 @@
         <v>488</v>
       </c>
       <c r="V88" s="16" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="W88" s="16" t="s">
-        <v>415</v>
+        <v>475</v>
       </c>
       <c r="X88" s="16" t="s">
         <v>490</v>
@@ -6483,10 +6474,10 @@
         <v>488</v>
       </c>
       <c r="V89" s="20" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="W89" s="20" t="s">
-        <v>415</v>
+        <v>475</v>
       </c>
       <c r="X89" s="20" t="s">
         <v>490</v>
@@ -6527,10 +6518,10 @@
         <v>488</v>
       </c>
       <c r="V90" s="16" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="W90" s="16" t="s">
-        <v>415</v>
+        <v>475</v>
       </c>
       <c r="X90" s="16" t="s">
         <v>490</v>
@@ -6571,10 +6562,10 @@
         <v>488</v>
       </c>
       <c r="V91" s="20" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="W91" s="20" t="s">
-        <v>475</v>
+        <v>418</v>
       </c>
       <c r="X91" s="20" t="s">
         <v>490</v>
@@ -6615,10 +6606,10 @@
         <v>488</v>
       </c>
       <c r="V92" s="16" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="W92" s="16" t="s">
-        <v>475</v>
+        <v>418</v>
       </c>
       <c r="X92" s="16" t="s">
         <v>490</v>
@@ -6659,10 +6650,10 @@
         <v>488</v>
       </c>
       <c r="V93" s="20" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="W93" s="20" t="s">
-        <v>475</v>
+        <v>418</v>
       </c>
       <c r="X93" s="20" t="s">
         <v>490</v>
@@ -6703,10 +6694,10 @@
         <v>488</v>
       </c>
       <c r="V94" s="16" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="W94" s="16" t="s">
-        <v>418</v>
+        <v>300</v>
       </c>
       <c r="X94" s="16" t="s">
         <v>490</v>
@@ -6747,10 +6738,10 @@
         <v>488</v>
       </c>
       <c r="V95" s="20" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="W95" s="20" t="s">
-        <v>418</v>
+        <v>300</v>
       </c>
       <c r="X95" s="20" t="s">
         <v>490</v>
@@ -6791,10 +6782,10 @@
         <v>488</v>
       </c>
       <c r="V96" s="16" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="W96" s="16" t="s">
-        <v>418</v>
+        <v>300</v>
       </c>
       <c r="X96" s="16" t="s">
         <v>490</v>
@@ -6835,10 +6826,10 @@
         <v>488</v>
       </c>
       <c r="V97" s="20" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="W97" s="20" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="X97" s="20" t="s">
         <v>490</v>
@@ -6879,10 +6870,10 @@
         <v>488</v>
       </c>
       <c r="V98" s="16" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="W98" s="16" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="X98" s="16" t="s">
         <v>490</v>
@@ -6923,10 +6914,10 @@
         <v>488</v>
       </c>
       <c r="V99" s="20" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="W99" s="20" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="X99" s="20" t="s">
         <v>490</v>
@@ -6967,10 +6958,10 @@
         <v>488</v>
       </c>
       <c r="V100" s="16" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="W100" s="16" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="X100" s="16" t="s">
         <v>490</v>
@@ -7011,10 +7002,10 @@
         <v>488</v>
       </c>
       <c r="V101" s="20" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="W101" s="20" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="X101" s="20" t="s">
         <v>490</v>
@@ -7055,10 +7046,10 @@
         <v>488</v>
       </c>
       <c r="V102" s="16" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="W102" s="16" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="X102" s="16" t="s">
         <v>490</v>
@@ -7099,10 +7090,10 @@
         <v>488</v>
       </c>
       <c r="V103" s="20" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="W103" s="20" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="X103" s="20" t="s">
         <v>490</v>
@@ -7143,10 +7134,10 @@
         <v>488</v>
       </c>
       <c r="V104" s="16" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="W104" s="16" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="X104" s="16" t="s">
         <v>490</v>
@@ -7187,10 +7178,10 @@
         <v>488</v>
       </c>
       <c r="V105" s="20" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="W105" s="20" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="X105" s="20" t="s">
         <v>490</v>
@@ -7231,10 +7222,10 @@
         <v>488</v>
       </c>
       <c r="V106" s="16" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="W106" s="16" t="s">
-        <v>306</v>
+        <v>412</v>
       </c>
       <c r="X106" s="16" t="s">
         <v>490</v>
@@ -7275,10 +7266,10 @@
         <v>488</v>
       </c>
       <c r="V107" s="20" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="W107" s="20" t="s">
-        <v>306</v>
+        <v>412</v>
       </c>
       <c r="X107" s="20" t="s">
         <v>490</v>
@@ -7319,10 +7310,10 @@
         <v>488</v>
       </c>
       <c r="V108" s="16" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="W108" s="16" t="s">
-        <v>306</v>
+        <v>412</v>
       </c>
       <c r="X108" s="16" t="s">
         <v>490</v>
@@ -7363,10 +7354,10 @@
         <v>488</v>
       </c>
       <c r="V109" s="20" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="W109" s="20" t="s">
-        <v>412</v>
+        <v>319</v>
       </c>
       <c r="X109" s="20" t="s">
         <v>490</v>
@@ -7407,10 +7398,10 @@
         <v>488</v>
       </c>
       <c r="V110" s="16" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="W110" s="16" t="s">
-        <v>412</v>
+        <v>319</v>
       </c>
       <c r="X110" s="16" t="s">
         <v>490</v>
@@ -7451,10 +7442,10 @@
         <v>488</v>
       </c>
       <c r="V111" s="20" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="W111" s="20" t="s">
-        <v>412</v>
+        <v>319</v>
       </c>
       <c r="X111" s="20" t="s">
         <v>490</v>
@@ -7495,10 +7486,10 @@
         <v>488</v>
       </c>
       <c r="V112" s="16" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="W112" s="16" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="X112" s="16" t="s">
         <v>490</v>
@@ -7539,10 +7530,10 @@
         <v>488</v>
       </c>
       <c r="V113" s="20" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="W113" s="20" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="X113" s="20" t="s">
         <v>490</v>
@@ -7583,10 +7574,10 @@
         <v>488</v>
       </c>
       <c r="V114" s="16" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="W114" s="16" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="X114" s="16" t="s">
         <v>490</v>
@@ -7627,10 +7618,10 @@
         <v>488</v>
       </c>
       <c r="V115" s="20" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="W115" s="20" t="s">
-        <v>356</v>
+        <v>466</v>
       </c>
       <c r="X115" s="20" t="s">
         <v>490</v>
@@ -7671,10 +7662,10 @@
         <v>488</v>
       </c>
       <c r="V116" s="16" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="W116" s="16" t="s">
-        <v>356</v>
+        <v>466</v>
       </c>
       <c r="X116" s="16" t="s">
         <v>490</v>
@@ -7715,10 +7706,10 @@
         <v>488</v>
       </c>
       <c r="V117" s="20" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="W117" s="20" t="s">
-        <v>356</v>
+        <v>466</v>
       </c>
       <c r="X117" s="20" t="s">
         <v>490</v>
@@ -7759,10 +7750,10 @@
         <v>488</v>
       </c>
       <c r="V118" s="16" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="W118" s="16" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="X118" s="16" t="s">
         <v>490</v>
@@ -7803,10 +7794,10 @@
         <v>488</v>
       </c>
       <c r="V119" s="20" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="W119" s="20" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="X119" s="20" t="s">
         <v>490</v>
@@ -7847,10 +7838,10 @@
         <v>488</v>
       </c>
       <c r="V120" s="16" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="W120" s="16" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="X120" s="16" t="s">
         <v>490</v>
@@ -7891,10 +7882,10 @@
         <v>488</v>
       </c>
       <c r="V121" s="20" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="W121" s="20" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="X121" s="20" t="s">
         <v>490</v>
@@ -7935,10 +7926,10 @@
         <v>488</v>
       </c>
       <c r="V122" s="16" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="W122" s="16" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="X122" s="16" t="s">
         <v>490</v>
@@ -7979,10 +7970,10 @@
         <v>488</v>
       </c>
       <c r="V123" s="20" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="W123" s="20" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="X123" s="20" t="s">
         <v>490</v>
@@ -8023,10 +8014,10 @@
         <v>488</v>
       </c>
       <c r="V124" s="16" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="W124" s="16" t="s">
-        <v>440</v>
+        <v>358</v>
       </c>
       <c r="X124" s="16" t="s">
         <v>490</v>
@@ -8067,10 +8058,10 @@
         <v>488</v>
       </c>
       <c r="V125" s="20" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="W125" s="20" t="s">
-        <v>440</v>
+        <v>358</v>
       </c>
       <c r="X125" s="20" t="s">
         <v>490</v>
@@ -8111,10 +8102,10 @@
         <v>488</v>
       </c>
       <c r="V126" s="16" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="W126" s="16" t="s">
-        <v>440</v>
+        <v>358</v>
       </c>
       <c r="X126" s="16" t="s">
         <v>490</v>
@@ -8155,10 +8146,10 @@
         <v>488</v>
       </c>
       <c r="V127" s="20" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="W127" s="20" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="X127" s="20" t="s">
         <v>490</v>
@@ -8199,10 +8190,10 @@
         <v>488</v>
       </c>
       <c r="V128" s="16" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="W128" s="16" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="X128" s="16" t="s">
         <v>490</v>
@@ -8243,10 +8234,10 @@
         <v>488</v>
       </c>
       <c r="V129" s="20" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="W129" s="20" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="X129" s="20" t="s">
         <v>490</v>
@@ -8287,10 +8278,10 @@
         <v>488</v>
       </c>
       <c r="V130" s="16" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="W130" s="16" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="X130" s="16" t="s">
         <v>490</v>
@@ -8331,10 +8322,10 @@
         <v>488</v>
       </c>
       <c r="V131" s="20" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="W131" s="20" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="X131" s="20" t="s">
         <v>490</v>
@@ -8375,10 +8366,10 @@
         <v>488</v>
       </c>
       <c r="V132" s="16" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="W132" s="16" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="X132" s="16" t="s">
         <v>490</v>
@@ -8419,10 +8410,10 @@
         <v>488</v>
       </c>
       <c r="V133" s="20" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="W133" s="20" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="X133" s="20" t="s">
         <v>490</v>
@@ -8463,10 +8454,10 @@
         <v>488</v>
       </c>
       <c r="V134" s="16" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="W134" s="16" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="X134" s="16" t="s">
         <v>490</v>
@@ -8507,10 +8498,10 @@
         <v>488</v>
       </c>
       <c r="V135" s="20" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="W135" s="20" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="X135" s="20" t="s">
         <v>490</v>
@@ -8551,10 +8542,10 @@
         <v>488</v>
       </c>
       <c r="V136" s="16" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="W136" s="16" t="s">
-        <v>401</v>
+        <v>350</v>
       </c>
       <c r="X136" s="16" t="s">
         <v>490</v>
@@ -8595,10 +8586,10 @@
         <v>488</v>
       </c>
       <c r="V137" s="20" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="W137" s="20" t="s">
-        <v>401</v>
+        <v>350</v>
       </c>
       <c r="X137" s="20" t="s">
         <v>490</v>
@@ -8639,10 +8630,10 @@
         <v>488</v>
       </c>
       <c r="V138" s="16" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="W138" s="16" t="s">
-        <v>401</v>
+        <v>350</v>
       </c>
       <c r="X138" s="16" t="s">
         <v>490</v>
@@ -8683,10 +8674,10 @@
         <v>488</v>
       </c>
       <c r="V139" s="20" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="W139" s="20" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="X139" s="20" t="s">
         <v>490</v>
@@ -8727,10 +8718,10 @@
         <v>488</v>
       </c>
       <c r="V140" s="16" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="W140" s="16" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="X140" s="16" t="s">
         <v>490</v>
@@ -8771,10 +8762,10 @@
         <v>488</v>
       </c>
       <c r="V141" s="20" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="W141" s="20" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="X141" s="20" t="s">
         <v>490</v>
@@ -8815,10 +8806,10 @@
         <v>488</v>
       </c>
       <c r="V142" s="16" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="W142" s="16" t="s">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="X142" s="16" t="s">
         <v>490</v>
@@ -8859,10 +8850,10 @@
         <v>488</v>
       </c>
       <c r="V143" s="20" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="W143" s="20" t="s">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="X143" s="20" t="s">
         <v>490</v>
@@ -8903,10 +8894,10 @@
         <v>488</v>
       </c>
       <c r="V144" s="16" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="W144" s="16" t="s">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="X144" s="16" t="s">
         <v>490</v>
@@ -8947,10 +8938,10 @@
         <v>488</v>
       </c>
       <c r="V145" s="20" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="W145" s="20" t="s">
-        <v>352</v>
+        <v>461</v>
       </c>
       <c r="X145" s="20" t="s">
         <v>490</v>
@@ -8991,10 +8982,10 @@
         <v>488</v>
       </c>
       <c r="V146" s="16" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="W146" s="16" t="s">
-        <v>352</v>
+        <v>461</v>
       </c>
       <c r="X146" s="16" t="s">
         <v>490</v>
@@ -9035,10 +9026,10 @@
         <v>488</v>
       </c>
       <c r="V147" s="20" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="W147" s="20" t="s">
-        <v>352</v>
+        <v>461</v>
       </c>
       <c r="X147" s="20" t="s">
         <v>490</v>
@@ -9079,10 +9070,10 @@
         <v>488</v>
       </c>
       <c r="V148" s="16" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="W148" s="16" t="s">
-        <v>461</v>
+        <v>481</v>
       </c>
       <c r="X148" s="16" t="s">
         <v>490</v>
@@ -9123,10 +9114,10 @@
         <v>488</v>
       </c>
       <c r="V149" s="20" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="W149" s="20" t="s">
-        <v>461</v>
+        <v>481</v>
       </c>
       <c r="X149" s="20" t="s">
         <v>490</v>
@@ -9170,7 +9161,7 @@
         <v>566</v>
       </c>
       <c r="W150" s="16" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="X150" s="16" t="s">
         <v>490</v>
@@ -9214,7 +9205,7 @@
         <v>567</v>
       </c>
       <c r="W151" s="20" t="s">
-        <v>481</v>
+        <v>437</v>
       </c>
       <c r="X151" s="20" t="s">
         <v>490</v>
@@ -9258,7 +9249,7 @@
         <v>568</v>
       </c>
       <c r="W152" s="16" t="s">
-        <v>481</v>
+        <v>439</v>
       </c>
       <c r="X152" s="16" t="s">
         <v>490</v>
@@ -9302,7 +9293,7 @@
         <v>569</v>
       </c>
       <c r="W153" s="20" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="X153" s="20" t="s">
         <v>490</v>
@@ -9346,7 +9337,7 @@
         <v>570</v>
       </c>
       <c r="W154" s="16" t="s">
-        <v>437</v>
+        <v>378</v>
       </c>
       <c r="X154" s="16" t="s">
         <v>490</v>
@@ -9390,7 +9381,7 @@
         <v>571</v>
       </c>
       <c r="W155" s="20" t="s">
-        <v>439</v>
+        <v>378</v>
       </c>
       <c r="X155" s="20" t="s">
         <v>490</v>
@@ -9434,7 +9425,7 @@
         <v>572</v>
       </c>
       <c r="W156" s="16" t="s">
-        <v>439</v>
+        <v>370</v>
       </c>
       <c r="X156" s="16" t="s">
         <v>490</v>
@@ -9478,7 +9469,7 @@
         <v>573</v>
       </c>
       <c r="W157" s="20" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="X157" s="20" t="s">
         <v>490</v>
@@ -9522,7 +9513,7 @@
         <v>574</v>
       </c>
       <c r="W158" s="16" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="X158" s="16" t="s">
         <v>490</v>
@@ -9566,7 +9557,7 @@
         <v>575</v>
       </c>
       <c r="W159" s="20" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="X159" s="20" t="s">
         <v>490</v>
@@ -9610,7 +9601,7 @@
         <v>576</v>
       </c>
       <c r="W160" s="16" t="s">
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="X160" s="16" t="s">
         <v>490</v>
@@ -9654,7 +9645,7 @@
         <v>577</v>
       </c>
       <c r="W161" s="20" t="s">
-        <v>363</v>
+        <v>425</v>
       </c>
       <c r="X161" s="20" t="s">
         <v>490</v>
@@ -9698,7 +9689,7 @@
         <v>578</v>
       </c>
       <c r="W162" s="16" t="s">
-        <v>363</v>
+        <v>409</v>
       </c>
       <c r="X162" s="16" t="s">
         <v>490</v>
@@ -9742,7 +9733,7 @@
         <v>579</v>
       </c>
       <c r="W163" s="20" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="X163" s="20" t="s">
         <v>490</v>
@@ -9786,7 +9777,7 @@
         <v>580</v>
       </c>
       <c r="W164" s="16" t="s">
-        <v>425</v>
+        <v>335</v>
       </c>
       <c r="X164" s="16" t="s">
         <v>490</v>
@@ -9830,7 +9821,7 @@
         <v>581</v>
       </c>
       <c r="W165" s="20" t="s">
-        <v>409</v>
+        <v>335</v>
       </c>
       <c r="X165" s="20" t="s">
         <v>490</v>
@@ -9874,7 +9865,7 @@
         <v>582</v>
       </c>
       <c r="W166" s="16" t="s">
-        <v>409</v>
+        <v>377</v>
       </c>
       <c r="X166" s="16" t="s">
         <v>490</v>
@@ -9918,7 +9909,7 @@
         <v>583</v>
       </c>
       <c r="W167" s="20" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="X167" s="20" t="s">
         <v>490</v>
@@ -9962,7 +9953,7 @@
         <v>584</v>
       </c>
       <c r="W168" s="16" t="s">
-        <v>335</v>
+        <v>294</v>
       </c>
       <c r="X168" s="16" t="s">
         <v>490</v>
@@ -10006,7 +9997,7 @@
         <v>585</v>
       </c>
       <c r="W169" s="20" t="s">
-        <v>377</v>
+        <v>294</v>
       </c>
       <c r="X169" s="20" t="s">
         <v>490</v>
@@ -10050,7 +10041,7 @@
         <v>586</v>
       </c>
       <c r="W170" s="16" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="X170" s="16" t="s">
         <v>490</v>
@@ -10094,7 +10085,7 @@
         <v>587</v>
       </c>
       <c r="W171" s="20" t="s">
-        <v>294</v>
+        <v>403</v>
       </c>
       <c r="X171" s="20" t="s">
         <v>490</v>
@@ -10138,7 +10129,7 @@
         <v>588</v>
       </c>
       <c r="W172" s="16" t="s">
-        <v>294</v>
+        <v>465</v>
       </c>
       <c r="X172" s="16" t="s">
         <v>490</v>
@@ -10182,7 +10173,7 @@
         <v>589</v>
       </c>
       <c r="W173" s="20" t="s">
-        <v>403</v>
+        <v>465</v>
       </c>
       <c r="X173" s="20" t="s">
         <v>490</v>
@@ -10226,7 +10217,7 @@
         <v>590</v>
       </c>
       <c r="W174" s="16" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="X174" s="16" t="s">
         <v>490</v>
@@ -10270,7 +10261,7 @@
         <v>591</v>
       </c>
       <c r="W175" s="20" t="s">
-        <v>465</v>
+        <v>346</v>
       </c>
       <c r="X175" s="20" t="s">
         <v>490</v>
@@ -10314,7 +10305,7 @@
         <v>592</v>
       </c>
       <c r="W176" s="16" t="s">
-        <v>465</v>
+        <v>375</v>
       </c>
       <c r="X176" s="16" t="s">
         <v>490</v>
@@ -10358,7 +10349,7 @@
         <v>593</v>
       </c>
       <c r="W177" s="20" t="s">
-        <v>346</v>
+        <v>375</v>
       </c>
       <c r="X177" s="20" t="s">
         <v>490</v>
@@ -10402,7 +10393,7 @@
         <v>594</v>
       </c>
       <c r="W178" s="16" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="X178" s="16" t="s">
         <v>490</v>
@@ -10446,7 +10437,7 @@
         <v>595</v>
       </c>
       <c r="W179" s="20" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="X179" s="20" t="s">
         <v>490</v>
@@ -10490,7 +10481,7 @@
         <v>596</v>
       </c>
       <c r="W180" s="16" t="s">
-        <v>375</v>
+        <v>312</v>
       </c>
       <c r="X180" s="16" t="s">
         <v>490</v>
@@ -10534,7 +10525,7 @@
         <v>597</v>
       </c>
       <c r="W181" s="20" t="s">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="X181" s="20" t="s">
         <v>490</v>
@@ -10578,7 +10569,7 @@
         <v>598</v>
       </c>
       <c r="W182" s="16" t="s">
-        <v>360</v>
+        <v>415</v>
       </c>
       <c r="X182" s="16" t="s">
         <v>490</v>
@@ -10622,7 +10613,7 @@
         <v>599</v>
       </c>
       <c r="W183" s="20" t="s">
-        <v>312</v>
+        <v>415</v>
       </c>
       <c r="X183" s="20" t="s">
         <v>490</v>
@@ -10666,7 +10657,7 @@
         <v>600</v>
       </c>
       <c r="W184" s="16" t="s">
-        <v>312</v>
+        <v>475</v>
       </c>
       <c r="X184" s="16" t="s">
         <v>490</v>
@@ -10710,7 +10701,7 @@
         <v>601</v>
       </c>
       <c r="W185" s="20" t="s">
-        <v>415</v>
+        <v>475</v>
       </c>
       <c r="X185" s="20" t="s">
         <v>490</v>
@@ -10754,7 +10745,7 @@
         <v>602</v>
       </c>
       <c r="W186" s="16" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="X186" s="16" t="s">
         <v>490</v>
@@ -10798,7 +10789,7 @@
         <v>603</v>
       </c>
       <c r="W187" s="20" t="s">
-        <v>475</v>
+        <v>418</v>
       </c>
       <c r="X187" s="20" t="s">
         <v>490</v>
@@ -10842,7 +10833,7 @@
         <v>604</v>
       </c>
       <c r="W188" s="16" t="s">
-        <v>475</v>
+        <v>300</v>
       </c>
       <c r="X188" s="16" t="s">
         <v>490</v>
@@ -10886,7 +10877,7 @@
         <v>605</v>
       </c>
       <c r="W189" s="20" t="s">
-        <v>418</v>
+        <v>300</v>
       </c>
       <c r="X189" s="20" t="s">
         <v>490</v>
@@ -10930,7 +10921,7 @@
         <v>606</v>
       </c>
       <c r="W190" s="16" t="s">
-        <v>418</v>
+        <v>336</v>
       </c>
       <c r="X190" s="16" t="s">
         <v>490</v>
@@ -10974,7 +10965,7 @@
         <v>607</v>
       </c>
       <c r="W191" s="20" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="X191" s="20" t="s">
         <v>490</v>
@@ -11018,7 +11009,7 @@
         <v>608</v>
       </c>
       <c r="W192" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="X192" s="16" t="s">
         <v>490</v>
@@ -11062,7 +11053,7 @@
         <v>609</v>
       </c>
       <c r="W193" s="20" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="X193" s="20" t="s">
         <v>490</v>
@@ -11106,7 +11097,7 @@
         <v>610</v>
       </c>
       <c r="W194" s="16" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="X194" s="16" t="s">
         <v>490</v>
@@ -11150,7 +11141,7 @@
         <v>611</v>
       </c>
       <c r="W195" s="20" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="X195" s="20" t="s">
         <v>490</v>
@@ -11194,7 +11185,7 @@
         <v>612</v>
       </c>
       <c r="W196" s="16" t="s">
-        <v>299</v>
+        <v>412</v>
       </c>
       <c r="X196" s="16" t="s">
         <v>490</v>
@@ -11220,7 +11211,7 @@
         <v>613</v>
       </c>
       <c r="W197" s="20" t="s">
-        <v>306</v>
+        <v>412</v>
       </c>
       <c r="X197" s="20" t="s">
         <v>490</v>
@@ -11246,7 +11237,7 @@
         <v>614</v>
       </c>
       <c r="W198" s="16" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="X198" s="16" t="s">
         <v>490</v>
@@ -11272,7 +11263,7 @@
         <v>615</v>
       </c>
       <c r="W199" s="20" t="s">
-        <v>412</v>
+        <v>319</v>
       </c>
       <c r="X199" s="20" t="s">
         <v>490</v>
@@ -11298,7 +11289,7 @@
         <v>616</v>
       </c>
       <c r="W200" s="16" t="s">
-        <v>412</v>
+        <v>356</v>
       </c>
       <c r="X200" s="16" t="s">
         <v>490</v>
@@ -11324,7 +11315,7 @@
         <v>617</v>
       </c>
       <c r="W201" s="20" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="X201" s="20" t="s">
         <v>490</v>
@@ -11350,7 +11341,7 @@
         <v>618</v>
       </c>
       <c r="W202" s="16" t="s">
-        <v>319</v>
+        <v>466</v>
       </c>
       <c r="X202" s="16" t="s">
         <v>490</v>
@@ -11376,7 +11367,7 @@
         <v>619</v>
       </c>
       <c r="W203" s="20" t="s">
-        <v>356</v>
+        <v>466</v>
       </c>
       <c r="X203" s="20" t="s">
         <v>490</v>
@@ -11402,7 +11393,7 @@
         <v>620</v>
       </c>
       <c r="W204" s="16" t="s">
-        <v>356</v>
+        <v>450</v>
       </c>
       <c r="X204" s="16" t="s">
         <v>490</v>
@@ -11428,7 +11419,7 @@
         <v>621</v>
       </c>
       <c r="W205" s="20" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="X205" s="20" t="s">
         <v>490</v>
@@ -11454,7 +11445,7 @@
         <v>622</v>
       </c>
       <c r="W206" s="16" t="s">
-        <v>466</v>
+        <v>440</v>
       </c>
       <c r="X206" s="16" t="s">
         <v>490</v>
@@ -11480,7 +11471,7 @@
         <v>623</v>
       </c>
       <c r="W207" s="20" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="X207" s="20" t="s">
         <v>490</v>
@@ -11506,7 +11497,7 @@
         <v>624</v>
       </c>
       <c r="W208" s="16" t="s">
-        <v>450</v>
+        <v>358</v>
       </c>
       <c r="X208" s="16" t="s">
         <v>490</v>
@@ -11532,7 +11523,7 @@
         <v>625</v>
       </c>
       <c r="W209" s="20" t="s">
-        <v>440</v>
+        <v>358</v>
       </c>
       <c r="X209" s="20" t="s">
         <v>490</v>
@@ -11558,7 +11549,7 @@
         <v>626</v>
       </c>
       <c r="W210" s="16" t="s">
-        <v>440</v>
+        <v>396</v>
       </c>
       <c r="X210" s="16" t="s">
         <v>490</v>
@@ -11584,7 +11575,7 @@
         <v>627</v>
       </c>
       <c r="W211" s="20" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="X211" s="20" t="s">
         <v>490</v>
@@ -11610,7 +11601,7 @@
         <v>628</v>
       </c>
       <c r="W212" s="16" t="s">
-        <v>358</v>
+        <v>411</v>
       </c>
       <c r="X212" s="16" t="s">
         <v>490</v>
@@ -11636,7 +11627,7 @@
         <v>629</v>
       </c>
       <c r="W213" s="20" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="X213" s="20" t="s">
         <v>490</v>
@@ -11650,7 +11641,7 @@
         <v>630</v>
       </c>
       <c r="W214" s="16" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="X214" s="16" t="s">
         <v>490</v>
@@ -11664,7 +11655,7 @@
         <v>631</v>
       </c>
       <c r="W215" s="20" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="X215" s="20" t="s">
         <v>490</v>
@@ -11678,7 +11669,7 @@
         <v>632</v>
       </c>
       <c r="W216" s="16" t="s">
-        <v>411</v>
+        <v>350</v>
       </c>
       <c r="X216" s="16" t="s">
         <v>490</v>
@@ -11692,7 +11683,7 @@
         <v>633</v>
       </c>
       <c r="W217" s="20" t="s">
-        <v>401</v>
+        <v>350</v>
       </c>
       <c r="X217" s="20" t="s">
         <v>490</v>
@@ -11706,7 +11697,7 @@
         <v>634</v>
       </c>
       <c r="W218" s="16" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="X218" s="16" t="s">
         <v>490</v>
@@ -11720,7 +11711,7 @@
         <v>635</v>
       </c>
       <c r="W219" s="20" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="X219" s="20" t="s">
         <v>490</v>
@@ -11734,7 +11725,7 @@
         <v>636</v>
       </c>
       <c r="W220" s="16" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="X220" s="16" t="s">
         <v>490</v>
@@ -11748,7 +11739,7 @@
         <v>637</v>
       </c>
       <c r="W221" s="20" t="s">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="X221" s="20" t="s">
         <v>490</v>
@@ -11762,7 +11753,7 @@
         <v>638</v>
       </c>
       <c r="W222" s="16" t="s">
-        <v>390</v>
+        <v>461</v>
       </c>
       <c r="X222" s="16" t="s">
         <v>490</v>
@@ -11776,51 +11767,9 @@
         <v>639</v>
       </c>
       <c r="W223" s="20" t="s">
-        <v>352</v>
+        <v>461</v>
       </c>
       <c r="X223" s="20" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="224" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="U224" s="16" t="s">
-        <v>488</v>
-      </c>
-      <c r="V224" s="16" t="s">
-        <v>640</v>
-      </c>
-      <c r="W224" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="X224" s="16" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="225" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U225" s="20" t="s">
-        <v>488</v>
-      </c>
-      <c r="V225" s="20" t="s">
-        <v>641</v>
-      </c>
-      <c r="W225" s="20" t="s">
-        <v>461</v>
-      </c>
-      <c r="X225" s="20" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="226" spans="21:24" x14ac:dyDescent="0.45">
-      <c r="U226" s="16" t="s">
-        <v>488</v>
-      </c>
-      <c r="V226" s="16" t="s">
-        <v>642</v>
-      </c>
-      <c r="W226" s="16" t="s">
-        <v>461</v>
-      </c>
-      <c r="X226" s="16" t="s">
         <v>490</v>
       </c>
     </row>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D46B754E-9F6F-4516-8820-D707A41ADAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2520C742-C8A6-44DE-A420-AFB0866F7579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2257,7 +2257,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E576FFA-8BAC-1CBC-AB7F-2ACF604E85B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B110F45F-03AD-0296-B293-F490502EBD9B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2608,7 +2608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE817A23-D02E-4C3B-8E86-E2FD971F7D8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97AA284-FA45-4C93-9372-F85B43EE820A}">
   <dimension ref="A1:AD223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2520C742-C8A6-44DE-A420-AFB0866F7579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C57B56F8-7AEB-4076-A1D5-CB35D2E9B9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2257,7 +2257,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B110F45F-03AD-0296-B293-F490502EBD9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA323EE1-DEEB-6956-3B73-DCF738A34673}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2608,7 +2608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97AA284-FA45-4C93-9372-F85B43EE820A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCCA3AAF-4B48-4D07-8CE1-9579B0DD3581}">
   <dimension ref="A1:AD223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E980E379-A442-4938-8035-73207065F3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED782FC7-4202-4A94-AD83-3CF76F82F02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2822" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2839" uniqueCount="576">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -1801,6 +1801,30 @@
   </si>
   <si>
     <t>EN_STG4hbNREL_w55698557-225</t>
+  </si>
+  <si>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>limtype</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>com_bndprd</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>Trd_electricity import</t>
+  </si>
+  <si>
+    <t>e_CH40-220,e_CH48-225,e_CH51-225,e_CH51-400,e_CH57-225,e_r7933294-380,e_w111162936-400,e_w127004407-380,e_w127004407-400,e_w207991759-380,e_w260211728-225,e_w281804158-380,e_w391576135-220,e_w397960460-380,e_w397960460-400,e_w455120191-220,e_w50319857-220,e_w50319857-380,e_w50319857-400,e_w802058337-220,e_w88901626-380,e_w969811258-380,e_w98648381-220,e_w98648381-380</t>
+  </si>
+  <si>
+    <t>Trd_electricity export</t>
   </si>
 </sst>
 </file>
@@ -1956,7 +1980,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1971,15 +1995,20 @@
     <xf numFmtId="2" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2018,7 +2047,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E5BDA80-CDDF-6144-FEF2-AA8F40F94BAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3848F279-815B-AEFA-372D-BAE5AD5F7C58}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2369,12 +2398,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BEE9C7-3422-4377-8D6F-EBB7022CC343}">
-  <dimension ref="A1:X223"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8513B03-D726-44E9-97EC-BD4D6EAC3DE8}">
+  <dimension ref="A1:AH223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2390,21 +2417,24 @@
     <col min="22" max="22" width="30.59765625" customWidth="1"/>
     <col min="23" max="23" width="15.3984375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10.59765625" customWidth="1"/>
+    <col min="32" max="32" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="30.59765625" customWidth="1"/>
+    <col min="34" max="34" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:34" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="2" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:34" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -2417,6869 +2447,6926 @@
       <c r="U2" s="8" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="9" t="s">
+      <c r="AF2" s="8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="U3" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="V3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="W3" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="X3" s="15" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="B4" s="10" t="s">
+      <c r="AA3" t="s">
+        <v>284</v>
+      </c>
+      <c r="AF3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG3" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="AH3" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B4" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="17">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="18">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="19">
         <v>1.2E-4</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="24">
         <v>1.3631777184654791E-2</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="Q4" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="R4" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="U4" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V4" s="10" t="s">
+      <c r="U4" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V4" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="W4" s="10" t="s">
+      <c r="W4" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="X4" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="B5" s="12" t="s">
+      <c r="X4" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>285</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>569</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>571</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>572</v>
+      </c>
+      <c r="AF4" s="16" t="s">
+        <v>573</v>
+      </c>
+      <c r="AG4" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="AH4" s="16" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B5" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="22">
         <v>16.5</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="23">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="25">
         <v>1.2311932959346159E-2</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="P5" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="Q5" s="12" t="s">
+      <c r="Q5" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="R5" s="12" t="s">
+      <c r="R5" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="U5" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V5" s="12" t="s">
+      <c r="U5" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V5" s="20" t="s">
         <v>385</v>
       </c>
-      <c r="W5" s="12" t="s">
+      <c r="W5" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="X5" s="12" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="B6" s="10" t="s">
+      <c r="X5" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>568</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>570</v>
+      </c>
+      <c r="AC5">
+        <v>2</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="20" t="s">
+        <v>575</v>
+      </c>
+      <c r="AG5" s="20" t="s">
+        <v>574</v>
+      </c>
+      <c r="AH5" s="20" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B6" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="17">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="18">
         <v>102.30000000000001</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="19">
         <v>5.5799999999999999E-3</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="24">
         <v>2.7222831327547718E-2</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="Q6" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="R6" s="10" t="s">
+      <c r="R6" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="U6" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V6" s="10" t="s">
+      <c r="U6" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V6" s="16" t="s">
         <v>386</v>
       </c>
-      <c r="W6" s="10" t="s">
+      <c r="W6" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="X6" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="B7" s="12" t="s">
+      <c r="X6" s="16" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B7" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="21">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="22">
         <v>102.30000000000001</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="23">
         <v>5.5799999999999999E-3</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="25">
         <v>1.8013158806011429E-2</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="P7" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="Q7" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="R7" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="U7" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V7" s="12" t="s">
+      <c r="U7" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V7" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="W7" s="12" t="s">
+      <c r="W7" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="X7" s="12" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="B8" s="10" t="s">
+      <c r="X7" s="20" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B8" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="17">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="18">
         <v>6.6000000000000005</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="19">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="24">
         <v>1.5239815243970646E-2</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="P8" s="10" t="s">
+      <c r="P8" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="Q8" s="10" t="s">
+      <c r="Q8" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="R8" s="10" t="s">
+      <c r="R8" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="U8" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V8" s="10" t="s">
+      <c r="U8" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V8" s="16" t="s">
         <v>388</v>
       </c>
-      <c r="W8" s="10" t="s">
+      <c r="W8" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="X8" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="B9" s="12" t="s">
+      <c r="X8" s="16" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B9" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="21">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="22">
         <v>19.8</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="23">
         <v>1.08E-3</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="25">
         <v>0.11649121947148119</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="P9" s="12" t="s">
+      <c r="P9" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="Q9" s="12" t="s">
+      <c r="Q9" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="R9" s="12" t="s">
+      <c r="R9" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="U9" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V9" s="12" t="s">
+      <c r="U9" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V9" s="20" t="s">
         <v>389</v>
       </c>
-      <c r="W9" s="12" t="s">
+      <c r="W9" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="X9" s="12" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="B10" s="10" t="s">
+      <c r="X9" s="20" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B10" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="17">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="18">
         <v>116.60000000000001</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="19">
         <v>6.3600000000000002E-3</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="24">
         <v>1.9284622665466145E-2</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="P10" s="10" t="s">
+      <c r="P10" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="Q10" s="10" t="s">
+      <c r="Q10" s="16" t="s">
         <v>357</v>
       </c>
-      <c r="R10" s="10" t="s">
+      <c r="R10" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="U10" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V10" s="10" t="s">
+      <c r="U10" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V10" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="W10" s="10" t="s">
+      <c r="W10" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="X10" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="B11" s="12" t="s">
+      <c r="X10" s="16" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B11" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="21">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="22">
         <v>18.700000000000003</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="23">
         <v>1.0200000000000001E-3</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="25">
         <v>0.16184067722567619</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="P11" s="12" t="s">
+      <c r="P11" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="Q11" s="12" t="s">
+      <c r="Q11" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="R11" s="12" t="s">
+      <c r="R11" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="U11" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V11" s="12" t="s">
+      <c r="U11" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V11" s="20" t="s">
         <v>391</v>
       </c>
-      <c r="W11" s="12" t="s">
+      <c r="W11" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="X11" s="12" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="B12" s="10" t="s">
+      <c r="X11" s="20" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B12" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="17">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="18">
         <v>88</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="19">
         <v>4.8000000000000004E-3</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="24">
         <v>1.3250303220799708E-2</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="P12" s="10" t="s">
+      <c r="P12" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="Q12" s="10" t="s">
+      <c r="Q12" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="R12" s="10" t="s">
+      <c r="R12" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="U12" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V12" s="10" t="s">
+      <c r="U12" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V12" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="W12" s="10" t="s">
+      <c r="W12" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="X12" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="B13" s="12" t="s">
+      <c r="X12" s="16" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B13" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="22">
         <v>37.400000000000006</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="23">
         <v>2.0400000000000001E-3</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="25">
         <v>8.5877237751744287E-2</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="P13" s="12" t="s">
+      <c r="P13" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="Q13" s="12" t="s">
+      <c r="Q13" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="R13" s="12" t="s">
+      <c r="R13" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="U13" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V13" s="12" t="s">
+      <c r="U13" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V13" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="W13" s="12" t="s">
+      <c r="W13" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="X13" s="12" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="B14" s="10" t="s">
+      <c r="X13" s="20" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B14" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="17">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="18">
         <v>3.3000000000000003</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="19">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="24">
         <v>6.3492791069770058E-2</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="P14" s="10" t="s">
+      <c r="P14" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="Q14" s="10" t="s">
+      <c r="Q14" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="R14" s="10" t="s">
+      <c r="R14" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="U14" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V14" s="10" t="s">
+      <c r="U14" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V14" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="W14" s="10" t="s">
+      <c r="W14" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="X14" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="B15" s="12" t="s">
+      <c r="X14" s="16" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B15" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="21">
         <v>3.3962050000000001</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="22">
         <v>19.8</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="23">
         <v>1.08E-3</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="25">
         <v>3.3475036448649485E-2</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="P15" s="12" t="s">
+      <c r="P15" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="Q15" s="12" t="s">
+      <c r="Q15" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="R15" s="12" t="s">
+      <c r="R15" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="U15" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V15" s="12" t="s">
+      <c r="U15" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V15" s="20" t="s">
         <v>395</v>
       </c>
-      <c r="W15" s="12" t="s">
+      <c r="W15" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="X15" s="12" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="B16" s="10" t="s">
+      <c r="X15" s="20" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B16" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="17">
         <v>3.3962050000000001</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="18">
         <v>18.700000000000003</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="19">
         <v>1.0200000000000001E-3</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="24">
         <v>1.7562072804956651E-2</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="P16" s="10" t="s">
+      <c r="P16" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="Q16" s="10" t="s">
+      <c r="Q16" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="R16" s="10" t="s">
+      <c r="R16" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="U16" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V16" s="10" t="s">
+      <c r="U16" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V16" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="W16" s="10" t="s">
+      <c r="W16" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="X16" s="10" t="s">
+      <c r="X16" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="22">
         <v>59.400000000000006</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="23">
         <v>3.2400000000000003E-3</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="25">
         <v>1.3653008856000667E-2</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="P17" s="12" t="s">
+      <c r="P17" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="Q17" s="12" t="s">
+      <c r="Q17" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="R17" s="12" t="s">
+      <c r="R17" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="U17" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V17" s="12" t="s">
+      <c r="U17" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V17" s="20" t="s">
         <v>397</v>
       </c>
-      <c r="W17" s="12" t="s">
+      <c r="W17" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="X17" s="12" t="s">
+      <c r="X17" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="17">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="18">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="19">
         <v>2.4000000000000001E-4</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I18" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="24">
         <v>2.521347987377489E-2</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K18" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="P18" s="10" t="s">
+      <c r="P18" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="Q18" s="10" t="s">
+      <c r="Q18" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="R18" s="10" t="s">
+      <c r="R18" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="U18" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V18" s="10" t="s">
+      <c r="U18" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V18" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="W18" s="10" t="s">
+      <c r="W18" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="X18" s="10" t="s">
+      <c r="X18" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="21">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="22">
         <v>5.5</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="23">
         <v>3.0000000000000003E-4</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="I19" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="25">
         <v>1.5247820628248601E-2</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="K19" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="P19" s="12" t="s">
+      <c r="P19" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="Q19" s="12" t="s">
+      <c r="Q19" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="R19" s="12" t="s">
+      <c r="R19" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="U19" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V19" s="12" t="s">
+      <c r="U19" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V19" s="20" t="s">
         <v>400</v>
       </c>
-      <c r="W19" s="12" t="s">
+      <c r="W19" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="X19" s="12" t="s">
+      <c r="X19" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="17">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="18">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="19">
         <v>2.4000000000000001E-4</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="24">
         <v>4.9988751973376933E-2</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="K20" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="P20" s="10" t="s">
+      <c r="P20" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="Q20" s="10" t="s">
+      <c r="Q20" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="R20" s="10" t="s">
+      <c r="R20" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="U20" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V20" s="10" t="s">
+      <c r="U20" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V20" s="16" t="s">
         <v>401</v>
       </c>
-      <c r="W20" s="10" t="s">
+      <c r="W20" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="X20" s="10" t="s">
+      <c r="X20" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="22">
         <v>3.3000000000000003</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="23">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J21" s="25">
         <v>1.2080472935656804E-2</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="K21" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="P21" s="12" t="s">
+      <c r="P21" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="Q21" s="12" t="s">
+      <c r="Q21" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="R21" s="12" t="s">
+      <c r="R21" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="U21" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V21" s="12" t="s">
+      <c r="U21" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V21" s="20" t="s">
         <v>402</v>
       </c>
-      <c r="W21" s="12" t="s">
+      <c r="W21" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="X21" s="12" t="s">
+      <c r="X21" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="17">
         <v>3.3962050000000001</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="18">
         <v>11</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="19">
         <v>6.0000000000000006E-4</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="I22" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="J22" s="18">
+      <c r="J22" s="24">
         <v>1.6554438566489207E-2</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="K22" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="P22" s="10" t="s">
+      <c r="P22" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="Q22" s="10" t="s">
+      <c r="Q22" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="R22" s="10" t="s">
+      <c r="R22" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="U22" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V22" s="10" t="s">
+      <c r="U22" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V22" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="W22" s="10" t="s">
+      <c r="W22" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="X22" s="10" t="s">
+      <c r="X22" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="21">
         <v>1.4746679999999999</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="23">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J23" s="25">
         <v>1.8665075534387742E-2</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="K23" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="P23" s="12" t="s">
+      <c r="P23" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="Q23" s="12" t="s">
+      <c r="Q23" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="R23" s="12" t="s">
+      <c r="R23" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="U23" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V23" s="12" t="s">
+      <c r="U23" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V23" s="20" t="s">
         <v>404</v>
       </c>
-      <c r="W23" s="12" t="s">
+      <c r="W23" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="X23" s="12" t="s">
+      <c r="X23" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="17">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="18">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="19">
         <v>2.4000000000000001E-4</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="I24" s="10" t="s">
+      <c r="I24" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="J24" s="18">
+      <c r="J24" s="24">
         <v>2.4425123552486872E-2</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="K24" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="P24" s="10" t="s">
+      <c r="P24" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="Q24" s="10" t="s">
+      <c r="Q24" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="R24" s="10" t="s">
+      <c r="R24" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="U24" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V24" s="10" t="s">
+      <c r="U24" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V24" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="W24" s="10" t="s">
+      <c r="W24" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="X24" s="10" t="s">
+      <c r="X24" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="22">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="23">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="J25" s="19">
+      <c r="J25" s="25">
         <v>3.0907048396348204E-2</v>
       </c>
-      <c r="K25" s="12" t="s">
+      <c r="K25" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="P25" s="12" t="s">
+      <c r="P25" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="Q25" s="12" t="s">
+      <c r="Q25" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="R25" s="12" t="s">
+      <c r="R25" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="U25" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V25" s="12" t="s">
+      <c r="U25" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V25" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="W25" s="12" t="s">
+      <c r="W25" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="X25" s="12" t="s">
+      <c r="X25" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="17">
         <v>1.4746679999999999</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="18">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="19">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="I26" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="J26" s="18">
+      <c r="J26" s="24">
         <v>1.28726579189907E-2</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="P26" s="10" t="s">
+      <c r="P26" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="Q26" s="10" t="s">
+      <c r="Q26" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="R26" s="10" t="s">
+      <c r="R26" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="U26" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V26" s="10" t="s">
+      <c r="U26" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V26" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="W26" s="10" t="s">
+      <c r="W26" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="X26" s="10" t="s">
+      <c r="X26" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="22">
         <v>3.3000000000000003</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="23">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="I27" s="12" t="s">
+      <c r="I27" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="J27" s="19">
+      <c r="J27" s="25">
         <v>1.3400317160965335E-2</v>
       </c>
-      <c r="K27" s="12" t="s">
+      <c r="K27" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="P27" s="12" t="s">
+      <c r="P27" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="Q27" s="12" t="s">
+      <c r="Q27" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="R27" s="12" t="s">
+      <c r="R27" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="U27" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V27" s="12" t="s">
+      <c r="U27" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V27" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="W27" s="12" t="s">
+      <c r="W27" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="X27" s="12" t="s">
+      <c r="X27" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="17">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="18">
         <v>3.3000000000000003</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="19">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I28" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="J28" s="18">
+      <c r="J28" s="24">
         <v>3.7135933484988115E-2</v>
       </c>
-      <c r="K28" s="10" t="s">
+      <c r="K28" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="P28" s="10" t="s">
+      <c r="P28" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="Q28" s="10" t="s">
+      <c r="Q28" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="R28" s="10" t="s">
+      <c r="R28" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="U28" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V28" s="10" t="s">
+      <c r="U28" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V28" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="W28" s="10" t="s">
+      <c r="W28" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="X28" s="10" t="s">
+      <c r="X28" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="21">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="22">
         <v>12.100000000000001</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="23">
         <v>6.6E-4</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="H29" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="I29" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="J29" s="19">
+      <c r="J29" s="25">
         <v>1.2570193617357459E-2</v>
       </c>
-      <c r="K29" s="12" t="s">
+      <c r="K29" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="P29" s="12" t="s">
+      <c r="P29" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="Q29" s="12" t="s">
+      <c r="Q29" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="R29" s="12" t="s">
+      <c r="R29" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="U29" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V29" s="12" t="s">
+      <c r="U29" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V29" s="20" t="s">
         <v>410</v>
       </c>
-      <c r="W29" s="12" t="s">
+      <c r="W29" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="X29" s="12" t="s">
+      <c r="X29" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="17">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="18">
         <v>19.8</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="19">
         <v>1.08E-3</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H30" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="I30" s="10" t="s">
+      <c r="I30" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="J30" s="18">
+      <c r="J30" s="24">
         <v>2.5148392618993071E-2</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="K30" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="P30" s="10" t="s">
+      <c r="P30" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="Q30" s="10" t="s">
+      <c r="Q30" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="R30" s="10" t="s">
+      <c r="R30" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="U30" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V30" s="10" t="s">
+      <c r="U30" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V30" s="16" t="s">
         <v>411</v>
       </c>
-      <c r="W30" s="10" t="s">
+      <c r="W30" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="X30" s="10" t="s">
+      <c r="X30" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="21">
         <v>3.3962050000000001</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="22">
         <v>6.6000000000000005</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="23">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="H31" s="12" t="s">
+      <c r="H31" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="I31" s="12" t="s">
+      <c r="I31" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="J31" s="19">
+      <c r="J31" s="25">
         <v>1.5466054364870032E-2</v>
       </c>
-      <c r="K31" s="12" t="s">
+      <c r="K31" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="P31" s="12" t="s">
+      <c r="P31" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="Q31" s="12" t="s">
+      <c r="Q31" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="R31" s="12" t="s">
+      <c r="R31" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="U31" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V31" s="12" t="s">
+      <c r="U31" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V31" s="20" t="s">
         <v>413</v>
       </c>
-      <c r="W31" s="12" t="s">
+      <c r="W31" s="20" t="s">
         <v>412</v>
       </c>
-      <c r="X31" s="12" t="s">
+      <c r="X31" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="17">
         <v>3.3962050000000001</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="18">
         <v>27.500000000000004</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="19">
         <v>1.5E-3</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="I32" s="10" t="s">
+      <c r="I32" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="J32" s="18">
+      <c r="J32" s="24">
         <v>5.89777543369897E-2</v>
       </c>
-      <c r="K32" s="10" t="s">
+      <c r="K32" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="P32" s="10" t="s">
+      <c r="P32" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="Q32" s="10" t="s">
+      <c r="Q32" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="R32" s="10" t="s">
+      <c r="R32" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="U32" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V32" s="10" t="s">
+      <c r="U32" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V32" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="W32" s="10" t="s">
+      <c r="W32" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="X32" s="10" t="s">
+      <c r="X32" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="22">
         <v>39.6</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="23">
         <v>2.16E-3</v>
       </c>
-      <c r="H33" s="12" t="s">
+      <c r="H33" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="I33" s="12" t="s">
+      <c r="I33" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="J33" s="19">
+      <c r="J33" s="25">
         <v>1.3631777184654791E-2</v>
       </c>
-      <c r="K33" s="12" t="s">
+      <c r="K33" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="P33" s="12" t="s">
+      <c r="P33" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="Q33" s="12" t="s">
+      <c r="Q33" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="R33" s="12" t="s">
+      <c r="R33" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="U33" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V33" s="12" t="s">
+      <c r="U33" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V33" s="20" t="s">
         <v>415</v>
       </c>
-      <c r="W33" s="12" t="s">
+      <c r="W33" s="20" t="s">
         <v>412</v>
       </c>
-      <c r="X33" s="12" t="s">
+      <c r="X33" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="34" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="17">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="18">
         <v>26.400000000000002</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="19">
         <v>1.4400000000000001E-3</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="H34" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="I34" s="10" t="s">
+      <c r="I34" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="J34" s="18">
+      <c r="J34" s="24">
         <v>1.2311932959346159E-2</v>
       </c>
-      <c r="K34" s="10" t="s">
+      <c r="K34" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="P34" s="10" t="s">
+      <c r="P34" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="Q34" s="10" t="s">
+      <c r="Q34" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="R34" s="10" t="s">
+      <c r="R34" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="U34" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V34" s="10" t="s">
+      <c r="U34" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V34" s="16" t="s">
         <v>416</v>
       </c>
-      <c r="W34" s="10" t="s">
+      <c r="W34" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="X34" s="10" t="s">
+      <c r="X34" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="35" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="21">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="22">
         <v>6.6000000000000005</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="23">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="H35" s="12" t="s">
+      <c r="H35" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="I35" s="12" t="s">
+      <c r="I35" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="J35" s="19">
+      <c r="J35" s="25">
         <v>2.7222831327547718E-2</v>
       </c>
-      <c r="K35" s="12" t="s">
+      <c r="K35" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="P35" s="12" t="s">
+      <c r="P35" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="Q35" s="12" t="s">
+      <c r="Q35" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="R35" s="12" t="s">
+      <c r="R35" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="U35" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V35" s="12" t="s">
+      <c r="U35" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V35" s="20" t="s">
         <v>417</v>
       </c>
-      <c r="W35" s="12" t="s">
+      <c r="W35" s="20" t="s">
         <v>412</v>
       </c>
-      <c r="X35" s="12" t="s">
+      <c r="X35" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="17">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="18">
         <v>15.400000000000002</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="19">
         <v>8.4000000000000003E-4</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="H36" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="I36" s="10" t="s">
+      <c r="I36" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J36" s="24">
         <v>1.8013158806011429E-2</v>
       </c>
-      <c r="K36" s="10" t="s">
+      <c r="K36" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="P36" s="10" t="s">
+      <c r="P36" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="Q36" s="10" t="s">
+      <c r="Q36" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="R36" s="10" t="s">
+      <c r="R36" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="U36" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V36" s="10" t="s">
+      <c r="U36" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V36" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="W36" s="10" t="s">
+      <c r="W36" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="X36" s="10" t="s">
+      <c r="X36" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="37" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="22">
         <v>18.700000000000003</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="23">
         <v>1.0200000000000001E-3</v>
       </c>
-      <c r="H37" s="12" t="s">
+      <c r="H37" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="I37" s="12" t="s">
+      <c r="I37" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="J37" s="19">
+      <c r="J37" s="25">
         <v>1.5239815243970646E-2</v>
       </c>
-      <c r="K37" s="12" t="s">
+      <c r="K37" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="P37" s="12" t="s">
+      <c r="P37" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="Q37" s="12" t="s">
+      <c r="Q37" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="R37" s="12" t="s">
+      <c r="R37" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="U37" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V37" s="12" t="s">
+      <c r="U37" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V37" s="20" t="s">
         <v>419</v>
       </c>
-      <c r="W37" s="12" t="s">
+      <c r="W37" s="20" t="s">
         <v>412</v>
       </c>
-      <c r="X37" s="12" t="s">
+      <c r="X37" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="17">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D38" s="18">
         <v>3.3000000000000003</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="19">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H38" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="I38" s="10" t="s">
+      <c r="I38" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="J38" s="18">
+      <c r="J38" s="24">
         <v>0.11649121947148119</v>
       </c>
-      <c r="K38" s="10" t="s">
+      <c r="K38" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="P38" s="10" t="s">
+      <c r="P38" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="Q38" s="10" t="s">
+      <c r="Q38" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="R38" s="10" t="s">
+      <c r="R38" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="U38" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V38" s="10" t="s">
+      <c r="U38" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V38" s="16" t="s">
         <v>420</v>
       </c>
-      <c r="W38" s="10" t="s">
+      <c r="W38" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="X38" s="10" t="s">
+      <c r="X38" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="21">
         <v>3.3962050000000001</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="22">
         <v>22</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="23">
         <v>1.2000000000000001E-3</v>
       </c>
-      <c r="H39" s="12" t="s">
+      <c r="H39" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="I39" s="12" t="s">
+      <c r="I39" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="J39" s="19">
+      <c r="J39" s="25">
         <v>1.9284622665466145E-2</v>
       </c>
-      <c r="K39" s="12" t="s">
+      <c r="K39" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="P39" s="12" t="s">
+      <c r="P39" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="Q39" s="12" t="s">
+      <c r="Q39" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="R39" s="12" t="s">
+      <c r="R39" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="U39" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V39" s="12" t="s">
+      <c r="U39" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V39" s="20" t="s">
         <v>421</v>
       </c>
-      <c r="W39" s="12" t="s">
+      <c r="W39" s="20" t="s">
         <v>412</v>
       </c>
-      <c r="X39" s="12" t="s">
+      <c r="X39" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="40" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="17">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D40" s="18">
         <v>3.3000000000000003</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="19">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="H40" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="I40" s="10" t="s">
+      <c r="I40" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="J40" s="18">
+      <c r="J40" s="24">
         <v>0.16184067722567619</v>
       </c>
-      <c r="K40" s="10" t="s">
+      <c r="K40" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="P40" s="10" t="s">
+      <c r="P40" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="Q40" s="10" t="s">
+      <c r="Q40" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="R40" s="10" t="s">
+      <c r="R40" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="U40" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V40" s="10" t="s">
+      <c r="U40" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V40" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="W40" s="10" t="s">
+      <c r="W40" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="X40" s="10" t="s">
+      <c r="X40" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="41" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="21">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D41" s="22">
         <v>14.3</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E41" s="23">
         <v>7.7999999999999999E-4</v>
       </c>
-      <c r="H41" s="12" t="s">
+      <c r="H41" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="I41" s="12" t="s">
+      <c r="I41" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="J41" s="19">
+      <c r="J41" s="25">
         <v>1.3250303220799708E-2</v>
       </c>
-      <c r="K41" s="12" t="s">
+      <c r="K41" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="P41" s="12" t="s">
+      <c r="P41" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="Q41" s="12" t="s">
+      <c r="Q41" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="R41" s="12" t="s">
+      <c r="R41" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="U41" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V41" s="12" t="s">
+      <c r="U41" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V41" s="20" t="s">
         <v>423</v>
       </c>
-      <c r="W41" s="12" t="s">
+      <c r="W41" s="20" t="s">
         <v>412</v>
       </c>
-      <c r="X41" s="12" t="s">
+      <c r="X41" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="42" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="17">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D42" s="18">
         <v>3.3000000000000003</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E42" s="19">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="H42" s="10" t="s">
+      <c r="H42" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="I42" s="10" t="s">
+      <c r="I42" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="J42" s="18">
+      <c r="J42" s="24">
         <v>8.5877237751744287E-2</v>
       </c>
-      <c r="K42" s="10" t="s">
+      <c r="K42" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="P42" s="10" t="s">
+      <c r="P42" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="Q42" s="10" t="s">
+      <c r="Q42" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="R42" s="10" t="s">
+      <c r="R42" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="U42" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V42" s="10" t="s">
+      <c r="U42" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V42" s="16" t="s">
         <v>424</v>
       </c>
-      <c r="W42" s="10" t="s">
+      <c r="W42" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="X42" s="10" t="s">
+      <c r="X42" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="43" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="22">
         <v>16.5</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="23">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="H43" s="12" t="s">
+      <c r="H43" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="I43" s="12" t="s">
+      <c r="I43" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="J43" s="19">
+      <c r="J43" s="25">
         <v>6.3492791069770058E-2</v>
       </c>
-      <c r="K43" s="12" t="s">
+      <c r="K43" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="P43" s="12" t="s">
+      <c r="P43" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="Q43" s="12" t="s">
+      <c r="Q43" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="R43" s="12" t="s">
+      <c r="R43" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="U43" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V43" s="12" t="s">
+      <c r="U43" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V43" s="20" t="s">
         <v>425</v>
       </c>
-      <c r="W43" s="12" t="s">
+      <c r="W43" s="20" t="s">
         <v>426</v>
       </c>
-      <c r="X43" s="12" t="s">
+      <c r="X43" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="44" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="17">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D44" s="18">
         <v>6.6000000000000005</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E44" s="19">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="H44" s="10" t="s">
+      <c r="H44" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="I44" s="10" t="s">
+      <c r="I44" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="J44" s="18">
+      <c r="J44" s="24">
         <v>3.3475036448649485E-2</v>
       </c>
-      <c r="K44" s="10" t="s">
+      <c r="K44" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="P44" s="10" t="s">
+      <c r="P44" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="Q44" s="10" t="s">
+      <c r="Q44" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="R44" s="10" t="s">
+      <c r="R44" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="U44" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V44" s="10" t="s">
+      <c r="U44" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V44" s="16" t="s">
         <v>425</v>
       </c>
-      <c r="W44" s="10" t="s">
+      <c r="W44" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="X44" s="10" t="s">
+      <c r="X44" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="45" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D45" s="22">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="23">
         <v>2.4000000000000001E-4</v>
       </c>
-      <c r="H45" s="12" t="s">
+      <c r="H45" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="I45" s="12" t="s">
+      <c r="I45" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="J45" s="19">
+      <c r="J45" s="25">
         <v>1.7562072804956651E-2</v>
       </c>
-      <c r="K45" s="12" t="s">
+      <c r="K45" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="P45" s="12" t="s">
+      <c r="P45" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="Q45" s="12" t="s">
+      <c r="Q45" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="R45" s="12" t="s">
+      <c r="R45" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="U45" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V45" s="12" t="s">
+      <c r="U45" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V45" s="20" t="s">
         <v>425</v>
       </c>
-      <c r="W45" s="12" t="s">
+      <c r="W45" s="20" t="s">
         <v>426</v>
       </c>
-      <c r="X45" s="12" t="s">
+      <c r="X45" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="46" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="17">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D46" s="18">
         <v>49.500000000000007</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E46" s="19">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="H46" s="10" t="s">
+      <c r="H46" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="I46" s="10" t="s">
+      <c r="I46" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="J46" s="18">
+      <c r="J46" s="24">
         <v>1.3653008856000667E-2</v>
       </c>
-      <c r="K46" s="10" t="s">
+      <c r="K46" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="P46" s="10" t="s">
+      <c r="P46" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="Q46" s="10" t="s">
+      <c r="Q46" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="R46" s="10" t="s">
+      <c r="R46" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="U46" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V46" s="10" t="s">
+      <c r="U46" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V46" s="16" t="s">
         <v>427</v>
       </c>
-      <c r="W46" s="10" t="s">
+      <c r="W46" s="16" t="s">
         <v>428</v>
       </c>
-      <c r="X46" s="10" t="s">
+      <c r="X46" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="47" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C47" s="21">
         <v>3.3962050000000001</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D47" s="22">
         <v>9.9</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E47" s="23">
         <v>5.4000000000000001E-4</v>
       </c>
-      <c r="H47" s="12" t="s">
+      <c r="H47" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="I47" s="12" t="s">
+      <c r="I47" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="J47" s="19">
+      <c r="J47" s="25">
         <v>2.521347987377489E-2</v>
       </c>
-      <c r="K47" s="12" t="s">
+      <c r="K47" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="P47" s="12" t="s">
+      <c r="P47" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="Q47" s="12" t="s">
+      <c r="Q47" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="R47" s="12" t="s">
+      <c r="R47" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="U47" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V47" s="12" t="s">
+      <c r="U47" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V47" s="20" t="s">
         <v>427</v>
       </c>
-      <c r="W47" s="12" t="s">
+      <c r="W47" s="20" t="s">
         <v>428</v>
       </c>
-      <c r="X47" s="12" t="s">
+      <c r="X47" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="48" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="17">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D48" s="18">
         <v>20.900000000000002</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E48" s="19">
         <v>1.14E-3</v>
       </c>
-      <c r="H48" s="10" t="s">
+      <c r="H48" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="I48" s="10" t="s">
+      <c r="I48" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="J48" s="18">
+      <c r="J48" s="24">
         <v>1.5247820628248601E-2</v>
       </c>
-      <c r="K48" s="10" t="s">
+      <c r="K48" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="P48" s="10" t="s">
+      <c r="P48" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="Q48" s="10" t="s">
+      <c r="Q48" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="R48" s="10" t="s">
+      <c r="R48" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="U48" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V48" s="10" t="s">
+      <c r="U48" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V48" s="16" t="s">
         <v>427</v>
       </c>
-      <c r="W48" s="10" t="s">
+      <c r="W48" s="16" t="s">
         <v>428</v>
       </c>
-      <c r="X48" s="10" t="s">
+      <c r="X48" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D49" s="16">
+      <c r="D49" s="22">
         <v>3.3000000000000003</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E49" s="23">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="H49" s="12" t="s">
+      <c r="H49" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="I49" s="12" t="s">
+      <c r="I49" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="J49" s="19">
+      <c r="J49" s="25">
         <v>4.9988751973376933E-2</v>
       </c>
-      <c r="K49" s="12" t="s">
+      <c r="K49" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="P49" s="12" t="s">
+      <c r="P49" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="Q49" s="12" t="s">
+      <c r="Q49" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="R49" s="12" t="s">
+      <c r="R49" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="U49" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V49" s="12" t="s">
+      <c r="U49" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V49" s="20" t="s">
         <v>429</v>
       </c>
-      <c r="W49" s="12" t="s">
+      <c r="W49" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="X49" s="12" t="s">
+      <c r="X49" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="50" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="17">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D50" s="18">
         <v>14.3</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E50" s="19">
         <v>7.7999999999999999E-4</v>
       </c>
-      <c r="H50" s="10" t="s">
+      <c r="H50" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="I50" s="10" t="s">
+      <c r="I50" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="J50" s="18">
+      <c r="J50" s="24">
         <v>1.2080472935656804E-2</v>
       </c>
-      <c r="K50" s="10" t="s">
+      <c r="K50" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="P50" s="10" t="s">
+      <c r="P50" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="Q50" s="10" t="s">
+      <c r="Q50" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="R50" s="10" t="s">
+      <c r="R50" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="U50" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V50" s="10" t="s">
+      <c r="U50" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V50" s="16" t="s">
         <v>429</v>
       </c>
-      <c r="W50" s="10" t="s">
+      <c r="W50" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="X50" s="10" t="s">
+      <c r="X50" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D51" s="22">
         <v>23.1</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E51" s="23">
         <v>1.2600000000000001E-3</v>
       </c>
-      <c r="H51" s="12" t="s">
+      <c r="H51" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="I51" s="12" t="s">
+      <c r="I51" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="J51" s="19">
+      <c r="J51" s="25">
         <v>1.6554438566489207E-2</v>
       </c>
-      <c r="K51" s="12" t="s">
+      <c r="K51" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="P51" s="12" t="s">
+      <c r="P51" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="Q51" s="12" t="s">
+      <c r="Q51" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="R51" s="12" t="s">
+      <c r="R51" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="U51" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V51" s="12" t="s">
+      <c r="U51" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V51" s="20" t="s">
         <v>429</v>
       </c>
-      <c r="W51" s="12" t="s">
+      <c r="W51" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="X51" s="12" t="s">
+      <c r="X51" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="52" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="17">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D52" s="14">
+      <c r="D52" s="18">
         <v>41.800000000000004</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E52" s="19">
         <v>2.2799999999999999E-3</v>
       </c>
-      <c r="H52" s="10" t="s">
+      <c r="H52" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="I52" s="10" t="s">
+      <c r="I52" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="J52" s="18">
+      <c r="J52" s="24">
         <v>1.8665075534387742E-2</v>
       </c>
-      <c r="K52" s="10" t="s">
+      <c r="K52" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="P52" s="10" t="s">
+      <c r="P52" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="Q52" s="10" t="s">
+      <c r="Q52" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="R52" s="10" t="s">
+      <c r="R52" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="U52" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V52" s="10" t="s">
+      <c r="U52" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V52" s="16" t="s">
         <v>431</v>
       </c>
-      <c r="W52" s="10" t="s">
+      <c r="W52" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="X52" s="10" t="s">
+      <c r="X52" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C53" s="13">
+      <c r="C53" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D53" s="22">
         <v>11</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E53" s="23">
         <v>6.0000000000000006E-4</v>
       </c>
-      <c r="H53" s="12" t="s">
+      <c r="H53" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="I53" s="12" t="s">
+      <c r="I53" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="J53" s="19">
+      <c r="J53" s="25">
         <v>2.4425123552486872E-2</v>
       </c>
-      <c r="K53" s="12" t="s">
+      <c r="K53" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="P53" s="12" t="s">
+      <c r="P53" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="Q53" s="12" t="s">
+      <c r="Q53" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="R53" s="12" t="s">
+      <c r="R53" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="U53" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V53" s="12" t="s">
+      <c r="U53" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V53" s="20" t="s">
         <v>431</v>
       </c>
-      <c r="W53" s="12" t="s">
+      <c r="W53" s="20" t="s">
         <v>432</v>
       </c>
-      <c r="X53" s="12" t="s">
+      <c r="X53" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54" s="17">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D54" s="18">
         <v>30.800000000000004</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E54" s="19">
         <v>1.6800000000000001E-3</v>
       </c>
-      <c r="H54" s="10" t="s">
+      <c r="H54" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="I54" s="10" t="s">
+      <c r="I54" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="J54" s="18">
+      <c r="J54" s="24">
         <v>3.0907048396348204E-2</v>
       </c>
-      <c r="K54" s="10" t="s">
+      <c r="K54" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="P54" s="10" t="s">
+      <c r="P54" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="Q54" s="10" t="s">
+      <c r="Q54" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="R54" s="10" t="s">
+      <c r="R54" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="U54" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V54" s="10" t="s">
+      <c r="U54" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V54" s="16" t="s">
         <v>431</v>
       </c>
-      <c r="W54" s="10" t="s">
+      <c r="W54" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="X54" s="10" t="s">
+      <c r="X54" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C55" s="13">
+      <c r="C55" s="21">
         <v>1.0054560000000001</v>
       </c>
-      <c r="D55" s="16">
+      <c r="D55" s="22">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E55" s="23">
         <v>1.2E-4</v>
       </c>
-      <c r="H55" s="12" t="s">
+      <c r="H55" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="I55" s="12" t="s">
+      <c r="I55" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="J55" s="19">
+      <c r="J55" s="25">
         <v>1.28726579189907E-2</v>
       </c>
-      <c r="K55" s="12" t="s">
+      <c r="K55" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="P55" s="12" t="s">
+      <c r="P55" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="Q55" s="12" t="s">
+      <c r="Q55" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="R55" s="12" t="s">
+      <c r="R55" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="U55" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V55" s="12" t="s">
+      <c r="U55" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V55" s="20" t="s">
         <v>433</v>
       </c>
-      <c r="W55" s="12" t="s">
+      <c r="W55" s="20" t="s">
         <v>434</v>
       </c>
-      <c r="X55" s="12" t="s">
+      <c r="X55" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="56" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C56" s="17">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D56" s="14">
+      <c r="D56" s="18">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E56" s="19">
         <v>1.2E-4</v>
       </c>
-      <c r="H56" s="10" t="s">
+      <c r="H56" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="I56" s="10" t="s">
+      <c r="I56" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="J56" s="18">
+      <c r="J56" s="24">
         <v>1.3400317160965335E-2</v>
       </c>
-      <c r="K56" s="10" t="s">
+      <c r="K56" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="P56" s="10" t="s">
+      <c r="P56" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="Q56" s="10" t="s">
+      <c r="Q56" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="R56" s="10" t="s">
+      <c r="R56" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="U56" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V56" s="10" t="s">
+      <c r="U56" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V56" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="W56" s="10" t="s">
+      <c r="W56" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="X56" s="10" t="s">
+      <c r="X56" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C57" s="21">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D57" s="16">
+      <c r="D57" s="22">
         <v>24.200000000000003</v>
       </c>
-      <c r="E57" s="17">
+      <c r="E57" s="23">
         <v>1.32E-3</v>
       </c>
-      <c r="H57" s="12" t="s">
+      <c r="H57" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="I57" s="12" t="s">
+      <c r="I57" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="J57" s="19">
+      <c r="J57" s="25">
         <v>3.7135933484988115E-2</v>
       </c>
-      <c r="K57" s="12" t="s">
+      <c r="K57" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="P57" s="12" t="s">
+      <c r="P57" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="Q57" s="12" t="s">
+      <c r="Q57" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="R57" s="12" t="s">
+      <c r="R57" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="U57" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V57" s="12" t="s">
+      <c r="U57" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V57" s="20" t="s">
         <v>433</v>
       </c>
-      <c r="W57" s="12" t="s">
+      <c r="W57" s="20" t="s">
         <v>434</v>
       </c>
-      <c r="X57" s="12" t="s">
+      <c r="X57" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C58" s="17">
         <v>1.005455</v>
       </c>
-      <c r="D58" s="14">
+      <c r="D58" s="18">
         <v>12.100000000000001</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E58" s="19">
         <v>6.6E-4</v>
       </c>
-      <c r="H58" s="10" t="s">
+      <c r="H58" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="I58" s="10" t="s">
+      <c r="I58" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="J58" s="18">
+      <c r="J58" s="24">
         <v>1.2570193617357459E-2</v>
       </c>
-      <c r="K58" s="10" t="s">
+      <c r="K58" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="P58" s="10" t="s">
+      <c r="P58" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="Q58" s="10" t="s">
+      <c r="Q58" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="R58" s="10" t="s">
+      <c r="R58" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="U58" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V58" s="10" t="s">
+      <c r="U58" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V58" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="W58" s="10" t="s">
+      <c r="W58" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="X58" s="10" t="s">
+      <c r="X58" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C59" s="13">
+      <c r="C59" s="21">
         <v>1.005455</v>
       </c>
-      <c r="D59" s="16">
+      <c r="D59" s="22">
         <v>5.5</v>
       </c>
-      <c r="E59" s="17">
+      <c r="E59" s="23">
         <v>3.0000000000000003E-4</v>
       </c>
-      <c r="H59" s="12" t="s">
+      <c r="H59" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="I59" s="12" t="s">
+      <c r="I59" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="J59" s="19">
+      <c r="J59" s="25">
         <v>2.5148392618993071E-2</v>
       </c>
-      <c r="K59" s="12" t="s">
+      <c r="K59" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="P59" s="12" t="s">
+      <c r="P59" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="Q59" s="12" t="s">
+      <c r="Q59" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="R59" s="12" t="s">
+      <c r="R59" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="U59" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V59" s="12" t="s">
+      <c r="U59" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V59" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="W59" s="12" t="s">
+      <c r="W59" s="20" t="s">
         <v>436</v>
       </c>
-      <c r="X59" s="12" t="s">
+      <c r="X59" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60" s="17">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D60" s="14">
+      <c r="D60" s="18">
         <v>5.5</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E60" s="19">
         <v>3.0000000000000003E-4</v>
       </c>
-      <c r="H60" s="10" t="s">
+      <c r="H60" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="I60" s="10" t="s">
+      <c r="I60" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="J60" s="18">
+      <c r="J60" s="24">
         <v>1.5466054364870032E-2</v>
       </c>
-      <c r="K60" s="10" t="s">
+      <c r="K60" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="P60" s="10" t="s">
+      <c r="P60" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="Q60" s="10" t="s">
+      <c r="Q60" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="R60" s="10" t="s">
+      <c r="R60" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="U60" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V60" s="10" t="s">
+      <c r="U60" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V60" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="W60" s="10" t="s">
+      <c r="W60" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="X60" s="10" t="s">
+      <c r="X60" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="C61" s="13">
+      <c r="C61" s="21">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D61" s="16">
+      <c r="D61" s="22">
         <v>7.7000000000000011</v>
       </c>
-      <c r="E61" s="17">
+      <c r="E61" s="23">
         <v>4.2000000000000002E-4</v>
       </c>
-      <c r="H61" s="12" t="s">
+      <c r="H61" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="I61" s="12" t="s">
+      <c r="I61" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="J61" s="19">
+      <c r="J61" s="25">
         <v>5.89777543369897E-2</v>
       </c>
-      <c r="K61" s="12" t="s">
+      <c r="K61" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="P61" s="12" t="s">
+      <c r="P61" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="Q61" s="12" t="s">
+      <c r="Q61" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="R61" s="12" t="s">
+      <c r="R61" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="U61" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V61" s="12" t="s">
+      <c r="U61" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V61" s="20" t="s">
         <v>437</v>
       </c>
-      <c r="W61" s="12" t="s">
+      <c r="W61" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="X61" s="12" t="s">
+      <c r="X61" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="62" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="C62" s="11">
+      <c r="C62" s="17">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D62" s="14">
+      <c r="D62" s="18">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E62" s="19">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="U62" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V62" s="10" t="s">
+      <c r="U62" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V62" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="W62" s="10" t="s">
+      <c r="W62" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="X62" s="10" t="s">
+      <c r="X62" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="63" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="C63" s="13">
+      <c r="C63" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D63" s="16">
+      <c r="D63" s="22">
         <v>7.7000000000000011</v>
       </c>
-      <c r="E63" s="17">
+      <c r="E63" s="23">
         <v>4.2000000000000002E-4</v>
       </c>
-      <c r="U63" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V63" s="12" t="s">
+      <c r="U63" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V63" s="20" t="s">
         <v>437</v>
       </c>
-      <c r="W63" s="12" t="s">
+      <c r="W63" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="X63" s="12" t="s">
+      <c r="X63" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="64" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C64" s="11">
+      <c r="C64" s="17">
         <v>1.005455</v>
       </c>
-      <c r="D64" s="14">
+      <c r="D64" s="18">
         <v>15.400000000000002</v>
       </c>
-      <c r="E64" s="15">
+      <c r="E64" s="19">
         <v>8.4000000000000003E-4</v>
       </c>
-      <c r="U64" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V64" s="10" t="s">
+      <c r="U64" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V64" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="W64" s="10" t="s">
+      <c r="W64" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="X64" s="10" t="s">
+      <c r="X64" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="65" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C65" s="13">
+      <c r="C65" s="21">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D65" s="16">
+      <c r="D65" s="22">
         <v>11</v>
       </c>
-      <c r="E65" s="17">
+      <c r="E65" s="23">
         <v>6.0000000000000006E-4</v>
       </c>
-      <c r="U65" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V65" s="12" t="s">
+      <c r="U65" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V65" s="20" t="s">
         <v>439</v>
       </c>
-      <c r="W65" s="12" t="s">
+      <c r="W65" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="X65" s="12" t="s">
+      <c r="X65" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="66" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="C66" s="11">
+      <c r="C66" s="17">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D66" s="14">
+      <c r="D66" s="18">
         <v>3.3000000000000003</v>
       </c>
-      <c r="E66" s="15">
+      <c r="E66" s="19">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="U66" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V66" s="10" t="s">
+      <c r="U66" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V66" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="W66" s="10" t="s">
+      <c r="W66" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="X66" s="10" t="s">
+      <c r="X66" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="67" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C67" s="13">
+      <c r="C67" s="21">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D67" s="16">
+      <c r="D67" s="22">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E67" s="17">
+      <c r="E67" s="23">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="U67" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V67" s="12" t="s">
+      <c r="U67" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V67" s="20" t="s">
         <v>440</v>
       </c>
-      <c r="W67" s="12" t="s">
+      <c r="W67" s="20" t="s">
         <v>441</v>
       </c>
-      <c r="X67" s="12" t="s">
+      <c r="X67" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="68" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="C68" s="11">
+      <c r="C68" s="17">
         <v>3.3962050000000001</v>
       </c>
-      <c r="D68" s="14">
+      <c r="D68" s="18">
         <v>53.900000000000006</v>
       </c>
-      <c r="E68" s="15">
+      <c r="E68" s="19">
         <v>2.9399999999999999E-3</v>
       </c>
-      <c r="U68" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V68" s="10" t="s">
+      <c r="U68" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V68" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="W68" s="10" t="s">
+      <c r="W68" s="16" t="s">
         <v>441</v>
       </c>
-      <c r="X68" s="10" t="s">
+      <c r="X68" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="69" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C69" s="13">
+      <c r="C69" s="21">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D69" s="16">
+      <c r="D69" s="22">
         <v>6.6000000000000005</v>
       </c>
-      <c r="E69" s="17">
+      <c r="E69" s="23">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="U69" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V69" s="12" t="s">
+      <c r="U69" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V69" s="20" t="s">
         <v>440</v>
       </c>
-      <c r="W69" s="12" t="s">
+      <c r="W69" s="20" t="s">
         <v>441</v>
       </c>
-      <c r="X69" s="12" t="s">
+      <c r="X69" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="70" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="C70" s="11">
+      <c r="C70" s="17">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D70" s="14">
+      <c r="D70" s="18">
         <v>26.400000000000002</v>
       </c>
-      <c r="E70" s="15">
+      <c r="E70" s="19">
         <v>1.4400000000000001E-3</v>
       </c>
-      <c r="U70" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V70" s="10" t="s">
+      <c r="U70" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V70" s="16" t="s">
         <v>442</v>
       </c>
-      <c r="W70" s="10" t="s">
+      <c r="W70" s="16" t="s">
         <v>443</v>
       </c>
-      <c r="X70" s="10" t="s">
+      <c r="X70" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="71" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C71" s="13">
+      <c r="C71" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D71" s="16">
+      <c r="D71" s="22">
         <v>19.8</v>
       </c>
-      <c r="E71" s="17">
+      <c r="E71" s="23">
         <v>1.08E-3</v>
       </c>
-      <c r="U71" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V71" s="12" t="s">
+      <c r="U71" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V71" s="20" t="s">
         <v>442</v>
       </c>
-      <c r="W71" s="12" t="s">
+      <c r="W71" s="20" t="s">
         <v>443</v>
       </c>
-      <c r="X71" s="12" t="s">
+      <c r="X71" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="72" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C72" s="11">
+      <c r="C72" s="17">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D72" s="14">
+      <c r="D72" s="18">
         <v>22</v>
       </c>
-      <c r="E72" s="15">
+      <c r="E72" s="19">
         <v>1.2000000000000001E-3</v>
       </c>
-      <c r="U72" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V72" s="10" t="s">
+      <c r="U72" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V72" s="16" t="s">
         <v>442</v>
       </c>
-      <c r="W72" s="10" t="s">
+      <c r="W72" s="16" t="s">
         <v>443</v>
       </c>
-      <c r="X72" s="10" t="s">
+      <c r="X72" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="73" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C73" s="13">
+      <c r="C73" s="21">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D73" s="16">
+      <c r="D73" s="22">
         <v>29.700000000000003</v>
       </c>
-      <c r="E73" s="17">
+      <c r="E73" s="23">
         <v>1.6200000000000001E-3</v>
       </c>
-      <c r="U73" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V73" s="12" t="s">
+      <c r="U73" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V73" s="20" t="s">
         <v>444</v>
       </c>
-      <c r="W73" s="12" t="s">
+      <c r="W73" s="20" t="s">
         <v>445</v>
       </c>
-      <c r="X73" s="12" t="s">
+      <c r="X73" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="74" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="C74" s="11">
+      <c r="C74" s="17">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D74" s="14">
+      <c r="D74" s="18">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E74" s="15">
+      <c r="E74" s="19">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="U74" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V74" s="10" t="s">
+      <c r="U74" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V74" s="16" t="s">
         <v>444</v>
       </c>
-      <c r="W74" s="10" t="s">
+      <c r="W74" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="X74" s="10" t="s">
+      <c r="X74" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="75" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B75" s="12" t="s">
+      <c r="B75" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="C75" s="13">
+      <c r="C75" s="21">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D75" s="16">
+      <c r="D75" s="22">
         <v>38.5</v>
       </c>
-      <c r="E75" s="17">
+      <c r="E75" s="23">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="U75" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V75" s="12" t="s">
+      <c r="U75" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V75" s="20" t="s">
         <v>444</v>
       </c>
-      <c r="W75" s="12" t="s">
+      <c r="W75" s="20" t="s">
         <v>445</v>
       </c>
-      <c r="X75" s="12" t="s">
+      <c r="X75" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="76" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="C76" s="11">
+      <c r="C76" s="17">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D76" s="14">
+      <c r="D76" s="18">
         <v>49.500000000000007</v>
       </c>
-      <c r="E76" s="15">
+      <c r="E76" s="19">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="U76" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V76" s="10" t="s">
+      <c r="U76" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V76" s="16" t="s">
         <v>446</v>
       </c>
-      <c r="W76" s="10" t="s">
+      <c r="W76" s="16" t="s">
         <v>447</v>
       </c>
-      <c r="X76" s="10" t="s">
+      <c r="X76" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="77" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="C77" s="13">
+      <c r="C77" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D77" s="16">
+      <c r="D77" s="22">
         <v>61.600000000000009</v>
       </c>
-      <c r="E77" s="17">
+      <c r="E77" s="23">
         <v>3.3600000000000001E-3</v>
       </c>
-      <c r="U77" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V77" s="12" t="s">
+      <c r="U77" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V77" s="20" t="s">
         <v>446</v>
       </c>
-      <c r="W77" s="12" t="s">
+      <c r="W77" s="20" t="s">
         <v>447</v>
       </c>
-      <c r="X77" s="12" t="s">
+      <c r="X77" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="78" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C78" s="11">
+      <c r="C78" s="17">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D78" s="14">
+      <c r="D78" s="18">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E78" s="15">
+      <c r="E78" s="19">
         <v>2.4000000000000001E-4</v>
       </c>
-      <c r="U78" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V78" s="10" t="s">
+      <c r="U78" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V78" s="16" t="s">
         <v>446</v>
       </c>
-      <c r="W78" s="10" t="s">
+      <c r="W78" s="16" t="s">
         <v>447</v>
       </c>
-      <c r="X78" s="10" t="s">
+      <c r="X78" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="79" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="C79" s="13">
+      <c r="C79" s="21">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D79" s="16">
+      <c r="D79" s="22">
         <v>56.1</v>
       </c>
-      <c r="E79" s="17">
+      <c r="E79" s="23">
         <v>3.0600000000000002E-3</v>
       </c>
-      <c r="U79" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V79" s="12" t="s">
+      <c r="U79" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V79" s="20" t="s">
         <v>448</v>
       </c>
-      <c r="W79" s="12" t="s">
+      <c r="W79" s="20" t="s">
         <v>449</v>
       </c>
-      <c r="X79" s="12" t="s">
+      <c r="X79" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="80" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="C80" s="11">
+      <c r="C80" s="17">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D80" s="14">
+      <c r="D80" s="18">
         <v>85.800000000000011</v>
       </c>
-      <c r="E80" s="15">
+      <c r="E80" s="19">
         <v>4.6800000000000001E-3</v>
       </c>
-      <c r="U80" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V80" s="10" t="s">
+      <c r="U80" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V80" s="16" t="s">
         <v>448</v>
       </c>
-      <c r="W80" s="10" t="s">
+      <c r="W80" s="16" t="s">
         <v>449</v>
       </c>
-      <c r="X80" s="10" t="s">
+      <c r="X80" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="81" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C81" s="13">
+      <c r="C81" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D81" s="16">
+      <c r="D81" s="22">
         <v>40.700000000000003</v>
       </c>
-      <c r="E81" s="17">
+      <c r="E81" s="23">
         <v>2.2200000000000002E-3</v>
       </c>
-      <c r="U81" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V81" s="12" t="s">
+      <c r="U81" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V81" s="20" t="s">
         <v>448</v>
       </c>
-      <c r="W81" s="12" t="s">
+      <c r="W81" s="20" t="s">
         <v>449</v>
       </c>
-      <c r="X81" s="12" t="s">
+      <c r="X81" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="82" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="C82" s="11">
+      <c r="C82" s="17">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D82" s="14">
+      <c r="D82" s="18">
         <v>9.9</v>
       </c>
-      <c r="E82" s="15">
+      <c r="E82" s="19">
         <v>5.4000000000000001E-4</v>
       </c>
-      <c r="U82" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V82" s="10" t="s">
+      <c r="U82" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V82" s="16" t="s">
         <v>450</v>
       </c>
-      <c r="W82" s="10" t="s">
+      <c r="W82" s="16" t="s">
         <v>451</v>
       </c>
-      <c r="X82" s="10" t="s">
+      <c r="X82" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="83" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C83" s="13">
+      <c r="C83" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D83" s="16">
+      <c r="D83" s="22">
         <v>15.400000000000002</v>
       </c>
-      <c r="E83" s="17">
+      <c r="E83" s="23">
         <v>8.4000000000000003E-4</v>
       </c>
-      <c r="U83" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V83" s="12" t="s">
+      <c r="U83" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V83" s="20" t="s">
         <v>450</v>
       </c>
-      <c r="W83" s="12" t="s">
+      <c r="W83" s="20" t="s">
         <v>451</v>
       </c>
-      <c r="X83" s="12" t="s">
+      <c r="X83" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="84" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="C84" s="11">
+      <c r="C84" s="17">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D84" s="14">
+      <c r="D84" s="18">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E84" s="15">
+      <c r="E84" s="19">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="U84" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V84" s="10" t="s">
+      <c r="U84" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V84" s="16" t="s">
         <v>450</v>
       </c>
-      <c r="W84" s="10" t="s">
+      <c r="W84" s="16" t="s">
         <v>451</v>
       </c>
-      <c r="X84" s="10" t="s">
+      <c r="X84" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="85" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="C85" s="13">
+      <c r="C85" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D85" s="16">
+      <c r="D85" s="22">
         <v>30.800000000000004</v>
       </c>
-      <c r="E85" s="17">
+      <c r="E85" s="23">
         <v>1.6800000000000001E-3</v>
       </c>
-      <c r="U85" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V85" s="12" t="s">
+      <c r="U85" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V85" s="20" t="s">
         <v>452</v>
       </c>
-      <c r="W85" s="12" t="s">
+      <c r="W85" s="20" t="s">
         <v>453</v>
       </c>
-      <c r="X85" s="12" t="s">
+      <c r="X85" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="86" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="C86" s="11">
+      <c r="C86" s="17">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D86" s="14">
+      <c r="D86" s="18">
         <v>59.400000000000006</v>
       </c>
-      <c r="E86" s="15">
+      <c r="E86" s="19">
         <v>3.2400000000000003E-3</v>
       </c>
-      <c r="U86" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V86" s="10" t="s">
+      <c r="U86" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V86" s="16" t="s">
         <v>452</v>
       </c>
-      <c r="W86" s="10" t="s">
+      <c r="W86" s="16" t="s">
         <v>453</v>
       </c>
-      <c r="X86" s="10" t="s">
+      <c r="X86" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="87" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="C87" s="13">
+      <c r="C87" s="21">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D87" s="16">
+      <c r="D87" s="22">
         <v>49.500000000000007</v>
       </c>
-      <c r="E87" s="17">
+      <c r="E87" s="23">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="U87" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V87" s="12" t="s">
+      <c r="U87" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V87" s="20" t="s">
         <v>452</v>
       </c>
-      <c r="W87" s="12" t="s">
+      <c r="W87" s="20" t="s">
         <v>453</v>
       </c>
-      <c r="X87" s="12" t="s">
+      <c r="X87" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="88" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="C88" s="11">
+      <c r="C88" s="17">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D88" s="14">
+      <c r="D88" s="18">
         <v>83.600000000000009</v>
       </c>
-      <c r="E88" s="15">
+      <c r="E88" s="19">
         <v>4.5599999999999998E-3</v>
       </c>
-      <c r="U88" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V88" s="10" t="s">
+      <c r="U88" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V88" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="W88" s="10" t="s">
+      <c r="W88" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="X88" s="10" t="s">
+      <c r="X88" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="89" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C89" s="13">
+      <c r="C89" s="21">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D89" s="16">
+      <c r="D89" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E89" s="17">
+      <c r="E89" s="23">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="U89" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V89" s="12" t="s">
+      <c r="U89" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V89" s="20" t="s">
         <v>454</v>
       </c>
-      <c r="W89" s="12" t="s">
+      <c r="W89" s="20" t="s">
         <v>455</v>
       </c>
-      <c r="X89" s="12" t="s">
+      <c r="X89" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="90" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="C90" s="11">
+      <c r="C90" s="17">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D90" s="14">
+      <c r="D90" s="18">
         <v>13.200000000000001</v>
       </c>
-      <c r="E90" s="15">
+      <c r="E90" s="19">
         <v>7.2000000000000005E-4</v>
       </c>
-      <c r="U90" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V90" s="10" t="s">
+      <c r="U90" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V90" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="W90" s="10" t="s">
+      <c r="W90" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="X90" s="10" t="s">
+      <c r="X90" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="91" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B91" s="12" t="s">
+      <c r="B91" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="C91" s="13">
+      <c r="C91" s="21">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D91" s="16">
+      <c r="D91" s="22">
         <v>25.3</v>
       </c>
-      <c r="E91" s="17">
+      <c r="E91" s="23">
         <v>1.3799999999999999E-3</v>
       </c>
-      <c r="U91" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V91" s="12" t="s">
+      <c r="U91" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V91" s="20" t="s">
         <v>456</v>
       </c>
-      <c r="W91" s="12" t="s">
+      <c r="W91" s="20" t="s">
         <v>457</v>
       </c>
-      <c r="X91" s="12" t="s">
+      <c r="X91" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="92" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="C92" s="11">
+      <c r="C92" s="17">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D92" s="14">
+      <c r="D92" s="18">
         <v>16.5</v>
       </c>
-      <c r="E92" s="15">
+      <c r="E92" s="19">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="U92" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V92" s="10" t="s">
+      <c r="U92" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V92" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="W92" s="10" t="s">
+      <c r="W92" s="16" t="s">
         <v>457</v>
       </c>
-      <c r="X92" s="10" t="s">
+      <c r="X92" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="93" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="C93" s="13">
+      <c r="C93" s="21">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D93" s="16">
+      <c r="D93" s="22">
         <v>15.400000000000002</v>
       </c>
-      <c r="E93" s="17">
+      <c r="E93" s="23">
         <v>8.4000000000000003E-4</v>
       </c>
-      <c r="U93" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V93" s="12" t="s">
+      <c r="U93" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V93" s="20" t="s">
         <v>456</v>
       </c>
-      <c r="W93" s="12" t="s">
+      <c r="W93" s="20" t="s">
         <v>457</v>
       </c>
-      <c r="X93" s="12" t="s">
+      <c r="X93" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="94" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="C94" s="11">
+      <c r="C94" s="17">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D94" s="14">
+      <c r="D94" s="18">
         <v>59.400000000000006</v>
       </c>
-      <c r="E94" s="15">
+      <c r="E94" s="19">
         <v>3.2400000000000003E-3</v>
       </c>
-      <c r="U94" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V94" s="10" t="s">
+      <c r="U94" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V94" s="16" t="s">
         <v>458</v>
       </c>
-      <c r="W94" s="10" t="s">
+      <c r="W94" s="16" t="s">
         <v>459</v>
       </c>
-      <c r="X94" s="10" t="s">
+      <c r="X94" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="95" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B95" s="12" t="s">
+      <c r="B95" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="C95" s="13">
+      <c r="C95" s="21">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D95" s="16">
+      <c r="D95" s="22">
         <v>20.900000000000002</v>
       </c>
-      <c r="E95" s="17">
+      <c r="E95" s="23">
         <v>1.14E-3</v>
       </c>
-      <c r="U95" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V95" s="12" t="s">
+      <c r="U95" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V95" s="20" t="s">
         <v>458</v>
       </c>
-      <c r="W95" s="12" t="s">
+      <c r="W95" s="20" t="s">
         <v>459</v>
       </c>
-      <c r="X95" s="12" t="s">
+      <c r="X95" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="96" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C96" s="11">
+      <c r="C96" s="17">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D96" s="14">
+      <c r="D96" s="18">
         <v>18.700000000000003</v>
       </c>
-      <c r="E96" s="15">
+      <c r="E96" s="19">
         <v>1.0200000000000001E-3</v>
       </c>
-      <c r="U96" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V96" s="10" t="s">
+      <c r="U96" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V96" s="16" t="s">
         <v>458</v>
       </c>
-      <c r="W96" s="10" t="s">
+      <c r="W96" s="16" t="s">
         <v>459</v>
       </c>
-      <c r="X96" s="10" t="s">
+      <c r="X96" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="97" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B97" s="12" t="s">
+      <c r="B97" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="C97" s="13">
+      <c r="C97" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D97" s="16">
+      <c r="D97" s="22">
         <v>7.7000000000000011</v>
       </c>
-      <c r="E97" s="17">
+      <c r="E97" s="23">
         <v>4.2000000000000002E-4</v>
       </c>
-      <c r="U97" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V97" s="12" t="s">
+      <c r="U97" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V97" s="20" t="s">
         <v>460</v>
       </c>
-      <c r="W97" s="12" t="s">
+      <c r="W97" s="20" t="s">
         <v>461</v>
       </c>
-      <c r="X97" s="12" t="s">
+      <c r="X97" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="98" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B98" s="10" t="s">
+      <c r="B98" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="C98" s="11">
+      <c r="C98" s="17">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D98" s="14">
+      <c r="D98" s="18">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E98" s="15">
+      <c r="E98" s="19">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="U98" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V98" s="10" t="s">
+      <c r="U98" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V98" s="16" t="s">
         <v>460</v>
       </c>
-      <c r="W98" s="10" t="s">
+      <c r="W98" s="16" t="s">
         <v>461</v>
       </c>
-      <c r="X98" s="10" t="s">
+      <c r="X98" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="99" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B99" s="12" t="s">
+      <c r="B99" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="C99" s="13">
+      <c r="C99" s="21">
         <v>3.3962050000000001</v>
       </c>
-      <c r="D99" s="16">
+      <c r="D99" s="22">
         <v>104.50000000000001</v>
       </c>
-      <c r="E99" s="17">
+      <c r="E99" s="23">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="U99" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V99" s="12" t="s">
+      <c r="U99" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V99" s="20" t="s">
         <v>460</v>
       </c>
-      <c r="W99" s="12" t="s">
+      <c r="W99" s="20" t="s">
         <v>461</v>
       </c>
-      <c r="X99" s="12" t="s">
+      <c r="X99" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="100" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C100" s="11">
+      <c r="C100" s="17">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D100" s="14">
+      <c r="D100" s="18">
         <v>41.800000000000004</v>
       </c>
-      <c r="E100" s="15">
+      <c r="E100" s="19">
         <v>2.2799999999999999E-3</v>
       </c>
-      <c r="U100" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V100" s="10" t="s">
+      <c r="U100" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V100" s="16" t="s">
         <v>462</v>
       </c>
-      <c r="W100" s="10" t="s">
+      <c r="W100" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="X100" s="10" t="s">
+      <c r="X100" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="101" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B101" s="12" t="s">
+      <c r="B101" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="C101" s="13">
+      <c r="C101" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D101" s="16">
+      <c r="D101" s="22">
         <v>3.3000000000000003</v>
       </c>
-      <c r="E101" s="17">
+      <c r="E101" s="23">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="U101" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V101" s="12" t="s">
+      <c r="U101" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V101" s="20" t="s">
         <v>462</v>
       </c>
-      <c r="W101" s="12" t="s">
+      <c r="W101" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="X101" s="12" t="s">
+      <c r="X101" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="102" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="C102" s="11">
+      <c r="C102" s="17">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D102" s="14">
+      <c r="D102" s="18">
         <v>11</v>
       </c>
-      <c r="E102" s="15">
+      <c r="E102" s="19">
         <v>6.0000000000000006E-4</v>
       </c>
-      <c r="U102" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V102" s="10" t="s">
+      <c r="U102" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V102" s="16" t="s">
         <v>462</v>
       </c>
-      <c r="W102" s="10" t="s">
+      <c r="W102" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="X102" s="10" t="s">
+      <c r="X102" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="103" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B103" s="12" t="s">
+      <c r="B103" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="C103" s="13">
+      <c r="C103" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D103" s="16">
+      <c r="D103" s="22">
         <v>17.600000000000001</v>
       </c>
-      <c r="E103" s="17">
+      <c r="E103" s="23">
         <v>9.6000000000000002E-4</v>
       </c>
-      <c r="U103" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V103" s="12" t="s">
+      <c r="U103" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V103" s="20" t="s">
         <v>463</v>
       </c>
-      <c r="W103" s="12" t="s">
+      <c r="W103" s="20" t="s">
         <v>464</v>
       </c>
-      <c r="X103" s="12" t="s">
+      <c r="X103" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="104" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="C104" s="11">
+      <c r="C104" s="17">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D104" s="14">
+      <c r="D104" s="18">
         <v>5.5</v>
       </c>
-      <c r="E104" s="15">
+      <c r="E104" s="19">
         <v>3.0000000000000003E-4</v>
       </c>
-      <c r="U104" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V104" s="10" t="s">
+      <c r="U104" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V104" s="16" t="s">
         <v>463</v>
       </c>
-      <c r="W104" s="10" t="s">
+      <c r="W104" s="16" t="s">
         <v>464</v>
       </c>
-      <c r="X104" s="10" t="s">
+      <c r="X104" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="105" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B105" s="12" t="s">
+      <c r="B105" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="C105" s="13">
+      <c r="C105" s="21">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D105" s="16">
+      <c r="D105" s="22">
         <v>12.100000000000001</v>
       </c>
-      <c r="E105" s="17">
+      <c r="E105" s="23">
         <v>6.6E-4</v>
       </c>
-      <c r="U105" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V105" s="12" t="s">
+      <c r="U105" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V105" s="20" t="s">
         <v>463</v>
       </c>
-      <c r="W105" s="12" t="s">
+      <c r="W105" s="20" t="s">
         <v>464</v>
       </c>
-      <c r="X105" s="12" t="s">
+      <c r="X105" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="106" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="C106" s="11">
+      <c r="C106" s="17">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D106" s="14">
+      <c r="D106" s="18">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E106" s="15">
+      <c r="E106" s="19">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="U106" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V106" s="10" t="s">
+      <c r="U106" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V106" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="W106" s="10" t="s">
+      <c r="W106" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="X106" s="10" t="s">
+      <c r="X106" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="107" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B107" s="12" t="s">
+      <c r="B107" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="C107" s="13">
+      <c r="C107" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D107" s="16">
+      <c r="D107" s="22">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E107" s="17">
+      <c r="E107" s="23">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="U107" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V107" s="12" t="s">
+      <c r="U107" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V107" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="W107" s="12" t="s">
+      <c r="W107" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="X107" s="12" t="s">
+      <c r="X107" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="108" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="C108" s="11">
+      <c r="C108" s="17">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D108" s="14">
+      <c r="D108" s="18">
         <v>6.6000000000000005</v>
       </c>
-      <c r="E108" s="15">
+      <c r="E108" s="19">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="U108" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V108" s="10" t="s">
+      <c r="U108" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V108" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="W108" s="10" t="s">
+      <c r="W108" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="X108" s="10" t="s">
+      <c r="X108" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="109" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B109" s="12" t="s">
+      <c r="B109" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="C109" s="13">
+      <c r="C109" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D109" s="16">
+      <c r="D109" s="22">
         <v>9.9</v>
       </c>
-      <c r="E109" s="17">
+      <c r="E109" s="23">
         <v>5.4000000000000001E-4</v>
       </c>
-      <c r="U109" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V109" s="12" t="s">
+      <c r="U109" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V109" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="W109" s="12" t="s">
+      <c r="W109" s="20" t="s">
         <v>468</v>
       </c>
-      <c r="X109" s="12" t="s">
+      <c r="X109" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="110" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B110" s="10" t="s">
+      <c r="B110" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="C110" s="11">
+      <c r="C110" s="17">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D110" s="14">
+      <c r="D110" s="18">
         <v>3.3000000000000003</v>
       </c>
-      <c r="E110" s="15">
+      <c r="E110" s="19">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="U110" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V110" s="10" t="s">
+      <c r="U110" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V110" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="W110" s="10" t="s">
+      <c r="W110" s="16" t="s">
         <v>468</v>
       </c>
-      <c r="X110" s="10" t="s">
+      <c r="X110" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="111" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B111" s="12" t="s">
+      <c r="B111" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="C111" s="13">
+      <c r="C111" s="21">
         <v>1.7874760000000001</v>
       </c>
-      <c r="D111" s="16">
+      <c r="D111" s="22">
         <v>6.6000000000000005</v>
       </c>
-      <c r="E111" s="17">
+      <c r="E111" s="23">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="U111" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V111" s="12" t="s">
+      <c r="U111" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V111" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="W111" s="12" t="s">
+      <c r="W111" s="20" t="s">
         <v>468</v>
       </c>
-      <c r="X111" s="12" t="s">
+      <c r="X111" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="112" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B112" s="10" t="s">
+      <c r="B112" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="C112" s="11">
+      <c r="C112" s="17">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D112" s="14">
+      <c r="D112" s="18">
         <v>9.9</v>
       </c>
-      <c r="E112" s="15">
+      <c r="E112" s="19">
         <v>5.4000000000000001E-4</v>
       </c>
-      <c r="U112" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V112" s="10" t="s">
+      <c r="U112" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V112" s="16" t="s">
         <v>469</v>
       </c>
-      <c r="W112" s="10" t="s">
+      <c r="W112" s="16" t="s">
         <v>470</v>
       </c>
-      <c r="X112" s="10" t="s">
+      <c r="X112" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="113" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B113" s="12" t="s">
+      <c r="B113" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="C113" s="13">
+      <c r="C113" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D113" s="16">
+      <c r="D113" s="22">
         <v>33</v>
       </c>
-      <c r="E113" s="17">
+      <c r="E113" s="23">
         <v>1.8E-3</v>
       </c>
-      <c r="U113" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V113" s="12" t="s">
+      <c r="U113" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V113" s="20" t="s">
         <v>469</v>
       </c>
-      <c r="W113" s="12" t="s">
+      <c r="W113" s="20" t="s">
         <v>470</v>
       </c>
-      <c r="X113" s="12" t="s">
+      <c r="X113" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="114" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B114" s="10" t="s">
+      <c r="B114" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="C114" s="11">
+      <c r="C114" s="17">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D114" s="14">
+      <c r="D114" s="18">
         <v>7.7000000000000011</v>
       </c>
-      <c r="E114" s="15">
+      <c r="E114" s="19">
         <v>4.2000000000000002E-4</v>
       </c>
-      <c r="U114" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V114" s="10" t="s">
+      <c r="U114" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V114" s="16" t="s">
         <v>469</v>
       </c>
-      <c r="W114" s="10" t="s">
+      <c r="W114" s="16" t="s">
         <v>470</v>
       </c>
-      <c r="X114" s="10" t="s">
+      <c r="X114" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="115" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B115" s="12" t="s">
+      <c r="B115" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="C115" s="13">
+      <c r="C115" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D115" s="16">
+      <c r="D115" s="22">
         <v>49.500000000000007</v>
       </c>
-      <c r="E115" s="17">
+      <c r="E115" s="23">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="U115" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V115" s="12" t="s">
+      <c r="U115" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V115" s="20" t="s">
         <v>471</v>
       </c>
-      <c r="W115" s="12" t="s">
+      <c r="W115" s="20" t="s">
         <v>472</v>
       </c>
-      <c r="X115" s="12" t="s">
+      <c r="X115" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="116" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B116" s="10" t="s">
+      <c r="B116" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="C116" s="11">
+      <c r="C116" s="17">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D116" s="14">
+      <c r="D116" s="18">
         <v>41.800000000000004</v>
       </c>
-      <c r="E116" s="15">
+      <c r="E116" s="19">
         <v>2.2799999999999999E-3</v>
       </c>
-      <c r="U116" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V116" s="10" t="s">
+      <c r="U116" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V116" s="16" t="s">
         <v>471</v>
       </c>
-      <c r="W116" s="10" t="s">
+      <c r="W116" s="16" t="s">
         <v>472</v>
       </c>
-      <c r="X116" s="10" t="s">
+      <c r="X116" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="117" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B117" s="12" t="s">
+      <c r="B117" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="C117" s="13">
+      <c r="C117" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D117" s="16">
+      <c r="D117" s="22">
         <v>24.200000000000003</v>
       </c>
-      <c r="E117" s="17">
+      <c r="E117" s="23">
         <v>1.32E-3</v>
       </c>
-      <c r="U117" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V117" s="12" t="s">
+      <c r="U117" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V117" s="20" t="s">
         <v>471</v>
       </c>
-      <c r="W117" s="12" t="s">
+      <c r="W117" s="20" t="s">
         <v>472</v>
       </c>
-      <c r="X117" s="12" t="s">
+      <c r="X117" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="118" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B118" s="10" t="s">
+      <c r="B118" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="C118" s="11">
+      <c r="C118" s="17">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D118" s="14">
+      <c r="D118" s="18">
         <v>33</v>
       </c>
-      <c r="E118" s="15">
+      <c r="E118" s="19">
         <v>1.8E-3</v>
       </c>
-      <c r="U118" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V118" s="10" t="s">
+      <c r="U118" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V118" s="16" t="s">
         <v>473</v>
       </c>
-      <c r="W118" s="10" t="s">
+      <c r="W118" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="X118" s="10" t="s">
+      <c r="X118" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="119" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B119" s="12" t="s">
+      <c r="B119" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="C119" s="13">
+      <c r="C119" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D119" s="16">
+      <c r="D119" s="22">
         <v>19.8</v>
       </c>
-      <c r="E119" s="17">
+      <c r="E119" s="23">
         <v>1.08E-3</v>
       </c>
-      <c r="U119" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V119" s="12" t="s">
+      <c r="U119" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V119" s="20" t="s">
         <v>473</v>
       </c>
-      <c r="W119" s="12" t="s">
+      <c r="W119" s="20" t="s">
         <v>474</v>
       </c>
-      <c r="X119" s="12" t="s">
+      <c r="X119" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="120" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B120" s="10" t="s">
+      <c r="B120" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="C120" s="11">
+      <c r="C120" s="17">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D120" s="14">
+      <c r="D120" s="18">
         <v>9.9</v>
       </c>
-      <c r="E120" s="15">
+      <c r="E120" s="19">
         <v>5.4000000000000001E-4</v>
       </c>
-      <c r="U120" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V120" s="10" t="s">
+      <c r="U120" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V120" s="16" t="s">
         <v>473</v>
       </c>
-      <c r="W120" s="10" t="s">
+      <c r="W120" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="X120" s="10" t="s">
+      <c r="X120" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="121" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B121" s="12" t="s">
+      <c r="B121" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="C121" s="13">
+      <c r="C121" s="21">
         <v>3.3962050000000001</v>
       </c>
-      <c r="D121" s="16">
+      <c r="D121" s="22">
         <v>20.900000000000002</v>
       </c>
-      <c r="E121" s="17">
+      <c r="E121" s="23">
         <v>1.14E-3</v>
       </c>
-      <c r="U121" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V121" s="12" t="s">
+      <c r="U121" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V121" s="20" t="s">
         <v>475</v>
       </c>
-      <c r="W121" s="12" t="s">
+      <c r="W121" s="20" t="s">
         <v>476</v>
       </c>
-      <c r="X121" s="12" t="s">
+      <c r="X121" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="122" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B122" s="10" t="s">
+      <c r="B122" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="C122" s="11">
+      <c r="C122" s="17">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D122" s="14">
+      <c r="D122" s="18">
         <v>19.8</v>
       </c>
-      <c r="E122" s="15">
+      <c r="E122" s="19">
         <v>1.08E-3</v>
       </c>
-      <c r="U122" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V122" s="10" t="s">
+      <c r="U122" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V122" s="16" t="s">
         <v>475</v>
       </c>
-      <c r="W122" s="10" t="s">
+      <c r="W122" s="16" t="s">
         <v>476</v>
       </c>
-      <c r="X122" s="10" t="s">
+      <c r="X122" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="123" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B123" s="12" t="s">
+      <c r="B123" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="C123" s="13">
+      <c r="C123" s="21">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D123" s="16">
+      <c r="D123" s="22">
         <v>71.5</v>
       </c>
-      <c r="E123" s="17">
+      <c r="E123" s="23">
         <v>3.9000000000000003E-3</v>
       </c>
-      <c r="U123" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V123" s="12" t="s">
+      <c r="U123" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V123" s="20" t="s">
         <v>475</v>
       </c>
-      <c r="W123" s="12" t="s">
+      <c r="W123" s="20" t="s">
         <v>476</v>
       </c>
-      <c r="X123" s="12" t="s">
+      <c r="X123" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="124" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B124" s="10" t="s">
+      <c r="B124" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="C124" s="11">
+      <c r="C124" s="17">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D124" s="14">
+      <c r="D124" s="18">
         <v>13.200000000000001</v>
       </c>
-      <c r="E124" s="15">
+      <c r="E124" s="19">
         <v>7.2000000000000005E-4</v>
       </c>
-      <c r="U124" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V124" s="10" t="s">
+      <c r="U124" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V124" s="16" t="s">
         <v>477</v>
       </c>
-      <c r="W124" s="10" t="s">
+      <c r="W124" s="16" t="s">
         <v>478</v>
       </c>
-      <c r="X124" s="10" t="s">
+      <c r="X124" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="125" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B125" s="12" t="s">
+      <c r="B125" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="C125" s="13">
+      <c r="C125" s="21">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D125" s="16">
+      <c r="D125" s="22">
         <v>39.6</v>
       </c>
-      <c r="E125" s="17">
+      <c r="E125" s="23">
         <v>2.16E-3</v>
       </c>
-      <c r="U125" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V125" s="12" t="s">
+      <c r="U125" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V125" s="20" t="s">
         <v>477</v>
       </c>
-      <c r="W125" s="12" t="s">
+      <c r="W125" s="20" t="s">
         <v>478</v>
       </c>
-      <c r="X125" s="12" t="s">
+      <c r="X125" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="126" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B126" s="10" t="s">
+      <c r="B126" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="C126" s="11">
+      <c r="C126" s="17">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D126" s="14">
+      <c r="D126" s="18">
         <v>30.800000000000004</v>
       </c>
-      <c r="E126" s="15">
+      <c r="E126" s="19">
         <v>1.6800000000000001E-3</v>
       </c>
-      <c r="U126" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V126" s="10" t="s">
+      <c r="U126" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V126" s="16" t="s">
         <v>477</v>
       </c>
-      <c r="W126" s="10" t="s">
+      <c r="W126" s="16" t="s">
         <v>478</v>
       </c>
-      <c r="X126" s="10" t="s">
+      <c r="X126" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="127" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B127" s="12" t="s">
+      <c r="B127" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="C127" s="13">
+      <c r="C127" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D127" s="16">
+      <c r="D127" s="22">
         <v>29.700000000000003</v>
       </c>
-      <c r="E127" s="17">
+      <c r="E127" s="23">
         <v>1.6200000000000001E-3</v>
       </c>
-      <c r="U127" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V127" s="12" t="s">
+      <c r="U127" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V127" s="20" t="s">
         <v>479</v>
       </c>
-      <c r="W127" s="12" t="s">
+      <c r="W127" s="20" t="s">
         <v>480</v>
       </c>
-      <c r="X127" s="12" t="s">
+      <c r="X127" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="128" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B128" s="10" t="s">
+      <c r="B128" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="C128" s="11">
+      <c r="C128" s="17">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D128" s="14">
+      <c r="D128" s="18">
         <v>44</v>
       </c>
-      <c r="E128" s="15">
+      <c r="E128" s="19">
         <v>2.4000000000000002E-3</v>
       </c>
-      <c r="U128" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V128" s="10" t="s">
+      <c r="U128" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V128" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="W128" s="10" t="s">
+      <c r="W128" s="16" t="s">
         <v>480</v>
       </c>
-      <c r="X128" s="10" t="s">
+      <c r="X128" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="129" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B129" s="12" t="s">
+      <c r="B129" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="C129" s="13">
+      <c r="C129" s="21">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D129" s="16">
+      <c r="D129" s="22">
         <v>30.800000000000004</v>
       </c>
-      <c r="E129" s="17">
+      <c r="E129" s="23">
         <v>1.6800000000000001E-3</v>
       </c>
-      <c r="U129" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V129" s="12" t="s">
+      <c r="U129" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V129" s="20" t="s">
         <v>479</v>
       </c>
-      <c r="W129" s="12" t="s">
+      <c r="W129" s="20" t="s">
         <v>480</v>
       </c>
-      <c r="X129" s="12" t="s">
+      <c r="X129" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="130" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B130" s="10" t="s">
+      <c r="B130" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="C130" s="11">
+      <c r="C130" s="17">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D130" s="14">
+      <c r="D130" s="18">
         <v>29.700000000000003</v>
       </c>
-      <c r="E130" s="15">
+      <c r="E130" s="19">
         <v>1.6200000000000001E-3</v>
       </c>
-      <c r="U130" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V130" s="10" t="s">
+      <c r="U130" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V130" s="16" t="s">
         <v>481</v>
       </c>
-      <c r="W130" s="10" t="s">
+      <c r="W130" s="16" t="s">
         <v>482</v>
       </c>
-      <c r="X130" s="10" t="s">
+      <c r="X130" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="131" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B131" s="12" t="s">
+      <c r="B131" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="C131" s="13">
+      <c r="C131" s="21">
         <v>3.3962050000000001</v>
       </c>
-      <c r="D131" s="16">
+      <c r="D131" s="22">
         <v>30.800000000000004</v>
       </c>
-      <c r="E131" s="17">
+      <c r="E131" s="23">
         <v>1.6800000000000001E-3</v>
       </c>
-      <c r="U131" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V131" s="12" t="s">
+      <c r="U131" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V131" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="W131" s="12" t="s">
+      <c r="W131" s="20" t="s">
         <v>482</v>
       </c>
-      <c r="X131" s="12" t="s">
+      <c r="X131" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="132" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B132" s="10" t="s">
+      <c r="B132" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="C132" s="11">
+      <c r="C132" s="17">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D132" s="14">
+      <c r="D132" s="18">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E132" s="15">
+      <c r="E132" s="19">
         <v>2.4000000000000001E-4</v>
       </c>
-      <c r="U132" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V132" s="10" t="s">
+      <c r="U132" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V132" s="16" t="s">
         <v>481</v>
       </c>
-      <c r="W132" s="10" t="s">
+      <c r="W132" s="16" t="s">
         <v>482</v>
       </c>
-      <c r="X132" s="10" t="s">
+      <c r="X132" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="133" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B133" s="12" t="s">
+      <c r="B133" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="C133" s="13">
+      <c r="C133" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D133" s="16">
+      <c r="D133" s="22">
         <v>27.500000000000004</v>
       </c>
-      <c r="E133" s="17">
+      <c r="E133" s="23">
         <v>1.5E-3</v>
       </c>
-      <c r="U133" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V133" s="12" t="s">
+      <c r="U133" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V133" s="20" t="s">
         <v>483</v>
       </c>
-      <c r="W133" s="12" t="s">
+      <c r="W133" s="20" t="s">
         <v>484</v>
       </c>
-      <c r="X133" s="12" t="s">
+      <c r="X133" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="134" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B134" s="10" t="s">
+      <c r="B134" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="C134" s="11">
+      <c r="C134" s="17">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D134" s="14">
+      <c r="D134" s="18">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E134" s="15">
+      <c r="E134" s="19">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="U134" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V134" s="10" t="s">
+      <c r="U134" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V134" s="16" t="s">
         <v>483</v>
       </c>
-      <c r="W134" s="10" t="s">
+      <c r="W134" s="16" t="s">
         <v>484</v>
       </c>
-      <c r="X134" s="10" t="s">
+      <c r="X134" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="135" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B135" s="12" t="s">
+      <c r="B135" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="C135" s="13">
+      <c r="C135" s="21">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D135" s="16">
+      <c r="D135" s="22">
         <v>20.900000000000002</v>
       </c>
-      <c r="E135" s="17">
+      <c r="E135" s="23">
         <v>1.14E-3</v>
       </c>
-      <c r="U135" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V135" s="12" t="s">
+      <c r="U135" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V135" s="20" t="s">
         <v>483</v>
       </c>
-      <c r="W135" s="12" t="s">
+      <c r="W135" s="20" t="s">
         <v>484</v>
       </c>
-      <c r="X135" s="12" t="s">
+      <c r="X135" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="136" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B136" s="10" t="s">
+      <c r="B136" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="C136" s="11">
+      <c r="C136" s="17">
         <v>3.3962050000000001</v>
       </c>
-      <c r="D136" s="14">
+      <c r="D136" s="18">
         <v>7.7000000000000011</v>
       </c>
-      <c r="E136" s="15">
+      <c r="E136" s="19">
         <v>4.2000000000000002E-4</v>
       </c>
-      <c r="U136" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V136" s="10" t="s">
+      <c r="U136" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V136" s="16" t="s">
         <v>485</v>
       </c>
-      <c r="W136" s="10" t="s">
+      <c r="W136" s="16" t="s">
         <v>486</v>
       </c>
-      <c r="X136" s="10" t="s">
+      <c r="X136" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="137" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B137" s="12" t="s">
+      <c r="B137" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="C137" s="13">
+      <c r="C137" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D137" s="16">
+      <c r="D137" s="22">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E137" s="17">
+      <c r="E137" s="23">
         <v>1.2E-4</v>
       </c>
-      <c r="U137" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V137" s="12" t="s">
+      <c r="U137" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V137" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="W137" s="12" t="s">
+      <c r="W137" s="20" t="s">
         <v>486</v>
       </c>
-      <c r="X137" s="12" t="s">
+      <c r="X137" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="138" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B138" s="10" t="s">
+      <c r="B138" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="C138" s="11">
+      <c r="C138" s="17">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D138" s="14">
+      <c r="D138" s="18">
         <v>16.5</v>
       </c>
-      <c r="E138" s="15">
+      <c r="E138" s="19">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="U138" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V138" s="10" t="s">
+      <c r="U138" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V138" s="16" t="s">
         <v>485</v>
       </c>
-      <c r="W138" s="10" t="s">
+      <c r="W138" s="16" t="s">
         <v>486</v>
       </c>
-      <c r="X138" s="10" t="s">
+      <c r="X138" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="139" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B139" s="12" t="s">
+      <c r="B139" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="C139" s="13">
+      <c r="C139" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D139" s="16">
+      <c r="D139" s="22">
         <v>7.7000000000000011</v>
       </c>
-      <c r="E139" s="17">
+      <c r="E139" s="23">
         <v>4.2000000000000002E-4</v>
       </c>
-      <c r="U139" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V139" s="12" t="s">
+      <c r="U139" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V139" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="W139" s="12" t="s">
+      <c r="W139" s="20" t="s">
         <v>488</v>
       </c>
-      <c r="X139" s="12" t="s">
+      <c r="X139" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="140" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B140" s="10" t="s">
+      <c r="B140" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="C140" s="11">
+      <c r="C140" s="17">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D140" s="14">
+      <c r="D140" s="18">
         <v>14.3</v>
       </c>
-      <c r="E140" s="15">
+      <c r="E140" s="19">
         <v>7.7999999999999999E-4</v>
       </c>
-      <c r="U140" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V140" s="10" t="s">
+      <c r="U140" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V140" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="W140" s="10" t="s">
+      <c r="W140" s="16" t="s">
         <v>488</v>
       </c>
-      <c r="X140" s="10" t="s">
+      <c r="X140" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="141" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B141" s="12" t="s">
+      <c r="B141" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="C141" s="13">
+      <c r="C141" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D141" s="16">
+      <c r="D141" s="22">
         <v>12.100000000000001</v>
       </c>
-      <c r="E141" s="17">
+      <c r="E141" s="23">
         <v>6.6E-4</v>
       </c>
-      <c r="U141" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V141" s="12" t="s">
+      <c r="U141" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V141" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="W141" s="12" t="s">
+      <c r="W141" s="20" t="s">
         <v>488</v>
       </c>
-      <c r="X141" s="12" t="s">
+      <c r="X141" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="142" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B142" s="10" t="s">
+      <c r="B142" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="C142" s="11">
+      <c r="C142" s="17">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D142" s="14">
+      <c r="D142" s="18">
         <v>36.300000000000004</v>
       </c>
-      <c r="E142" s="15">
+      <c r="E142" s="19">
         <v>1.98E-3</v>
       </c>
-      <c r="U142" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V142" s="10" t="s">
+      <c r="U142" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V142" s="16" t="s">
         <v>489</v>
       </c>
-      <c r="W142" s="10" t="s">
+      <c r="W142" s="16" t="s">
         <v>490</v>
       </c>
-      <c r="X142" s="10" t="s">
+      <c r="X142" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="143" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B143" s="12" t="s">
+      <c r="B143" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="C143" s="13">
+      <c r="C143" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D143" s="16">
+      <c r="D143" s="22">
         <v>27.500000000000004</v>
       </c>
-      <c r="E143" s="17">
+      <c r="E143" s="23">
         <v>1.5E-3</v>
       </c>
-      <c r="U143" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V143" s="12" t="s">
+      <c r="U143" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V143" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="W143" s="12" t="s">
+      <c r="W143" s="20" t="s">
         <v>490</v>
       </c>
-      <c r="X143" s="12" t="s">
+      <c r="X143" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="144" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B144" s="10" t="s">
+      <c r="B144" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="C144" s="11">
+      <c r="C144" s="17">
         <v>3.3962050000000001</v>
       </c>
-      <c r="D144" s="14">
+      <c r="D144" s="18">
         <v>14.3</v>
       </c>
-      <c r="E144" s="15">
+      <c r="E144" s="19">
         <v>7.7999999999999999E-4</v>
       </c>
-      <c r="U144" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V144" s="10" t="s">
+      <c r="U144" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V144" s="16" t="s">
         <v>489</v>
       </c>
-      <c r="W144" s="10" t="s">
+      <c r="W144" s="16" t="s">
         <v>490</v>
       </c>
-      <c r="X144" s="10" t="s">
+      <c r="X144" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="145" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B145" s="12" t="s">
+      <c r="B145" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="C145" s="13">
+      <c r="C145" s="21">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D145" s="16">
+      <c r="D145" s="22">
         <v>18.700000000000003</v>
       </c>
-      <c r="E145" s="17">
+      <c r="E145" s="23">
         <v>1.0200000000000001E-3</v>
       </c>
-      <c r="U145" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V145" s="12" t="s">
+      <c r="U145" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V145" s="20" t="s">
         <v>491</v>
       </c>
-      <c r="W145" s="12" t="s">
+      <c r="W145" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="X145" s="12" t="s">
+      <c r="X145" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="146" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B146" s="10" t="s">
+      <c r="B146" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="C146" s="11">
+      <c r="C146" s="17">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D146" s="14">
+      <c r="D146" s="18">
         <v>29.700000000000003</v>
       </c>
-      <c r="E146" s="15">
+      <c r="E146" s="19">
         <v>1.6200000000000001E-3</v>
       </c>
-      <c r="U146" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V146" s="10" t="s">
+      <c r="U146" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V146" s="16" t="s">
         <v>491</v>
       </c>
-      <c r="W146" s="10" t="s">
+      <c r="W146" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="X146" s="10" t="s">
+      <c r="X146" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="147" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B147" s="12" t="s">
+      <c r="B147" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="C147" s="13">
+      <c r="C147" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D147" s="16">
+      <c r="D147" s="22">
         <v>23.1</v>
       </c>
-      <c r="E147" s="17">
+      <c r="E147" s="23">
         <v>1.2600000000000001E-3</v>
       </c>
-      <c r="U147" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V147" s="12" t="s">
+      <c r="U147" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V147" s="20" t="s">
         <v>491</v>
       </c>
-      <c r="W147" s="12" t="s">
+      <c r="W147" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="X147" s="12" t="s">
+      <c r="X147" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="148" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B148" s="10" t="s">
+      <c r="B148" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="C148" s="11">
+      <c r="C148" s="17">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D148" s="14">
+      <c r="D148" s="18">
         <v>9.9</v>
       </c>
-      <c r="E148" s="15">
+      <c r="E148" s="19">
         <v>5.4000000000000001E-4</v>
       </c>
-      <c r="U148" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V148" s="10" t="s">
+      <c r="U148" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V148" s="16" t="s">
         <v>492</v>
       </c>
-      <c r="W148" s="10" t="s">
+      <c r="W148" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="X148" s="10" t="s">
+      <c r="X148" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="149" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B149" s="12" t="s">
+      <c r="B149" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="C149" s="13">
+      <c r="C149" s="21">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D149" s="16">
+      <c r="D149" s="22">
         <v>29.700000000000003</v>
       </c>
-      <c r="E149" s="17">
+      <c r="E149" s="23">
         <v>1.6200000000000001E-3</v>
       </c>
-      <c r="U149" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V149" s="12" t="s">
+      <c r="U149" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V149" s="20" t="s">
         <v>493</v>
       </c>
-      <c r="W149" s="12" t="s">
+      <c r="W149" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="X149" s="12" t="s">
+      <c r="X149" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="150" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B150" s="10" t="s">
+      <c r="B150" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="C150" s="11">
+      <c r="C150" s="17">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D150" s="14">
+      <c r="D150" s="18">
         <v>16.5</v>
       </c>
-      <c r="E150" s="15">
+      <c r="E150" s="19">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="U150" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V150" s="10" t="s">
+      <c r="U150" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V150" s="16" t="s">
         <v>494</v>
       </c>
-      <c r="W150" s="10" t="s">
+      <c r="W150" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="X150" s="10" t="s">
+      <c r="X150" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="151" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B151" s="12" t="s">
+      <c r="B151" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="C151" s="13">
+      <c r="C151" s="21">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D151" s="16">
+      <c r="D151" s="22">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E151" s="17">
+      <c r="E151" s="23">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="U151" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V151" s="12" t="s">
+      <c r="U151" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V151" s="20" t="s">
         <v>495</v>
       </c>
-      <c r="W151" s="12" t="s">
+      <c r="W151" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="X151" s="12" t="s">
+      <c r="X151" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="152" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B152" s="10" t="s">
+      <c r="B152" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="C152" s="11">
+      <c r="C152" s="17">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D152" s="14">
+      <c r="D152" s="18">
         <v>16.5</v>
       </c>
-      <c r="E152" s="15">
+      <c r="E152" s="19">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="U152" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V152" s="10" t="s">
+      <c r="U152" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V152" s="16" t="s">
         <v>496</v>
       </c>
-      <c r="W152" s="10" t="s">
+      <c r="W152" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="X152" s="10" t="s">
+      <c r="X152" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="153" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B153" s="12" t="s">
+      <c r="B153" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="C153" s="13">
+      <c r="C153" s="21">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D153" s="16">
+      <c r="D153" s="22">
         <v>13.200000000000001</v>
       </c>
-      <c r="E153" s="17">
+      <c r="E153" s="23">
         <v>7.2000000000000005E-4</v>
       </c>
-      <c r="U153" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V153" s="12" t="s">
+      <c r="U153" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V153" s="20" t="s">
         <v>497</v>
       </c>
-      <c r="W153" s="12" t="s">
+      <c r="W153" s="20" t="s">
         <v>412</v>
       </c>
-      <c r="X153" s="12" t="s">
+      <c r="X153" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="154" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B154" s="10" t="s">
+      <c r="B154" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="C154" s="11">
+      <c r="C154" s="17">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D154" s="14">
+      <c r="D154" s="18">
         <v>15.400000000000002</v>
       </c>
-      <c r="E154" s="15">
+      <c r="E154" s="19">
         <v>8.4000000000000003E-4</v>
       </c>
-      <c r="U154" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V154" s="10" t="s">
+      <c r="U154" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V154" s="16" t="s">
         <v>498</v>
       </c>
-      <c r="W154" s="10" t="s">
+      <c r="W154" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="X154" s="10" t="s">
+      <c r="X154" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="155" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B155" s="12" t="s">
+      <c r="B155" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C155" s="13">
+      <c r="C155" s="21">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D155" s="16">
+      <c r="D155" s="22">
         <v>16.5</v>
       </c>
-      <c r="E155" s="17">
+      <c r="E155" s="23">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="U155" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V155" s="12" t="s">
+      <c r="U155" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V155" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="W155" s="12" t="s">
+      <c r="W155" s="20" t="s">
         <v>426</v>
       </c>
-      <c r="X155" s="12" t="s">
+      <c r="X155" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="156" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B156" s="10" t="s">
+      <c r="B156" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="C156" s="11">
+      <c r="C156" s="17">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D156" s="14">
+      <c r="D156" s="18">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E156" s="15">
+      <c r="E156" s="19">
         <v>1.2E-4</v>
       </c>
-      <c r="U156" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V156" s="10" t="s">
+      <c r="U156" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V156" s="16" t="s">
         <v>500</v>
       </c>
-      <c r="W156" s="10" t="s">
+      <c r="W156" s="16" t="s">
         <v>428</v>
       </c>
-      <c r="X156" s="10" t="s">
+      <c r="X156" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="157" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B157" s="12" t="s">
+      <c r="B157" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="C157" s="13">
+      <c r="C157" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D157" s="16">
+      <c r="D157" s="22">
         <v>17.600000000000001</v>
       </c>
-      <c r="E157" s="17">
+      <c r="E157" s="23">
         <v>9.6000000000000002E-4</v>
       </c>
-      <c r="U157" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V157" s="12" t="s">
+      <c r="U157" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V157" s="20" t="s">
         <v>501</v>
       </c>
-      <c r="W157" s="12" t="s">
+      <c r="W157" s="20" t="s">
         <v>428</v>
       </c>
-      <c r="X157" s="12" t="s">
+      <c r="X157" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="158" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B158" s="10" t="s">
+      <c r="B158" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="C158" s="11">
+      <c r="C158" s="17">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D158" s="14">
+      <c r="D158" s="18">
         <v>23.1</v>
       </c>
-      <c r="E158" s="15">
+      <c r="E158" s="19">
         <v>1.2600000000000001E-3</v>
       </c>
-      <c r="U158" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V158" s="10" t="s">
+      <c r="U158" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V158" s="16" t="s">
         <v>502</v>
       </c>
-      <c r="W158" s="10" t="s">
+      <c r="W158" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="X158" s="10" t="s">
+      <c r="X158" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="159" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B159" s="12" t="s">
+      <c r="B159" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="C159" s="13">
+      <c r="C159" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D159" s="16">
+      <c r="D159" s="22">
         <v>3.3000000000000003</v>
       </c>
-      <c r="E159" s="17">
+      <c r="E159" s="23">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="U159" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V159" s="12" t="s">
+      <c r="U159" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V159" s="20" t="s">
         <v>503</v>
       </c>
-      <c r="W159" s="12" t="s">
+      <c r="W159" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="X159" s="12" t="s">
+      <c r="X159" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="160" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B160" s="10" t="s">
+      <c r="B160" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="C160" s="11">
+      <c r="C160" s="17">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D160" s="14">
+      <c r="D160" s="18">
         <v>17.600000000000001</v>
       </c>
-      <c r="E160" s="15">
+      <c r="E160" s="19">
         <v>9.6000000000000002E-4</v>
       </c>
-      <c r="U160" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V160" s="10" t="s">
+      <c r="U160" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V160" s="16" t="s">
         <v>504</v>
       </c>
-      <c r="W160" s="10" t="s">
+      <c r="W160" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="X160" s="10" t="s">
+      <c r="X160" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="161" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B161" s="12" t="s">
+      <c r="B161" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="C161" s="13">
+      <c r="C161" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D161" s="16">
+      <c r="D161" s="22">
         <v>7.7000000000000011</v>
       </c>
-      <c r="E161" s="17">
+      <c r="E161" s="23">
         <v>4.2000000000000002E-4</v>
       </c>
-      <c r="U161" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V161" s="12" t="s">
+      <c r="U161" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V161" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="W161" s="12" t="s">
+      <c r="W161" s="20" t="s">
         <v>432</v>
       </c>
-      <c r="X161" s="12" t="s">
+      <c r="X161" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="162" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B162" s="10" t="s">
+      <c r="B162" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="C162" s="11">
+      <c r="C162" s="17">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D162" s="14">
+      <c r="D162" s="18">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E162" s="15">
+      <c r="E162" s="19">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="U162" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V162" s="10" t="s">
+      <c r="U162" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V162" s="16" t="s">
         <v>506</v>
       </c>
-      <c r="W162" s="10" t="s">
+      <c r="W162" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="X162" s="10" t="s">
+      <c r="X162" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="163" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B163" s="12" t="s">
+      <c r="B163" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="C163" s="13">
+      <c r="C163" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D163" s="16">
+      <c r="D163" s="22">
         <v>11</v>
       </c>
-      <c r="E163" s="17">
+      <c r="E163" s="23">
         <v>6.0000000000000006E-4</v>
       </c>
-      <c r="U163" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V163" s="12" t="s">
+      <c r="U163" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V163" s="20" t="s">
         <v>507</v>
       </c>
-      <c r="W163" s="12" t="s">
+      <c r="W163" s="20" t="s">
         <v>434</v>
       </c>
-      <c r="X163" s="12" t="s">
+      <c r="X163" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="164" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B164" s="10" t="s">
+      <c r="B164" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="C164" s="11">
+      <c r="C164" s="17">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D164" s="14">
+      <c r="D164" s="18">
         <v>60.500000000000007</v>
       </c>
-      <c r="E164" s="15">
+      <c r="E164" s="19">
         <v>3.3E-3</v>
       </c>
-      <c r="U164" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V164" s="10" t="s">
+      <c r="U164" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V164" s="16" t="s">
         <v>508</v>
       </c>
-      <c r="W164" s="10" t="s">
+      <c r="W164" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="X164" s="10" t="s">
+      <c r="X164" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="165" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B165" s="12" t="s">
+      <c r="B165" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="C165" s="13">
+      <c r="C165" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D165" s="16">
+      <c r="D165" s="22">
         <v>31.900000000000002</v>
       </c>
-      <c r="E165" s="17">
+      <c r="E165" s="23">
         <v>1.74E-3</v>
       </c>
-      <c r="U165" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V165" s="12" t="s">
+      <c r="U165" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V165" s="20" t="s">
         <v>509</v>
       </c>
-      <c r="W165" s="12" t="s">
+      <c r="W165" s="20" t="s">
         <v>436</v>
       </c>
-      <c r="X165" s="12" t="s">
+      <c r="X165" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="166" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B166" s="10" t="s">
+      <c r="B166" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="C166" s="11">
+      <c r="C166" s="17">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D166" s="14">
+      <c r="D166" s="18">
         <v>18.700000000000003</v>
       </c>
-      <c r="E166" s="15">
+      <c r="E166" s="19">
         <v>1.0200000000000001E-3</v>
       </c>
-      <c r="U166" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V166" s="10" t="s">
+      <c r="U166" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V166" s="16" t="s">
         <v>510</v>
       </c>
-      <c r="W166" s="10" t="s">
+      <c r="W166" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="X166" s="10" t="s">
+      <c r="X166" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="167" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B167" s="12" t="s">
+      <c r="B167" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="C167" s="13">
+      <c r="C167" s="21">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D167" s="16">
+      <c r="D167" s="22">
         <v>35.200000000000003</v>
       </c>
-      <c r="E167" s="17">
+      <c r="E167" s="23">
         <v>1.92E-3</v>
       </c>
-      <c r="U167" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V167" s="12" t="s">
+      <c r="U167" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V167" s="20" t="s">
         <v>511</v>
       </c>
-      <c r="W167" s="12" t="s">
+      <c r="W167" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="X167" s="12" t="s">
+      <c r="X167" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="168" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B168" s="10" t="s">
+      <c r="B168" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="C168" s="11">
+      <c r="C168" s="17">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D168" s="14">
+      <c r="D168" s="18">
         <v>23.1</v>
       </c>
-      <c r="E168" s="15">
+      <c r="E168" s="19">
         <v>1.2600000000000001E-3</v>
       </c>
-      <c r="U168" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V168" s="10" t="s">
+      <c r="U168" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V168" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="W168" s="10" t="s">
+      <c r="W168" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="X168" s="10" t="s">
+      <c r="X168" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="169" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B169" s="12" t="s">
+      <c r="B169" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C169" s="13">
+      <c r="C169" s="21">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D169" s="16">
+      <c r="D169" s="22">
         <v>27.500000000000004</v>
       </c>
-      <c r="E169" s="17">
+      <c r="E169" s="23">
         <v>1.5E-3</v>
       </c>
-      <c r="U169" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V169" s="12" t="s">
+      <c r="U169" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V169" s="20" t="s">
         <v>513</v>
       </c>
-      <c r="W169" s="12" t="s">
+      <c r="W169" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="X169" s="12" t="s">
+      <c r="X169" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="170" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B170" s="10" t="s">
+      <c r="B170" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="C170" s="11">
+      <c r="C170" s="17">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D170" s="14">
+      <c r="D170" s="18">
         <v>46.2</v>
       </c>
-      <c r="E170" s="15">
+      <c r="E170" s="19">
         <v>2.5200000000000001E-3</v>
       </c>
-      <c r="U170" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V170" s="10" t="s">
+      <c r="U170" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V170" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="W170" s="10" t="s">
+      <c r="W170" s="16" t="s">
         <v>441</v>
       </c>
-      <c r="X170" s="10" t="s">
+      <c r="X170" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="171" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B171" s="12" t="s">
+      <c r="B171" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="C171" s="13">
+      <c r="C171" s="21">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D171" s="16">
+      <c r="D171" s="22">
         <v>25.3</v>
       </c>
-      <c r="E171" s="17">
+      <c r="E171" s="23">
         <v>1.3799999999999999E-3</v>
       </c>
-      <c r="U171" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V171" s="12" t="s">
+      <c r="U171" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V171" s="20" t="s">
         <v>515</v>
       </c>
-      <c r="W171" s="12" t="s">
+      <c r="W171" s="20" t="s">
         <v>441</v>
       </c>
-      <c r="X171" s="12" t="s">
+      <c r="X171" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="172" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B172" s="10" t="s">
+      <c r="B172" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="C172" s="11">
+      <c r="C172" s="17">
         <v>3.3962060000000003</v>
       </c>
-      <c r="D172" s="14">
+      <c r="D172" s="18">
         <v>47.300000000000004</v>
       </c>
-      <c r="E172" s="15">
+      <c r="E172" s="19">
         <v>2.5800000000000003E-3</v>
       </c>
-      <c r="U172" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V172" s="10" t="s">
+      <c r="U172" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V172" s="16" t="s">
         <v>516</v>
       </c>
-      <c r="W172" s="10" t="s">
+      <c r="W172" s="16" t="s">
         <v>443</v>
       </c>
-      <c r="X172" s="10" t="s">
+      <c r="X172" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="173" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B173" s="12" t="s">
+      <c r="B173" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="C173" s="13">
+      <c r="C173" s="21">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D173" s="16">
+      <c r="D173" s="22">
         <v>25.3</v>
       </c>
-      <c r="E173" s="17">
+      <c r="E173" s="23">
         <v>1.3799999999999999E-3</v>
       </c>
-      <c r="U173" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V173" s="12" t="s">
+      <c r="U173" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V173" s="20" t="s">
         <v>517</v>
       </c>
-      <c r="W173" s="12" t="s">
+      <c r="W173" s="20" t="s">
         <v>443</v>
       </c>
-      <c r="X173" s="12" t="s">
+      <c r="X173" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="174" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B174" s="10" t="s">
+      <c r="B174" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="C174" s="11">
+      <c r="C174" s="17">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D174" s="14">
+      <c r="D174" s="18">
         <v>12.100000000000001</v>
       </c>
-      <c r="E174" s="15">
+      <c r="E174" s="19">
         <v>6.6E-4</v>
       </c>
-      <c r="U174" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V174" s="10" t="s">
+      <c r="U174" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V174" s="16" t="s">
         <v>518</v>
       </c>
-      <c r="W174" s="10" t="s">
+      <c r="W174" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="X174" s="10" t="s">
+      <c r="X174" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="175" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B175" s="12" t="s">
+      <c r="B175" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="C175" s="13">
+      <c r="C175" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D175" s="16">
+      <c r="D175" s="22">
         <v>9.9</v>
       </c>
-      <c r="E175" s="17">
+      <c r="E175" s="23">
         <v>5.4000000000000001E-4</v>
       </c>
-      <c r="U175" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V175" s="12" t="s">
+      <c r="U175" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V175" s="20" t="s">
         <v>519</v>
       </c>
-      <c r="W175" s="12" t="s">
+      <c r="W175" s="20" t="s">
         <v>445</v>
       </c>
-      <c r="X175" s="12" t="s">
+      <c r="X175" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="176" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B176" s="10" t="s">
+      <c r="B176" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="C176" s="11">
+      <c r="C176" s="17">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D176" s="14">
+      <c r="D176" s="18">
         <v>20.900000000000002</v>
       </c>
-      <c r="E176" s="15">
+      <c r="E176" s="19">
         <v>1.14E-3</v>
       </c>
-      <c r="U176" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V176" s="10" t="s">
+      <c r="U176" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V176" s="16" t="s">
         <v>520</v>
       </c>
-      <c r="W176" s="10" t="s">
+      <c r="W176" s="16" t="s">
         <v>447</v>
       </c>
-      <c r="X176" s="10" t="s">
+      <c r="X176" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="177" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B177" s="12" t="s">
+      <c r="B177" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="C177" s="13">
+      <c r="C177" s="21">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D177" s="16">
+      <c r="D177" s="22">
         <v>17.600000000000001</v>
       </c>
-      <c r="E177" s="17">
+      <c r="E177" s="23">
         <v>9.6000000000000002E-4</v>
       </c>
-      <c r="U177" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V177" s="12" t="s">
+      <c r="U177" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V177" s="20" t="s">
         <v>521</v>
       </c>
-      <c r="W177" s="12" t="s">
+      <c r="W177" s="20" t="s">
         <v>447</v>
       </c>
-      <c r="X177" s="12" t="s">
+      <c r="X177" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="178" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B178" s="10" t="s">
+      <c r="B178" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="C178" s="11">
+      <c r="C178" s="17">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D178" s="14">
+      <c r="D178" s="18">
         <v>5.5</v>
       </c>
-      <c r="E178" s="15">
+      <c r="E178" s="19">
         <v>3.0000000000000003E-4</v>
       </c>
-      <c r="U178" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V178" s="10" t="s">
+      <c r="U178" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V178" s="16" t="s">
         <v>522</v>
       </c>
-      <c r="W178" s="10" t="s">
+      <c r="W178" s="16" t="s">
         <v>449</v>
       </c>
-      <c r="X178" s="10" t="s">
+      <c r="X178" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="179" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B179" s="12" t="s">
+      <c r="B179" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="C179" s="13">
+      <c r="C179" s="21">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D179" s="16">
+      <c r="D179" s="22">
         <v>26.400000000000002</v>
       </c>
-      <c r="E179" s="17">
+      <c r="E179" s="23">
         <v>1.4400000000000001E-3</v>
       </c>
-      <c r="U179" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V179" s="12" t="s">
+      <c r="U179" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V179" s="20" t="s">
         <v>523</v>
       </c>
-      <c r="W179" s="12" t="s">
+      <c r="W179" s="20" t="s">
         <v>449</v>
       </c>
-      <c r="X179" s="12" t="s">
+      <c r="X179" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="180" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B180" s="10" t="s">
+      <c r="B180" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="C180" s="11">
+      <c r="C180" s="17">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D180" s="14">
+      <c r="D180" s="18">
         <v>25.3</v>
       </c>
-      <c r="E180" s="15">
+      <c r="E180" s="19">
         <v>1.3799999999999999E-3</v>
       </c>
-      <c r="U180" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V180" s="10" t="s">
+      <c r="U180" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V180" s="16" t="s">
         <v>524</v>
       </c>
-      <c r="W180" s="10" t="s">
+      <c r="W180" s="16" t="s">
         <v>451</v>
       </c>
-      <c r="X180" s="10" t="s">
+      <c r="X180" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="181" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B181" s="12" t="s">
+      <c r="B181" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="C181" s="13">
+      <c r="C181" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D181" s="16">
+      <c r="D181" s="22">
         <v>12.100000000000001</v>
       </c>
-      <c r="E181" s="17">
+      <c r="E181" s="23">
         <v>6.6E-4</v>
       </c>
-      <c r="U181" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V181" s="12" t="s">
+      <c r="U181" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V181" s="20" t="s">
         <v>525</v>
       </c>
-      <c r="W181" s="12" t="s">
+      <c r="W181" s="20" t="s">
         <v>451</v>
       </c>
-      <c r="X181" s="12" t="s">
+      <c r="X181" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="182" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B182" s="10" t="s">
+      <c r="B182" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="C182" s="11">
+      <c r="C182" s="17">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D182" s="14">
+      <c r="D182" s="18">
         <v>24.200000000000003</v>
       </c>
-      <c r="E182" s="15">
+      <c r="E182" s="19">
         <v>1.32E-3</v>
       </c>
-      <c r="U182" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V182" s="10" t="s">
+      <c r="U182" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V182" s="16" t="s">
         <v>526</v>
       </c>
-      <c r="W182" s="10" t="s">
+      <c r="W182" s="16" t="s">
         <v>453</v>
       </c>
-      <c r="X182" s="10" t="s">
+      <c r="X182" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="183" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B183" s="12" t="s">
+      <c r="B183" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="C183" s="13">
+      <c r="C183" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D183" s="16">
+      <c r="D183" s="22">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E183" s="17">
+      <c r="E183" s="23">
         <v>1.2E-4</v>
       </c>
-      <c r="U183" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V183" s="12" t="s">
+      <c r="U183" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V183" s="20" t="s">
         <v>527</v>
       </c>
-      <c r="W183" s="12" t="s">
+      <c r="W183" s="20" t="s">
         <v>453</v>
       </c>
-      <c r="X183" s="12" t="s">
+      <c r="X183" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="184" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B184" s="10" t="s">
+      <c r="B184" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="C184" s="11">
+      <c r="C184" s="17">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D184" s="14">
+      <c r="D184" s="18">
         <v>16.5</v>
       </c>
-      <c r="E184" s="15">
+      <c r="E184" s="19">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="U184" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V184" s="10" t="s">
+      <c r="U184" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V184" s="16" t="s">
         <v>528</v>
       </c>
-      <c r="W184" s="10" t="s">
+      <c r="W184" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="X184" s="10" t="s">
+      <c r="X184" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="185" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B185" s="12" t="s">
+      <c r="B185" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="C185" s="13">
+      <c r="C185" s="21">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D185" s="16">
+      <c r="D185" s="22">
         <v>16.5</v>
       </c>
-      <c r="E185" s="17">
+      <c r="E185" s="23">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="U185" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V185" s="12" t="s">
+      <c r="U185" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V185" s="20" t="s">
         <v>529</v>
       </c>
-      <c r="W185" s="12" t="s">
+      <c r="W185" s="20" t="s">
         <v>455</v>
       </c>
-      <c r="X185" s="12" t="s">
+      <c r="X185" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="186" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B186" s="10" t="s">
+      <c r="B186" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="C186" s="11">
+      <c r="C186" s="17">
         <v>3.3962050000000001</v>
       </c>
-      <c r="D186" s="14">
+      <c r="D186" s="18">
         <v>16.5</v>
       </c>
-      <c r="E186" s="15">
+      <c r="E186" s="19">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="U186" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V186" s="10" t="s">
+      <c r="U186" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V186" s="16" t="s">
         <v>530</v>
       </c>
-      <c r="W186" s="10" t="s">
+      <c r="W186" s="16" t="s">
         <v>457</v>
       </c>
-      <c r="X186" s="10" t="s">
+      <c r="X186" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="187" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B187" s="12" t="s">
+      <c r="B187" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="C187" s="13">
+      <c r="C187" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D187" s="16">
+      <c r="D187" s="22">
         <v>9.9</v>
       </c>
-      <c r="E187" s="17">
+      <c r="E187" s="23">
         <v>5.4000000000000001E-4</v>
       </c>
-      <c r="U187" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V187" s="12" t="s">
+      <c r="U187" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V187" s="20" t="s">
         <v>531</v>
       </c>
-      <c r="W187" s="12" t="s">
+      <c r="W187" s="20" t="s">
         <v>457</v>
       </c>
-      <c r="X187" s="12" t="s">
+      <c r="X187" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="188" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B188" s="10" t="s">
+      <c r="B188" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="C188" s="11">
+      <c r="C188" s="17">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D188" s="14">
+      <c r="D188" s="18">
         <v>18.700000000000003</v>
       </c>
-      <c r="E188" s="15">
+      <c r="E188" s="19">
         <v>1.0200000000000001E-3</v>
       </c>
-      <c r="U188" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V188" s="10" t="s">
+      <c r="U188" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V188" s="16" t="s">
         <v>532</v>
       </c>
-      <c r="W188" s="10" t="s">
+      <c r="W188" s="16" t="s">
         <v>459</v>
       </c>
-      <c r="X188" s="10" t="s">
+      <c r="X188" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="189" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B189" s="12" t="s">
+      <c r="B189" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="C189" s="13">
+      <c r="C189" s="21">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D189" s="16">
+      <c r="D189" s="22">
         <v>19.8</v>
       </c>
-      <c r="E189" s="17">
+      <c r="E189" s="23">
         <v>1.08E-3</v>
       </c>
-      <c r="U189" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V189" s="12" t="s">
+      <c r="U189" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V189" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="W189" s="12" t="s">
+      <c r="W189" s="20" t="s">
         <v>459</v>
       </c>
-      <c r="X189" s="12" t="s">
+      <c r="X189" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="190" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B190" s="10" t="s">
+      <c r="B190" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="C190" s="11">
+      <c r="C190" s="17">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D190" s="14">
+      <c r="D190" s="18">
         <v>26.400000000000002</v>
       </c>
-      <c r="E190" s="15">
+      <c r="E190" s="19">
         <v>1.4400000000000001E-3</v>
       </c>
-      <c r="U190" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V190" s="10" t="s">
+      <c r="U190" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V190" s="16" t="s">
         <v>534</v>
       </c>
-      <c r="W190" s="10" t="s">
+      <c r="W190" s="16" t="s">
         <v>461</v>
       </c>
-      <c r="X190" s="10" t="s">
+      <c r="X190" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="191" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B191" s="12" t="s">
+      <c r="B191" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="C191" s="13">
+      <c r="C191" s="21">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D191" s="16">
+      <c r="D191" s="22">
         <v>14.3</v>
       </c>
-      <c r="E191" s="17">
+      <c r="E191" s="23">
         <v>7.7999999999999999E-4</v>
       </c>
-      <c r="U191" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V191" s="12" t="s">
+      <c r="U191" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V191" s="20" t="s">
         <v>535</v>
       </c>
-      <c r="W191" s="12" t="s">
+      <c r="W191" s="20" t="s">
         <v>461</v>
       </c>
-      <c r="X191" s="12" t="s">
+      <c r="X191" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="192" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B192" s="10" t="s">
+      <c r="B192" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="C192" s="11">
+      <c r="C192" s="17">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D192" s="14">
+      <c r="D192" s="18">
         <v>48.400000000000006</v>
       </c>
-      <c r="E192" s="15">
+      <c r="E192" s="19">
         <v>2.64E-3</v>
       </c>
-      <c r="U192" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V192" s="10" t="s">
+      <c r="U192" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V192" s="16" t="s">
         <v>536</v>
       </c>
-      <c r="W192" s="10" t="s">
+      <c r="W192" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="X192" s="10" t="s">
+      <c r="X192" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="193" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B193" s="12" t="s">
+      <c r="B193" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="C193" s="13">
+      <c r="C193" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D193" s="16">
+      <c r="D193" s="22">
         <v>3.3000000000000003</v>
       </c>
-      <c r="E193" s="17">
+      <c r="E193" s="23">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="U193" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V193" s="12" t="s">
+      <c r="U193" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V193" s="20" t="s">
         <v>537</v>
       </c>
-      <c r="W193" s="12" t="s">
+      <c r="W193" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="X193" s="12" t="s">
+      <c r="X193" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="194" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B194" s="10" t="s">
+      <c r="B194" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="C194" s="11">
+      <c r="C194" s="17">
         <v>3.3962060000000003</v>
       </c>
-      <c r="D194" s="14">
+      <c r="D194" s="18">
         <v>15.400000000000002</v>
       </c>
-      <c r="E194" s="15">
+      <c r="E194" s="19">
         <v>8.4000000000000003E-4</v>
       </c>
-      <c r="U194" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V194" s="10" t="s">
+      <c r="U194" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V194" s="16" t="s">
         <v>538</v>
       </c>
-      <c r="W194" s="10" t="s">
+      <c r="W194" s="16" t="s">
         <v>464</v>
       </c>
-      <c r="X194" s="10" t="s">
+      <c r="X194" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="195" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B195" s="12" t="s">
+      <c r="B195" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="C195" s="13">
+      <c r="C195" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D195" s="16">
+      <c r="D195" s="22">
         <v>24.200000000000003</v>
       </c>
-      <c r="E195" s="17">
+      <c r="E195" s="23">
         <v>1.32E-3</v>
       </c>
-      <c r="U195" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V195" s="12" t="s">
+      <c r="U195" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V195" s="20" t="s">
         <v>539</v>
       </c>
-      <c r="W195" s="12" t="s">
+      <c r="W195" s="20" t="s">
         <v>464</v>
       </c>
-      <c r="X195" s="12" t="s">
+      <c r="X195" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="196" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B196" s="10" t="s">
+      <c r="B196" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="C196" s="11">
+      <c r="C196" s="17">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D196" s="14">
+      <c r="D196" s="18">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E196" s="15">
+      <c r="E196" s="19">
         <v>2.4000000000000001E-4</v>
       </c>
-      <c r="U196" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V196" s="10" t="s">
+      <c r="U196" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V196" s="16" t="s">
         <v>540</v>
       </c>
-      <c r="W196" s="10" t="s">
+      <c r="W196" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="X196" s="10" t="s">
+      <c r="X196" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="197" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B197" s="12" t="s">
+      <c r="B197" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="C197" s="13">
+      <c r="C197" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D197" s="16">
+      <c r="D197" s="22">
         <v>19.8</v>
       </c>
-      <c r="E197" s="17">
+      <c r="E197" s="23">
         <v>1.08E-3</v>
       </c>
-      <c r="U197" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V197" s="12" t="s">
+      <c r="U197" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V197" s="20" t="s">
         <v>541</v>
       </c>
-      <c r="W197" s="12" t="s">
+      <c r="W197" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="X197" s="12" t="s">
+      <c r="X197" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="198" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B198" s="10" t="s">
+      <c r="B198" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="C198" s="11">
+      <c r="C198" s="17">
         <v>1.005455</v>
       </c>
-      <c r="D198" s="14">
+      <c r="D198" s="18">
         <v>14.3</v>
       </c>
-      <c r="E198" s="15">
+      <c r="E198" s="19">
         <v>7.7999999999999999E-4</v>
       </c>
-      <c r="U198" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V198" s="10" t="s">
+      <c r="U198" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V198" s="16" t="s">
         <v>542</v>
       </c>
-      <c r="W198" s="10" t="s">
+      <c r="W198" s="16" t="s">
         <v>468</v>
       </c>
-      <c r="X198" s="10" t="s">
+      <c r="X198" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="199" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B199" s="12" t="s">
+      <c r="B199" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="C199" s="13">
+      <c r="C199" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D199" s="16">
+      <c r="D199" s="22">
         <v>3.3000000000000003</v>
       </c>
-      <c r="E199" s="17">
+      <c r="E199" s="23">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="U199" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V199" s="12" t="s">
+      <c r="U199" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V199" s="20" t="s">
         <v>543</v>
       </c>
-      <c r="W199" s="12" t="s">
+      <c r="W199" s="20" t="s">
         <v>468</v>
       </c>
-      <c r="X199" s="12" t="s">
+      <c r="X199" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="200" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B200" s="10" t="s">
+      <c r="B200" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="C200" s="11">
+      <c r="C200" s="17">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D200" s="14">
+      <c r="D200" s="18">
         <v>12.100000000000001</v>
       </c>
-      <c r="E200" s="15">
+      <c r="E200" s="19">
         <v>6.6E-4</v>
       </c>
-      <c r="U200" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V200" s="10" t="s">
+      <c r="U200" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V200" s="16" t="s">
         <v>544</v>
       </c>
-      <c r="W200" s="10" t="s">
+      <c r="W200" s="16" t="s">
         <v>470</v>
       </c>
-      <c r="X200" s="10" t="s">
+      <c r="X200" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="201" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B201" s="12" t="s">
+      <c r="B201" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="C201" s="13">
+      <c r="C201" s="21">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D201" s="16">
+      <c r="D201" s="22">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E201" s="17">
+      <c r="E201" s="23">
         <v>1.2E-4</v>
       </c>
-      <c r="U201" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V201" s="12" t="s">
+      <c r="U201" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V201" s="20" t="s">
         <v>545</v>
       </c>
-      <c r="W201" s="12" t="s">
+      <c r="W201" s="20" t="s">
         <v>470</v>
       </c>
-      <c r="X201" s="12" t="s">
+      <c r="X201" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="202" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B202" s="10" t="s">
+      <c r="B202" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="C202" s="11">
+      <c r="C202" s="17">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D202" s="14">
+      <c r="D202" s="18">
         <v>12.100000000000001</v>
       </c>
-      <c r="E202" s="15">
+      <c r="E202" s="19">
         <v>6.6E-4</v>
       </c>
-      <c r="U202" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V202" s="10" t="s">
+      <c r="U202" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V202" s="16" t="s">
         <v>546</v>
       </c>
-      <c r="W202" s="10" t="s">
+      <c r="W202" s="16" t="s">
         <v>472</v>
       </c>
-      <c r="X202" s="10" t="s">
+      <c r="X202" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="203" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B203" s="12" t="s">
+      <c r="B203" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="C203" s="13">
+      <c r="C203" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D203" s="16">
+      <c r="D203" s="22">
         <v>40.700000000000003</v>
       </c>
-      <c r="E203" s="17">
+      <c r="E203" s="23">
         <v>2.2200000000000002E-3</v>
       </c>
-      <c r="U203" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V203" s="12" t="s">
+      <c r="U203" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V203" s="20" t="s">
         <v>547</v>
       </c>
-      <c r="W203" s="12" t="s">
+      <c r="W203" s="20" t="s">
         <v>472</v>
       </c>
-      <c r="X203" s="12" t="s">
+      <c r="X203" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="204" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B204" s="10" t="s">
+      <c r="B204" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="C204" s="11">
+      <c r="C204" s="17">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D204" s="14">
+      <c r="D204" s="18">
         <v>25.3</v>
       </c>
-      <c r="E204" s="15">
+      <c r="E204" s="19">
         <v>1.3799999999999999E-3</v>
       </c>
-      <c r="U204" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V204" s="10" t="s">
+      <c r="U204" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V204" s="16" t="s">
         <v>548</v>
       </c>
-      <c r="W204" s="10" t="s">
+      <c r="W204" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="X204" s="10" t="s">
+      <c r="X204" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="205" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B205" s="12" t="s">
+      <c r="B205" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="C205" s="13">
+      <c r="C205" s="21">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D205" s="16">
+      <c r="D205" s="22">
         <v>19.8</v>
       </c>
-      <c r="E205" s="17">
+      <c r="E205" s="23">
         <v>1.08E-3</v>
       </c>
-      <c r="U205" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V205" s="12" t="s">
+      <c r="U205" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V205" s="20" t="s">
         <v>549</v>
       </c>
-      <c r="W205" s="12" t="s">
+      <c r="W205" s="20" t="s">
         <v>474</v>
       </c>
-      <c r="X205" s="12" t="s">
+      <c r="X205" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="206" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B206" s="10" t="s">
+      <c r="B206" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="C206" s="11">
+      <c r="C206" s="17">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D206" s="14">
+      <c r="D206" s="18">
         <v>116.60000000000001</v>
       </c>
-      <c r="E206" s="15">
+      <c r="E206" s="19">
         <v>6.3600000000000002E-3</v>
       </c>
-      <c r="U206" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V206" s="10" t="s">
+      <c r="U206" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V206" s="16" t="s">
         <v>550</v>
       </c>
-      <c r="W206" s="10" t="s">
+      <c r="W206" s="16" t="s">
         <v>476</v>
       </c>
-      <c r="X206" s="10" t="s">
+      <c r="X206" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="207" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B207" s="12" t="s">
+      <c r="B207" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="C207" s="13">
+      <c r="C207" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D207" s="16">
+      <c r="D207" s="22">
         <v>3.3000000000000003</v>
       </c>
-      <c r="E207" s="17">
+      <c r="E207" s="23">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="U207" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V207" s="12" t="s">
+      <c r="U207" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V207" s="20" t="s">
         <v>551</v>
       </c>
-      <c r="W207" s="12" t="s">
+      <c r="W207" s="20" t="s">
         <v>476</v>
       </c>
-      <c r="X207" s="12" t="s">
+      <c r="X207" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="208" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B208" s="10" t="s">
+      <c r="B208" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C208" s="11">
+      <c r="C208" s="17">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D208" s="14">
+      <c r="D208" s="18">
         <v>22</v>
       </c>
-      <c r="E208" s="15">
+      <c r="E208" s="19">
         <v>1.2000000000000001E-3</v>
       </c>
-      <c r="U208" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V208" s="10" t="s">
+      <c r="U208" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V208" s="16" t="s">
         <v>552</v>
       </c>
-      <c r="W208" s="10" t="s">
+      <c r="W208" s="16" t="s">
         <v>478</v>
       </c>
-      <c r="X208" s="10" t="s">
+      <c r="X208" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="209" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B209" s="12" t="s">
+      <c r="B209" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="C209" s="13">
+      <c r="C209" s="21">
         <v>3.3962050000000001</v>
       </c>
-      <c r="D209" s="16">
+      <c r="D209" s="22">
         <v>11</v>
       </c>
-      <c r="E209" s="17">
+      <c r="E209" s="23">
         <v>6.0000000000000006E-4</v>
       </c>
-      <c r="U209" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V209" s="12" t="s">
+      <c r="U209" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V209" s="20" t="s">
         <v>553</v>
       </c>
-      <c r="W209" s="12" t="s">
+      <c r="W209" s="20" t="s">
         <v>478</v>
       </c>
-      <c r="X209" s="12" t="s">
+      <c r="X209" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="210" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B210" s="10" t="s">
+      <c r="B210" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="C210" s="11">
+      <c r="C210" s="17">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D210" s="14">
+      <c r="D210" s="18">
         <v>20.900000000000002</v>
       </c>
-      <c r="E210" s="15">
+      <c r="E210" s="19">
         <v>1.14E-3</v>
       </c>
-      <c r="U210" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V210" s="10" t="s">
+      <c r="U210" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V210" s="16" t="s">
         <v>554</v>
       </c>
-      <c r="W210" s="10" t="s">
+      <c r="W210" s="16" t="s">
         <v>480</v>
       </c>
-      <c r="X210" s="10" t="s">
+      <c r="X210" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="211" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B211" s="12" t="s">
+      <c r="B211" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="C211" s="13">
+      <c r="C211" s="21">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D211" s="16">
+      <c r="D211" s="22">
         <v>22</v>
       </c>
-      <c r="E211" s="17">
+      <c r="E211" s="23">
         <v>1.2000000000000001E-3</v>
       </c>
-      <c r="U211" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V211" s="12" t="s">
+      <c r="U211" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V211" s="20" t="s">
         <v>555</v>
       </c>
-      <c r="W211" s="12" t="s">
+      <c r="W211" s="20" t="s">
         <v>480</v>
       </c>
-      <c r="X211" s="12" t="s">
+      <c r="X211" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="212" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B212" s="10" t="s">
+      <c r="B212" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="C212" s="11">
+      <c r="C212" s="17">
         <v>3.3962050000000001</v>
       </c>
-      <c r="D212" s="14">
+      <c r="D212" s="18">
         <v>44</v>
       </c>
-      <c r="E212" s="15">
+      <c r="E212" s="19">
         <v>2.4000000000000002E-3</v>
       </c>
-      <c r="U212" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V212" s="10" t="s">
+      <c r="U212" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V212" s="16" t="s">
         <v>556</v>
       </c>
-      <c r="W212" s="10" t="s">
+      <c r="W212" s="16" t="s">
         <v>482</v>
       </c>
-      <c r="X212" s="10" t="s">
+      <c r="X212" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="213" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B213" s="12" t="s">
+      <c r="B213" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="C213" s="13">
+      <c r="C213" s="21">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D213" s="16">
+      <c r="D213" s="22">
         <v>20.900000000000002</v>
       </c>
-      <c r="E213" s="17">
+      <c r="E213" s="23">
         <v>1.14E-3</v>
       </c>
-      <c r="U213" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V213" s="12" t="s">
+      <c r="U213" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V213" s="20" t="s">
         <v>557</v>
       </c>
-      <c r="W213" s="12" t="s">
+      <c r="W213" s="20" t="s">
         <v>482</v>
       </c>
-      <c r="X213" s="12" t="s">
+      <c r="X213" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="214" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="U214" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V214" s="10" t="s">
+      <c r="U214" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V214" s="16" t="s">
         <v>558</v>
       </c>
-      <c r="W214" s="10" t="s">
+      <c r="W214" s="16" t="s">
         <v>484</v>
       </c>
-      <c r="X214" s="10" t="s">
+      <c r="X214" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="215" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="U215" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V215" s="12" t="s">
+      <c r="U215" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V215" s="20" t="s">
         <v>559</v>
       </c>
-      <c r="W215" s="12" t="s">
+      <c r="W215" s="20" t="s">
         <v>484</v>
       </c>
-      <c r="X215" s="12" t="s">
+      <c r="X215" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="216" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="U216" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V216" s="10" t="s">
+      <c r="U216" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V216" s="16" t="s">
         <v>560</v>
       </c>
-      <c r="W216" s="10" t="s">
+      <c r="W216" s="16" t="s">
         <v>486</v>
       </c>
-      <c r="X216" s="10" t="s">
+      <c r="X216" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="217" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="U217" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V217" s="12" t="s">
+      <c r="U217" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V217" s="20" t="s">
         <v>561</v>
       </c>
-      <c r="W217" s="12" t="s">
+      <c r="W217" s="20" t="s">
         <v>486</v>
       </c>
-      <c r="X217" s="12" t="s">
+      <c r="X217" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="218" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="U218" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V218" s="10" t="s">
+      <c r="U218" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V218" s="16" t="s">
         <v>562</v>
       </c>
-      <c r="W218" s="10" t="s">
+      <c r="W218" s="16" t="s">
         <v>488</v>
       </c>
-      <c r="X218" s="10" t="s">
+      <c r="X218" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="219" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="U219" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V219" s="12" t="s">
+      <c r="U219" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V219" s="20" t="s">
         <v>563</v>
       </c>
-      <c r="W219" s="12" t="s">
+      <c r="W219" s="20" t="s">
         <v>488</v>
       </c>
-      <c r="X219" s="12" t="s">
+      <c r="X219" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="220" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="U220" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V220" s="10" t="s">
+      <c r="U220" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V220" s="16" t="s">
         <v>564</v>
       </c>
-      <c r="W220" s="10" t="s">
+      <c r="W220" s="16" t="s">
         <v>490</v>
       </c>
-      <c r="X220" s="10" t="s">
+      <c r="X220" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="221" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="U221" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V221" s="12" t="s">
+      <c r="U221" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V221" s="20" t="s">
         <v>565</v>
       </c>
-      <c r="W221" s="12" t="s">
+      <c r="W221" s="20" t="s">
         <v>490</v>
       </c>
-      <c r="X221" s="12" t="s">
+      <c r="X221" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="222" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="U222" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="V222" s="10" t="s">
+      <c r="U222" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V222" s="16" t="s">
         <v>566</v>
       </c>
-      <c r="W222" s="10" t="s">
+      <c r="W222" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="X222" s="10" t="s">
+      <c r="X222" s="16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="223" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="U223" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="V223" s="12" t="s">
+      <c r="U223" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="V223" s="20" t="s">
         <v>567</v>
       </c>
-      <c r="W223" s="12" t="s">
+      <c r="W223" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="X223" s="12" t="s">
+      <c r="X223" s="20" t="s">
         <v>384</v>
       </c>
     </row>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED782FC7-4202-4A94-AD83-3CF76F82F02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F23124-240E-434B-AD92-6807D631B4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2839" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2841" uniqueCount="577">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -1812,9 +1812,6 @@
     <t>UP</t>
   </si>
   <si>
-    <t>com_bndprd</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
@@ -1825,6 +1822,12 @@
   </si>
   <si>
     <t>Trd_electricity export</t>
+  </si>
+  <si>
+    <t>FLO_BND</t>
+  </si>
+  <si>
+    <t>e_demand*</t>
   </si>
 </sst>
 </file>
@@ -1980,7 +1983,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1995,20 +1998,15 @@
     <xf numFmtId="2" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2399,9 +2397,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8513B03-D726-44E9-97EC-BD4D6EAC3DE8}">
-  <dimension ref="A1:AH223"/>
+  <dimension ref="A1:AI223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AE6" sqref="AE6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2417,24 +2417,24 @@
     <col min="22" max="22" width="30.59765625" customWidth="1"/>
     <col min="23" max="23" width="15.3984375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10.59765625" customWidth="1"/>
-    <col min="32" max="32" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="30.59765625" customWidth="1"/>
-    <col min="34" max="34" width="10.59765625" customWidth="1"/>
+    <col min="33" max="33" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="30.59765625" customWidth="1"/>
+    <col min="35" max="35" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:35" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-    </row>
-    <row r="2" spans="1:34" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -2447,113 +2447,113 @@
       <c r="U2" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AG2" s="8" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="15" t="s">
+    <row r="3" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="P3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="R3" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="U3" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="V3" s="15" t="s">
+      <c r="V3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="W3" s="15" t="s">
+      <c r="W3" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="X3" s="15" t="s">
+      <c r="X3" s="9" t="s">
         <v>349</v>
       </c>
       <c r="AA3" t="s">
         <v>284</v>
       </c>
-      <c r="AF3" s="15" t="s">
+      <c r="AG3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="15" t="s">
+      <c r="AH3" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="AH3" s="15" t="s">
+      <c r="AI3" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B4" s="16" t="s">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="B4" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="11">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="14">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="15">
         <v>1.2E-4</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="18">
         <v>1.3631777184654791E-2</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="Q4" s="16" t="s">
+      <c r="Q4" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="R4" s="16" t="s">
+      <c r="R4" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="U4" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V4" s="16" t="s">
+      <c r="U4" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V4" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="W4" s="16" t="s">
+      <c r="W4" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="X4" s="16" t="s">
+      <c r="X4" s="10" t="s">
         <v>384</v>
       </c>
       <c r="AA4" t="s">
@@ -2563,65 +2563,68 @@
         <v>569</v>
       </c>
       <c r="AC4" t="s">
+        <v>575</v>
+      </c>
+      <c r="AD4" t="s">
         <v>571</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="AF4" s="16" t="s">
+      <c r="AH4" s="10" t="s">
         <v>573</v>
       </c>
-      <c r="AG4" s="16" t="s">
-        <v>574</v>
-      </c>
-      <c r="AH4" s="16" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B5" s="20" t="s">
+      <c r="AI4" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="B5" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="16">
         <v>16.5</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="17">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="19">
         <v>1.2311932959346159E-2</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="P5" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="Q5" s="20" t="s">
+      <c r="Q5" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="R5" s="20" t="s">
+      <c r="R5" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="U5" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V5" s="20" t="s">
+      <c r="U5" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V5" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="W5" s="20" t="s">
+      <c r="W5" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="X5" s="20" t="s">
+      <c r="X5" s="12" t="s">
         <v>384</v>
       </c>
       <c r="AA5" t="s">
@@ -2636,6737 +2639,6740 @@
       <c r="AD5">
         <v>0</v>
       </c>
-      <c r="AF5" s="20" t="s">
-        <v>575</v>
-      </c>
-      <c r="AG5" s="20" t="s">
+      <c r="AE5" t="s">
+        <v>576</v>
+      </c>
+      <c r="AG5" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="AH5" s="20" t="s">
+      <c r="AH5" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="AI5" s="12" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B6" s="16" t="s">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="B6" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="11">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="14">
         <v>102.30000000000001</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="15">
         <v>5.5799999999999999E-3</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="18">
         <v>2.7222831327547718E-2</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="P6" s="16" t="s">
+      <c r="P6" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="Q6" s="16" t="s">
+      <c r="Q6" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="R6" s="16" t="s">
+      <c r="R6" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="U6" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V6" s="16" t="s">
+      <c r="U6" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V6" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="W6" s="16" t="s">
+      <c r="W6" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="X6" s="16" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B7" s="20" t="s">
+      <c r="X6" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="B7" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="13">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="16">
         <v>102.30000000000001</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="17">
         <v>5.5799999999999999E-3</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="19">
         <v>1.8013158806011429E-2</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="P7" s="20" t="s">
+      <c r="P7" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="Q7" s="20" t="s">
+      <c r="Q7" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="R7" s="20" t="s">
+      <c r="R7" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="U7" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V7" s="20" t="s">
+      <c r="U7" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V7" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="W7" s="20" t="s">
+      <c r="W7" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="X7" s="20" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B8" s="16" t="s">
+      <c r="X7" s="12" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="B8" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="11">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="14">
         <v>6.6000000000000005</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="15">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="18">
         <v>1.5239815243970646E-2</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="P8" s="16" t="s">
+      <c r="P8" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="Q8" s="16" t="s">
+      <c r="Q8" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="R8" s="16" t="s">
+      <c r="R8" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="U8" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V8" s="16" t="s">
+      <c r="U8" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V8" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="W8" s="16" t="s">
+      <c r="W8" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="X8" s="16" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B9" s="20" t="s">
+      <c r="X8" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="B9" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="13">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="16">
         <v>19.8</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="17">
         <v>1.08E-3</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="19">
         <v>0.11649121947148119</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="P9" s="20" t="s">
+      <c r="P9" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="Q9" s="20" t="s">
+      <c r="Q9" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="R9" s="20" t="s">
+      <c r="R9" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="U9" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V9" s="20" t="s">
+      <c r="U9" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V9" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="W9" s="20" t="s">
+      <c r="W9" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="X9" s="20" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B10" s="16" t="s">
+      <c r="X9" s="12" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="B10" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="11">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="14">
         <v>116.60000000000001</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="15">
         <v>6.3600000000000002E-3</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="18">
         <v>1.9284622665466145E-2</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="P10" s="16" t="s">
+      <c r="P10" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="Q10" s="16" t="s">
+      <c r="Q10" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="R10" s="16" t="s">
+      <c r="R10" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="U10" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V10" s="16" t="s">
+      <c r="U10" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V10" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="W10" s="16" t="s">
+      <c r="W10" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="X10" s="16" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B11" s="20" t="s">
+      <c r="X10" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="B11" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="13">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="16">
         <v>18.700000000000003</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="17">
         <v>1.0200000000000001E-3</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="19">
         <v>0.16184067722567619</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="K11" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="P11" s="20" t="s">
+      <c r="P11" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="Q11" s="20" t="s">
+      <c r="Q11" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="R11" s="20" t="s">
+      <c r="R11" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="U11" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V11" s="20" t="s">
+      <c r="U11" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V11" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="W11" s="20" t="s">
+      <c r="W11" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="X11" s="20" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B12" s="16" t="s">
+      <c r="X11" s="12" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="B12" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="11">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="14">
         <v>88</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="15">
         <v>4.8000000000000004E-3</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="18">
         <v>1.3250303220799708E-2</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="P12" s="16" t="s">
+      <c r="P12" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="Q12" s="16" t="s">
+      <c r="Q12" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="R12" s="16" t="s">
+      <c r="R12" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="U12" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V12" s="16" t="s">
+      <c r="U12" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V12" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="W12" s="16" t="s">
+      <c r="W12" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="X12" s="16" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B13" s="20" t="s">
+      <c r="X12" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="B13" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="16">
         <v>37.400000000000006</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="17">
         <v>2.0400000000000001E-3</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="19">
         <v>8.5877237751744287E-2</v>
       </c>
-      <c r="K13" s="20" t="s">
+      <c r="K13" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="P13" s="20" t="s">
+      <c r="P13" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="Q13" s="20" t="s">
+      <c r="Q13" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="R13" s="20" t="s">
+      <c r="R13" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="U13" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V13" s="20" t="s">
+      <c r="U13" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V13" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="W13" s="20" t="s">
+      <c r="W13" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="X13" s="20" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B14" s="16" t="s">
+      <c r="X13" s="12" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="B14" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="11">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="14">
         <v>3.3000000000000003</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="15">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="18">
         <v>6.3492791069770058E-2</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="P14" s="16" t="s">
+      <c r="P14" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="Q14" s="16" t="s">
+      <c r="Q14" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="R14" s="16" t="s">
+      <c r="R14" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="U14" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V14" s="16" t="s">
+      <c r="U14" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V14" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="W14" s="16" t="s">
+      <c r="W14" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="X14" s="16" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B15" s="20" t="s">
+      <c r="X14" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="B15" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="13">
         <v>3.3962050000000001</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="16">
         <v>19.8</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="17">
         <v>1.08E-3</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="I15" s="20" t="s">
+      <c r="I15" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J15" s="19">
         <v>3.3475036448649485E-2</v>
       </c>
-      <c r="K15" s="20" t="s">
+      <c r="K15" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="P15" s="20" t="s">
+      <c r="P15" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="Q15" s="20" t="s">
+      <c r="Q15" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="R15" s="20" t="s">
+      <c r="R15" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="U15" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V15" s="20" t="s">
+      <c r="U15" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V15" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="W15" s="20" t="s">
+      <c r="W15" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="X15" s="20" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B16" s="16" t="s">
+      <c r="X15" s="12" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="B16" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="11">
         <v>3.3962050000000001</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="14">
         <v>18.700000000000003</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="15">
         <v>1.0200000000000001E-3</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="18">
         <v>1.7562072804956651E-2</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="K16" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="P16" s="16" t="s">
+      <c r="P16" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="Q16" s="16" t="s">
+      <c r="Q16" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="R16" s="16" t="s">
+      <c r="R16" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="U16" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V16" s="16" t="s">
+      <c r="U16" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V16" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="W16" s="16" t="s">
+      <c r="W16" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="X16" s="16" t="s">
+      <c r="X16" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="16">
         <v>59.400000000000006</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="17">
         <v>3.2400000000000003E-3</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="H17" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="19">
         <v>1.3653008856000667E-2</v>
       </c>
-      <c r="K17" s="20" t="s">
+      <c r="K17" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="P17" s="20" t="s">
+      <c r="P17" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="Q17" s="20" t="s">
+      <c r="Q17" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="R17" s="20" t="s">
+      <c r="R17" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="U17" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V17" s="20" t="s">
+      <c r="U17" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V17" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="W17" s="20" t="s">
+      <c r="W17" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="X17" s="20" t="s">
+      <c r="X17" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="11">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="14">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="15">
         <v>2.4000000000000001E-4</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="I18" s="16" t="s">
+      <c r="I18" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="18">
         <v>2.521347987377489E-2</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="P18" s="16" t="s">
+      <c r="P18" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="Q18" s="16" t="s">
+      <c r="Q18" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="R18" s="16" t="s">
+      <c r="R18" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="U18" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V18" s="16" t="s">
+      <c r="U18" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V18" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="W18" s="16" t="s">
+      <c r="W18" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="X18" s="16" t="s">
+      <c r="X18" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="13">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="16">
         <v>5.5</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="17">
         <v>3.0000000000000003E-4</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="H19" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="J19" s="25">
+      <c r="J19" s="19">
         <v>1.5247820628248601E-2</v>
       </c>
-      <c r="K19" s="20" t="s">
+      <c r="K19" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="P19" s="20" t="s">
+      <c r="P19" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="Q19" s="20" t="s">
+      <c r="Q19" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="R19" s="20" t="s">
+      <c r="R19" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="U19" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V19" s="20" t="s">
+      <c r="U19" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V19" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="W19" s="20" t="s">
+      <c r="W19" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="X19" s="20" t="s">
+      <c r="X19" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="11">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="14">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="15">
         <v>2.4000000000000001E-4</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="I20" s="16" t="s">
+      <c r="I20" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="J20" s="24">
+      <c r="J20" s="18">
         <v>4.9988751973376933E-2</v>
       </c>
-      <c r="K20" s="16" t="s">
+      <c r="K20" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="P20" s="16" t="s">
+      <c r="P20" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="Q20" s="16" t="s">
+      <c r="Q20" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="R20" s="16" t="s">
+      <c r="R20" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="U20" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V20" s="16" t="s">
+      <c r="U20" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V20" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="W20" s="16" t="s">
+      <c r="W20" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="X20" s="16" t="s">
+      <c r="X20" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="16">
         <v>3.3000000000000003</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="17">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="H21" s="20" t="s">
+      <c r="H21" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="J21" s="25">
+      <c r="J21" s="19">
         <v>1.2080472935656804E-2</v>
       </c>
-      <c r="K21" s="20" t="s">
+      <c r="K21" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="P21" s="20" t="s">
+      <c r="P21" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="Q21" s="20" t="s">
+      <c r="Q21" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="R21" s="20" t="s">
+      <c r="R21" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="U21" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V21" s="20" t="s">
+      <c r="U21" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V21" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="W21" s="20" t="s">
+      <c r="W21" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="X21" s="20" t="s">
+      <c r="X21" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="11">
         <v>3.3962050000000001</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="14">
         <v>11</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="15">
         <v>6.0000000000000006E-4</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="I22" s="16" t="s">
+      <c r="I22" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="J22" s="24">
+      <c r="J22" s="18">
         <v>1.6554438566489207E-2</v>
       </c>
-      <c r="K22" s="16" t="s">
+      <c r="K22" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="P22" s="16" t="s">
+      <c r="P22" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="Q22" s="16" t="s">
+      <c r="Q22" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="R22" s="16" t="s">
+      <c r="R22" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="U22" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V22" s="16" t="s">
+      <c r="U22" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V22" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="W22" s="16" t="s">
+      <c r="W22" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="X22" s="16" t="s">
+      <c r="X22" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="13">
         <v>1.4746679999999999</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="17">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="H23" s="20" t="s">
+      <c r="H23" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="I23" s="20" t="s">
+      <c r="I23" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="J23" s="25">
+      <c r="J23" s="19">
         <v>1.8665075534387742E-2</v>
       </c>
-      <c r="K23" s="20" t="s">
+      <c r="K23" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="P23" s="20" t="s">
+      <c r="P23" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="Q23" s="20" t="s">
+      <c r="Q23" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="R23" s="20" t="s">
+      <c r="R23" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="U23" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V23" s="20" t="s">
+      <c r="U23" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V23" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="W23" s="20" t="s">
+      <c r="W23" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="X23" s="20" t="s">
+      <c r="X23" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="11">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="14">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="15">
         <v>2.4000000000000001E-4</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="I24" s="16" t="s">
+      <c r="I24" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="J24" s="24">
+      <c r="J24" s="18">
         <v>2.4425123552486872E-2</v>
       </c>
-      <c r="K24" s="16" t="s">
+      <c r="K24" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="P24" s="16" t="s">
+      <c r="P24" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="Q24" s="16" t="s">
+      <c r="Q24" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="R24" s="16" t="s">
+      <c r="R24" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="U24" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V24" s="16" t="s">
+      <c r="U24" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V24" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="W24" s="16" t="s">
+      <c r="W24" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="X24" s="16" t="s">
+      <c r="X24" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="16">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="17">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="H25" s="20" t="s">
+      <c r="H25" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="I25" s="20" t="s">
+      <c r="I25" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="J25" s="25">
+      <c r="J25" s="19">
         <v>3.0907048396348204E-2</v>
       </c>
-      <c r="K25" s="20" t="s">
+      <c r="K25" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="P25" s="20" t="s">
+      <c r="P25" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="Q25" s="20" t="s">
+      <c r="Q25" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="R25" s="20" t="s">
+      <c r="R25" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="U25" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V25" s="20" t="s">
+      <c r="U25" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V25" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="W25" s="20" t="s">
+      <c r="W25" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="X25" s="20" t="s">
+      <c r="X25" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="11">
         <v>1.4746679999999999</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="15">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="I26" s="16" t="s">
+      <c r="I26" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="J26" s="24">
+      <c r="J26" s="18">
         <v>1.28726579189907E-2</v>
       </c>
-      <c r="K26" s="16" t="s">
+      <c r="K26" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="P26" s="16" t="s">
+      <c r="P26" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="Q26" s="16" t="s">
+      <c r="Q26" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="R26" s="16" t="s">
+      <c r="R26" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="U26" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V26" s="16" t="s">
+      <c r="U26" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V26" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="W26" s="16" t="s">
+      <c r="W26" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="X26" s="16" t="s">
+      <c r="X26" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="16">
         <v>3.3000000000000003</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="17">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="H27" s="20" t="s">
+      <c r="H27" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="I27" s="20" t="s">
+      <c r="I27" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="J27" s="25">
+      <c r="J27" s="19">
         <v>1.3400317160965335E-2</v>
       </c>
-      <c r="K27" s="20" t="s">
+      <c r="K27" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="P27" s="20" t="s">
+      <c r="P27" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="Q27" s="20" t="s">
+      <c r="Q27" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="R27" s="20" t="s">
+      <c r="R27" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="U27" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V27" s="20" t="s">
+      <c r="U27" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V27" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="W27" s="20" t="s">
+      <c r="W27" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="X27" s="20" t="s">
+      <c r="X27" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="11">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="14">
         <v>3.3000000000000003</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="15">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="H28" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="I28" s="16" t="s">
+      <c r="I28" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="J28" s="24">
+      <c r="J28" s="18">
         <v>3.7135933484988115E-2</v>
       </c>
-      <c r="K28" s="16" t="s">
+      <c r="K28" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="P28" s="16" t="s">
+      <c r="P28" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="Q28" s="16" t="s">
+      <c r="Q28" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="R28" s="16" t="s">
+      <c r="R28" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="U28" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V28" s="16" t="s">
+      <c r="U28" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V28" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="W28" s="16" t="s">
+      <c r="W28" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="X28" s="16" t="s">
+      <c r="X28" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="13">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="16">
         <v>12.100000000000001</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="17">
         <v>6.6E-4</v>
       </c>
-      <c r="H29" s="20" t="s">
+      <c r="H29" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="I29" s="20" t="s">
+      <c r="I29" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="J29" s="25">
+      <c r="J29" s="19">
         <v>1.2570193617357459E-2</v>
       </c>
-      <c r="K29" s="20" t="s">
+      <c r="K29" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="P29" s="20" t="s">
+      <c r="P29" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="Q29" s="20" t="s">
+      <c r="Q29" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="R29" s="20" t="s">
+      <c r="R29" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="U29" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V29" s="20" t="s">
+      <c r="U29" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V29" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="W29" s="20" t="s">
+      <c r="W29" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="X29" s="20" t="s">
+      <c r="X29" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="11">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="14">
         <v>19.8</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="15">
         <v>1.08E-3</v>
       </c>
-      <c r="H30" s="16" t="s">
+      <c r="H30" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="I30" s="16" t="s">
+      <c r="I30" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="J30" s="24">
+      <c r="J30" s="18">
         <v>2.5148392618993071E-2</v>
       </c>
-      <c r="K30" s="16" t="s">
+      <c r="K30" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="P30" s="16" t="s">
+      <c r="P30" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="Q30" s="16" t="s">
+      <c r="Q30" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="R30" s="16" t="s">
+      <c r="R30" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="U30" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V30" s="16" t="s">
+      <c r="U30" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V30" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="W30" s="16" t="s">
+      <c r="W30" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="X30" s="16" t="s">
+      <c r="X30" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="13">
         <v>3.3962050000000001</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="16">
         <v>6.6000000000000005</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="17">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="H31" s="20" t="s">
+      <c r="H31" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="I31" s="20" t="s">
+      <c r="I31" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="J31" s="25">
+      <c r="J31" s="19">
         <v>1.5466054364870032E-2</v>
       </c>
-      <c r="K31" s="20" t="s">
+      <c r="K31" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="P31" s="20" t="s">
+      <c r="P31" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="Q31" s="20" t="s">
+      <c r="Q31" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="R31" s="20" t="s">
+      <c r="R31" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="U31" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V31" s="20" t="s">
+      <c r="U31" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V31" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="W31" s="20" t="s">
+      <c r="W31" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="X31" s="20" t="s">
+      <c r="X31" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="11">
         <v>3.3962050000000001</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="14">
         <v>27.500000000000004</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="15">
         <v>1.5E-3</v>
       </c>
-      <c r="H32" s="16" t="s">
+      <c r="H32" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="I32" s="16" t="s">
+      <c r="I32" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="J32" s="24">
+      <c r="J32" s="18">
         <v>5.89777543369897E-2</v>
       </c>
-      <c r="K32" s="16" t="s">
+      <c r="K32" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="P32" s="16" t="s">
+      <c r="P32" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="Q32" s="16" t="s">
+      <c r="Q32" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="R32" s="16" t="s">
+      <c r="R32" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="U32" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V32" s="16" t="s">
+      <c r="U32" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V32" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="W32" s="16" t="s">
+      <c r="W32" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="X32" s="16" t="s">
+      <c r="X32" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="16">
         <v>39.6</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="17">
         <v>2.16E-3</v>
       </c>
-      <c r="H33" s="20" t="s">
+      <c r="H33" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="I33" s="20" t="s">
+      <c r="I33" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="J33" s="25">
+      <c r="J33" s="19">
         <v>1.3631777184654791E-2</v>
       </c>
-      <c r="K33" s="20" t="s">
+      <c r="K33" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="P33" s="20" t="s">
+      <c r="P33" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="Q33" s="20" t="s">
+      <c r="Q33" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="R33" s="20" t="s">
+      <c r="R33" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="U33" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V33" s="20" t="s">
+      <c r="U33" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V33" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="W33" s="20" t="s">
+      <c r="W33" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="X33" s="20" t="s">
+      <c r="X33" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="34" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="11">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="14">
         <v>26.400000000000002</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="15">
         <v>1.4400000000000001E-3</v>
       </c>
-      <c r="H34" s="16" t="s">
+      <c r="H34" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="I34" s="16" t="s">
+      <c r="I34" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="J34" s="24">
+      <c r="J34" s="18">
         <v>1.2311932959346159E-2</v>
       </c>
-      <c r="K34" s="16" t="s">
+      <c r="K34" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="P34" s="16" t="s">
+      <c r="P34" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="Q34" s="16" t="s">
+      <c r="Q34" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="R34" s="16" t="s">
+      <c r="R34" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="U34" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V34" s="16" t="s">
+      <c r="U34" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V34" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="W34" s="16" t="s">
+      <c r="W34" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="X34" s="16" t="s">
+      <c r="X34" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="35" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="13">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="16">
         <v>6.6000000000000005</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="17">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="H35" s="20" t="s">
+      <c r="H35" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="I35" s="20" t="s">
+      <c r="I35" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="J35" s="25">
+      <c r="J35" s="19">
         <v>2.7222831327547718E-2</v>
       </c>
-      <c r="K35" s="20" t="s">
+      <c r="K35" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="P35" s="20" t="s">
+      <c r="P35" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="Q35" s="20" t="s">
+      <c r="Q35" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="R35" s="20" t="s">
+      <c r="R35" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="U35" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V35" s="20" t="s">
+      <c r="U35" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V35" s="12" t="s">
         <v>417</v>
       </c>
-      <c r="W35" s="20" t="s">
+      <c r="W35" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="X35" s="20" t="s">
+      <c r="X35" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="11">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="14">
         <v>15.400000000000002</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="15">
         <v>8.4000000000000003E-4</v>
       </c>
-      <c r="H36" s="16" t="s">
+      <c r="H36" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="I36" s="16" t="s">
+      <c r="I36" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="J36" s="24">
+      <c r="J36" s="18">
         <v>1.8013158806011429E-2</v>
       </c>
-      <c r="K36" s="16" t="s">
+      <c r="K36" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="P36" s="16" t="s">
+      <c r="P36" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="Q36" s="16" t="s">
+      <c r="Q36" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="R36" s="16" t="s">
+      <c r="R36" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="U36" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V36" s="16" t="s">
+      <c r="U36" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V36" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="W36" s="16" t="s">
+      <c r="W36" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="X36" s="16" t="s">
+      <c r="X36" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="37" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="16">
         <v>18.700000000000003</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="17">
         <v>1.0200000000000001E-3</v>
       </c>
-      <c r="H37" s="20" t="s">
+      <c r="H37" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="I37" s="20" t="s">
+      <c r="I37" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="J37" s="25">
+      <c r="J37" s="19">
         <v>1.5239815243970646E-2</v>
       </c>
-      <c r="K37" s="20" t="s">
+      <c r="K37" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="P37" s="20" t="s">
+      <c r="P37" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="Q37" s="20" t="s">
+      <c r="Q37" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="R37" s="20" t="s">
+      <c r="R37" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="U37" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V37" s="20" t="s">
+      <c r="U37" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V37" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="W37" s="20" t="s">
+      <c r="W37" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="X37" s="20" t="s">
+      <c r="X37" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="11">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="14">
         <v>3.3000000000000003</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="15">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="H38" s="16" t="s">
+      <c r="H38" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="I38" s="16" t="s">
+      <c r="I38" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="J38" s="24">
+      <c r="J38" s="18">
         <v>0.11649121947148119</v>
       </c>
-      <c r="K38" s="16" t="s">
+      <c r="K38" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="P38" s="16" t="s">
+      <c r="P38" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="Q38" s="16" t="s">
+      <c r="Q38" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="R38" s="16" t="s">
+      <c r="R38" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="U38" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V38" s="16" t="s">
+      <c r="U38" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V38" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="W38" s="16" t="s">
+      <c r="W38" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="X38" s="16" t="s">
+      <c r="X38" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="13">
         <v>3.3962050000000001</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D39" s="16">
         <v>22</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="17">
         <v>1.2000000000000001E-3</v>
       </c>
-      <c r="H39" s="20" t="s">
+      <c r="H39" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="I39" s="20" t="s">
+      <c r="I39" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="J39" s="25">
+      <c r="J39" s="19">
         <v>1.9284622665466145E-2</v>
       </c>
-      <c r="K39" s="20" t="s">
+      <c r="K39" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="P39" s="20" t="s">
+      <c r="P39" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="Q39" s="20" t="s">
+      <c r="Q39" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="R39" s="20" t="s">
+      <c r="R39" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="U39" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V39" s="20" t="s">
+      <c r="U39" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V39" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="W39" s="20" t="s">
+      <c r="W39" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="X39" s="20" t="s">
+      <c r="X39" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="40" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="11">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D40" s="14">
         <v>3.3000000000000003</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="15">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="H40" s="16" t="s">
+      <c r="H40" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="I40" s="16" t="s">
+      <c r="I40" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="J40" s="24">
+      <c r="J40" s="18">
         <v>0.16184067722567619</v>
       </c>
-      <c r="K40" s="16" t="s">
+      <c r="K40" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="P40" s="16" t="s">
+      <c r="P40" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="Q40" s="16" t="s">
+      <c r="Q40" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="R40" s="16" t="s">
+      <c r="R40" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="U40" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V40" s="16" t="s">
+      <c r="U40" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V40" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="W40" s="16" t="s">
+      <c r="W40" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="X40" s="16" t="s">
+      <c r="X40" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="41" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C41" s="13">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D41" s="22">
+      <c r="D41" s="16">
         <v>14.3</v>
       </c>
-      <c r="E41" s="23">
+      <c r="E41" s="17">
         <v>7.7999999999999999E-4</v>
       </c>
-      <c r="H41" s="20" t="s">
+      <c r="H41" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="I41" s="20" t="s">
+      <c r="I41" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="J41" s="25">
+      <c r="J41" s="19">
         <v>1.3250303220799708E-2</v>
       </c>
-      <c r="K41" s="20" t="s">
+      <c r="K41" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="P41" s="20" t="s">
+      <c r="P41" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="Q41" s="20" t="s">
+      <c r="Q41" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="R41" s="20" t="s">
+      <c r="R41" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="U41" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V41" s="20" t="s">
+      <c r="U41" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V41" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="W41" s="20" t="s">
+      <c r="W41" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="X41" s="20" t="s">
+      <c r="X41" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="42" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="11">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D42" s="18">
+      <c r="D42" s="14">
         <v>3.3000000000000003</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E42" s="15">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="H42" s="16" t="s">
+      <c r="H42" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="I42" s="16" t="s">
+      <c r="I42" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="J42" s="24">
+      <c r="J42" s="18">
         <v>8.5877237751744287E-2</v>
       </c>
-      <c r="K42" s="16" t="s">
+      <c r="K42" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="P42" s="16" t="s">
+      <c r="P42" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="Q42" s="16" t="s">
+      <c r="Q42" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="R42" s="16" t="s">
+      <c r="R42" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="U42" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V42" s="16" t="s">
+      <c r="U42" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V42" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="W42" s="16" t="s">
+      <c r="W42" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="X42" s="16" t="s">
+      <c r="X42" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="43" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C43" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D43" s="16">
         <v>16.5</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E43" s="17">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="H43" s="20" t="s">
+      <c r="H43" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="I43" s="20" t="s">
+      <c r="I43" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="J43" s="25">
+      <c r="J43" s="19">
         <v>6.3492791069770058E-2</v>
       </c>
-      <c r="K43" s="20" t="s">
+      <c r="K43" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="P43" s="20" t="s">
+      <c r="P43" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="Q43" s="20" t="s">
+      <c r="Q43" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="R43" s="20" t="s">
+      <c r="R43" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="U43" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V43" s="20" t="s">
+      <c r="U43" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V43" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="W43" s="20" t="s">
+      <c r="W43" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="X43" s="20" t="s">
+      <c r="X43" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="44" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="11">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D44" s="18">
+      <c r="D44" s="14">
         <v>6.6000000000000005</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E44" s="15">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="H44" s="16" t="s">
+      <c r="H44" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="I44" s="16" t="s">
+      <c r="I44" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="J44" s="24">
+      <c r="J44" s="18">
         <v>3.3475036448649485E-2</v>
       </c>
-      <c r="K44" s="16" t="s">
+      <c r="K44" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="P44" s="16" t="s">
+      <c r="P44" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="Q44" s="16" t="s">
+      <c r="Q44" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="R44" s="16" t="s">
+      <c r="R44" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="U44" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V44" s="16" t="s">
+      <c r="U44" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V44" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="W44" s="16" t="s">
+      <c r="W44" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="X44" s="16" t="s">
+      <c r="X44" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="45" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D45" s="22">
+      <c r="D45" s="16">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E45" s="23">
+      <c r="E45" s="17">
         <v>2.4000000000000001E-4</v>
       </c>
-      <c r="H45" s="20" t="s">
+      <c r="H45" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="I45" s="20" t="s">
+      <c r="I45" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="J45" s="25">
+      <c r="J45" s="19">
         <v>1.7562072804956651E-2</v>
       </c>
-      <c r="K45" s="20" t="s">
+      <c r="K45" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="P45" s="20" t="s">
+      <c r="P45" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="Q45" s="20" t="s">
+      <c r="Q45" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="R45" s="20" t="s">
+      <c r="R45" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="U45" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V45" s="20" t="s">
+      <c r="U45" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V45" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="W45" s="20" t="s">
+      <c r="W45" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="X45" s="20" t="s">
+      <c r="X45" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="46" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="11">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D46" s="14">
         <v>49.500000000000007</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E46" s="15">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="H46" s="16" t="s">
+      <c r="H46" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="I46" s="16" t="s">
+      <c r="I46" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="J46" s="24">
+      <c r="J46" s="18">
         <v>1.3653008856000667E-2</v>
       </c>
-      <c r="K46" s="16" t="s">
+      <c r="K46" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="P46" s="16" t="s">
+      <c r="P46" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="Q46" s="16" t="s">
+      <c r="Q46" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="R46" s="16" t="s">
+      <c r="R46" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="U46" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V46" s="16" t="s">
+      <c r="U46" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V46" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="W46" s="16" t="s">
+      <c r="W46" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="X46" s="16" t="s">
+      <c r="X46" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="47" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C47" s="13">
         <v>3.3962050000000001</v>
       </c>
-      <c r="D47" s="22">
+      <c r="D47" s="16">
         <v>9.9</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E47" s="17">
         <v>5.4000000000000001E-4</v>
       </c>
-      <c r="H47" s="20" t="s">
+      <c r="H47" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="I47" s="20" t="s">
+      <c r="I47" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="J47" s="25">
+      <c r="J47" s="19">
         <v>2.521347987377489E-2</v>
       </c>
-      <c r="K47" s="20" t="s">
+      <c r="K47" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="P47" s="20" t="s">
+      <c r="P47" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="Q47" s="20" t="s">
+      <c r="Q47" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="R47" s="20" t="s">
+      <c r="R47" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="U47" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V47" s="20" t="s">
+      <c r="U47" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V47" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="W47" s="20" t="s">
+      <c r="W47" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="X47" s="20" t="s">
+      <c r="X47" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="48" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C48" s="11">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D48" s="18">
+      <c r="D48" s="14">
         <v>20.900000000000002</v>
       </c>
-      <c r="E48" s="19">
+      <c r="E48" s="15">
         <v>1.14E-3</v>
       </c>
-      <c r="H48" s="16" t="s">
+      <c r="H48" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="I48" s="16" t="s">
+      <c r="I48" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="J48" s="24">
+      <c r="J48" s="18">
         <v>1.5247820628248601E-2</v>
       </c>
-      <c r="K48" s="16" t="s">
+      <c r="K48" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="P48" s="16" t="s">
+      <c r="P48" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="Q48" s="16" t="s">
+      <c r="Q48" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="R48" s="16" t="s">
+      <c r="R48" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="U48" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V48" s="16" t="s">
+      <c r="U48" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V48" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="W48" s="16" t="s">
+      <c r="W48" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="X48" s="16" t="s">
+      <c r="X48" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C49" s="21">
+      <c r="C49" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D49" s="22">
+      <c r="D49" s="16">
         <v>3.3000000000000003</v>
       </c>
-      <c r="E49" s="23">
+      <c r="E49" s="17">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="H49" s="20" t="s">
+      <c r="H49" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="I49" s="20" t="s">
+      <c r="I49" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="J49" s="25">
+      <c r="J49" s="19">
         <v>4.9988751973376933E-2</v>
       </c>
-      <c r="K49" s="20" t="s">
+      <c r="K49" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="P49" s="20" t="s">
+      <c r="P49" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="Q49" s="20" t="s">
+      <c r="Q49" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="R49" s="20" t="s">
+      <c r="R49" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="U49" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V49" s="20" t="s">
+      <c r="U49" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V49" s="12" t="s">
         <v>429</v>
       </c>
-      <c r="W49" s="20" t="s">
+      <c r="W49" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="X49" s="20" t="s">
+      <c r="X49" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="50" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="11">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D50" s="18">
+      <c r="D50" s="14">
         <v>14.3</v>
       </c>
-      <c r="E50" s="19">
+      <c r="E50" s="15">
         <v>7.7999999999999999E-4</v>
       </c>
-      <c r="H50" s="16" t="s">
+      <c r="H50" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="I50" s="16" t="s">
+      <c r="I50" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="J50" s="24">
+      <c r="J50" s="18">
         <v>1.2080472935656804E-2</v>
       </c>
-      <c r="K50" s="16" t="s">
+      <c r="K50" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="P50" s="16" t="s">
+      <c r="P50" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="Q50" s="16" t="s">
+      <c r="Q50" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="R50" s="16" t="s">
+      <c r="R50" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="U50" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V50" s="16" t="s">
+      <c r="U50" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V50" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="W50" s="16" t="s">
+      <c r="W50" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="X50" s="16" t="s">
+      <c r="X50" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C51" s="21">
+      <c r="C51" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D51" s="22">
+      <c r="D51" s="16">
         <v>23.1</v>
       </c>
-      <c r="E51" s="23">
+      <c r="E51" s="17">
         <v>1.2600000000000001E-3</v>
       </c>
-      <c r="H51" s="20" t="s">
+      <c r="H51" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="I51" s="20" t="s">
+      <c r="I51" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="J51" s="25">
+      <c r="J51" s="19">
         <v>1.6554438566489207E-2</v>
       </c>
-      <c r="K51" s="20" t="s">
+      <c r="K51" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="P51" s="20" t="s">
+      <c r="P51" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="Q51" s="20" t="s">
+      <c r="Q51" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="R51" s="20" t="s">
+      <c r="R51" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="U51" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V51" s="20" t="s">
+      <c r="U51" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V51" s="12" t="s">
         <v>429</v>
       </c>
-      <c r="W51" s="20" t="s">
+      <c r="W51" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="X51" s="20" t="s">
+      <c r="X51" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="52" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C52" s="11">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D52" s="18">
+      <c r="D52" s="14">
         <v>41.800000000000004</v>
       </c>
-      <c r="E52" s="19">
+      <c r="E52" s="15">
         <v>2.2799999999999999E-3</v>
       </c>
-      <c r="H52" s="16" t="s">
+      <c r="H52" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="I52" s="16" t="s">
+      <c r="I52" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="J52" s="24">
+      <c r="J52" s="18">
         <v>1.8665075534387742E-2</v>
       </c>
-      <c r="K52" s="16" t="s">
+      <c r="K52" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="P52" s="16" t="s">
+      <c r="P52" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="Q52" s="16" t="s">
+      <c r="Q52" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="R52" s="16" t="s">
+      <c r="R52" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="U52" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V52" s="16" t="s">
+      <c r="U52" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V52" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="W52" s="16" t="s">
+      <c r="W52" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="X52" s="16" t="s">
+      <c r="X52" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C53" s="21">
+      <c r="C53" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D53" s="22">
+      <c r="D53" s="16">
         <v>11</v>
       </c>
-      <c r="E53" s="23">
+      <c r="E53" s="17">
         <v>6.0000000000000006E-4</v>
       </c>
-      <c r="H53" s="20" t="s">
+      <c r="H53" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="I53" s="20" t="s">
+      <c r="I53" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="J53" s="25">
+      <c r="J53" s="19">
         <v>2.4425123552486872E-2</v>
       </c>
-      <c r="K53" s="20" t="s">
+      <c r="K53" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="P53" s="20" t="s">
+      <c r="P53" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="Q53" s="20" t="s">
+      <c r="Q53" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="R53" s="20" t="s">
+      <c r="R53" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="U53" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V53" s="20" t="s">
+      <c r="U53" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V53" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="W53" s="20" t="s">
+      <c r="W53" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="X53" s="20" t="s">
+      <c r="X53" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C54" s="17">
+      <c r="C54" s="11">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D54" s="18">
+      <c r="D54" s="14">
         <v>30.800000000000004</v>
       </c>
-      <c r="E54" s="19">
+      <c r="E54" s="15">
         <v>1.6800000000000001E-3</v>
       </c>
-      <c r="H54" s="16" t="s">
+      <c r="H54" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="I54" s="16" t="s">
+      <c r="I54" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="J54" s="24">
+      <c r="J54" s="18">
         <v>3.0907048396348204E-2</v>
       </c>
-      <c r="K54" s="16" t="s">
+      <c r="K54" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="P54" s="16" t="s">
+      <c r="P54" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="Q54" s="16" t="s">
+      <c r="Q54" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="R54" s="16" t="s">
+      <c r="R54" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="U54" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V54" s="16" t="s">
+      <c r="U54" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V54" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="W54" s="16" t="s">
+      <c r="W54" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="X54" s="16" t="s">
+      <c r="X54" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C55" s="21">
+      <c r="C55" s="13">
         <v>1.0054560000000001</v>
       </c>
-      <c r="D55" s="22">
+      <c r="D55" s="16">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E55" s="23">
+      <c r="E55" s="17">
         <v>1.2E-4</v>
       </c>
-      <c r="H55" s="20" t="s">
+      <c r="H55" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="I55" s="20" t="s">
+      <c r="I55" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="J55" s="25">
+      <c r="J55" s="19">
         <v>1.28726579189907E-2</v>
       </c>
-      <c r="K55" s="20" t="s">
+      <c r="K55" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="P55" s="20" t="s">
+      <c r="P55" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="Q55" s="20" t="s">
+      <c r="Q55" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="R55" s="20" t="s">
+      <c r="R55" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="U55" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V55" s="20" t="s">
+      <c r="U55" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V55" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="W55" s="20" t="s">
+      <c r="W55" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="X55" s="20" t="s">
+      <c r="X55" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="56" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C56" s="17">
+      <c r="C56" s="11">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D56" s="18">
+      <c r="D56" s="14">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E56" s="19">
+      <c r="E56" s="15">
         <v>1.2E-4</v>
       </c>
-      <c r="H56" s="16" t="s">
+      <c r="H56" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="I56" s="16" t="s">
+      <c r="I56" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="J56" s="24">
+      <c r="J56" s="18">
         <v>1.3400317160965335E-2</v>
       </c>
-      <c r="K56" s="16" t="s">
+      <c r="K56" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="P56" s="16" t="s">
+      <c r="P56" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="Q56" s="16" t="s">
+      <c r="Q56" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="R56" s="16" t="s">
+      <c r="R56" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="U56" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V56" s="16" t="s">
+      <c r="U56" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V56" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="W56" s="16" t="s">
+      <c r="W56" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="X56" s="16" t="s">
+      <c r="X56" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="21">
+      <c r="C57" s="13">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D57" s="22">
+      <c r="D57" s="16">
         <v>24.200000000000003</v>
       </c>
-      <c r="E57" s="23">
+      <c r="E57" s="17">
         <v>1.32E-3</v>
       </c>
-      <c r="H57" s="20" t="s">
+      <c r="H57" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="I57" s="20" t="s">
+      <c r="I57" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="J57" s="25">
+      <c r="J57" s="19">
         <v>3.7135933484988115E-2</v>
       </c>
-      <c r="K57" s="20" t="s">
+      <c r="K57" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="P57" s="20" t="s">
+      <c r="P57" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="Q57" s="20" t="s">
+      <c r="Q57" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="R57" s="20" t="s">
+      <c r="R57" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="U57" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V57" s="20" t="s">
+      <c r="U57" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V57" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="W57" s="20" t="s">
+      <c r="W57" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="X57" s="20" t="s">
+      <c r="X57" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C58" s="17">
+      <c r="C58" s="11">
         <v>1.005455</v>
       </c>
-      <c r="D58" s="18">
+      <c r="D58" s="14">
         <v>12.100000000000001</v>
       </c>
-      <c r="E58" s="19">
+      <c r="E58" s="15">
         <v>6.6E-4</v>
       </c>
-      <c r="H58" s="16" t="s">
+      <c r="H58" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="I58" s="16" t="s">
+      <c r="I58" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="J58" s="24">
+      <c r="J58" s="18">
         <v>1.2570193617357459E-2</v>
       </c>
-      <c r="K58" s="16" t="s">
+      <c r="K58" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="P58" s="16" t="s">
+      <c r="P58" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="Q58" s="16" t="s">
+      <c r="Q58" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="R58" s="16" t="s">
+      <c r="R58" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="U58" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V58" s="16" t="s">
+      <c r="U58" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V58" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="W58" s="16" t="s">
+      <c r="W58" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="X58" s="16" t="s">
+      <c r="X58" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C59" s="21">
+      <c r="C59" s="13">
         <v>1.005455</v>
       </c>
-      <c r="D59" s="22">
+      <c r="D59" s="16">
         <v>5.5</v>
       </c>
-      <c r="E59" s="23">
+      <c r="E59" s="17">
         <v>3.0000000000000003E-4</v>
       </c>
-      <c r="H59" s="20" t="s">
+      <c r="H59" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="I59" s="20" t="s">
+      <c r="I59" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="J59" s="25">
+      <c r="J59" s="19">
         <v>2.5148392618993071E-2</v>
       </c>
-      <c r="K59" s="20" t="s">
+      <c r="K59" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="P59" s="20" t="s">
+      <c r="P59" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="Q59" s="20" t="s">
+      <c r="Q59" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="R59" s="20" t="s">
+      <c r="R59" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="U59" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V59" s="20" t="s">
+      <c r="U59" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V59" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="W59" s="20" t="s">
+      <c r="W59" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="X59" s="20" t="s">
+      <c r="X59" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C60" s="17">
+      <c r="C60" s="11">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D60" s="18">
+      <c r="D60" s="14">
         <v>5.5</v>
       </c>
-      <c r="E60" s="19">
+      <c r="E60" s="15">
         <v>3.0000000000000003E-4</v>
       </c>
-      <c r="H60" s="16" t="s">
+      <c r="H60" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="I60" s="16" t="s">
+      <c r="I60" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="J60" s="24">
+      <c r="J60" s="18">
         <v>1.5466054364870032E-2</v>
       </c>
-      <c r="K60" s="16" t="s">
+      <c r="K60" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="P60" s="16" t="s">
+      <c r="P60" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="Q60" s="16" t="s">
+      <c r="Q60" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="R60" s="16" t="s">
+      <c r="R60" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="U60" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V60" s="16" t="s">
+      <c r="U60" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V60" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="W60" s="16" t="s">
+      <c r="W60" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="X60" s="16" t="s">
+      <c r="X60" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C61" s="21">
+      <c r="C61" s="13">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D61" s="22">
+      <c r="D61" s="16">
         <v>7.7000000000000011</v>
       </c>
-      <c r="E61" s="23">
+      <c r="E61" s="17">
         <v>4.2000000000000002E-4</v>
       </c>
-      <c r="H61" s="20" t="s">
+      <c r="H61" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="I61" s="20" t="s">
+      <c r="I61" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="J61" s="25">
+      <c r="J61" s="19">
         <v>5.89777543369897E-2</v>
       </c>
-      <c r="K61" s="20" t="s">
+      <c r="K61" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="P61" s="20" t="s">
+      <c r="P61" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="Q61" s="20" t="s">
+      <c r="Q61" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="R61" s="20" t="s">
+      <c r="R61" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="U61" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V61" s="20" t="s">
+      <c r="U61" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V61" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="W61" s="20" t="s">
+      <c r="W61" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="X61" s="20" t="s">
+      <c r="X61" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="62" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C62" s="17">
+      <c r="C62" s="11">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D62" s="18">
+      <c r="D62" s="14">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E62" s="19">
+      <c r="E62" s="15">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="U62" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V62" s="16" t="s">
+      <c r="U62" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V62" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="W62" s="16" t="s">
+      <c r="W62" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="X62" s="16" t="s">
+      <c r="X62" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="63" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C63" s="21">
+      <c r="C63" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D63" s="22">
+      <c r="D63" s="16">
         <v>7.7000000000000011</v>
       </c>
-      <c r="E63" s="23">
+      <c r="E63" s="17">
         <v>4.2000000000000002E-4</v>
       </c>
-      <c r="U63" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V63" s="20" t="s">
+      <c r="U63" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V63" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="W63" s="20" t="s">
+      <c r="W63" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="X63" s="20" t="s">
+      <c r="X63" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="64" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C64" s="17">
+      <c r="C64" s="11">
         <v>1.005455</v>
       </c>
-      <c r="D64" s="18">
+      <c r="D64" s="14">
         <v>15.400000000000002</v>
       </c>
-      <c r="E64" s="19">
+      <c r="E64" s="15">
         <v>8.4000000000000003E-4</v>
       </c>
-      <c r="U64" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V64" s="16" t="s">
+      <c r="U64" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V64" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="W64" s="16" t="s">
+      <c r="W64" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="X64" s="16" t="s">
+      <c r="X64" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="65" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C65" s="21">
+      <c r="C65" s="13">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D65" s="22">
+      <c r="D65" s="16">
         <v>11</v>
       </c>
-      <c r="E65" s="23">
+      <c r="E65" s="17">
         <v>6.0000000000000006E-4</v>
       </c>
-      <c r="U65" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V65" s="20" t="s">
+      <c r="U65" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V65" s="12" t="s">
         <v>439</v>
       </c>
-      <c r="W65" s="20" t="s">
+      <c r="W65" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="X65" s="20" t="s">
+      <c r="X65" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="66" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C66" s="17">
+      <c r="C66" s="11">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D66" s="18">
+      <c r="D66" s="14">
         <v>3.3000000000000003</v>
       </c>
-      <c r="E66" s="19">
+      <c r="E66" s="15">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="U66" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V66" s="16" t="s">
+      <c r="U66" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V66" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="W66" s="16" t="s">
+      <c r="W66" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="X66" s="16" t="s">
+      <c r="X66" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="67" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B67" s="20" t="s">
+      <c r="B67" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C67" s="21">
+      <c r="C67" s="13">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D67" s="22">
+      <c r="D67" s="16">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E67" s="23">
+      <c r="E67" s="17">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="U67" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V67" s="20" t="s">
+      <c r="U67" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V67" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="W67" s="20" t="s">
+      <c r="W67" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="X67" s="20" t="s">
+      <c r="X67" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="68" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C68" s="17">
+      <c r="C68" s="11">
         <v>3.3962050000000001</v>
       </c>
-      <c r="D68" s="18">
+      <c r="D68" s="14">
         <v>53.900000000000006</v>
       </c>
-      <c r="E68" s="19">
+      <c r="E68" s="15">
         <v>2.9399999999999999E-3</v>
       </c>
-      <c r="U68" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V68" s="16" t="s">
+      <c r="U68" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V68" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="W68" s="16" t="s">
+      <c r="W68" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="X68" s="16" t="s">
+      <c r="X68" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="69" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B69" s="20" t="s">
+      <c r="B69" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C69" s="21">
+      <c r="C69" s="13">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D69" s="22">
+      <c r="D69" s="16">
         <v>6.6000000000000005</v>
       </c>
-      <c r="E69" s="23">
+      <c r="E69" s="17">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="U69" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V69" s="20" t="s">
+      <c r="U69" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V69" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="W69" s="20" t="s">
+      <c r="W69" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="X69" s="20" t="s">
+      <c r="X69" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="70" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C70" s="17">
+      <c r="C70" s="11">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D70" s="18">
+      <c r="D70" s="14">
         <v>26.400000000000002</v>
       </c>
-      <c r="E70" s="19">
+      <c r="E70" s="15">
         <v>1.4400000000000001E-3</v>
       </c>
-      <c r="U70" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V70" s="16" t="s">
+      <c r="U70" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V70" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="W70" s="16" t="s">
+      <c r="W70" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="X70" s="16" t="s">
+      <c r="X70" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="71" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B71" s="20" t="s">
+      <c r="B71" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C71" s="21">
+      <c r="C71" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D71" s="22">
+      <c r="D71" s="16">
         <v>19.8</v>
       </c>
-      <c r="E71" s="23">
+      <c r="E71" s="17">
         <v>1.08E-3</v>
       </c>
-      <c r="U71" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V71" s="20" t="s">
+      <c r="U71" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V71" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="W71" s="20" t="s">
+      <c r="W71" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="X71" s="20" t="s">
+      <c r="X71" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="72" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C72" s="17">
+      <c r="C72" s="11">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D72" s="18">
+      <c r="D72" s="14">
         <v>22</v>
       </c>
-      <c r="E72" s="19">
+      <c r="E72" s="15">
         <v>1.2000000000000001E-3</v>
       </c>
-      <c r="U72" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V72" s="16" t="s">
+      <c r="U72" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V72" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="W72" s="16" t="s">
+      <c r="W72" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="X72" s="16" t="s">
+      <c r="X72" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="73" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B73" s="20" t="s">
+      <c r="B73" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="C73" s="21">
+      <c r="C73" s="13">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D73" s="22">
+      <c r="D73" s="16">
         <v>29.700000000000003</v>
       </c>
-      <c r="E73" s="23">
+      <c r="E73" s="17">
         <v>1.6200000000000001E-3</v>
       </c>
-      <c r="U73" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V73" s="20" t="s">
+      <c r="U73" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V73" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="W73" s="20" t="s">
+      <c r="W73" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="X73" s="20" t="s">
+      <c r="X73" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="74" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B74" s="16" t="s">
+      <c r="B74" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C74" s="17">
+      <c r="C74" s="11">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D74" s="18">
+      <c r="D74" s="14">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E74" s="19">
+      <c r="E74" s="15">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="U74" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V74" s="16" t="s">
+      <c r="U74" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V74" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="W74" s="16" t="s">
+      <c r="W74" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="X74" s="16" t="s">
+      <c r="X74" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="75" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B75" s="20" t="s">
+      <c r="B75" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C75" s="21">
+      <c r="C75" s="13">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D75" s="22">
+      <c r="D75" s="16">
         <v>38.5</v>
       </c>
-      <c r="E75" s="23">
+      <c r="E75" s="17">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="U75" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V75" s="20" t="s">
+      <c r="U75" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V75" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="W75" s="20" t="s">
+      <c r="W75" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="X75" s="20" t="s">
+      <c r="X75" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="76" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C76" s="17">
+      <c r="C76" s="11">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D76" s="18">
+      <c r="D76" s="14">
         <v>49.500000000000007</v>
       </c>
-      <c r="E76" s="19">
+      <c r="E76" s="15">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="U76" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V76" s="16" t="s">
+      <c r="U76" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V76" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="W76" s="16" t="s">
+      <c r="W76" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="X76" s="16" t="s">
+      <c r="X76" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="77" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B77" s="20" t="s">
+      <c r="B77" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="C77" s="21">
+      <c r="C77" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D77" s="22">
+      <c r="D77" s="16">
         <v>61.600000000000009</v>
       </c>
-      <c r="E77" s="23">
+      <c r="E77" s="17">
         <v>3.3600000000000001E-3</v>
       </c>
-      <c r="U77" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V77" s="20" t="s">
+      <c r="U77" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V77" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="W77" s="20" t="s">
+      <c r="W77" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="X77" s="20" t="s">
+      <c r="X77" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="78" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C78" s="17">
+      <c r="C78" s="11">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D78" s="18">
+      <c r="D78" s="14">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E78" s="19">
+      <c r="E78" s="15">
         <v>2.4000000000000001E-4</v>
       </c>
-      <c r="U78" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V78" s="16" t="s">
+      <c r="U78" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V78" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="W78" s="16" t="s">
+      <c r="W78" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="X78" s="16" t="s">
+      <c r="X78" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="79" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B79" s="20" t="s">
+      <c r="B79" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C79" s="21">
+      <c r="C79" s="13">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D79" s="22">
+      <c r="D79" s="16">
         <v>56.1</v>
       </c>
-      <c r="E79" s="23">
+      <c r="E79" s="17">
         <v>3.0600000000000002E-3</v>
       </c>
-      <c r="U79" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V79" s="20" t="s">
+      <c r="U79" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V79" s="12" t="s">
         <v>448</v>
       </c>
-      <c r="W79" s="20" t="s">
+      <c r="W79" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="X79" s="20" t="s">
+      <c r="X79" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="80" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C80" s="17">
+      <c r="C80" s="11">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D80" s="18">
+      <c r="D80" s="14">
         <v>85.800000000000011</v>
       </c>
-      <c r="E80" s="19">
+      <c r="E80" s="15">
         <v>4.6800000000000001E-3</v>
       </c>
-      <c r="U80" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V80" s="16" t="s">
+      <c r="U80" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V80" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="W80" s="16" t="s">
+      <c r="W80" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="X80" s="16" t="s">
+      <c r="X80" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="81" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B81" s="20" t="s">
+      <c r="B81" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="C81" s="21">
+      <c r="C81" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D81" s="22">
+      <c r="D81" s="16">
         <v>40.700000000000003</v>
       </c>
-      <c r="E81" s="23">
+      <c r="E81" s="17">
         <v>2.2200000000000002E-3</v>
       </c>
-      <c r="U81" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V81" s="20" t="s">
+      <c r="U81" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V81" s="12" t="s">
         <v>448</v>
       </c>
-      <c r="W81" s="20" t="s">
+      <c r="W81" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="X81" s="20" t="s">
+      <c r="X81" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="82" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C82" s="17">
+      <c r="C82" s="11">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D82" s="18">
+      <c r="D82" s="14">
         <v>9.9</v>
       </c>
-      <c r="E82" s="19">
+      <c r="E82" s="15">
         <v>5.4000000000000001E-4</v>
       </c>
-      <c r="U82" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V82" s="16" t="s">
+      <c r="U82" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V82" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="W82" s="16" t="s">
+      <c r="W82" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="X82" s="16" t="s">
+      <c r="X82" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="83" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B83" s="20" t="s">
+      <c r="B83" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="C83" s="21">
+      <c r="C83" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D83" s="22">
+      <c r="D83" s="16">
         <v>15.400000000000002</v>
       </c>
-      <c r="E83" s="23">
+      <c r="E83" s="17">
         <v>8.4000000000000003E-4</v>
       </c>
-      <c r="U83" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V83" s="20" t="s">
+      <c r="U83" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V83" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="W83" s="20" t="s">
+      <c r="W83" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="X83" s="20" t="s">
+      <c r="X83" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="84" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C84" s="17">
+      <c r="C84" s="11">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D84" s="18">
+      <c r="D84" s="14">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E84" s="19">
+      <c r="E84" s="15">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="U84" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V84" s="16" t="s">
+      <c r="U84" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V84" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="W84" s="16" t="s">
+      <c r="W84" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="X84" s="16" t="s">
+      <c r="X84" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="85" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B85" s="20" t="s">
+      <c r="B85" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C85" s="21">
+      <c r="C85" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D85" s="22">
+      <c r="D85" s="16">
         <v>30.800000000000004</v>
       </c>
-      <c r="E85" s="23">
+      <c r="E85" s="17">
         <v>1.6800000000000001E-3</v>
       </c>
-      <c r="U85" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V85" s="20" t="s">
+      <c r="U85" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V85" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="W85" s="20" t="s">
+      <c r="W85" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="X85" s="20" t="s">
+      <c r="X85" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="86" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B86" s="16" t="s">
+      <c r="B86" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C86" s="17">
+      <c r="C86" s="11">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D86" s="18">
+      <c r="D86" s="14">
         <v>59.400000000000006</v>
       </c>
-      <c r="E86" s="19">
+      <c r="E86" s="15">
         <v>3.2400000000000003E-3</v>
       </c>
-      <c r="U86" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V86" s="16" t="s">
+      <c r="U86" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V86" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="W86" s="16" t="s">
+      <c r="W86" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="X86" s="16" t="s">
+      <c r="X86" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="87" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B87" s="20" t="s">
+      <c r="B87" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="C87" s="21">
+      <c r="C87" s="13">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D87" s="22">
+      <c r="D87" s="16">
         <v>49.500000000000007</v>
       </c>
-      <c r="E87" s="23">
+      <c r="E87" s="17">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="U87" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V87" s="20" t="s">
+      <c r="U87" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V87" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="W87" s="20" t="s">
+      <c r="W87" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="X87" s="20" t="s">
+      <c r="X87" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="88" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B88" s="16" t="s">
+      <c r="B88" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C88" s="17">
+      <c r="C88" s="11">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D88" s="18">
+      <c r="D88" s="14">
         <v>83.600000000000009</v>
       </c>
-      <c r="E88" s="19">
+      <c r="E88" s="15">
         <v>4.5599999999999998E-3</v>
       </c>
-      <c r="U88" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V88" s="16" t="s">
+      <c r="U88" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V88" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="W88" s="16" t="s">
+      <c r="W88" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="X88" s="16" t="s">
+      <c r="X88" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="89" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B89" s="20" t="s">
+      <c r="B89" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="C89" s="21">
+      <c r="C89" s="13">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D89" s="22">
+      <c r="D89" s="16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E89" s="23">
+      <c r="E89" s="17">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="U89" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V89" s="20" t="s">
+      <c r="U89" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V89" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="W89" s="20" t="s">
+      <c r="W89" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="X89" s="20" t="s">
+      <c r="X89" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="90" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B90" s="16" t="s">
+      <c r="B90" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C90" s="17">
+      <c r="C90" s="11">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D90" s="18">
+      <c r="D90" s="14">
         <v>13.200000000000001</v>
       </c>
-      <c r="E90" s="19">
+      <c r="E90" s="15">
         <v>7.2000000000000005E-4</v>
       </c>
-      <c r="U90" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V90" s="16" t="s">
+      <c r="U90" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V90" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="W90" s="16" t="s">
+      <c r="W90" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="X90" s="16" t="s">
+      <c r="X90" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="91" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B91" s="20" t="s">
+      <c r="B91" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C91" s="21">
+      <c r="C91" s="13">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D91" s="22">
+      <c r="D91" s="16">
         <v>25.3</v>
       </c>
-      <c r="E91" s="23">
+      <c r="E91" s="17">
         <v>1.3799999999999999E-3</v>
       </c>
-      <c r="U91" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V91" s="20" t="s">
+      <c r="U91" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V91" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="W91" s="20" t="s">
+      <c r="W91" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="X91" s="20" t="s">
+      <c r="X91" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="92" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B92" s="16" t="s">
+      <c r="B92" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C92" s="17">
+      <c r="C92" s="11">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D92" s="18">
+      <c r="D92" s="14">
         <v>16.5</v>
       </c>
-      <c r="E92" s="19">
+      <c r="E92" s="15">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="U92" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V92" s="16" t="s">
+      <c r="U92" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V92" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="W92" s="16" t="s">
+      <c r="W92" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="X92" s="16" t="s">
+      <c r="X92" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="93" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B93" s="20" t="s">
+      <c r="B93" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C93" s="21">
+      <c r="C93" s="13">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D93" s="22">
+      <c r="D93" s="16">
         <v>15.400000000000002</v>
       </c>
-      <c r="E93" s="23">
+      <c r="E93" s="17">
         <v>8.4000000000000003E-4</v>
       </c>
-      <c r="U93" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V93" s="20" t="s">
+      <c r="U93" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V93" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="W93" s="20" t="s">
+      <c r="W93" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="X93" s="20" t="s">
+      <c r="X93" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="94" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B94" s="16" t="s">
+      <c r="B94" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C94" s="17">
+      <c r="C94" s="11">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D94" s="18">
+      <c r="D94" s="14">
         <v>59.400000000000006</v>
       </c>
-      <c r="E94" s="19">
+      <c r="E94" s="15">
         <v>3.2400000000000003E-3</v>
       </c>
-      <c r="U94" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V94" s="16" t="s">
+      <c r="U94" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V94" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="W94" s="16" t="s">
+      <c r="W94" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="X94" s="16" t="s">
+      <c r="X94" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="95" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B95" s="20" t="s">
+      <c r="B95" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C95" s="21">
+      <c r="C95" s="13">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D95" s="22">
+      <c r="D95" s="16">
         <v>20.900000000000002</v>
       </c>
-      <c r="E95" s="23">
+      <c r="E95" s="17">
         <v>1.14E-3</v>
       </c>
-      <c r="U95" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V95" s="20" t="s">
+      <c r="U95" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V95" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="W95" s="20" t="s">
+      <c r="W95" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="X95" s="20" t="s">
+      <c r="X95" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="96" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B96" s="16" t="s">
+      <c r="B96" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C96" s="17">
+      <c r="C96" s="11">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D96" s="18">
+      <c r="D96" s="14">
         <v>18.700000000000003</v>
       </c>
-      <c r="E96" s="19">
+      <c r="E96" s="15">
         <v>1.0200000000000001E-3</v>
       </c>
-      <c r="U96" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V96" s="16" t="s">
+      <c r="U96" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V96" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="W96" s="16" t="s">
+      <c r="W96" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="X96" s="16" t="s">
+      <c r="X96" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="97" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B97" s="20" t="s">
+      <c r="B97" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="C97" s="21">
+      <c r="C97" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D97" s="22">
+      <c r="D97" s="16">
         <v>7.7000000000000011</v>
       </c>
-      <c r="E97" s="23">
+      <c r="E97" s="17">
         <v>4.2000000000000002E-4</v>
       </c>
-      <c r="U97" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V97" s="20" t="s">
+      <c r="U97" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V97" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="W97" s="20" t="s">
+      <c r="W97" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="X97" s="20" t="s">
+      <c r="X97" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="98" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B98" s="16" t="s">
+      <c r="B98" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C98" s="17">
+      <c r="C98" s="11">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D98" s="18">
+      <c r="D98" s="14">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E98" s="19">
+      <c r="E98" s="15">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="U98" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V98" s="16" t="s">
+      <c r="U98" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V98" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="W98" s="16" t="s">
+      <c r="W98" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="X98" s="16" t="s">
+      <c r="X98" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="99" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B99" s="20" t="s">
+      <c r="B99" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C99" s="21">
+      <c r="C99" s="13">
         <v>3.3962050000000001</v>
       </c>
-      <c r="D99" s="22">
+      <c r="D99" s="16">
         <v>104.50000000000001</v>
       </c>
-      <c r="E99" s="23">
+      <c r="E99" s="17">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="U99" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V99" s="20" t="s">
+      <c r="U99" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V99" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="W99" s="20" t="s">
+      <c r="W99" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="X99" s="20" t="s">
+      <c r="X99" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="100" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B100" s="16" t="s">
+      <c r="B100" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C100" s="17">
+      <c r="C100" s="11">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D100" s="18">
+      <c r="D100" s="14">
         <v>41.800000000000004</v>
       </c>
-      <c r="E100" s="19">
+      <c r="E100" s="15">
         <v>2.2799999999999999E-3</v>
       </c>
-      <c r="U100" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V100" s="16" t="s">
+      <c r="U100" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V100" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="W100" s="16" t="s">
+      <c r="W100" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="X100" s="16" t="s">
+      <c r="X100" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="101" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B101" s="20" t="s">
+      <c r="B101" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C101" s="21">
+      <c r="C101" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D101" s="22">
+      <c r="D101" s="16">
         <v>3.3000000000000003</v>
       </c>
-      <c r="E101" s="23">
+      <c r="E101" s="17">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="U101" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V101" s="20" t="s">
+      <c r="U101" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V101" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="W101" s="20" t="s">
+      <c r="W101" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="X101" s="20" t="s">
+      <c r="X101" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="102" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B102" s="16" t="s">
+      <c r="B102" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C102" s="17">
+      <c r="C102" s="11">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D102" s="18">
+      <c r="D102" s="14">
         <v>11</v>
       </c>
-      <c r="E102" s="19">
+      <c r="E102" s="15">
         <v>6.0000000000000006E-4</v>
       </c>
-      <c r="U102" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V102" s="16" t="s">
+      <c r="U102" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V102" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="W102" s="16" t="s">
+      <c r="W102" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="X102" s="16" t="s">
+      <c r="X102" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="103" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B103" s="20" t="s">
+      <c r="B103" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C103" s="21">
+      <c r="C103" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D103" s="22">
+      <c r="D103" s="16">
         <v>17.600000000000001</v>
       </c>
-      <c r="E103" s="23">
+      <c r="E103" s="17">
         <v>9.6000000000000002E-4</v>
       </c>
-      <c r="U103" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V103" s="20" t="s">
+      <c r="U103" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V103" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="W103" s="20" t="s">
+      <c r="W103" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="X103" s="20" t="s">
+      <c r="X103" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="104" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B104" s="16" t="s">
+      <c r="B104" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C104" s="17">
+      <c r="C104" s="11">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D104" s="18">
+      <c r="D104" s="14">
         <v>5.5</v>
       </c>
-      <c r="E104" s="19">
+      <c r="E104" s="15">
         <v>3.0000000000000003E-4</v>
       </c>
-      <c r="U104" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V104" s="16" t="s">
+      <c r="U104" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V104" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="W104" s="16" t="s">
+      <c r="W104" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="X104" s="16" t="s">
+      <c r="X104" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="105" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B105" s="20" t="s">
+      <c r="B105" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C105" s="21">
+      <c r="C105" s="13">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D105" s="22">
+      <c r="D105" s="16">
         <v>12.100000000000001</v>
       </c>
-      <c r="E105" s="23">
+      <c r="E105" s="17">
         <v>6.6E-4</v>
       </c>
-      <c r="U105" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V105" s="20" t="s">
+      <c r="U105" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V105" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="W105" s="20" t="s">
+      <c r="W105" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="X105" s="20" t="s">
+      <c r="X105" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="106" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B106" s="16" t="s">
+      <c r="B106" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C106" s="17">
+      <c r="C106" s="11">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D106" s="18">
+      <c r="D106" s="14">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E106" s="19">
+      <c r="E106" s="15">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="U106" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V106" s="16" t="s">
+      <c r="U106" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V106" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="W106" s="16" t="s">
+      <c r="W106" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="X106" s="16" t="s">
+      <c r="X106" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="107" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B107" s="20" t="s">
+      <c r="B107" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C107" s="21">
+      <c r="C107" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D107" s="22">
+      <c r="D107" s="16">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E107" s="23">
+      <c r="E107" s="17">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="U107" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V107" s="20" t="s">
+      <c r="U107" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V107" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="W107" s="20" t="s">
+      <c r="W107" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="X107" s="20" t="s">
+      <c r="X107" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="108" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B108" s="16" t="s">
+      <c r="B108" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C108" s="17">
+      <c r="C108" s="11">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D108" s="18">
+      <c r="D108" s="14">
         <v>6.6000000000000005</v>
       </c>
-      <c r="E108" s="19">
+      <c r="E108" s="15">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="U108" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V108" s="16" t="s">
+      <c r="U108" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V108" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="W108" s="16" t="s">
+      <c r="W108" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="X108" s="16" t="s">
+      <c r="X108" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="109" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B109" s="20" t="s">
+      <c r="B109" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="C109" s="21">
+      <c r="C109" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D109" s="22">
+      <c r="D109" s="16">
         <v>9.9</v>
       </c>
-      <c r="E109" s="23">
+      <c r="E109" s="17">
         <v>5.4000000000000001E-4</v>
       </c>
-      <c r="U109" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V109" s="20" t="s">
+      <c r="U109" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V109" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="W109" s="20" t="s">
+      <c r="W109" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="X109" s="20" t="s">
+      <c r="X109" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="110" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B110" s="16" t="s">
+      <c r="B110" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C110" s="17">
+      <c r="C110" s="11">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D110" s="18">
+      <c r="D110" s="14">
         <v>3.3000000000000003</v>
       </c>
-      <c r="E110" s="19">
+      <c r="E110" s="15">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="U110" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V110" s="16" t="s">
+      <c r="U110" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V110" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="W110" s="16" t="s">
+      <c r="W110" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="X110" s="16" t="s">
+      <c r="X110" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="111" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B111" s="20" t="s">
+      <c r="B111" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="C111" s="21">
+      <c r="C111" s="13">
         <v>1.7874760000000001</v>
       </c>
-      <c r="D111" s="22">
+      <c r="D111" s="16">
         <v>6.6000000000000005</v>
       </c>
-      <c r="E111" s="23">
+      <c r="E111" s="17">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="U111" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V111" s="20" t="s">
+      <c r="U111" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V111" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="W111" s="20" t="s">
+      <c r="W111" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="X111" s="20" t="s">
+      <c r="X111" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="112" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B112" s="16" t="s">
+      <c r="B112" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C112" s="17">
+      <c r="C112" s="11">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D112" s="18">
+      <c r="D112" s="14">
         <v>9.9</v>
       </c>
-      <c r="E112" s="19">
+      <c r="E112" s="15">
         <v>5.4000000000000001E-4</v>
       </c>
-      <c r="U112" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V112" s="16" t="s">
+      <c r="U112" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V112" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="W112" s="16" t="s">
+      <c r="W112" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="X112" s="16" t="s">
+      <c r="X112" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="113" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B113" s="20" t="s">
+      <c r="B113" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="C113" s="21">
+      <c r="C113" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D113" s="22">
+      <c r="D113" s="16">
         <v>33</v>
       </c>
-      <c r="E113" s="23">
+      <c r="E113" s="17">
         <v>1.8E-3</v>
       </c>
-      <c r="U113" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V113" s="20" t="s">
+      <c r="U113" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V113" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="W113" s="20" t="s">
+      <c r="W113" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="X113" s="20" t="s">
+      <c r="X113" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="114" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B114" s="16" t="s">
+      <c r="B114" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C114" s="17">
+      <c r="C114" s="11">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D114" s="18">
+      <c r="D114" s="14">
         <v>7.7000000000000011</v>
       </c>
-      <c r="E114" s="19">
+      <c r="E114" s="15">
         <v>4.2000000000000002E-4</v>
       </c>
-      <c r="U114" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V114" s="16" t="s">
+      <c r="U114" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V114" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="W114" s="16" t="s">
+      <c r="W114" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="X114" s="16" t="s">
+      <c r="X114" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="115" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B115" s="20" t="s">
+      <c r="B115" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C115" s="21">
+      <c r="C115" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D115" s="22">
+      <c r="D115" s="16">
         <v>49.500000000000007</v>
       </c>
-      <c r="E115" s="23">
+      <c r="E115" s="17">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="U115" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V115" s="20" t="s">
+      <c r="U115" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V115" s="12" t="s">
         <v>471</v>
       </c>
-      <c r="W115" s="20" t="s">
+      <c r="W115" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="X115" s="20" t="s">
+      <c r="X115" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="116" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B116" s="16" t="s">
+      <c r="B116" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C116" s="17">
+      <c r="C116" s="11">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D116" s="18">
+      <c r="D116" s="14">
         <v>41.800000000000004</v>
       </c>
-      <c r="E116" s="19">
+      <c r="E116" s="15">
         <v>2.2799999999999999E-3</v>
       </c>
-      <c r="U116" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V116" s="16" t="s">
+      <c r="U116" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V116" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="W116" s="16" t="s">
+      <c r="W116" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="X116" s="16" t="s">
+      <c r="X116" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="117" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B117" s="20" t="s">
+      <c r="B117" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="C117" s="21">
+      <c r="C117" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D117" s="22">
+      <c r="D117" s="16">
         <v>24.200000000000003</v>
       </c>
-      <c r="E117" s="23">
+      <c r="E117" s="17">
         <v>1.32E-3</v>
       </c>
-      <c r="U117" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V117" s="20" t="s">
+      <c r="U117" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V117" s="12" t="s">
         <v>471</v>
       </c>
-      <c r="W117" s="20" t="s">
+      <c r="W117" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="X117" s="20" t="s">
+      <c r="X117" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="118" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B118" s="16" t="s">
+      <c r="B118" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C118" s="17">
+      <c r="C118" s="11">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D118" s="18">
+      <c r="D118" s="14">
         <v>33</v>
       </c>
-      <c r="E118" s="19">
+      <c r="E118" s="15">
         <v>1.8E-3</v>
       </c>
-      <c r="U118" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V118" s="16" t="s">
+      <c r="U118" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V118" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="W118" s="16" t="s">
+      <c r="W118" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="X118" s="16" t="s">
+      <c r="X118" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="119" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B119" s="20" t="s">
+      <c r="B119" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="C119" s="21">
+      <c r="C119" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D119" s="22">
+      <c r="D119" s="16">
         <v>19.8</v>
       </c>
-      <c r="E119" s="23">
+      <c r="E119" s="17">
         <v>1.08E-3</v>
       </c>
-      <c r="U119" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V119" s="20" t="s">
+      <c r="U119" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V119" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="W119" s="20" t="s">
+      <c r="W119" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="X119" s="20" t="s">
+      <c r="X119" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="120" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B120" s="16" t="s">
+      <c r="B120" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C120" s="17">
+      <c r="C120" s="11">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D120" s="18">
+      <c r="D120" s="14">
         <v>9.9</v>
       </c>
-      <c r="E120" s="19">
+      <c r="E120" s="15">
         <v>5.4000000000000001E-4</v>
       </c>
-      <c r="U120" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V120" s="16" t="s">
+      <c r="U120" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V120" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="W120" s="16" t="s">
+      <c r="W120" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="X120" s="16" t="s">
+      <c r="X120" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="121" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B121" s="20" t="s">
+      <c r="B121" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="C121" s="21">
+      <c r="C121" s="13">
         <v>3.3962050000000001</v>
       </c>
-      <c r="D121" s="22">
+      <c r="D121" s="16">
         <v>20.900000000000002</v>
       </c>
-      <c r="E121" s="23">
+      <c r="E121" s="17">
         <v>1.14E-3</v>
       </c>
-      <c r="U121" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V121" s="20" t="s">
+      <c r="U121" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V121" s="12" t="s">
         <v>475</v>
       </c>
-      <c r="W121" s="20" t="s">
+      <c r="W121" s="12" t="s">
         <v>476</v>
       </c>
-      <c r="X121" s="20" t="s">
+      <c r="X121" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="122" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B122" s="16" t="s">
+      <c r="B122" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="C122" s="17">
+      <c r="C122" s="11">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D122" s="18">
+      <c r="D122" s="14">
         <v>19.8</v>
       </c>
-      <c r="E122" s="19">
+      <c r="E122" s="15">
         <v>1.08E-3</v>
       </c>
-      <c r="U122" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V122" s="16" t="s">
+      <c r="U122" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V122" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="W122" s="16" t="s">
+      <c r="W122" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="X122" s="16" t="s">
+      <c r="X122" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="123" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B123" s="20" t="s">
+      <c r="B123" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="C123" s="21">
+      <c r="C123" s="13">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D123" s="22">
+      <c r="D123" s="16">
         <v>71.5</v>
       </c>
-      <c r="E123" s="23">
+      <c r="E123" s="17">
         <v>3.9000000000000003E-3</v>
       </c>
-      <c r="U123" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V123" s="20" t="s">
+      <c r="U123" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V123" s="12" t="s">
         <v>475</v>
       </c>
-      <c r="W123" s="20" t="s">
+      <c r="W123" s="12" t="s">
         <v>476</v>
       </c>
-      <c r="X123" s="20" t="s">
+      <c r="X123" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="124" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B124" s="16" t="s">
+      <c r="B124" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C124" s="17">
+      <c r="C124" s="11">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D124" s="18">
+      <c r="D124" s="14">
         <v>13.200000000000001</v>
       </c>
-      <c r="E124" s="19">
+      <c r="E124" s="15">
         <v>7.2000000000000005E-4</v>
       </c>
-      <c r="U124" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V124" s="16" t="s">
+      <c r="U124" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V124" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="W124" s="16" t="s">
+      <c r="W124" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="X124" s="16" t="s">
+      <c r="X124" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="125" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B125" s="20" t="s">
+      <c r="B125" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="C125" s="21">
+      <c r="C125" s="13">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D125" s="22">
+      <c r="D125" s="16">
         <v>39.6</v>
       </c>
-      <c r="E125" s="23">
+      <c r="E125" s="17">
         <v>2.16E-3</v>
       </c>
-      <c r="U125" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V125" s="20" t="s">
+      <c r="U125" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V125" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="W125" s="20" t="s">
+      <c r="W125" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="X125" s="20" t="s">
+      <c r="X125" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="126" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B126" s="16" t="s">
+      <c r="B126" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C126" s="17">
+      <c r="C126" s="11">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D126" s="18">
+      <c r="D126" s="14">
         <v>30.800000000000004</v>
       </c>
-      <c r="E126" s="19">
+      <c r="E126" s="15">
         <v>1.6800000000000001E-3</v>
       </c>
-      <c r="U126" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V126" s="16" t="s">
+      <c r="U126" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V126" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="W126" s="16" t="s">
+      <c r="W126" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="X126" s="16" t="s">
+      <c r="X126" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="127" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B127" s="20" t="s">
+      <c r="B127" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="C127" s="21">
+      <c r="C127" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D127" s="22">
+      <c r="D127" s="16">
         <v>29.700000000000003</v>
       </c>
-      <c r="E127" s="23">
+      <c r="E127" s="17">
         <v>1.6200000000000001E-3</v>
       </c>
-      <c r="U127" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V127" s="20" t="s">
+      <c r="U127" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V127" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="W127" s="20" t="s">
+      <c r="W127" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="X127" s="20" t="s">
+      <c r="X127" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="128" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B128" s="16" t="s">
+      <c r="B128" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C128" s="17">
+      <c r="C128" s="11">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D128" s="18">
+      <c r="D128" s="14">
         <v>44</v>
       </c>
-      <c r="E128" s="19">
+      <c r="E128" s="15">
         <v>2.4000000000000002E-3</v>
       </c>
-      <c r="U128" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V128" s="16" t="s">
+      <c r="U128" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V128" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="W128" s="16" t="s">
+      <c r="W128" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="X128" s="16" t="s">
+      <c r="X128" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="129" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B129" s="20" t="s">
+      <c r="B129" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="C129" s="21">
+      <c r="C129" s="13">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D129" s="22">
+      <c r="D129" s="16">
         <v>30.800000000000004</v>
       </c>
-      <c r="E129" s="23">
+      <c r="E129" s="17">
         <v>1.6800000000000001E-3</v>
       </c>
-      <c r="U129" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V129" s="20" t="s">
+      <c r="U129" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V129" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="W129" s="20" t="s">
+      <c r="W129" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="X129" s="20" t="s">
+      <c r="X129" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="130" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B130" s="16" t="s">
+      <c r="B130" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C130" s="17">
+      <c r="C130" s="11">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D130" s="18">
+      <c r="D130" s="14">
         <v>29.700000000000003</v>
       </c>
-      <c r="E130" s="19">
+      <c r="E130" s="15">
         <v>1.6200000000000001E-3</v>
       </c>
-      <c r="U130" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V130" s="16" t="s">
+      <c r="U130" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V130" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="W130" s="16" t="s">
+      <c r="W130" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="X130" s="16" t="s">
+      <c r="X130" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="131" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B131" s="20" t="s">
+      <c r="B131" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="C131" s="21">
+      <c r="C131" s="13">
         <v>3.3962050000000001</v>
       </c>
-      <c r="D131" s="22">
+      <c r="D131" s="16">
         <v>30.800000000000004</v>
       </c>
-      <c r="E131" s="23">
+      <c r="E131" s="17">
         <v>1.6800000000000001E-3</v>
       </c>
-      <c r="U131" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V131" s="20" t="s">
+      <c r="U131" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V131" s="12" t="s">
         <v>481</v>
       </c>
-      <c r="W131" s="20" t="s">
+      <c r="W131" s="12" t="s">
         <v>482</v>
       </c>
-      <c r="X131" s="20" t="s">
+      <c r="X131" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="132" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B132" s="16" t="s">
+      <c r="B132" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C132" s="17">
+      <c r="C132" s="11">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D132" s="18">
+      <c r="D132" s="14">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E132" s="19">
+      <c r="E132" s="15">
         <v>2.4000000000000001E-4</v>
       </c>
-      <c r="U132" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V132" s="16" t="s">
+      <c r="U132" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V132" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="W132" s="16" t="s">
+      <c r="W132" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="X132" s="16" t="s">
+      <c r="X132" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="133" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B133" s="20" t="s">
+      <c r="B133" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="C133" s="21">
+      <c r="C133" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D133" s="22">
+      <c r="D133" s="16">
         <v>27.500000000000004</v>
       </c>
-      <c r="E133" s="23">
+      <c r="E133" s="17">
         <v>1.5E-3</v>
       </c>
-      <c r="U133" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V133" s="20" t="s">
+      <c r="U133" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V133" s="12" t="s">
         <v>483</v>
       </c>
-      <c r="W133" s="20" t="s">
+      <c r="W133" s="12" t="s">
         <v>484</v>
       </c>
-      <c r="X133" s="20" t="s">
+      <c r="X133" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="134" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B134" s="16" t="s">
+      <c r="B134" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C134" s="17">
+      <c r="C134" s="11">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D134" s="18">
+      <c r="D134" s="14">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E134" s="19">
+      <c r="E134" s="15">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="U134" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V134" s="16" t="s">
+      <c r="U134" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V134" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="W134" s="16" t="s">
+      <c r="W134" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="X134" s="16" t="s">
+      <c r="X134" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="135" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B135" s="20" t="s">
+      <c r="B135" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="C135" s="21">
+      <c r="C135" s="13">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D135" s="22">
+      <c r="D135" s="16">
         <v>20.900000000000002</v>
       </c>
-      <c r="E135" s="23">
+      <c r="E135" s="17">
         <v>1.14E-3</v>
       </c>
-      <c r="U135" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V135" s="20" t="s">
+      <c r="U135" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V135" s="12" t="s">
         <v>483</v>
       </c>
-      <c r="W135" s="20" t="s">
+      <c r="W135" s="12" t="s">
         <v>484</v>
       </c>
-      <c r="X135" s="20" t="s">
+      <c r="X135" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="136" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B136" s="16" t="s">
+      <c r="B136" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C136" s="17">
+      <c r="C136" s="11">
         <v>3.3962050000000001</v>
       </c>
-      <c r="D136" s="18">
+      <c r="D136" s="14">
         <v>7.7000000000000011</v>
       </c>
-      <c r="E136" s="19">
+      <c r="E136" s="15">
         <v>4.2000000000000002E-4</v>
       </c>
-      <c r="U136" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V136" s="16" t="s">
+      <c r="U136" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V136" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="W136" s="16" t="s">
+      <c r="W136" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="X136" s="16" t="s">
+      <c r="X136" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="137" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B137" s="20" t="s">
+      <c r="B137" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="C137" s="21">
+      <c r="C137" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D137" s="22">
+      <c r="D137" s="16">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E137" s="23">
+      <c r="E137" s="17">
         <v>1.2E-4</v>
       </c>
-      <c r="U137" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V137" s="20" t="s">
+      <c r="U137" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V137" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="W137" s="20" t="s">
+      <c r="W137" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="X137" s="20" t="s">
+      <c r="X137" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="138" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B138" s="16" t="s">
+      <c r="B138" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C138" s="17">
+      <c r="C138" s="11">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D138" s="18">
+      <c r="D138" s="14">
         <v>16.5</v>
       </c>
-      <c r="E138" s="19">
+      <c r="E138" s="15">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="U138" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V138" s="16" t="s">
+      <c r="U138" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V138" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="W138" s="16" t="s">
+      <c r="W138" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="X138" s="16" t="s">
+      <c r="X138" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="139" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B139" s="20" t="s">
+      <c r="B139" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C139" s="21">
+      <c r="C139" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D139" s="22">
+      <c r="D139" s="16">
         <v>7.7000000000000011</v>
       </c>
-      <c r="E139" s="23">
+      <c r="E139" s="17">
         <v>4.2000000000000002E-4</v>
       </c>
-      <c r="U139" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V139" s="20" t="s">
+      <c r="U139" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V139" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="W139" s="20" t="s">
+      <c r="W139" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="X139" s="20" t="s">
+      <c r="X139" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="140" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B140" s="16" t="s">
+      <c r="B140" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C140" s="17">
+      <c r="C140" s="11">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D140" s="18">
+      <c r="D140" s="14">
         <v>14.3</v>
       </c>
-      <c r="E140" s="19">
+      <c r="E140" s="15">
         <v>7.7999999999999999E-4</v>
       </c>
-      <c r="U140" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V140" s="16" t="s">
+      <c r="U140" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V140" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="W140" s="16" t="s">
+      <c r="W140" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="X140" s="16" t="s">
+      <c r="X140" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="141" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B141" s="20" t="s">
+      <c r="B141" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="C141" s="21">
+      <c r="C141" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D141" s="22">
+      <c r="D141" s="16">
         <v>12.100000000000001</v>
       </c>
-      <c r="E141" s="23">
+      <c r="E141" s="17">
         <v>6.6E-4</v>
       </c>
-      <c r="U141" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V141" s="20" t="s">
+      <c r="U141" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V141" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="W141" s="20" t="s">
+      <c r="W141" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="X141" s="20" t="s">
+      <c r="X141" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="142" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B142" s="16" t="s">
+      <c r="B142" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C142" s="17">
+      <c r="C142" s="11">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D142" s="18">
+      <c r="D142" s="14">
         <v>36.300000000000004</v>
       </c>
-      <c r="E142" s="19">
+      <c r="E142" s="15">
         <v>1.98E-3</v>
       </c>
-      <c r="U142" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V142" s="16" t="s">
+      <c r="U142" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V142" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="W142" s="16" t="s">
+      <c r="W142" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="X142" s="16" t="s">
+      <c r="X142" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="143" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B143" s="20" t="s">
+      <c r="B143" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C143" s="21">
+      <c r="C143" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D143" s="22">
+      <c r="D143" s="16">
         <v>27.500000000000004</v>
       </c>
-      <c r="E143" s="23">
+      <c r="E143" s="17">
         <v>1.5E-3</v>
       </c>
-      <c r="U143" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V143" s="20" t="s">
+      <c r="U143" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V143" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="W143" s="20" t="s">
+      <c r="W143" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="X143" s="20" t="s">
+      <c r="X143" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="144" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B144" s="16" t="s">
+      <c r="B144" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C144" s="17">
+      <c r="C144" s="11">
         <v>3.3962050000000001</v>
       </c>
-      <c r="D144" s="18">
+      <c r="D144" s="14">
         <v>14.3</v>
       </c>
-      <c r="E144" s="19">
+      <c r="E144" s="15">
         <v>7.7999999999999999E-4</v>
       </c>
-      <c r="U144" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V144" s="16" t="s">
+      <c r="U144" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V144" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="W144" s="16" t="s">
+      <c r="W144" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="X144" s="16" t="s">
+      <c r="X144" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="145" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B145" s="20" t="s">
+      <c r="B145" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="C145" s="21">
+      <c r="C145" s="13">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D145" s="22">
+      <c r="D145" s="16">
         <v>18.700000000000003</v>
       </c>
-      <c r="E145" s="23">
+      <c r="E145" s="17">
         <v>1.0200000000000001E-3</v>
       </c>
-      <c r="U145" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V145" s="20" t="s">
+      <c r="U145" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V145" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="W145" s="20" t="s">
+      <c r="W145" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="X145" s="20" t="s">
+      <c r="X145" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="146" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B146" s="16" t="s">
+      <c r="B146" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C146" s="17">
+      <c r="C146" s="11">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D146" s="18">
+      <c r="D146" s="14">
         <v>29.700000000000003</v>
       </c>
-      <c r="E146" s="19">
+      <c r="E146" s="15">
         <v>1.6200000000000001E-3</v>
       </c>
-      <c r="U146" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V146" s="16" t="s">
+      <c r="U146" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V146" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="W146" s="16" t="s">
+      <c r="W146" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="X146" s="16" t="s">
+      <c r="X146" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="147" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B147" s="20" t="s">
+      <c r="B147" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="C147" s="21">
+      <c r="C147" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D147" s="22">
+      <c r="D147" s="16">
         <v>23.1</v>
       </c>
-      <c r="E147" s="23">
+      <c r="E147" s="17">
         <v>1.2600000000000001E-3</v>
       </c>
-      <c r="U147" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V147" s="20" t="s">
+      <c r="U147" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V147" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="W147" s="20" t="s">
+      <c r="W147" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="X147" s="20" t="s">
+      <c r="X147" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="148" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B148" s="16" t="s">
+      <c r="B148" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="C148" s="17">
+      <c r="C148" s="11">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D148" s="18">
+      <c r="D148" s="14">
         <v>9.9</v>
       </c>
-      <c r="E148" s="19">
+      <c r="E148" s="15">
         <v>5.4000000000000001E-4</v>
       </c>
-      <c r="U148" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V148" s="16" t="s">
+      <c r="U148" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V148" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="W148" s="16" t="s">
+      <c r="W148" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="X148" s="16" t="s">
+      <c r="X148" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="149" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B149" s="20" t="s">
+      <c r="B149" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="C149" s="21">
+      <c r="C149" s="13">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D149" s="22">
+      <c r="D149" s="16">
         <v>29.700000000000003</v>
       </c>
-      <c r="E149" s="23">
+      <c r="E149" s="17">
         <v>1.6200000000000001E-3</v>
       </c>
-      <c r="U149" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V149" s="20" t="s">
+      <c r="U149" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V149" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="W149" s="20" t="s">
+      <c r="W149" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="X149" s="20" t="s">
+      <c r="X149" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="150" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B150" s="16" t="s">
+      <c r="B150" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="C150" s="17">
+      <c r="C150" s="11">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D150" s="18">
+      <c r="D150" s="14">
         <v>16.5</v>
       </c>
-      <c r="E150" s="19">
+      <c r="E150" s="15">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="U150" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V150" s="16" t="s">
+      <c r="U150" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V150" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="W150" s="16" t="s">
+      <c r="W150" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="X150" s="16" t="s">
+      <c r="X150" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="151" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B151" s="20" t="s">
+      <c r="B151" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="C151" s="21">
+      <c r="C151" s="13">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D151" s="22">
+      <c r="D151" s="16">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E151" s="23">
+      <c r="E151" s="17">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="U151" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V151" s="20" t="s">
+      <c r="U151" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V151" s="12" t="s">
         <v>495</v>
       </c>
-      <c r="W151" s="20" t="s">
+      <c r="W151" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="X151" s="20" t="s">
+      <c r="X151" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="152" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B152" s="16" t="s">
+      <c r="B152" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="C152" s="17">
+      <c r="C152" s="11">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D152" s="18">
+      <c r="D152" s="14">
         <v>16.5</v>
       </c>
-      <c r="E152" s="19">
+      <c r="E152" s="15">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="U152" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V152" s="16" t="s">
+      <c r="U152" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V152" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="W152" s="16" t="s">
+      <c r="W152" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="X152" s="16" t="s">
+      <c r="X152" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="153" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B153" s="20" t="s">
+      <c r="B153" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="C153" s="21">
+      <c r="C153" s="13">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D153" s="22">
+      <c r="D153" s="16">
         <v>13.200000000000001</v>
       </c>
-      <c r="E153" s="23">
+      <c r="E153" s="17">
         <v>7.2000000000000005E-4</v>
       </c>
-      <c r="U153" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V153" s="20" t="s">
+      <c r="U153" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V153" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="W153" s="20" t="s">
+      <c r="W153" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="X153" s="20" t="s">
+      <c r="X153" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="154" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B154" s="16" t="s">
+      <c r="B154" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C154" s="17">
+      <c r="C154" s="11">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D154" s="18">
+      <c r="D154" s="14">
         <v>15.400000000000002</v>
       </c>
-      <c r="E154" s="19">
+      <c r="E154" s="15">
         <v>8.4000000000000003E-4</v>
       </c>
-      <c r="U154" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V154" s="16" t="s">
+      <c r="U154" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V154" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="W154" s="16" t="s">
+      <c r="W154" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="X154" s="16" t="s">
+      <c r="X154" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="155" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B155" s="20" t="s">
+      <c r="B155" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="C155" s="21">
+      <c r="C155" s="13">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D155" s="22">
+      <c r="D155" s="16">
         <v>16.5</v>
       </c>
-      <c r="E155" s="23">
+      <c r="E155" s="17">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="U155" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V155" s="20" t="s">
+      <c r="U155" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V155" s="12" t="s">
         <v>499</v>
       </c>
-      <c r="W155" s="20" t="s">
+      <c r="W155" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="X155" s="20" t="s">
+      <c r="X155" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="156" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B156" s="16" t="s">
+      <c r="B156" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="C156" s="17">
+      <c r="C156" s="11">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D156" s="18">
+      <c r="D156" s="14">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E156" s="19">
+      <c r="E156" s="15">
         <v>1.2E-4</v>
       </c>
-      <c r="U156" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V156" s="16" t="s">
+      <c r="U156" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V156" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="W156" s="16" t="s">
+      <c r="W156" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="X156" s="16" t="s">
+      <c r="X156" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="157" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B157" s="20" t="s">
+      <c r="B157" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="C157" s="21">
+      <c r="C157" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D157" s="22">
+      <c r="D157" s="16">
         <v>17.600000000000001</v>
       </c>
-      <c r="E157" s="23">
+      <c r="E157" s="17">
         <v>9.6000000000000002E-4</v>
       </c>
-      <c r="U157" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V157" s="20" t="s">
+      <c r="U157" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V157" s="12" t="s">
         <v>501</v>
       </c>
-      <c r="W157" s="20" t="s">
+      <c r="W157" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="X157" s="20" t="s">
+      <c r="X157" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="158" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B158" s="16" t="s">
+      <c r="B158" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="C158" s="17">
+      <c r="C158" s="11">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D158" s="18">
+      <c r="D158" s="14">
         <v>23.1</v>
       </c>
-      <c r="E158" s="19">
+      <c r="E158" s="15">
         <v>1.2600000000000001E-3</v>
       </c>
-      <c r="U158" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V158" s="16" t="s">
+      <c r="U158" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V158" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="W158" s="16" t="s">
+      <c r="W158" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="X158" s="16" t="s">
+      <c r="X158" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="159" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B159" s="20" t="s">
+      <c r="B159" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C159" s="21">
+      <c r="C159" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D159" s="22">
+      <c r="D159" s="16">
         <v>3.3000000000000003</v>
       </c>
-      <c r="E159" s="23">
+      <c r="E159" s="17">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="U159" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V159" s="20" t="s">
+      <c r="U159" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V159" s="12" t="s">
         <v>503</v>
       </c>
-      <c r="W159" s="20" t="s">
+      <c r="W159" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="X159" s="20" t="s">
+      <c r="X159" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="160" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B160" s="16" t="s">
+      <c r="B160" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="C160" s="17">
+      <c r="C160" s="11">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D160" s="18">
+      <c r="D160" s="14">
         <v>17.600000000000001</v>
       </c>
-      <c r="E160" s="19">
+      <c r="E160" s="15">
         <v>9.6000000000000002E-4</v>
       </c>
-      <c r="U160" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V160" s="16" t="s">
+      <c r="U160" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V160" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="W160" s="16" t="s">
+      <c r="W160" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="X160" s="16" t="s">
+      <c r="X160" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="161" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B161" s="20" t="s">
+      <c r="B161" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="C161" s="21">
+      <c r="C161" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D161" s="22">
+      <c r="D161" s="16">
         <v>7.7000000000000011</v>
       </c>
-      <c r="E161" s="23">
+      <c r="E161" s="17">
         <v>4.2000000000000002E-4</v>
       </c>
-      <c r="U161" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V161" s="20" t="s">
+      <c r="U161" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V161" s="12" t="s">
         <v>505</v>
       </c>
-      <c r="W161" s="20" t="s">
+      <c r="W161" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="X161" s="20" t="s">
+      <c r="X161" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="162" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B162" s="16" t="s">
+      <c r="B162" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="C162" s="17">
+      <c r="C162" s="11">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D162" s="18">
+      <c r="D162" s="14">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E162" s="19">
+      <c r="E162" s="15">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="U162" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V162" s="16" t="s">
+      <c r="U162" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V162" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="W162" s="16" t="s">
+      <c r="W162" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="X162" s="16" t="s">
+      <c r="X162" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="163" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B163" s="20" t="s">
+      <c r="B163" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="C163" s="21">
+      <c r="C163" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D163" s="22">
+      <c r="D163" s="16">
         <v>11</v>
       </c>
-      <c r="E163" s="23">
+      <c r="E163" s="17">
         <v>6.0000000000000006E-4</v>
       </c>
-      <c r="U163" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V163" s="20" t="s">
+      <c r="U163" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V163" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="W163" s="20" t="s">
+      <c r="W163" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="X163" s="20" t="s">
+      <c r="X163" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="164" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B164" s="16" t="s">
+      <c r="B164" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="C164" s="17">
+      <c r="C164" s="11">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D164" s="18">
+      <c r="D164" s="14">
         <v>60.500000000000007</v>
       </c>
-      <c r="E164" s="19">
+      <c r="E164" s="15">
         <v>3.3E-3</v>
       </c>
-      <c r="U164" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V164" s="16" t="s">
+      <c r="U164" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V164" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="W164" s="16" t="s">
+      <c r="W164" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="X164" s="16" t="s">
+      <c r="X164" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="165" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B165" s="20" t="s">
+      <c r="B165" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C165" s="21">
+      <c r="C165" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D165" s="22">
+      <c r="D165" s="16">
         <v>31.900000000000002</v>
       </c>
-      <c r="E165" s="23">
+      <c r="E165" s="17">
         <v>1.74E-3</v>
       </c>
-      <c r="U165" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V165" s="20" t="s">
+      <c r="U165" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V165" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="W165" s="20" t="s">
+      <c r="W165" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="X165" s="20" t="s">
+      <c r="X165" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="166" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B166" s="16" t="s">
+      <c r="B166" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C166" s="17">
+      <c r="C166" s="11">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D166" s="18">
+      <c r="D166" s="14">
         <v>18.700000000000003</v>
       </c>
-      <c r="E166" s="19">
+      <c r="E166" s="15">
         <v>1.0200000000000001E-3</v>
       </c>
-      <c r="U166" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V166" s="16" t="s">
+      <c r="U166" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V166" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="W166" s="16" t="s">
+      <c r="W166" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="X166" s="16" t="s">
+      <c r="X166" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="167" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B167" s="20" t="s">
+      <c r="B167" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="C167" s="21">
+      <c r="C167" s="13">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D167" s="22">
+      <c r="D167" s="16">
         <v>35.200000000000003</v>
       </c>
-      <c r="E167" s="23">
+      <c r="E167" s="17">
         <v>1.92E-3</v>
       </c>
-      <c r="U167" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V167" s="20" t="s">
+      <c r="U167" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V167" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="W167" s="20" t="s">
+      <c r="W167" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="X167" s="20" t="s">
+      <c r="X167" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="168" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B168" s="16" t="s">
+      <c r="B168" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="C168" s="17">
+      <c r="C168" s="11">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D168" s="18">
+      <c r="D168" s="14">
         <v>23.1</v>
       </c>
-      <c r="E168" s="19">
+      <c r="E168" s="15">
         <v>1.2600000000000001E-3</v>
       </c>
-      <c r="U168" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V168" s="16" t="s">
+      <c r="U168" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V168" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="W168" s="16" t="s">
+      <c r="W168" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="X168" s="16" t="s">
+      <c r="X168" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="169" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B169" s="20" t="s">
+      <c r="B169" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="C169" s="21">
+      <c r="C169" s="13">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D169" s="22">
+      <c r="D169" s="16">
         <v>27.500000000000004</v>
       </c>
-      <c r="E169" s="23">
+      <c r="E169" s="17">
         <v>1.5E-3</v>
       </c>
-      <c r="U169" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V169" s="20" t="s">
+      <c r="U169" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V169" s="12" t="s">
         <v>513</v>
       </c>
-      <c r="W169" s="20" t="s">
+      <c r="W169" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="X169" s="20" t="s">
+      <c r="X169" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="170" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B170" s="16" t="s">
+      <c r="B170" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="C170" s="17">
+      <c r="C170" s="11">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D170" s="18">
+      <c r="D170" s="14">
         <v>46.2</v>
       </c>
-      <c r="E170" s="19">
+      <c r="E170" s="15">
         <v>2.5200000000000001E-3</v>
       </c>
-      <c r="U170" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V170" s="16" t="s">
+      <c r="U170" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V170" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="W170" s="16" t="s">
+      <c r="W170" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="X170" s="16" t="s">
+      <c r="X170" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="171" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B171" s="20" t="s">
+      <c r="B171" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="C171" s="21">
+      <c r="C171" s="13">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D171" s="22">
+      <c r="D171" s="16">
         <v>25.3</v>
       </c>
-      <c r="E171" s="23">
+      <c r="E171" s="17">
         <v>1.3799999999999999E-3</v>
       </c>
-      <c r="U171" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V171" s="20" t="s">
+      <c r="U171" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V171" s="12" t="s">
         <v>515</v>
       </c>
-      <c r="W171" s="20" t="s">
+      <c r="W171" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="X171" s="20" t="s">
+      <c r="X171" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="172" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B172" s="16" t="s">
+      <c r="B172" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="C172" s="17">
+      <c r="C172" s="11">
         <v>3.3962060000000003</v>
       </c>
-      <c r="D172" s="18">
+      <c r="D172" s="14">
         <v>47.300000000000004</v>
       </c>
-      <c r="E172" s="19">
+      <c r="E172" s="15">
         <v>2.5800000000000003E-3</v>
       </c>
-      <c r="U172" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V172" s="16" t="s">
+      <c r="U172" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V172" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="W172" s="16" t="s">
+      <c r="W172" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="X172" s="16" t="s">
+      <c r="X172" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="173" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B173" s="20" t="s">
+      <c r="B173" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="C173" s="21">
+      <c r="C173" s="13">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D173" s="22">
+      <c r="D173" s="16">
         <v>25.3</v>
       </c>
-      <c r="E173" s="23">
+      <c r="E173" s="17">
         <v>1.3799999999999999E-3</v>
       </c>
-      <c r="U173" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V173" s="20" t="s">
+      <c r="U173" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V173" s="12" t="s">
         <v>517</v>
       </c>
-      <c r="W173" s="20" t="s">
+      <c r="W173" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="X173" s="20" t="s">
+      <c r="X173" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="174" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B174" s="16" t="s">
+      <c r="B174" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C174" s="17">
+      <c r="C174" s="11">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D174" s="18">
+      <c r="D174" s="14">
         <v>12.100000000000001</v>
       </c>
-      <c r="E174" s="19">
+      <c r="E174" s="15">
         <v>6.6E-4</v>
       </c>
-      <c r="U174" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V174" s="16" t="s">
+      <c r="U174" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V174" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="W174" s="16" t="s">
+      <c r="W174" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="X174" s="16" t="s">
+      <c r="X174" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="175" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B175" s="20" t="s">
+      <c r="B175" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="C175" s="21">
+      <c r="C175" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D175" s="22">
+      <c r="D175" s="16">
         <v>9.9</v>
       </c>
-      <c r="E175" s="23">
+      <c r="E175" s="17">
         <v>5.4000000000000001E-4</v>
       </c>
-      <c r="U175" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V175" s="20" t="s">
+      <c r="U175" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V175" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="W175" s="20" t="s">
+      <c r="W175" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="X175" s="20" t="s">
+      <c r="X175" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="176" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B176" s="16" t="s">
+      <c r="B176" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="C176" s="17">
+      <c r="C176" s="11">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D176" s="18">
+      <c r="D176" s="14">
         <v>20.900000000000002</v>
       </c>
-      <c r="E176" s="19">
+      <c r="E176" s="15">
         <v>1.14E-3</v>
       </c>
-      <c r="U176" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V176" s="16" t="s">
+      <c r="U176" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V176" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="W176" s="16" t="s">
+      <c r="W176" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="X176" s="16" t="s">
+      <c r="X176" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="177" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B177" s="20" t="s">
+      <c r="B177" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="C177" s="21">
+      <c r="C177" s="13">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D177" s="22">
+      <c r="D177" s="16">
         <v>17.600000000000001</v>
       </c>
-      <c r="E177" s="23">
+      <c r="E177" s="17">
         <v>9.6000000000000002E-4</v>
       </c>
-      <c r="U177" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V177" s="20" t="s">
+      <c r="U177" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V177" s="12" t="s">
         <v>521</v>
       </c>
-      <c r="W177" s="20" t="s">
+      <c r="W177" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="X177" s="20" t="s">
+      <c r="X177" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="178" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B178" s="16" t="s">
+      <c r="B178" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="C178" s="17">
+      <c r="C178" s="11">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D178" s="18">
+      <c r="D178" s="14">
         <v>5.5</v>
       </c>
-      <c r="E178" s="19">
+      <c r="E178" s="15">
         <v>3.0000000000000003E-4</v>
       </c>
-      <c r="U178" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V178" s="16" t="s">
+      <c r="U178" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V178" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="W178" s="16" t="s">
+      <c r="W178" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="X178" s="16" t="s">
+      <c r="X178" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="179" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B179" s="20" t="s">
+      <c r="B179" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="C179" s="21">
+      <c r="C179" s="13">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D179" s="22">
+      <c r="D179" s="16">
         <v>26.400000000000002</v>
       </c>
-      <c r="E179" s="23">
+      <c r="E179" s="17">
         <v>1.4400000000000001E-3</v>
       </c>
-      <c r="U179" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V179" s="20" t="s">
+      <c r="U179" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V179" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="W179" s="20" t="s">
+      <c r="W179" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="X179" s="20" t="s">
+      <c r="X179" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="180" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B180" s="16" t="s">
+      <c r="B180" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C180" s="17">
+      <c r="C180" s="11">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D180" s="18">
+      <c r="D180" s="14">
         <v>25.3</v>
       </c>
-      <c r="E180" s="19">
+      <c r="E180" s="15">
         <v>1.3799999999999999E-3</v>
       </c>
-      <c r="U180" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V180" s="16" t="s">
+      <c r="U180" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V180" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="W180" s="16" t="s">
+      <c r="W180" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="X180" s="16" t="s">
+      <c r="X180" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="181" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B181" s="20" t="s">
+      <c r="B181" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="C181" s="21">
+      <c r="C181" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D181" s="22">
+      <c r="D181" s="16">
         <v>12.100000000000001</v>
       </c>
-      <c r="E181" s="23">
+      <c r="E181" s="17">
         <v>6.6E-4</v>
       </c>
-      <c r="U181" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V181" s="20" t="s">
+      <c r="U181" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V181" s="12" t="s">
         <v>525</v>
       </c>
-      <c r="W181" s="20" t="s">
+      <c r="W181" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="X181" s="20" t="s">
+      <c r="X181" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="182" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B182" s="16" t="s">
+      <c r="B182" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C182" s="17">
+      <c r="C182" s="11">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D182" s="18">
+      <c r="D182" s="14">
         <v>24.200000000000003</v>
       </c>
-      <c r="E182" s="19">
+      <c r="E182" s="15">
         <v>1.32E-3</v>
       </c>
-      <c r="U182" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V182" s="16" t="s">
+      <c r="U182" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V182" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="W182" s="16" t="s">
+      <c r="W182" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="X182" s="16" t="s">
+      <c r="X182" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="183" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B183" s="20" t="s">
+      <c r="B183" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="C183" s="21">
+      <c r="C183" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D183" s="22">
+      <c r="D183" s="16">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E183" s="23">
+      <c r="E183" s="17">
         <v>1.2E-4</v>
       </c>
-      <c r="U183" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V183" s="20" t="s">
+      <c r="U183" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V183" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="W183" s="20" t="s">
+      <c r="W183" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="X183" s="20" t="s">
+      <c r="X183" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="184" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B184" s="16" t="s">
+      <c r="B184" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="C184" s="17">
+      <c r="C184" s="11">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D184" s="18">
+      <c r="D184" s="14">
         <v>16.5</v>
       </c>
-      <c r="E184" s="19">
+      <c r="E184" s="15">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="U184" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V184" s="16" t="s">
+      <c r="U184" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V184" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="W184" s="16" t="s">
+      <c r="W184" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="X184" s="16" t="s">
+      <c r="X184" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="185" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B185" s="20" t="s">
+      <c r="B185" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C185" s="21">
+      <c r="C185" s="13">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D185" s="22">
+      <c r="D185" s="16">
         <v>16.5</v>
       </c>
-      <c r="E185" s="23">
+      <c r="E185" s="17">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="U185" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V185" s="20" t="s">
+      <c r="U185" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V185" s="12" t="s">
         <v>529</v>
       </c>
-      <c r="W185" s="20" t="s">
+      <c r="W185" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="X185" s="20" t="s">
+      <c r="X185" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="186" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B186" s="16" t="s">
+      <c r="B186" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="C186" s="17">
+      <c r="C186" s="11">
         <v>3.3962050000000001</v>
       </c>
-      <c r="D186" s="18">
+      <c r="D186" s="14">
         <v>16.5</v>
       </c>
-      <c r="E186" s="19">
+      <c r="E186" s="15">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="U186" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V186" s="16" t="s">
+      <c r="U186" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V186" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="W186" s="16" t="s">
+      <c r="W186" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="X186" s="16" t="s">
+      <c r="X186" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="187" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B187" s="20" t="s">
+      <c r="B187" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="C187" s="21">
+      <c r="C187" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D187" s="22">
+      <c r="D187" s="16">
         <v>9.9</v>
       </c>
-      <c r="E187" s="23">
+      <c r="E187" s="17">
         <v>5.4000000000000001E-4</v>
       </c>
-      <c r="U187" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V187" s="20" t="s">
+      <c r="U187" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V187" s="12" t="s">
         <v>531</v>
       </c>
-      <c r="W187" s="20" t="s">
+      <c r="W187" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="X187" s="20" t="s">
+      <c r="X187" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="188" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B188" s="16" t="s">
+      <c r="B188" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="C188" s="17">
+      <c r="C188" s="11">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D188" s="18">
+      <c r="D188" s="14">
         <v>18.700000000000003</v>
       </c>
-      <c r="E188" s="19">
+      <c r="E188" s="15">
         <v>1.0200000000000001E-3</v>
       </c>
-      <c r="U188" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V188" s="16" t="s">
+      <c r="U188" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V188" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="W188" s="16" t="s">
+      <c r="W188" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="X188" s="16" t="s">
+      <c r="X188" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="189" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B189" s="20" t="s">
+      <c r="B189" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="C189" s="21">
+      <c r="C189" s="13">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D189" s="22">
+      <c r="D189" s="16">
         <v>19.8</v>
       </c>
-      <c r="E189" s="23">
+      <c r="E189" s="17">
         <v>1.08E-3</v>
       </c>
-      <c r="U189" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V189" s="20" t="s">
+      <c r="U189" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V189" s="12" t="s">
         <v>533</v>
       </c>
-      <c r="W189" s="20" t="s">
+      <c r="W189" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="X189" s="20" t="s">
+      <c r="X189" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="190" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B190" s="16" t="s">
+      <c r="B190" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="C190" s="17">
+      <c r="C190" s="11">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D190" s="18">
+      <c r="D190" s="14">
         <v>26.400000000000002</v>
       </c>
-      <c r="E190" s="19">
+      <c r="E190" s="15">
         <v>1.4400000000000001E-3</v>
       </c>
-      <c r="U190" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V190" s="16" t="s">
+      <c r="U190" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V190" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="W190" s="16" t="s">
+      <c r="W190" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="X190" s="16" t="s">
+      <c r="X190" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="191" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B191" s="20" t="s">
+      <c r="B191" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="C191" s="21">
+      <c r="C191" s="13">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D191" s="22">
+      <c r="D191" s="16">
         <v>14.3</v>
       </c>
-      <c r="E191" s="23">
+      <c r="E191" s="17">
         <v>7.7999999999999999E-4</v>
       </c>
-      <c r="U191" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V191" s="20" t="s">
+      <c r="U191" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V191" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="W191" s="20" t="s">
+      <c r="W191" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="X191" s="20" t="s">
+      <c r="X191" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="192" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B192" s="16" t="s">
+      <c r="B192" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C192" s="17">
+      <c r="C192" s="11">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D192" s="18">
+      <c r="D192" s="14">
         <v>48.400000000000006</v>
       </c>
-      <c r="E192" s="19">
+      <c r="E192" s="15">
         <v>2.64E-3</v>
       </c>
-      <c r="U192" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V192" s="16" t="s">
+      <c r="U192" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V192" s="10" t="s">
         <v>536</v>
       </c>
-      <c r="W192" s="16" t="s">
+      <c r="W192" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="X192" s="16" t="s">
+      <c r="X192" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="193" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B193" s="20" t="s">
+      <c r="B193" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="C193" s="21">
+      <c r="C193" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D193" s="22">
+      <c r="D193" s="16">
         <v>3.3000000000000003</v>
       </c>
-      <c r="E193" s="23">
+      <c r="E193" s="17">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="U193" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V193" s="20" t="s">
+      <c r="U193" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V193" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="W193" s="20" t="s">
+      <c r="W193" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="X193" s="20" t="s">
+      <c r="X193" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="194" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B194" s="16" t="s">
+      <c r="B194" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="C194" s="17">
+      <c r="C194" s="11">
         <v>3.3962060000000003</v>
       </c>
-      <c r="D194" s="18">
+      <c r="D194" s="14">
         <v>15.400000000000002</v>
       </c>
-      <c r="E194" s="19">
+      <c r="E194" s="15">
         <v>8.4000000000000003E-4</v>
       </c>
-      <c r="U194" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V194" s="16" t="s">
+      <c r="U194" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V194" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="W194" s="16" t="s">
+      <c r="W194" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="X194" s="16" t="s">
+      <c r="X194" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="195" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B195" s="20" t="s">
+      <c r="B195" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="C195" s="21">
+      <c r="C195" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D195" s="22">
+      <c r="D195" s="16">
         <v>24.200000000000003</v>
       </c>
-      <c r="E195" s="23">
+      <c r="E195" s="17">
         <v>1.32E-3</v>
       </c>
-      <c r="U195" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V195" s="20" t="s">
+      <c r="U195" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V195" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="W195" s="20" t="s">
+      <c r="W195" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="X195" s="20" t="s">
+      <c r="X195" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="196" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B196" s="16" t="s">
+      <c r="B196" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="C196" s="17">
+      <c r="C196" s="11">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D196" s="18">
+      <c r="D196" s="14">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E196" s="19">
+      <c r="E196" s="15">
         <v>2.4000000000000001E-4</v>
       </c>
-      <c r="U196" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V196" s="16" t="s">
+      <c r="U196" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V196" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="W196" s="16" t="s">
+      <c r="W196" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="X196" s="16" t="s">
+      <c r="X196" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="197" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B197" s="20" t="s">
+      <c r="B197" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="C197" s="21">
+      <c r="C197" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D197" s="22">
+      <c r="D197" s="16">
         <v>19.8</v>
       </c>
-      <c r="E197" s="23">
+      <c r="E197" s="17">
         <v>1.08E-3</v>
       </c>
-      <c r="U197" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V197" s="20" t="s">
+      <c r="U197" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V197" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="W197" s="20" t="s">
+      <c r="W197" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="X197" s="20" t="s">
+      <c r="X197" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="198" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B198" s="16" t="s">
+      <c r="B198" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C198" s="17">
+      <c r="C198" s="11">
         <v>1.005455</v>
       </c>
-      <c r="D198" s="18">
+      <c r="D198" s="14">
         <v>14.3</v>
       </c>
-      <c r="E198" s="19">
+      <c r="E198" s="15">
         <v>7.7999999999999999E-4</v>
       </c>
-      <c r="U198" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V198" s="16" t="s">
+      <c r="U198" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V198" s="10" t="s">
         <v>542</v>
       </c>
-      <c r="W198" s="16" t="s">
+      <c r="W198" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="X198" s="16" t="s">
+      <c r="X198" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="199" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B199" s="20" t="s">
+      <c r="B199" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="C199" s="21">
+      <c r="C199" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D199" s="22">
+      <c r="D199" s="16">
         <v>3.3000000000000003</v>
       </c>
-      <c r="E199" s="23">
+      <c r="E199" s="17">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="U199" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V199" s="20" t="s">
+      <c r="U199" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V199" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="W199" s="20" t="s">
+      <c r="W199" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="X199" s="20" t="s">
+      <c r="X199" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="200" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B200" s="16" t="s">
+      <c r="B200" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="C200" s="17">
+      <c r="C200" s="11">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D200" s="18">
+      <c r="D200" s="14">
         <v>12.100000000000001</v>
       </c>
-      <c r="E200" s="19">
+      <c r="E200" s="15">
         <v>6.6E-4</v>
       </c>
-      <c r="U200" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V200" s="16" t="s">
+      <c r="U200" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V200" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="W200" s="16" t="s">
+      <c r="W200" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="X200" s="16" t="s">
+      <c r="X200" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="201" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B201" s="20" t="s">
+      <c r="B201" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="C201" s="21">
+      <c r="C201" s="13">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D201" s="22">
+      <c r="D201" s="16">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E201" s="23">
+      <c r="E201" s="17">
         <v>1.2E-4</v>
       </c>
-      <c r="U201" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V201" s="20" t="s">
+      <c r="U201" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V201" s="12" t="s">
         <v>545</v>
       </c>
-      <c r="W201" s="20" t="s">
+      <c r="W201" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="X201" s="20" t="s">
+      <c r="X201" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="202" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B202" s="16" t="s">
+      <c r="B202" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="C202" s="17">
+      <c r="C202" s="11">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D202" s="18">
+      <c r="D202" s="14">
         <v>12.100000000000001</v>
       </c>
-      <c r="E202" s="19">
+      <c r="E202" s="15">
         <v>6.6E-4</v>
       </c>
-      <c r="U202" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V202" s="16" t="s">
+      <c r="U202" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V202" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="W202" s="16" t="s">
+      <c r="W202" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="X202" s="16" t="s">
+      <c r="X202" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="203" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B203" s="20" t="s">
+      <c r="B203" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="C203" s="21">
+      <c r="C203" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D203" s="22">
+      <c r="D203" s="16">
         <v>40.700000000000003</v>
       </c>
-      <c r="E203" s="23">
+      <c r="E203" s="17">
         <v>2.2200000000000002E-3</v>
       </c>
-      <c r="U203" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V203" s="20" t="s">
+      <c r="U203" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V203" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="W203" s="20" t="s">
+      <c r="W203" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="X203" s="20" t="s">
+      <c r="X203" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="204" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B204" s="16" t="s">
+      <c r="B204" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="C204" s="17">
+      <c r="C204" s="11">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D204" s="18">
+      <c r="D204" s="14">
         <v>25.3</v>
       </c>
-      <c r="E204" s="19">
+      <c r="E204" s="15">
         <v>1.3799999999999999E-3</v>
       </c>
-      <c r="U204" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V204" s="16" t="s">
+      <c r="U204" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V204" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="W204" s="16" t="s">
+      <c r="W204" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="X204" s="16" t="s">
+      <c r="X204" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="205" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B205" s="20" t="s">
+      <c r="B205" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="C205" s="21">
+      <c r="C205" s="13">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D205" s="22">
+      <c r="D205" s="16">
         <v>19.8</v>
       </c>
-      <c r="E205" s="23">
+      <c r="E205" s="17">
         <v>1.08E-3</v>
       </c>
-      <c r="U205" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V205" s="20" t="s">
+      <c r="U205" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V205" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="W205" s="20" t="s">
+      <c r="W205" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="X205" s="20" t="s">
+      <c r="X205" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="206" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B206" s="16" t="s">
+      <c r="B206" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="C206" s="17">
+      <c r="C206" s="11">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D206" s="18">
+      <c r="D206" s="14">
         <v>116.60000000000001</v>
       </c>
-      <c r="E206" s="19">
+      <c r="E206" s="15">
         <v>6.3600000000000002E-3</v>
       </c>
-      <c r="U206" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V206" s="16" t="s">
+      <c r="U206" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V206" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="W206" s="16" t="s">
+      <c r="W206" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="X206" s="16" t="s">
+      <c r="X206" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="207" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B207" s="20" t="s">
+      <c r="B207" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="C207" s="21">
+      <c r="C207" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D207" s="22">
+      <c r="D207" s="16">
         <v>3.3000000000000003</v>
       </c>
-      <c r="E207" s="23">
+      <c r="E207" s="17">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="U207" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V207" s="20" t="s">
+      <c r="U207" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V207" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="W207" s="20" t="s">
+      <c r="W207" s="12" t="s">
         <v>476</v>
       </c>
-      <c r="X207" s="20" t="s">
+      <c r="X207" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="208" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B208" s="16" t="s">
+      <c r="B208" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="C208" s="17">
+      <c r="C208" s="11">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D208" s="18">
+      <c r="D208" s="14">
         <v>22</v>
       </c>
-      <c r="E208" s="19">
+      <c r="E208" s="15">
         <v>1.2000000000000001E-3</v>
       </c>
-      <c r="U208" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V208" s="16" t="s">
+      <c r="U208" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V208" s="10" t="s">
         <v>552</v>
       </c>
-      <c r="W208" s="16" t="s">
+      <c r="W208" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="X208" s="16" t="s">
+      <c r="X208" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="209" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B209" s="20" t="s">
+      <c r="B209" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="C209" s="21">
+      <c r="C209" s="13">
         <v>3.3962050000000001</v>
       </c>
-      <c r="D209" s="22">
+      <c r="D209" s="16">
         <v>11</v>
       </c>
-      <c r="E209" s="23">
+      <c r="E209" s="17">
         <v>6.0000000000000006E-4</v>
       </c>
-      <c r="U209" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V209" s="20" t="s">
+      <c r="U209" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V209" s="12" t="s">
         <v>553</v>
       </c>
-      <c r="W209" s="20" t="s">
+      <c r="W209" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="X209" s="20" t="s">
+      <c r="X209" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="210" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B210" s="16" t="s">
+      <c r="B210" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="C210" s="17">
+      <c r="C210" s="11">
         <v>0.49155599999999999</v>
       </c>
-      <c r="D210" s="18">
+      <c r="D210" s="14">
         <v>20.900000000000002</v>
       </c>
-      <c r="E210" s="19">
+      <c r="E210" s="15">
         <v>1.14E-3</v>
       </c>
-      <c r="U210" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V210" s="16" t="s">
+      <c r="U210" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V210" s="10" t="s">
         <v>554</v>
       </c>
-      <c r="W210" s="16" t="s">
+      <c r="W210" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="X210" s="16" t="s">
+      <c r="X210" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="211" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B211" s="20" t="s">
+      <c r="B211" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="C211" s="21">
+      <c r="C211" s="13">
         <v>0.98311199999999999</v>
       </c>
-      <c r="D211" s="22">
+      <c r="D211" s="16">
         <v>22</v>
       </c>
-      <c r="E211" s="23">
+      <c r="E211" s="17">
         <v>1.2000000000000001E-3</v>
       </c>
-      <c r="U211" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V211" s="20" t="s">
+      <c r="U211" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V211" s="12" t="s">
         <v>555</v>
       </c>
-      <c r="W211" s="20" t="s">
+      <c r="W211" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="X211" s="20" t="s">
+      <c r="X211" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="212" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B212" s="16" t="s">
+      <c r="B212" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="C212" s="17">
+      <c r="C212" s="11">
         <v>3.3962050000000001</v>
       </c>
-      <c r="D212" s="18">
+      <c r="D212" s="14">
         <v>44</v>
       </c>
-      <c r="E212" s="19">
+      <c r="E212" s="15">
         <v>2.4000000000000002E-3</v>
       </c>
-      <c r="U212" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V212" s="16" t="s">
+      <c r="U212" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V212" s="10" t="s">
         <v>556</v>
       </c>
-      <c r="W212" s="16" t="s">
+      <c r="W212" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="X212" s="16" t="s">
+      <c r="X212" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="213" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="B213" s="20" t="s">
+      <c r="B213" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="C213" s="21">
+      <c r="C213" s="13">
         <v>1.6981030000000001</v>
       </c>
-      <c r="D213" s="22">
+      <c r="D213" s="16">
         <v>20.900000000000002</v>
       </c>
-      <c r="E213" s="23">
+      <c r="E213" s="17">
         <v>1.14E-3</v>
       </c>
-      <c r="U213" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V213" s="20" t="s">
+      <c r="U213" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V213" s="12" t="s">
         <v>557</v>
       </c>
-      <c r="W213" s="20" t="s">
+      <c r="W213" s="12" t="s">
         <v>482</v>
       </c>
-      <c r="X213" s="20" t="s">
+      <c r="X213" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="214" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="U214" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V214" s="16" t="s">
+      <c r="U214" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V214" s="10" t="s">
         <v>558</v>
       </c>
-      <c r="W214" s="16" t="s">
+      <c r="W214" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="X214" s="16" t="s">
+      <c r="X214" s="10" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="215" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="U215" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="V215" s="20" t="s">
+      <c r="U215" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="V215" s="12" t="s">
         <v>559</v>
       </c>
-      <c r="W215" s="20" t="s">
+      <c r="W215" s="12" t="s">
         <v>484</v>
       </c>
-      <c r="X215" s="20" t="s">
+      <c r="X215" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="216" spans="2:24" x14ac:dyDescent="0.45">
-      <c r="U216" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="V216" s="16" t="s">
+      <c r="U216" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="V216" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="W216" s="16" t="s">
+      <c r="W216" s="10" t="